--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF8C94-214E-42A7-B4BC-E37C9A853059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{06EF8C94-214E-42A7-B4BC-E37C9A853059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0B904C-0D09-4D47-90C4-DAA82DF731AC}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="50">
   <si>
     <t>ClassNames</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>3CLC</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>3CZHC</t>
+  </si>
+  <si>
+    <t>3CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathématiques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artistique </t>
   </si>
 </sst>
 </file>
@@ -336,7 +357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,21 +655,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:AM251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI84" sqref="AI84"/>
+    <sheetView tabSelected="1" topLeftCell="U82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ126" sqref="AJ126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.390625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -746,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="11"/>
       <c r="C2" s="8"/>
@@ -784,7 +805,7 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -862,7 +883,7 @@
       <c r="AL3" s="5"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9" t="s">
@@ -920,7 +941,7 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="6"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
@@ -978,7 +999,7 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="6"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -1040,7 +1061,7 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
@@ -1104,7 +1125,7 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
@@ -1170,7 +1191,7 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -1228,7 +1249,7 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
@@ -1288,7 +1309,7 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
@@ -1348,7 +1369,7 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
@@ -1406,7 +1427,7 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -1456,7 +1477,7 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="6"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -1516,7 +1537,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
@@ -1570,7 +1591,7 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -1620,7 +1641,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -1682,7 +1703,7 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="6"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -1738,7 +1759,7 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="6"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -1794,7 +1815,7 @@
       <c r="AL19" s="5"/>
       <c r="AM19" s="6"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -1850,7 +1871,7 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="6"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -1908,7 +1929,7 @@
       <c r="AL21" s="5"/>
       <c r="AM21" s="6"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -1968,7 +1989,7 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="6"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -2022,7 +2043,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="6"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -2072,7 +2093,7 @@
       <c r="AL24" s="5"/>
       <c r="AM24" s="6"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -2130,7 +2151,7 @@
       <c r="AL25" s="5"/>
       <c r="AM25" s="6"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="8"/>
@@ -2184,7 +2205,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="6"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -2240,7 +2261,7 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="6"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
@@ -2290,7 +2311,7 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="6"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -2354,7 +2375,7 @@
       <c r="AL29" s="5"/>
       <c r="AM29" s="6"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="11"/>
       <c r="C30" s="8"/>
@@ -2402,7 +2423,7 @@
       <c r="AL30" s="5"/>
       <c r="AM30" s="6"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
@@ -2464,7 +2485,7 @@
       <c r="AL31" s="5"/>
       <c r="AM31" s="6"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="8"/>
@@ -2518,7 +2539,7 @@
       <c r="AL32" s="5"/>
       <c r="AM32" s="6"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="11"/>
       <c r="C33" s="8"/>
@@ -2576,7 +2597,7 @@
       <c r="AL33" s="5"/>
       <c r="AM33" s="6"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="11"/>
       <c r="C34" s="8"/>
@@ -2630,7 +2651,7 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="6"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -2684,7 +2705,7 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="6"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
@@ -2735,7 +2756,7 @@
       <c r="AL36" s="5"/>
       <c r="AM36" s="6"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
@@ -2784,7 +2805,7 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="6"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
@@ -2833,7 +2854,7 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="6"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
@@ -2884,7 +2905,7 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="6"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
@@ -2929,7 +2950,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="6"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
@@ -2974,7 +2995,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="6"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -3019,7 +3040,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="6"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
@@ -3068,7 +3089,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="6"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
@@ -3105,7 +3126,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="6"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -3136,7 +3157,7 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="6"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -3158,7 +3179,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="6"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="11"/>
       <c r="C47" s="8"/>
@@ -3178,7 +3199,7 @@
       <c r="AL47" s="5"/>
       <c r="AM47" s="6"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="11"/>
       <c r="C48" s="8"/>
@@ -3198,7 +3219,7 @@
       <c r="AL48" s="5"/>
       <c r="AM48" s="6"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="11"/>
       <c r="C49" s="8"/>
@@ -3218,7 +3239,7 @@
       <c r="AL49" s="5"/>
       <c r="AM49" s="6"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -3238,7 +3259,7 @@
       <c r="AL50" s="5"/>
       <c r="AM50" s="6"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="11"/>
       <c r="C51" s="8"/>
@@ -3258,7 +3279,7 @@
       <c r="AL51" s="5"/>
       <c r="AM51" s="6"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="11"/>
       <c r="C52" s="8"/>
@@ -3280,7 +3301,7 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="6"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -3300,7 +3321,7 @@
       <c r="AL53" s="5"/>
       <c r="AM53" s="6"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="11"/>
       <c r="C54" s="8"/>
@@ -3320,7 +3341,7 @@
       <c r="AL54" s="5"/>
       <c r="AM54" s="6"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="11"/>
       <c r="C55" s="8"/>
@@ -3340,7 +3361,7 @@
       <c r="AL55" s="5"/>
       <c r="AM55" s="6"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="8"/>
@@ -3362,7 +3383,7 @@
       <c r="AL56" s="5"/>
       <c r="AM56" s="6"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="11"/>
       <c r="C57" s="8"/>
@@ -3378,7 +3399,7 @@
       <c r="AL57" s="5"/>
       <c r="AM57" s="6"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
@@ -3402,7 +3423,7 @@
       <c r="AL58" s="5"/>
       <c r="AM58" s="6"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="11"/>
       <c r="C59" s="8"/>
@@ -3424,7 +3445,7 @@
       <c r="AL59" s="5"/>
       <c r="AM59" s="6"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
@@ -3444,7 +3465,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="6"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
@@ -3464,7 +3485,7 @@
       <c r="AL61" s="5"/>
       <c r="AM61" s="6"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
@@ -3484,7 +3505,7 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="6"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="11"/>
       <c r="C63" s="8"/>
@@ -3504,7 +3525,7 @@
       <c r="AL63" s="5"/>
       <c r="AM63" s="6"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
@@ -3524,7 +3545,7 @@
       <c r="AL64" s="5"/>
       <c r="AM64" s="6"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="11"/>
       <c r="C65" s="8"/>
@@ -3546,7 +3567,7 @@
       <c r="AL65" s="5"/>
       <c r="AM65" s="6"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="11"/>
       <c r="C66" s="8"/>
@@ -3566,7 +3587,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="6"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="11"/>
       <c r="C67" s="8"/>
@@ -3586,7 +3607,7 @@
       <c r="AL67" s="5"/>
       <c r="AM67" s="6"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="11"/>
       <c r="C68" s="8"/>
@@ -3606,7 +3627,7 @@
       <c r="AL68" s="5"/>
       <c r="AM68" s="6"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="11"/>
       <c r="C69" s="8"/>
@@ -3628,7 +3649,7 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="6"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
@@ -3644,7 +3665,7 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="6"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
@@ -3668,7 +3689,7 @@
       <c r="AL71" s="5"/>
       <c r="AM71" s="6"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="11"/>
       <c r="C72" s="8"/>
@@ -3690,7 +3711,7 @@
       <c r="AL72" s="5"/>
       <c r="AM72" s="6"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="11"/>
       <c r="C73" s="8"/>
@@ -3710,7 +3731,7 @@
       <c r="AL73" s="5"/>
       <c r="AM73" s="6"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="11"/>
       <c r="C74" s="8"/>
@@ -3730,7 +3751,7 @@
       <c r="AL74" s="5"/>
       <c r="AM74" s="6"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="11"/>
       <c r="C75" s="8"/>
@@ -3750,7 +3771,7 @@
       <c r="AL75" s="5"/>
       <c r="AM75" s="6"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="11"/>
       <c r="C76" s="8"/>
@@ -3770,7 +3791,7 @@
       <c r="AL76" s="5"/>
       <c r="AM76" s="6"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="11"/>
       <c r="C77" s="8"/>
@@ -3792,7 +3813,7 @@
       <c r="AL77" s="5"/>
       <c r="AM77" s="6"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="11"/>
       <c r="C78" s="8"/>
@@ -3812,7 +3833,7 @@
       <c r="AL78" s="5"/>
       <c r="AM78" s="6"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
@@ -3832,7 +3853,7 @@
       <c r="AL79" s="5"/>
       <c r="AM79" s="6"/>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="11"/>
       <c r="C80" s="8"/>
@@ -3852,7 +3873,7 @@
       <c r="AL80" s="5"/>
       <c r="AM80" s="6"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
@@ -3872,7 +3893,7 @@
       <c r="AL81" s="5"/>
       <c r="AM81" s="6"/>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
@@ -3894,7 +3915,7 @@
       <c r="AL82" s="5"/>
       <c r="AM82" s="6"/>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="11"/>
       <c r="C83" s="8"/>
@@ -3910,7 +3931,7 @@
       <c r="AL83" s="5"/>
       <c r="AM83" s="6"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
@@ -3922,13 +3943,19 @@
       <c r="AH84" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="8"/>
-      <c r="AJ84" s="14"/>
-      <c r="AK84" s="13"/>
+      <c r="AI84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ84" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK84" s="13">
+        <v>4</v>
+      </c>
       <c r="AL84" s="5"/>
       <c r="AM84" s="6"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
@@ -3938,13 +3965,19 @@
       <c r="G85" s="6"/>
       <c r="AG85" s="4"/>
       <c r="AH85" s="11"/>
-      <c r="AI85" s="8"/>
-      <c r="AJ85" s="14"/>
-      <c r="AK85" s="13"/>
+      <c r="AI85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ85" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK85" s="13">
+        <v>3</v>
+      </c>
       <c r="AL85" s="5"/>
       <c r="AM85" s="6"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="11"/>
       <c r="C86" s="8"/>
@@ -3954,13 +3987,17 @@
       <c r="G86" s="6"/>
       <c r="AG86" s="4"/>
       <c r="AH86" s="11"/>
-      <c r="AI86" s="8"/>
-      <c r="AJ86" s="14"/>
+      <c r="AI86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ86" s="14">
+        <v>3</v>
+      </c>
       <c r="AK86" s="13"/>
       <c r="AL86" s="5"/>
       <c r="AM86" s="6"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="11"/>
       <c r="C87" s="8"/>
@@ -3970,13 +4007,17 @@
       <c r="G87" s="6"/>
       <c r="AG87" s="4"/>
       <c r="AH87" s="11"/>
-      <c r="AI87" s="8"/>
-      <c r="AJ87" s="14"/>
+      <c r="AI87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ87" s="14">
+        <v>4</v>
+      </c>
       <c r="AK87" s="13"/>
       <c r="AL87" s="5"/>
       <c r="AM87" s="6"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="11"/>
       <c r="C88" s="8"/>
@@ -3986,13 +4027,17 @@
       <c r="G88" s="6"/>
       <c r="AG88" s="4"/>
       <c r="AH88" s="11"/>
-      <c r="AI88" s="8"/>
-      <c r="AJ88" s="14"/>
+      <c r="AI88" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ88" s="14">
+        <v>3</v>
+      </c>
       <c r="AK88" s="13"/>
       <c r="AL88" s="5"/>
       <c r="AM88" s="6"/>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="11"/>
       <c r="C89" s="8"/>
@@ -4002,13 +4047,17 @@
       <c r="G89" s="6"/>
       <c r="AG89" s="4"/>
       <c r="AH89" s="11"/>
-      <c r="AI89" s="8"/>
-      <c r="AJ89" s="14"/>
+      <c r="AI89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ89" s="14">
+        <v>5</v>
+      </c>
       <c r="AK89" s="13"/>
       <c r="AL89" s="5"/>
       <c r="AM89" s="6"/>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="11"/>
       <c r="C90" s="8"/>
@@ -4018,13 +4067,17 @@
       <c r="G90" s="6"/>
       <c r="AG90" s="4"/>
       <c r="AH90" s="11"/>
-      <c r="AI90" s="8"/>
-      <c r="AJ90" s="14"/>
+      <c r="AI90" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ90" s="14">
+        <v>2.5</v>
+      </c>
       <c r="AK90" s="13"/>
       <c r="AL90" s="5"/>
       <c r="AM90" s="6"/>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="11"/>
       <c r="C91" s="8"/>
@@ -4034,13 +4087,17 @@
       <c r="G91" s="6"/>
       <c r="AG91" s="4"/>
       <c r="AH91" s="11"/>
-      <c r="AI91" s="8"/>
-      <c r="AJ91" s="14"/>
+      <c r="AI91" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ91" s="14">
+        <v>2.5</v>
+      </c>
       <c r="AK91" s="13"/>
       <c r="AL91" s="5"/>
       <c r="AM91" s="6"/>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="11"/>
       <c r="C92" s="8"/>
@@ -4050,13 +4107,19 @@
       <c r="G92" s="6"/>
       <c r="AG92" s="4"/>
       <c r="AH92" s="11"/>
-      <c r="AI92" s="8"/>
-      <c r="AJ92" s="14"/>
-      <c r="AK92" s="13"/>
+      <c r="AI92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ92" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK92" s="13">
+        <v>2</v>
+      </c>
       <c r="AL92" s="5"/>
       <c r="AM92" s="6"/>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="11"/>
       <c r="C93" s="8"/>
@@ -4066,13 +4129,17 @@
       <c r="G93" s="6"/>
       <c r="AG93" s="4"/>
       <c r="AH93" s="11"/>
-      <c r="AI93" s="8"/>
-      <c r="AJ93" s="14"/>
+      <c r="AI93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ93" s="14">
+        <v>1</v>
+      </c>
       <c r="AK93" s="13"/>
       <c r="AL93" s="5"/>
       <c r="AM93" s="6"/>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
@@ -4082,13 +4149,17 @@
       <c r="G94" s="6"/>
       <c r="AG94" s="4"/>
       <c r="AH94" s="11"/>
-      <c r="AI94" s="8"/>
-      <c r="AJ94" s="14"/>
+      <c r="AI94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ94" s="14">
+        <v>1</v>
+      </c>
       <c r="AK94" s="13"/>
       <c r="AL94" s="5"/>
       <c r="AM94" s="6"/>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="11"/>
       <c r="C95" s="8"/>
@@ -4098,13 +4169,19 @@
       <c r="G95" s="6"/>
       <c r="AG95" s="4"/>
       <c r="AH95" s="11"/>
-      <c r="AI95" s="8"/>
-      <c r="AJ95" s="14"/>
-      <c r="AK95" s="13"/>
+      <c r="AI95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ95" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK95" s="13">
+        <v>1</v>
+      </c>
       <c r="AL95" s="5"/>
       <c r="AM95" s="6"/>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="11"/>
       <c r="C96" s="8"/>
@@ -4120,7 +4197,7 @@
       <c r="AL96" s="5"/>
       <c r="AM96" s="6"/>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
@@ -4129,14 +4206,22 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="AG97" s="4"/>
-      <c r="AH97" s="11"/>
-      <c r="AI97" s="8"/>
-      <c r="AJ97" s="14"/>
-      <c r="AK97" s="13"/>
+      <c r="AH97" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI97" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ97" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK97" s="13">
+        <v>4</v>
+      </c>
       <c r="AL97" s="5"/>
       <c r="AM97" s="6"/>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="11"/>
       <c r="C98" s="8"/>
@@ -4146,13 +4231,19 @@
       <c r="G98" s="6"/>
       <c r="AG98" s="4"/>
       <c r="AH98" s="11"/>
-      <c r="AI98" s="8"/>
-      <c r="AJ98" s="14"/>
-      <c r="AK98" s="13"/>
+      <c r="AI98" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ98" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK98" s="13">
+        <v>3</v>
+      </c>
       <c r="AL98" s="5"/>
       <c r="AM98" s="6"/>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="11"/>
       <c r="C99" s="8"/>
@@ -4162,13 +4253,17 @@
       <c r="G99" s="6"/>
       <c r="AG99" s="4"/>
       <c r="AH99" s="11"/>
-      <c r="AI99" s="8"/>
-      <c r="AJ99" s="14"/>
+      <c r="AI99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ99" s="14">
+        <v>3</v>
+      </c>
       <c r="AK99" s="13"/>
       <c r="AL99" s="5"/>
       <c r="AM99" s="6"/>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="11"/>
       <c r="C100" s="8"/>
@@ -4178,13 +4273,17 @@
       <c r="G100" s="6"/>
       <c r="AG100" s="4"/>
       <c r="AH100" s="11"/>
-      <c r="AI100" s="8"/>
-      <c r="AJ100" s="14"/>
+      <c r="AI100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ100" s="14">
+        <v>4</v>
+      </c>
       <c r="AK100" s="13"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="6"/>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
@@ -4194,13 +4293,17 @@
       <c r="G101" s="6"/>
       <c r="AG101" s="4"/>
       <c r="AH101" s="11"/>
-      <c r="AI101" s="8"/>
-      <c r="AJ101" s="14"/>
+      <c r="AI101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ101" s="14">
+        <v>3</v>
+      </c>
       <c r="AK101" s="13"/>
       <c r="AL101" s="5"/>
       <c r="AM101" s="6"/>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="11"/>
       <c r="C102" s="8"/>
@@ -4210,13 +4313,17 @@
       <c r="G102" s="6"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="11"/>
-      <c r="AI102" s="8"/>
-      <c r="AJ102" s="14"/>
+      <c r="AI102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ102" s="14">
+        <v>5</v>
+      </c>
       <c r="AK102" s="13"/>
       <c r="AL102" s="5"/>
       <c r="AM102" s="6"/>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
@@ -4224,8 +4331,19 @@
       <c r="E103" s="13"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG103" s="4"/>
+      <c r="AH103" s="11"/>
+      <c r="AI103" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ103" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK103" s="13"/>
+      <c r="AL103" s="5"/>
+      <c r="AM103" s="6"/>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="11"/>
       <c r="C104" s="8"/>
@@ -4233,8 +4351,19 @@
       <c r="E104" s="13"/>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG104" s="4"/>
+      <c r="AH104" s="11"/>
+      <c r="AI104" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ104" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK104" s="13"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="6"/>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="11"/>
       <c r="C105" s="8"/>
@@ -4242,8 +4371,21 @@
       <c r="E105" s="13"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG105" s="4"/>
+      <c r="AH105" s="11"/>
+      <c r="AI105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ105" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK105" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL105" s="5"/>
+      <c r="AM105" s="6"/>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="11"/>
       <c r="C106" s="8"/>
@@ -4251,8 +4393,19 @@
       <c r="E106" s="13"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG106" s="4"/>
+      <c r="AH106" s="11"/>
+      <c r="AI106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ106" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK106" s="13"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="6"/>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
@@ -4260,8 +4413,19 @@
       <c r="E107" s="13"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG107" s="4"/>
+      <c r="AH107" s="11"/>
+      <c r="AI107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ107" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK107" s="13"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="6"/>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="11"/>
       <c r="C108" s="8"/>
@@ -4269,8 +4433,21 @@
       <c r="E108" s="13"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG108" s="4"/>
+      <c r="AH108" s="11"/>
+      <c r="AI108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ108" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK108" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL108" s="5"/>
+      <c r="AM108" s="6"/>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="11"/>
       <c r="C109" s="8"/>
@@ -4278,8 +4455,15 @@
       <c r="E109" s="13"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG109" s="4"/>
+      <c r="AH109" s="11"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="14"/>
+      <c r="AK109" s="13"/>
+      <c r="AL109" s="5"/>
+      <c r="AM109" s="6"/>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
@@ -4287,8 +4471,23 @@
       <c r="E110" s="13"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG110" s="4"/>
+      <c r="AH110" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ110" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK110" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL110" s="5"/>
+      <c r="AM110" s="6"/>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -4296,8 +4495,21 @@
       <c r="E111" s="13"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG111" s="4"/>
+      <c r="AH111" s="11"/>
+      <c r="AI111" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ111" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK111" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL111" s="5"/>
+      <c r="AM111" s="6"/>
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="11"/>
       <c r="C112" s="8"/>
@@ -4305,8 +4517,19 @@
       <c r="E112" s="13"/>
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG112" s="4"/>
+      <c r="AH112" s="11"/>
+      <c r="AI112" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ112" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK112" s="13"/>
+      <c r="AL112" s="5"/>
+      <c r="AM112" s="6"/>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
@@ -4314,8 +4537,19 @@
       <c r="E113" s="13"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG113" s="4"/>
+      <c r="AH113" s="11"/>
+      <c r="AI113" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ113" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK113" s="13"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="6"/>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
@@ -4323,8 +4557,19 @@
       <c r="E114" s="13"/>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG114" s="4"/>
+      <c r="AH114" s="11"/>
+      <c r="AI114" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ114" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK114" s="13"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="6"/>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="11"/>
       <c r="C115" s="8"/>
@@ -4332,8 +4577,19 @@
       <c r="E115" s="13"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG115" s="4"/>
+      <c r="AH115" s="11"/>
+      <c r="AI115" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ115" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK115" s="13"/>
+      <c r="AL115" s="5"/>
+      <c r="AM115" s="6"/>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="11"/>
       <c r="C116" s="8"/>
@@ -4341,8 +4597,19 @@
       <c r="E116" s="13"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG116" s="4"/>
+      <c r="AH116" s="11"/>
+      <c r="AI116" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ116" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK116" s="13"/>
+      <c r="AL116" s="5"/>
+      <c r="AM116" s="6"/>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="11"/>
       <c r="C117" s="8"/>
@@ -4350,8 +4617,21 @@
       <c r="E117" s="13"/>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG117" s="4"/>
+      <c r="AH117" s="11"/>
+      <c r="AI117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ117" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK117" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL117" s="5"/>
+      <c r="AM117" s="6"/>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="11"/>
       <c r="C118" s="8"/>
@@ -4359,8 +4639,19 @@
       <c r="E118" s="13"/>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG118" s="4"/>
+      <c r="AH118" s="11"/>
+      <c r="AI118" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ118" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK118" s="13"/>
+      <c r="AL118" s="5"/>
+      <c r="AM118" s="6"/>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="11"/>
       <c r="C119" s="8"/>
@@ -4368,8 +4659,19 @@
       <c r="E119" s="13"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG119" s="4"/>
+      <c r="AH119" s="11"/>
+      <c r="AI119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ119" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK119" s="13"/>
+      <c r="AL119" s="5"/>
+      <c r="AM119" s="6"/>
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="11"/>
       <c r="C120" s="8"/>
@@ -4377,8 +4679,19 @@
       <c r="E120" s="13"/>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG120" s="4"/>
+      <c r="AH120" s="11"/>
+      <c r="AI120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ120" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="5"/>
+      <c r="AM120" s="6"/>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="11"/>
       <c r="C121" s="8"/>
@@ -4386,8 +4699,21 @@
       <c r="E121" s="13"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG121" s="4"/>
+      <c r="AH121" s="11"/>
+      <c r="AI121" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ121" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL121" s="5"/>
+      <c r="AM121" s="6"/>
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="11"/>
       <c r="C122" s="8"/>
@@ -4395,8 +4721,15 @@
       <c r="E122" s="13"/>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG122" s="4"/>
+      <c r="AH122" s="11"/>
+      <c r="AI122" s="8"/>
+      <c r="AJ122" s="14"/>
+      <c r="AK122" s="13"/>
+      <c r="AL122" s="5"/>
+      <c r="AM122" s="6"/>
+    </row>
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="11"/>
       <c r="C123" s="8"/>
@@ -4404,8 +4737,15 @@
       <c r="E123" s="13"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG123" s="4"/>
+      <c r="AH123" s="11"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="14"/>
+      <c r="AK123" s="13"/>
+      <c r="AL123" s="5"/>
+      <c r="AM123" s="6"/>
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="11"/>
       <c r="C124" s="8"/>
@@ -4413,8 +4753,15 @@
       <c r="E124" s="13"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG124" s="4"/>
+      <c r="AH124" s="11"/>
+      <c r="AI124" s="8"/>
+      <c r="AJ124" s="14"/>
+      <c r="AK124" s="13"/>
+      <c r="AL124" s="5"/>
+      <c r="AM124" s="6"/>
+    </row>
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
@@ -4422,8 +4769,15 @@
       <c r="E125" s="13"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG125" s="4"/>
+      <c r="AH125" s="11"/>
+      <c r="AI125" s="8"/>
+      <c r="AJ125" s="14"/>
+      <c r="AK125" s="13"/>
+      <c r="AL125" s="5"/>
+      <c r="AM125" s="6"/>
+    </row>
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
@@ -4431,8 +4785,15 @@
       <c r="E126" s="13"/>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG126" s="4"/>
+      <c r="AH126" s="11"/>
+      <c r="AI126" s="8"/>
+      <c r="AJ126" s="14"/>
+      <c r="AK126" s="13"/>
+      <c r="AL126" s="5"/>
+      <c r="AM126" s="6"/>
+    </row>
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="11"/>
       <c r="C127" s="8"/>
@@ -4440,8 +4801,15 @@
       <c r="E127" s="13"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG127" s="4"/>
+      <c r="AH127" s="11"/>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="14"/>
+      <c r="AK127" s="13"/>
+      <c r="AL127" s="5"/>
+      <c r="AM127" s="6"/>
+    </row>
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
@@ -4449,8 +4817,15 @@
       <c r="E128" s="13"/>
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG128" s="4"/>
+      <c r="AH128" s="11"/>
+      <c r="AI128" s="8"/>
+      <c r="AJ128" s="14"/>
+      <c r="AK128" s="13"/>
+      <c r="AL128" s="5"/>
+      <c r="AM128" s="6"/>
+    </row>
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
@@ -4458,8 +4833,15 @@
       <c r="E129" s="13"/>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG129" s="4"/>
+      <c r="AH129" s="11"/>
+      <c r="AI129" s="8"/>
+      <c r="AJ129" s="14"/>
+      <c r="AK129" s="13"/>
+      <c r="AL129" s="5"/>
+      <c r="AM129" s="6"/>
+    </row>
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="11"/>
       <c r="C130" s="8"/>
@@ -4467,8 +4849,15 @@
       <c r="E130" s="13"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG130" s="4"/>
+      <c r="AH130" s="11"/>
+      <c r="AI130" s="8"/>
+      <c r="AJ130" s="14"/>
+      <c r="AK130" s="13"/>
+      <c r="AL130" s="5"/>
+      <c r="AM130" s="6"/>
+    </row>
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
@@ -4476,8 +4865,15 @@
       <c r="E131" s="13"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG131" s="4"/>
+      <c r="AH131" s="11"/>
+      <c r="AI131" s="8"/>
+      <c r="AJ131" s="14"/>
+      <c r="AK131" s="13"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="6"/>
+    </row>
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="11"/>
       <c r="C132" s="8"/>
@@ -4485,8 +4881,15 @@
       <c r="E132" s="13"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG132" s="4"/>
+      <c r="AH132" s="11"/>
+      <c r="AI132" s="8"/>
+      <c r="AJ132" s="14"/>
+      <c r="AK132" s="13"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="6"/>
+    </row>
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="11"/>
       <c r="C133" s="8"/>
@@ -4494,8 +4897,15 @@
       <c r="E133" s="13"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG133" s="4"/>
+      <c r="AH133" s="11"/>
+      <c r="AI133" s="8"/>
+      <c r="AJ133" s="14"/>
+      <c r="AK133" s="13"/>
+      <c r="AL133" s="5"/>
+      <c r="AM133" s="6"/>
+    </row>
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
@@ -4503,8 +4913,15 @@
       <c r="E134" s="13"/>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG134" s="4"/>
+      <c r="AH134" s="11"/>
+      <c r="AI134" s="8"/>
+      <c r="AJ134" s="14"/>
+      <c r="AK134" s="13"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="6"/>
+    </row>
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="11"/>
       <c r="C135" s="8"/>
@@ -4512,8 +4929,15 @@
       <c r="E135" s="13"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG135" s="4"/>
+      <c r="AH135" s="11"/>
+      <c r="AI135" s="8"/>
+      <c r="AJ135" s="14"/>
+      <c r="AK135" s="13"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="6"/>
+    </row>
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="11"/>
       <c r="C136" s="8"/>
@@ -4521,8 +4945,15 @@
       <c r="E136" s="13"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG136" s="4"/>
+      <c r="AH136" s="11"/>
+      <c r="AI136" s="8"/>
+      <c r="AJ136" s="14"/>
+      <c r="AK136" s="13"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="6"/>
+    </row>
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
@@ -4530,8 +4961,15 @@
       <c r="E137" s="13"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG137" s="4"/>
+      <c r="AH137" s="11"/>
+      <c r="AI137" s="8"/>
+      <c r="AJ137" s="14"/>
+      <c r="AK137" s="13"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="6"/>
+    </row>
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="11"/>
       <c r="C138" s="8"/>
@@ -4539,8 +4977,15 @@
       <c r="E138" s="13"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG138" s="4"/>
+      <c r="AH138" s="11"/>
+      <c r="AI138" s="8"/>
+      <c r="AJ138" s="14"/>
+      <c r="AK138" s="13"/>
+      <c r="AL138" s="5"/>
+      <c r="AM138" s="6"/>
+    </row>
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="11"/>
       <c r="C139" s="8"/>
@@ -4548,8 +4993,15 @@
       <c r="E139" s="13"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG139" s="4"/>
+      <c r="AH139" s="11"/>
+      <c r="AI139" s="8"/>
+      <c r="AJ139" s="14"/>
+      <c r="AK139" s="13"/>
+      <c r="AL139" s="5"/>
+      <c r="AM139" s="6"/>
+    </row>
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="11"/>
       <c r="C140" s="8"/>
@@ -4557,8 +5009,15 @@
       <c r="E140" s="13"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG140" s="4"/>
+      <c r="AH140" s="11"/>
+      <c r="AI140" s="8"/>
+      <c r="AJ140" s="14"/>
+      <c r="AK140" s="13"/>
+      <c r="AL140" s="5"/>
+      <c r="AM140" s="6"/>
+    </row>
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="11"/>
       <c r="C141" s="8"/>
@@ -4566,8 +5025,15 @@
       <c r="E141" s="13"/>
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG141" s="4"/>
+      <c r="AH141" s="11"/>
+      <c r="AI141" s="8"/>
+      <c r="AJ141" s="14"/>
+      <c r="AK141" s="13"/>
+      <c r="AL141" s="5"/>
+      <c r="AM141" s="6"/>
+    </row>
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
@@ -4575,8 +5041,15 @@
       <c r="E142" s="13"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG142" s="4"/>
+      <c r="AH142" s="11"/>
+      <c r="AI142" s="8"/>
+      <c r="AJ142" s="14"/>
+      <c r="AK142" s="13"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="6"/>
+    </row>
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="11"/>
       <c r="C143" s="8"/>
@@ -4584,8 +5057,15 @@
       <c r="E143" s="13"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG143" s="4"/>
+      <c r="AH143" s="11"/>
+      <c r="AI143" s="8"/>
+      <c r="AJ143" s="14"/>
+      <c r="AK143" s="13"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="6"/>
+    </row>
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="11"/>
       <c r="C144" s="8"/>
@@ -4593,8 +5073,15 @@
       <c r="E144" s="13"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG144" s="4"/>
+      <c r="AH144" s="11"/>
+      <c r="AI144" s="8"/>
+      <c r="AJ144" s="14"/>
+      <c r="AK144" s="13"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="6"/>
+    </row>
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
@@ -4602,8 +5089,15 @@
       <c r="E145" s="13"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG145" s="4"/>
+      <c r="AH145" s="11"/>
+      <c r="AI145" s="8"/>
+      <c r="AJ145" s="14"/>
+      <c r="AK145" s="13"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="6"/>
+    </row>
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="11"/>
       <c r="C146" s="8"/>
@@ -4611,8 +5105,15 @@
       <c r="E146" s="13"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG146" s="4"/>
+      <c r="AH146" s="11"/>
+      <c r="AI146" s="8"/>
+      <c r="AJ146" s="14"/>
+      <c r="AK146" s="13"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="6"/>
+    </row>
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="11"/>
       <c r="C147" s="8"/>
@@ -4620,8 +5121,15 @@
       <c r="E147" s="13"/>
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG147" s="4"/>
+      <c r="AH147" s="11"/>
+      <c r="AI147" s="8"/>
+      <c r="AJ147" s="14"/>
+      <c r="AK147" s="13"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="6"/>
+    </row>
+    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="11"/>
       <c r="C148" s="8"/>
@@ -4629,8 +5137,15 @@
       <c r="E148" s="13"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG148" s="4"/>
+      <c r="AH148" s="11"/>
+      <c r="AI148" s="8"/>
+      <c r="AJ148" s="14"/>
+      <c r="AK148" s="13"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="6"/>
+    </row>
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="11"/>
       <c r="C149" s="8"/>
@@ -4638,8 +5153,15 @@
       <c r="E149" s="13"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG149" s="4"/>
+      <c r="AH149" s="11"/>
+      <c r="AI149" s="8"/>
+      <c r="AJ149" s="14"/>
+      <c r="AK149" s="13"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="6"/>
+    </row>
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="11"/>
       <c r="C150" s="8"/>
@@ -4647,8 +5169,15 @@
       <c r="E150" s="13"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG150" s="4"/>
+      <c r="AH150" s="11"/>
+      <c r="AI150" s="8"/>
+      <c r="AJ150" s="14"/>
+      <c r="AK150" s="13"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="6"/>
+    </row>
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="11"/>
       <c r="C151" s="8"/>
@@ -4656,8 +5185,15 @@
       <c r="E151" s="13"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG151" s="4"/>
+      <c r="AH151" s="11"/>
+      <c r="AI151" s="8"/>
+      <c r="AJ151" s="14"/>
+      <c r="AK151" s="13"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="6"/>
+    </row>
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="11"/>
       <c r="C152" s="8"/>
@@ -4665,8 +5201,15 @@
       <c r="E152" s="13"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG152" s="4"/>
+      <c r="AH152" s="11"/>
+      <c r="AI152" s="8"/>
+      <c r="AJ152" s="14"/>
+      <c r="AK152" s="13"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="6"/>
+    </row>
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="11"/>
       <c r="C153" s="8"/>
@@ -4674,8 +5217,15 @@
       <c r="E153" s="13"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG153" s="4"/>
+      <c r="AH153" s="11"/>
+      <c r="AI153" s="8"/>
+      <c r="AJ153" s="14"/>
+      <c r="AK153" s="13"/>
+      <c r="AL153" s="5"/>
+      <c r="AM153" s="6"/>
+    </row>
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="11"/>
       <c r="C154" s="8"/>
@@ -4683,8 +5233,15 @@
       <c r="E154" s="13"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG154" s="4"/>
+      <c r="AH154" s="11"/>
+      <c r="AI154" s="8"/>
+      <c r="AJ154" s="14"/>
+      <c r="AK154" s="13"/>
+      <c r="AL154" s="5"/>
+      <c r="AM154" s="6"/>
+    </row>
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="11"/>
       <c r="C155" s="8"/>
@@ -4692,8 +5249,15 @@
       <c r="E155" s="13"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG155" s="4"/>
+      <c r="AH155" s="11"/>
+      <c r="AI155" s="8"/>
+      <c r="AJ155" s="14"/>
+      <c r="AK155" s="13"/>
+      <c r="AL155" s="5"/>
+      <c r="AM155" s="6"/>
+    </row>
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="11"/>
       <c r="C156" s="8"/>
@@ -4701,8 +5265,15 @@
       <c r="E156" s="13"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG156" s="4"/>
+      <c r="AH156" s="11"/>
+      <c r="AI156" s="8"/>
+      <c r="AJ156" s="14"/>
+      <c r="AK156" s="13"/>
+      <c r="AL156" s="5"/>
+      <c r="AM156" s="6"/>
+    </row>
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="11"/>
       <c r="C157" s="8"/>
@@ -4710,8 +5281,15 @@
       <c r="E157" s="13"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG157" s="4"/>
+      <c r="AH157" s="11"/>
+      <c r="AI157" s="8"/>
+      <c r="AJ157" s="14"/>
+      <c r="AK157" s="13"/>
+      <c r="AL157" s="5"/>
+      <c r="AM157" s="6"/>
+    </row>
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="11"/>
       <c r="C158" s="8"/>
@@ -4719,8 +5297,15 @@
       <c r="E158" s="13"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG158" s="4"/>
+      <c r="AH158" s="11"/>
+      <c r="AI158" s="8"/>
+      <c r="AJ158" s="14"/>
+      <c r="AK158" s="13"/>
+      <c r="AL158" s="5"/>
+      <c r="AM158" s="6"/>
+    </row>
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="11"/>
       <c r="C159" s="8"/>
@@ -4728,8 +5313,15 @@
       <c r="E159" s="13"/>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG159" s="4"/>
+      <c r="AH159" s="11"/>
+      <c r="AI159" s="8"/>
+      <c r="AJ159" s="14"/>
+      <c r="AK159" s="13"/>
+      <c r="AL159" s="5"/>
+      <c r="AM159" s="6"/>
+    </row>
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="11"/>
       <c r="C160" s="8"/>
@@ -4737,8 +5329,15 @@
       <c r="E160" s="13"/>
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="AG160" s="4"/>
+      <c r="AH160" s="11"/>
+      <c r="AI160" s="8"/>
+      <c r="AJ160" s="14"/>
+      <c r="AK160" s="13"/>
+      <c r="AL160" s="5"/>
+      <c r="AM160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="11"/>
       <c r="C161" s="8"/>
@@ -4747,7 +5346,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="11"/>
       <c r="C162" s="8"/>
@@ -4756,7 +5355,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="11"/>
       <c r="C163" s="8"/>
@@ -4765,7 +5364,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="11"/>
       <c r="C164" s="8"/>
@@ -4774,7 +5373,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="11"/>
       <c r="C165" s="8"/>
@@ -4783,7 +5382,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="11"/>
       <c r="C166" s="8"/>
@@ -4792,7 +5391,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="11"/>
       <c r="C167" s="8"/>
@@ -4801,7 +5400,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="11"/>
       <c r="C168" s="8"/>
@@ -4810,7 +5409,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="11"/>
       <c r="C169" s="8"/>
@@ -4819,7 +5418,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="11"/>
       <c r="C170" s="8"/>
@@ -4828,7 +5427,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="11"/>
       <c r="C171" s="8"/>
@@ -4837,7 +5436,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="11"/>
       <c r="C172" s="8"/>
@@ -4846,7 +5445,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="11"/>
       <c r="C173" s="8"/>
@@ -4855,7 +5454,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="11"/>
       <c r="C174" s="8"/>
@@ -4864,7 +5463,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="11"/>
       <c r="C175" s="8"/>
@@ -4873,7 +5472,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="11"/>
       <c r="C176" s="8"/>
@@ -4882,7 +5481,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="11"/>
       <c r="C177" s="8"/>
@@ -4891,7 +5490,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="11"/>
       <c r="C178" s="8"/>
@@ -4900,7 +5499,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="11"/>
       <c r="C179" s="8"/>
@@ -4909,7 +5508,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="11"/>
       <c r="C180" s="8"/>
@@ -4918,7 +5517,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="11"/>
       <c r="C181" s="8"/>
@@ -4927,7 +5526,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="11"/>
       <c r="C182" s="8"/>
@@ -4936,7 +5535,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="11"/>
       <c r="C183" s="8"/>
@@ -4945,7 +5544,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="11"/>
       <c r="C184" s="8"/>
@@ -4954,7 +5553,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="11"/>
       <c r="C185" s="8"/>
@@ -4963,7 +5562,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="11"/>
       <c r="C186" s="8"/>
@@ -4972,7 +5571,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="11"/>
       <c r="C187" s="8"/>
@@ -4981,7 +5580,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="11"/>
       <c r="C188" s="8"/>
@@ -4990,7 +5589,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="11"/>
       <c r="C189" s="8"/>
@@ -4999,7 +5598,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="11"/>
       <c r="C190" s="8"/>
@@ -5008,7 +5607,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="11"/>
       <c r="C191" s="8"/>
@@ -5017,7 +5616,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="11"/>
       <c r="C192" s="8"/>
@@ -5026,7 +5625,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="11"/>
       <c r="C193" s="8"/>
@@ -5035,7 +5634,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="11"/>
       <c r="C194" s="8"/>
@@ -5044,7 +5643,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="11"/>
       <c r="C195" s="8"/>
@@ -5053,7 +5652,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="11"/>
       <c r="C196" s="8"/>
@@ -5062,7 +5661,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="11"/>
       <c r="C197" s="8"/>
@@ -5071,7 +5670,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="11"/>
       <c r="C198" s="8"/>
@@ -5080,7 +5679,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="11"/>
       <c r="C199" s="8"/>
@@ -5089,7 +5688,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="11"/>
       <c r="C200" s="8"/>
@@ -5098,7 +5697,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="11"/>
       <c r="C201" s="8"/>
@@ -5107,7 +5706,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="11"/>
       <c r="C202" s="8"/>
@@ -5116,7 +5715,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="11"/>
       <c r="C203" s="8"/>
@@ -5125,7 +5724,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="11"/>
       <c r="C204" s="8"/>
@@ -5134,7 +5733,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="11"/>
       <c r="C205" s="8"/>
@@ -5143,7 +5742,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="11"/>
       <c r="C206" s="8"/>
@@ -5152,7 +5751,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="11"/>
       <c r="C207" s="8"/>
@@ -5161,7 +5760,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="11"/>
       <c r="C208" s="8"/>
@@ -5170,7 +5769,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="11"/>
       <c r="C209" s="8"/>
@@ -5179,7 +5778,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="11"/>
       <c r="C210" s="8"/>
@@ -5188,7 +5787,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="11"/>
       <c r="C211" s="8"/>
@@ -5197,7 +5796,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="11"/>
       <c r="C212" s="8"/>
@@ -5206,7 +5805,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="11"/>
       <c r="C213" s="8"/>
@@ -5215,7 +5814,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="11"/>
       <c r="C214" s="8"/>
@@ -5224,7 +5823,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="11"/>
       <c r="C215" s="8"/>
@@ -5233,7 +5832,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="11"/>
       <c r="C216" s="8"/>
@@ -5242,7 +5841,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="11"/>
       <c r="C217" s="8"/>
@@ -5251,7 +5850,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="11"/>
       <c r="C218" s="8"/>
@@ -5260,7 +5859,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="11"/>
       <c r="C219" s="8"/>
@@ -5269,7 +5868,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="11"/>
       <c r="C220" s="8"/>
@@ -5278,7 +5877,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="11"/>
       <c r="C221" s="8"/>
@@ -5287,7 +5886,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="11"/>
       <c r="C222" s="8"/>
@@ -5296,7 +5895,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="11"/>
       <c r="C223" s="8"/>
@@ -5305,7 +5904,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="11"/>
       <c r="C224" s="8"/>
@@ -5314,7 +5913,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="11"/>
       <c r="C225" s="8"/>
@@ -5323,7 +5922,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="11"/>
       <c r="C226" s="8"/>
@@ -5332,7 +5931,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="11"/>
       <c r="C227" s="8"/>
@@ -5341,7 +5940,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="11"/>
       <c r="C228" s="8"/>
@@ -5350,7 +5949,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="11"/>
       <c r="C229" s="8"/>
@@ -5359,7 +5958,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="11"/>
       <c r="C230" s="8"/>
@@ -5368,7 +5967,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="11"/>
       <c r="C231" s="8"/>
@@ -5377,7 +5976,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="11"/>
       <c r="C232" s="8"/>
@@ -5386,7 +5985,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="11"/>
       <c r="C233" s="8"/>
@@ -5395,7 +5994,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="11"/>
       <c r="C234" s="8"/>
@@ -5404,7 +6003,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="11"/>
       <c r="C235" s="8"/>
@@ -5413,7 +6012,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="11"/>
       <c r="C236" s="8"/>
@@ -5422,7 +6021,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="11"/>
       <c r="C237" s="8"/>
@@ -5431,7 +6030,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="11"/>
       <c r="C238" s="8"/>
@@ -5440,7 +6039,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="11"/>
       <c r="C239" s="8"/>
@@ -5449,7 +6048,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="11"/>
       <c r="C240" s="8"/>
@@ -5458,7 +6057,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="11"/>
       <c r="C241" s="8"/>
@@ -5467,7 +6066,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="11"/>
       <c r="C242" s="8"/>
@@ -5476,7 +6075,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="11"/>
       <c r="C243" s="8"/>
@@ -5485,7 +6084,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="11"/>
       <c r="C244" s="8"/>
@@ -5494,7 +6093,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="11"/>
       <c r="C245" s="8"/>
@@ -5503,7 +6102,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="11"/>
       <c r="C246" s="8"/>
@@ -5512,7 +6111,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="11"/>
       <c r="C247" s="8"/>
@@ -5521,7 +6120,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="11"/>
       <c r="C248" s="8"/>
@@ -5530,7 +6129,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="11"/>
       <c r="C249" s="8"/>
@@ -5539,7 +6138,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="11"/>
       <c r="C250" s="8"/>
@@ -5548,7 +6147,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="11"/>
       <c r="C251" s="8"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{06EF8C94-214E-42A7-B4BC-E37C9A853059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0B904C-0D09-4D47-90C4-DAA82DF731AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E2E44-3B0A-431A-9B34-A7D7CC6D7310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="9720" yWindow="30" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="77">
   <si>
     <t>ClassNames</t>
   </si>
@@ -187,6 +187,87 @@
   <si>
     <t xml:space="preserve">Artistique </t>
   </si>
+  <si>
+    <t>3CLD</t>
+  </si>
+  <si>
+    <t>Economie</t>
+  </si>
+  <si>
+    <t>3CZHD</t>
+  </si>
+  <si>
+    <t>3CLE</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>ComVu</t>
+  </si>
+  <si>
+    <t>HistoArt</t>
+  </si>
+  <si>
+    <t>3CD</t>
+  </si>
+  <si>
+    <t>3CZHE</t>
+  </si>
+  <si>
+    <t>3CE</t>
+  </si>
+  <si>
+    <t>3CLF</t>
+  </si>
+  <si>
+    <t>HistoMusique</t>
+  </si>
+  <si>
+    <t>Théorie/Formes</t>
+  </si>
+  <si>
+    <t>Chant</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>3CZHF</t>
+  </si>
+  <si>
+    <t>3CF</t>
+  </si>
+  <si>
+    <t>3CLG</t>
+  </si>
+  <si>
+    <t>3CZHG</t>
+  </si>
+  <si>
+    <t>3CG</t>
+  </si>
+  <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>Histo/Civique</t>
+  </si>
+  <si>
+    <t>Civique</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>2CLA</t>
+  </si>
+  <si>
+    <t>2CZHA</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,6 +420,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -357,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,23 +740,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:AM251"/>
+  <dimension ref="A1:AU312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ126" sqref="AJ126"/>
+    <sheetView tabSelected="1" topLeftCell="AE4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR34" sqref="AR34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.390625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -766,8 +855,27 @@
       <c r="AM1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11"/>
       <c r="C2" s="8"/>
@@ -804,8 +912,15 @@
       <c r="AK2" s="13"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="6"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="6"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -882,8 +997,23 @@
       </c>
       <c r="AL3" s="5"/>
       <c r="AM3" s="6"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="6"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9" t="s">
@@ -940,8 +1070,19 @@
       <c r="AK4" s="13"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="6"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="6"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
@@ -998,8 +1139,19 @@
       <c r="AK5" s="13"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="6"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="6"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -1060,8 +1212,21 @@
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="6"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="6"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
@@ -1124,8 +1289,23 @@
       <c r="AK7" s="13"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="6"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
@@ -1190,8 +1370,19 @@
       </c>
       <c r="AL8" s="5"/>
       <c r="AM8" s="6"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -1248,8 +1439,21 @@
       <c r="AK9" s="13"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="6"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="6"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
@@ -1308,8 +1512,19 @@
       <c r="AK10" s="13"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="6"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="6"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
@@ -1368,8 +1583,19 @@
       <c r="AK11" s="13"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="6"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="6"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
@@ -1426,8 +1652,19 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="6"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="6"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -1476,8 +1713,21 @@
       <c r="AK13" s="13"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="6"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="6"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -1536,8 +1786,15 @@
       <c r="AK14" s="13"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="6"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="6"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
@@ -1590,8 +1847,23 @@
       </c>
       <c r="AL15" s="5"/>
       <c r="AM15" s="6"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR15" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="6"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -1640,8 +1912,19 @@
       <c r="AK16" s="13"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="6"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR16" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="6"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -1702,8 +1985,19 @@
       </c>
       <c r="AL17" s="5"/>
       <c r="AM17" s="6"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="6"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -1758,8 +2052,21 @@
       <c r="AK18" s="13"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="6"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="6"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -1814,8 +2121,19 @@
       <c r="AK19" s="13"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="6"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="6"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -1870,8 +2188,23 @@
       </c>
       <c r="AL20" s="5"/>
       <c r="AM20" s="6"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -1928,8 +2261,19 @@
       <c r="AK21" s="13"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="6"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -1988,8 +2332,21 @@
       </c>
       <c r="AL22" s="5"/>
       <c r="AM22" s="6"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="6"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -2042,8 +2399,19 @@
       <c r="AK23" s="13"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="6"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="6"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -2092,8 +2460,19 @@
       <c r="AK24" s="13"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="6"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="6"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -2150,8 +2529,21 @@
       <c r="AK25" s="13"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="6"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="6"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="8"/>
@@ -2204,8 +2596,15 @@
       <c r="AK26" s="13"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="6"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="6"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -2260,8 +2659,23 @@
       <c r="AK27" s="13"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="6"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR27" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="6"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
@@ -2310,8 +2724,19 @@
       <c r="AK28" s="13"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="6"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR28" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="6"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -2374,8 +2799,19 @@
       </c>
       <c r="AL29" s="5"/>
       <c r="AM29" s="6"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR29" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="6"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="11"/>
       <c r="C30" s="8"/>
@@ -2422,8 +2858,21 @@
       <c r="AK30" s="13"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="6"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="6"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
@@ -2484,8 +2933,19 @@
       </c>
       <c r="AL31" s="5"/>
       <c r="AM31" s="6"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR31" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="6"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="8"/>
@@ -2538,8 +2998,23 @@
       <c r="AK32" s="13"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="6"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR32" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU32" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="11"/>
       <c r="C33" s="8"/>
@@ -2596,8 +3071,19 @@
       <c r="AK33" s="13"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="6"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="11"/>
       <c r="C34" s="8"/>
@@ -2650,8 +3136,21 @@
       <c r="AK34" s="13"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="6"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR34" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="6"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -2704,8 +3203,19 @@
       </c>
       <c r="AL35" s="5"/>
       <c r="AM35" s="6"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="6"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
@@ -2755,8 +3265,19 @@
       <c r="AK36" s="13"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="6"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR36" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="6"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
@@ -2804,8 +3325,21 @@
       <c r="AK37" s="13"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="6"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="6"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
@@ -2853,8 +3387,15 @@
       <c r="AK38" s="13"/>
       <c r="AL38" s="5"/>
       <c r="AM38" s="6"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="13"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="6"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
@@ -2904,8 +3445,15 @@
       <c r="AK39" s="13"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="6"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="6"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
@@ -2949,8 +3497,15 @@
       <c r="AK40" s="13"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="6"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="6"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
@@ -2994,8 +3549,15 @@
       <c r="AK41" s="13"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="6"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="13"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="6"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -3039,8 +3601,15 @@
       <c r="AK42" s="13"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="6"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="13"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="6"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
@@ -3088,8 +3657,15 @@
       </c>
       <c r="AL43" s="5"/>
       <c r="AM43" s="6"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="6"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
@@ -3125,8 +3701,15 @@
       <c r="AK44" s="13"/>
       <c r="AL44" s="5"/>
       <c r="AM44" s="6"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="6"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -3156,8 +3739,15 @@
       </c>
       <c r="AL45" s="5"/>
       <c r="AM45" s="6"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="6"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -3178,8 +3768,15 @@
       </c>
       <c r="AL46" s="5"/>
       <c r="AM46" s="6"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="6"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="11"/>
       <c r="C47" s="8"/>
@@ -3198,8 +3795,15 @@
       <c r="AK47" s="13"/>
       <c r="AL47" s="5"/>
       <c r="AM47" s="6"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="6"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="11"/>
       <c r="C48" s="8"/>
@@ -3218,8 +3822,15 @@
       <c r="AK48" s="13"/>
       <c r="AL48" s="5"/>
       <c r="AM48" s="6"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="6"/>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="11"/>
       <c r="C49" s="8"/>
@@ -3238,8 +3849,15 @@
       <c r="AK49" s="13"/>
       <c r="AL49" s="5"/>
       <c r="AM49" s="6"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="8"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="13"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="6"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -3258,8 +3876,15 @@
       <c r="AK50" s="13"/>
       <c r="AL50" s="5"/>
       <c r="AM50" s="6"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="13"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="6"/>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="11"/>
       <c r="C51" s="8"/>
@@ -3278,8 +3903,15 @@
       <c r="AK51" s="13"/>
       <c r="AL51" s="5"/>
       <c r="AM51" s="6"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="6"/>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="11"/>
       <c r="C52" s="8"/>
@@ -3300,8 +3932,15 @@
       </c>
       <c r="AL52" s="5"/>
       <c r="AM52" s="6"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="6"/>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -3320,8 +3959,15 @@
       <c r="AK53" s="13"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="6"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="6"/>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="11"/>
       <c r="C54" s="8"/>
@@ -3340,8 +3986,15 @@
       <c r="AK54" s="13"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="6"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="13"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="6"/>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="11"/>
       <c r="C55" s="8"/>
@@ -3360,8 +4013,15 @@
       <c r="AK55" s="13"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="6"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO55" s="4"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="6"/>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="8"/>
@@ -3382,8 +4042,15 @@
       </c>
       <c r="AL56" s="5"/>
       <c r="AM56" s="6"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="14"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="6"/>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="11"/>
       <c r="C57" s="8"/>
@@ -3398,8 +4065,15 @@
       <c r="AK57" s="13"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="6"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="14"/>
+      <c r="AS57" s="13"/>
+      <c r="AT57" s="5"/>
+      <c r="AU57" s="6"/>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
@@ -3422,8 +4096,15 @@
       </c>
       <c r="AL58" s="5"/>
       <c r="AM58" s="6"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="8"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="13"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="6"/>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="11"/>
       <c r="C59" s="8"/>
@@ -3444,8 +4125,15 @@
       </c>
       <c r="AL59" s="5"/>
       <c r="AM59" s="6"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="14"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="6"/>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
@@ -3464,8 +4152,15 @@
       <c r="AK60" s="13"/>
       <c r="AL60" s="5"/>
       <c r="AM60" s="6"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="8"/>
+      <c r="AR60" s="14"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="6"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
@@ -3484,8 +4179,15 @@
       <c r="AK61" s="13"/>
       <c r="AL61" s="5"/>
       <c r="AM61" s="6"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="8"/>
+      <c r="AR61" s="14"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="5"/>
+      <c r="AU61" s="6"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
@@ -3504,8 +4206,15 @@
       <c r="AK62" s="13"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="6"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="8"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="13"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="6"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="11"/>
       <c r="C63" s="8"/>
@@ -3524,8 +4233,15 @@
       <c r="AK63" s="13"/>
       <c r="AL63" s="5"/>
       <c r="AM63" s="6"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="8"/>
+      <c r="AR63" s="14"/>
+      <c r="AS63" s="13"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="6"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
@@ -3544,8 +4260,15 @@
       <c r="AK64" s="13"/>
       <c r="AL64" s="5"/>
       <c r="AM64" s="6"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="8"/>
+      <c r="AR64" s="14"/>
+      <c r="AS64" s="13"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="6"/>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="11"/>
       <c r="C65" s="8"/>
@@ -3566,8 +4289,15 @@
       </c>
       <c r="AL65" s="5"/>
       <c r="AM65" s="6"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="8"/>
+      <c r="AR65" s="14"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="6"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="11"/>
       <c r="C66" s="8"/>
@@ -3586,8 +4316,15 @@
       <c r="AK66" s="13"/>
       <c r="AL66" s="5"/>
       <c r="AM66" s="6"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="8"/>
+      <c r="AR66" s="14"/>
+      <c r="AS66" s="13"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="6"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="11"/>
       <c r="C67" s="8"/>
@@ -3606,8 +4343,15 @@
       <c r="AK67" s="13"/>
       <c r="AL67" s="5"/>
       <c r="AM67" s="6"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="8"/>
+      <c r="AR67" s="14"/>
+      <c r="AS67" s="13"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="6"/>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="11"/>
       <c r="C68" s="8"/>
@@ -3626,8 +4370,15 @@
       <c r="AK68" s="13"/>
       <c r="AL68" s="5"/>
       <c r="AM68" s="6"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="8"/>
+      <c r="AR68" s="14"/>
+      <c r="AS68" s="13"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="6"/>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="11"/>
       <c r="C69" s="8"/>
@@ -3648,8 +4399,15 @@
       </c>
       <c r="AL69" s="5"/>
       <c r="AM69" s="6"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="11"/>
+      <c r="AQ69" s="8"/>
+      <c r="AR69" s="14"/>
+      <c r="AS69" s="13"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="6"/>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
@@ -3664,8 +4422,15 @@
       <c r="AK70" s="13"/>
       <c r="AL70" s="5"/>
       <c r="AM70" s="6"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="11"/>
+      <c r="AQ70" s="8"/>
+      <c r="AR70" s="14"/>
+      <c r="AS70" s="13"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="6"/>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
@@ -3688,8 +4453,15 @@
       </c>
       <c r="AL71" s="5"/>
       <c r="AM71" s="6"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO71" s="4"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="8"/>
+      <c r="AR71" s="14"/>
+      <c r="AS71" s="13"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="6"/>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11"/>
       <c r="C72" s="8"/>
@@ -3710,8 +4482,15 @@
       </c>
       <c r="AL72" s="5"/>
       <c r="AM72" s="6"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="8"/>
+      <c r="AR72" s="14"/>
+      <c r="AS72" s="13"/>
+      <c r="AT72" s="5"/>
+      <c r="AU72" s="6"/>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11"/>
       <c r="C73" s="8"/>
@@ -3730,8 +4509,15 @@
       <c r="AK73" s="13"/>
       <c r="AL73" s="5"/>
       <c r="AM73" s="6"/>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="8"/>
+      <c r="AR73" s="14"/>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="6"/>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="11"/>
       <c r="C74" s="8"/>
@@ -3750,8 +4536,15 @@
       <c r="AK74" s="13"/>
       <c r="AL74" s="5"/>
       <c r="AM74" s="6"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="8"/>
+      <c r="AR74" s="14"/>
+      <c r="AS74" s="13"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="6"/>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="11"/>
       <c r="C75" s="8"/>
@@ -3770,8 +4563,15 @@
       <c r="AK75" s="13"/>
       <c r="AL75" s="5"/>
       <c r="AM75" s="6"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="11"/>
+      <c r="AQ75" s="8"/>
+      <c r="AR75" s="14"/>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="6"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="11"/>
       <c r="C76" s="8"/>
@@ -3790,8 +4590,15 @@
       <c r="AK76" s="13"/>
       <c r="AL76" s="5"/>
       <c r="AM76" s="6"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="11"/>
+      <c r="AQ76" s="8"/>
+      <c r="AR76" s="14"/>
+      <c r="AS76" s="13"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="6"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="11"/>
       <c r="C77" s="8"/>
@@ -3812,8 +4619,15 @@
       </c>
       <c r="AL77" s="5"/>
       <c r="AM77" s="6"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="8"/>
+      <c r="AR77" s="14"/>
+      <c r="AS77" s="13"/>
+      <c r="AT77" s="5"/>
+      <c r="AU77" s="6"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="11"/>
       <c r="C78" s="8"/>
@@ -3832,8 +4646,15 @@
       <c r="AK78" s="13"/>
       <c r="AL78" s="5"/>
       <c r="AM78" s="6"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="11"/>
+      <c r="AQ78" s="8"/>
+      <c r="AR78" s="14"/>
+      <c r="AS78" s="13"/>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="6"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
@@ -3852,8 +4673,15 @@
       <c r="AK79" s="13"/>
       <c r="AL79" s="5"/>
       <c r="AM79" s="6"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="8"/>
+      <c r="AR79" s="14"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="6"/>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="11"/>
       <c r="C80" s="8"/>
@@ -3872,8 +4700,15 @@
       <c r="AK80" s="13"/>
       <c r="AL80" s="5"/>
       <c r="AM80" s="6"/>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="8"/>
+      <c r="AR80" s="14"/>
+      <c r="AS80" s="13"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="6"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
@@ -3892,8 +4727,15 @@
       <c r="AK81" s="13"/>
       <c r="AL81" s="5"/>
       <c r="AM81" s="6"/>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="8"/>
+      <c r="AR81" s="14"/>
+      <c r="AS81" s="13"/>
+      <c r="AT81" s="5"/>
+      <c r="AU81" s="6"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
@@ -3914,8 +4756,15 @@
       </c>
       <c r="AL82" s="5"/>
       <c r="AM82" s="6"/>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="11"/>
+      <c r="AQ82" s="8"/>
+      <c r="AR82" s="14"/>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="6"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="11"/>
       <c r="C83" s="8"/>
@@ -3930,8 +4779,15 @@
       <c r="AK83" s="13"/>
       <c r="AL83" s="5"/>
       <c r="AM83" s="6"/>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="11"/>
+      <c r="AQ83" s="8"/>
+      <c r="AR83" s="14"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="6"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
@@ -3954,8 +4810,15 @@
       </c>
       <c r="AL84" s="5"/>
       <c r="AM84" s="6"/>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO84" s="4"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="8"/>
+      <c r="AR84" s="14"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="5"/>
+      <c r="AU84" s="6"/>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
@@ -3976,8 +4839,15 @@
       </c>
       <c r="AL85" s="5"/>
       <c r="AM85" s="6"/>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO85" s="4"/>
+      <c r="AP85" s="11"/>
+      <c r="AQ85" s="8"/>
+      <c r="AR85" s="14"/>
+      <c r="AS85" s="13"/>
+      <c r="AT85" s="5"/>
+      <c r="AU85" s="6"/>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="11"/>
       <c r="C86" s="8"/>
@@ -3996,8 +4866,15 @@
       <c r="AK86" s="13"/>
       <c r="AL86" s="5"/>
       <c r="AM86" s="6"/>
-    </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO86" s="4"/>
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="8"/>
+      <c r="AR86" s="14"/>
+      <c r="AS86" s="13"/>
+      <c r="AT86" s="5"/>
+      <c r="AU86" s="6"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="11"/>
       <c r="C87" s="8"/>
@@ -4016,8 +4893,15 @@
       <c r="AK87" s="13"/>
       <c r="AL87" s="5"/>
       <c r="AM87" s="6"/>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO87" s="4"/>
+      <c r="AP87" s="11"/>
+      <c r="AQ87" s="8"/>
+      <c r="AR87" s="14"/>
+      <c r="AS87" s="13"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="6"/>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="11"/>
       <c r="C88" s="8"/>
@@ -4036,8 +4920,15 @@
       <c r="AK88" s="13"/>
       <c r="AL88" s="5"/>
       <c r="AM88" s="6"/>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO88" s="4"/>
+      <c r="AP88" s="11"/>
+      <c r="AQ88" s="8"/>
+      <c r="AR88" s="14"/>
+      <c r="AS88" s="13"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="6"/>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="11"/>
       <c r="C89" s="8"/>
@@ -4056,8 +4947,15 @@
       <c r="AK89" s="13"/>
       <c r="AL89" s="5"/>
       <c r="AM89" s="6"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO89" s="4"/>
+      <c r="AP89" s="11"/>
+      <c r="AQ89" s="8"/>
+      <c r="AR89" s="14"/>
+      <c r="AS89" s="13"/>
+      <c r="AT89" s="5"/>
+      <c r="AU89" s="6"/>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="11"/>
       <c r="C90" s="8"/>
@@ -4076,8 +4974,15 @@
       <c r="AK90" s="13"/>
       <c r="AL90" s="5"/>
       <c r="AM90" s="6"/>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO90" s="4"/>
+      <c r="AP90" s="11"/>
+      <c r="AQ90" s="8"/>
+      <c r="AR90" s="14"/>
+      <c r="AS90" s="13"/>
+      <c r="AT90" s="5"/>
+      <c r="AU90" s="6"/>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="11"/>
       <c r="C91" s="8"/>
@@ -4096,8 +5001,15 @@
       <c r="AK91" s="13"/>
       <c r="AL91" s="5"/>
       <c r="AM91" s="6"/>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO91" s="4"/>
+      <c r="AP91" s="11"/>
+      <c r="AQ91" s="8"/>
+      <c r="AR91" s="14"/>
+      <c r="AS91" s="13"/>
+      <c r="AT91" s="5"/>
+      <c r="AU91" s="6"/>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="11"/>
       <c r="C92" s="8"/>
@@ -4118,8 +5030,15 @@
       </c>
       <c r="AL92" s="5"/>
       <c r="AM92" s="6"/>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO92" s="4"/>
+      <c r="AP92" s="11"/>
+      <c r="AQ92" s="8"/>
+      <c r="AR92" s="14"/>
+      <c r="AS92" s="13"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="6"/>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="11"/>
       <c r="C93" s="8"/>
@@ -4138,8 +5057,15 @@
       <c r="AK93" s="13"/>
       <c r="AL93" s="5"/>
       <c r="AM93" s="6"/>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO93" s="4"/>
+      <c r="AP93" s="11"/>
+      <c r="AQ93" s="8"/>
+      <c r="AR93" s="14"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="5"/>
+      <c r="AU93" s="6"/>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
@@ -4158,8 +5084,15 @@
       <c r="AK94" s="13"/>
       <c r="AL94" s="5"/>
       <c r="AM94" s="6"/>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO94" s="4"/>
+      <c r="AP94" s="11"/>
+      <c r="AQ94" s="8"/>
+      <c r="AR94" s="14"/>
+      <c r="AS94" s="13"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="6"/>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="11"/>
       <c r="C95" s="8"/>
@@ -4180,8 +5113,15 @@
       </c>
       <c r="AL95" s="5"/>
       <c r="AM95" s="6"/>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO95" s="4"/>
+      <c r="AP95" s="11"/>
+      <c r="AQ95" s="8"/>
+      <c r="AR95" s="14"/>
+      <c r="AS95" s="13"/>
+      <c r="AT95" s="5"/>
+      <c r="AU95" s="6"/>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="11"/>
       <c r="C96" s="8"/>
@@ -4196,8 +5136,15 @@
       <c r="AK96" s="13"/>
       <c r="AL96" s="5"/>
       <c r="AM96" s="6"/>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO96" s="4"/>
+      <c r="AP96" s="11"/>
+      <c r="AQ96" s="8"/>
+      <c r="AR96" s="14"/>
+      <c r="AS96" s="13"/>
+      <c r="AT96" s="5"/>
+      <c r="AU96" s="6"/>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
@@ -4220,8 +5167,15 @@
       </c>
       <c r="AL97" s="5"/>
       <c r="AM97" s="6"/>
-    </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO97" s="4"/>
+      <c r="AP97" s="11"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="14"/>
+      <c r="AS97" s="13"/>
+      <c r="AT97" s="5"/>
+      <c r="AU97" s="6"/>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11"/>
       <c r="C98" s="8"/>
@@ -4242,8 +5196,15 @@
       </c>
       <c r="AL98" s="5"/>
       <c r="AM98" s="6"/>
-    </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO98" s="4"/>
+      <c r="AP98" s="11"/>
+      <c r="AQ98" s="8"/>
+      <c r="AR98" s="14"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="5"/>
+      <c r="AU98" s="6"/>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="11"/>
       <c r="C99" s="8"/>
@@ -4262,8 +5223,15 @@
       <c r="AK99" s="13"/>
       <c r="AL99" s="5"/>
       <c r="AM99" s="6"/>
-    </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO99" s="4"/>
+      <c r="AP99" s="11"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="14"/>
+      <c r="AS99" s="13"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="6"/>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="11"/>
       <c r="C100" s="8"/>
@@ -4282,8 +5250,15 @@
       <c r="AK100" s="13"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="6"/>
-    </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO100" s="4"/>
+      <c r="AP100" s="11"/>
+      <c r="AQ100" s="8"/>
+      <c r="AR100" s="14"/>
+      <c r="AS100" s="13"/>
+      <c r="AT100" s="5"/>
+      <c r="AU100" s="6"/>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
@@ -4302,8 +5277,15 @@
       <c r="AK101" s="13"/>
       <c r="AL101" s="5"/>
       <c r="AM101" s="6"/>
-    </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO101" s="4"/>
+      <c r="AP101" s="11"/>
+      <c r="AQ101" s="8"/>
+      <c r="AR101" s="14"/>
+      <c r="AS101" s="13"/>
+      <c r="AT101" s="5"/>
+      <c r="AU101" s="6"/>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="11"/>
       <c r="C102" s="8"/>
@@ -4322,8 +5304,15 @@
       <c r="AK102" s="13"/>
       <c r="AL102" s="5"/>
       <c r="AM102" s="6"/>
-    </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO102" s="4"/>
+      <c r="AP102" s="11"/>
+      <c r="AQ102" s="8"/>
+      <c r="AR102" s="14"/>
+      <c r="AS102" s="13"/>
+      <c r="AT102" s="5"/>
+      <c r="AU102" s="6"/>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
@@ -4342,8 +5331,15 @@
       <c r="AK103" s="13"/>
       <c r="AL103" s="5"/>
       <c r="AM103" s="6"/>
-    </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO103" s="4"/>
+      <c r="AP103" s="11"/>
+      <c r="AQ103" s="8"/>
+      <c r="AR103" s="14"/>
+      <c r="AS103" s="13"/>
+      <c r="AT103" s="5"/>
+      <c r="AU103" s="6"/>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="11"/>
       <c r="C104" s="8"/>
@@ -4362,8 +5358,15 @@
       <c r="AK104" s="13"/>
       <c r="AL104" s="5"/>
       <c r="AM104" s="6"/>
-    </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO104" s="4"/>
+      <c r="AP104" s="11"/>
+      <c r="AQ104" s="8"/>
+      <c r="AR104" s="14"/>
+      <c r="AS104" s="13"/>
+      <c r="AT104" s="5"/>
+      <c r="AU104" s="6"/>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="11"/>
       <c r="C105" s="8"/>
@@ -4384,8 +5387,15 @@
       </c>
       <c r="AL105" s="5"/>
       <c r="AM105" s="6"/>
-    </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO105" s="4"/>
+      <c r="AP105" s="11"/>
+      <c r="AQ105" s="8"/>
+      <c r="AR105" s="14"/>
+      <c r="AS105" s="13"/>
+      <c r="AT105" s="5"/>
+      <c r="AU105" s="6"/>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="11"/>
       <c r="C106" s="8"/>
@@ -4404,8 +5414,15 @@
       <c r="AK106" s="13"/>
       <c r="AL106" s="5"/>
       <c r="AM106" s="6"/>
-    </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO106" s="4"/>
+      <c r="AP106" s="11"/>
+      <c r="AQ106" s="8"/>
+      <c r="AR106" s="14"/>
+      <c r="AS106" s="13"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="6"/>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
@@ -4424,8 +5441,15 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="5"/>
       <c r="AM107" s="6"/>
-    </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO107" s="4"/>
+      <c r="AP107" s="11"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="14"/>
+      <c r="AS107" s="13"/>
+      <c r="AT107" s="5"/>
+      <c r="AU107" s="6"/>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="11"/>
       <c r="C108" s="8"/>
@@ -4446,8 +5470,15 @@
       </c>
       <c r="AL108" s="5"/>
       <c r="AM108" s="6"/>
-    </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO108" s="4"/>
+      <c r="AP108" s="11"/>
+      <c r="AQ108" s="8"/>
+      <c r="AR108" s="14"/>
+      <c r="AS108" s="13"/>
+      <c r="AT108" s="5"/>
+      <c r="AU108" s="6"/>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="11"/>
       <c r="C109" s="8"/>
@@ -4462,8 +5493,15 @@
       <c r="AK109" s="13"/>
       <c r="AL109" s="5"/>
       <c r="AM109" s="6"/>
-    </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO109" s="4"/>
+      <c r="AP109" s="11"/>
+      <c r="AQ109" s="8"/>
+      <c r="AR109" s="14"/>
+      <c r="AS109" s="13"/>
+      <c r="AT109" s="5"/>
+      <c r="AU109" s="6"/>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
@@ -4486,8 +5524,15 @@
       </c>
       <c r="AL110" s="5"/>
       <c r="AM110" s="6"/>
-    </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO110" s="4"/>
+      <c r="AP110" s="11"/>
+      <c r="AQ110" s="8"/>
+      <c r="AR110" s="14"/>
+      <c r="AS110" s="13"/>
+      <c r="AT110" s="5"/>
+      <c r="AU110" s="6"/>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -4508,8 +5553,15 @@
       </c>
       <c r="AL111" s="5"/>
       <c r="AM111" s="6"/>
-    </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO111" s="4"/>
+      <c r="AP111" s="11"/>
+      <c r="AQ111" s="8"/>
+      <c r="AR111" s="14"/>
+      <c r="AS111" s="13"/>
+      <c r="AT111" s="5"/>
+      <c r="AU111" s="6"/>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="11"/>
       <c r="C112" s="8"/>
@@ -4528,8 +5580,15 @@
       <c r="AK112" s="13"/>
       <c r="AL112" s="5"/>
       <c r="AM112" s="6"/>
-    </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO112" s="4"/>
+      <c r="AP112" s="11"/>
+      <c r="AQ112" s="8"/>
+      <c r="AR112" s="14"/>
+      <c r="AS112" s="13"/>
+      <c r="AT112" s="5"/>
+      <c r="AU112" s="6"/>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
@@ -4548,8 +5607,15 @@
       <c r="AK113" s="13"/>
       <c r="AL113" s="5"/>
       <c r="AM113" s="6"/>
-    </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO113" s="4"/>
+      <c r="AP113" s="11"/>
+      <c r="AQ113" s="8"/>
+      <c r="AR113" s="14"/>
+      <c r="AS113" s="13"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="6"/>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
@@ -4568,8 +5634,15 @@
       <c r="AK114" s="13"/>
       <c r="AL114" s="5"/>
       <c r="AM114" s="6"/>
-    </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO114" s="4"/>
+      <c r="AP114" s="11"/>
+      <c r="AQ114" s="8"/>
+      <c r="AR114" s="14"/>
+      <c r="AS114" s="13"/>
+      <c r="AT114" s="5"/>
+      <c r="AU114" s="6"/>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="11"/>
       <c r="C115" s="8"/>
@@ -4588,8 +5661,15 @@
       <c r="AK115" s="13"/>
       <c r="AL115" s="5"/>
       <c r="AM115" s="6"/>
-    </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO115" s="4"/>
+      <c r="AP115" s="11"/>
+      <c r="AQ115" s="8"/>
+      <c r="AR115" s="14"/>
+      <c r="AS115" s="13"/>
+      <c r="AT115" s="5"/>
+      <c r="AU115" s="6"/>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="11"/>
       <c r="C116" s="8"/>
@@ -4608,8 +5688,15 @@
       <c r="AK116" s="13"/>
       <c r="AL116" s="5"/>
       <c r="AM116" s="6"/>
-    </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO116" s="4"/>
+      <c r="AP116" s="11"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="14"/>
+      <c r="AS116" s="13"/>
+      <c r="AT116" s="5"/>
+      <c r="AU116" s="6"/>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="11"/>
       <c r="C117" s="8"/>
@@ -4630,8 +5717,15 @@
       </c>
       <c r="AL117" s="5"/>
       <c r="AM117" s="6"/>
-    </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO117" s="4"/>
+      <c r="AP117" s="11"/>
+      <c r="AQ117" s="8"/>
+      <c r="AR117" s="14"/>
+      <c r="AS117" s="13"/>
+      <c r="AT117" s="5"/>
+      <c r="AU117" s="6"/>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="11"/>
       <c r="C118" s="8"/>
@@ -4650,8 +5744,15 @@
       <c r="AK118" s="13"/>
       <c r="AL118" s="5"/>
       <c r="AM118" s="6"/>
-    </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO118" s="4"/>
+      <c r="AP118" s="11"/>
+      <c r="AQ118" s="8"/>
+      <c r="AR118" s="14"/>
+      <c r="AS118" s="13"/>
+      <c r="AT118" s="5"/>
+      <c r="AU118" s="6"/>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="11"/>
       <c r="C119" s="8"/>
@@ -4670,8 +5771,15 @@
       <c r="AK119" s="13"/>
       <c r="AL119" s="5"/>
       <c r="AM119" s="6"/>
-    </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO119" s="4"/>
+      <c r="AP119" s="11"/>
+      <c r="AQ119" s="8"/>
+      <c r="AR119" s="14"/>
+      <c r="AS119" s="13"/>
+      <c r="AT119" s="5"/>
+      <c r="AU119" s="6"/>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="11"/>
       <c r="C120" s="8"/>
@@ -4690,8 +5798,15 @@
       <c r="AK120" s="13"/>
       <c r="AL120" s="5"/>
       <c r="AM120" s="6"/>
-    </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO120" s="4"/>
+      <c r="AP120" s="11"/>
+      <c r="AQ120" s="8"/>
+      <c r="AR120" s="14"/>
+      <c r="AS120" s="13"/>
+      <c r="AT120" s="5"/>
+      <c r="AU120" s="6"/>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="11"/>
       <c r="C121" s="8"/>
@@ -4712,8 +5827,15 @@
       </c>
       <c r="AL121" s="5"/>
       <c r="AM121" s="6"/>
-    </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO121" s="4"/>
+      <c r="AP121" s="11"/>
+      <c r="AQ121" s="8"/>
+      <c r="AR121" s="14"/>
+      <c r="AS121" s="13"/>
+      <c r="AT121" s="5"/>
+      <c r="AU121" s="6"/>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="11"/>
       <c r="C122" s="8"/>
@@ -4728,8 +5850,15 @@
       <c r="AK122" s="13"/>
       <c r="AL122" s="5"/>
       <c r="AM122" s="6"/>
-    </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO122" s="4"/>
+      <c r="AP122" s="11"/>
+      <c r="AQ122" s="8"/>
+      <c r="AR122" s="14"/>
+      <c r="AS122" s="13"/>
+      <c r="AT122" s="5"/>
+      <c r="AU122" s="6"/>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="11"/>
       <c r="C123" s="8"/>
@@ -4738,14 +5867,29 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="AG123" s="4"/>
-      <c r="AH123" s="11"/>
-      <c r="AI123" s="8"/>
-      <c r="AJ123" s="14"/>
-      <c r="AK123" s="13"/>
+      <c r="AH123" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI123" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ123" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK123" s="13">
+        <v>4</v>
+      </c>
       <c r="AL123" s="5"/>
       <c r="AM123" s="6"/>
-    </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO123" s="4"/>
+      <c r="AP123" s="11"/>
+      <c r="AQ123" s="8"/>
+      <c r="AR123" s="14"/>
+      <c r="AS123" s="13"/>
+      <c r="AT123" s="5"/>
+      <c r="AU123" s="6"/>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="11"/>
       <c r="C124" s="8"/>
@@ -4755,13 +5899,26 @@
       <c r="G124" s="6"/>
       <c r="AG124" s="4"/>
       <c r="AH124" s="11"/>
-      <c r="AI124" s="8"/>
-      <c r="AJ124" s="14"/>
-      <c r="AK124" s="13"/>
+      <c r="AI124" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ124" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK124" s="13">
+        <v>3</v>
+      </c>
       <c r="AL124" s="5"/>
       <c r="AM124" s="6"/>
-    </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO124" s="4"/>
+      <c r="AP124" s="11"/>
+      <c r="AQ124" s="8"/>
+      <c r="AR124" s="14"/>
+      <c r="AS124" s="13"/>
+      <c r="AT124" s="5"/>
+      <c r="AU124" s="6"/>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
@@ -4771,13 +5928,24 @@
       <c r="G125" s="6"/>
       <c r="AG125" s="4"/>
       <c r="AH125" s="11"/>
-      <c r="AI125" s="8"/>
-      <c r="AJ125" s="14"/>
+      <c r="AI125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ125" s="14">
+        <v>3</v>
+      </c>
       <c r="AK125" s="13"/>
       <c r="AL125" s="5"/>
       <c r="AM125" s="6"/>
-    </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO125" s="4"/>
+      <c r="AP125" s="11"/>
+      <c r="AQ125" s="8"/>
+      <c r="AR125" s="14"/>
+      <c r="AS125" s="13"/>
+      <c r="AT125" s="5"/>
+      <c r="AU125" s="6"/>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
@@ -4787,13 +5955,24 @@
       <c r="G126" s="6"/>
       <c r="AG126" s="4"/>
       <c r="AH126" s="11"/>
-      <c r="AI126" s="8"/>
-      <c r="AJ126" s="14"/>
+      <c r="AI126" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ126" s="14">
+        <v>4</v>
+      </c>
       <c r="AK126" s="13"/>
       <c r="AL126" s="5"/>
       <c r="AM126" s="6"/>
-    </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO126" s="4"/>
+      <c r="AP126" s="11"/>
+      <c r="AQ126" s="8"/>
+      <c r="AR126" s="14"/>
+      <c r="AS126" s="13"/>
+      <c r="AT126" s="5"/>
+      <c r="AU126" s="6"/>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="11"/>
       <c r="C127" s="8"/>
@@ -4803,13 +5982,24 @@
       <c r="G127" s="6"/>
       <c r="AG127" s="4"/>
       <c r="AH127" s="11"/>
-      <c r="AI127" s="8"/>
-      <c r="AJ127" s="14"/>
+      <c r="AI127" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ127" s="14">
+        <v>3</v>
+      </c>
       <c r="AK127" s="13"/>
       <c r="AL127" s="5"/>
       <c r="AM127" s="6"/>
-    </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO127" s="4"/>
+      <c r="AP127" s="11"/>
+      <c r="AQ127" s="8"/>
+      <c r="AR127" s="14"/>
+      <c r="AS127" s="13"/>
+      <c r="AT127" s="5"/>
+      <c r="AU127" s="6"/>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
@@ -4819,13 +6009,24 @@
       <c r="G128" s="6"/>
       <c r="AG128" s="4"/>
       <c r="AH128" s="11"/>
-      <c r="AI128" s="8"/>
-      <c r="AJ128" s="14"/>
+      <c r="AI128" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ128" s="14">
+        <v>5</v>
+      </c>
       <c r="AK128" s="13"/>
       <c r="AL128" s="5"/>
       <c r="AM128" s="6"/>
-    </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO128" s="4"/>
+      <c r="AP128" s="11"/>
+      <c r="AQ128" s="8"/>
+      <c r="AR128" s="14"/>
+      <c r="AS128" s="13"/>
+      <c r="AT128" s="5"/>
+      <c r="AU128" s="6"/>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
@@ -4835,13 +6036,26 @@
       <c r="G129" s="6"/>
       <c r="AG129" s="4"/>
       <c r="AH129" s="11"/>
-      <c r="AI129" s="8"/>
-      <c r="AJ129" s="14"/>
-      <c r="AK129" s="13"/>
+      <c r="AI129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ129" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK129" s="13">
+        <v>2</v>
+      </c>
       <c r="AL129" s="5"/>
       <c r="AM129" s="6"/>
-    </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO129" s="4"/>
+      <c r="AP129" s="11"/>
+      <c r="AQ129" s="8"/>
+      <c r="AR129" s="14"/>
+      <c r="AS129" s="13"/>
+      <c r="AT129" s="5"/>
+      <c r="AU129" s="6"/>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="11"/>
       <c r="C130" s="8"/>
@@ -4851,13 +6065,24 @@
       <c r="G130" s="6"/>
       <c r="AG130" s="4"/>
       <c r="AH130" s="11"/>
-      <c r="AI130" s="8"/>
-      <c r="AJ130" s="14"/>
+      <c r="AI130" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ130" s="14">
+        <v>2</v>
+      </c>
       <c r="AK130" s="13"/>
       <c r="AL130" s="5"/>
       <c r="AM130" s="6"/>
-    </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO130" s="4"/>
+      <c r="AP130" s="11"/>
+      <c r="AQ130" s="8"/>
+      <c r="AR130" s="14"/>
+      <c r="AS130" s="13"/>
+      <c r="AT130" s="5"/>
+      <c r="AU130" s="6"/>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
@@ -4867,13 +6092,24 @@
       <c r="G131" s="6"/>
       <c r="AG131" s="4"/>
       <c r="AH131" s="11"/>
-      <c r="AI131" s="8"/>
-      <c r="AJ131" s="14"/>
+      <c r="AI131" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ131" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK131" s="13"/>
       <c r="AL131" s="5"/>
       <c r="AM131" s="6"/>
-    </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO131" s="4"/>
+      <c r="AP131" s="11"/>
+      <c r="AQ131" s="8"/>
+      <c r="AR131" s="14"/>
+      <c r="AS131" s="13"/>
+      <c r="AT131" s="5"/>
+      <c r="AU131" s="6"/>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="11"/>
       <c r="C132" s="8"/>
@@ -4883,13 +6119,24 @@
       <c r="G132" s="6"/>
       <c r="AG132" s="4"/>
       <c r="AH132" s="11"/>
-      <c r="AI132" s="8"/>
-      <c r="AJ132" s="14"/>
+      <c r="AI132" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ132" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK132" s="13"/>
       <c r="AL132" s="5"/>
       <c r="AM132" s="6"/>
-    </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO132" s="4"/>
+      <c r="AP132" s="11"/>
+      <c r="AQ132" s="8"/>
+      <c r="AR132" s="14"/>
+      <c r="AS132" s="13"/>
+      <c r="AT132" s="5"/>
+      <c r="AU132" s="6"/>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="11"/>
       <c r="C133" s="8"/>
@@ -4899,13 +6146,24 @@
       <c r="G133" s="6"/>
       <c r="AG133" s="4"/>
       <c r="AH133" s="11"/>
-      <c r="AI133" s="8"/>
-      <c r="AJ133" s="14"/>
+      <c r="AI133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ133" s="14">
+        <v>1</v>
+      </c>
       <c r="AK133" s="13"/>
       <c r="AL133" s="5"/>
       <c r="AM133" s="6"/>
-    </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO133" s="4"/>
+      <c r="AP133" s="11"/>
+      <c r="AQ133" s="8"/>
+      <c r="AR133" s="14"/>
+      <c r="AS133" s="13"/>
+      <c r="AT133" s="5"/>
+      <c r="AU133" s="6"/>
+    </row>
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
@@ -4915,13 +6173,24 @@
       <c r="G134" s="6"/>
       <c r="AG134" s="4"/>
       <c r="AH134" s="11"/>
-      <c r="AI134" s="8"/>
-      <c r="AJ134" s="14"/>
+      <c r="AI134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ134" s="14">
+        <v>1</v>
+      </c>
       <c r="AK134" s="13"/>
       <c r="AL134" s="5"/>
       <c r="AM134" s="6"/>
-    </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO134" s="4"/>
+      <c r="AP134" s="11"/>
+      <c r="AQ134" s="8"/>
+      <c r="AR134" s="14"/>
+      <c r="AS134" s="13"/>
+      <c r="AT134" s="5"/>
+      <c r="AU134" s="6"/>
+    </row>
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="11"/>
       <c r="C135" s="8"/>
@@ -4931,13 +6200,26 @@
       <c r="G135" s="6"/>
       <c r="AG135" s="4"/>
       <c r="AH135" s="11"/>
-      <c r="AI135" s="8"/>
-      <c r="AJ135" s="14"/>
-      <c r="AK135" s="13"/>
+      <c r="AI135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ135" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK135" s="13">
+        <v>1</v>
+      </c>
       <c r="AL135" s="5"/>
       <c r="AM135" s="6"/>
-    </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO135" s="4"/>
+      <c r="AP135" s="11"/>
+      <c r="AQ135" s="8"/>
+      <c r="AR135" s="14"/>
+      <c r="AS135" s="13"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="6"/>
+    </row>
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="11"/>
       <c r="C136" s="8"/>
@@ -4952,8 +6234,15 @@
       <c r="AK136" s="13"/>
       <c r="AL136" s="5"/>
       <c r="AM136" s="6"/>
-    </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO136" s="4"/>
+      <c r="AP136" s="11"/>
+      <c r="AQ136" s="8"/>
+      <c r="AR136" s="14"/>
+      <c r="AS136" s="13"/>
+      <c r="AT136" s="5"/>
+      <c r="AU136" s="6"/>
+    </row>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
@@ -4962,14 +6251,29 @@
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="AG137" s="4"/>
-      <c r="AH137" s="11"/>
-      <c r="AI137" s="8"/>
-      <c r="AJ137" s="14"/>
-      <c r="AK137" s="13"/>
+      <c r="AH137" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI137" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ137" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK137" s="13">
+        <v>4</v>
+      </c>
       <c r="AL137" s="5"/>
       <c r="AM137" s="6"/>
-    </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO137" s="4"/>
+      <c r="AP137" s="11"/>
+      <c r="AQ137" s="8"/>
+      <c r="AR137" s="14"/>
+      <c r="AS137" s="13"/>
+      <c r="AT137" s="5"/>
+      <c r="AU137" s="6"/>
+    </row>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="11"/>
       <c r="C138" s="8"/>
@@ -4979,13 +6283,26 @@
       <c r="G138" s="6"/>
       <c r="AG138" s="4"/>
       <c r="AH138" s="11"/>
-      <c r="AI138" s="8"/>
-      <c r="AJ138" s="14"/>
-      <c r="AK138" s="13"/>
+      <c r="AI138" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ138" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK138" s="13">
+        <v>3</v>
+      </c>
       <c r="AL138" s="5"/>
       <c r="AM138" s="6"/>
-    </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO138" s="4"/>
+      <c r="AP138" s="11"/>
+      <c r="AQ138" s="8"/>
+      <c r="AR138" s="14"/>
+      <c r="AS138" s="13"/>
+      <c r="AT138" s="5"/>
+      <c r="AU138" s="6"/>
+    </row>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="11"/>
       <c r="C139" s="8"/>
@@ -4995,13 +6312,24 @@
       <c r="G139" s="6"/>
       <c r="AG139" s="4"/>
       <c r="AH139" s="11"/>
-      <c r="AI139" s="8"/>
-      <c r="AJ139" s="14"/>
+      <c r="AI139" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ139" s="14">
+        <v>3</v>
+      </c>
       <c r="AK139" s="13"/>
       <c r="AL139" s="5"/>
       <c r="AM139" s="6"/>
-    </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO139" s="4"/>
+      <c r="AP139" s="11"/>
+      <c r="AQ139" s="8"/>
+      <c r="AR139" s="14"/>
+      <c r="AS139" s="13"/>
+      <c r="AT139" s="5"/>
+      <c r="AU139" s="6"/>
+    </row>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="11"/>
       <c r="C140" s="8"/>
@@ -5011,13 +6339,24 @@
       <c r="G140" s="6"/>
       <c r="AG140" s="4"/>
       <c r="AH140" s="11"/>
-      <c r="AI140" s="8"/>
-      <c r="AJ140" s="14"/>
+      <c r="AI140" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ140" s="14">
+        <v>4</v>
+      </c>
       <c r="AK140" s="13"/>
       <c r="AL140" s="5"/>
       <c r="AM140" s="6"/>
-    </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO140" s="4"/>
+      <c r="AP140" s="11"/>
+      <c r="AQ140" s="8"/>
+      <c r="AR140" s="14"/>
+      <c r="AS140" s="13"/>
+      <c r="AT140" s="5"/>
+      <c r="AU140" s="6"/>
+    </row>
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="11"/>
       <c r="C141" s="8"/>
@@ -5027,13 +6366,24 @@
       <c r="G141" s="6"/>
       <c r="AG141" s="4"/>
       <c r="AH141" s="11"/>
-      <c r="AI141" s="8"/>
-      <c r="AJ141" s="14"/>
+      <c r="AI141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ141" s="14">
+        <v>3</v>
+      </c>
       <c r="AK141" s="13"/>
       <c r="AL141" s="5"/>
       <c r="AM141" s="6"/>
-    </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO141" s="4"/>
+      <c r="AP141" s="11"/>
+      <c r="AQ141" s="8"/>
+      <c r="AR141" s="14"/>
+      <c r="AS141" s="13"/>
+      <c r="AT141" s="5"/>
+      <c r="AU141" s="6"/>
+    </row>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
@@ -5043,13 +6393,24 @@
       <c r="G142" s="6"/>
       <c r="AG142" s="4"/>
       <c r="AH142" s="11"/>
-      <c r="AI142" s="8"/>
-      <c r="AJ142" s="14"/>
+      <c r="AI142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ142" s="14">
+        <v>5</v>
+      </c>
       <c r="AK142" s="13"/>
       <c r="AL142" s="5"/>
       <c r="AM142" s="6"/>
-    </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO142" s="4"/>
+      <c r="AP142" s="11"/>
+      <c r="AQ142" s="8"/>
+      <c r="AR142" s="14"/>
+      <c r="AS142" s="13"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="6"/>
+    </row>
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="11"/>
       <c r="C143" s="8"/>
@@ -5059,13 +6420,26 @@
       <c r="G143" s="6"/>
       <c r="AG143" s="4"/>
       <c r="AH143" s="11"/>
-      <c r="AI143" s="8"/>
-      <c r="AJ143" s="14"/>
-      <c r="AK143" s="13"/>
+      <c r="AI143" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ143" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK143" s="13">
+        <v>2</v>
+      </c>
       <c r="AL143" s="5"/>
       <c r="AM143" s="6"/>
-    </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO143" s="4"/>
+      <c r="AP143" s="11"/>
+      <c r="AQ143" s="8"/>
+      <c r="AR143" s="14"/>
+      <c r="AS143" s="13"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="6"/>
+    </row>
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="11"/>
       <c r="C144" s="8"/>
@@ -5075,13 +6449,24 @@
       <c r="G144" s="6"/>
       <c r="AG144" s="4"/>
       <c r="AH144" s="11"/>
-      <c r="AI144" s="8"/>
-      <c r="AJ144" s="14"/>
+      <c r="AI144" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ144" s="14">
+        <v>2</v>
+      </c>
       <c r="AK144" s="13"/>
       <c r="AL144" s="5"/>
       <c r="AM144" s="6"/>
-    </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO144" s="4"/>
+      <c r="AP144" s="11"/>
+      <c r="AQ144" s="8"/>
+      <c r="AR144" s="14"/>
+      <c r="AS144" s="13"/>
+      <c r="AT144" s="5"/>
+      <c r="AU144" s="6"/>
+    </row>
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
@@ -5091,13 +6476,24 @@
       <c r="G145" s="6"/>
       <c r="AG145" s="4"/>
       <c r="AH145" s="11"/>
-      <c r="AI145" s="8"/>
-      <c r="AJ145" s="14"/>
+      <c r="AI145" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ145" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK145" s="13"/>
       <c r="AL145" s="5"/>
       <c r="AM145" s="6"/>
-    </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO145" s="4"/>
+      <c r="AP145" s="11"/>
+      <c r="AQ145" s="8"/>
+      <c r="AR145" s="14"/>
+      <c r="AS145" s="13"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="6"/>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="11"/>
       <c r="C146" s="8"/>
@@ -5107,13 +6503,24 @@
       <c r="G146" s="6"/>
       <c r="AG146" s="4"/>
       <c r="AH146" s="11"/>
-      <c r="AI146" s="8"/>
-      <c r="AJ146" s="14"/>
+      <c r="AI146" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ146" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK146" s="13"/>
       <c r="AL146" s="5"/>
       <c r="AM146" s="6"/>
-    </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO146" s="4"/>
+      <c r="AP146" s="11"/>
+      <c r="AQ146" s="8"/>
+      <c r="AR146" s="14"/>
+      <c r="AS146" s="13"/>
+      <c r="AT146" s="5"/>
+      <c r="AU146" s="6"/>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="11"/>
       <c r="C147" s="8"/>
@@ -5123,13 +6530,24 @@
       <c r="G147" s="6"/>
       <c r="AG147" s="4"/>
       <c r="AH147" s="11"/>
-      <c r="AI147" s="8"/>
-      <c r="AJ147" s="14"/>
+      <c r="AI147" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ147" s="14">
+        <v>1</v>
+      </c>
       <c r="AK147" s="13"/>
       <c r="AL147" s="5"/>
       <c r="AM147" s="6"/>
-    </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO147" s="4"/>
+      <c r="AP147" s="11"/>
+      <c r="AQ147" s="8"/>
+      <c r="AR147" s="14"/>
+      <c r="AS147" s="13"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="6"/>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="11"/>
       <c r="C148" s="8"/>
@@ -5139,13 +6557,24 @@
       <c r="G148" s="6"/>
       <c r="AG148" s="4"/>
       <c r="AH148" s="11"/>
-      <c r="AI148" s="8"/>
-      <c r="AJ148" s="14"/>
+      <c r="AI148" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ148" s="14">
+        <v>1</v>
+      </c>
       <c r="AK148" s="13"/>
       <c r="AL148" s="5"/>
       <c r="AM148" s="6"/>
-    </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO148" s="4"/>
+      <c r="AP148" s="11"/>
+      <c r="AQ148" s="8"/>
+      <c r="AR148" s="14"/>
+      <c r="AS148" s="13"/>
+      <c r="AT148" s="5"/>
+      <c r="AU148" s="6"/>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="11"/>
       <c r="C149" s="8"/>
@@ -5155,13 +6584,26 @@
       <c r="G149" s="6"/>
       <c r="AG149" s="4"/>
       <c r="AH149" s="11"/>
-      <c r="AI149" s="8"/>
-      <c r="AJ149" s="14"/>
-      <c r="AK149" s="13"/>
+      <c r="AI149" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ149" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK149" s="13">
+        <v>1</v>
+      </c>
       <c r="AL149" s="5"/>
       <c r="AM149" s="6"/>
-    </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO149" s="4"/>
+      <c r="AP149" s="11"/>
+      <c r="AQ149" s="8"/>
+      <c r="AR149" s="14"/>
+      <c r="AS149" s="13"/>
+      <c r="AT149" s="5"/>
+      <c r="AU149" s="6"/>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="11"/>
       <c r="C150" s="8"/>
@@ -5176,8 +6618,15 @@
       <c r="AK150" s="13"/>
       <c r="AL150" s="5"/>
       <c r="AM150" s="6"/>
-    </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO150" s="4"/>
+      <c r="AP150" s="11"/>
+      <c r="AQ150" s="8"/>
+      <c r="AR150" s="14"/>
+      <c r="AS150" s="13"/>
+      <c r="AT150" s="5"/>
+      <c r="AU150" s="6"/>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="11"/>
       <c r="C151" s="8"/>
@@ -5186,14 +6635,29 @@
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="AG151" s="4"/>
-      <c r="AH151" s="11"/>
-      <c r="AI151" s="8"/>
-      <c r="AJ151" s="14"/>
-      <c r="AK151" s="13"/>
+      <c r="AH151" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI151" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ151" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK151" s="13">
+        <v>4</v>
+      </c>
       <c r="AL151" s="5"/>
       <c r="AM151" s="6"/>
-    </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO151" s="4"/>
+      <c r="AP151" s="11"/>
+      <c r="AQ151" s="8"/>
+      <c r="AR151" s="14"/>
+      <c r="AS151" s="13"/>
+      <c r="AT151" s="5"/>
+      <c r="AU151" s="6"/>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="11"/>
       <c r="C152" s="8"/>
@@ -5203,13 +6667,26 @@
       <c r="G152" s="6"/>
       <c r="AG152" s="4"/>
       <c r="AH152" s="11"/>
-      <c r="AI152" s="8"/>
-      <c r="AJ152" s="14"/>
-      <c r="AK152" s="13"/>
+      <c r="AI152" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ152" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK152" s="13">
+        <v>3</v>
+      </c>
       <c r="AL152" s="5"/>
       <c r="AM152" s="6"/>
-    </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO152" s="4"/>
+      <c r="AP152" s="11"/>
+      <c r="AQ152" s="8"/>
+      <c r="AR152" s="14"/>
+      <c r="AS152" s="13"/>
+      <c r="AT152" s="5"/>
+      <c r="AU152" s="6"/>
+    </row>
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="11"/>
       <c r="C153" s="8"/>
@@ -5219,13 +6696,24 @@
       <c r="G153" s="6"/>
       <c r="AG153" s="4"/>
       <c r="AH153" s="11"/>
-      <c r="AI153" s="8"/>
-      <c r="AJ153" s="14"/>
+      <c r="AI153" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ153" s="14">
+        <v>3</v>
+      </c>
       <c r="AK153" s="13"/>
       <c r="AL153" s="5"/>
       <c r="AM153" s="6"/>
-    </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO153" s="4"/>
+      <c r="AP153" s="11"/>
+      <c r="AQ153" s="8"/>
+      <c r="AR153" s="14"/>
+      <c r="AS153" s="13"/>
+      <c r="AT153" s="5"/>
+      <c r="AU153" s="6"/>
+    </row>
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="11"/>
       <c r="C154" s="8"/>
@@ -5235,13 +6723,24 @@
       <c r="G154" s="6"/>
       <c r="AG154" s="4"/>
       <c r="AH154" s="11"/>
-      <c r="AI154" s="8"/>
-      <c r="AJ154" s="14"/>
+      <c r="AI154" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ154" s="14">
+        <v>4</v>
+      </c>
       <c r="AK154" s="13"/>
       <c r="AL154" s="5"/>
       <c r="AM154" s="6"/>
-    </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO154" s="4"/>
+      <c r="AP154" s="11"/>
+      <c r="AQ154" s="8"/>
+      <c r="AR154" s="14"/>
+      <c r="AS154" s="13"/>
+      <c r="AT154" s="5"/>
+      <c r="AU154" s="6"/>
+    </row>
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="11"/>
       <c r="C155" s="8"/>
@@ -5251,13 +6750,24 @@
       <c r="G155" s="6"/>
       <c r="AG155" s="4"/>
       <c r="AH155" s="11"/>
-      <c r="AI155" s="8"/>
-      <c r="AJ155" s="14"/>
+      <c r="AI155" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ155" s="14">
+        <v>5</v>
+      </c>
       <c r="AK155" s="13"/>
       <c r="AL155" s="5"/>
       <c r="AM155" s="6"/>
-    </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO155" s="4"/>
+      <c r="AP155" s="11"/>
+      <c r="AQ155" s="8"/>
+      <c r="AR155" s="14"/>
+      <c r="AS155" s="13"/>
+      <c r="AT155" s="5"/>
+      <c r="AU155" s="6"/>
+    </row>
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="11"/>
       <c r="C156" s="8"/>
@@ -5267,13 +6777,26 @@
       <c r="G156" s="6"/>
       <c r="AG156" s="4"/>
       <c r="AH156" s="11"/>
-      <c r="AI156" s="8"/>
-      <c r="AJ156" s="14"/>
-      <c r="AK156" s="13"/>
+      <c r="AI156" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ156" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK156" s="13">
+        <v>2</v>
+      </c>
       <c r="AL156" s="5"/>
       <c r="AM156" s="6"/>
-    </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO156" s="4"/>
+      <c r="AP156" s="11"/>
+      <c r="AQ156" s="8"/>
+      <c r="AR156" s="14"/>
+      <c r="AS156" s="13"/>
+      <c r="AT156" s="5"/>
+      <c r="AU156" s="6"/>
+    </row>
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="11"/>
       <c r="C157" s="8"/>
@@ -5283,13 +6806,24 @@
       <c r="G157" s="6"/>
       <c r="AG157" s="4"/>
       <c r="AH157" s="11"/>
-      <c r="AI157" s="8"/>
-      <c r="AJ157" s="14"/>
+      <c r="AI157" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ157" s="14">
+        <v>2</v>
+      </c>
       <c r="AK157" s="13"/>
       <c r="AL157" s="5"/>
       <c r="AM157" s="6"/>
-    </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO157" s="4"/>
+      <c r="AP157" s="11"/>
+      <c r="AQ157" s="8"/>
+      <c r="AR157" s="14"/>
+      <c r="AS157" s="13"/>
+      <c r="AT157" s="5"/>
+      <c r="AU157" s="6"/>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="11"/>
       <c r="C158" s="8"/>
@@ -5299,13 +6833,24 @@
       <c r="G158" s="6"/>
       <c r="AG158" s="4"/>
       <c r="AH158" s="11"/>
-      <c r="AI158" s="8"/>
-      <c r="AJ158" s="14"/>
+      <c r="AI158" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ158" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK158" s="13"/>
       <c r="AL158" s="5"/>
       <c r="AM158" s="6"/>
-    </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO158" s="4"/>
+      <c r="AP158" s="11"/>
+      <c r="AQ158" s="8"/>
+      <c r="AR158" s="14"/>
+      <c r="AS158" s="13"/>
+      <c r="AT158" s="5"/>
+      <c r="AU158" s="6"/>
+    </row>
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="11"/>
       <c r="C159" s="8"/>
@@ -5315,13 +6860,24 @@
       <c r="G159" s="6"/>
       <c r="AG159" s="4"/>
       <c r="AH159" s="11"/>
-      <c r="AI159" s="8"/>
-      <c r="AJ159" s="14"/>
+      <c r="AI159" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ159" s="14">
+        <v>1.5</v>
+      </c>
       <c r="AK159" s="13"/>
       <c r="AL159" s="5"/>
       <c r="AM159" s="6"/>
-    </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO159" s="4"/>
+      <c r="AP159" s="11"/>
+      <c r="AQ159" s="8"/>
+      <c r="AR159" s="14"/>
+      <c r="AS159" s="13"/>
+      <c r="AT159" s="5"/>
+      <c r="AU159" s="6"/>
+    </row>
+    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="11"/>
       <c r="C160" s="8"/>
@@ -5331,13 +6887,24 @@
       <c r="G160" s="6"/>
       <c r="AG160" s="4"/>
       <c r="AH160" s="11"/>
-      <c r="AI160" s="8"/>
-      <c r="AJ160" s="14"/>
+      <c r="AI160" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ160" s="14">
+        <v>1</v>
+      </c>
       <c r="AK160" s="13"/>
       <c r="AL160" s="5"/>
       <c r="AM160" s="6"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AO160" s="4"/>
+      <c r="AP160" s="11"/>
+      <c r="AQ160" s="8"/>
+      <c r="AR160" s="14"/>
+      <c r="AS160" s="13"/>
+      <c r="AT160" s="5"/>
+      <c r="AU160" s="6"/>
+    </row>
+    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="11"/>
       <c r="C161" s="8"/>
@@ -5345,8 +6912,26 @@
       <c r="E161" s="13"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG161" s="4"/>
+      <c r="AH161" s="11"/>
+      <c r="AI161" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ161" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK161" s="13"/>
+      <c r="AL161" s="5"/>
+      <c r="AM161" s="6"/>
+      <c r="AO161" s="4"/>
+      <c r="AP161" s="11"/>
+      <c r="AQ161" s="8"/>
+      <c r="AR161" s="14"/>
+      <c r="AS161" s="13"/>
+      <c r="AT161" s="5"/>
+      <c r="AU161" s="6"/>
+    </row>
+    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="11"/>
       <c r="C162" s="8"/>
@@ -5354,8 +6939,26 @@
       <c r="E162" s="13"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG162" s="4"/>
+      <c r="AH162" s="11"/>
+      <c r="AI162" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ162" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK162" s="13"/>
+      <c r="AL162" s="5"/>
+      <c r="AM162" s="6"/>
+      <c r="AO162" s="4"/>
+      <c r="AP162" s="11"/>
+      <c r="AQ162" s="8"/>
+      <c r="AR162" s="14"/>
+      <c r="AS162" s="13"/>
+      <c r="AT162" s="5"/>
+      <c r="AU162" s="6"/>
+    </row>
+    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="11"/>
       <c r="C163" s="8"/>
@@ -5363,8 +6966,28 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG163" s="4"/>
+      <c r="AH163" s="11"/>
+      <c r="AI163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ163" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK163" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL163" s="5"/>
+      <c r="AM163" s="6"/>
+      <c r="AO163" s="4"/>
+      <c r="AP163" s="11"/>
+      <c r="AQ163" s="8"/>
+      <c r="AR163" s="14"/>
+      <c r="AS163" s="13"/>
+      <c r="AT163" s="5"/>
+      <c r="AU163" s="6"/>
+    </row>
+    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="11"/>
       <c r="C164" s="8"/>
@@ -5372,8 +6995,22 @@
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG164" s="4"/>
+      <c r="AH164" s="11"/>
+      <c r="AI164" s="8"/>
+      <c r="AJ164" s="14"/>
+      <c r="AK164" s="13"/>
+      <c r="AL164" s="5"/>
+      <c r="AM164" s="6"/>
+      <c r="AO164" s="4"/>
+      <c r="AP164" s="11"/>
+      <c r="AQ164" s="8"/>
+      <c r="AR164" s="14"/>
+      <c r="AS164" s="13"/>
+      <c r="AT164" s="5"/>
+      <c r="AU164" s="6"/>
+    </row>
+    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="11"/>
       <c r="C165" s="8"/>
@@ -5381,8 +7018,34 @@
       <c r="E165" s="13"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG165" s="4"/>
+      <c r="AH165" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI165" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ165" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK165" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL165" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM165" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO165" s="4"/>
+      <c r="AP165" s="11"/>
+      <c r="AQ165" s="8"/>
+      <c r="AR165" s="14"/>
+      <c r="AS165" s="13"/>
+      <c r="AT165" s="5"/>
+      <c r="AU165" s="6"/>
+    </row>
+    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="11"/>
       <c r="C166" s="8"/>
@@ -5390,8 +7053,26 @@
       <c r="E166" s="13"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG166" s="4"/>
+      <c r="AH166" s="11"/>
+      <c r="AI166" s="8"/>
+      <c r="AJ166" s="14"/>
+      <c r="AK166" s="13"/>
+      <c r="AL166" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM166" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO166" s="4"/>
+      <c r="AP166" s="11"/>
+      <c r="AQ166" s="8"/>
+      <c r="AR166" s="14"/>
+      <c r="AS166" s="13"/>
+      <c r="AT166" s="5"/>
+      <c r="AU166" s="6"/>
+    </row>
+    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="11"/>
       <c r="C167" s="8"/>
@@ -5399,8 +7080,26 @@
       <c r="E167" s="13"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG167" s="4"/>
+      <c r="AH167" s="11"/>
+      <c r="AI167" s="8"/>
+      <c r="AJ167" s="14"/>
+      <c r="AK167" s="13"/>
+      <c r="AL167" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM167" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO167" s="4"/>
+      <c r="AP167" s="11"/>
+      <c r="AQ167" s="8"/>
+      <c r="AR167" s="14"/>
+      <c r="AS167" s="13"/>
+      <c r="AT167" s="5"/>
+      <c r="AU167" s="6"/>
+    </row>
+    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="11"/>
       <c r="C168" s="8"/>
@@ -5408,8 +7107,28 @@
       <c r="E168" s="13"/>
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG168" s="4"/>
+      <c r="AH168" s="11"/>
+      <c r="AI168" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ168" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK168" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL168" s="5"/>
+      <c r="AM168" s="18"/>
+      <c r="AO168" s="4"/>
+      <c r="AP168" s="11"/>
+      <c r="AQ168" s="8"/>
+      <c r="AR168" s="14"/>
+      <c r="AS168" s="13"/>
+      <c r="AT168" s="5"/>
+      <c r="AU168" s="6"/>
+    </row>
+    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="11"/>
       <c r="C169" s="8"/>
@@ -5417,8 +7136,26 @@
       <c r="E169" s="13"/>
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG169" s="4"/>
+      <c r="AH169" s="11"/>
+      <c r="AI169" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ169" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK169" s="13"/>
+      <c r="AL169" s="5"/>
+      <c r="AM169" s="18"/>
+      <c r="AO169" s="4"/>
+      <c r="AP169" s="11"/>
+      <c r="AQ169" s="8"/>
+      <c r="AR169" s="14"/>
+      <c r="AS169" s="13"/>
+      <c r="AT169" s="5"/>
+      <c r="AU169" s="6"/>
+    </row>
+    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="11"/>
       <c r="C170" s="8"/>
@@ -5426,8 +7163,26 @@
       <c r="E170" s="13"/>
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG170" s="4"/>
+      <c r="AH170" s="11"/>
+      <c r="AI170" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ170" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK170" s="13"/>
+      <c r="AL170" s="5"/>
+      <c r="AM170" s="18"/>
+      <c r="AO170" s="4"/>
+      <c r="AP170" s="11"/>
+      <c r="AQ170" s="8"/>
+      <c r="AR170" s="14"/>
+      <c r="AS170" s="13"/>
+      <c r="AT170" s="5"/>
+      <c r="AU170" s="6"/>
+    </row>
+    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="11"/>
       <c r="C171" s="8"/>
@@ -5435,8 +7190,26 @@
       <c r="E171" s="13"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG171" s="4"/>
+      <c r="AH171" s="11"/>
+      <c r="AI171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ171" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK171" s="13"/>
+      <c r="AL171" s="5"/>
+      <c r="AM171" s="18"/>
+      <c r="AO171" s="4"/>
+      <c r="AP171" s="11"/>
+      <c r="AQ171" s="8"/>
+      <c r="AR171" s="14"/>
+      <c r="AS171" s="13"/>
+      <c r="AT171" s="5"/>
+      <c r="AU171" s="6"/>
+    </row>
+    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="11"/>
       <c r="C172" s="8"/>
@@ -5444,8 +7217,26 @@
       <c r="E172" s="13"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG172" s="4"/>
+      <c r="AH172" s="11"/>
+      <c r="AI172" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ172" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK172" s="13"/>
+      <c r="AL172" s="5"/>
+      <c r="AM172" s="18"/>
+      <c r="AO172" s="4"/>
+      <c r="AP172" s="11"/>
+      <c r="AQ172" s="8"/>
+      <c r="AR172" s="14"/>
+      <c r="AS172" s="13"/>
+      <c r="AT172" s="5"/>
+      <c r="AU172" s="6"/>
+    </row>
+    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="11"/>
       <c r="C173" s="8"/>
@@ -5453,8 +7244,28 @@
       <c r="E173" s="13"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG173" s="4"/>
+      <c r="AH173" s="11"/>
+      <c r="AI173" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ173" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK173" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL173" s="5"/>
+      <c r="AM173" s="18"/>
+      <c r="AO173" s="4"/>
+      <c r="AP173" s="11"/>
+      <c r="AQ173" s="8"/>
+      <c r="AR173" s="14"/>
+      <c r="AS173" s="13"/>
+      <c r="AT173" s="5"/>
+      <c r="AU173" s="6"/>
+    </row>
+    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="11"/>
       <c r="C174" s="8"/>
@@ -5462,8 +7273,26 @@
       <c r="E174" s="13"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG174" s="4"/>
+      <c r="AH174" s="11"/>
+      <c r="AI174" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ174" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK174" s="13"/>
+      <c r="AL174" s="5"/>
+      <c r="AM174" s="18"/>
+      <c r="AO174" s="4"/>
+      <c r="AP174" s="11"/>
+      <c r="AQ174" s="8"/>
+      <c r="AR174" s="14"/>
+      <c r="AS174" s="13"/>
+      <c r="AT174" s="5"/>
+      <c r="AU174" s="6"/>
+    </row>
+    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="11"/>
       <c r="C175" s="8"/>
@@ -5471,8 +7300,26 @@
       <c r="E175" s="13"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG175" s="4"/>
+      <c r="AH175" s="11"/>
+      <c r="AI175" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ175" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK175" s="13"/>
+      <c r="AL175" s="5"/>
+      <c r="AM175" s="18"/>
+      <c r="AO175" s="4"/>
+      <c r="AP175" s="11"/>
+      <c r="AQ175" s="8"/>
+      <c r="AR175" s="14"/>
+      <c r="AS175" s="13"/>
+      <c r="AT175" s="5"/>
+      <c r="AU175" s="6"/>
+    </row>
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="11"/>
       <c r="C176" s="8"/>
@@ -5480,8 +7327,26 @@
       <c r="E176" s="13"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG176" s="4"/>
+      <c r="AH176" s="11"/>
+      <c r="AI176" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ176" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK176" s="13"/>
+      <c r="AL176" s="5"/>
+      <c r="AM176" s="18"/>
+      <c r="AO176" s="4"/>
+      <c r="AP176" s="11"/>
+      <c r="AQ176" s="8"/>
+      <c r="AR176" s="14"/>
+      <c r="AS176" s="13"/>
+      <c r="AT176" s="5"/>
+      <c r="AU176" s="6"/>
+    </row>
+    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="11"/>
       <c r="C177" s="8"/>
@@ -5489,8 +7354,26 @@
       <c r="E177" s="13"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG177" s="4"/>
+      <c r="AH177" s="11"/>
+      <c r="AI177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ177" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK177" s="13"/>
+      <c r="AL177" s="5"/>
+      <c r="AM177" s="18"/>
+      <c r="AO177" s="4"/>
+      <c r="AP177" s="11"/>
+      <c r="AQ177" s="8"/>
+      <c r="AR177" s="14"/>
+      <c r="AS177" s="13"/>
+      <c r="AT177" s="5"/>
+      <c r="AU177" s="6"/>
+    </row>
+    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="11"/>
       <c r="C178" s="8"/>
@@ -5498,8 +7381,28 @@
       <c r="E178" s="13"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG178" s="4"/>
+      <c r="AH178" s="11"/>
+      <c r="AI178" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ178" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK178" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL178" s="5"/>
+      <c r="AM178" s="18"/>
+      <c r="AO178" s="4"/>
+      <c r="AP178" s="11"/>
+      <c r="AQ178" s="8"/>
+      <c r="AR178" s="14"/>
+      <c r="AS178" s="13"/>
+      <c r="AT178" s="5"/>
+      <c r="AU178" s="6"/>
+    </row>
+    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="11"/>
       <c r="C179" s="8"/>
@@ -5507,8 +7410,22 @@
       <c r="E179" s="13"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG179" s="4"/>
+      <c r="AH179" s="11"/>
+      <c r="AI179" s="8"/>
+      <c r="AJ179" s="14"/>
+      <c r="AK179" s="13"/>
+      <c r="AL179" s="5"/>
+      <c r="AM179" s="18"/>
+      <c r="AO179" s="4"/>
+      <c r="AP179" s="11"/>
+      <c r="AQ179" s="8"/>
+      <c r="AR179" s="14"/>
+      <c r="AS179" s="13"/>
+      <c r="AT179" s="5"/>
+      <c r="AU179" s="6"/>
+    </row>
+    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="11"/>
       <c r="C180" s="8"/>
@@ -5516,8 +7433,34 @@
       <c r="E180" s="13"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG180" s="4"/>
+      <c r="AH180" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI180" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ180" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK180" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL180" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM180" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO180" s="4"/>
+      <c r="AP180" s="11"/>
+      <c r="AQ180" s="8"/>
+      <c r="AR180" s="14"/>
+      <c r="AS180" s="13"/>
+      <c r="AT180" s="5"/>
+      <c r="AU180" s="6"/>
+    </row>
+    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="11"/>
       <c r="C181" s="8"/>
@@ -5525,8 +7468,26 @@
       <c r="E181" s="13"/>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="11"/>
+      <c r="AI181" s="8"/>
+      <c r="AJ181" s="14"/>
+      <c r="AK181" s="13"/>
+      <c r="AL181" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM181" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO181" s="4"/>
+      <c r="AP181" s="11"/>
+      <c r="AQ181" s="8"/>
+      <c r="AR181" s="14"/>
+      <c r="AS181" s="13"/>
+      <c r="AT181" s="5"/>
+      <c r="AU181" s="6"/>
+    </row>
+    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="11"/>
       <c r="C182" s="8"/>
@@ -5534,8 +7495,26 @@
       <c r="E182" s="13"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG182" s="4"/>
+      <c r="AH182" s="11"/>
+      <c r="AI182" s="8"/>
+      <c r="AJ182" s="14"/>
+      <c r="AK182" s="13"/>
+      <c r="AL182" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM182" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO182" s="4"/>
+      <c r="AP182" s="11"/>
+      <c r="AQ182" s="8"/>
+      <c r="AR182" s="14"/>
+      <c r="AS182" s="13"/>
+      <c r="AT182" s="5"/>
+      <c r="AU182" s="6"/>
+    </row>
+    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="11"/>
       <c r="C183" s="8"/>
@@ -5543,8 +7522,28 @@
       <c r="E183" s="13"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG183" s="4"/>
+      <c r="AH183" s="11"/>
+      <c r="AI183" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ183" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK183" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL183" s="5"/>
+      <c r="AM183" s="18"/>
+      <c r="AO183" s="4"/>
+      <c r="AP183" s="11"/>
+      <c r="AQ183" s="8"/>
+      <c r="AR183" s="14"/>
+      <c r="AS183" s="13"/>
+      <c r="AT183" s="5"/>
+      <c r="AU183" s="6"/>
+    </row>
+    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="11"/>
       <c r="C184" s="8"/>
@@ -5552,8 +7551,26 @@
       <c r="E184" s="13"/>
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG184" s="4"/>
+      <c r="AH184" s="11"/>
+      <c r="AI184" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ184" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK184" s="13"/>
+      <c r="AL184" s="5"/>
+      <c r="AM184" s="18"/>
+      <c r="AO184" s="4"/>
+      <c r="AP184" s="11"/>
+      <c r="AQ184" s="8"/>
+      <c r="AR184" s="14"/>
+      <c r="AS184" s="13"/>
+      <c r="AT184" s="5"/>
+      <c r="AU184" s="6"/>
+    </row>
+    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="11"/>
       <c r="C185" s="8"/>
@@ -5561,8 +7578,26 @@
       <c r="E185" s="13"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG185" s="4"/>
+      <c r="AH185" s="11"/>
+      <c r="AI185" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ185" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK185" s="13"/>
+      <c r="AL185" s="5"/>
+      <c r="AM185" s="18"/>
+      <c r="AO185" s="4"/>
+      <c r="AP185" s="11"/>
+      <c r="AQ185" s="8"/>
+      <c r="AR185" s="14"/>
+      <c r="AS185" s="13"/>
+      <c r="AT185" s="5"/>
+      <c r="AU185" s="6"/>
+    </row>
+    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="11"/>
       <c r="C186" s="8"/>
@@ -5570,8 +7605,26 @@
       <c r="E186" s="13"/>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG186" s="4"/>
+      <c r="AH186" s="11"/>
+      <c r="AI186" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ186" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK186" s="13"/>
+      <c r="AL186" s="5"/>
+      <c r="AM186" s="18"/>
+      <c r="AO186" s="4"/>
+      <c r="AP186" s="11"/>
+      <c r="AQ186" s="8"/>
+      <c r="AR186" s="14"/>
+      <c r="AS186" s="13"/>
+      <c r="AT186" s="5"/>
+      <c r="AU186" s="6"/>
+    </row>
+    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="11"/>
       <c r="C187" s="8"/>
@@ -5579,8 +7632,26 @@
       <c r="E187" s="13"/>
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG187" s="4"/>
+      <c r="AH187" s="11"/>
+      <c r="AI187" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ187" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK187" s="13"/>
+      <c r="AL187" s="5"/>
+      <c r="AM187" s="18"/>
+      <c r="AO187" s="4"/>
+      <c r="AP187" s="11"/>
+      <c r="AQ187" s="8"/>
+      <c r="AR187" s="14"/>
+      <c r="AS187" s="13"/>
+      <c r="AT187" s="5"/>
+      <c r="AU187" s="6"/>
+    </row>
+    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="11"/>
       <c r="C188" s="8"/>
@@ -5588,8 +7659,28 @@
       <c r="E188" s="13"/>
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG188" s="4"/>
+      <c r="AH188" s="11"/>
+      <c r="AI188" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ188" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK188" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL188" s="5"/>
+      <c r="AM188" s="18"/>
+      <c r="AO188" s="4"/>
+      <c r="AP188" s="11"/>
+      <c r="AQ188" s="8"/>
+      <c r="AR188" s="14"/>
+      <c r="AS188" s="13"/>
+      <c r="AT188" s="5"/>
+      <c r="AU188" s="6"/>
+    </row>
+    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="11"/>
       <c r="C189" s="8"/>
@@ -5597,8 +7688,26 @@
       <c r="E189" s="13"/>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG189" s="4"/>
+      <c r="AH189" s="11"/>
+      <c r="AI189" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ189" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK189" s="13"/>
+      <c r="AL189" s="5"/>
+      <c r="AM189" s="18"/>
+      <c r="AO189" s="4"/>
+      <c r="AP189" s="11"/>
+      <c r="AQ189" s="8"/>
+      <c r="AR189" s="14"/>
+      <c r="AS189" s="13"/>
+      <c r="AT189" s="5"/>
+      <c r="AU189" s="6"/>
+    </row>
+    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="11"/>
       <c r="C190" s="8"/>
@@ -5606,8 +7715,26 @@
       <c r="E190" s="13"/>
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG190" s="4"/>
+      <c r="AH190" s="11"/>
+      <c r="AI190" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ190" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK190" s="13"/>
+      <c r="AL190" s="5"/>
+      <c r="AM190" s="18"/>
+      <c r="AO190" s="4"/>
+      <c r="AP190" s="11"/>
+      <c r="AQ190" s="8"/>
+      <c r="AR190" s="14"/>
+      <c r="AS190" s="13"/>
+      <c r="AT190" s="5"/>
+      <c r="AU190" s="6"/>
+    </row>
+    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="11"/>
       <c r="C191" s="8"/>
@@ -5615,8 +7742,26 @@
       <c r="E191" s="13"/>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG191" s="4"/>
+      <c r="AH191" s="11"/>
+      <c r="AI191" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ191" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK191" s="13"/>
+      <c r="AL191" s="5"/>
+      <c r="AM191" s="18"/>
+      <c r="AO191" s="4"/>
+      <c r="AP191" s="11"/>
+      <c r="AQ191" s="8"/>
+      <c r="AR191" s="14"/>
+      <c r="AS191" s="13"/>
+      <c r="AT191" s="5"/>
+      <c r="AU191" s="6"/>
+    </row>
+    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="11"/>
       <c r="C192" s="8"/>
@@ -5624,8 +7769,26 @@
       <c r="E192" s="13"/>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG192" s="4"/>
+      <c r="AH192" s="11"/>
+      <c r="AI192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ192" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK192" s="13"/>
+      <c r="AL192" s="5"/>
+      <c r="AM192" s="18"/>
+      <c r="AO192" s="4"/>
+      <c r="AP192" s="11"/>
+      <c r="AQ192" s="8"/>
+      <c r="AR192" s="14"/>
+      <c r="AS192" s="13"/>
+      <c r="AT192" s="5"/>
+      <c r="AU192" s="6"/>
+    </row>
+    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="11"/>
       <c r="C193" s="8"/>
@@ -5633,8 +7796,28 @@
       <c r="E193" s="13"/>
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG193" s="4"/>
+      <c r="AH193" s="11"/>
+      <c r="AI193" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ193" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK193" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL193" s="5"/>
+      <c r="AM193" s="18"/>
+      <c r="AO193" s="4"/>
+      <c r="AP193" s="11"/>
+      <c r="AQ193" s="8"/>
+      <c r="AR193" s="14"/>
+      <c r="AS193" s="13"/>
+      <c r="AT193" s="5"/>
+      <c r="AU193" s="6"/>
+    </row>
+    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="11"/>
       <c r="C194" s="8"/>
@@ -5642,8 +7825,22 @@
       <c r="E194" s="13"/>
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG194" s="4"/>
+      <c r="AH194" s="11"/>
+      <c r="AI194" s="8"/>
+      <c r="AJ194" s="14"/>
+      <c r="AK194" s="13"/>
+      <c r="AL194" s="5"/>
+      <c r="AM194" s="6"/>
+      <c r="AO194" s="4"/>
+      <c r="AP194" s="11"/>
+      <c r="AQ194" s="8"/>
+      <c r="AR194" s="14"/>
+      <c r="AS194" s="13"/>
+      <c r="AT194" s="5"/>
+      <c r="AU194" s="6"/>
+    </row>
+    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="11"/>
       <c r="C195" s="8"/>
@@ -5651,8 +7848,34 @@
       <c r="E195" s="13"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG195" s="4"/>
+      <c r="AH195" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI195" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ195" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK195" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL195" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM195" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO195" s="4"/>
+      <c r="AP195" s="11"/>
+      <c r="AQ195" s="8"/>
+      <c r="AR195" s="14"/>
+      <c r="AS195" s="13"/>
+      <c r="AT195" s="5"/>
+      <c r="AU195" s="6"/>
+    </row>
+    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="11"/>
       <c r="C196" s="8"/>
@@ -5660,8 +7883,26 @@
       <c r="E196" s="13"/>
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG196" s="4"/>
+      <c r="AH196" s="11"/>
+      <c r="AI196" s="8"/>
+      <c r="AJ196" s="14"/>
+      <c r="AK196" s="13"/>
+      <c r="AL196" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM196" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO196" s="4"/>
+      <c r="AP196" s="11"/>
+      <c r="AQ196" s="8"/>
+      <c r="AR196" s="14"/>
+      <c r="AS196" s="13"/>
+      <c r="AT196" s="5"/>
+      <c r="AU196" s="6"/>
+    </row>
+    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="11"/>
       <c r="C197" s="8"/>
@@ -5669,8 +7910,26 @@
       <c r="E197" s="13"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG197" s="4"/>
+      <c r="AH197" s="11"/>
+      <c r="AI197" s="8"/>
+      <c r="AJ197" s="14"/>
+      <c r="AK197" s="13"/>
+      <c r="AL197" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM197" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO197" s="4"/>
+      <c r="AP197" s="11"/>
+      <c r="AQ197" s="8"/>
+      <c r="AR197" s="14"/>
+      <c r="AS197" s="13"/>
+      <c r="AT197" s="5"/>
+      <c r="AU197" s="6"/>
+    </row>
+    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="11"/>
       <c r="C198" s="8"/>
@@ -5678,8 +7937,28 @@
       <c r="E198" s="13"/>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG198" s="4"/>
+      <c r="AH198" s="11"/>
+      <c r="AI198" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ198" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK198" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL198" s="5"/>
+      <c r="AM198" s="18"/>
+      <c r="AO198" s="4"/>
+      <c r="AP198" s="11"/>
+      <c r="AQ198" s="8"/>
+      <c r="AR198" s="14"/>
+      <c r="AS198" s="13"/>
+      <c r="AT198" s="5"/>
+      <c r="AU198" s="6"/>
+    </row>
+    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="11"/>
       <c r="C199" s="8"/>
@@ -5687,8 +7966,26 @@
       <c r="E199" s="13"/>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG199" s="4"/>
+      <c r="AH199" s="11"/>
+      <c r="AI199" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ199" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK199" s="13"/>
+      <c r="AL199" s="5"/>
+      <c r="AM199" s="18"/>
+      <c r="AO199" s="4"/>
+      <c r="AP199" s="11"/>
+      <c r="AQ199" s="8"/>
+      <c r="AR199" s="14"/>
+      <c r="AS199" s="13"/>
+      <c r="AT199" s="5"/>
+      <c r="AU199" s="6"/>
+    </row>
+    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="11"/>
       <c r="C200" s="8"/>
@@ -5696,8 +7993,26 @@
       <c r="E200" s="13"/>
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG200" s="4"/>
+      <c r="AH200" s="11"/>
+      <c r="AI200" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ200" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK200" s="13"/>
+      <c r="AL200" s="5"/>
+      <c r="AM200" s="18"/>
+      <c r="AO200" s="4"/>
+      <c r="AP200" s="11"/>
+      <c r="AQ200" s="8"/>
+      <c r="AR200" s="14"/>
+      <c r="AS200" s="13"/>
+      <c r="AT200" s="5"/>
+      <c r="AU200" s="6"/>
+    </row>
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="11"/>
       <c r="C201" s="8"/>
@@ -5705,8 +8020,26 @@
       <c r="E201" s="13"/>
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG201" s="4"/>
+      <c r="AH201" s="11"/>
+      <c r="AI201" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ201" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK201" s="13"/>
+      <c r="AL201" s="5"/>
+      <c r="AM201" s="18"/>
+      <c r="AO201" s="4"/>
+      <c r="AP201" s="11"/>
+      <c r="AQ201" s="8"/>
+      <c r="AR201" s="14"/>
+      <c r="AS201" s="13"/>
+      <c r="AT201" s="5"/>
+      <c r="AU201" s="6"/>
+    </row>
+    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="11"/>
       <c r="C202" s="8"/>
@@ -5714,8 +8047,28 @@
       <c r="E202" s="13"/>
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG202" s="4"/>
+      <c r="AH202" s="11"/>
+      <c r="AI202" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ202" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK202" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL202" s="5"/>
+      <c r="AM202" s="18"/>
+      <c r="AO202" s="4"/>
+      <c r="AP202" s="11"/>
+      <c r="AQ202" s="8"/>
+      <c r="AR202" s="14"/>
+      <c r="AS202" s="13"/>
+      <c r="AT202" s="5"/>
+      <c r="AU202" s="6"/>
+    </row>
+    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="11"/>
       <c r="C203" s="8"/>
@@ -5723,8 +8076,26 @@
       <c r="E203" s="13"/>
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG203" s="4"/>
+      <c r="AH203" s="11"/>
+      <c r="AI203" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ203" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK203" s="13"/>
+      <c r="AL203" s="5"/>
+      <c r="AM203" s="18"/>
+      <c r="AO203" s="4"/>
+      <c r="AP203" s="11"/>
+      <c r="AQ203" s="8"/>
+      <c r="AR203" s="14"/>
+      <c r="AS203" s="13"/>
+      <c r="AT203" s="5"/>
+      <c r="AU203" s="6"/>
+    </row>
+    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="11"/>
       <c r="C204" s="8"/>
@@ -5732,8 +8103,26 @@
       <c r="E204" s="13"/>
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG204" s="4"/>
+      <c r="AH204" s="11"/>
+      <c r="AI204" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ204" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK204" s="13"/>
+      <c r="AL204" s="5"/>
+      <c r="AM204" s="18"/>
+      <c r="AO204" s="4"/>
+      <c r="AP204" s="11"/>
+      <c r="AQ204" s="8"/>
+      <c r="AR204" s="14"/>
+      <c r="AS204" s="13"/>
+      <c r="AT204" s="5"/>
+      <c r="AU204" s="6"/>
+    </row>
+    <row r="205" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="11"/>
       <c r="C205" s="8"/>
@@ -5741,8 +8130,26 @@
       <c r="E205" s="13"/>
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG205" s="4"/>
+      <c r="AH205" s="11"/>
+      <c r="AI205" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ205" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK205" s="13"/>
+      <c r="AL205" s="5"/>
+      <c r="AM205" s="18"/>
+      <c r="AO205" s="4"/>
+      <c r="AP205" s="11"/>
+      <c r="AQ205" s="8"/>
+      <c r="AR205" s="14"/>
+      <c r="AS205" s="13"/>
+      <c r="AT205" s="5"/>
+      <c r="AU205" s="6"/>
+    </row>
+    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="11"/>
       <c r="C206" s="8"/>
@@ -5750,8 +8157,26 @@
       <c r="E206" s="13"/>
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG206" s="4"/>
+      <c r="AH206" s="11"/>
+      <c r="AI206" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ206" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK206" s="13"/>
+      <c r="AL206" s="5"/>
+      <c r="AM206" s="18"/>
+      <c r="AO206" s="4"/>
+      <c r="AP206" s="11"/>
+      <c r="AQ206" s="8"/>
+      <c r="AR206" s="14"/>
+      <c r="AS206" s="13"/>
+      <c r="AT206" s="5"/>
+      <c r="AU206" s="6"/>
+    </row>
+    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="11"/>
       <c r="C207" s="8"/>
@@ -5759,8 +8184,26 @@
       <c r="E207" s="13"/>
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG207" s="4"/>
+      <c r="AH207" s="11"/>
+      <c r="AI207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ207" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK207" s="13"/>
+      <c r="AL207" s="5"/>
+      <c r="AM207" s="18"/>
+      <c r="AO207" s="4"/>
+      <c r="AP207" s="11"/>
+      <c r="AQ207" s="8"/>
+      <c r="AR207" s="14"/>
+      <c r="AS207" s="13"/>
+      <c r="AT207" s="5"/>
+      <c r="AU207" s="6"/>
+    </row>
+    <row r="208" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="11"/>
       <c r="C208" s="8"/>
@@ -5768,8 +8211,28 @@
       <c r="E208" s="13"/>
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG208" s="4"/>
+      <c r="AH208" s="11"/>
+      <c r="AI208" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ208" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK208" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL208" s="5"/>
+      <c r="AM208" s="18"/>
+      <c r="AO208" s="4"/>
+      <c r="AP208" s="11"/>
+      <c r="AQ208" s="8"/>
+      <c r="AR208" s="14"/>
+      <c r="AS208" s="13"/>
+      <c r="AT208" s="5"/>
+      <c r="AU208" s="6"/>
+    </row>
+    <row r="209" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="11"/>
       <c r="C209" s="8"/>
@@ -5777,8 +8240,22 @@
       <c r="E209" s="13"/>
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG209" s="4"/>
+      <c r="AH209" s="11"/>
+      <c r="AI209" s="8"/>
+      <c r="AJ209" s="14"/>
+      <c r="AK209" s="13"/>
+      <c r="AL209" s="5"/>
+      <c r="AM209" s="6"/>
+      <c r="AO209" s="4"/>
+      <c r="AP209" s="11"/>
+      <c r="AQ209" s="8"/>
+      <c r="AR209" s="14"/>
+      <c r="AS209" s="13"/>
+      <c r="AT209" s="5"/>
+      <c r="AU209" s="6"/>
+    </row>
+    <row r="210" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="11"/>
       <c r="C210" s="8"/>
@@ -5786,8 +8263,34 @@
       <c r="E210" s="13"/>
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG210" s="4"/>
+      <c r="AH210" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI210" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ210" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK210" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL210" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM210" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO210" s="4"/>
+      <c r="AP210" s="11"/>
+      <c r="AQ210" s="8"/>
+      <c r="AR210" s="14"/>
+      <c r="AS210" s="13"/>
+      <c r="AT210" s="5"/>
+      <c r="AU210" s="6"/>
+    </row>
+    <row r="211" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="11"/>
       <c r="C211" s="8"/>
@@ -5795,8 +8298,26 @@
       <c r="E211" s="13"/>
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG211" s="4"/>
+      <c r="AH211" s="11"/>
+      <c r="AI211" s="8"/>
+      <c r="AJ211" s="14"/>
+      <c r="AK211" s="13"/>
+      <c r="AL211" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM211" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO211" s="4"/>
+      <c r="AP211" s="11"/>
+      <c r="AQ211" s="8"/>
+      <c r="AR211" s="14"/>
+      <c r="AS211" s="13"/>
+      <c r="AT211" s="5"/>
+      <c r="AU211" s="6"/>
+    </row>
+    <row r="212" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="11"/>
       <c r="C212" s="8"/>
@@ -5804,8 +8325,26 @@
       <c r="E212" s="13"/>
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG212" s="4"/>
+      <c r="AH212" s="11"/>
+      <c r="AI212" s="8"/>
+      <c r="AJ212" s="14"/>
+      <c r="AK212" s="13"/>
+      <c r="AL212" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM212" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO212" s="4"/>
+      <c r="AP212" s="11"/>
+      <c r="AQ212" s="8"/>
+      <c r="AR212" s="14"/>
+      <c r="AS212" s="13"/>
+      <c r="AT212" s="5"/>
+      <c r="AU212" s="6"/>
+    </row>
+    <row r="213" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="11"/>
       <c r="C213" s="8"/>
@@ -5813,8 +8352,26 @@
       <c r="E213" s="13"/>
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG213" s="4"/>
+      <c r="AH213" s="11"/>
+      <c r="AI213" s="8"/>
+      <c r="AJ213" s="14"/>
+      <c r="AK213" s="13"/>
+      <c r="AL213" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM213" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO213" s="4"/>
+      <c r="AP213" s="11"/>
+      <c r="AQ213" s="8"/>
+      <c r="AR213" s="14"/>
+      <c r="AS213" s="13"/>
+      <c r="AT213" s="5"/>
+      <c r="AU213" s="6"/>
+    </row>
+    <row r="214" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="11"/>
       <c r="C214" s="8"/>
@@ -5822,8 +8379,28 @@
       <c r="E214" s="13"/>
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG214" s="4"/>
+      <c r="AH214" s="11"/>
+      <c r="AI214" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ214" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK214" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL214" s="5"/>
+      <c r="AM214" s="6"/>
+      <c r="AO214" s="4"/>
+      <c r="AP214" s="11"/>
+      <c r="AQ214" s="8"/>
+      <c r="AR214" s="14"/>
+      <c r="AS214" s="13"/>
+      <c r="AT214" s="5"/>
+      <c r="AU214" s="6"/>
+    </row>
+    <row r="215" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="11"/>
       <c r="C215" s="8"/>
@@ -5831,8 +8408,26 @@
       <c r="E215" s="13"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG215" s="4"/>
+      <c r="AH215" s="11"/>
+      <c r="AI215" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ215" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK215" s="13"/>
+      <c r="AL215" s="5"/>
+      <c r="AM215" s="6"/>
+      <c r="AO215" s="4"/>
+      <c r="AP215" s="11"/>
+      <c r="AQ215" s="8"/>
+      <c r="AR215" s="14"/>
+      <c r="AS215" s="13"/>
+      <c r="AT215" s="5"/>
+      <c r="AU215" s="6"/>
+    </row>
+    <row r="216" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="11"/>
       <c r="C216" s="8"/>
@@ -5840,8 +8435,26 @@
       <c r="E216" s="13"/>
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG216" s="4"/>
+      <c r="AH216" s="11"/>
+      <c r="AI216" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ216" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK216" s="13"/>
+      <c r="AL216" s="5"/>
+      <c r="AM216" s="6"/>
+      <c r="AO216" s="4"/>
+      <c r="AP216" s="11"/>
+      <c r="AQ216" s="8"/>
+      <c r="AR216" s="14"/>
+      <c r="AS216" s="13"/>
+      <c r="AT216" s="5"/>
+      <c r="AU216" s="6"/>
+    </row>
+    <row r="217" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="11"/>
       <c r="C217" s="8"/>
@@ -5849,8 +8462,26 @@
       <c r="E217" s="13"/>
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG217" s="4"/>
+      <c r="AH217" s="11"/>
+      <c r="AI217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ217" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK217" s="13"/>
+      <c r="AL217" s="5"/>
+      <c r="AM217" s="6"/>
+      <c r="AO217" s="4"/>
+      <c r="AP217" s="11"/>
+      <c r="AQ217" s="8"/>
+      <c r="AR217" s="14"/>
+      <c r="AS217" s="13"/>
+      <c r="AT217" s="5"/>
+      <c r="AU217" s="6"/>
+    </row>
+    <row r="218" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="11"/>
       <c r="C218" s="8"/>
@@ -5858,8 +8489,26 @@
       <c r="E218" s="13"/>
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG218" s="4"/>
+      <c r="AH218" s="11"/>
+      <c r="AI218" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ218" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK218" s="13"/>
+      <c r="AL218" s="5"/>
+      <c r="AM218" s="6"/>
+      <c r="AO218" s="4"/>
+      <c r="AP218" s="11"/>
+      <c r="AQ218" s="8"/>
+      <c r="AR218" s="14"/>
+      <c r="AS218" s="13"/>
+      <c r="AT218" s="5"/>
+      <c r="AU218" s="6"/>
+    </row>
+    <row r="219" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="11"/>
       <c r="C219" s="8"/>
@@ -5867,8 +8516,28 @@
       <c r="E219" s="13"/>
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG219" s="4"/>
+      <c r="AH219" s="11"/>
+      <c r="AI219" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ219" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK219" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL219" s="5"/>
+      <c r="AM219" s="6"/>
+      <c r="AO219" s="4"/>
+      <c r="AP219" s="11"/>
+      <c r="AQ219" s="8"/>
+      <c r="AR219" s="14"/>
+      <c r="AS219" s="13"/>
+      <c r="AT219" s="5"/>
+      <c r="AU219" s="6"/>
+    </row>
+    <row r="220" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="11"/>
       <c r="C220" s="8"/>
@@ -5876,8 +8545,26 @@
       <c r="E220" s="13"/>
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG220" s="4"/>
+      <c r="AH220" s="11"/>
+      <c r="AI220" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ220" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK220" s="13"/>
+      <c r="AL220" s="5"/>
+      <c r="AM220" s="6"/>
+      <c r="AO220" s="4"/>
+      <c r="AP220" s="11"/>
+      <c r="AQ220" s="8"/>
+      <c r="AR220" s="14"/>
+      <c r="AS220" s="13"/>
+      <c r="AT220" s="5"/>
+      <c r="AU220" s="6"/>
+    </row>
+    <row r="221" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="11"/>
       <c r="C221" s="8"/>
@@ -5885,8 +8572,26 @@
       <c r="E221" s="13"/>
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG221" s="4"/>
+      <c r="AH221" s="11"/>
+      <c r="AI221" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ221" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK221" s="13"/>
+      <c r="AL221" s="5"/>
+      <c r="AM221" s="6"/>
+      <c r="AO221" s="4"/>
+      <c r="AP221" s="11"/>
+      <c r="AQ221" s="8"/>
+      <c r="AR221" s="14"/>
+      <c r="AS221" s="13"/>
+      <c r="AT221" s="5"/>
+      <c r="AU221" s="6"/>
+    </row>
+    <row r="222" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="11"/>
       <c r="C222" s="8"/>
@@ -5894,8 +8599,26 @@
       <c r="E222" s="13"/>
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG222" s="4"/>
+      <c r="AH222" s="11"/>
+      <c r="AI222" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ222" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK222" s="13"/>
+      <c r="AL222" s="5"/>
+      <c r="AM222" s="6"/>
+      <c r="AO222" s="4"/>
+      <c r="AP222" s="11"/>
+      <c r="AQ222" s="8"/>
+      <c r="AR222" s="14"/>
+      <c r="AS222" s="13"/>
+      <c r="AT222" s="5"/>
+      <c r="AU222" s="6"/>
+    </row>
+    <row r="223" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="11"/>
       <c r="C223" s="8"/>
@@ -5903,8 +8626,26 @@
       <c r="E223" s="13"/>
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG223" s="4"/>
+      <c r="AH223" s="11"/>
+      <c r="AI223" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ223" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK223" s="13"/>
+      <c r="AL223" s="5"/>
+      <c r="AM223" s="6"/>
+      <c r="AO223" s="4"/>
+      <c r="AP223" s="11"/>
+      <c r="AQ223" s="8"/>
+      <c r="AR223" s="14"/>
+      <c r="AS223" s="13"/>
+      <c r="AT223" s="5"/>
+      <c r="AU223" s="6"/>
+    </row>
+    <row r="224" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="11"/>
       <c r="C224" s="8"/>
@@ -5912,8 +8653,26 @@
       <c r="E224" s="13"/>
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG224" s="4"/>
+      <c r="AH224" s="11"/>
+      <c r="AI224" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ224" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK224" s="13"/>
+      <c r="AL224" s="5"/>
+      <c r="AM224" s="6"/>
+      <c r="AO224" s="4"/>
+      <c r="AP224" s="11"/>
+      <c r="AQ224" s="8"/>
+      <c r="AR224" s="14"/>
+      <c r="AS224" s="13"/>
+      <c r="AT224" s="5"/>
+      <c r="AU224" s="6"/>
+    </row>
+    <row r="225" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="11"/>
       <c r="C225" s="8"/>
@@ -5921,8 +8680,28 @@
       <c r="E225" s="13"/>
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG225" s="4"/>
+      <c r="AH225" s="11"/>
+      <c r="AI225" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ225" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK225" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL225" s="5"/>
+      <c r="AM225" s="6"/>
+      <c r="AO225" s="4"/>
+      <c r="AP225" s="11"/>
+      <c r="AQ225" s="8"/>
+      <c r="AR225" s="14"/>
+      <c r="AS225" s="13"/>
+      <c r="AT225" s="5"/>
+      <c r="AU225" s="6"/>
+    </row>
+    <row r="226" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="11"/>
       <c r="C226" s="8"/>
@@ -5930,8 +8709,22 @@
       <c r="E226" s="13"/>
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG226" s="4"/>
+      <c r="AH226" s="11"/>
+      <c r="AI226" s="8"/>
+      <c r="AJ226" s="14"/>
+      <c r="AK226" s="13"/>
+      <c r="AL226" s="5"/>
+      <c r="AM226" s="6"/>
+      <c r="AO226" s="4"/>
+      <c r="AP226" s="11"/>
+      <c r="AQ226" s="8"/>
+      <c r="AR226" s="14"/>
+      <c r="AS226" s="13"/>
+      <c r="AT226" s="5"/>
+      <c r="AU226" s="6"/>
+    </row>
+    <row r="227" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="11"/>
       <c r="C227" s="8"/>
@@ -5939,8 +8732,34 @@
       <c r="E227" s="13"/>
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG227" s="4"/>
+      <c r="AH227" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI227" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ227" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK227" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL227" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM227" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO227" s="4"/>
+      <c r="AP227" s="11"/>
+      <c r="AQ227" s="8"/>
+      <c r="AR227" s="14"/>
+      <c r="AS227" s="13"/>
+      <c r="AT227" s="5"/>
+      <c r="AU227" s="6"/>
+    </row>
+    <row r="228" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="11"/>
       <c r="C228" s="8"/>
@@ -5948,8 +8767,26 @@
       <c r="E228" s="13"/>
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG228" s="4"/>
+      <c r="AH228" s="11"/>
+      <c r="AI228" s="8"/>
+      <c r="AJ228" s="14"/>
+      <c r="AK228" s="13"/>
+      <c r="AL228" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM228" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO228" s="4"/>
+      <c r="AP228" s="11"/>
+      <c r="AQ228" s="8"/>
+      <c r="AR228" s="14"/>
+      <c r="AS228" s="13"/>
+      <c r="AT228" s="5"/>
+      <c r="AU228" s="6"/>
+    </row>
+    <row r="229" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="11"/>
       <c r="C229" s="8"/>
@@ -5957,8 +8794,26 @@
       <c r="E229" s="13"/>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG229" s="4"/>
+      <c r="AH229" s="11"/>
+      <c r="AI229" s="8"/>
+      <c r="AJ229" s="14"/>
+      <c r="AK229" s="13"/>
+      <c r="AL229" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM229" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO229" s="4"/>
+      <c r="AP229" s="11"/>
+      <c r="AQ229" s="8"/>
+      <c r="AR229" s="14"/>
+      <c r="AS229" s="13"/>
+      <c r="AT229" s="5"/>
+      <c r="AU229" s="6"/>
+    </row>
+    <row r="230" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="11"/>
       <c r="C230" s="8"/>
@@ -5966,8 +8821,26 @@
       <c r="E230" s="13"/>
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG230" s="4"/>
+      <c r="AH230" s="11"/>
+      <c r="AI230" s="8"/>
+      <c r="AJ230" s="14"/>
+      <c r="AK230" s="13"/>
+      <c r="AL230" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM230" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO230" s="4"/>
+      <c r="AP230" s="11"/>
+      <c r="AQ230" s="8"/>
+      <c r="AR230" s="14"/>
+      <c r="AS230" s="13"/>
+      <c r="AT230" s="5"/>
+      <c r="AU230" s="6"/>
+    </row>
+    <row r="231" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="11"/>
       <c r="C231" s="8"/>
@@ -5975,8 +8848,28 @@
       <c r="E231" s="13"/>
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG231" s="4"/>
+      <c r="AH231" s="11"/>
+      <c r="AI231" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ231" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK231" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL231" s="5"/>
+      <c r="AM231" s="6"/>
+      <c r="AO231" s="4"/>
+      <c r="AP231" s="11"/>
+      <c r="AQ231" s="8"/>
+      <c r="AR231" s="14"/>
+      <c r="AS231" s="13"/>
+      <c r="AT231" s="5"/>
+      <c r="AU231" s="6"/>
+    </row>
+    <row r="232" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="11"/>
       <c r="C232" s="8"/>
@@ -5984,8 +8877,26 @@
       <c r="E232" s="13"/>
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG232" s="4"/>
+      <c r="AH232" s="11"/>
+      <c r="AI232" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ232" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK232" s="13"/>
+      <c r="AL232" s="5"/>
+      <c r="AM232" s="6"/>
+      <c r="AO232" s="4"/>
+      <c r="AP232" s="11"/>
+      <c r="AQ232" s="8"/>
+      <c r="AR232" s="14"/>
+      <c r="AS232" s="13"/>
+      <c r="AT232" s="5"/>
+      <c r="AU232" s="6"/>
+    </row>
+    <row r="233" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="11"/>
       <c r="C233" s="8"/>
@@ -5993,8 +8904,26 @@
       <c r="E233" s="13"/>
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG233" s="4"/>
+      <c r="AH233" s="11"/>
+      <c r="AI233" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ233" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK233" s="13"/>
+      <c r="AL233" s="5"/>
+      <c r="AM233" s="6"/>
+      <c r="AO233" s="4"/>
+      <c r="AP233" s="11"/>
+      <c r="AQ233" s="8"/>
+      <c r="AR233" s="14"/>
+      <c r="AS233" s="13"/>
+      <c r="AT233" s="5"/>
+      <c r="AU233" s="6"/>
+    </row>
+    <row r="234" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="11"/>
       <c r="C234" s="8"/>
@@ -6002,8 +8931,26 @@
       <c r="E234" s="13"/>
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG234" s="4"/>
+      <c r="AH234" s="11"/>
+      <c r="AI234" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ234" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK234" s="13"/>
+      <c r="AL234" s="5"/>
+      <c r="AM234" s="6"/>
+      <c r="AO234" s="4"/>
+      <c r="AP234" s="11"/>
+      <c r="AQ234" s="8"/>
+      <c r="AR234" s="14"/>
+      <c r="AS234" s="13"/>
+      <c r="AT234" s="5"/>
+      <c r="AU234" s="6"/>
+    </row>
+    <row r="235" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="11"/>
       <c r="C235" s="8"/>
@@ -6011,8 +8958,26 @@
       <c r="E235" s="13"/>
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG235" s="4"/>
+      <c r="AH235" s="11"/>
+      <c r="AI235" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ235" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK235" s="13"/>
+      <c r="AL235" s="5"/>
+      <c r="AM235" s="6"/>
+      <c r="AO235" s="4"/>
+      <c r="AP235" s="11"/>
+      <c r="AQ235" s="8"/>
+      <c r="AR235" s="14"/>
+      <c r="AS235" s="13"/>
+      <c r="AT235" s="5"/>
+      <c r="AU235" s="6"/>
+    </row>
+    <row r="236" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="11"/>
       <c r="C236" s="8"/>
@@ -6020,8 +8985,28 @@
       <c r="E236" s="13"/>
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG236" s="4"/>
+      <c r="AH236" s="11"/>
+      <c r="AI236" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ236" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK236" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL236" s="5"/>
+      <c r="AM236" s="6"/>
+      <c r="AO236" s="4"/>
+      <c r="AP236" s="11"/>
+      <c r="AQ236" s="8"/>
+      <c r="AR236" s="14"/>
+      <c r="AS236" s="13"/>
+      <c r="AT236" s="5"/>
+      <c r="AU236" s="6"/>
+    </row>
+    <row r="237" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="11"/>
       <c r="C237" s="8"/>
@@ -6029,8 +9014,26 @@
       <c r="E237" s="13"/>
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG237" s="4"/>
+      <c r="AH237" s="11"/>
+      <c r="AI237" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ237" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK237" s="13"/>
+      <c r="AL237" s="5"/>
+      <c r="AM237" s="6"/>
+      <c r="AO237" s="4"/>
+      <c r="AP237" s="11"/>
+      <c r="AQ237" s="8"/>
+      <c r="AR237" s="14"/>
+      <c r="AS237" s="13"/>
+      <c r="AT237" s="5"/>
+      <c r="AU237" s="6"/>
+    </row>
+    <row r="238" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="11"/>
       <c r="C238" s="8"/>
@@ -6038,8 +9041,26 @@
       <c r="E238" s="13"/>
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG238" s="4"/>
+      <c r="AH238" s="11"/>
+      <c r="AI238" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ238" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK238" s="13"/>
+      <c r="AL238" s="5"/>
+      <c r="AM238" s="6"/>
+      <c r="AO238" s="4"/>
+      <c r="AP238" s="11"/>
+      <c r="AQ238" s="8"/>
+      <c r="AR238" s="14"/>
+      <c r="AS238" s="13"/>
+      <c r="AT238" s="5"/>
+      <c r="AU238" s="6"/>
+    </row>
+    <row r="239" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="11"/>
       <c r="C239" s="8"/>
@@ -6047,8 +9068,26 @@
       <c r="E239" s="13"/>
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG239" s="4"/>
+      <c r="AH239" s="11"/>
+      <c r="AI239" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ239" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK239" s="13"/>
+      <c r="AL239" s="5"/>
+      <c r="AM239" s="6"/>
+      <c r="AO239" s="4"/>
+      <c r="AP239" s="11"/>
+      <c r="AQ239" s="8"/>
+      <c r="AR239" s="14"/>
+      <c r="AS239" s="13"/>
+      <c r="AT239" s="5"/>
+      <c r="AU239" s="6"/>
+    </row>
+    <row r="240" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="11"/>
       <c r="C240" s="8"/>
@@ -6056,8 +9095,26 @@
       <c r="E240" s="13"/>
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG240" s="4"/>
+      <c r="AH240" s="11"/>
+      <c r="AI240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ240" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK240" s="13"/>
+      <c r="AL240" s="5"/>
+      <c r="AM240" s="6"/>
+      <c r="AO240" s="4"/>
+      <c r="AP240" s="11"/>
+      <c r="AQ240" s="8"/>
+      <c r="AR240" s="14"/>
+      <c r="AS240" s="13"/>
+      <c r="AT240" s="5"/>
+      <c r="AU240" s="6"/>
+    </row>
+    <row r="241" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="11"/>
       <c r="C241" s="8"/>
@@ -6065,8 +9122,26 @@
       <c r="E241" s="13"/>
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG241" s="4"/>
+      <c r="AH241" s="11"/>
+      <c r="AI241" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ241" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK241" s="13"/>
+      <c r="AL241" s="5"/>
+      <c r="AM241" s="6"/>
+      <c r="AO241" s="4"/>
+      <c r="AP241" s="11"/>
+      <c r="AQ241" s="8"/>
+      <c r="AR241" s="14"/>
+      <c r="AS241" s="13"/>
+      <c r="AT241" s="5"/>
+      <c r="AU241" s="6"/>
+    </row>
+    <row r="242" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="11"/>
       <c r="C242" s="8"/>
@@ -6074,8 +9149,28 @@
       <c r="E242" s="13"/>
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG242" s="4"/>
+      <c r="AH242" s="11"/>
+      <c r="AI242" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ242" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK242" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL242" s="5"/>
+      <c r="AM242" s="6"/>
+      <c r="AO242" s="4"/>
+      <c r="AP242" s="11"/>
+      <c r="AQ242" s="8"/>
+      <c r="AR242" s="14"/>
+      <c r="AS242" s="13"/>
+      <c r="AT242" s="5"/>
+      <c r="AU242" s="6"/>
+    </row>
+    <row r="243" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="11"/>
       <c r="C243" s="8"/>
@@ -6083,8 +9178,22 @@
       <c r="E243" s="13"/>
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG243" s="4"/>
+      <c r="AH243" s="11"/>
+      <c r="AI243" s="8"/>
+      <c r="AJ243" s="14"/>
+      <c r="AK243" s="13"/>
+      <c r="AL243" s="5"/>
+      <c r="AM243" s="6"/>
+      <c r="AO243" s="4"/>
+      <c r="AP243" s="11"/>
+      <c r="AQ243" s="8"/>
+      <c r="AR243" s="14"/>
+      <c r="AS243" s="13"/>
+      <c r="AT243" s="5"/>
+      <c r="AU243" s="6"/>
+    </row>
+    <row r="244" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="11"/>
       <c r="C244" s="8"/>
@@ -6092,8 +9201,34 @@
       <c r="E244" s="13"/>
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG244" s="4"/>
+      <c r="AH244" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI244" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ244" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK244" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL244" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM244" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO244" s="4"/>
+      <c r="AP244" s="11"/>
+      <c r="AQ244" s="8"/>
+      <c r="AR244" s="14"/>
+      <c r="AS244" s="13"/>
+      <c r="AT244" s="5"/>
+      <c r="AU244" s="6"/>
+    </row>
+    <row r="245" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="11"/>
       <c r="C245" s="8"/>
@@ -6101,8 +9236,26 @@
       <c r="E245" s="13"/>
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG245" s="4"/>
+      <c r="AH245" s="11"/>
+      <c r="AI245" s="8"/>
+      <c r="AJ245" s="14"/>
+      <c r="AK245" s="13"/>
+      <c r="AL245" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM245" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO245" s="4"/>
+      <c r="AP245" s="11"/>
+      <c r="AQ245" s="8"/>
+      <c r="AR245" s="14"/>
+      <c r="AS245" s="13"/>
+      <c r="AT245" s="5"/>
+      <c r="AU245" s="6"/>
+    </row>
+    <row r="246" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="11"/>
       <c r="C246" s="8"/>
@@ -6110,8 +9263,26 @@
       <c r="E246" s="13"/>
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG246" s="4"/>
+      <c r="AH246" s="11"/>
+      <c r="AI246" s="8"/>
+      <c r="AJ246" s="14"/>
+      <c r="AK246" s="13"/>
+      <c r="AL246" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM246" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO246" s="4"/>
+      <c r="AP246" s="11"/>
+      <c r="AQ246" s="8"/>
+      <c r="AR246" s="14"/>
+      <c r="AS246" s="13"/>
+      <c r="AT246" s="5"/>
+      <c r="AU246" s="6"/>
+    </row>
+    <row r="247" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="11"/>
       <c r="C247" s="8"/>
@@ -6119,8 +9290,26 @@
       <c r="E247" s="13"/>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG247" s="4"/>
+      <c r="AH247" s="11"/>
+      <c r="AI247" s="8"/>
+      <c r="AJ247" s="14"/>
+      <c r="AK247" s="13"/>
+      <c r="AL247" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM247" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO247" s="4"/>
+      <c r="AP247" s="11"/>
+      <c r="AQ247" s="8"/>
+      <c r="AR247" s="14"/>
+      <c r="AS247" s="13"/>
+      <c r="AT247" s="5"/>
+      <c r="AU247" s="6"/>
+    </row>
+    <row r="248" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="11"/>
       <c r="C248" s="8"/>
@@ -6128,8 +9317,28 @@
       <c r="E248" s="13"/>
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG248" s="4"/>
+      <c r="AH248" s="11"/>
+      <c r="AI248" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ248" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK248" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL248" s="5"/>
+      <c r="AM248" s="6"/>
+      <c r="AO248" s="4"/>
+      <c r="AP248" s="11"/>
+      <c r="AQ248" s="8"/>
+      <c r="AR248" s="14"/>
+      <c r="AS248" s="13"/>
+      <c r="AT248" s="5"/>
+      <c r="AU248" s="6"/>
+    </row>
+    <row r="249" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="11"/>
       <c r="C249" s="8"/>
@@ -6137,8 +9346,26 @@
       <c r="E249" s="13"/>
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG249" s="4"/>
+      <c r="AH249" s="11"/>
+      <c r="AI249" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ249" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK249" s="13"/>
+      <c r="AL249" s="5"/>
+      <c r="AM249" s="6"/>
+      <c r="AO249" s="4"/>
+      <c r="AP249" s="11"/>
+      <c r="AQ249" s="8"/>
+      <c r="AR249" s="14"/>
+      <c r="AS249" s="13"/>
+      <c r="AT249" s="5"/>
+      <c r="AU249" s="6"/>
+    </row>
+    <row r="250" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="11"/>
       <c r="C250" s="8"/>
@@ -6146,8 +9373,26 @@
       <c r="E250" s="13"/>
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AG250" s="4"/>
+      <c r="AH250" s="11"/>
+      <c r="AI250" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ250" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK250" s="13"/>
+      <c r="AL250" s="5"/>
+      <c r="AM250" s="6"/>
+      <c r="AO250" s="4"/>
+      <c r="AP250" s="11"/>
+      <c r="AQ250" s="8"/>
+      <c r="AR250" s="14"/>
+      <c r="AS250" s="13"/>
+      <c r="AT250" s="5"/>
+      <c r="AU250" s="6"/>
+    </row>
+    <row r="251" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="11"/>
       <c r="C251" s="8"/>
@@ -6155,9 +9400,1192 @@
       <c r="E251" s="13"/>
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
+      <c r="AG251" s="4"/>
+      <c r="AH251" s="11"/>
+      <c r="AI251" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ251" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK251" s="13"/>
+      <c r="AL251" s="5"/>
+      <c r="AM251" s="6"/>
+      <c r="AO251" s="4"/>
+      <c r="AP251" s="11"/>
+      <c r="AQ251" s="8"/>
+      <c r="AR251" s="14"/>
+      <c r="AS251" s="13"/>
+      <c r="AT251" s="5"/>
+      <c r="AU251" s="6"/>
+    </row>
+    <row r="252" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AG252" s="4"/>
+      <c r="AH252" s="11"/>
+      <c r="AI252" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ252" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK252" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL252" s="5"/>
+      <c r="AM252" s="6"/>
+      <c r="AO252" s="4"/>
+      <c r="AP252" s="11"/>
+      <c r="AQ252" s="8"/>
+      <c r="AR252" s="14"/>
+      <c r="AS252" s="13"/>
+      <c r="AT252" s="5"/>
+      <c r="AU252" s="6"/>
+    </row>
+    <row r="253" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AG253" s="4"/>
+      <c r="AH253" s="11"/>
+      <c r="AI253" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ253" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK253" s="13"/>
+      <c r="AL253" s="5"/>
+      <c r="AM253" s="6"/>
+      <c r="AO253" s="4"/>
+      <c r="AP253" s="11"/>
+      <c r="AQ253" s="8"/>
+      <c r="AR253" s="14"/>
+      <c r="AS253" s="13"/>
+      <c r="AT253" s="5"/>
+      <c r="AU253" s="6"/>
+    </row>
+    <row r="254" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AG254" s="4"/>
+      <c r="AH254" s="11"/>
+      <c r="AI254" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ254" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK254" s="13"/>
+      <c r="AL254" s="5"/>
+      <c r="AM254" s="6"/>
+      <c r="AO254" s="4"/>
+      <c r="AP254" s="11"/>
+      <c r="AQ254" s="8"/>
+      <c r="AR254" s="14"/>
+      <c r="AS254" s="13"/>
+      <c r="AT254" s="5"/>
+      <c r="AU254" s="6"/>
+    </row>
+    <row r="255" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AG255" s="4"/>
+      <c r="AH255" s="11"/>
+      <c r="AI255" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ255" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK255" s="13"/>
+      <c r="AL255" s="5"/>
+      <c r="AM255" s="6"/>
+      <c r="AO255" s="4"/>
+      <c r="AP255" s="11"/>
+      <c r="AQ255" s="8"/>
+      <c r="AR255" s="14"/>
+      <c r="AS255" s="13"/>
+      <c r="AT255" s="5"/>
+      <c r="AU255" s="6"/>
+    </row>
+    <row r="256" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AG256" s="4"/>
+      <c r="AH256" s="11"/>
+      <c r="AI256" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ256" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK256" s="13"/>
+      <c r="AL256" s="5"/>
+      <c r="AM256" s="6"/>
+      <c r="AO256" s="4"/>
+      <c r="AP256" s="11"/>
+      <c r="AQ256" s="8"/>
+      <c r="AR256" s="14"/>
+      <c r="AS256" s="13"/>
+      <c r="AT256" s="5"/>
+      <c r="AU256" s="6"/>
+    </row>
+    <row r="257" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG257" s="4"/>
+      <c r="AH257" s="11"/>
+      <c r="AI257" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ257" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK257" s="13"/>
+      <c r="AL257" s="5"/>
+      <c r="AM257" s="6"/>
+      <c r="AO257" s="4"/>
+      <c r="AP257" s="11"/>
+      <c r="AQ257" s="8"/>
+      <c r="AR257" s="14"/>
+      <c r="AS257" s="13"/>
+      <c r="AT257" s="5"/>
+      <c r="AU257" s="6"/>
+    </row>
+    <row r="258" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG258" s="4"/>
+      <c r="AH258" s="11"/>
+      <c r="AI258" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ258" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK258" s="13"/>
+      <c r="AL258" s="5"/>
+      <c r="AM258" s="6"/>
+      <c r="AO258" s="4"/>
+      <c r="AP258" s="11"/>
+      <c r="AQ258" s="8"/>
+      <c r="AR258" s="14"/>
+      <c r="AS258" s="13"/>
+      <c r="AT258" s="5"/>
+      <c r="AU258" s="6"/>
+    </row>
+    <row r="259" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG259" s="4"/>
+      <c r="AH259" s="11"/>
+      <c r="AI259" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ259" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL259" s="5"/>
+      <c r="AM259" s="6"/>
+      <c r="AO259" s="4"/>
+      <c r="AP259" s="11"/>
+      <c r="AQ259" s="8"/>
+      <c r="AR259" s="14"/>
+      <c r="AS259" s="13"/>
+      <c r="AT259" s="5"/>
+      <c r="AU259" s="6"/>
+    </row>
+    <row r="260" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG260" s="4"/>
+      <c r="AH260" s="11"/>
+      <c r="AI260" s="8"/>
+      <c r="AJ260" s="14"/>
+      <c r="AK260" s="13"/>
+      <c r="AL260" s="5"/>
+      <c r="AM260" s="6"/>
+      <c r="AO260" s="4"/>
+      <c r="AP260" s="11"/>
+      <c r="AQ260" s="8"/>
+      <c r="AR260" s="14"/>
+      <c r="AS260" s="13"/>
+      <c r="AT260" s="5"/>
+      <c r="AU260" s="6"/>
+    </row>
+    <row r="261" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG261" s="4"/>
+      <c r="AH261" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI261" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ261" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK261" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL261" s="5"/>
+      <c r="AM261" s="6"/>
+      <c r="AO261" s="4"/>
+      <c r="AP261" s="11"/>
+      <c r="AQ261" s="8"/>
+      <c r="AR261" s="14"/>
+      <c r="AS261" s="13"/>
+      <c r="AT261" s="5"/>
+      <c r="AU261" s="6"/>
+    </row>
+    <row r="262" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG262" s="4"/>
+      <c r="AH262" s="11"/>
+      <c r="AI262" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ262" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK262" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL262" s="5"/>
+      <c r="AM262" s="6"/>
+      <c r="AO262" s="4"/>
+      <c r="AP262" s="11"/>
+      <c r="AQ262" s="8"/>
+      <c r="AR262" s="14"/>
+      <c r="AS262" s="13"/>
+      <c r="AT262" s="5"/>
+      <c r="AU262" s="6"/>
+    </row>
+    <row r="263" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG263" s="4"/>
+      <c r="AH263" s="11"/>
+      <c r="AI263" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ263" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK263" s="13"/>
+      <c r="AL263" s="5"/>
+      <c r="AM263" s="6"/>
+      <c r="AO263" s="4"/>
+      <c r="AP263" s="11"/>
+      <c r="AQ263" s="8"/>
+      <c r="AR263" s="14"/>
+      <c r="AS263" s="13"/>
+      <c r="AT263" s="5"/>
+      <c r="AU263" s="6"/>
+    </row>
+    <row r="264" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG264" s="4"/>
+      <c r="AH264" s="11"/>
+      <c r="AI264" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ264" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK264" s="13"/>
+      <c r="AL264" s="5"/>
+      <c r="AM264" s="6"/>
+      <c r="AO264" s="4"/>
+      <c r="AP264" s="11"/>
+      <c r="AQ264" s="8"/>
+      <c r="AR264" s="14"/>
+      <c r="AS264" s="13"/>
+      <c r="AT264" s="5"/>
+      <c r="AU264" s="6"/>
+    </row>
+    <row r="265" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG265" s="4"/>
+      <c r="AH265" s="11"/>
+      <c r="AI265" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ265" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK265" s="13"/>
+      <c r="AL265" s="5"/>
+      <c r="AM265" s="6"/>
+      <c r="AO265" s="4"/>
+      <c r="AP265" s="11"/>
+      <c r="AQ265" s="8"/>
+      <c r="AR265" s="14"/>
+      <c r="AS265" s="13"/>
+      <c r="AT265" s="5"/>
+      <c r="AU265" s="6"/>
+    </row>
+    <row r="266" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG266" s="4"/>
+      <c r="AH266" s="11"/>
+      <c r="AI266" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ266" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK266" s="13"/>
+      <c r="AL266" s="5"/>
+      <c r="AM266" s="6"/>
+      <c r="AO266" s="4"/>
+      <c r="AP266" s="11"/>
+      <c r="AQ266" s="8"/>
+      <c r="AR266" s="14"/>
+      <c r="AS266" s="13"/>
+      <c r="AT266" s="5"/>
+      <c r="AU266" s="6"/>
+    </row>
+    <row r="267" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG267" s="4"/>
+      <c r="AH267" s="11"/>
+      <c r="AI267" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ267" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK267" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL267" s="5"/>
+      <c r="AM267" s="6"/>
+      <c r="AO267" s="4"/>
+      <c r="AP267" s="11"/>
+      <c r="AQ267" s="8"/>
+      <c r="AR267" s="14"/>
+      <c r="AS267" s="13"/>
+      <c r="AT267" s="5"/>
+      <c r="AU267" s="6"/>
+    </row>
+    <row r="268" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG268" s="4"/>
+      <c r="AH268" s="11"/>
+      <c r="AI268" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ268" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK268" s="13"/>
+      <c r="AL268" s="5"/>
+      <c r="AM268" s="6"/>
+      <c r="AO268" s="4"/>
+      <c r="AP268" s="11"/>
+      <c r="AQ268" s="8"/>
+      <c r="AR268" s="14"/>
+      <c r="AS268" s="13"/>
+      <c r="AT268" s="5"/>
+      <c r="AU268" s="6"/>
+    </row>
+    <row r="269" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG269" s="4"/>
+      <c r="AH269" s="11"/>
+      <c r="AI269" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ269" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK269" s="13"/>
+      <c r="AL269" s="5"/>
+      <c r="AM269" s="6"/>
+      <c r="AO269" s="4"/>
+      <c r="AP269" s="11"/>
+      <c r="AQ269" s="8"/>
+      <c r="AR269" s="14"/>
+      <c r="AS269" s="13"/>
+      <c r="AT269" s="5"/>
+      <c r="AU269" s="6"/>
+    </row>
+    <row r="270" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG270" s="4"/>
+      <c r="AH270" s="11"/>
+      <c r="AI270" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ270" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK270" s="13"/>
+      <c r="AL270" s="5"/>
+      <c r="AM270" s="6"/>
+      <c r="AO270" s="4"/>
+      <c r="AP270" s="11"/>
+      <c r="AQ270" s="8"/>
+      <c r="AR270" s="14"/>
+      <c r="AS270" s="13"/>
+      <c r="AT270" s="5"/>
+      <c r="AU270" s="6"/>
+    </row>
+    <row r="271" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG271" s="4"/>
+      <c r="AH271" s="11"/>
+      <c r="AI271" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ271" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK271" s="13"/>
+      <c r="AL271" s="5"/>
+      <c r="AM271" s="6"/>
+      <c r="AO271" s="4"/>
+      <c r="AP271" s="11"/>
+      <c r="AQ271" s="8"/>
+      <c r="AR271" s="14"/>
+      <c r="AS271" s="13"/>
+      <c r="AT271" s="5"/>
+      <c r="AU271" s="6"/>
+    </row>
+    <row r="272" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG272" s="4"/>
+      <c r="AH272" s="11"/>
+      <c r="AI272" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ272" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK272" s="13"/>
+      <c r="AL272" s="5"/>
+      <c r="AM272" s="6"/>
+      <c r="AO272" s="4"/>
+      <c r="AP272" s="11"/>
+      <c r="AQ272" s="8"/>
+      <c r="AR272" s="14"/>
+      <c r="AS272" s="13"/>
+      <c r="AT272" s="5"/>
+      <c r="AU272" s="6"/>
+    </row>
+    <row r="273" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG273" s="4"/>
+      <c r="AH273" s="11"/>
+      <c r="AI273" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ273" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK273" s="13"/>
+      <c r="AL273" s="5"/>
+      <c r="AM273" s="6"/>
+      <c r="AO273" s="4"/>
+      <c r="AP273" s="11"/>
+      <c r="AQ273" s="8"/>
+      <c r="AR273" s="14"/>
+      <c r="AS273" s="13"/>
+      <c r="AT273" s="5"/>
+      <c r="AU273" s="6"/>
+    </row>
+    <row r="274" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG274" s="4"/>
+      <c r="AH274" s="11"/>
+      <c r="AI274" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ274" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK274" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL274" s="5"/>
+      <c r="AM274" s="6"/>
+      <c r="AO274" s="4"/>
+      <c r="AP274" s="11"/>
+      <c r="AQ274" s="8"/>
+      <c r="AR274" s="14"/>
+      <c r="AS274" s="13"/>
+      <c r="AT274" s="5"/>
+      <c r="AU274" s="6"/>
+    </row>
+    <row r="275" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG275" s="4"/>
+      <c r="AH275" s="11"/>
+      <c r="AI275" s="8"/>
+      <c r="AJ275" s="14"/>
+      <c r="AK275" s="13"/>
+      <c r="AL275" s="5"/>
+      <c r="AM275" s="6"/>
+      <c r="AO275" s="4"/>
+      <c r="AP275" s="11"/>
+      <c r="AQ275" s="8"/>
+      <c r="AR275" s="14"/>
+      <c r="AS275" s="13"/>
+      <c r="AT275" s="5"/>
+      <c r="AU275" s="6"/>
+    </row>
+    <row r="276" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG276" s="4"/>
+      <c r="AH276" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI276" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ276" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK276" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL276" s="5"/>
+      <c r="AM276" s="6"/>
+      <c r="AO276" s="4"/>
+      <c r="AP276" s="11"/>
+      <c r="AQ276" s="8"/>
+      <c r="AR276" s="14"/>
+      <c r="AS276" s="13"/>
+      <c r="AT276" s="5"/>
+      <c r="AU276" s="6"/>
+    </row>
+    <row r="277" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG277" s="4"/>
+      <c r="AH277" s="11"/>
+      <c r="AI277" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ277" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK277" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL277" s="5"/>
+      <c r="AM277" s="6"/>
+      <c r="AO277" s="4"/>
+      <c r="AP277" s="11"/>
+      <c r="AQ277" s="8"/>
+      <c r="AR277" s="14"/>
+      <c r="AS277" s="13"/>
+      <c r="AT277" s="5"/>
+      <c r="AU277" s="6"/>
+    </row>
+    <row r="278" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG278" s="4"/>
+      <c r="AH278" s="11"/>
+      <c r="AI278" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ278" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK278" s="13"/>
+      <c r="AL278" s="5"/>
+      <c r="AM278" s="6"/>
+      <c r="AO278" s="4"/>
+      <c r="AP278" s="11"/>
+      <c r="AQ278" s="8"/>
+      <c r="AR278" s="14"/>
+      <c r="AS278" s="13"/>
+      <c r="AT278" s="5"/>
+      <c r="AU278" s="6"/>
+    </row>
+    <row r="279" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG279" s="4"/>
+      <c r="AH279" s="11"/>
+      <c r="AI279" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ279" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK279" s="13"/>
+      <c r="AL279" s="5"/>
+      <c r="AM279" s="6"/>
+      <c r="AO279" s="4"/>
+      <c r="AP279" s="11"/>
+      <c r="AQ279" s="8"/>
+      <c r="AR279" s="14"/>
+      <c r="AS279" s="13"/>
+      <c r="AT279" s="5"/>
+      <c r="AU279" s="6"/>
+    </row>
+    <row r="280" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG280" s="4"/>
+      <c r="AH280" s="11"/>
+      <c r="AI280" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ280" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK280" s="13"/>
+      <c r="AL280" s="5"/>
+      <c r="AM280" s="6"/>
+      <c r="AO280" s="4"/>
+      <c r="AP280" s="11"/>
+      <c r="AQ280" s="8"/>
+      <c r="AR280" s="14"/>
+      <c r="AS280" s="13"/>
+      <c r="AT280" s="5"/>
+      <c r="AU280" s="6"/>
+    </row>
+    <row r="281" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG281" s="4"/>
+      <c r="AH281" s="11"/>
+      <c r="AI281" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ281" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK281" s="13"/>
+      <c r="AL281" s="5"/>
+      <c r="AM281" s="6"/>
+      <c r="AO281" s="4"/>
+      <c r="AP281" s="11"/>
+      <c r="AQ281" s="8"/>
+      <c r="AR281" s="14"/>
+      <c r="AS281" s="13"/>
+      <c r="AT281" s="5"/>
+      <c r="AU281" s="6"/>
+    </row>
+    <row r="282" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG282" s="4"/>
+      <c r="AH282" s="11"/>
+      <c r="AI282" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ282" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK282" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL282" s="5"/>
+      <c r="AM282" s="6"/>
+      <c r="AO282" s="4"/>
+      <c r="AP282" s="11"/>
+      <c r="AQ282" s="8"/>
+      <c r="AR282" s="14"/>
+      <c r="AS282" s="13"/>
+      <c r="AT282" s="5"/>
+      <c r="AU282" s="6"/>
+    </row>
+    <row r="283" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG283" s="4"/>
+      <c r="AH283" s="11"/>
+      <c r="AI283" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ283" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK283" s="13"/>
+      <c r="AL283" s="5"/>
+      <c r="AM283" s="6"/>
+      <c r="AO283" s="4"/>
+      <c r="AP283" s="11"/>
+      <c r="AQ283" s="8"/>
+      <c r="AR283" s="14"/>
+      <c r="AS283" s="13"/>
+      <c r="AT283" s="5"/>
+      <c r="AU283" s="6"/>
+    </row>
+    <row r="284" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG284" s="4"/>
+      <c r="AH284" s="11"/>
+      <c r="AI284" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ284" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK284" s="13"/>
+      <c r="AL284" s="5"/>
+      <c r="AM284" s="6"/>
+      <c r="AO284" s="4"/>
+      <c r="AP284" s="11"/>
+      <c r="AQ284" s="8"/>
+      <c r="AR284" s="14"/>
+      <c r="AS284" s="13"/>
+      <c r="AT284" s="5"/>
+      <c r="AU284" s="6"/>
+    </row>
+    <row r="285" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG285" s="4"/>
+      <c r="AH285" s="11"/>
+      <c r="AI285" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ285" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK285" s="13"/>
+      <c r="AL285" s="5"/>
+      <c r="AM285" s="6"/>
+      <c r="AO285" s="4"/>
+      <c r="AP285" s="11"/>
+      <c r="AQ285" s="8"/>
+      <c r="AR285" s="14"/>
+      <c r="AS285" s="13"/>
+      <c r="AT285" s="5"/>
+      <c r="AU285" s="6"/>
+    </row>
+    <row r="286" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG286" s="4"/>
+      <c r="AH286" s="11"/>
+      <c r="AI286" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ286" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK286" s="13"/>
+      <c r="AL286" s="5"/>
+      <c r="AM286" s="6"/>
+      <c r="AO286" s="4"/>
+      <c r="AP286" s="11"/>
+      <c r="AQ286" s="8"/>
+      <c r="AR286" s="14"/>
+      <c r="AS286" s="13"/>
+      <c r="AT286" s="5"/>
+      <c r="AU286" s="6"/>
+    </row>
+    <row r="287" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG287" s="4"/>
+      <c r="AH287" s="11"/>
+      <c r="AI287" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ287" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK287" s="13"/>
+      <c r="AL287" s="5"/>
+      <c r="AM287" s="6"/>
+      <c r="AO287" s="4"/>
+      <c r="AP287" s="11"/>
+      <c r="AQ287" s="8"/>
+      <c r="AR287" s="14"/>
+      <c r="AS287" s="13"/>
+      <c r="AT287" s="5"/>
+      <c r="AU287" s="6"/>
+    </row>
+    <row r="288" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG288" s="4"/>
+      <c r="AH288" s="11"/>
+      <c r="AI288" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ288" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK288" s="13"/>
+      <c r="AL288" s="5"/>
+      <c r="AM288" s="6"/>
+      <c r="AO288" s="4"/>
+      <c r="AP288" s="11"/>
+      <c r="AQ288" s="8"/>
+      <c r="AR288" s="14"/>
+      <c r="AS288" s="13"/>
+      <c r="AT288" s="5"/>
+      <c r="AU288" s="6"/>
+    </row>
+    <row r="289" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG289" s="4"/>
+      <c r="AH289" s="11"/>
+      <c r="AI289" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ289" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK289" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL289" s="5"/>
+      <c r="AM289" s="6"/>
+      <c r="AO289" s="4"/>
+      <c r="AP289" s="11"/>
+      <c r="AQ289" s="8"/>
+      <c r="AR289" s="14"/>
+      <c r="AS289" s="13"/>
+      <c r="AT289" s="5"/>
+      <c r="AU289" s="6"/>
+    </row>
+    <row r="290" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG290" s="4"/>
+      <c r="AH290" s="11"/>
+      <c r="AI290" s="8"/>
+      <c r="AJ290" s="14">
+        <f>SUM(AJ276:AJ289)</f>
+        <v>31</v>
+      </c>
+      <c r="AK290" s="13"/>
+      <c r="AL290" s="5"/>
+      <c r="AM290" s="6"/>
+      <c r="AO290" s="4"/>
+      <c r="AP290" s="11"/>
+      <c r="AQ290" s="8"/>
+      <c r="AR290" s="14"/>
+      <c r="AS290" s="13"/>
+      <c r="AT290" s="5"/>
+      <c r="AU290" s="6"/>
+    </row>
+    <row r="291" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG291" s="4"/>
+      <c r="AH291" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI291" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ291" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK291" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL291" s="5"/>
+      <c r="AM291" s="6"/>
+      <c r="AO291" s="4"/>
+      <c r="AP291" s="11"/>
+      <c r="AQ291" s="8"/>
+      <c r="AR291" s="14"/>
+      <c r="AS291" s="13"/>
+      <c r="AT291" s="5"/>
+      <c r="AU291" s="6"/>
+    </row>
+    <row r="292" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG292" s="4"/>
+      <c r="AH292" s="11"/>
+      <c r="AI292" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ292" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK292" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL292" s="5"/>
+      <c r="AM292" s="6"/>
+      <c r="AO292" s="4"/>
+      <c r="AP292" s="11"/>
+      <c r="AQ292" s="8"/>
+      <c r="AR292" s="14"/>
+      <c r="AS292" s="13"/>
+      <c r="AT292" s="5"/>
+      <c r="AU292" s="6"/>
+    </row>
+    <row r="293" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG293" s="4"/>
+      <c r="AH293" s="11"/>
+      <c r="AI293" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ293" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK293" s="13"/>
+      <c r="AL293" s="5"/>
+      <c r="AM293" s="6"/>
+      <c r="AO293" s="4"/>
+      <c r="AP293" s="11"/>
+      <c r="AQ293" s="8"/>
+      <c r="AR293" s="14"/>
+      <c r="AS293" s="13"/>
+      <c r="AT293" s="5"/>
+      <c r="AU293" s="6"/>
+    </row>
+    <row r="294" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG294" s="4"/>
+      <c r="AH294" s="11"/>
+      <c r="AI294" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ294" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK294" s="13"/>
+      <c r="AL294" s="5"/>
+      <c r="AM294" s="6"/>
+      <c r="AO294" s="4"/>
+      <c r="AP294" s="11"/>
+      <c r="AQ294" s="8"/>
+      <c r="AR294" s="14"/>
+      <c r="AS294" s="13"/>
+      <c r="AT294" s="5"/>
+      <c r="AU294" s="6"/>
+    </row>
+    <row r="295" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG295" s="4"/>
+      <c r="AH295" s="11"/>
+      <c r="AI295" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ295" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK295" s="13"/>
+      <c r="AL295" s="5"/>
+      <c r="AM295" s="6"/>
+      <c r="AO295" s="4"/>
+      <c r="AP295" s="11"/>
+      <c r="AQ295" s="8"/>
+      <c r="AR295" s="14"/>
+      <c r="AS295" s="13"/>
+      <c r="AT295" s="5"/>
+      <c r="AU295" s="6"/>
+    </row>
+    <row r="296" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG296" s="4"/>
+      <c r="AH296" s="11"/>
+      <c r="AI296" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ296" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK296" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL296" s="5"/>
+      <c r="AM296" s="6"/>
+      <c r="AO296" s="4"/>
+      <c r="AP296" s="11"/>
+      <c r="AQ296" s="8"/>
+      <c r="AR296" s="14"/>
+      <c r="AS296" s="13"/>
+      <c r="AT296" s="5"/>
+      <c r="AU296" s="6"/>
+    </row>
+    <row r="297" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG297" s="4"/>
+      <c r="AH297" s="11"/>
+      <c r="AI297" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ297" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK297" s="13"/>
+      <c r="AL297" s="5"/>
+      <c r="AM297" s="6"/>
+      <c r="AO297" s="4"/>
+      <c r="AP297" s="11"/>
+      <c r="AQ297" s="8"/>
+      <c r="AR297" s="14"/>
+      <c r="AS297" s="13"/>
+      <c r="AT297" s="5"/>
+      <c r="AU297" s="6"/>
+    </row>
+    <row r="298" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG298" s="4"/>
+      <c r="AH298" s="11"/>
+      <c r="AI298" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ298" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK298" s="13"/>
+      <c r="AL298" s="5"/>
+      <c r="AM298" s="6"/>
+      <c r="AO298" s="4"/>
+      <c r="AP298" s="11"/>
+      <c r="AQ298" s="8"/>
+      <c r="AR298" s="14"/>
+      <c r="AS298" s="13"/>
+      <c r="AT298" s="5"/>
+      <c r="AU298" s="6"/>
+    </row>
+    <row r="299" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG299" s="4"/>
+      <c r="AH299" s="11"/>
+      <c r="AI299" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ299" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK299" s="13"/>
+      <c r="AL299" s="5"/>
+      <c r="AM299" s="6"/>
+      <c r="AO299" s="4"/>
+      <c r="AP299" s="11"/>
+      <c r="AQ299" s="8"/>
+      <c r="AR299" s="14"/>
+      <c r="AS299" s="13"/>
+      <c r="AT299" s="5"/>
+      <c r="AU299" s="6"/>
+    </row>
+    <row r="300" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG300" s="4"/>
+      <c r="AH300" s="11"/>
+      <c r="AI300" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ300" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK300" s="13"/>
+      <c r="AL300" s="5"/>
+      <c r="AM300" s="6"/>
+      <c r="AO300" s="4"/>
+      <c r="AP300" s="11"/>
+      <c r="AQ300" s="8"/>
+      <c r="AR300" s="14"/>
+      <c r="AS300" s="13"/>
+      <c r="AT300" s="5"/>
+      <c r="AU300" s="6"/>
+    </row>
+    <row r="301" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG301" s="4"/>
+      <c r="AH301" s="11"/>
+      <c r="AI301" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ301" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK301" s="13"/>
+      <c r="AL301" s="5"/>
+      <c r="AM301" s="6"/>
+      <c r="AO301" s="4"/>
+      <c r="AP301" s="11"/>
+      <c r="AQ301" s="8"/>
+      <c r="AR301" s="14"/>
+      <c r="AS301" s="13"/>
+      <c r="AT301" s="5"/>
+      <c r="AU301" s="6"/>
+    </row>
+    <row r="302" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG302" s="4"/>
+      <c r="AH302" s="11"/>
+      <c r="AI302" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ302" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK302" s="13"/>
+      <c r="AL302" s="5"/>
+      <c r="AM302" s="6"/>
+      <c r="AO302" s="4"/>
+      <c r="AP302" s="11"/>
+      <c r="AQ302" s="8"/>
+      <c r="AR302" s="14"/>
+      <c r="AS302" s="13"/>
+      <c r="AT302" s="5"/>
+      <c r="AU302" s="6"/>
+    </row>
+    <row r="303" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG303" s="4"/>
+      <c r="AH303" s="11"/>
+      <c r="AI303" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ303" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK303" s="13"/>
+      <c r="AL303" s="5"/>
+      <c r="AM303" s="6"/>
+      <c r="AO303" s="4"/>
+      <c r="AP303" s="11"/>
+      <c r="AQ303" s="8"/>
+      <c r="AR303" s="14"/>
+      <c r="AS303" s="13"/>
+      <c r="AT303" s="5"/>
+      <c r="AU303" s="6"/>
+    </row>
+    <row r="304" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG304" s="4"/>
+      <c r="AH304" s="11"/>
+      <c r="AI304" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ304" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK304" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL304" s="5"/>
+      <c r="AM304" s="6"/>
+      <c r="AO304" s="4"/>
+      <c r="AP304" s="11"/>
+      <c r="AQ304" s="8"/>
+      <c r="AR304" s="14"/>
+      <c r="AS304" s="13"/>
+      <c r="AT304" s="5"/>
+      <c r="AU304" s="6"/>
+    </row>
+    <row r="305" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG305" s="4"/>
+      <c r="AH305" s="11"/>
+      <c r="AI305" s="8"/>
+      <c r="AJ305" s="14"/>
+      <c r="AK305" s="13"/>
+      <c r="AL305" s="5"/>
+      <c r="AM305" s="6"/>
+      <c r="AO305" s="4"/>
+      <c r="AP305" s="11"/>
+      <c r="AQ305" s="8"/>
+      <c r="AR305" s="14"/>
+      <c r="AS305" s="13"/>
+      <c r="AT305" s="5"/>
+      <c r="AU305" s="6"/>
+    </row>
+    <row r="306" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG306" s="21"/>
+      <c r="AH306" s="21"/>
+      <c r="AI306" s="21"/>
+      <c r="AJ306" s="22"/>
+      <c r="AK306" s="21"/>
+      <c r="AL306" s="21"/>
+      <c r="AM306" s="21"/>
+    </row>
+    <row r="307" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG307" s="21"/>
+      <c r="AH307" s="21"/>
+      <c r="AI307" s="21"/>
+      <c r="AJ307" s="22"/>
+      <c r="AK307" s="21"/>
+      <c r="AL307" s="21"/>
+      <c r="AM307" s="21"/>
+    </row>
+    <row r="308" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG308" s="21"/>
+      <c r="AH308" s="21"/>
+      <c r="AI308" s="21"/>
+      <c r="AJ308" s="22"/>
+      <c r="AK308" s="21"/>
+      <c r="AL308" s="21"/>
+      <c r="AM308" s="21"/>
+    </row>
+    <row r="309" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG309" s="21"/>
+      <c r="AH309" s="21"/>
+      <c r="AI309" s="21"/>
+      <c r="AJ309" s="22"/>
+      <c r="AK309" s="21"/>
+      <c r="AL309" s="21"/>
+      <c r="AM309" s="21"/>
+    </row>
+    <row r="310" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG310" s="21"/>
+      <c r="AH310" s="21"/>
+      <c r="AI310" s="21"/>
+      <c r="AJ310" s="22"/>
+      <c r="AK310" s="21"/>
+      <c r="AL310" s="21"/>
+      <c r="AM310" s="21"/>
+    </row>
+    <row r="311" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG311" s="21"/>
+      <c r="AH311" s="21"/>
+      <c r="AI311" s="21"/>
+      <c r="AJ311" s="22"/>
+      <c r="AK311" s="21"/>
+      <c r="AL311" s="21"/>
+      <c r="AM311" s="21"/>
+    </row>
+    <row r="312" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG312" s="21"/>
+      <c r="AH312" s="21"/>
+      <c r="AI312" s="21"/>
+      <c r="AJ312" s="22"/>
+      <c r="AK312" s="21"/>
+      <c r="AL312" s="21"/>
+      <c r="AM312" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E2E44-3B0A-431A-9B34-A7D7CC6D7310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA3E8E-5F74-4DCA-8D19-E7666E0BD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="30" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="9705" yWindow="30" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="108">
   <si>
     <t>ClassNames</t>
   </si>
@@ -268,6 +268,99 @@
   <si>
     <t>2CZHA</t>
   </si>
+  <si>
+    <t>2CLB</t>
+  </si>
+  <si>
+    <t>2CB</t>
+  </si>
+  <si>
+    <t>Mathé/Info</t>
+  </si>
+  <si>
+    <t>Mathématiques 2</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Mathématiques 1</t>
+  </si>
+  <si>
+    <t>2CZHB</t>
+  </si>
+  <si>
+    <t>2CLC</t>
+  </si>
+  <si>
+    <t>2CZHC</t>
+  </si>
+  <si>
+    <t>Choix 3 langues parmi 4</t>
+  </si>
+  <si>
+    <t>2CC</t>
+  </si>
+  <si>
+    <t>2CLD</t>
+  </si>
+  <si>
+    <t>EcoAi</t>
+  </si>
+  <si>
+    <t>EcoPol</t>
+  </si>
+  <si>
+    <t>2CZHD</t>
+  </si>
+  <si>
+    <t>2CLE</t>
+  </si>
+  <si>
+    <t>Artistique 1</t>
+  </si>
+  <si>
+    <t>Artistique 2</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Géométrie</t>
+  </si>
+  <si>
+    <t>2CZHE</t>
+  </si>
+  <si>
+    <t>2CE</t>
+  </si>
+  <si>
+    <t>2CLF</t>
+  </si>
+  <si>
+    <t>Musique 1</t>
+  </si>
+  <si>
+    <t>Théorie/Analyse</t>
+  </si>
+  <si>
+    <t>Musique 2</t>
+  </si>
+  <si>
+    <t>2CZHF</t>
+  </si>
+  <si>
+    <t>2CF</t>
+  </si>
+  <si>
+    <t>2CLG</t>
+  </si>
+  <si>
+    <t>2CZHG</t>
+  </si>
+  <si>
+    <t>2CG</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -423,9 +516,6 @@
     <xf numFmtId="12" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -742,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:AU312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR34" sqref="AR34"/>
+    <sheetView tabSelected="1" topLeftCell="AE274" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AO310" sqref="AO310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +845,8 @@
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -999,7 +1090,7 @@
       <c r="AM3" s="6"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AQ3" s="9" t="s">
         <v>65</v>
@@ -1215,10 +1306,10 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AR6" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS6" s="13">
         <v>3</v>
@@ -1292,18 +1383,14 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="9" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="AR7" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="13"/>
-      <c r="AT7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU7" s="23">
-        <v>2</v>
-      </c>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="6"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1372,14 +1459,18 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="14"/>
+      <c r="AQ8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>3</v>
+      </c>
       <c r="AS8" s="13"/>
       <c r="AT8" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU8" s="23">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1441,17 +1532,15 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS9" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="6"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1515,12 +1604,14 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="9" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="AR10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>2</v>
+      </c>
       <c r="AT10" s="5"/>
       <c r="AU10" s="6"/>
     </row>
@@ -1586,7 +1677,7 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="9" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="AR11" s="14">
         <v>1</v>
@@ -1655,10 +1746,10 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="9" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AR12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="13"/>
       <c r="AT12" s="5"/>
@@ -1849,7 +1940,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ15" s="9" t="s">
         <v>65</v>
@@ -2055,7 +2146,7 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR18" s="14">
         <v>3</v>
@@ -2200,7 +2291,7 @@
       <c r="AT20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AU20" s="23">
+      <c r="AU20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2269,7 +2360,7 @@
       <c r="AT21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AU21" s="23">
+      <c r="AU21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2661,7 +2752,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AQ27" s="9" t="s">
         <v>65</v>
@@ -2861,10 +2952,10 @@
       <c r="AO30" s="4"/>
       <c r="AP30" s="11"/>
       <c r="AQ30" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AR30" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS30" s="13">
         <v>3</v>
@@ -2936,14 +3027,18 @@
       <c r="AO31" s="4"/>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AR31" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS31" s="13"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="6"/>
+      <c r="AT31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU31" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -3000,18 +3095,14 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="11"/>
-      <c r="AQ32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR32" s="14">
-        <v>3</v>
-      </c>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="14"/>
       <c r="AS32" s="13"/>
       <c r="AT32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU32" s="23">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="AU32" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
@@ -3073,15 +3164,17 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="11"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU33" s="23">
-        <v>1</v>
-      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR33" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -3139,14 +3232,12 @@
       <c r="AO34" s="4"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="9" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="AR34" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AS34" s="13"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="6"/>
     </row>
@@ -3206,7 +3297,7 @@
       <c r="AO35" s="4"/>
       <c r="AP35" s="11"/>
       <c r="AQ35" s="9" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="AR35" s="14">
         <v>1</v>
@@ -3268,10 +3359,10 @@
       <c r="AO36" s="4"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AR36" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS36" s="13"/>
       <c r="AT36" s="5"/>
@@ -3445,13 +3536,27 @@
       <c r="AK39" s="13"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="6"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="8"/>
-      <c r="AR39" s="14"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="6"/>
+      <c r="AO39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR39" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU39" s="18">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -3502,8 +3607,12 @@
       <c r="AQ40" s="8"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="13"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="6"/>
+      <c r="AT40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU40" s="18">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -3551,9 +3660,15 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="11"/>
-      <c r="AQ41" s="8"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="13"/>
+      <c r="AQ41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR41" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>3</v>
+      </c>
       <c r="AT41" s="5"/>
       <c r="AU41" s="6"/>
     </row>
@@ -3603,11 +3718,19 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="4"/>
       <c r="AP42" s="11"/>
-      <c r="AQ42" s="8"/>
-      <c r="AR42" s="14"/>
+      <c r="AQ42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR42" s="14">
+        <v>3</v>
+      </c>
       <c r="AS42" s="13"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="6"/>
+      <c r="AT42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU42" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -3662,8 +3785,12 @@
       <c r="AQ43" s="8"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="13"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="6"/>
+      <c r="AT43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU43" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -3703,8 +3830,12 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="11"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="14"/>
+      <c r="AQ44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR44" s="14">
+        <v>4</v>
+      </c>
       <c r="AS44" s="13"/>
       <c r="AT44" s="5"/>
       <c r="AU44" s="6"/>
@@ -3741,8 +3872,12 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="11"/>
-      <c r="AQ45" s="8"/>
-      <c r="AR45" s="14"/>
+      <c r="AQ45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR45" s="14">
+        <v>4</v>
+      </c>
       <c r="AS45" s="13"/>
       <c r="AT45" s="5"/>
       <c r="AU45" s="6"/>
@@ -3770,8 +3905,12 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="11"/>
-      <c r="AQ46" s="8"/>
-      <c r="AR46" s="14"/>
+      <c r="AQ46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR46" s="14">
+        <v>3</v>
+      </c>
       <c r="AS46" s="13"/>
       <c r="AT46" s="5"/>
       <c r="AU46" s="6"/>
@@ -3797,8 +3936,12 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="11"/>
-      <c r="AQ47" s="8"/>
-      <c r="AR47" s="14"/>
+      <c r="AQ47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR47" s="14">
+        <v>3</v>
+      </c>
       <c r="AS47" s="13"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="6"/>
@@ -3824,8 +3967,12 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="11"/>
-      <c r="AQ48" s="8"/>
-      <c r="AR48" s="14"/>
+      <c r="AQ48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR48" s="14">
+        <v>3</v>
+      </c>
       <c r="AS48" s="13"/>
       <c r="AT48" s="5"/>
       <c r="AU48" s="6"/>
@@ -3851,8 +3998,12 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="4"/>
       <c r="AP49" s="11"/>
-      <c r="AQ49" s="8"/>
-      <c r="AR49" s="14"/>
+      <c r="AQ49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR49" s="14">
+        <v>3</v>
+      </c>
       <c r="AS49" s="13"/>
       <c r="AT49" s="5"/>
       <c r="AU49" s="6"/>
@@ -3878,9 +4029,15 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="4"/>
       <c r="AP50" s="11"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="13"/>
+      <c r="AQ50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR50" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>2</v>
+      </c>
       <c r="AT50" s="5"/>
       <c r="AU50" s="6"/>
     </row>
@@ -3905,9 +4062,15 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="4"/>
       <c r="AP51" s="11"/>
-      <c r="AQ51" s="8"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="13"/>
+      <c r="AQ51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR51" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>1</v>
+      </c>
       <c r="AT51" s="5"/>
       <c r="AU51" s="6"/>
     </row>
@@ -3959,13 +4122,27 @@
       <c r="AK53" s="13"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="6"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="14"/>
-      <c r="AS53" s="13"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="6"/>
+      <c r="AO53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR53" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU53" s="18">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -3991,8 +4168,12 @@
       <c r="AQ54" s="8"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="13"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="6"/>
+      <c r="AT54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU54" s="18">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -4015,9 +4196,15 @@
       <c r="AM55" s="6"/>
       <c r="AO55" s="4"/>
       <c r="AP55" s="11"/>
-      <c r="AQ55" s="8"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="13"/>
+      <c r="AQ55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR55" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS55" s="13">
+        <v>3</v>
+      </c>
       <c r="AT55" s="5"/>
       <c r="AU55" s="6"/>
     </row>
@@ -4044,11 +4231,19 @@
       <c r="AM56" s="6"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="11"/>
-      <c r="AQ56" s="8"/>
-      <c r="AR56" s="14"/>
+      <c r="AQ56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR56" s="14">
+        <v>3</v>
+      </c>
       <c r="AS56" s="13"/>
-      <c r="AT56" s="5"/>
-      <c r="AU56" s="6"/>
+      <c r="AT56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU56" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4070,8 +4265,12 @@
       <c r="AQ57" s="8"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="13"/>
-      <c r="AT57" s="5"/>
-      <c r="AU57" s="6"/>
+      <c r="AT57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU57" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -4098,8 +4297,12 @@
       <c r="AM58" s="6"/>
       <c r="AO58" s="4"/>
       <c r="AP58" s="11"/>
-      <c r="AQ58" s="8"/>
-      <c r="AR58" s="14"/>
+      <c r="AQ58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR58" s="14">
+        <v>4</v>
+      </c>
       <c r="AS58" s="13"/>
       <c r="AT58" s="5"/>
       <c r="AU58" s="6"/>
@@ -4127,8 +4330,12 @@
       <c r="AM59" s="6"/>
       <c r="AO59" s="4"/>
       <c r="AP59" s="11"/>
-      <c r="AQ59" s="8"/>
-      <c r="AR59" s="14"/>
+      <c r="AQ59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR59" s="14">
+        <v>4</v>
+      </c>
       <c r="AS59" s="13"/>
       <c r="AT59" s="5"/>
       <c r="AU59" s="6"/>
@@ -4154,8 +4361,12 @@
       <c r="AM60" s="6"/>
       <c r="AO60" s="4"/>
       <c r="AP60" s="11"/>
-      <c r="AQ60" s="8"/>
-      <c r="AR60" s="14"/>
+      <c r="AQ60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR60" s="14">
+        <v>3</v>
+      </c>
       <c r="AS60" s="13"/>
       <c r="AT60" s="5"/>
       <c r="AU60" s="6"/>
@@ -4181,8 +4392,12 @@
       <c r="AM61" s="6"/>
       <c r="AO61" s="4"/>
       <c r="AP61" s="11"/>
-      <c r="AQ61" s="8"/>
-      <c r="AR61" s="14"/>
+      <c r="AQ61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR61" s="14">
+        <v>3</v>
+      </c>
       <c r="AS61" s="13"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="6"/>
@@ -4208,8 +4423,12 @@
       <c r="AM62" s="6"/>
       <c r="AO62" s="4"/>
       <c r="AP62" s="11"/>
-      <c r="AQ62" s="8"/>
-      <c r="AR62" s="14"/>
+      <c r="AQ62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR62" s="14">
+        <v>3</v>
+      </c>
       <c r="AS62" s="13"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="6"/>
@@ -4235,8 +4454,12 @@
       <c r="AM63" s="6"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="11"/>
-      <c r="AQ63" s="8"/>
-      <c r="AR63" s="14"/>
+      <c r="AQ63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR63" s="14">
+        <v>3</v>
+      </c>
       <c r="AS63" s="13"/>
       <c r="AT63" s="5"/>
       <c r="AU63" s="6"/>
@@ -4262,9 +4485,15 @@
       <c r="AM64" s="6"/>
       <c r="AO64" s="4"/>
       <c r="AP64" s="11"/>
-      <c r="AQ64" s="8"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="13"/>
+      <c r="AQ64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR64" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS64" s="13">
+        <v>2</v>
+      </c>
       <c r="AT64" s="5"/>
       <c r="AU64" s="6"/>
     </row>
@@ -4291,9 +4520,15 @@
       <c r="AM65" s="6"/>
       <c r="AO65" s="4"/>
       <c r="AP65" s="11"/>
-      <c r="AQ65" s="8"/>
-      <c r="AR65" s="14"/>
-      <c r="AS65" s="13"/>
+      <c r="AQ65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR65" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS65" s="13">
+        <v>1</v>
+      </c>
       <c r="AT65" s="5"/>
       <c r="AU65" s="6"/>
     </row>
@@ -4344,12 +4579,24 @@
       <c r="AL67" s="5"/>
       <c r="AM67" s="6"/>
       <c r="AO67" s="4"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="8"/>
-      <c r="AR67" s="14"/>
-      <c r="AS67" s="13"/>
-      <c r="AT67" s="5"/>
-      <c r="AU67" s="6"/>
+      <c r="AP67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR67" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS67" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU67" s="18">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -4375,8 +4622,12 @@
       <c r="AQ68" s="8"/>
       <c r="AR68" s="14"/>
       <c r="AS68" s="13"/>
-      <c r="AT68" s="5"/>
-      <c r="AU68" s="6"/>
+      <c r="AT68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU68" s="18">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -4401,9 +4652,15 @@
       <c r="AM69" s="6"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="11"/>
-      <c r="AQ69" s="8"/>
-      <c r="AR69" s="14"/>
-      <c r="AS69" s="13"/>
+      <c r="AQ69" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR69" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS69" s="13">
+        <v>3</v>
+      </c>
       <c r="AT69" s="5"/>
       <c r="AU69" s="6"/>
     </row>
@@ -4424,11 +4681,19 @@
       <c r="AM70" s="6"/>
       <c r="AO70" s="4"/>
       <c r="AP70" s="11"/>
-      <c r="AQ70" s="8"/>
-      <c r="AR70" s="14"/>
+      <c r="AQ70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR70" s="14">
+        <v>3</v>
+      </c>
       <c r="AS70" s="13"/>
-      <c r="AT70" s="5"/>
-      <c r="AU70" s="6"/>
+      <c r="AT70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU70" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -4458,8 +4723,12 @@
       <c r="AQ71" s="8"/>
       <c r="AR71" s="14"/>
       <c r="AS71" s="13"/>
-      <c r="AT71" s="5"/>
-      <c r="AU71" s="6"/>
+      <c r="AT71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU71" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -4484,8 +4753,12 @@
       <c r="AM72" s="6"/>
       <c r="AO72" s="4"/>
       <c r="AP72" s="11"/>
-      <c r="AQ72" s="8"/>
-      <c r="AR72" s="14"/>
+      <c r="AQ72" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR72" s="14">
+        <v>4</v>
+      </c>
       <c r="AS72" s="13"/>
       <c r="AT72" s="5"/>
       <c r="AU72" s="6"/>
@@ -4511,8 +4784,12 @@
       <c r="AM73" s="6"/>
       <c r="AO73" s="4"/>
       <c r="AP73" s="11"/>
-      <c r="AQ73" s="8"/>
-      <c r="AR73" s="14"/>
+      <c r="AQ73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR73" s="14">
+        <v>4</v>
+      </c>
       <c r="AS73" s="13"/>
       <c r="AT73" s="5"/>
       <c r="AU73" s="6"/>
@@ -4538,8 +4815,12 @@
       <c r="AM74" s="6"/>
       <c r="AO74" s="4"/>
       <c r="AP74" s="11"/>
-      <c r="AQ74" s="8"/>
-      <c r="AR74" s="14"/>
+      <c r="AQ74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR74" s="14">
+        <v>3</v>
+      </c>
       <c r="AS74" s="13"/>
       <c r="AT74" s="5"/>
       <c r="AU74" s="6"/>
@@ -4565,8 +4846,12 @@
       <c r="AM75" s="6"/>
       <c r="AO75" s="4"/>
       <c r="AP75" s="11"/>
-      <c r="AQ75" s="8"/>
-      <c r="AR75" s="14"/>
+      <c r="AQ75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR75" s="14">
+        <v>3</v>
+      </c>
       <c r="AS75" s="13"/>
       <c r="AT75" s="5"/>
       <c r="AU75" s="6"/>
@@ -4592,8 +4877,12 @@
       <c r="AM76" s="6"/>
       <c r="AO76" s="4"/>
       <c r="AP76" s="11"/>
-      <c r="AQ76" s="8"/>
-      <c r="AR76" s="14"/>
+      <c r="AQ76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR76" s="14">
+        <v>3</v>
+      </c>
       <c r="AS76" s="13"/>
       <c r="AT76" s="5"/>
       <c r="AU76" s="6"/>
@@ -4621,9 +4910,15 @@
       <c r="AM77" s="6"/>
       <c r="AO77" s="4"/>
       <c r="AP77" s="11"/>
-      <c r="AQ77" s="8"/>
-      <c r="AR77" s="14"/>
-      <c r="AS77" s="13"/>
+      <c r="AQ77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR77" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS77" s="13">
+        <v>2</v>
+      </c>
       <c r="AT77" s="5"/>
       <c r="AU77" s="6"/>
     </row>
@@ -4648,9 +4943,15 @@
       <c r="AM78" s="6"/>
       <c r="AO78" s="4"/>
       <c r="AP78" s="11"/>
-      <c r="AQ78" s="8"/>
-      <c r="AR78" s="14"/>
-      <c r="AS78" s="13"/>
+      <c r="AQ78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR78" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>1</v>
+      </c>
       <c r="AT78" s="5"/>
       <c r="AU78" s="6"/>
     </row>
@@ -4700,11 +5001,21 @@
       <c r="AK80" s="13"/>
       <c r="AL80" s="5"/>
       <c r="AM80" s="6"/>
-      <c r="AO80" s="4"/>
-      <c r="AP80" s="11"/>
-      <c r="AQ80" s="8"/>
-      <c r="AR80" s="14"/>
-      <c r="AS80" s="13"/>
+      <c r="AO80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP80" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR80" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS80" s="13">
+        <v>4</v>
+      </c>
       <c r="AT80" s="5"/>
       <c r="AU80" s="6"/>
     </row>
@@ -4729,9 +5040,15 @@
       <c r="AM81" s="6"/>
       <c r="AO81" s="4"/>
       <c r="AP81" s="11"/>
-      <c r="AQ81" s="8"/>
-      <c r="AR81" s="14"/>
-      <c r="AS81" s="13"/>
+      <c r="AQ81" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR81" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS81" s="13">
+        <v>3</v>
+      </c>
       <c r="AT81" s="5"/>
       <c r="AU81" s="6"/>
     </row>
@@ -4758,8 +5075,12 @@
       <c r="AM82" s="6"/>
       <c r="AO82" s="4"/>
       <c r="AP82" s="11"/>
-      <c r="AQ82" s="8"/>
-      <c r="AR82" s="14"/>
+      <c r="AQ82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR82" s="14">
+        <v>3</v>
+      </c>
       <c r="AS82" s="13"/>
       <c r="AT82" s="5"/>
       <c r="AU82" s="6"/>
@@ -4781,8 +5102,12 @@
       <c r="AM83" s="6"/>
       <c r="AO83" s="4"/>
       <c r="AP83" s="11"/>
-      <c r="AQ83" s="8"/>
-      <c r="AR83" s="14"/>
+      <c r="AQ83" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR83" s="14">
+        <v>3</v>
+      </c>
       <c r="AS83" s="13"/>
       <c r="AT83" s="5"/>
       <c r="AU83" s="6"/>
@@ -4812,8 +5137,12 @@
       <c r="AM84" s="6"/>
       <c r="AO84" s="4"/>
       <c r="AP84" s="11"/>
-      <c r="AQ84" s="8"/>
-      <c r="AR84" s="14"/>
+      <c r="AQ84" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR84" s="14">
+        <v>3</v>
+      </c>
       <c r="AS84" s="13"/>
       <c r="AT84" s="5"/>
       <c r="AU84" s="6"/>
@@ -4841,8 +5170,12 @@
       <c r="AM85" s="6"/>
       <c r="AO85" s="4"/>
       <c r="AP85" s="11"/>
-      <c r="AQ85" s="8"/>
-      <c r="AR85" s="14"/>
+      <c r="AQ85" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR85" s="14">
+        <v>5</v>
+      </c>
       <c r="AS85" s="13"/>
       <c r="AT85" s="5"/>
       <c r="AU85" s="6"/>
@@ -4868,11 +5201,19 @@
       <c r="AM86" s="6"/>
       <c r="AO86" s="4"/>
       <c r="AP86" s="11"/>
-      <c r="AQ86" s="8"/>
-      <c r="AR86" s="14"/>
+      <c r="AQ86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR86" s="14">
+        <v>3</v>
+      </c>
       <c r="AS86" s="13"/>
-      <c r="AT86" s="5"/>
-      <c r="AU86" s="6"/>
+      <c r="AT86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU86" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -4898,8 +5239,12 @@
       <c r="AQ87" s="8"/>
       <c r="AR87" s="14"/>
       <c r="AS87" s="13"/>
-      <c r="AT87" s="5"/>
-      <c r="AU87" s="6"/>
+      <c r="AT87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU87" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -4922,8 +5267,12 @@
       <c r="AM88" s="6"/>
       <c r="AO88" s="4"/>
       <c r="AP88" s="11"/>
-      <c r="AQ88" s="8"/>
-      <c r="AR88" s="14"/>
+      <c r="AQ88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR88" s="14">
+        <v>4</v>
+      </c>
       <c r="AS88" s="13"/>
       <c r="AT88" s="5"/>
       <c r="AU88" s="6"/>
@@ -4949,8 +5298,12 @@
       <c r="AM89" s="6"/>
       <c r="AO89" s="4"/>
       <c r="AP89" s="11"/>
-      <c r="AQ89" s="8"/>
-      <c r="AR89" s="14"/>
+      <c r="AQ89" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR89" s="14">
+        <v>4</v>
+      </c>
       <c r="AS89" s="13"/>
       <c r="AT89" s="5"/>
       <c r="AU89" s="6"/>
@@ -4976,9 +5329,15 @@
       <c r="AM90" s="6"/>
       <c r="AO90" s="4"/>
       <c r="AP90" s="11"/>
-      <c r="AQ90" s="8"/>
-      <c r="AR90" s="14"/>
-      <c r="AS90" s="13"/>
+      <c r="AQ90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR90" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS90" s="13">
+        <v>2</v>
+      </c>
       <c r="AT90" s="5"/>
       <c r="AU90" s="6"/>
     </row>
@@ -5003,9 +5362,15 @@
       <c r="AM91" s="6"/>
       <c r="AO91" s="4"/>
       <c r="AP91" s="11"/>
-      <c r="AQ91" s="8"/>
-      <c r="AR91" s="14"/>
-      <c r="AS91" s="13"/>
+      <c r="AQ91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR91" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS91" s="13">
+        <v>1</v>
+      </c>
       <c r="AT91" s="5"/>
       <c r="AU91" s="6"/>
     </row>
@@ -5057,11 +5422,21 @@
       <c r="AK93" s="13"/>
       <c r="AL93" s="5"/>
       <c r="AM93" s="6"/>
-      <c r="AO93" s="4"/>
-      <c r="AP93" s="11"/>
-      <c r="AQ93" s="8"/>
-      <c r="AR93" s="14"/>
-      <c r="AS93" s="13"/>
+      <c r="AO93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP93" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR93" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS93" s="13">
+        <v>4</v>
+      </c>
       <c r="AT93" s="5"/>
       <c r="AU93" s="6"/>
     </row>
@@ -5086,9 +5461,15 @@
       <c r="AM94" s="6"/>
       <c r="AO94" s="4"/>
       <c r="AP94" s="11"/>
-      <c r="AQ94" s="8"/>
-      <c r="AR94" s="14"/>
-      <c r="AS94" s="13"/>
+      <c r="AQ94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR94" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>3</v>
+      </c>
       <c r="AT94" s="5"/>
       <c r="AU94" s="6"/>
     </row>
@@ -5115,8 +5496,12 @@
       <c r="AM95" s="6"/>
       <c r="AO95" s="4"/>
       <c r="AP95" s="11"/>
-      <c r="AQ95" s="8"/>
-      <c r="AR95" s="14"/>
+      <c r="AQ95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR95" s="14">
+        <v>3</v>
+      </c>
       <c r="AS95" s="13"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="6"/>
@@ -5138,8 +5523,12 @@
       <c r="AM96" s="6"/>
       <c r="AO96" s="4"/>
       <c r="AP96" s="11"/>
-      <c r="AQ96" s="8"/>
-      <c r="AR96" s="14"/>
+      <c r="AQ96" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR96" s="14">
+        <v>3</v>
+      </c>
       <c r="AS96" s="13"/>
       <c r="AT96" s="5"/>
       <c r="AU96" s="6"/>
@@ -5169,8 +5558,12 @@
       <c r="AM97" s="6"/>
       <c r="AO97" s="4"/>
       <c r="AP97" s="11"/>
-      <c r="AQ97" s="8"/>
-      <c r="AR97" s="14"/>
+      <c r="AQ97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR97" s="14">
+        <v>3</v>
+      </c>
       <c r="AS97" s="13"/>
       <c r="AT97" s="5"/>
       <c r="AU97" s="6"/>
@@ -5198,8 +5591,12 @@
       <c r="AM98" s="6"/>
       <c r="AO98" s="4"/>
       <c r="AP98" s="11"/>
-      <c r="AQ98" s="8"/>
-      <c r="AR98" s="14"/>
+      <c r="AQ98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR98" s="14">
+        <v>5</v>
+      </c>
       <c r="AS98" s="13"/>
       <c r="AT98" s="5"/>
       <c r="AU98" s="6"/>
@@ -5225,11 +5622,19 @@
       <c r="AM99" s="6"/>
       <c r="AO99" s="4"/>
       <c r="AP99" s="11"/>
-      <c r="AQ99" s="8"/>
-      <c r="AR99" s="14"/>
+      <c r="AQ99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR99" s="14">
+        <v>3</v>
+      </c>
       <c r="AS99" s="13"/>
-      <c r="AT99" s="5"/>
-      <c r="AU99" s="6"/>
+      <c r="AT99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU99" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -5255,8 +5660,12 @@
       <c r="AQ100" s="8"/>
       <c r="AR100" s="14"/>
       <c r="AS100" s="13"/>
-      <c r="AT100" s="5"/>
-      <c r="AU100" s="6"/>
+      <c r="AT100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU100" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -5279,8 +5688,12 @@
       <c r="AM101" s="6"/>
       <c r="AO101" s="4"/>
       <c r="AP101" s="11"/>
-      <c r="AQ101" s="8"/>
-      <c r="AR101" s="14"/>
+      <c r="AQ101" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR101" s="14">
+        <v>4</v>
+      </c>
       <c r="AS101" s="13"/>
       <c r="AT101" s="5"/>
       <c r="AU101" s="6"/>
@@ -5306,8 +5719,12 @@
       <c r="AM102" s="6"/>
       <c r="AO102" s="4"/>
       <c r="AP102" s="11"/>
-      <c r="AQ102" s="8"/>
-      <c r="AR102" s="14"/>
+      <c r="AQ102" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR102" s="14">
+        <v>4</v>
+      </c>
       <c r="AS102" s="13"/>
       <c r="AT102" s="5"/>
       <c r="AU102" s="6"/>
@@ -5333,9 +5750,15 @@
       <c r="AM103" s="6"/>
       <c r="AO103" s="4"/>
       <c r="AP103" s="11"/>
-      <c r="AQ103" s="8"/>
-      <c r="AR103" s="14"/>
-      <c r="AS103" s="13"/>
+      <c r="AQ103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR103" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS103" s="13">
+        <v>2</v>
+      </c>
       <c r="AT103" s="5"/>
       <c r="AU103" s="6"/>
     </row>
@@ -5360,9 +5783,15 @@
       <c r="AM104" s="6"/>
       <c r="AO104" s="4"/>
       <c r="AP104" s="11"/>
-      <c r="AQ104" s="8"/>
-      <c r="AR104" s="14"/>
-      <c r="AS104" s="13"/>
+      <c r="AQ104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR104" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS104" s="13">
+        <v>1</v>
+      </c>
       <c r="AT104" s="5"/>
       <c r="AU104" s="6"/>
     </row>
@@ -5415,10 +5844,18 @@
       <c r="AL106" s="5"/>
       <c r="AM106" s="6"/>
       <c r="AO106" s="4"/>
-      <c r="AP106" s="11"/>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="14"/>
-      <c r="AS106" s="13"/>
+      <c r="AP106" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR106" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS106" s="13">
+        <v>4</v>
+      </c>
       <c r="AT106" s="5"/>
       <c r="AU106" s="6"/>
     </row>
@@ -5443,9 +5880,15 @@
       <c r="AM107" s="6"/>
       <c r="AO107" s="4"/>
       <c r="AP107" s="11"/>
-      <c r="AQ107" s="8"/>
-      <c r="AR107" s="14"/>
-      <c r="AS107" s="13"/>
+      <c r="AQ107" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR107" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS107" s="13">
+        <v>3</v>
+      </c>
       <c r="AT107" s="5"/>
       <c r="AU107" s="6"/>
     </row>
@@ -5472,8 +5915,12 @@
       <c r="AM108" s="6"/>
       <c r="AO108" s="4"/>
       <c r="AP108" s="11"/>
-      <c r="AQ108" s="8"/>
-      <c r="AR108" s="14"/>
+      <c r="AQ108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR108" s="14">
+        <v>3</v>
+      </c>
       <c r="AS108" s="13"/>
       <c r="AT108" s="5"/>
       <c r="AU108" s="6"/>
@@ -5495,8 +5942,12 @@
       <c r="AM109" s="6"/>
       <c r="AO109" s="4"/>
       <c r="AP109" s="11"/>
-      <c r="AQ109" s="8"/>
-      <c r="AR109" s="14"/>
+      <c r="AQ109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR109" s="14">
+        <v>3</v>
+      </c>
       <c r="AS109" s="13"/>
       <c r="AT109" s="5"/>
       <c r="AU109" s="6"/>
@@ -5526,8 +5977,12 @@
       <c r="AM110" s="6"/>
       <c r="AO110" s="4"/>
       <c r="AP110" s="11"/>
-      <c r="AQ110" s="8"/>
-      <c r="AR110" s="14"/>
+      <c r="AQ110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR110" s="14">
+        <v>5</v>
+      </c>
       <c r="AS110" s="13"/>
       <c r="AT110" s="5"/>
       <c r="AU110" s="6"/>
@@ -5555,11 +6010,19 @@
       <c r="AM111" s="6"/>
       <c r="AO111" s="4"/>
       <c r="AP111" s="11"/>
-      <c r="AQ111" s="8"/>
-      <c r="AR111" s="14"/>
+      <c r="AQ111" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR111" s="14">
+        <v>3</v>
+      </c>
       <c r="AS111" s="13"/>
-      <c r="AT111" s="5"/>
-      <c r="AU111" s="6"/>
+      <c r="AT111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU111" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
@@ -5585,8 +6048,12 @@
       <c r="AQ112" s="8"/>
       <c r="AR112" s="14"/>
       <c r="AS112" s="13"/>
-      <c r="AT112" s="5"/>
-      <c r="AU112" s="6"/>
+      <c r="AT112" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU112" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -5609,8 +6076,12 @@
       <c r="AM113" s="6"/>
       <c r="AO113" s="4"/>
       <c r="AP113" s="11"/>
-      <c r="AQ113" s="8"/>
-      <c r="AR113" s="14"/>
+      <c r="AQ113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR113" s="14">
+        <v>4</v>
+      </c>
       <c r="AS113" s="13"/>
       <c r="AT113" s="5"/>
       <c r="AU113" s="6"/>
@@ -5636,8 +6107,12 @@
       <c r="AM114" s="6"/>
       <c r="AO114" s="4"/>
       <c r="AP114" s="11"/>
-      <c r="AQ114" s="8"/>
-      <c r="AR114" s="14"/>
+      <c r="AQ114" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR114" s="14">
+        <v>4</v>
+      </c>
       <c r="AS114" s="13"/>
       <c r="AT114" s="5"/>
       <c r="AU114" s="6"/>
@@ -5663,9 +6138,15 @@
       <c r="AM115" s="6"/>
       <c r="AO115" s="4"/>
       <c r="AP115" s="11"/>
-      <c r="AQ115" s="8"/>
-      <c r="AR115" s="14"/>
-      <c r="AS115" s="13"/>
+      <c r="AQ115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR115" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS115" s="13">
+        <v>2</v>
+      </c>
       <c r="AT115" s="5"/>
       <c r="AU115" s="6"/>
     </row>
@@ -5690,9 +6171,15 @@
       <c r="AM116" s="6"/>
       <c r="AO116" s="4"/>
       <c r="AP116" s="11"/>
-      <c r="AQ116" s="8"/>
-      <c r="AR116" s="14"/>
-      <c r="AS116" s="13"/>
+      <c r="AQ116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR116" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS116" s="13">
+        <v>1</v>
+      </c>
       <c r="AT116" s="5"/>
       <c r="AU116" s="6"/>
     </row>
@@ -5744,11 +6231,21 @@
       <c r="AK118" s="13"/>
       <c r="AL118" s="5"/>
       <c r="AM118" s="6"/>
-      <c r="AO118" s="4"/>
-      <c r="AP118" s="11"/>
-      <c r="AQ118" s="8"/>
-      <c r="AR118" s="14"/>
-      <c r="AS118" s="13"/>
+      <c r="AO118" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP118" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ118" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR118" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS118" s="13">
+        <v>4</v>
+      </c>
       <c r="AT118" s="5"/>
       <c r="AU118" s="6"/>
     </row>
@@ -5773,9 +6270,15 @@
       <c r="AM119" s="6"/>
       <c r="AO119" s="4"/>
       <c r="AP119" s="11"/>
-      <c r="AQ119" s="8"/>
-      <c r="AR119" s="14"/>
-      <c r="AS119" s="13"/>
+      <c r="AQ119" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR119" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS119" s="13">
+        <v>3</v>
+      </c>
       <c r="AT119" s="5"/>
       <c r="AU119" s="6"/>
     </row>
@@ -5800,8 +6303,12 @@
       <c r="AM120" s="6"/>
       <c r="AO120" s="4"/>
       <c r="AP120" s="11"/>
-      <c r="AQ120" s="8"/>
-      <c r="AR120" s="14"/>
+      <c r="AQ120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR120" s="14">
+        <v>3</v>
+      </c>
       <c r="AS120" s="13"/>
       <c r="AT120" s="5"/>
       <c r="AU120" s="6"/>
@@ -5829,8 +6336,12 @@
       <c r="AM121" s="6"/>
       <c r="AO121" s="4"/>
       <c r="AP121" s="11"/>
-      <c r="AQ121" s="8"/>
-      <c r="AR121" s="14"/>
+      <c r="AQ121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR121" s="14">
+        <v>3</v>
+      </c>
       <c r="AS121" s="13"/>
       <c r="AT121" s="5"/>
       <c r="AU121" s="6"/>
@@ -5852,8 +6363,12 @@
       <c r="AM122" s="6"/>
       <c r="AO122" s="4"/>
       <c r="AP122" s="11"/>
-      <c r="AQ122" s="8"/>
-      <c r="AR122" s="14"/>
+      <c r="AQ122" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR122" s="14">
+        <v>3</v>
+      </c>
       <c r="AS122" s="13"/>
       <c r="AT122" s="5"/>
       <c r="AU122" s="6"/>
@@ -5883,8 +6398,12 @@
       <c r="AM123" s="6"/>
       <c r="AO123" s="4"/>
       <c r="AP123" s="11"/>
-      <c r="AQ123" s="8"/>
-      <c r="AR123" s="14"/>
+      <c r="AQ123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR123" s="14">
+        <v>5</v>
+      </c>
       <c r="AS123" s="13"/>
       <c r="AT123" s="5"/>
       <c r="AU123" s="6"/>
@@ -5912,11 +6431,19 @@
       <c r="AM124" s="6"/>
       <c r="AO124" s="4"/>
       <c r="AP124" s="11"/>
-      <c r="AQ124" s="8"/>
-      <c r="AR124" s="14"/>
+      <c r="AQ124" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR124" s="14">
+        <v>3</v>
+      </c>
       <c r="AS124" s="13"/>
-      <c r="AT124" s="5"/>
-      <c r="AU124" s="6"/>
+      <c r="AT124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU124" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
@@ -5942,8 +6469,12 @@
       <c r="AQ125" s="8"/>
       <c r="AR125" s="14"/>
       <c r="AS125" s="13"/>
-      <c r="AT125" s="5"/>
-      <c r="AU125" s="6"/>
+      <c r="AT125" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU125" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
@@ -5966,8 +6497,12 @@
       <c r="AM126" s="6"/>
       <c r="AO126" s="4"/>
       <c r="AP126" s="11"/>
-      <c r="AQ126" s="8"/>
-      <c r="AR126" s="14"/>
+      <c r="AQ126" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR126" s="14">
+        <v>2</v>
+      </c>
       <c r="AS126" s="13"/>
       <c r="AT126" s="5"/>
       <c r="AU126" s="6"/>
@@ -5993,9 +6528,15 @@
       <c r="AM127" s="6"/>
       <c r="AO127" s="4"/>
       <c r="AP127" s="11"/>
-      <c r="AQ127" s="8"/>
-      <c r="AR127" s="14"/>
-      <c r="AS127" s="13"/>
+      <c r="AQ127" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR127" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS127" s="13">
+        <v>2</v>
+      </c>
       <c r="AT127" s="5"/>
       <c r="AU127" s="6"/>
     </row>
@@ -6020,8 +6561,12 @@
       <c r="AM128" s="6"/>
       <c r="AO128" s="4"/>
       <c r="AP128" s="11"/>
-      <c r="AQ128" s="8"/>
-      <c r="AR128" s="14"/>
+      <c r="AQ128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR128" s="14">
+        <v>2</v>
+      </c>
       <c r="AS128" s="13"/>
       <c r="AT128" s="5"/>
       <c r="AU128" s="6"/>
@@ -6049,8 +6594,12 @@
       <c r="AM129" s="6"/>
       <c r="AO129" s="4"/>
       <c r="AP129" s="11"/>
-      <c r="AQ129" s="8"/>
-      <c r="AR129" s="14"/>
+      <c r="AQ129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR129" s="14">
+        <v>2</v>
+      </c>
       <c r="AS129" s="13"/>
       <c r="AT129" s="5"/>
       <c r="AU129" s="6"/>
@@ -6076,9 +6625,15 @@
       <c r="AM130" s="6"/>
       <c r="AO130" s="4"/>
       <c r="AP130" s="11"/>
-      <c r="AQ130" s="8"/>
-      <c r="AR130" s="14"/>
-      <c r="AS130" s="13"/>
+      <c r="AQ130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR130" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS130" s="13">
+        <v>1</v>
+      </c>
       <c r="AT130" s="5"/>
       <c r="AU130" s="6"/>
     </row>
@@ -6128,11 +6683,21 @@
       <c r="AK132" s="13"/>
       <c r="AL132" s="5"/>
       <c r="AM132" s="6"/>
-      <c r="AO132" s="4"/>
-      <c r="AP132" s="11"/>
-      <c r="AQ132" s="8"/>
-      <c r="AR132" s="14"/>
-      <c r="AS132" s="13"/>
+      <c r="AO132" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP132" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ132" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR132" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS132" s="13">
+        <v>4</v>
+      </c>
       <c r="AT132" s="5"/>
       <c r="AU132" s="6"/>
     </row>
@@ -6157,9 +6722,15 @@
       <c r="AM133" s="6"/>
       <c r="AO133" s="4"/>
       <c r="AP133" s="11"/>
-      <c r="AQ133" s="8"/>
-      <c r="AR133" s="14"/>
-      <c r="AS133" s="13"/>
+      <c r="AQ133" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR133" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS133" s="13">
+        <v>3</v>
+      </c>
       <c r="AT133" s="5"/>
       <c r="AU133" s="6"/>
     </row>
@@ -6184,8 +6755,12 @@
       <c r="AM134" s="6"/>
       <c r="AO134" s="4"/>
       <c r="AP134" s="11"/>
-      <c r="AQ134" s="8"/>
-      <c r="AR134" s="14"/>
+      <c r="AQ134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR134" s="14">
+        <v>3</v>
+      </c>
       <c r="AS134" s="13"/>
       <c r="AT134" s="5"/>
       <c r="AU134" s="6"/>
@@ -6213,8 +6788,12 @@
       <c r="AM135" s="6"/>
       <c r="AO135" s="4"/>
       <c r="AP135" s="11"/>
-      <c r="AQ135" s="8"/>
-      <c r="AR135" s="14"/>
+      <c r="AQ135" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR135" s="14">
+        <v>3</v>
+      </c>
       <c r="AS135" s="13"/>
       <c r="AT135" s="5"/>
       <c r="AU135" s="6"/>
@@ -6236,8 +6815,12 @@
       <c r="AM136" s="6"/>
       <c r="AO136" s="4"/>
       <c r="AP136" s="11"/>
-      <c r="AQ136" s="8"/>
-      <c r="AR136" s="14"/>
+      <c r="AQ136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR136" s="14">
+        <v>3</v>
+      </c>
       <c r="AS136" s="13"/>
       <c r="AT136" s="5"/>
       <c r="AU136" s="6"/>
@@ -6267,8 +6850,12 @@
       <c r="AM137" s="6"/>
       <c r="AO137" s="4"/>
       <c r="AP137" s="11"/>
-      <c r="AQ137" s="8"/>
-      <c r="AR137" s="14"/>
+      <c r="AQ137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR137" s="14">
+        <v>5</v>
+      </c>
       <c r="AS137" s="13"/>
       <c r="AT137" s="5"/>
       <c r="AU137" s="6"/>
@@ -6296,11 +6883,19 @@
       <c r="AM138" s="6"/>
       <c r="AO138" s="4"/>
       <c r="AP138" s="11"/>
-      <c r="AQ138" s="8"/>
-      <c r="AR138" s="14"/>
+      <c r="AQ138" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR138" s="14">
+        <v>3</v>
+      </c>
       <c r="AS138" s="13"/>
-      <c r="AT138" s="5"/>
-      <c r="AU138" s="6"/>
+      <c r="AT138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU138" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
@@ -6326,8 +6921,12 @@
       <c r="AQ139" s="8"/>
       <c r="AR139" s="14"/>
       <c r="AS139" s="13"/>
-      <c r="AT139" s="5"/>
-      <c r="AU139" s="6"/>
+      <c r="AT139" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU139" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
@@ -6350,8 +6949,12 @@
       <c r="AM140" s="6"/>
       <c r="AO140" s="4"/>
       <c r="AP140" s="11"/>
-      <c r="AQ140" s="8"/>
-      <c r="AR140" s="14"/>
+      <c r="AQ140" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR140" s="14">
+        <v>2</v>
+      </c>
       <c r="AS140" s="13"/>
       <c r="AT140" s="5"/>
       <c r="AU140" s="6"/>
@@ -6377,9 +6980,15 @@
       <c r="AM141" s="6"/>
       <c r="AO141" s="4"/>
       <c r="AP141" s="11"/>
-      <c r="AQ141" s="8"/>
-      <c r="AR141" s="14"/>
-      <c r="AS141" s="13"/>
+      <c r="AQ141" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR141" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS141" s="13">
+        <v>2</v>
+      </c>
       <c r="AT141" s="5"/>
       <c r="AU141" s="6"/>
     </row>
@@ -6404,8 +7013,12 @@
       <c r="AM142" s="6"/>
       <c r="AO142" s="4"/>
       <c r="AP142" s="11"/>
-      <c r="AQ142" s="8"/>
-      <c r="AR142" s="14"/>
+      <c r="AQ142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR142" s="14">
+        <v>2</v>
+      </c>
       <c r="AS142" s="13"/>
       <c r="AT142" s="5"/>
       <c r="AU142" s="6"/>
@@ -6433,8 +7046,12 @@
       <c r="AM143" s="6"/>
       <c r="AO143" s="4"/>
       <c r="AP143" s="11"/>
-      <c r="AQ143" s="8"/>
-      <c r="AR143" s="14"/>
+      <c r="AQ143" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR143" s="14">
+        <v>2</v>
+      </c>
       <c r="AS143" s="13"/>
       <c r="AT143" s="5"/>
       <c r="AU143" s="6"/>
@@ -6460,9 +7077,15 @@
       <c r="AM144" s="6"/>
       <c r="AO144" s="4"/>
       <c r="AP144" s="11"/>
-      <c r="AQ144" s="8"/>
-      <c r="AR144" s="14"/>
-      <c r="AS144" s="13"/>
+      <c r="AQ144" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR144" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS144" s="13">
+        <v>1</v>
+      </c>
       <c r="AT144" s="5"/>
       <c r="AU144" s="6"/>
     </row>
@@ -6513,10 +7136,18 @@
       <c r="AL146" s="5"/>
       <c r="AM146" s="6"/>
       <c r="AO146" s="4"/>
-      <c r="AP146" s="11"/>
-      <c r="AQ146" s="8"/>
-      <c r="AR146" s="14"/>
-      <c r="AS146" s="13"/>
+      <c r="AP146" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ146" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR146" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS146" s="13">
+        <v>4</v>
+      </c>
       <c r="AT146" s="5"/>
       <c r="AU146" s="6"/>
     </row>
@@ -6541,9 +7172,15 @@
       <c r="AM147" s="6"/>
       <c r="AO147" s="4"/>
       <c r="AP147" s="11"/>
-      <c r="AQ147" s="8"/>
-      <c r="AR147" s="14"/>
-      <c r="AS147" s="13"/>
+      <c r="AQ147" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR147" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS147" s="13">
+        <v>3</v>
+      </c>
       <c r="AT147" s="5"/>
       <c r="AU147" s="6"/>
     </row>
@@ -6568,8 +7205,12 @@
       <c r="AM148" s="6"/>
       <c r="AO148" s="4"/>
       <c r="AP148" s="11"/>
-      <c r="AQ148" s="8"/>
-      <c r="AR148" s="14"/>
+      <c r="AQ148" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR148" s="14">
+        <v>3</v>
+      </c>
       <c r="AS148" s="13"/>
       <c r="AT148" s="5"/>
       <c r="AU148" s="6"/>
@@ -6597,8 +7238,12 @@
       <c r="AM149" s="6"/>
       <c r="AO149" s="4"/>
       <c r="AP149" s="11"/>
-      <c r="AQ149" s="8"/>
-      <c r="AR149" s="14"/>
+      <c r="AQ149" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR149" s="14">
+        <v>3</v>
+      </c>
       <c r="AS149" s="13"/>
       <c r="AT149" s="5"/>
       <c r="AU149" s="6"/>
@@ -6620,8 +7265,12 @@
       <c r="AM150" s="6"/>
       <c r="AO150" s="4"/>
       <c r="AP150" s="11"/>
-      <c r="AQ150" s="8"/>
-      <c r="AR150" s="14"/>
+      <c r="AQ150" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR150" s="14">
+        <v>5</v>
+      </c>
       <c r="AS150" s="13"/>
       <c r="AT150" s="5"/>
       <c r="AU150" s="6"/>
@@ -6651,11 +7300,19 @@
       <c r="AM151" s="6"/>
       <c r="AO151" s="4"/>
       <c r="AP151" s="11"/>
-      <c r="AQ151" s="8"/>
-      <c r="AR151" s="14"/>
+      <c r="AQ151" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR151" s="14">
+        <v>3</v>
+      </c>
       <c r="AS151" s="13"/>
-      <c r="AT151" s="5"/>
-      <c r="AU151" s="6"/>
+      <c r="AT151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU151" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
@@ -6683,8 +7340,12 @@
       <c r="AQ152" s="8"/>
       <c r="AR152" s="14"/>
       <c r="AS152" s="13"/>
-      <c r="AT152" s="5"/>
-      <c r="AU152" s="6"/>
+      <c r="AT152" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU152" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
@@ -6707,8 +7368,12 @@
       <c r="AM153" s="6"/>
       <c r="AO153" s="4"/>
       <c r="AP153" s="11"/>
-      <c r="AQ153" s="8"/>
-      <c r="AR153" s="14"/>
+      <c r="AQ153" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR153" s="14">
+        <v>2</v>
+      </c>
       <c r="AS153" s="13"/>
       <c r="AT153" s="5"/>
       <c r="AU153" s="6"/>
@@ -6734,9 +7399,15 @@
       <c r="AM154" s="6"/>
       <c r="AO154" s="4"/>
       <c r="AP154" s="11"/>
-      <c r="AQ154" s="8"/>
-      <c r="AR154" s="14"/>
-      <c r="AS154" s="13"/>
+      <c r="AQ154" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR154" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS154" s="13">
+        <v>2</v>
+      </c>
       <c r="AT154" s="5"/>
       <c r="AU154" s="6"/>
     </row>
@@ -6761,8 +7432,12 @@
       <c r="AM155" s="6"/>
       <c r="AO155" s="4"/>
       <c r="AP155" s="11"/>
-      <c r="AQ155" s="8"/>
-      <c r="AR155" s="14"/>
+      <c r="AQ155" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR155" s="14">
+        <v>2</v>
+      </c>
       <c r="AS155" s="13"/>
       <c r="AT155" s="5"/>
       <c r="AU155" s="6"/>
@@ -6790,8 +7465,12 @@
       <c r="AM156" s="6"/>
       <c r="AO156" s="4"/>
       <c r="AP156" s="11"/>
-      <c r="AQ156" s="8"/>
-      <c r="AR156" s="14"/>
+      <c r="AQ156" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR156" s="14">
+        <v>2</v>
+      </c>
       <c r="AS156" s="13"/>
       <c r="AT156" s="5"/>
       <c r="AU156" s="6"/>
@@ -6817,9 +7496,15 @@
       <c r="AM157" s="6"/>
       <c r="AO157" s="4"/>
       <c r="AP157" s="11"/>
-      <c r="AQ157" s="8"/>
-      <c r="AR157" s="14"/>
-      <c r="AS157" s="13"/>
+      <c r="AQ157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR157" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS157" s="13">
+        <v>1</v>
+      </c>
       <c r="AT157" s="5"/>
       <c r="AU157" s="6"/>
     </row>
@@ -6869,13 +7554,27 @@
       <c r="AK159" s="13"/>
       <c r="AL159" s="5"/>
       <c r="AM159" s="6"/>
-      <c r="AO159" s="4"/>
-      <c r="AP159" s="11"/>
-      <c r="AQ159" s="8"/>
-      <c r="AR159" s="14"/>
-      <c r="AS159" s="13"/>
-      <c r="AT159" s="5"/>
-      <c r="AU159" s="6"/>
+      <c r="AO159" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP159" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ159" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR159" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS159" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT159" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU159" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
@@ -6901,8 +7600,12 @@
       <c r="AQ160" s="8"/>
       <c r="AR160" s="14"/>
       <c r="AS160" s="13"/>
-      <c r="AT160" s="5"/>
-      <c r="AU160" s="6"/>
+      <c r="AT160" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU160" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
@@ -6925,9 +7628,15 @@
       <c r="AM161" s="6"/>
       <c r="AO161" s="4"/>
       <c r="AP161" s="11"/>
-      <c r="AQ161" s="8"/>
-      <c r="AR161" s="14"/>
-      <c r="AS161" s="13"/>
+      <c r="AQ161" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR161" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS161" s="13">
+        <v>3</v>
+      </c>
       <c r="AT161" s="5"/>
       <c r="AU161" s="6"/>
     </row>
@@ -6952,8 +7661,12 @@
       <c r="AM162" s="6"/>
       <c r="AO162" s="4"/>
       <c r="AP162" s="11"/>
-      <c r="AQ162" s="8"/>
-      <c r="AR162" s="14"/>
+      <c r="AQ162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR162" s="14">
+        <v>3</v>
+      </c>
       <c r="AS162" s="13"/>
       <c r="AT162" s="5"/>
       <c r="AU162" s="6"/>
@@ -6981,8 +7694,12 @@
       <c r="AM163" s="6"/>
       <c r="AO163" s="4"/>
       <c r="AP163" s="11"/>
-      <c r="AQ163" s="8"/>
-      <c r="AR163" s="14"/>
+      <c r="AQ163" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR163" s="14">
+        <v>3</v>
+      </c>
       <c r="AS163" s="13"/>
       <c r="AT163" s="5"/>
       <c r="AU163" s="6"/>
@@ -7004,8 +7721,12 @@
       <c r="AM164" s="6"/>
       <c r="AO164" s="4"/>
       <c r="AP164" s="11"/>
-      <c r="AQ164" s="8"/>
-      <c r="AR164" s="14"/>
+      <c r="AQ164" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR164" s="14">
+        <v>3</v>
+      </c>
       <c r="AS164" s="13"/>
       <c r="AT164" s="5"/>
       <c r="AU164" s="6"/>
@@ -7039,11 +7760,19 @@
       </c>
       <c r="AO165" s="4"/>
       <c r="AP165" s="11"/>
-      <c r="AQ165" s="8"/>
-      <c r="AR165" s="14"/>
+      <c r="AQ165" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR165" s="14">
+        <v>3</v>
+      </c>
       <c r="AS165" s="13"/>
-      <c r="AT165" s="5"/>
-      <c r="AU165" s="6"/>
+      <c r="AT165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU165" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="166" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
@@ -7069,8 +7798,12 @@
       <c r="AQ166" s="8"/>
       <c r="AR166" s="14"/>
       <c r="AS166" s="13"/>
-      <c r="AT166" s="5"/>
-      <c r="AU166" s="6"/>
+      <c r="AT166" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU166" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
@@ -7093,11 +7826,19 @@
       </c>
       <c r="AO167" s="4"/>
       <c r="AP167" s="11"/>
-      <c r="AQ167" s="8"/>
-      <c r="AR167" s="14"/>
+      <c r="AQ167" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR167" s="14">
+        <v>3</v>
+      </c>
       <c r="AS167" s="13"/>
-      <c r="AT167" s="5"/>
-      <c r="AU167" s="6"/>
+      <c r="AT167" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU167" s="18">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="168" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
@@ -7125,8 +7866,12 @@
       <c r="AQ168" s="8"/>
       <c r="AR168" s="14"/>
       <c r="AS168" s="13"/>
-      <c r="AT168" s="5"/>
-      <c r="AU168" s="6"/>
+      <c r="AT168" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU168" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
@@ -7152,8 +7897,12 @@
       <c r="AQ169" s="8"/>
       <c r="AR169" s="14"/>
       <c r="AS169" s="13"/>
-      <c r="AT169" s="5"/>
-      <c r="AU169" s="6"/>
+      <c r="AT169" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU169" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
@@ -7176,9 +7925,15 @@
       <c r="AM170" s="18"/>
       <c r="AO170" s="4"/>
       <c r="AP170" s="11"/>
-      <c r="AQ170" s="8"/>
-      <c r="AR170" s="14"/>
-      <c r="AS170" s="13"/>
+      <c r="AQ170" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR170" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS170" s="13">
+        <v>2</v>
+      </c>
       <c r="AT170" s="5"/>
       <c r="AU170" s="6"/>
     </row>
@@ -7203,8 +7958,12 @@
       <c r="AM171" s="18"/>
       <c r="AO171" s="4"/>
       <c r="AP171" s="11"/>
-      <c r="AQ171" s="8"/>
-      <c r="AR171" s="14"/>
+      <c r="AQ171" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR171" s="14">
+        <v>2</v>
+      </c>
       <c r="AS171" s="13"/>
       <c r="AT171" s="5"/>
       <c r="AU171" s="6"/>
@@ -7230,8 +7989,12 @@
       <c r="AM172" s="18"/>
       <c r="AO172" s="4"/>
       <c r="AP172" s="11"/>
-      <c r="AQ172" s="8"/>
-      <c r="AR172" s="14"/>
+      <c r="AQ172" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR172" s="14">
+        <v>2</v>
+      </c>
       <c r="AS172" s="13"/>
       <c r="AT172" s="5"/>
       <c r="AU172" s="6"/>
@@ -7259,8 +8022,12 @@
       <c r="AM173" s="18"/>
       <c r="AO173" s="4"/>
       <c r="AP173" s="11"/>
-      <c r="AQ173" s="8"/>
-      <c r="AR173" s="14"/>
+      <c r="AQ173" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR173" s="14">
+        <v>1</v>
+      </c>
       <c r="AS173" s="13"/>
       <c r="AT173" s="5"/>
       <c r="AU173" s="6"/>
@@ -7286,8 +8053,12 @@
       <c r="AM174" s="18"/>
       <c r="AO174" s="4"/>
       <c r="AP174" s="11"/>
-      <c r="AQ174" s="8"/>
-      <c r="AR174" s="14"/>
+      <c r="AQ174" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR174" s="14">
+        <v>2</v>
+      </c>
       <c r="AS174" s="13"/>
       <c r="AT174" s="5"/>
       <c r="AU174" s="6"/>
@@ -7313,9 +8084,15 @@
       <c r="AM175" s="18"/>
       <c r="AO175" s="4"/>
       <c r="AP175" s="11"/>
-      <c r="AQ175" s="8"/>
-      <c r="AR175" s="14"/>
-      <c r="AS175" s="13"/>
+      <c r="AQ175" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR175" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS175" s="13">
+        <v>1</v>
+      </c>
       <c r="AT175" s="5"/>
       <c r="AU175" s="6"/>
     </row>
@@ -7365,13 +8142,27 @@
       <c r="AK177" s="13"/>
       <c r="AL177" s="5"/>
       <c r="AM177" s="18"/>
-      <c r="AO177" s="4"/>
-      <c r="AP177" s="11"/>
-      <c r="AQ177" s="8"/>
-      <c r="AR177" s="14"/>
-      <c r="AS177" s="13"/>
-      <c r="AT177" s="5"/>
-      <c r="AU177" s="6"/>
+      <c r="AO177" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP177" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ177" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR177" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS177" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT177" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU177" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -7399,8 +8190,12 @@
       <c r="AQ178" s="8"/>
       <c r="AR178" s="14"/>
       <c r="AS178" s="13"/>
-      <c r="AT178" s="5"/>
-      <c r="AU178" s="6"/>
+      <c r="AT178" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU178" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="179" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
@@ -7419,9 +8214,15 @@
       <c r="AM179" s="18"/>
       <c r="AO179" s="4"/>
       <c r="AP179" s="11"/>
-      <c r="AQ179" s="8"/>
-      <c r="AR179" s="14"/>
-      <c r="AS179" s="13"/>
+      <c r="AQ179" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR179" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS179" s="13">
+        <v>3</v>
+      </c>
       <c r="AT179" s="5"/>
       <c r="AU179" s="6"/>
     </row>
@@ -7454,8 +8255,12 @@
       </c>
       <c r="AO180" s="4"/>
       <c r="AP180" s="11"/>
-      <c r="AQ180" s="8"/>
-      <c r="AR180" s="14"/>
+      <c r="AQ180" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR180" s="14">
+        <v>3</v>
+      </c>
       <c r="AS180" s="13"/>
       <c r="AT180" s="5"/>
       <c r="AU180" s="6"/>
@@ -7481,8 +8286,12 @@
       </c>
       <c r="AO181" s="4"/>
       <c r="AP181" s="11"/>
-      <c r="AQ181" s="8"/>
-      <c r="AR181" s="14"/>
+      <c r="AQ181" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR181" s="14">
+        <v>3</v>
+      </c>
       <c r="AS181" s="13"/>
       <c r="AT181" s="5"/>
       <c r="AU181" s="6"/>
@@ -7508,8 +8317,12 @@
       </c>
       <c r="AO182" s="4"/>
       <c r="AP182" s="11"/>
-      <c r="AQ182" s="8"/>
-      <c r="AR182" s="14"/>
+      <c r="AQ182" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR182" s="14">
+        <v>3</v>
+      </c>
       <c r="AS182" s="13"/>
       <c r="AT182" s="5"/>
       <c r="AU182" s="6"/>
@@ -7537,11 +8350,19 @@
       <c r="AM183" s="18"/>
       <c r="AO183" s="4"/>
       <c r="AP183" s="11"/>
-      <c r="AQ183" s="8"/>
-      <c r="AR183" s="14"/>
+      <c r="AQ183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR183" s="14">
+        <v>3</v>
+      </c>
       <c r="AS183" s="13"/>
-      <c r="AT183" s="5"/>
-      <c r="AU183" s="6"/>
+      <c r="AT183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU183" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="184" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
@@ -7567,8 +8388,12 @@
       <c r="AQ184" s="8"/>
       <c r="AR184" s="14"/>
       <c r="AS184" s="13"/>
-      <c r="AT184" s="5"/>
-      <c r="AU184" s="6"/>
+      <c r="AT184" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU184" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="185" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
@@ -7591,11 +8416,19 @@
       <c r="AM185" s="18"/>
       <c r="AO185" s="4"/>
       <c r="AP185" s="11"/>
-      <c r="AQ185" s="8"/>
-      <c r="AR185" s="14"/>
+      <c r="AQ185" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR185" s="14">
+        <v>3</v>
+      </c>
       <c r="AS185" s="13"/>
-      <c r="AT185" s="5"/>
-      <c r="AU185" s="6"/>
+      <c r="AT185" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU185" s="18">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="186" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
@@ -7621,8 +8454,12 @@
       <c r="AQ186" s="8"/>
       <c r="AR186" s="14"/>
       <c r="AS186" s="13"/>
-      <c r="AT186" s="5"/>
-      <c r="AU186" s="6"/>
+      <c r="AT186" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU186" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="187" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
@@ -7648,8 +8485,12 @@
       <c r="AQ187" s="8"/>
       <c r="AR187" s="14"/>
       <c r="AS187" s="13"/>
-      <c r="AT187" s="5"/>
-      <c r="AU187" s="6"/>
+      <c r="AT187" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU187" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
@@ -7674,9 +8515,15 @@
       <c r="AM188" s="18"/>
       <c r="AO188" s="4"/>
       <c r="AP188" s="11"/>
-      <c r="AQ188" s="8"/>
-      <c r="AR188" s="14"/>
-      <c r="AS188" s="13"/>
+      <c r="AQ188" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR188" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS188" s="13">
+        <v>2</v>
+      </c>
       <c r="AT188" s="5"/>
       <c r="AU188" s="6"/>
     </row>
@@ -7701,8 +8548,12 @@
       <c r="AM189" s="18"/>
       <c r="AO189" s="4"/>
       <c r="AP189" s="11"/>
-      <c r="AQ189" s="8"/>
-      <c r="AR189" s="14"/>
+      <c r="AQ189" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR189" s="14">
+        <v>2</v>
+      </c>
       <c r="AS189" s="13"/>
       <c r="AT189" s="5"/>
       <c r="AU189" s="6"/>
@@ -7728,8 +8579,12 @@
       <c r="AM190" s="18"/>
       <c r="AO190" s="4"/>
       <c r="AP190" s="11"/>
-      <c r="AQ190" s="8"/>
-      <c r="AR190" s="14"/>
+      <c r="AQ190" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR190" s="14">
+        <v>2</v>
+      </c>
       <c r="AS190" s="13"/>
       <c r="AT190" s="5"/>
       <c r="AU190" s="6"/>
@@ -7755,8 +8610,12 @@
       <c r="AM191" s="18"/>
       <c r="AO191" s="4"/>
       <c r="AP191" s="11"/>
-      <c r="AQ191" s="8"/>
-      <c r="AR191" s="14"/>
+      <c r="AQ191" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR191" s="14">
+        <v>1</v>
+      </c>
       <c r="AS191" s="13"/>
       <c r="AT191" s="5"/>
       <c r="AU191" s="6"/>
@@ -7782,8 +8641,12 @@
       <c r="AM192" s="18"/>
       <c r="AO192" s="4"/>
       <c r="AP192" s="11"/>
-      <c r="AQ192" s="8"/>
-      <c r="AR192" s="14"/>
+      <c r="AQ192" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR192" s="14">
+        <v>2</v>
+      </c>
       <c r="AS192" s="13"/>
       <c r="AT192" s="5"/>
       <c r="AU192" s="6"/>
@@ -7811,9 +8674,15 @@
       <c r="AM193" s="18"/>
       <c r="AO193" s="4"/>
       <c r="AP193" s="11"/>
-      <c r="AQ193" s="8"/>
-      <c r="AR193" s="14"/>
-      <c r="AS193" s="13"/>
+      <c r="AQ193" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR193" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS193" s="13">
+        <v>1</v>
+      </c>
       <c r="AT193" s="5"/>
       <c r="AU193" s="6"/>
     </row>
@@ -7868,12 +8737,24 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AO195" s="4"/>
-      <c r="AP195" s="11"/>
-      <c r="AQ195" s="8"/>
-      <c r="AR195" s="14"/>
-      <c r="AS195" s="13"/>
-      <c r="AT195" s="5"/>
-      <c r="AU195" s="6"/>
+      <c r="AP195" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ195" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR195" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS195" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT195" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU195" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="196" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
@@ -7899,8 +8780,12 @@
       <c r="AQ196" s="8"/>
       <c r="AR196" s="14"/>
       <c r="AS196" s="13"/>
-      <c r="AT196" s="5"/>
-      <c r="AU196" s="6"/>
+      <c r="AT196" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU196" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="197" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
@@ -7923,9 +8808,15 @@
       </c>
       <c r="AO197" s="4"/>
       <c r="AP197" s="11"/>
-      <c r="AQ197" s="8"/>
-      <c r="AR197" s="14"/>
-      <c r="AS197" s="13"/>
+      <c r="AQ197" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR197" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS197" s="13">
+        <v>3</v>
+      </c>
       <c r="AT197" s="5"/>
       <c r="AU197" s="6"/>
     </row>
@@ -7952,8 +8843,12 @@
       <c r="AM198" s="18"/>
       <c r="AO198" s="4"/>
       <c r="AP198" s="11"/>
-      <c r="AQ198" s="8"/>
-      <c r="AR198" s="14"/>
+      <c r="AQ198" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR198" s="14">
+        <v>3</v>
+      </c>
       <c r="AS198" s="13"/>
       <c r="AT198" s="5"/>
       <c r="AU198" s="6"/>
@@ -7979,8 +8874,12 @@
       <c r="AM199" s="18"/>
       <c r="AO199" s="4"/>
       <c r="AP199" s="11"/>
-      <c r="AQ199" s="8"/>
-      <c r="AR199" s="14"/>
+      <c r="AQ199" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR199" s="14">
+        <v>3</v>
+      </c>
       <c r="AS199" s="13"/>
       <c r="AT199" s="5"/>
       <c r="AU199" s="6"/>
@@ -8006,11 +8905,19 @@
       <c r="AM200" s="18"/>
       <c r="AO200" s="4"/>
       <c r="AP200" s="11"/>
-      <c r="AQ200" s="8"/>
-      <c r="AR200" s="14"/>
+      <c r="AQ200" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR200" s="14">
+        <v>3</v>
+      </c>
       <c r="AS200" s="13"/>
-      <c r="AT200" s="5"/>
-      <c r="AU200" s="6"/>
+      <c r="AT200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU200" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
@@ -8036,8 +8943,12 @@
       <c r="AQ201" s="8"/>
       <c r="AR201" s="14"/>
       <c r="AS201" s="13"/>
-      <c r="AT201" s="5"/>
-      <c r="AU201" s="6"/>
+      <c r="AT201" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU201" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="202" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
@@ -8062,11 +8973,19 @@
       <c r="AM202" s="18"/>
       <c r="AO202" s="4"/>
       <c r="AP202" s="11"/>
-      <c r="AQ202" s="8"/>
-      <c r="AR202" s="14"/>
+      <c r="AQ202" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR202" s="14">
+        <v>3</v>
+      </c>
       <c r="AS202" s="13"/>
-      <c r="AT202" s="5"/>
-      <c r="AU202" s="6"/>
+      <c r="AT202" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU202" s="18">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="203" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
@@ -8092,8 +9011,12 @@
       <c r="AQ203" s="8"/>
       <c r="AR203" s="14"/>
       <c r="AS203" s="13"/>
-      <c r="AT203" s="5"/>
-      <c r="AU203" s="6"/>
+      <c r="AT203" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU203" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="204" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
@@ -8119,8 +9042,12 @@
       <c r="AQ204" s="8"/>
       <c r="AR204" s="14"/>
       <c r="AS204" s="13"/>
-      <c r="AT204" s="5"/>
-      <c r="AU204" s="6"/>
+      <c r="AT204" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU204" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="205" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
@@ -8143,9 +9070,15 @@
       <c r="AM205" s="18"/>
       <c r="AO205" s="4"/>
       <c r="AP205" s="11"/>
-      <c r="AQ205" s="8"/>
-      <c r="AR205" s="14"/>
-      <c r="AS205" s="13"/>
+      <c r="AQ205" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR205" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS205" s="13">
+        <v>2</v>
+      </c>
       <c r="AT205" s="5"/>
       <c r="AU205" s="6"/>
     </row>
@@ -8170,8 +9103,12 @@
       <c r="AM206" s="18"/>
       <c r="AO206" s="4"/>
       <c r="AP206" s="11"/>
-      <c r="AQ206" s="8"/>
-      <c r="AR206" s="14"/>
+      <c r="AQ206" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR206" s="14">
+        <v>2</v>
+      </c>
       <c r="AS206" s="13"/>
       <c r="AT206" s="5"/>
       <c r="AU206" s="6"/>
@@ -8197,8 +9134,12 @@
       <c r="AM207" s="18"/>
       <c r="AO207" s="4"/>
       <c r="AP207" s="11"/>
-      <c r="AQ207" s="8"/>
-      <c r="AR207" s="14"/>
+      <c r="AQ207" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR207" s="14">
+        <v>2</v>
+      </c>
       <c r="AS207" s="13"/>
       <c r="AT207" s="5"/>
       <c r="AU207" s="6"/>
@@ -8226,8 +9167,12 @@
       <c r="AM208" s="18"/>
       <c r="AO208" s="4"/>
       <c r="AP208" s="11"/>
-      <c r="AQ208" s="8"/>
-      <c r="AR208" s="14"/>
+      <c r="AQ208" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR208" s="14">
+        <v>1</v>
+      </c>
       <c r="AS208" s="13"/>
       <c r="AT208" s="5"/>
       <c r="AU208" s="6"/>
@@ -8249,8 +9194,12 @@
       <c r="AM209" s="6"/>
       <c r="AO209" s="4"/>
       <c r="AP209" s="11"/>
-      <c r="AQ209" s="8"/>
-      <c r="AR209" s="14"/>
+      <c r="AQ209" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR209" s="14">
+        <v>2</v>
+      </c>
       <c r="AS209" s="13"/>
       <c r="AT209" s="5"/>
       <c r="AU209" s="6"/>
@@ -8284,9 +9233,15 @@
       </c>
       <c r="AO210" s="4"/>
       <c r="AP210" s="11"/>
-      <c r="AQ210" s="8"/>
-      <c r="AR210" s="14"/>
-      <c r="AS210" s="13"/>
+      <c r="AQ210" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR210" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS210" s="13">
+        <v>1</v>
+      </c>
       <c r="AT210" s="5"/>
       <c r="AU210" s="6"/>
     </row>
@@ -8336,13 +9291,27 @@
       <c r="AM212" s="18">
         <v>0.16666666666666666</v>
       </c>
-      <c r="AO212" s="4"/>
-      <c r="AP212" s="11"/>
-      <c r="AQ212" s="8"/>
-      <c r="AR212" s="14"/>
-      <c r="AS212" s="13"/>
-      <c r="AT212" s="5"/>
-      <c r="AU212" s="6"/>
+      <c r="AO212" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP212" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ212" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR212" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS212" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT212" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU212" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="213" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
@@ -8368,8 +9337,12 @@
       <c r="AQ213" s="8"/>
       <c r="AR213" s="14"/>
       <c r="AS213" s="13"/>
-      <c r="AT213" s="5"/>
-      <c r="AU213" s="6"/>
+      <c r="AT213" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU213" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="214" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
@@ -8394,9 +9367,15 @@
       <c r="AM214" s="6"/>
       <c r="AO214" s="4"/>
       <c r="AP214" s="11"/>
-      <c r="AQ214" s="8"/>
-      <c r="AR214" s="14"/>
-      <c r="AS214" s="13"/>
+      <c r="AQ214" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR214" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS214" s="13">
+        <v>3</v>
+      </c>
       <c r="AT214" s="5"/>
       <c r="AU214" s="6"/>
     </row>
@@ -8421,8 +9400,12 @@
       <c r="AM215" s="6"/>
       <c r="AO215" s="4"/>
       <c r="AP215" s="11"/>
-      <c r="AQ215" s="8"/>
-      <c r="AR215" s="14"/>
+      <c r="AQ215" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR215" s="14">
+        <v>3</v>
+      </c>
       <c r="AS215" s="13"/>
       <c r="AT215" s="5"/>
       <c r="AU215" s="6"/>
@@ -8448,8 +9431,12 @@
       <c r="AM216" s="6"/>
       <c r="AO216" s="4"/>
       <c r="AP216" s="11"/>
-      <c r="AQ216" s="8"/>
-      <c r="AR216" s="14"/>
+      <c r="AQ216" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR216" s="14">
+        <v>3</v>
+      </c>
       <c r="AS216" s="13"/>
       <c r="AT216" s="5"/>
       <c r="AU216" s="6"/>
@@ -8475,8 +9462,12 @@
       <c r="AM217" s="6"/>
       <c r="AO217" s="4"/>
       <c r="AP217" s="11"/>
-      <c r="AQ217" s="8"/>
-      <c r="AR217" s="14"/>
+      <c r="AQ217" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR217" s="14">
+        <v>3</v>
+      </c>
       <c r="AS217" s="13"/>
       <c r="AT217" s="5"/>
       <c r="AU217" s="6"/>
@@ -8502,11 +9493,19 @@
       <c r="AM218" s="6"/>
       <c r="AO218" s="4"/>
       <c r="AP218" s="11"/>
-      <c r="AQ218" s="8"/>
-      <c r="AR218" s="14"/>
+      <c r="AQ218" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR218" s="14">
+        <v>3</v>
+      </c>
       <c r="AS218" s="13"/>
-      <c r="AT218" s="5"/>
-      <c r="AU218" s="6"/>
+      <c r="AT218" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU218" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="219" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
@@ -8534,8 +9533,12 @@
       <c r="AQ219" s="8"/>
       <c r="AR219" s="14"/>
       <c r="AS219" s="13"/>
-      <c r="AT219" s="5"/>
-      <c r="AU219" s="6"/>
+      <c r="AT219" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU219" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="220" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
@@ -8558,11 +9561,19 @@
       <c r="AM220" s="6"/>
       <c r="AO220" s="4"/>
       <c r="AP220" s="11"/>
-      <c r="AQ220" s="8"/>
-      <c r="AR220" s="14"/>
+      <c r="AQ220" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR220" s="14">
+        <v>3</v>
+      </c>
       <c r="AS220" s="13"/>
-      <c r="AT220" s="5"/>
-      <c r="AU220" s="6"/>
+      <c r="AT220" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU220" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="221" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
@@ -8588,8 +9599,12 @@
       <c r="AQ221" s="8"/>
       <c r="AR221" s="14"/>
       <c r="AS221" s="13"/>
-      <c r="AT221" s="5"/>
-      <c r="AU221" s="6"/>
+      <c r="AT221" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU221" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="222" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
@@ -8612,9 +9627,15 @@
       <c r="AM222" s="6"/>
       <c r="AO222" s="4"/>
       <c r="AP222" s="11"/>
-      <c r="AQ222" s="8"/>
-      <c r="AR222" s="14"/>
-      <c r="AS222" s="13"/>
+      <c r="AQ222" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR222" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS222" s="13">
+        <v>2</v>
+      </c>
       <c r="AT222" s="5"/>
       <c r="AU222" s="6"/>
     </row>
@@ -8639,8 +9660,12 @@
       <c r="AM223" s="6"/>
       <c r="AO223" s="4"/>
       <c r="AP223" s="11"/>
-      <c r="AQ223" s="8"/>
-      <c r="AR223" s="14"/>
+      <c r="AQ223" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR223" s="14">
+        <v>2</v>
+      </c>
       <c r="AS223" s="13"/>
       <c r="AT223" s="5"/>
       <c r="AU223" s="6"/>
@@ -8666,8 +9691,12 @@
       <c r="AM224" s="6"/>
       <c r="AO224" s="4"/>
       <c r="AP224" s="11"/>
-      <c r="AQ224" s="8"/>
-      <c r="AR224" s="14"/>
+      <c r="AQ224" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR224" s="14">
+        <v>2</v>
+      </c>
       <c r="AS224" s="13"/>
       <c r="AT224" s="5"/>
       <c r="AU224" s="6"/>
@@ -8695,8 +9724,12 @@
       <c r="AM225" s="6"/>
       <c r="AO225" s="4"/>
       <c r="AP225" s="11"/>
-      <c r="AQ225" s="8"/>
-      <c r="AR225" s="14"/>
+      <c r="AQ225" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR225" s="14">
+        <v>1</v>
+      </c>
       <c r="AS225" s="13"/>
       <c r="AT225" s="5"/>
       <c r="AU225" s="6"/>
@@ -8718,8 +9751,12 @@
       <c r="AM226" s="6"/>
       <c r="AO226" s="4"/>
       <c r="AP226" s="11"/>
-      <c r="AQ226" s="8"/>
-      <c r="AR226" s="14"/>
+      <c r="AQ226" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR226" s="14">
+        <v>2</v>
+      </c>
       <c r="AS226" s="13"/>
       <c r="AT226" s="5"/>
       <c r="AU226" s="6"/>
@@ -8753,9 +9790,15 @@
       </c>
       <c r="AO227" s="4"/>
       <c r="AP227" s="11"/>
-      <c r="AQ227" s="8"/>
-      <c r="AR227" s="14"/>
-      <c r="AS227" s="13"/>
+      <c r="AQ227" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR227" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS227" s="13">
+        <v>1</v>
+      </c>
       <c r="AT227" s="5"/>
       <c r="AU227" s="6"/>
     </row>
@@ -8805,13 +9848,27 @@
       <c r="AM229" s="18">
         <v>0.16666666666666666</v>
       </c>
-      <c r="AO229" s="4"/>
-      <c r="AP229" s="11"/>
-      <c r="AQ229" s="8"/>
-      <c r="AR229" s="14"/>
-      <c r="AS229" s="13"/>
-      <c r="AT229" s="5"/>
-      <c r="AU229" s="6"/>
+      <c r="AO229" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP229" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ229" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR229" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS229" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT229" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU229" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="230" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
@@ -8837,8 +9894,12 @@
       <c r="AQ230" s="8"/>
       <c r="AR230" s="14"/>
       <c r="AS230" s="13"/>
-      <c r="AT230" s="5"/>
-      <c r="AU230" s="6"/>
+      <c r="AT230" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU230" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="231" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
@@ -8863,9 +9924,15 @@
       <c r="AM231" s="6"/>
       <c r="AO231" s="4"/>
       <c r="AP231" s="11"/>
-      <c r="AQ231" s="8"/>
-      <c r="AR231" s="14"/>
-      <c r="AS231" s="13"/>
+      <c r="AQ231" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR231" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS231" s="13">
+        <v>3</v>
+      </c>
       <c r="AT231" s="5"/>
       <c r="AU231" s="6"/>
     </row>
@@ -8890,8 +9957,12 @@
       <c r="AM232" s="6"/>
       <c r="AO232" s="4"/>
       <c r="AP232" s="11"/>
-      <c r="AQ232" s="8"/>
-      <c r="AR232" s="14"/>
+      <c r="AQ232" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR232" s="14">
+        <v>3</v>
+      </c>
       <c r="AS232" s="13"/>
       <c r="AT232" s="5"/>
       <c r="AU232" s="6"/>
@@ -8917,8 +9988,12 @@
       <c r="AM233" s="6"/>
       <c r="AO233" s="4"/>
       <c r="AP233" s="11"/>
-      <c r="AQ233" s="8"/>
-      <c r="AR233" s="14"/>
+      <c r="AQ233" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR233" s="14">
+        <v>3</v>
+      </c>
       <c r="AS233" s="13"/>
       <c r="AT233" s="5"/>
       <c r="AU233" s="6"/>
@@ -8944,8 +10019,12 @@
       <c r="AM234" s="6"/>
       <c r="AO234" s="4"/>
       <c r="AP234" s="11"/>
-      <c r="AQ234" s="8"/>
-      <c r="AR234" s="14"/>
+      <c r="AQ234" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR234" s="14">
+        <v>3</v>
+      </c>
       <c r="AS234" s="13"/>
       <c r="AT234" s="5"/>
       <c r="AU234" s="6"/>
@@ -8971,11 +10050,19 @@
       <c r="AM235" s="6"/>
       <c r="AO235" s="4"/>
       <c r="AP235" s="11"/>
-      <c r="AQ235" s="8"/>
-      <c r="AR235" s="14"/>
+      <c r="AQ235" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR235" s="14">
+        <v>3</v>
+      </c>
       <c r="AS235" s="13"/>
-      <c r="AT235" s="5"/>
-      <c r="AU235" s="6"/>
+      <c r="AT235" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU235" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="236" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -9003,8 +10090,12 @@
       <c r="AQ236" s="8"/>
       <c r="AR236" s="14"/>
       <c r="AS236" s="13"/>
-      <c r="AT236" s="5"/>
-      <c r="AU236" s="6"/>
+      <c r="AT236" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU236" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="237" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
@@ -9027,11 +10118,19 @@
       <c r="AM237" s="6"/>
       <c r="AO237" s="4"/>
       <c r="AP237" s="11"/>
-      <c r="AQ237" s="8"/>
-      <c r="AR237" s="14"/>
+      <c r="AQ237" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR237" s="14">
+        <v>3</v>
+      </c>
       <c r="AS237" s="13"/>
-      <c r="AT237" s="5"/>
-      <c r="AU237" s="6"/>
+      <c r="AT237" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU237" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="238" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
@@ -9057,8 +10156,12 @@
       <c r="AQ238" s="8"/>
       <c r="AR238" s="14"/>
       <c r="AS238" s="13"/>
-      <c r="AT238" s="5"/>
-      <c r="AU238" s="6"/>
+      <c r="AT238" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU238" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="239" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -9081,9 +10184,15 @@
       <c r="AM239" s="6"/>
       <c r="AO239" s="4"/>
       <c r="AP239" s="11"/>
-      <c r="AQ239" s="8"/>
-      <c r="AR239" s="14"/>
-      <c r="AS239" s="13"/>
+      <c r="AQ239" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR239" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS239" s="13">
+        <v>2</v>
+      </c>
       <c r="AT239" s="5"/>
       <c r="AU239" s="6"/>
     </row>
@@ -9108,8 +10217,12 @@
       <c r="AM240" s="6"/>
       <c r="AO240" s="4"/>
       <c r="AP240" s="11"/>
-      <c r="AQ240" s="8"/>
-      <c r="AR240" s="14"/>
+      <c r="AQ240" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR240" s="14">
+        <v>2</v>
+      </c>
       <c r="AS240" s="13"/>
       <c r="AT240" s="5"/>
       <c r="AU240" s="6"/>
@@ -9135,8 +10248,12 @@
       <c r="AM241" s="6"/>
       <c r="AO241" s="4"/>
       <c r="AP241" s="11"/>
-      <c r="AQ241" s="8"/>
-      <c r="AR241" s="14"/>
+      <c r="AQ241" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR241" s="14">
+        <v>2</v>
+      </c>
       <c r="AS241" s="13"/>
       <c r="AT241" s="5"/>
       <c r="AU241" s="6"/>
@@ -9164,8 +10281,12 @@
       <c r="AM242" s="6"/>
       <c r="AO242" s="4"/>
       <c r="AP242" s="11"/>
-      <c r="AQ242" s="8"/>
-      <c r="AR242" s="14"/>
+      <c r="AQ242" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR242" s="14">
+        <v>1</v>
+      </c>
       <c r="AS242" s="13"/>
       <c r="AT242" s="5"/>
       <c r="AU242" s="6"/>
@@ -9187,8 +10308,12 @@
       <c r="AM243" s="6"/>
       <c r="AO243" s="4"/>
       <c r="AP243" s="11"/>
-      <c r="AQ243" s="8"/>
-      <c r="AR243" s="14"/>
+      <c r="AQ243" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR243" s="14">
+        <v>2</v>
+      </c>
       <c r="AS243" s="13"/>
       <c r="AT243" s="5"/>
       <c r="AU243" s="6"/>
@@ -9222,9 +10347,15 @@
       </c>
       <c r="AO244" s="4"/>
       <c r="AP244" s="11"/>
-      <c r="AQ244" s="8"/>
-      <c r="AR244" s="14"/>
-      <c r="AS244" s="13"/>
+      <c r="AQ244" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR244" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS244" s="13">
+        <v>1</v>
+      </c>
       <c r="AT244" s="5"/>
       <c r="AU244" s="6"/>
     </row>
@@ -9275,12 +10406,24 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="AO246" s="4"/>
-      <c r="AP246" s="11"/>
-      <c r="AQ246" s="8"/>
-      <c r="AR246" s="14"/>
-      <c r="AS246" s="13"/>
-      <c r="AT246" s="5"/>
-      <c r="AU246" s="6"/>
+      <c r="AP246" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ246" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR246" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS246" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT246" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU246" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="247" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
@@ -9306,8 +10449,12 @@
       <c r="AQ247" s="8"/>
       <c r="AR247" s="14"/>
       <c r="AS247" s="13"/>
-      <c r="AT247" s="5"/>
-      <c r="AU247" s="6"/>
+      <c r="AT247" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU247" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
@@ -9332,9 +10479,15 @@
       <c r="AM248" s="6"/>
       <c r="AO248" s="4"/>
       <c r="AP248" s="11"/>
-      <c r="AQ248" s="8"/>
-      <c r="AR248" s="14"/>
-      <c r="AS248" s="13"/>
+      <c r="AQ248" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR248" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS248" s="13">
+        <v>3</v>
+      </c>
       <c r="AT248" s="5"/>
       <c r="AU248" s="6"/>
     </row>
@@ -9359,8 +10512,12 @@
       <c r="AM249" s="6"/>
       <c r="AO249" s="4"/>
       <c r="AP249" s="11"/>
-      <c r="AQ249" s="8"/>
-      <c r="AR249" s="14"/>
+      <c r="AQ249" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR249" s="14">
+        <v>3</v>
+      </c>
       <c r="AS249" s="13"/>
       <c r="AT249" s="5"/>
       <c r="AU249" s="6"/>
@@ -9386,8 +10543,12 @@
       <c r="AM250" s="6"/>
       <c r="AO250" s="4"/>
       <c r="AP250" s="11"/>
-      <c r="AQ250" s="8"/>
-      <c r="AR250" s="14"/>
+      <c r="AQ250" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR250" s="14">
+        <v>3</v>
+      </c>
       <c r="AS250" s="13"/>
       <c r="AT250" s="5"/>
       <c r="AU250" s="6"/>
@@ -9413,11 +10574,19 @@
       <c r="AM251" s="6"/>
       <c r="AO251" s="4"/>
       <c r="AP251" s="11"/>
-      <c r="AQ251" s="8"/>
-      <c r="AR251" s="14"/>
+      <c r="AQ251" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR251" s="14">
+        <v>3</v>
+      </c>
       <c r="AS251" s="13"/>
-      <c r="AT251" s="5"/>
-      <c r="AU251" s="6"/>
+      <c r="AT251" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU251" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="252" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AG252" s="4"/>
@@ -9438,8 +10607,12 @@
       <c r="AQ252" s="8"/>
       <c r="AR252" s="14"/>
       <c r="AS252" s="13"/>
-      <c r="AT252" s="5"/>
-      <c r="AU252" s="6"/>
+      <c r="AT252" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU252" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="253" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AG253" s="4"/>
@@ -9455,11 +10628,19 @@
       <c r="AM253" s="6"/>
       <c r="AO253" s="4"/>
       <c r="AP253" s="11"/>
-      <c r="AQ253" s="8"/>
-      <c r="AR253" s="14"/>
+      <c r="AQ253" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR253" s="14">
+        <v>3</v>
+      </c>
       <c r="AS253" s="13"/>
-      <c r="AT253" s="5"/>
-      <c r="AU253" s="6"/>
+      <c r="AT253" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU253" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="254" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AG254" s="4"/>
@@ -9478,8 +10659,12 @@
       <c r="AQ254" s="8"/>
       <c r="AR254" s="14"/>
       <c r="AS254" s="13"/>
-      <c r="AT254" s="5"/>
-      <c r="AU254" s="6"/>
+      <c r="AT254" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU254" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="255" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AG255" s="4"/>
@@ -9495,9 +10680,15 @@
       <c r="AM255" s="6"/>
       <c r="AO255" s="4"/>
       <c r="AP255" s="11"/>
-      <c r="AQ255" s="8"/>
-      <c r="AR255" s="14"/>
-      <c r="AS255" s="13"/>
+      <c r="AQ255" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR255" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS255" s="13">
+        <v>2</v>
+      </c>
       <c r="AT255" s="5"/>
       <c r="AU255" s="6"/>
     </row>
@@ -9515,8 +10706,12 @@
       <c r="AM256" s="6"/>
       <c r="AO256" s="4"/>
       <c r="AP256" s="11"/>
-      <c r="AQ256" s="8"/>
-      <c r="AR256" s="14"/>
+      <c r="AQ256" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR256" s="14">
+        <v>2</v>
+      </c>
       <c r="AS256" s="13"/>
       <c r="AT256" s="5"/>
       <c r="AU256" s="6"/>
@@ -9535,8 +10730,12 @@
       <c r="AM257" s="6"/>
       <c r="AO257" s="4"/>
       <c r="AP257" s="11"/>
-      <c r="AQ257" s="8"/>
-      <c r="AR257" s="14"/>
+      <c r="AQ257" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR257" s="14">
+        <v>2</v>
+      </c>
       <c r="AS257" s="13"/>
       <c r="AT257" s="5"/>
       <c r="AU257" s="6"/>
@@ -9555,8 +10754,12 @@
       <c r="AM258" s="6"/>
       <c r="AO258" s="4"/>
       <c r="AP258" s="11"/>
-      <c r="AQ258" s="8"/>
-      <c r="AR258" s="14"/>
+      <c r="AQ258" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR258" s="14">
+        <v>1</v>
+      </c>
       <c r="AS258" s="13"/>
       <c r="AT258" s="5"/>
       <c r="AU258" s="6"/>
@@ -9577,8 +10780,12 @@
       <c r="AM259" s="6"/>
       <c r="AO259" s="4"/>
       <c r="AP259" s="11"/>
-      <c r="AQ259" s="8"/>
-      <c r="AR259" s="14"/>
+      <c r="AQ259" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR259" s="14">
+        <v>2</v>
+      </c>
       <c r="AS259" s="13"/>
       <c r="AT259" s="5"/>
       <c r="AU259" s="6"/>
@@ -9593,9 +10800,15 @@
       <c r="AM260" s="6"/>
       <c r="AO260" s="4"/>
       <c r="AP260" s="11"/>
-      <c r="AQ260" s="8"/>
-      <c r="AR260" s="14"/>
-      <c r="AS260" s="13"/>
+      <c r="AQ260" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR260" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS260" s="13">
+        <v>1</v>
+      </c>
       <c r="AT260" s="5"/>
       <c r="AU260" s="6"/>
     </row>
@@ -9637,11 +10850,21 @@
       </c>
       <c r="AL262" s="5"/>
       <c r="AM262" s="6"/>
-      <c r="AO262" s="4"/>
-      <c r="AP262" s="11"/>
-      <c r="AQ262" s="8"/>
-      <c r="AR262" s="14"/>
-      <c r="AS262" s="13"/>
+      <c r="AO262" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP262" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ262" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR262" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS262" s="13">
+        <v>4</v>
+      </c>
       <c r="AT262" s="5"/>
       <c r="AU262" s="6"/>
     </row>
@@ -9659,9 +10882,15 @@
       <c r="AM263" s="6"/>
       <c r="AO263" s="4"/>
       <c r="AP263" s="11"/>
-      <c r="AQ263" s="8"/>
-      <c r="AR263" s="14"/>
-      <c r="AS263" s="13"/>
+      <c r="AQ263" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR263" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS263" s="13">
+        <v>3</v>
+      </c>
       <c r="AT263" s="5"/>
       <c r="AU263" s="6"/>
     </row>
@@ -9679,8 +10908,12 @@
       <c r="AM264" s="6"/>
       <c r="AO264" s="4"/>
       <c r="AP264" s="11"/>
-      <c r="AQ264" s="8"/>
-      <c r="AR264" s="14"/>
+      <c r="AQ264" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR264" s="14">
+        <v>3</v>
+      </c>
       <c r="AS264" s="13"/>
       <c r="AT264" s="5"/>
       <c r="AU264" s="6"/>
@@ -9699,8 +10932,12 @@
       <c r="AM265" s="6"/>
       <c r="AO265" s="4"/>
       <c r="AP265" s="11"/>
-      <c r="AQ265" s="8"/>
-      <c r="AR265" s="14"/>
+      <c r="AQ265" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR265" s="14">
+        <v>3</v>
+      </c>
       <c r="AS265" s="13"/>
       <c r="AT265" s="5"/>
       <c r="AU265" s="6"/>
@@ -9719,8 +10956,12 @@
       <c r="AM266" s="6"/>
       <c r="AO266" s="4"/>
       <c r="AP266" s="11"/>
-      <c r="AQ266" s="8"/>
-      <c r="AR266" s="14"/>
+      <c r="AQ266" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR266" s="14">
+        <v>3</v>
+      </c>
       <c r="AS266" s="13"/>
       <c r="AT266" s="5"/>
       <c r="AU266" s="6"/>
@@ -9741,11 +10982,19 @@
       <c r="AM267" s="6"/>
       <c r="AO267" s="4"/>
       <c r="AP267" s="11"/>
-      <c r="AQ267" s="8"/>
-      <c r="AR267" s="14"/>
+      <c r="AQ267" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR267" s="14">
+        <v>3</v>
+      </c>
       <c r="AS267" s="13"/>
-      <c r="AT267" s="5"/>
-      <c r="AU267" s="6"/>
+      <c r="AT267" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU267" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="268" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG268" s="4"/>
@@ -9764,8 +11013,12 @@
       <c r="AQ268" s="8"/>
       <c r="AR268" s="14"/>
       <c r="AS268" s="13"/>
-      <c r="AT268" s="5"/>
-      <c r="AU268" s="6"/>
+      <c r="AT268" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU268" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="269" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG269" s="4"/>
@@ -9781,9 +11034,15 @@
       <c r="AM269" s="6"/>
       <c r="AO269" s="4"/>
       <c r="AP269" s="11"/>
-      <c r="AQ269" s="8"/>
-      <c r="AR269" s="14"/>
-      <c r="AS269" s="13"/>
+      <c r="AQ269" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR269" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS269" s="13">
+        <v>2</v>
+      </c>
       <c r="AT269" s="5"/>
       <c r="AU269" s="6"/>
     </row>
@@ -9801,8 +11060,12 @@
       <c r="AM270" s="6"/>
       <c r="AO270" s="4"/>
       <c r="AP270" s="11"/>
-      <c r="AQ270" s="8"/>
-      <c r="AR270" s="14"/>
+      <c r="AQ270" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR270" s="14">
+        <v>2</v>
+      </c>
       <c r="AS270" s="13"/>
       <c r="AT270" s="5"/>
       <c r="AU270" s="6"/>
@@ -9821,8 +11084,12 @@
       <c r="AM271" s="6"/>
       <c r="AO271" s="4"/>
       <c r="AP271" s="11"/>
-      <c r="AQ271" s="8"/>
-      <c r="AR271" s="14"/>
+      <c r="AQ271" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR271" s="14">
+        <v>2</v>
+      </c>
       <c r="AS271" s="13"/>
       <c r="AT271" s="5"/>
       <c r="AU271" s="6"/>
@@ -9841,8 +11108,12 @@
       <c r="AM272" s="6"/>
       <c r="AO272" s="4"/>
       <c r="AP272" s="11"/>
-      <c r="AQ272" s="8"/>
-      <c r="AR272" s="14"/>
+      <c r="AQ272" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR272" s="14">
+        <v>2</v>
+      </c>
       <c r="AS272" s="13"/>
       <c r="AT272" s="5"/>
       <c r="AU272" s="6"/>
@@ -9861,8 +11132,12 @@
       <c r="AM273" s="6"/>
       <c r="AO273" s="4"/>
       <c r="AP273" s="11"/>
-      <c r="AQ273" s="8"/>
-      <c r="AR273" s="14"/>
+      <c r="AQ273" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR273" s="14">
+        <v>1</v>
+      </c>
       <c r="AS273" s="13"/>
       <c r="AT273" s="5"/>
       <c r="AU273" s="6"/>
@@ -9883,8 +11158,12 @@
       <c r="AM274" s="6"/>
       <c r="AO274" s="4"/>
       <c r="AP274" s="11"/>
-      <c r="AQ274" s="8"/>
-      <c r="AR274" s="14"/>
+      <c r="AQ274" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR274" s="14">
+        <v>1</v>
+      </c>
       <c r="AS274" s="13"/>
       <c r="AT274" s="5"/>
       <c r="AU274" s="6"/>
@@ -9899,8 +11178,12 @@
       <c r="AM275" s="6"/>
       <c r="AO275" s="4"/>
       <c r="AP275" s="11"/>
-      <c r="AQ275" s="8"/>
-      <c r="AR275" s="14"/>
+      <c r="AQ275" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR275" s="14">
+        <v>2</v>
+      </c>
       <c r="AS275" s="13"/>
       <c r="AT275" s="5"/>
       <c r="AU275" s="6"/>
@@ -9923,9 +11206,15 @@
       <c r="AM276" s="6"/>
       <c r="AO276" s="4"/>
       <c r="AP276" s="11"/>
-      <c r="AQ276" s="8"/>
-      <c r="AR276" s="14"/>
-      <c r="AS276" s="13"/>
+      <c r="AQ276" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR276" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS276" s="13">
+        <v>1</v>
+      </c>
       <c r="AT276" s="5"/>
       <c r="AU276" s="6"/>
     </row>
@@ -9963,11 +11252,21 @@
       <c r="AK278" s="13"/>
       <c r="AL278" s="5"/>
       <c r="AM278" s="6"/>
-      <c r="AO278" s="4"/>
-      <c r="AP278" s="11"/>
-      <c r="AQ278" s="8"/>
-      <c r="AR278" s="14"/>
-      <c r="AS278" s="13"/>
+      <c r="AO278" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP278" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ278" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR278" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS278" s="13">
+        <v>4</v>
+      </c>
       <c r="AT278" s="5"/>
       <c r="AU278" s="6"/>
     </row>
@@ -9985,9 +11284,15 @@
       <c r="AM279" s="6"/>
       <c r="AO279" s="4"/>
       <c r="AP279" s="11"/>
-      <c r="AQ279" s="8"/>
-      <c r="AR279" s="14"/>
-      <c r="AS279" s="13"/>
+      <c r="AQ279" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR279" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS279" s="13">
+        <v>3</v>
+      </c>
       <c r="AT279" s="5"/>
       <c r="AU279" s="6"/>
     </row>
@@ -10005,8 +11310,12 @@
       <c r="AM280" s="6"/>
       <c r="AO280" s="4"/>
       <c r="AP280" s="11"/>
-      <c r="AQ280" s="8"/>
-      <c r="AR280" s="14"/>
+      <c r="AQ280" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR280" s="14">
+        <v>3</v>
+      </c>
       <c r="AS280" s="13"/>
       <c r="AT280" s="5"/>
       <c r="AU280" s="6"/>
@@ -10025,8 +11334,12 @@
       <c r="AM281" s="6"/>
       <c r="AO281" s="4"/>
       <c r="AP281" s="11"/>
-      <c r="AQ281" s="8"/>
-      <c r="AR281" s="14"/>
+      <c r="AQ281" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR281" s="14">
+        <v>3</v>
+      </c>
       <c r="AS281" s="13"/>
       <c r="AT281" s="5"/>
       <c r="AU281" s="6"/>
@@ -10047,8 +11360,12 @@
       <c r="AM282" s="6"/>
       <c r="AO282" s="4"/>
       <c r="AP282" s="11"/>
-      <c r="AQ282" s="8"/>
-      <c r="AR282" s="14"/>
+      <c r="AQ282" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR282" s="14">
+        <v>3</v>
+      </c>
       <c r="AS282" s="13"/>
       <c r="AT282" s="5"/>
       <c r="AU282" s="6"/>
@@ -10067,11 +11384,19 @@
       <c r="AM283" s="6"/>
       <c r="AO283" s="4"/>
       <c r="AP283" s="11"/>
-      <c r="AQ283" s="8"/>
-      <c r="AR283" s="14"/>
+      <c r="AQ283" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR283" s="14">
+        <v>3</v>
+      </c>
       <c r="AS283" s="13"/>
-      <c r="AT283" s="5"/>
-      <c r="AU283" s="6"/>
+      <c r="AT283" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU283" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="284" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG284" s="4"/>
@@ -10090,8 +11415,12 @@
       <c r="AQ284" s="8"/>
       <c r="AR284" s="14"/>
       <c r="AS284" s="13"/>
-      <c r="AT284" s="5"/>
-      <c r="AU284" s="6"/>
+      <c r="AT284" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU284" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="285" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG285" s="4"/>
@@ -10107,9 +11436,15 @@
       <c r="AM285" s="6"/>
       <c r="AO285" s="4"/>
       <c r="AP285" s="11"/>
-      <c r="AQ285" s="8"/>
-      <c r="AR285" s="14"/>
-      <c r="AS285" s="13"/>
+      <c r="AQ285" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR285" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS285" s="13">
+        <v>2</v>
+      </c>
       <c r="AT285" s="5"/>
       <c r="AU285" s="6"/>
     </row>
@@ -10127,8 +11462,12 @@
       <c r="AM286" s="6"/>
       <c r="AO286" s="4"/>
       <c r="AP286" s="11"/>
-      <c r="AQ286" s="8"/>
-      <c r="AR286" s="14"/>
+      <c r="AQ286" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR286" s="14">
+        <v>2</v>
+      </c>
       <c r="AS286" s="13"/>
       <c r="AT286" s="5"/>
       <c r="AU286" s="6"/>
@@ -10147,8 +11486,12 @@
       <c r="AM287" s="6"/>
       <c r="AO287" s="4"/>
       <c r="AP287" s="11"/>
-      <c r="AQ287" s="8"/>
-      <c r="AR287" s="14"/>
+      <c r="AQ287" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR287" s="14">
+        <v>2</v>
+      </c>
       <c r="AS287" s="13"/>
       <c r="AT287" s="5"/>
       <c r="AU287" s="6"/>
@@ -10167,8 +11510,12 @@
       <c r="AM288" s="6"/>
       <c r="AO288" s="4"/>
       <c r="AP288" s="11"/>
-      <c r="AQ288" s="8"/>
-      <c r="AR288" s="14"/>
+      <c r="AQ288" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR288" s="14">
+        <v>2</v>
+      </c>
       <c r="AS288" s="13"/>
       <c r="AT288" s="5"/>
       <c r="AU288" s="6"/>
@@ -10189,8 +11536,12 @@
       <c r="AM289" s="6"/>
       <c r="AO289" s="4"/>
       <c r="AP289" s="11"/>
-      <c r="AQ289" s="8"/>
-      <c r="AR289" s="14"/>
+      <c r="AQ289" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR289" s="14">
+        <v>1</v>
+      </c>
       <c r="AS289" s="13"/>
       <c r="AT289" s="5"/>
       <c r="AU289" s="6"/>
@@ -10208,8 +11559,12 @@
       <c r="AM290" s="6"/>
       <c r="AO290" s="4"/>
       <c r="AP290" s="11"/>
-      <c r="AQ290" s="8"/>
-      <c r="AR290" s="14"/>
+      <c r="AQ290" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR290" s="14">
+        <v>1</v>
+      </c>
       <c r="AS290" s="13"/>
       <c r="AT290" s="5"/>
       <c r="AU290" s="6"/>
@@ -10232,8 +11587,12 @@
       <c r="AM291" s="6"/>
       <c r="AO291" s="4"/>
       <c r="AP291" s="11"/>
-      <c r="AQ291" s="8"/>
-      <c r="AR291" s="14"/>
+      <c r="AQ291" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR291" s="14">
+        <v>2</v>
+      </c>
       <c r="AS291" s="13"/>
       <c r="AT291" s="5"/>
       <c r="AU291" s="6"/>
@@ -10254,9 +11613,15 @@
       <c r="AM292" s="6"/>
       <c r="AO292" s="4"/>
       <c r="AP292" s="11"/>
-      <c r="AQ292" s="8"/>
-      <c r="AR292" s="14"/>
-      <c r="AS292" s="13"/>
+      <c r="AQ292" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR292" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS292" s="13">
+        <v>1</v>
+      </c>
       <c r="AT292" s="5"/>
       <c r="AU292" s="6"/>
     </row>
@@ -10293,10 +11658,18 @@
       <c r="AL294" s="5"/>
       <c r="AM294" s="6"/>
       <c r="AO294" s="4"/>
-      <c r="AP294" s="11"/>
-      <c r="AQ294" s="8"/>
-      <c r="AR294" s="14"/>
-      <c r="AS294" s="13"/>
+      <c r="AP294" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ294" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR294" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS294" s="13">
+        <v>4</v>
+      </c>
       <c r="AT294" s="5"/>
       <c r="AU294" s="6"/>
     </row>
@@ -10314,9 +11687,15 @@
       <c r="AM295" s="6"/>
       <c r="AO295" s="4"/>
       <c r="AP295" s="11"/>
-      <c r="AQ295" s="8"/>
-      <c r="AR295" s="14"/>
-      <c r="AS295" s="13"/>
+      <c r="AQ295" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR295" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS295" s="13">
+        <v>3</v>
+      </c>
       <c r="AT295" s="5"/>
       <c r="AU295" s="6"/>
     </row>
@@ -10336,8 +11715,12 @@
       <c r="AM296" s="6"/>
       <c r="AO296" s="4"/>
       <c r="AP296" s="11"/>
-      <c r="AQ296" s="8"/>
-      <c r="AR296" s="14"/>
+      <c r="AQ296" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR296" s="14">
+        <v>3</v>
+      </c>
       <c r="AS296" s="13"/>
       <c r="AT296" s="5"/>
       <c r="AU296" s="6"/>
@@ -10356,8 +11739,12 @@
       <c r="AM297" s="6"/>
       <c r="AO297" s="4"/>
       <c r="AP297" s="11"/>
-      <c r="AQ297" s="8"/>
-      <c r="AR297" s="14"/>
+      <c r="AQ297" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR297" s="14">
+        <v>3</v>
+      </c>
       <c r="AS297" s="13"/>
       <c r="AT297" s="5"/>
       <c r="AU297" s="6"/>
@@ -10376,11 +11763,19 @@
       <c r="AM298" s="6"/>
       <c r="AO298" s="4"/>
       <c r="AP298" s="11"/>
-      <c r="AQ298" s="8"/>
-      <c r="AR298" s="14"/>
+      <c r="AQ298" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR298" s="14">
+        <v>3</v>
+      </c>
       <c r="AS298" s="13"/>
-      <c r="AT298" s="5"/>
-      <c r="AU298" s="6"/>
+      <c r="AT298" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU298" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="299" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG299" s="4"/>
@@ -10399,8 +11794,12 @@
       <c r="AQ299" s="8"/>
       <c r="AR299" s="14"/>
       <c r="AS299" s="13"/>
-      <c r="AT299" s="5"/>
-      <c r="AU299" s="6"/>
+      <c r="AT299" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU299" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="300" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG300" s="4"/>
@@ -10416,9 +11815,15 @@
       <c r="AM300" s="6"/>
       <c r="AO300" s="4"/>
       <c r="AP300" s="11"/>
-      <c r="AQ300" s="8"/>
-      <c r="AR300" s="14"/>
-      <c r="AS300" s="13"/>
+      <c r="AQ300" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR300" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS300" s="13">
+        <v>2</v>
+      </c>
       <c r="AT300" s="5"/>
       <c r="AU300" s="6"/>
     </row>
@@ -10436,8 +11841,12 @@
       <c r="AM301" s="6"/>
       <c r="AO301" s="4"/>
       <c r="AP301" s="11"/>
-      <c r="AQ301" s="8"/>
-      <c r="AR301" s="14"/>
+      <c r="AQ301" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR301" s="14">
+        <v>2</v>
+      </c>
       <c r="AS301" s="13"/>
       <c r="AT301" s="5"/>
       <c r="AU301" s="6"/>
@@ -10456,8 +11865,12 @@
       <c r="AM302" s="6"/>
       <c r="AO302" s="4"/>
       <c r="AP302" s="11"/>
-      <c r="AQ302" s="8"/>
-      <c r="AR302" s="14"/>
+      <c r="AQ302" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR302" s="14">
+        <v>2</v>
+      </c>
       <c r="AS302" s="13"/>
       <c r="AT302" s="5"/>
       <c r="AU302" s="6"/>
@@ -10476,8 +11889,12 @@
       <c r="AM303" s="6"/>
       <c r="AO303" s="4"/>
       <c r="AP303" s="11"/>
-      <c r="AQ303" s="8"/>
-      <c r="AR303" s="14"/>
+      <c r="AQ303" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR303" s="14">
+        <v>2</v>
+      </c>
       <c r="AS303" s="13"/>
       <c r="AT303" s="5"/>
       <c r="AU303" s="6"/>
@@ -10498,8 +11915,12 @@
       <c r="AM304" s="6"/>
       <c r="AO304" s="4"/>
       <c r="AP304" s="11"/>
-      <c r="AQ304" s="8"/>
-      <c r="AR304" s="14"/>
+      <c r="AQ304" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR304" s="14">
+        <v>1</v>
+      </c>
       <c r="AS304" s="13"/>
       <c r="AT304" s="5"/>
       <c r="AU304" s="6"/>
@@ -10514,74 +11935,102 @@
       <c r="AM305" s="6"/>
       <c r="AO305" s="4"/>
       <c r="AP305" s="11"/>
-      <c r="AQ305" s="8"/>
-      <c r="AR305" s="14"/>
+      <c r="AQ305" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR305" s="14">
+        <v>1</v>
+      </c>
       <c r="AS305" s="13"/>
       <c r="AT305" s="5"/>
       <c r="AU305" s="6"/>
     </row>
     <row r="306" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG306" s="21"/>
-      <c r="AH306" s="21"/>
-      <c r="AI306" s="21"/>
-      <c r="AJ306" s="22"/>
-      <c r="AK306" s="21"/>
-      <c r="AL306" s="21"/>
-      <c r="AM306" s="21"/>
+      <c r="AG306" s="16"/>
+      <c r="AH306" s="16"/>
+      <c r="AI306" s="16"/>
+      <c r="AK306" s="16"/>
+      <c r="AL306" s="16"/>
+      <c r="AM306" s="16"/>
+      <c r="AO306" s="4"/>
+      <c r="AP306" s="11"/>
+      <c r="AQ306" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR306" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS306" s="13"/>
+      <c r="AT306" s="5"/>
+      <c r="AU306" s="6"/>
     </row>
     <row r="307" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG307" s="21"/>
-      <c r="AH307" s="21"/>
-      <c r="AI307" s="21"/>
-      <c r="AJ307" s="22"/>
-      <c r="AK307" s="21"/>
-      <c r="AL307" s="21"/>
-      <c r="AM307" s="21"/>
+      <c r="AG307" s="16"/>
+      <c r="AH307" s="16"/>
+      <c r="AI307" s="16"/>
+      <c r="AK307" s="16"/>
+      <c r="AL307" s="16"/>
+      <c r="AM307" s="16"/>
+      <c r="AO307" s="4"/>
+      <c r="AP307" s="11"/>
+      <c r="AQ307" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR307" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS307" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT307" s="5"/>
+      <c r="AU307" s="6"/>
     </row>
     <row r="308" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG308" s="21"/>
-      <c r="AH308" s="21"/>
-      <c r="AI308" s="21"/>
-      <c r="AJ308" s="22"/>
-      <c r="AK308" s="21"/>
-      <c r="AL308" s="21"/>
-      <c r="AM308" s="21"/>
+      <c r="AG308" s="16"/>
+      <c r="AH308" s="16"/>
+      <c r="AI308" s="16"/>
+      <c r="AK308" s="16"/>
+      <c r="AL308" s="16"/>
+      <c r="AM308" s="16"/>
+      <c r="AO308" s="4"/>
+      <c r="AP308" s="11"/>
+      <c r="AQ308" s="8"/>
+      <c r="AR308" s="14"/>
+      <c r="AS308" s="13"/>
+      <c r="AT308" s="5"/>
+      <c r="AU308" s="6"/>
     </row>
     <row r="309" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG309" s="21"/>
-      <c r="AH309" s="21"/>
-      <c r="AI309" s="21"/>
-      <c r="AJ309" s="22"/>
-      <c r="AK309" s="21"/>
-      <c r="AL309" s="21"/>
-      <c r="AM309" s="21"/>
+      <c r="AG309" s="16"/>
+      <c r="AH309" s="16"/>
+      <c r="AI309" s="16"/>
+      <c r="AK309" s="16"/>
+      <c r="AL309" s="16"/>
+      <c r="AM309" s="16"/>
     </row>
     <row r="310" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG310" s="21"/>
-      <c r="AH310" s="21"/>
-      <c r="AI310" s="21"/>
-      <c r="AJ310" s="22"/>
-      <c r="AK310" s="21"/>
-      <c r="AL310" s="21"/>
-      <c r="AM310" s="21"/>
+      <c r="AG310" s="16"/>
+      <c r="AH310" s="16"/>
+      <c r="AI310" s="16"/>
+      <c r="AK310" s="16"/>
+      <c r="AL310" s="16"/>
+      <c r="AM310" s="16"/>
     </row>
     <row r="311" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG311" s="21"/>
-      <c r="AH311" s="21"/>
-      <c r="AI311" s="21"/>
-      <c r="AJ311" s="22"/>
-      <c r="AK311" s="21"/>
-      <c r="AL311" s="21"/>
-      <c r="AM311" s="21"/>
+      <c r="AG311" s="16"/>
+      <c r="AH311" s="16"/>
+      <c r="AI311" s="16"/>
+      <c r="AK311" s="16"/>
+      <c r="AL311" s="16"/>
+      <c r="AM311" s="16"/>
     </row>
     <row r="312" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG312" s="21"/>
-      <c r="AH312" s="21"/>
-      <c r="AI312" s="21"/>
-      <c r="AJ312" s="22"/>
-      <c r="AK312" s="21"/>
-      <c r="AL312" s="21"/>
-      <c r="AM312" s="21"/>
+      <c r="AG312" s="16"/>
+      <c r="AH312" s="16"/>
+      <c r="AI312" s="16"/>
+      <c r="AK312" s="16"/>
+      <c r="AL312" s="16"/>
+      <c r="AM312" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA3E8E-5F74-4DCA-8D19-E7666E0BD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296DF90-0BF0-42DC-BF25-7E454C861E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="30" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="3495" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="134">
   <si>
     <t>ClassNames</t>
   </si>
@@ -361,6 +361,84 @@
   <si>
     <t>2CG</t>
   </si>
+  <si>
+    <t>1CA</t>
+  </si>
+  <si>
+    <t>1CLA</t>
+  </si>
+  <si>
+    <t>1CLB</t>
+  </si>
+  <si>
+    <t>Choix 2 langues parmi 4</t>
+  </si>
+  <si>
+    <t>1CB</t>
+  </si>
+  <si>
+    <t>Choix 2 langues parmi 3</t>
+  </si>
+  <si>
+    <t>1CLC</t>
+  </si>
+  <si>
+    <t>Choix Histoire/Economie</t>
+  </si>
+  <si>
+    <t>1CC</t>
+  </si>
+  <si>
+    <t>1CLD</t>
+  </si>
+  <si>
+    <t>EcoGest</t>
+  </si>
+  <si>
+    <t>SoCom</t>
+  </si>
+  <si>
+    <t>Statistique/Proba</t>
+  </si>
+  <si>
+    <t>Philosphie</t>
+  </si>
+  <si>
+    <t>1CD</t>
+  </si>
+  <si>
+    <t>1CLE</t>
+  </si>
+  <si>
+    <t>1CE</t>
+  </si>
+  <si>
+    <t>1CLF</t>
+  </si>
+  <si>
+    <t>Théorie</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Chorale</t>
+  </si>
+  <si>
+    <t>1CLG</t>
+  </si>
+  <si>
+    <t>Sciences sociales</t>
+  </si>
+  <si>
+    <t>Histo/Géo</t>
+  </si>
+  <si>
+    <t>1CG</t>
+  </si>
+  <si>
+    <t>1CF</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -516,6 +594,8 @@
     <xf numFmtId="12" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -830,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:AU312"/>
+  <dimension ref="A1:BC312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE274" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AO310" sqref="AO310"/>
+    <sheetView tabSelected="1" topLeftCell="AR151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW161" sqref="AW161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,9 +927,12 @@
     <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -965,8 +1048,27 @@
       <c r="AU1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11"/>
       <c r="C2" s="8"/>
@@ -1010,8 +1112,15 @@
       <c r="AS2" s="13"/>
       <c r="AT2" s="5"/>
       <c r="AU2" s="6"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="18"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -1103,8 +1212,23 @@
       </c>
       <c r="AT3" s="5"/>
       <c r="AU3" s="6"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ3" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="18"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9" t="s">
@@ -1172,8 +1296,19 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="6"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="18"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
@@ -1241,8 +1376,19 @@
       <c r="AS5" s="13"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="6"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="18"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -1316,8 +1462,19 @@
       </c>
       <c r="AT6" s="5"/>
       <c r="AU6" s="6"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ6" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="18"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
@@ -1391,8 +1548,21 @@
       <c r="AS7" s="13"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="6"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA7" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="18"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
@@ -1472,8 +1642,19 @@
       <c r="AU8" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ8" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="18"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -1541,8 +1722,21 @@
       <c r="AU9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ9" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA9" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="18"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
@@ -1614,8 +1808,19 @@
       </c>
       <c r="AT10" s="5"/>
       <c r="AU10" s="6"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ10" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="18"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
@@ -1685,8 +1890,21 @@
       <c r="AS11" s="13"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="6"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="18"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
@@ -1754,8 +1972,15 @@
       <c r="AS12" s="13"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="6"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="18"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -1817,8 +2042,23 @@
       </c>
       <c r="AT13" s="5"/>
       <c r="AU13" s="6"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ13" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA13" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="18"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -1884,8 +2124,19 @@
       <c r="AS14" s="13"/>
       <c r="AT14" s="5"/>
       <c r="AU14" s="6"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="18"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
@@ -1953,8 +2204,19 @@
       </c>
       <c r="AT15" s="5"/>
       <c r="AU15" s="6"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ15" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="18"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -2014,8 +2276,19 @@
       <c r="AS16" s="13"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="6"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="18"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -2087,8 +2360,21 @@
       <c r="AS17" s="13"/>
       <c r="AT17" s="5"/>
       <c r="AU17" s="6"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ17" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA17" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="18"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -2156,8 +2442,21 @@
       </c>
       <c r="AT18" s="5"/>
       <c r="AU18" s="6"/>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ18" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="18"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -2223,8 +2522,19 @@
       <c r="AS19" s="13"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="6"/>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="18"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -2294,8 +2604,19 @@
       <c r="AU20" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ20" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="18"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -2363,8 +2684,21 @@
       <c r="AU21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ21" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="18"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -2436,8 +2770,15 @@
       </c>
       <c r="AT22" s="5"/>
       <c r="AU22" s="6"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="18"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -2501,8 +2842,29 @@
       <c r="AS23" s="13"/>
       <c r="AT23" s="5"/>
       <c r="AU23" s="6"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ23" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA23" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC23" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -2562,8 +2924,21 @@
       <c r="AS24" s="13"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="6"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC24" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -2633,8 +3008,21 @@
       </c>
       <c r="AT25" s="5"/>
       <c r="AU25" s="6"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ25" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA25" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="18"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="8"/>
@@ -2694,8 +3082,19 @@
       <c r="AS26" s="13"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="6"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ26" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="18"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -2765,8 +3164,19 @@
       </c>
       <c r="AT27" s="5"/>
       <c r="AU27" s="6"/>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ27" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="18"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
@@ -2826,8 +3236,19 @@
       <c r="AS28" s="13"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="6"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ28" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="18"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -2901,8 +3322,19 @@
       <c r="AS29" s="13"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="6"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ29" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="18"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="11"/>
       <c r="C30" s="8"/>
@@ -2962,8 +3394,19 @@
       </c>
       <c r="AT30" s="5"/>
       <c r="AU30" s="6"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ30" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="18"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
@@ -3039,8 +3482,19 @@
       <c r="AU31" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ31" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="18"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="8"/>
@@ -3104,8 +3558,21 @@
       <c r="AU32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ32" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA32" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="18"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="11"/>
       <c r="C33" s="8"/>
@@ -3175,8 +3642,19 @@
       </c>
       <c r="AT33" s="5"/>
       <c r="AU33" s="6"/>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ33" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="18"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="11"/>
       <c r="C34" s="8"/>
@@ -3240,8 +3718,19 @@
       <c r="AS34" s="13"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="6"/>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ34" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="18"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -3305,8 +3794,19 @@
       <c r="AS35" s="13"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="6"/>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ35" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="18"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
@@ -3367,8 +3867,21 @@
       <c r="AS36" s="13"/>
       <c r="AT36" s="5"/>
       <c r="AU36" s="6"/>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ36" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="18"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
@@ -3429,8 +3942,15 @@
       </c>
       <c r="AT37" s="5"/>
       <c r="AU37" s="6"/>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="18"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
@@ -3485,8 +4005,29 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="6"/>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ38" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA38" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC38" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
@@ -3557,8 +4098,21 @@
       <c r="AU39" s="18">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="8"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC39" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
@@ -3613,8 +4167,21 @@
       <c r="AU40" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ40" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA40" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="18"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
@@ -3671,8 +4238,19 @@
       </c>
       <c r="AT41" s="5"/>
       <c r="AU41" s="6"/>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ41" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="18"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -3731,8 +4309,19 @@
       <c r="AU42" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ42" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA42" s="13"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="18"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
@@ -3791,8 +4380,19 @@
       <c r="AU43" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ43" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA43" s="13"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="18"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
@@ -3839,8 +4439,19 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="5"/>
       <c r="AU44" s="6"/>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ44" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA44" s="13"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="18"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -3881,8 +4492,19 @@
       <c r="AS45" s="13"/>
       <c r="AT45" s="5"/>
       <c r="AU45" s="6"/>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ45" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="18"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -3914,8 +4536,21 @@
       <c r="AS46" s="13"/>
       <c r="AT46" s="5"/>
       <c r="AU46" s="6"/>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ46" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA46" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="18"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="11"/>
       <c r="C47" s="8"/>
@@ -3945,8 +4580,19 @@
       <c r="AS47" s="13"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="6"/>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ47" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="18"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="11"/>
       <c r="C48" s="8"/>
@@ -3976,8 +4622,19 @@
       <c r="AS48" s="13"/>
       <c r="AT48" s="5"/>
       <c r="AU48" s="6"/>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ48" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="18"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="11"/>
       <c r="C49" s="8"/>
@@ -4007,8 +4664,19 @@
       <c r="AS49" s="13"/>
       <c r="AT49" s="5"/>
       <c r="AU49" s="6"/>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ49" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA49" s="13"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="18"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -4040,8 +4708,21 @@
       </c>
       <c r="AT50" s="5"/>
       <c r="AU50" s="6"/>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ50" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="18"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="11"/>
       <c r="C51" s="8"/>
@@ -4073,8 +4754,15 @@
       </c>
       <c r="AT51" s="5"/>
       <c r="AU51" s="6"/>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="13"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="18"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="11"/>
       <c r="C52" s="8"/>
@@ -4102,8 +4790,25 @@
       <c r="AS52" s="13"/>
       <c r="AT52" s="5"/>
       <c r="AU52" s="6"/>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ52" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA52" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="18"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -4143,8 +4848,23 @@
       <c r="AU53" s="18">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ53" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA53" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="18"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="11"/>
       <c r="C54" s="8"/>
@@ -4174,8 +4894,19 @@
       <c r="AU54" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ54" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA54" s="13"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="18"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="11"/>
       <c r="C55" s="8"/>
@@ -4207,8 +4938,19 @@
       </c>
       <c r="AT55" s="5"/>
       <c r="AU55" s="6"/>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ55" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA55" s="13"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="18"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="8"/>
@@ -4244,8 +4986,19 @@
       <c r="AU56" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW56" s="4"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ56" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA56" s="13"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="18"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="11"/>
       <c r="C57" s="8"/>
@@ -4271,8 +5024,19 @@
       <c r="AU57" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="11"/>
+      <c r="AY57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ57" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA57" s="13"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="18"/>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
@@ -4306,8 +5070,19 @@
       <c r="AS58" s="13"/>
       <c r="AT58" s="5"/>
       <c r="AU58" s="6"/>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ58" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA58" s="13"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="18"/>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="11"/>
       <c r="C59" s="8"/>
@@ -4339,8 +5114,19 @@
       <c r="AS59" s="13"/>
       <c r="AT59" s="5"/>
       <c r="AU59" s="6"/>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="11"/>
+      <c r="AY59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ59" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA59" s="13"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="18"/>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
@@ -4370,8 +5156,21 @@
       <c r="AS60" s="13"/>
       <c r="AT60" s="5"/>
       <c r="AU60" s="6"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW60" s="4"/>
+      <c r="AX60" s="11"/>
+      <c r="AY60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ60" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA60" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="18"/>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
@@ -4401,8 +5200,19 @@
       <c r="AS61" s="13"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="6"/>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="11"/>
+      <c r="AY61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ61" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="18"/>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
@@ -4432,8 +5242,19 @@
       <c r="AS62" s="13"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="6"/>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="11"/>
+      <c r="AY62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ62" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="18"/>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="11"/>
       <c r="C63" s="8"/>
@@ -4463,8 +5284,19 @@
       <c r="AS63" s="13"/>
       <c r="AT63" s="5"/>
       <c r="AU63" s="6"/>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="11"/>
+      <c r="AY63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ63" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA63" s="13"/>
+      <c r="BB63" s="5"/>
+      <c r="BC63" s="18"/>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
@@ -4496,8 +5328,21 @@
       </c>
       <c r="AT64" s="5"/>
       <c r="AU64" s="6"/>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="11"/>
+      <c r="AY64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ64" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA64" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="18"/>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="11"/>
       <c r="C65" s="8"/>
@@ -4531,8 +5376,15 @@
       </c>
       <c r="AT65" s="5"/>
       <c r="AU65" s="6"/>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="11"/>
+      <c r="AY65" s="8"/>
+      <c r="AZ65" s="14"/>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="18"/>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="11"/>
       <c r="C66" s="8"/>
@@ -4558,8 +5410,25 @@
       <c r="AS66" s="13"/>
       <c r="AT66" s="5"/>
       <c r="AU66" s="6"/>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX66" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ66" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA66" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="18"/>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="11"/>
       <c r="C67" s="8"/>
@@ -4597,8 +5466,23 @@
       <c r="AU67" s="18">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX67" s="11"/>
+      <c r="AY67" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ67" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA67" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="18"/>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="11"/>
       <c r="C68" s="8"/>
@@ -4628,8 +5512,19 @@
       <c r="AU68" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW68" s="4"/>
+      <c r="AX68" s="11"/>
+      <c r="AY68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ68" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA68" s="13"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="18"/>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="11"/>
       <c r="C69" s="8"/>
@@ -4663,8 +5558,19 @@
       </c>
       <c r="AT69" s="5"/>
       <c r="AU69" s="6"/>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW69" s="4"/>
+      <c r="AX69" s="11"/>
+      <c r="AY69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ69" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA69" s="13"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="18"/>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
@@ -4694,8 +5600,19 @@
       <c r="AU70" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="11"/>
+      <c r="AY70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ70" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA70" s="13"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="18"/>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
@@ -4729,8 +5646,19 @@
       <c r="AU71" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW71" s="4"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ71" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA71" s="13"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="18"/>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11"/>
       <c r="C72" s="8"/>
@@ -4762,8 +5690,19 @@
       <c r="AS72" s="13"/>
       <c r="AT72" s="5"/>
       <c r="AU72" s="6"/>
-    </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW72" s="4"/>
+      <c r="AX72" s="11"/>
+      <c r="AY72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ72" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA72" s="13"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="18"/>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11"/>
       <c r="C73" s="8"/>
@@ -4793,8 +5732,21 @@
       <c r="AS73" s="13"/>
       <c r="AT73" s="5"/>
       <c r="AU73" s="6"/>
-    </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW73" s="4"/>
+      <c r="AX73" s="11"/>
+      <c r="AY73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ73" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA73" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="18"/>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="11"/>
       <c r="C74" s="8"/>
@@ -4824,8 +5776,19 @@
       <c r="AS74" s="13"/>
       <c r="AT74" s="5"/>
       <c r="AU74" s="6"/>
-    </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW74" s="4"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ74" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA74" s="13"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="18"/>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="11"/>
       <c r="C75" s="8"/>
@@ -4855,8 +5818,19 @@
       <c r="AS75" s="13"/>
       <c r="AT75" s="5"/>
       <c r="AU75" s="6"/>
-    </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW75" s="4"/>
+      <c r="AX75" s="11"/>
+      <c r="AY75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ75" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA75" s="13"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="18"/>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="11"/>
       <c r="C76" s="8"/>
@@ -4886,8 +5860,19 @@
       <c r="AS76" s="13"/>
       <c r="AT76" s="5"/>
       <c r="AU76" s="6"/>
-    </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW76" s="4"/>
+      <c r="AX76" s="11"/>
+      <c r="AY76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ76" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA76" s="13"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="18"/>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="11"/>
       <c r="C77" s="8"/>
@@ -4921,8 +5906,21 @@
       </c>
       <c r="AT77" s="5"/>
       <c r="AU77" s="6"/>
-    </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW77" s="4"/>
+      <c r="AX77" s="11"/>
+      <c r="AY77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ77" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA77" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB77" s="5"/>
+      <c r="BC77" s="18"/>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="11"/>
       <c r="C78" s="8"/>
@@ -4954,8 +5952,15 @@
       </c>
       <c r="AT78" s="5"/>
       <c r="AU78" s="6"/>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW78" s="4"/>
+      <c r="AX78" s="11"/>
+      <c r="AY78" s="8"/>
+      <c r="AZ78" s="14"/>
+      <c r="BA78" s="13"/>
+      <c r="BB78" s="5"/>
+      <c r="BC78" s="18"/>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
@@ -4981,8 +5986,25 @@
       <c r="AS79" s="13"/>
       <c r="AT79" s="5"/>
       <c r="AU79" s="6"/>
-    </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW79" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ79" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA79" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB79" s="5"/>
+      <c r="BC79" s="18"/>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="11"/>
       <c r="C80" s="8"/>
@@ -5018,8 +6040,21 @@
       </c>
       <c r="AT80" s="5"/>
       <c r="AU80" s="6"/>
-    </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW80" s="4"/>
+      <c r="AX80" s="11"/>
+      <c r="AY80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ80" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA80" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB80" s="5"/>
+      <c r="BC80" s="18"/>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
@@ -5051,8 +6086,19 @@
       </c>
       <c r="AT81" s="5"/>
       <c r="AU81" s="6"/>
-    </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW81" s="4"/>
+      <c r="AX81" s="11"/>
+      <c r="AY81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ81" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA81" s="13"/>
+      <c r="BB81" s="5"/>
+      <c r="BC81" s="18"/>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
@@ -5084,8 +6130,19 @@
       <c r="AS82" s="13"/>
       <c r="AT82" s="5"/>
       <c r="AU82" s="6"/>
-    </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW82" s="4"/>
+      <c r="AX82" s="11"/>
+      <c r="AY82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ82" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="18"/>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="11"/>
       <c r="C83" s="8"/>
@@ -5111,8 +6168,19 @@
       <c r="AS83" s="13"/>
       <c r="AT83" s="5"/>
       <c r="AU83" s="6"/>
-    </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW83" s="4"/>
+      <c r="AX83" s="11"/>
+      <c r="AY83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ83" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="18"/>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
@@ -5146,8 +6214,19 @@
       <c r="AS84" s="13"/>
       <c r="AT84" s="5"/>
       <c r="AU84" s="6"/>
-    </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW84" s="4"/>
+      <c r="AX84" s="11"/>
+      <c r="AY84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ84" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="5"/>
+      <c r="BC84" s="18"/>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
@@ -5179,8 +6258,23 @@
       <c r="AS85" s="13"/>
       <c r="AT85" s="5"/>
       <c r="AU85" s="6"/>
-    </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW85" s="4"/>
+      <c r="AX85" s="11"/>
+      <c r="AY85" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ85" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA85" s="13"/>
+      <c r="BB85" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC85" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="11"/>
       <c r="C86" s="8"/>
@@ -5214,8 +6308,19 @@
       <c r="AU86" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW86" s="4"/>
+      <c r="AX86" s="11"/>
+      <c r="AY86" s="8"/>
+      <c r="AZ86" s="14"/>
+      <c r="BA86" s="13"/>
+      <c r="BB86" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC86" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="11"/>
       <c r="C87" s="8"/>
@@ -5245,8 +6350,21 @@
       <c r="AU87" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW87" s="4"/>
+      <c r="AX87" s="11"/>
+      <c r="AY87" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ87" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA87" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB87" s="5"/>
+      <c r="BC87" s="18"/>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="11"/>
       <c r="C88" s="8"/>
@@ -5276,8 +6394,19 @@
       <c r="AS88" s="13"/>
       <c r="AT88" s="5"/>
       <c r="AU88" s="6"/>
-    </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW88" s="4"/>
+      <c r="AX88" s="11"/>
+      <c r="AY88" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ88" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA88" s="13"/>
+      <c r="BB88" s="5"/>
+      <c r="BC88" s="18"/>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="11"/>
       <c r="C89" s="8"/>
@@ -5307,8 +6436,19 @@
       <c r="AS89" s="13"/>
       <c r="AT89" s="5"/>
       <c r="AU89" s="6"/>
-    </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW89" s="4"/>
+      <c r="AX89" s="11"/>
+      <c r="AY89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ89" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA89" s="13"/>
+      <c r="BB89" s="5"/>
+      <c r="BC89" s="18"/>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="11"/>
       <c r="C90" s="8"/>
@@ -5340,8 +6480,21 @@
       </c>
       <c r="AT90" s="5"/>
       <c r="AU90" s="6"/>
-    </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW90" s="4"/>
+      <c r="AX90" s="11"/>
+      <c r="AY90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ90" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA90" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="18"/>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="11"/>
       <c r="C91" s="8"/>
@@ -5373,8 +6526,15 @@
       </c>
       <c r="AT91" s="5"/>
       <c r="AU91" s="6"/>
-    </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW91" s="4"/>
+      <c r="AX91" s="11"/>
+      <c r="AY91" s="8"/>
+      <c r="AZ91" s="14"/>
+      <c r="BA91" s="13"/>
+      <c r="BB91" s="5"/>
+      <c r="BC91" s="18"/>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="11"/>
       <c r="C92" s="8"/>
@@ -5402,8 +6562,23 @@
       <c r="AS92" s="13"/>
       <c r="AT92" s="5"/>
       <c r="AU92" s="6"/>
-    </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW92" s="4"/>
+      <c r="AX92" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY92" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ92" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA92" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB92" s="5"/>
+      <c r="BC92" s="18"/>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="11"/>
       <c r="C93" s="8"/>
@@ -5439,8 +6614,21 @@
       </c>
       <c r="AT93" s="5"/>
       <c r="AU93" s="6"/>
-    </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW93" s="4"/>
+      <c r="AX93" s="11"/>
+      <c r="AY93" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ93" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA93" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB93" s="5"/>
+      <c r="BC93" s="18"/>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
@@ -5472,8 +6660,19 @@
       </c>
       <c r="AT94" s="5"/>
       <c r="AU94" s="6"/>
-    </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW94" s="4"/>
+      <c r="AX94" s="11"/>
+      <c r="AY94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ94" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA94" s="13"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="18"/>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="11"/>
       <c r="C95" s="8"/>
@@ -5505,8 +6704,19 @@
       <c r="AS95" s="13"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="6"/>
-    </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW95" s="4"/>
+      <c r="AX95" s="11"/>
+      <c r="AY95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ95" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA95" s="13"/>
+      <c r="BB95" s="5"/>
+      <c r="BC95" s="18"/>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="11"/>
       <c r="C96" s="8"/>
@@ -5532,8 +6742,19 @@
       <c r="AS96" s="13"/>
       <c r="AT96" s="5"/>
       <c r="AU96" s="6"/>
-    </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW96" s="4"/>
+      <c r="AX96" s="11"/>
+      <c r="AY96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ96" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA96" s="13"/>
+      <c r="BB96" s="5"/>
+      <c r="BC96" s="18"/>
+    </row>
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
@@ -5567,8 +6788,23 @@
       <c r="AS97" s="13"/>
       <c r="AT97" s="5"/>
       <c r="AU97" s="6"/>
-    </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW97" s="4"/>
+      <c r="AX97" s="11"/>
+      <c r="AY97" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ97" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA97" s="13"/>
+      <c r="BB97" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC97" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11"/>
       <c r="C98" s="8"/>
@@ -5600,8 +6836,19 @@
       <c r="AS98" s="13"/>
       <c r="AT98" s="5"/>
       <c r="AU98" s="6"/>
-    </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW98" s="4"/>
+      <c r="AX98" s="11"/>
+      <c r="AY98" s="8"/>
+      <c r="AZ98" s="14"/>
+      <c r="BA98" s="13"/>
+      <c r="BB98" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC98" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="11"/>
       <c r="C99" s="8"/>
@@ -5635,8 +6882,21 @@
       <c r="AU99" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW99" s="4"/>
+      <c r="AX99" s="11"/>
+      <c r="AY99" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ99" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA99" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="18"/>
+    </row>
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="11"/>
       <c r="C100" s="8"/>
@@ -5666,8 +6926,19 @@
       <c r="AU100" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW100" s="4"/>
+      <c r="AX100" s="11"/>
+      <c r="AY100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ100" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA100" s="13"/>
+      <c r="BB100" s="5"/>
+      <c r="BC100" s="18"/>
+    </row>
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
@@ -5697,8 +6968,19 @@
       <c r="AS101" s="13"/>
       <c r="AT101" s="5"/>
       <c r="AU101" s="6"/>
-    </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW101" s="4"/>
+      <c r="AX101" s="11"/>
+      <c r="AY101" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ101" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA101" s="13"/>
+      <c r="BB101" s="5"/>
+      <c r="BC101" s="18"/>
+    </row>
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="11"/>
       <c r="C102" s="8"/>
@@ -5728,8 +7010,21 @@
       <c r="AS102" s="13"/>
       <c r="AT102" s="5"/>
       <c r="AU102" s="6"/>
-    </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW102" s="4"/>
+      <c r="AX102" s="11"/>
+      <c r="AY102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ102" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA102" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB102" s="5"/>
+      <c r="BC102" s="18"/>
+    </row>
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
@@ -5761,8 +7056,15 @@
       </c>
       <c r="AT103" s="5"/>
       <c r="AU103" s="6"/>
-    </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW103" s="4"/>
+      <c r="AX103" s="11"/>
+      <c r="AY103" s="8"/>
+      <c r="AZ103" s="14"/>
+      <c r="BA103" s="13"/>
+      <c r="BB103" s="5"/>
+      <c r="BC103" s="18"/>
+    </row>
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="11"/>
       <c r="C104" s="8"/>
@@ -5794,8 +7096,29 @@
       </c>
       <c r="AT104" s="5"/>
       <c r="AU104" s="6"/>
-    </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX104" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY104" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ104" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA104" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC104" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="11"/>
       <c r="C105" s="8"/>
@@ -5823,8 +7146,19 @@
       <c r="AS105" s="13"/>
       <c r="AT105" s="5"/>
       <c r="AU105" s="6"/>
-    </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW105" s="4"/>
+      <c r="AX105" s="11"/>
+      <c r="AY105" s="8"/>
+      <c r="AZ105" s="14"/>
+      <c r="BA105" s="13"/>
+      <c r="BB105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC105" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="11"/>
       <c r="C106" s="8"/>
@@ -5858,8 +7192,21 @@
       </c>
       <c r="AT106" s="5"/>
       <c r="AU106" s="6"/>
-    </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW106" s="4"/>
+      <c r="AX106" s="11"/>
+      <c r="AY106" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ106" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA106" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB106" s="5"/>
+      <c r="BC106" s="18"/>
+    </row>
+    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
@@ -5891,8 +7238,19 @@
       </c>
       <c r="AT107" s="5"/>
       <c r="AU107" s="6"/>
-    </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW107" s="4"/>
+      <c r="AX107" s="11"/>
+      <c r="AY107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ107" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA107" s="13"/>
+      <c r="BB107" s="5"/>
+      <c r="BC107" s="18"/>
+    </row>
+    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="11"/>
       <c r="C108" s="8"/>
@@ -5924,8 +7282,19 @@
       <c r="AS108" s="13"/>
       <c r="AT108" s="5"/>
       <c r="AU108" s="6"/>
-    </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW108" s="4"/>
+      <c r="AX108" s="11"/>
+      <c r="AY108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ108" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA108" s="13"/>
+      <c r="BB108" s="5"/>
+      <c r="BC108" s="18"/>
+    </row>
+    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="11"/>
       <c r="C109" s="8"/>
@@ -5951,8 +7320,19 @@
       <c r="AS109" s="13"/>
       <c r="AT109" s="5"/>
       <c r="AU109" s="6"/>
-    </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW109" s="4"/>
+      <c r="AX109" s="11"/>
+      <c r="AY109" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ109" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA109" s="13"/>
+      <c r="BB109" s="5"/>
+      <c r="BC109" s="18"/>
+    </row>
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
@@ -5986,8 +7366,19 @@
       <c r="AS110" s="13"/>
       <c r="AT110" s="5"/>
       <c r="AU110" s="6"/>
-    </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW110" s="4"/>
+      <c r="AX110" s="11"/>
+      <c r="AY110" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ110" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA110" s="13"/>
+      <c r="BB110" s="5"/>
+      <c r="BC110" s="18"/>
+    </row>
+    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -6023,8 +7414,23 @@
       <c r="AU111" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW111" s="4"/>
+      <c r="AX111" s="11"/>
+      <c r="AY111" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ111" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA111" s="13"/>
+      <c r="BB111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC111" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="11"/>
       <c r="C112" s="8"/>
@@ -6054,8 +7460,19 @@
       <c r="AU112" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW112" s="4"/>
+      <c r="AX112" s="11"/>
+      <c r="AY112" s="8"/>
+      <c r="AZ112" s="14"/>
+      <c r="BA112" s="13"/>
+      <c r="BB112" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC112" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
@@ -6085,8 +7502,21 @@
       <c r="AS113" s="13"/>
       <c r="AT113" s="5"/>
       <c r="AU113" s="6"/>
-    </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW113" s="4"/>
+      <c r="AX113" s="11"/>
+      <c r="AY113" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ113" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA113" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB113" s="5"/>
+      <c r="BC113" s="18"/>
+    </row>
+    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
@@ -6116,8 +7546,19 @@
       <c r="AS114" s="13"/>
       <c r="AT114" s="5"/>
       <c r="AU114" s="6"/>
-    </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW114" s="4"/>
+      <c r="AX114" s="11"/>
+      <c r="AY114" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ114" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA114" s="13"/>
+      <c r="BB114" s="5"/>
+      <c r="BC114" s="18"/>
+    </row>
+    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="11"/>
       <c r="C115" s="8"/>
@@ -6149,8 +7590,19 @@
       </c>
       <c r="AT115" s="5"/>
       <c r="AU115" s="6"/>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW115" s="4"/>
+      <c r="AX115" s="11"/>
+      <c r="AY115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ115" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA115" s="13"/>
+      <c r="BB115" s="5"/>
+      <c r="BC115" s="18"/>
+    </row>
+    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="11"/>
       <c r="C116" s="8"/>
@@ -6182,8 +7634,19 @@
       </c>
       <c r="AT116" s="5"/>
       <c r="AU116" s="6"/>
-    </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW116" s="4"/>
+      <c r="AX116" s="11"/>
+      <c r="AY116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ116" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA116" s="13"/>
+      <c r="BB116" s="5"/>
+      <c r="BC116" s="18"/>
+    </row>
+    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="11"/>
       <c r="C117" s="8"/>
@@ -6211,8 +7674,21 @@
       <c r="AS117" s="13"/>
       <c r="AT117" s="5"/>
       <c r="AU117" s="6"/>
-    </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW117" s="4"/>
+      <c r="AX117" s="11"/>
+      <c r="AY117" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ117" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA117" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB117" s="5"/>
+      <c r="BC117" s="18"/>
+    </row>
+    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="11"/>
       <c r="C118" s="8"/>
@@ -6248,8 +7724,15 @@
       </c>
       <c r="AT118" s="5"/>
       <c r="AU118" s="6"/>
-    </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW118" s="4"/>
+      <c r="AX118" s="11"/>
+      <c r="AY118" s="8"/>
+      <c r="AZ118" s="14"/>
+      <c r="BA118" s="13"/>
+      <c r="BB118" s="5"/>
+      <c r="BC118" s="18"/>
+    </row>
+    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="11"/>
       <c r="C119" s="8"/>
@@ -6281,8 +7764,29 @@
       </c>
       <c r="AT119" s="5"/>
       <c r="AU119" s="6"/>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW119" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX119" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY119" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ119" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA119" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC119" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="11"/>
       <c r="C120" s="8"/>
@@ -6312,8 +7816,19 @@
       <c r="AS120" s="13"/>
       <c r="AT120" s="5"/>
       <c r="AU120" s="6"/>
-    </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW120" s="4"/>
+      <c r="AX120" s="11"/>
+      <c r="AY120" s="8"/>
+      <c r="AZ120" s="14"/>
+      <c r="BA120" s="13"/>
+      <c r="BB120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC120" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="11"/>
       <c r="C121" s="8"/>
@@ -6345,8 +7860,21 @@
       <c r="AS121" s="13"/>
       <c r="AT121" s="5"/>
       <c r="AU121" s="6"/>
-    </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW121" s="4"/>
+      <c r="AX121" s="11"/>
+      <c r="AY121" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ121" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA121" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB121" s="5"/>
+      <c r="BC121" s="18"/>
+    </row>
+    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="11"/>
       <c r="C122" s="8"/>
@@ -6372,8 +7900,19 @@
       <c r="AS122" s="13"/>
       <c r="AT122" s="5"/>
       <c r="AU122" s="6"/>
-    </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW122" s="4"/>
+      <c r="AX122" s="11"/>
+      <c r="AY122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ122" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA122" s="13"/>
+      <c r="BB122" s="5"/>
+      <c r="BC122" s="18"/>
+    </row>
+    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="11"/>
       <c r="C123" s="8"/>
@@ -6407,8 +7946,19 @@
       <c r="AS123" s="13"/>
       <c r="AT123" s="5"/>
       <c r="AU123" s="6"/>
-    </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW123" s="4"/>
+      <c r="AX123" s="11"/>
+      <c r="AY123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ123" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA123" s="13"/>
+      <c r="BB123" s="5"/>
+      <c r="BC123" s="18"/>
+    </row>
+    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="11"/>
       <c r="C124" s="8"/>
@@ -6444,8 +7994,19 @@
       <c r="AU124" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW124" s="4"/>
+      <c r="AX124" s="11"/>
+      <c r="AY124" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ124" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA124" s="13"/>
+      <c r="BB124" s="5"/>
+      <c r="BC124" s="18"/>
+    </row>
+    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
@@ -6475,8 +8036,23 @@
       <c r="AU125" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW125" s="4"/>
+      <c r="AX125" s="11"/>
+      <c r="AY125" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ125" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA125" s="13"/>
+      <c r="BB125" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC125" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
@@ -6506,8 +8082,19 @@
       <c r="AS126" s="13"/>
       <c r="AT126" s="5"/>
       <c r="AU126" s="6"/>
-    </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW126" s="4"/>
+      <c r="AX126" s="11"/>
+      <c r="AY126" s="8"/>
+      <c r="AZ126" s="14"/>
+      <c r="BA126" s="13"/>
+      <c r="BB126" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC126" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="11"/>
       <c r="C127" s="8"/>
@@ -6539,8 +8126,21 @@
       </c>
       <c r="AT127" s="5"/>
       <c r="AU127" s="6"/>
-    </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW127" s="4"/>
+      <c r="AX127" s="11"/>
+      <c r="AY127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ127" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA127" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB127" s="5"/>
+      <c r="BC127" s="18"/>
+    </row>
+    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
@@ -6570,8 +8170,19 @@
       <c r="AS128" s="13"/>
       <c r="AT128" s="5"/>
       <c r="AU128" s="6"/>
-    </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW128" s="4"/>
+      <c r="AX128" s="11"/>
+      <c r="AY128" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ128" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA128" s="13"/>
+      <c r="BB128" s="5"/>
+      <c r="BC128" s="18"/>
+    </row>
+    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
@@ -6603,8 +8214,19 @@
       <c r="AS129" s="13"/>
       <c r="AT129" s="5"/>
       <c r="AU129" s="6"/>
-    </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW129" s="4"/>
+      <c r="AX129" s="11"/>
+      <c r="AY129" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ129" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA129" s="13"/>
+      <c r="BB129" s="5"/>
+      <c r="BC129" s="18"/>
+    </row>
+    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="11"/>
       <c r="C130" s="8"/>
@@ -6636,8 +8258,19 @@
       </c>
       <c r="AT130" s="5"/>
       <c r="AU130" s="6"/>
-    </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW130" s="4"/>
+      <c r="AX130" s="11"/>
+      <c r="AY130" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ130" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA130" s="13"/>
+      <c r="BB130" s="5"/>
+      <c r="BC130" s="18"/>
+    </row>
+    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
@@ -6663,8 +8296,21 @@
       <c r="AS131" s="13"/>
       <c r="AT131" s="5"/>
       <c r="AU131" s="6"/>
-    </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW131" s="4"/>
+      <c r="AX131" s="11"/>
+      <c r="AY131" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ131" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA131" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB131" s="5"/>
+      <c r="BC131" s="18"/>
+    </row>
+    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="11"/>
       <c r="C132" s="8"/>
@@ -6700,8 +8346,15 @@
       </c>
       <c r="AT132" s="5"/>
       <c r="AU132" s="6"/>
-    </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW132" s="4"/>
+      <c r="AX132" s="11"/>
+      <c r="AY132" s="8"/>
+      <c r="AZ132" s="14"/>
+      <c r="BA132" s="13"/>
+      <c r="BB132" s="5"/>
+      <c r="BC132" s="18"/>
+    </row>
+    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="11"/>
       <c r="C133" s="8"/>
@@ -6733,8 +8386,29 @@
       </c>
       <c r="AT133" s="5"/>
       <c r="AU133" s="6"/>
-    </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW133" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX133" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY133" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ133" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA133" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB133" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC133" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
@@ -6764,8 +8438,19 @@
       <c r="AS134" s="13"/>
       <c r="AT134" s="5"/>
       <c r="AU134" s="6"/>
-    </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW134" s="4"/>
+      <c r="AX134" s="11"/>
+      <c r="AY134" s="8"/>
+      <c r="AZ134" s="14"/>
+      <c r="BA134" s="13"/>
+      <c r="BB134" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC134" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="11"/>
       <c r="C135" s="8"/>
@@ -6797,8 +8482,21 @@
       <c r="AS135" s="13"/>
       <c r="AT135" s="5"/>
       <c r="AU135" s="6"/>
-    </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW135" s="4"/>
+      <c r="AX135" s="11"/>
+      <c r="AY135" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ135" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA135" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB135" s="5"/>
+      <c r="BC135" s="18"/>
+    </row>
+    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="11"/>
       <c r="C136" s="8"/>
@@ -6824,8 +8522,19 @@
       <c r="AS136" s="13"/>
       <c r="AT136" s="5"/>
       <c r="AU136" s="6"/>
-    </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW136" s="4"/>
+      <c r="AX136" s="11"/>
+      <c r="AY136" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ136" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA136" s="13"/>
+      <c r="BB136" s="5"/>
+      <c r="BC136" s="18"/>
+    </row>
+    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
@@ -6859,8 +8568,19 @@
       <c r="AS137" s="13"/>
       <c r="AT137" s="5"/>
       <c r="AU137" s="6"/>
-    </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW137" s="4"/>
+      <c r="AX137" s="11"/>
+      <c r="AY137" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ137" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA137" s="13"/>
+      <c r="BB137" s="5"/>
+      <c r="BC137" s="18"/>
+    </row>
+    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="11"/>
       <c r="C138" s="8"/>
@@ -6896,8 +8616,19 @@
       <c r="AU138" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW138" s="4"/>
+      <c r="AX138" s="11"/>
+      <c r="AY138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ138" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA138" s="13"/>
+      <c r="BB138" s="5"/>
+      <c r="BC138" s="18"/>
+    </row>
+    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="11"/>
       <c r="C139" s="8"/>
@@ -6927,8 +8658,19 @@
       <c r="AU139" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW139" s="4"/>
+      <c r="AX139" s="11"/>
+      <c r="AY139" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ139" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA139" s="13"/>
+      <c r="BB139" s="5"/>
+      <c r="BC139" s="18"/>
+    </row>
+    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="11"/>
       <c r="C140" s="8"/>
@@ -6958,8 +8700,23 @@
       <c r="AS140" s="13"/>
       <c r="AT140" s="5"/>
       <c r="AU140" s="6"/>
-    </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW140" s="4"/>
+      <c r="AX140" s="11"/>
+      <c r="AY140" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ140" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA140" s="13"/>
+      <c r="BB140" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC140" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="11"/>
       <c r="C141" s="8"/>
@@ -6991,8 +8748,19 @@
       </c>
       <c r="AT141" s="5"/>
       <c r="AU141" s="6"/>
-    </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW141" s="4"/>
+      <c r="AX141" s="11"/>
+      <c r="AY141" s="8"/>
+      <c r="AZ141" s="14"/>
+      <c r="BA141" s="13"/>
+      <c r="BB141" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC141" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
@@ -7022,8 +8790,21 @@
       <c r="AS142" s="13"/>
       <c r="AT142" s="5"/>
       <c r="AU142" s="6"/>
-    </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW142" s="4"/>
+      <c r="AX142" s="11"/>
+      <c r="AY142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ142" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA142" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="18"/>
+    </row>
+    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="11"/>
       <c r="C143" s="8"/>
@@ -7055,8 +8836,19 @@
       <c r="AS143" s="13"/>
       <c r="AT143" s="5"/>
       <c r="AU143" s="6"/>
-    </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW143" s="4"/>
+      <c r="AX143" s="11"/>
+      <c r="AY143" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ143" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA143" s="13"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="18"/>
+    </row>
+    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="11"/>
       <c r="C144" s="8"/>
@@ -7088,8 +8880,19 @@
       </c>
       <c r="AT144" s="5"/>
       <c r="AU144" s="6"/>
-    </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW144" s="4"/>
+      <c r="AX144" s="11"/>
+      <c r="AY144" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ144" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA144" s="13"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="18"/>
+    </row>
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
@@ -7115,8 +8918,19 @@
       <c r="AS145" s="13"/>
       <c r="AT145" s="5"/>
       <c r="AU145" s="6"/>
-    </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW145" s="4"/>
+      <c r="AX145" s="11"/>
+      <c r="AY145" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ145" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA145" s="13"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="18"/>
+    </row>
+    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="11"/>
       <c r="C146" s="8"/>
@@ -7150,8 +8964,21 @@
       </c>
       <c r="AT146" s="5"/>
       <c r="AU146" s="6"/>
-    </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW146" s="4"/>
+      <c r="AX146" s="11"/>
+      <c r="AY146" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ146" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA146" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB146" s="5"/>
+      <c r="BC146" s="18"/>
+    </row>
+    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="11"/>
       <c r="C147" s="8"/>
@@ -7183,8 +9010,15 @@
       </c>
       <c r="AT147" s="5"/>
       <c r="AU147" s="6"/>
-    </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW147" s="4"/>
+      <c r="AX147" s="11"/>
+      <c r="AY147" s="8"/>
+      <c r="AZ147" s="14"/>
+      <c r="BA147" s="13"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="18"/>
+    </row>
+    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="11"/>
       <c r="C148" s="8"/>
@@ -7214,8 +9048,29 @@
       <c r="AS148" s="13"/>
       <c r="AT148" s="5"/>
       <c r="AU148" s="6"/>
-    </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW148" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX148" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY148" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ148" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA148" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB148" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC148" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="11"/>
       <c r="C149" s="8"/>
@@ -7247,8 +9102,19 @@
       <c r="AS149" s="13"/>
       <c r="AT149" s="5"/>
       <c r="AU149" s="6"/>
-    </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW149" s="4"/>
+      <c r="AX149" s="11"/>
+      <c r="AY149" s="8"/>
+      <c r="AZ149" s="14"/>
+      <c r="BA149" s="13"/>
+      <c r="BB149" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC149" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="11"/>
       <c r="C150" s="8"/>
@@ -7274,8 +9140,21 @@
       <c r="AS150" s="13"/>
       <c r="AT150" s="5"/>
       <c r="AU150" s="6"/>
-    </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW150" s="4"/>
+      <c r="AX150" s="11"/>
+      <c r="AY150" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ150" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA150" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB150" s="5"/>
+      <c r="BC150" s="18"/>
+    </row>
+    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="11"/>
       <c r="C151" s="8"/>
@@ -7313,8 +9192,19 @@
       <c r="AU151" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW151" s="4"/>
+      <c r="AX151" s="11"/>
+      <c r="AY151" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ151" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA151" s="13"/>
+      <c r="BB151" s="5"/>
+      <c r="BC151" s="18"/>
+    </row>
+    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="11"/>
       <c r="C152" s="8"/>
@@ -7346,8 +9236,19 @@
       <c r="AU152" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW152" s="4"/>
+      <c r="AX152" s="11"/>
+      <c r="AY152" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ152" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA152" s="13"/>
+      <c r="BB152" s="5"/>
+      <c r="BC152" s="18"/>
+    </row>
+    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="11"/>
       <c r="C153" s="8"/>
@@ -7377,8 +9278,19 @@
       <c r="AS153" s="13"/>
       <c r="AT153" s="5"/>
       <c r="AU153" s="6"/>
-    </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW153" s="4"/>
+      <c r="AX153" s="11"/>
+      <c r="AY153" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ153" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA153" s="13"/>
+      <c r="BB153" s="5"/>
+      <c r="BC153" s="18"/>
+    </row>
+    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="11"/>
       <c r="C154" s="8"/>
@@ -7410,8 +9322,23 @@
       </c>
       <c r="AT154" s="5"/>
       <c r="AU154" s="6"/>
-    </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW154" s="4"/>
+      <c r="AX154" s="11"/>
+      <c r="AY154" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ154" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA154" s="13"/>
+      <c r="BB154" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC154" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="11"/>
       <c r="C155" s="8"/>
@@ -7441,8 +9368,19 @@
       <c r="AS155" s="13"/>
       <c r="AT155" s="5"/>
       <c r="AU155" s="6"/>
-    </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW155" s="4"/>
+      <c r="AX155" s="11"/>
+      <c r="AY155" s="8"/>
+      <c r="AZ155" s="14"/>
+      <c r="BA155" s="13"/>
+      <c r="BB155" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC155" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="11"/>
       <c r="C156" s="8"/>
@@ -7474,8 +9412,21 @@
       <c r="AS156" s="13"/>
       <c r="AT156" s="5"/>
       <c r="AU156" s="6"/>
-    </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW156" s="4"/>
+      <c r="AX156" s="11"/>
+      <c r="AY156" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ156" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA156" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB156" s="5"/>
+      <c r="BC156" s="18"/>
+    </row>
+    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="11"/>
       <c r="C157" s="8"/>
@@ -7507,8 +9458,19 @@
       </c>
       <c r="AT157" s="5"/>
       <c r="AU157" s="6"/>
-    </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW157" s="4"/>
+      <c r="AX157" s="11"/>
+      <c r="AY157" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ157" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA157" s="13"/>
+      <c r="BB157" s="5"/>
+      <c r="BC157" s="18"/>
+    </row>
+    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="11"/>
       <c r="C158" s="8"/>
@@ -7534,8 +9496,19 @@
       <c r="AS158" s="13"/>
       <c r="AT158" s="5"/>
       <c r="AU158" s="6"/>
-    </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW158" s="4"/>
+      <c r="AX158" s="11"/>
+      <c r="AY158" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ158" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA158" s="13"/>
+      <c r="BB158" s="5"/>
+      <c r="BC158" s="18"/>
+    </row>
+    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="11"/>
       <c r="C159" s="8"/>
@@ -7575,8 +9548,19 @@
       <c r="AU159" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW159" s="4"/>
+      <c r="AX159" s="11"/>
+      <c r="AY159" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ159" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA159" s="13"/>
+      <c r="BB159" s="5"/>
+      <c r="BC159" s="18"/>
+    </row>
+    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="11"/>
       <c r="C160" s="8"/>
@@ -7606,8 +9590,21 @@
       <c r="AU160" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW160" s="4"/>
+      <c r="AX160" s="11"/>
+      <c r="AY160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ160" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA160" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB160" s="5"/>
+      <c r="BC160" s="18"/>
+    </row>
+    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="11"/>
       <c r="C161" s="8"/>
@@ -7639,8 +9636,15 @@
       </c>
       <c r="AT161" s="5"/>
       <c r="AU161" s="6"/>
-    </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW161" s="4"/>
+      <c r="AX161" s="11"/>
+      <c r="AY161" s="8"/>
+      <c r="AZ161" s="14"/>
+      <c r="BA161" s="13"/>
+      <c r="BB161" s="5"/>
+      <c r="BC161" s="18"/>
+    </row>
+    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="11"/>
       <c r="C162" s="8"/>
@@ -7670,8 +9674,25 @@
       <c r="AS162" s="13"/>
       <c r="AT162" s="5"/>
       <c r="AU162" s="6"/>
-    </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW162" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX162" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY162" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ162" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA162" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB162" s="5"/>
+      <c r="BC162" s="18"/>
+    </row>
+    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="11"/>
       <c r="C163" s="8"/>
@@ -7703,8 +9724,21 @@
       <c r="AS163" s="13"/>
       <c r="AT163" s="5"/>
       <c r="AU163" s="6"/>
-    </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW163" s="4"/>
+      <c r="AX163" s="11"/>
+      <c r="AY163" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ163" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA163" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB163" s="5"/>
+      <c r="BC163" s="18"/>
+    </row>
+    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="11"/>
       <c r="C164" s="8"/>
@@ -7730,8 +9764,19 @@
       <c r="AS164" s="13"/>
       <c r="AT164" s="5"/>
       <c r="AU164" s="6"/>
-    </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW164" s="4"/>
+      <c r="AX164" s="11"/>
+      <c r="AY164" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ164" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA164" s="13"/>
+      <c r="BB164" s="5"/>
+      <c r="BC164" s="18"/>
+    </row>
+    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="11"/>
       <c r="C165" s="8"/>
@@ -7773,8 +9818,19 @@
       <c r="AU165" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW165" s="4"/>
+      <c r="AX165" s="11"/>
+      <c r="AY165" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ165" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA165" s="13"/>
+      <c r="BB165" s="5"/>
+      <c r="BC165" s="18"/>
+    </row>
+    <row r="166" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="11"/>
       <c r="C166" s="8"/>
@@ -7804,8 +9860,19 @@
       <c r="AU166" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW166" s="4"/>
+      <c r="AX166" s="11"/>
+      <c r="AY166" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ166" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA166" s="13"/>
+      <c r="BB166" s="5"/>
+      <c r="BC166" s="18"/>
+    </row>
+    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="11"/>
       <c r="C167" s="8"/>
@@ -7839,8 +9906,23 @@
       <c r="AU167" s="18">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW167" s="4"/>
+      <c r="AX167" s="11"/>
+      <c r="AY167" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ167" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA167" s="13"/>
+      <c r="BB167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC167" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="11"/>
       <c r="C168" s="8"/>
@@ -7872,8 +9954,19 @@
       <c r="AU168" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW168" s="4"/>
+      <c r="AX168" s="11"/>
+      <c r="AY168" s="8"/>
+      <c r="AZ168" s="14"/>
+      <c r="BA168" s="13"/>
+      <c r="BB168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC168" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="11"/>
       <c r="C169" s="8"/>
@@ -7903,8 +9996,21 @@
       <c r="AU169" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW169" s="4"/>
+      <c r="AX169" s="11"/>
+      <c r="AY169" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ169" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA169" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB169" s="5"/>
+      <c r="BC169" s="18"/>
+    </row>
+    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="11"/>
       <c r="C170" s="8"/>
@@ -7936,8 +10042,19 @@
       </c>
       <c r="AT170" s="5"/>
       <c r="AU170" s="6"/>
-    </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW170" s="4"/>
+      <c r="AX170" s="11"/>
+      <c r="AY170" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ170" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA170" s="13"/>
+      <c r="BB170" s="5"/>
+      <c r="BC170" s="18"/>
+    </row>
+    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="11"/>
       <c r="C171" s="8"/>
@@ -7967,8 +10084,19 @@
       <c r="AS171" s="13"/>
       <c r="AT171" s="5"/>
       <c r="AU171" s="6"/>
-    </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW171" s="4"/>
+      <c r="AX171" s="11"/>
+      <c r="AY171" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ171" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA171" s="13"/>
+      <c r="BB171" s="5"/>
+      <c r="BC171" s="18"/>
+    </row>
+    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="11"/>
       <c r="C172" s="8"/>
@@ -7998,8 +10126,19 @@
       <c r="AS172" s="13"/>
       <c r="AT172" s="5"/>
       <c r="AU172" s="6"/>
-    </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW172" s="4"/>
+      <c r="AX172" s="11"/>
+      <c r="AY172" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ172" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA172" s="13"/>
+      <c r="BB172" s="5"/>
+      <c r="BC172" s="18"/>
+    </row>
+    <row r="173" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="11"/>
       <c r="C173" s="8"/>
@@ -8031,8 +10170,19 @@
       <c r="AS173" s="13"/>
       <c r="AT173" s="5"/>
       <c r="AU173" s="6"/>
-    </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW173" s="4"/>
+      <c r="AX173" s="11"/>
+      <c r="AY173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ173" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA173" s="13"/>
+      <c r="BB173" s="5"/>
+      <c r="BC173" s="18"/>
+    </row>
+    <row r="174" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="11"/>
       <c r="C174" s="8"/>
@@ -8062,8 +10212,21 @@
       <c r="AS174" s="13"/>
       <c r="AT174" s="5"/>
       <c r="AU174" s="6"/>
-    </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW174" s="4"/>
+      <c r="AX174" s="11"/>
+      <c r="AY174" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ174" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA174" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB174" s="5"/>
+      <c r="BC174" s="18"/>
+    </row>
+    <row r="175" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="11"/>
       <c r="C175" s="8"/>
@@ -8095,8 +10258,15 @@
       </c>
       <c r="AT175" s="5"/>
       <c r="AU175" s="6"/>
-    </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW175" s="4"/>
+      <c r="AX175" s="11"/>
+      <c r="AY175" s="8"/>
+      <c r="AZ175" s="14"/>
+      <c r="BA175" s="13"/>
+      <c r="BB175" s="5"/>
+      <c r="BC175" s="18"/>
+    </row>
+    <row r="176" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="11"/>
       <c r="C176" s="8"/>
@@ -8122,8 +10292,23 @@
       <c r="AS176" s="13"/>
       <c r="AT176" s="5"/>
       <c r="AU176" s="6"/>
-    </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW176" s="4"/>
+      <c r="AX176" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY176" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ176" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA176" s="13">
+        <v>4</v>
+      </c>
+      <c r="BB176" s="5"/>
+      <c r="BC176" s="18"/>
+    </row>
+    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="11"/>
       <c r="C177" s="8"/>
@@ -8163,8 +10348,21 @@
       <c r="AU177" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW177" s="4"/>
+      <c r="AX177" s="11"/>
+      <c r="AY177" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ177" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA177" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB177" s="5"/>
+      <c r="BC177" s="18"/>
+    </row>
+    <row r="178" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="11"/>
       <c r="C178" s="8"/>
@@ -8196,8 +10394,19 @@
       <c r="AU178" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW178" s="4"/>
+      <c r="AX178" s="11"/>
+      <c r="AY178" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ178" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA178" s="13"/>
+      <c r="BB178" s="5"/>
+      <c r="BC178" s="18"/>
+    </row>
+    <row r="179" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="11"/>
       <c r="C179" s="8"/>
@@ -8225,8 +10434,19 @@
       </c>
       <c r="AT179" s="5"/>
       <c r="AU179" s="6"/>
-    </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW179" s="4"/>
+      <c r="AX179" s="11"/>
+      <c r="AY179" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ179" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA179" s="13"/>
+      <c r="BB179" s="5"/>
+      <c r="BC179" s="18"/>
+    </row>
+    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="11"/>
       <c r="C180" s="8"/>
@@ -8264,8 +10484,23 @@
       <c r="AS180" s="13"/>
       <c r="AT180" s="5"/>
       <c r="AU180" s="6"/>
-    </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW180" s="4"/>
+      <c r="AX180" s="11"/>
+      <c r="AY180" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ180" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA180" s="13"/>
+      <c r="BB180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC180" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="11"/>
       <c r="C181" s="8"/>
@@ -8295,8 +10530,19 @@
       <c r="AS181" s="13"/>
       <c r="AT181" s="5"/>
       <c r="AU181" s="6"/>
-    </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW181" s="4"/>
+      <c r="AX181" s="11"/>
+      <c r="AY181" s="8"/>
+      <c r="AZ181" s="14"/>
+      <c r="BA181" s="13"/>
+      <c r="BB181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC181" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="11"/>
       <c r="C182" s="8"/>
@@ -8326,8 +10572,21 @@
       <c r="AS182" s="13"/>
       <c r="AT182" s="5"/>
       <c r="AU182" s="6"/>
-    </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW182" s="4"/>
+      <c r="AX182" s="11"/>
+      <c r="AY182" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ182" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA182" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB182" s="5"/>
+      <c r="BC182" s="18"/>
+    </row>
+    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="11"/>
       <c r="C183" s="8"/>
@@ -8363,8 +10622,19 @@
       <c r="AU183" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW183" s="4"/>
+      <c r="AX183" s="11"/>
+      <c r="AY183" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ183" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA183" s="13"/>
+      <c r="BB183" s="5"/>
+      <c r="BC183" s="18"/>
+    </row>
+    <row r="184" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="11"/>
       <c r="C184" s="8"/>
@@ -8394,8 +10664,19 @@
       <c r="AU184" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW184" s="4"/>
+      <c r="AX184" s="11"/>
+      <c r="AY184" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ184" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA184" s="13"/>
+      <c r="BB184" s="5"/>
+      <c r="BC184" s="18"/>
+    </row>
+    <row r="185" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="11"/>
       <c r="C185" s="8"/>
@@ -8429,8 +10710,19 @@
       <c r="AU185" s="18">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW185" s="4"/>
+      <c r="AX185" s="11"/>
+      <c r="AY185" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ185" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA185" s="13"/>
+      <c r="BB185" s="5"/>
+      <c r="BC185" s="18"/>
+    </row>
+    <row r="186" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="11"/>
       <c r="C186" s="8"/>
@@ -8460,8 +10752,19 @@
       <c r="AU186" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW186" s="4"/>
+      <c r="AX186" s="11"/>
+      <c r="AY186" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ186" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA186" s="13"/>
+      <c r="BB186" s="5"/>
+      <c r="BC186" s="18"/>
+    </row>
+    <row r="187" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="11"/>
       <c r="C187" s="8"/>
@@ -8491,8 +10794,21 @@
       <c r="AU187" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW187" s="4"/>
+      <c r="AX187" s="11"/>
+      <c r="AY187" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ187" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA187" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB187" s="5"/>
+      <c r="BC187" s="18"/>
+    </row>
+    <row r="188" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="11"/>
       <c r="C188" s="8"/>
@@ -8526,8 +10842,15 @@
       </c>
       <c r="AT188" s="5"/>
       <c r="AU188" s="6"/>
-    </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW188" s="4"/>
+      <c r="AX188" s="11"/>
+      <c r="AY188" s="8"/>
+      <c r="AZ188" s="14"/>
+      <c r="BA188" s="13"/>
+      <c r="BB188" s="5"/>
+      <c r="BC188" s="18"/>
+    </row>
+    <row r="189" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="11"/>
       <c r="C189" s="8"/>
@@ -8557,8 +10880,15 @@
       <c r="AS189" s="13"/>
       <c r="AT189" s="5"/>
       <c r="AU189" s="6"/>
-    </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW189" s="4"/>
+      <c r="AX189" s="11"/>
+      <c r="AY189" s="8"/>
+      <c r="AZ189" s="14"/>
+      <c r="BA189" s="13"/>
+      <c r="BB189" s="5"/>
+      <c r="BC189" s="18"/>
+    </row>
+    <row r="190" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="11"/>
       <c r="C190" s="8"/>
@@ -8588,8 +10918,15 @@
       <c r="AS190" s="13"/>
       <c r="AT190" s="5"/>
       <c r="AU190" s="6"/>
-    </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW190" s="4"/>
+      <c r="AX190" s="11"/>
+      <c r="AY190" s="8"/>
+      <c r="AZ190" s="14"/>
+      <c r="BA190" s="13"/>
+      <c r="BB190" s="5"/>
+      <c r="BC190" s="18"/>
+    </row>
+    <row r="191" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="11"/>
       <c r="C191" s="8"/>
@@ -8619,8 +10956,15 @@
       <c r="AS191" s="13"/>
       <c r="AT191" s="5"/>
       <c r="AU191" s="6"/>
-    </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW191" s="4"/>
+      <c r="AX191" s="11"/>
+      <c r="AY191" s="8"/>
+      <c r="AZ191" s="14"/>
+      <c r="BA191" s="13"/>
+      <c r="BB191" s="5"/>
+      <c r="BC191" s="18"/>
+    </row>
+    <row r="192" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="11"/>
       <c r="C192" s="8"/>
@@ -8650,8 +10994,15 @@
       <c r="AS192" s="13"/>
       <c r="AT192" s="5"/>
       <c r="AU192" s="6"/>
-    </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW192" s="4"/>
+      <c r="AX192" s="11"/>
+      <c r="AY192" s="8"/>
+      <c r="AZ192" s="14"/>
+      <c r="BA192" s="13"/>
+      <c r="BB192" s="5"/>
+      <c r="BC192" s="18"/>
+    </row>
+    <row r="193" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="11"/>
       <c r="C193" s="8"/>
@@ -8685,8 +11036,15 @@
       </c>
       <c r="AT193" s="5"/>
       <c r="AU193" s="6"/>
-    </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW193" s="4"/>
+      <c r="AX193" s="11"/>
+      <c r="AY193" s="8"/>
+      <c r="AZ193" s="14"/>
+      <c r="BA193" s="13"/>
+      <c r="BB193" s="5"/>
+      <c r="BC193" s="18"/>
+    </row>
+    <row r="194" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="11"/>
       <c r="C194" s="8"/>
@@ -8708,8 +11066,15 @@
       <c r="AS194" s="13"/>
       <c r="AT194" s="5"/>
       <c r="AU194" s="6"/>
-    </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW194" s="4"/>
+      <c r="AX194" s="11"/>
+      <c r="AY194" s="8"/>
+      <c r="AZ194" s="14"/>
+      <c r="BA194" s="13"/>
+      <c r="BB194" s="5"/>
+      <c r="BC194" s="18"/>
+    </row>
+    <row r="195" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="11"/>
       <c r="C195" s="8"/>
@@ -8755,8 +11120,15 @@
       <c r="AU195" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW195" s="4"/>
+      <c r="AX195" s="11"/>
+      <c r="AY195" s="8"/>
+      <c r="AZ195" s="14"/>
+      <c r="BA195" s="13"/>
+      <c r="BB195" s="5"/>
+      <c r="BC195" s="18"/>
+    </row>
+    <row r="196" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="11"/>
       <c r="C196" s="8"/>
@@ -8786,8 +11158,15 @@
       <c r="AU196" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW196" s="4"/>
+      <c r="AX196" s="11"/>
+      <c r="AY196" s="8"/>
+      <c r="AZ196" s="14"/>
+      <c r="BA196" s="13"/>
+      <c r="BB196" s="5"/>
+      <c r="BC196" s="18"/>
+    </row>
+    <row r="197" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="11"/>
       <c r="C197" s="8"/>
@@ -8819,8 +11198,15 @@
       </c>
       <c r="AT197" s="5"/>
       <c r="AU197" s="6"/>
-    </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW197" s="4"/>
+      <c r="AX197" s="11"/>
+      <c r="AY197" s="8"/>
+      <c r="AZ197" s="14"/>
+      <c r="BA197" s="13"/>
+      <c r="BB197" s="5"/>
+      <c r="BC197" s="18"/>
+    </row>
+    <row r="198" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="11"/>
       <c r="C198" s="8"/>
@@ -8852,8 +11238,15 @@
       <c r="AS198" s="13"/>
       <c r="AT198" s="5"/>
       <c r="AU198" s="6"/>
-    </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW198" s="4"/>
+      <c r="AX198" s="11"/>
+      <c r="AY198" s="8"/>
+      <c r="AZ198" s="14"/>
+      <c r="BA198" s="13"/>
+      <c r="BB198" s="5"/>
+      <c r="BC198" s="18"/>
+    </row>
+    <row r="199" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="11"/>
       <c r="C199" s="8"/>
@@ -8883,8 +11276,15 @@
       <c r="AS199" s="13"/>
       <c r="AT199" s="5"/>
       <c r="AU199" s="6"/>
-    </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW199" s="4"/>
+      <c r="AX199" s="11"/>
+      <c r="AY199" s="8"/>
+      <c r="AZ199" s="14"/>
+      <c r="BA199" s="13"/>
+      <c r="BB199" s="5"/>
+      <c r="BC199" s="18"/>
+    </row>
+    <row r="200" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="11"/>
       <c r="C200" s="8"/>
@@ -8918,8 +11318,15 @@
       <c r="AU200" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW200" s="4"/>
+      <c r="AX200" s="11"/>
+      <c r="AY200" s="8"/>
+      <c r="AZ200" s="14"/>
+      <c r="BA200" s="13"/>
+      <c r="BB200" s="5"/>
+      <c r="BC200" s="18"/>
+    </row>
+    <row r="201" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="11"/>
       <c r="C201" s="8"/>
@@ -8949,8 +11356,15 @@
       <c r="AU201" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW201" s="4"/>
+      <c r="AX201" s="11"/>
+      <c r="AY201" s="8"/>
+      <c r="AZ201" s="14"/>
+      <c r="BA201" s="13"/>
+      <c r="BB201" s="5"/>
+      <c r="BC201" s="18"/>
+    </row>
+    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="11"/>
       <c r="C202" s="8"/>
@@ -8986,8 +11400,15 @@
       <c r="AU202" s="18">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW202" s="4"/>
+      <c r="AX202" s="11"/>
+      <c r="AY202" s="8"/>
+      <c r="AZ202" s="14"/>
+      <c r="BA202" s="13"/>
+      <c r="BB202" s="5"/>
+      <c r="BC202" s="18"/>
+    </row>
+    <row r="203" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="11"/>
       <c r="C203" s="8"/>
@@ -9017,8 +11438,15 @@
       <c r="AU203" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW203" s="4"/>
+      <c r="AX203" s="11"/>
+      <c r="AY203" s="8"/>
+      <c r="AZ203" s="14"/>
+      <c r="BA203" s="13"/>
+      <c r="BB203" s="5"/>
+      <c r="BC203" s="18"/>
+    </row>
+    <row r="204" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="11"/>
       <c r="C204" s="8"/>
@@ -9048,8 +11476,15 @@
       <c r="AU204" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW204" s="4"/>
+      <c r="AX204" s="11"/>
+      <c r="AY204" s="8"/>
+      <c r="AZ204" s="14"/>
+      <c r="BA204" s="13"/>
+      <c r="BB204" s="5"/>
+      <c r="BC204" s="18"/>
+    </row>
+    <row r="205" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="11"/>
       <c r="C205" s="8"/>
@@ -9081,8 +11516,15 @@
       </c>
       <c r="AT205" s="5"/>
       <c r="AU205" s="6"/>
-    </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW205" s="4"/>
+      <c r="AX205" s="11"/>
+      <c r="AY205" s="8"/>
+      <c r="AZ205" s="14"/>
+      <c r="BA205" s="13"/>
+      <c r="BB205" s="5"/>
+      <c r="BC205" s="18"/>
+    </row>
+    <row r="206" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="11"/>
       <c r="C206" s="8"/>
@@ -9112,8 +11554,15 @@
       <c r="AS206" s="13"/>
       <c r="AT206" s="5"/>
       <c r="AU206" s="6"/>
-    </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW206" s="4"/>
+      <c r="AX206" s="11"/>
+      <c r="AY206" s="8"/>
+      <c r="AZ206" s="14"/>
+      <c r="BA206" s="13"/>
+      <c r="BB206" s="5"/>
+      <c r="BC206" s="18"/>
+    </row>
+    <row r="207" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="11"/>
       <c r="C207" s="8"/>
@@ -9143,8 +11592,15 @@
       <c r="AS207" s="13"/>
       <c r="AT207" s="5"/>
       <c r="AU207" s="6"/>
-    </row>
-    <row r="208" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW207" s="4"/>
+      <c r="AX207" s="11"/>
+      <c r="AY207" s="8"/>
+      <c r="AZ207" s="14"/>
+      <c r="BA207" s="13"/>
+      <c r="BB207" s="5"/>
+      <c r="BC207" s="18"/>
+    </row>
+    <row r="208" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="11"/>
       <c r="C208" s="8"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296DF90-0BF0-42DC-BF25-7E454C861E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E09D9-0EBF-4710-953B-4241D65862DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3495" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="152">
   <si>
     <t>ClassNames</t>
   </si>
@@ -438,6 +438,60 @@
   </si>
   <si>
     <t>1CF</t>
+  </si>
+  <si>
+    <t>3CLI</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
+    <t>ComMédia</t>
+  </si>
+  <si>
+    <t>TechApp</t>
+  </si>
+  <si>
+    <t>Ouvrage</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>3CZHI</t>
+  </si>
+  <si>
+    <t>3CI</t>
+  </si>
+  <si>
+    <t>2CI</t>
+  </si>
+  <si>
+    <t>1CI</t>
+  </si>
+  <si>
+    <t>2CLI</t>
+  </si>
+  <si>
+    <t>Choix 3 langues parmi DE, FR, Latin</t>
+  </si>
+  <si>
+    <t>Choix 3 langues parmi DE, FR, Chinois</t>
+  </si>
+  <si>
+    <t>2CZHI</t>
+  </si>
+  <si>
+    <t>1CLI</t>
+  </si>
+  <si>
+    <t>2 langues parmi DE, FR, Chinois</t>
+  </si>
+  <si>
+    <t>1CZHI</t>
+  </si>
+  <si>
+    <t>2 langues parmi DE, FR, Latin</t>
   </si>
 </sst>
 </file>
@@ -910,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC312"/>
+  <dimension ref="A1:BC476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AW161" sqref="AW161"/>
+    <sheetView tabSelected="1" topLeftCell="AL306" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR330" sqref="AR330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,9 +978,11 @@
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" style="22"/>
     <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="22"/>
     <col min="51" max="51" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.7109375" style="22"/>
@@ -1026,7 +1082,7 @@
       <c r="AL1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AO1" s="1"/>
@@ -1045,7 +1101,7 @@
       <c r="AT1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AW1" s="1"/>
@@ -1104,14 +1160,14 @@
       <c r="AJ2" s="14"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="5"/>
-      <c r="AM2" s="6"/>
+      <c r="AM2" s="18"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="14"/>
       <c r="AS2" s="13"/>
       <c r="AT2" s="5"/>
-      <c r="AU2" s="6"/>
+      <c r="AU2" s="18"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="11"/>
       <c r="AY2" s="8"/>
@@ -1196,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="6"/>
+      <c r="AM3" s="18"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="17" t="s">
         <v>75</v>
@@ -1211,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="AT3" s="5"/>
-      <c r="AU3" s="6"/>
+      <c r="AU3" s="18"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="11" t="s">
         <v>109</v>
@@ -1284,7 +1340,7 @@
       </c>
       <c r="AK4" s="13"/>
       <c r="AL4" s="5"/>
-      <c r="AM4" s="6"/>
+      <c r="AM4" s="18"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="9" t="s">
@@ -1295,7 +1351,7 @@
       </c>
       <c r="AS4" s="13"/>
       <c r="AT4" s="5"/>
-      <c r="AU4" s="6"/>
+      <c r="AU4" s="18"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="11"/>
       <c r="AY4" s="8" t="s">
@@ -1364,7 +1420,7 @@
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="5"/>
-      <c r="AM5" s="6"/>
+      <c r="AM5" s="18"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="9" t="s">
@@ -1375,7 +1431,7 @@
       </c>
       <c r="AS5" s="13"/>
       <c r="AT5" s="5"/>
-      <c r="AU5" s="6"/>
+      <c r="AU5" s="18"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="11"/>
       <c r="AY5" s="8" t="s">
@@ -1448,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="6"/>
+      <c r="AM6" s="18"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="9" t="s">
@@ -1461,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="AT6" s="5"/>
-      <c r="AU6" s="6"/>
+      <c r="AU6" s="18"/>
       <c r="AW6" s="4"/>
       <c r="AX6" s="11"/>
       <c r="AY6" s="8" t="s">
@@ -1536,7 +1592,7 @@
       </c>
       <c r="AK7" s="13"/>
       <c r="AL7" s="5"/>
-      <c r="AM7" s="6"/>
+      <c r="AM7" s="18"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="9" t="s">
@@ -1547,7 +1603,7 @@
       </c>
       <c r="AS7" s="13"/>
       <c r="AT7" s="5"/>
-      <c r="AU7" s="6"/>
+      <c r="AU7" s="18"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="11"/>
       <c r="AY7" s="8" t="s">
@@ -1626,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="6"/>
+      <c r="AM8" s="18"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="9" t="s">
@@ -1639,7 +1695,7 @@
       <c r="AT8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AU8" s="6">
+      <c r="AU8" s="18">
         <v>2</v>
       </c>
       <c r="AW8" s="4"/>
@@ -1710,7 +1766,7 @@
       </c>
       <c r="AK9" s="13"/>
       <c r="AL9" s="5"/>
-      <c r="AM9" s="6"/>
+      <c r="AM9" s="18"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="8"/>
@@ -1719,7 +1775,7 @@
       <c r="AT9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AU9" s="6">
+      <c r="AU9" s="18">
         <v>1</v>
       </c>
       <c r="AW9" s="4"/>
@@ -1794,7 +1850,7 @@
       </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="6"/>
+      <c r="AM10" s="18"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="9" t="s">
@@ -1807,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="AT10" s="5"/>
-      <c r="AU10" s="6"/>
+      <c r="AU10" s="18"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="8" t="s">
@@ -1878,7 +1934,7 @@
       </c>
       <c r="AK11" s="13"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="6"/>
+      <c r="AM11" s="18"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="9" t="s">
@@ -1889,7 +1945,7 @@
       </c>
       <c r="AS11" s="13"/>
       <c r="AT11" s="5"/>
-      <c r="AU11" s="6"/>
+      <c r="AU11" s="18"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="11"/>
       <c r="AY11" s="8" t="s">
@@ -1960,7 +2016,7 @@
       </c>
       <c r="AK12" s="13"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="6"/>
+      <c r="AM12" s="18"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="9" t="s">
@@ -1971,7 +2027,7 @@
       </c>
       <c r="AS12" s="13"/>
       <c r="AT12" s="5"/>
-      <c r="AU12" s="6"/>
+      <c r="AU12" s="18"/>
       <c r="AW12" s="4"/>
       <c r="AX12" s="11"/>
       <c r="AY12" s="8"/>
@@ -2028,7 +2084,7 @@
       </c>
       <c r="AK13" s="13"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="6"/>
+      <c r="AM13" s="18"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="9" t="s">
@@ -2041,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="AT13" s="5"/>
-      <c r="AU13" s="6"/>
+      <c r="AU13" s="18"/>
       <c r="AW13" s="4"/>
       <c r="AX13" s="11" t="s">
         <v>108</v>
@@ -2116,14 +2172,14 @@
       </c>
       <c r="AK14" s="13"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="6"/>
+      <c r="AM14" s="18"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="5"/>
-      <c r="AU14" s="6"/>
+      <c r="AU14" s="18"/>
       <c r="AW14" s="4"/>
       <c r="AX14" s="11"/>
       <c r="AY14" s="8" t="s">
@@ -2188,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="6"/>
+      <c r="AM15" s="18"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="17" t="s">
         <v>76</v>
@@ -2203,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="AT15" s="5"/>
-      <c r="AU15" s="6"/>
+      <c r="AU15" s="18"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="11"/>
       <c r="AY15" s="8" t="s">
@@ -2264,7 +2320,7 @@
       <c r="AJ16" s="14"/>
       <c r="AK16" s="13"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="6"/>
+      <c r="AM16" s="18"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="9" t="s">
@@ -2275,7 +2331,7 @@
       </c>
       <c r="AS16" s="13"/>
       <c r="AT16" s="5"/>
-      <c r="AU16" s="6"/>
+      <c r="AU16" s="18"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="11"/>
       <c r="AY16" s="8" t="s">
@@ -2348,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="6"/>
+      <c r="AM17" s="18"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="9" t="s">
@@ -2359,7 +2415,7 @@
       </c>
       <c r="AS17" s="13"/>
       <c r="AT17" s="5"/>
-      <c r="AU17" s="6"/>
+      <c r="AU17" s="18"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="11"/>
       <c r="AY17" s="8" t="s">
@@ -2428,7 +2484,7 @@
       </c>
       <c r="AK18" s="13"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="6"/>
+      <c r="AM18" s="18"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="9" t="s">
@@ -2441,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT18" s="5"/>
-      <c r="AU18" s="6"/>
+      <c r="AU18" s="18"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="11"/>
       <c r="AY18" s="8" t="s">
@@ -2510,7 +2566,7 @@
       </c>
       <c r="AK19" s="13"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="6"/>
+      <c r="AM19" s="18"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="11"/>
       <c r="AQ19" s="9" t="s">
@@ -2521,7 +2577,7 @@
       </c>
       <c r="AS19" s="13"/>
       <c r="AT19" s="5"/>
-      <c r="AU19" s="6"/>
+      <c r="AU19" s="18"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="11"/>
       <c r="AY19" s="8" t="s">
@@ -2588,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="6"/>
+      <c r="AM20" s="18"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="9" t="s">
@@ -2601,7 +2657,7 @@
       <c r="AT20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU20" s="18">
         <v>2</v>
       </c>
       <c r="AW20" s="4"/>
@@ -2672,7 +2728,7 @@
       </c>
       <c r="AK21" s="13"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="6"/>
+      <c r="AM21" s="18"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="8"/>
@@ -2681,7 +2737,7 @@
       <c r="AT21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AU21" s="6">
+      <c r="AU21" s="18">
         <v>1</v>
       </c>
       <c r="AW21" s="4"/>
@@ -2756,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="6"/>
+      <c r="AM22" s="18"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="9" t="s">
@@ -2769,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AT22" s="5"/>
-      <c r="AU22" s="6"/>
+      <c r="AU22" s="18"/>
       <c r="AW22" s="4"/>
       <c r="AX22" s="11"/>
       <c r="AY22" s="8"/>
@@ -2830,7 +2886,7 @@
       </c>
       <c r="AK23" s="13"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="6"/>
+      <c r="AM23" s="18"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="9" t="s">
@@ -2841,7 +2897,7 @@
       </c>
       <c r="AS23" s="13"/>
       <c r="AT23" s="5"/>
-      <c r="AU23" s="6"/>
+      <c r="AU23" s="18"/>
       <c r="AW23" s="4" t="s">
         <v>111</v>
       </c>
@@ -2912,7 +2968,7 @@
       </c>
       <c r="AK24" s="13"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="6"/>
+      <c r="AM24" s="18"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="9" t="s">
@@ -2923,7 +2979,7 @@
       </c>
       <c r="AS24" s="13"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="6"/>
+      <c r="AU24" s="18"/>
       <c r="AW24" s="4" t="s">
         <v>115</v>
       </c>
@@ -2994,7 +3050,7 @@
       </c>
       <c r="AK25" s="13"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="6"/>
+      <c r="AM25" s="18"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="9" t="s">
@@ -3007,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="5"/>
-      <c r="AU25" s="6"/>
+      <c r="AU25" s="18"/>
       <c r="AW25" s="4"/>
       <c r="AX25" s="11"/>
       <c r="AY25" s="8" t="s">
@@ -3074,14 +3130,14 @@
       </c>
       <c r="AK26" s="13"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="6"/>
+      <c r="AM26" s="18"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="5"/>
-      <c r="AU26" s="6"/>
+      <c r="AU26" s="18"/>
       <c r="AW26" s="4"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="8" t="s">
@@ -3148,7 +3204,7 @@
       </c>
       <c r="AK27" s="13"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="6"/>
+      <c r="AM27" s="18"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="17" t="s">
         <v>71</v>
@@ -3163,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="AT27" s="5"/>
-      <c r="AU27" s="6"/>
+      <c r="AU27" s="18"/>
       <c r="AW27" s="4"/>
       <c r="AX27" s="11"/>
       <c r="AY27" s="8" t="s">
@@ -3224,7 +3280,7 @@
       </c>
       <c r="AK28" s="13"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="6"/>
+      <c r="AM28" s="18"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="9" t="s">
@@ -3235,7 +3291,7 @@
       </c>
       <c r="AS28" s="13"/>
       <c r="AT28" s="5"/>
-      <c r="AU28" s="6"/>
+      <c r="AU28" s="18"/>
       <c r="AW28" s="4"/>
       <c r="AX28" s="11"/>
       <c r="AY28" s="8" t="s">
@@ -3310,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="6"/>
+      <c r="AM29" s="18"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="11"/>
       <c r="AQ29" s="9" t="s">
@@ -3321,7 +3377,7 @@
       </c>
       <c r="AS29" s="13"/>
       <c r="AT29" s="5"/>
-      <c r="AU29" s="6"/>
+      <c r="AU29" s="18"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="11"/>
       <c r="AY29" s="8" t="s">
@@ -3380,7 +3436,7 @@
       <c r="AJ30" s="14"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="6"/>
+      <c r="AM30" s="18"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="11"/>
       <c r="AQ30" s="9" t="s">
@@ -3393,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="AT30" s="5"/>
-      <c r="AU30" s="6"/>
+      <c r="AU30" s="18"/>
       <c r="AW30" s="4"/>
       <c r="AX30" s="11"/>
       <c r="AY30" s="8" t="s">
@@ -3466,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="6"/>
+      <c r="AM31" s="18"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="9" t="s">
@@ -3479,7 +3535,7 @@
       <c r="AT31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AU31" s="6">
+      <c r="AU31" s="18">
         <v>2</v>
       </c>
       <c r="AW31" s="4"/>
@@ -3546,7 +3602,7 @@
       </c>
       <c r="AK32" s="13"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="6"/>
+      <c r="AM32" s="18"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="8"/>
@@ -3555,7 +3611,7 @@
       <c r="AT32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AU32" s="6">
+      <c r="AU32" s="18">
         <v>1</v>
       </c>
       <c r="AW32" s="4"/>
@@ -3628,7 +3684,7 @@
       </c>
       <c r="AK33" s="13"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="6"/>
+      <c r="AM33" s="18"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="11"/>
       <c r="AQ33" s="9" t="s">
@@ -3641,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="AT33" s="5"/>
-      <c r="AU33" s="6"/>
+      <c r="AU33" s="18"/>
       <c r="AW33" s="4"/>
       <c r="AX33" s="11"/>
       <c r="AY33" s="8" t="s">
@@ -3706,7 +3762,7 @@
       </c>
       <c r="AK34" s="13"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="6"/>
+      <c r="AM34" s="18"/>
       <c r="AO34" s="4"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="9" t="s">
@@ -3717,7 +3773,7 @@
       </c>
       <c r="AS34" s="13"/>
       <c r="AT34" s="5"/>
-      <c r="AU34" s="6"/>
+      <c r="AU34" s="18"/>
       <c r="AW34" s="4"/>
       <c r="AX34" s="11"/>
       <c r="AY34" s="8" t="s">
@@ -3782,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="6"/>
+      <c r="AM35" s="18"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="11"/>
       <c r="AQ35" s="9" t="s">
@@ -3793,7 +3849,7 @@
       </c>
       <c r="AS35" s="13"/>
       <c r="AT35" s="5"/>
-      <c r="AU35" s="6"/>
+      <c r="AU35" s="18"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="11"/>
       <c r="AY35" s="8" t="s">
@@ -3855,7 +3911,7 @@
       </c>
       <c r="AK36" s="13"/>
       <c r="AL36" s="5"/>
-      <c r="AM36" s="6"/>
+      <c r="AM36" s="18"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="9" t="s">
@@ -3866,7 +3922,7 @@
       </c>
       <c r="AS36" s="13"/>
       <c r="AT36" s="5"/>
-      <c r="AU36" s="6"/>
+      <c r="AU36" s="18"/>
       <c r="AW36" s="4"/>
       <c r="AX36" s="11"/>
       <c r="AY36" s="8" t="s">
@@ -3928,7 +3984,7 @@
       </c>
       <c r="AK37" s="13"/>
       <c r="AL37" s="5"/>
-      <c r="AM37" s="6"/>
+      <c r="AM37" s="18"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="11"/>
       <c r="AQ37" s="9" t="s">
@@ -3941,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AT37" s="5"/>
-      <c r="AU37" s="6"/>
+      <c r="AU37" s="18"/>
       <c r="AW37" s="4"/>
       <c r="AX37" s="11"/>
       <c r="AY37" s="8"/>
@@ -3997,14 +4053,14 @@
       </c>
       <c r="AK38" s="13"/>
       <c r="AL38" s="5"/>
-      <c r="AM38" s="6"/>
+      <c r="AM38" s="18"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="11"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="13"/>
       <c r="AT38" s="5"/>
-      <c r="AU38" s="6"/>
+      <c r="AU38" s="18"/>
       <c r="AW38" s="4" t="s">
         <v>113</v>
       </c>
@@ -4076,7 +4132,7 @@
       </c>
       <c r="AK39" s="13"/>
       <c r="AL39" s="5"/>
-      <c r="AM39" s="6"/>
+      <c r="AM39" s="18"/>
       <c r="AO39" s="4" t="s">
         <v>86</v>
       </c>
@@ -4155,7 +4211,7 @@
       </c>
       <c r="AK40" s="13"/>
       <c r="AL40" s="5"/>
-      <c r="AM40" s="6"/>
+      <c r="AM40" s="18"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="11"/>
       <c r="AQ40" s="8"/>
@@ -4224,7 +4280,7 @@
       </c>
       <c r="AK41" s="13"/>
       <c r="AL41" s="5"/>
-      <c r="AM41" s="6"/>
+      <c r="AM41" s="18"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="11"/>
       <c r="AQ41" s="8" t="s">
@@ -4237,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="AT41" s="5"/>
-      <c r="AU41" s="6"/>
+      <c r="AU41" s="18"/>
       <c r="AW41" s="4"/>
       <c r="AX41" s="11"/>
       <c r="AY41" s="8" t="s">
@@ -4293,7 +4349,7 @@
       </c>
       <c r="AK42" s="13"/>
       <c r="AL42" s="5"/>
-      <c r="AM42" s="6"/>
+      <c r="AM42" s="18"/>
       <c r="AO42" s="4"/>
       <c r="AP42" s="11"/>
       <c r="AQ42" s="8" t="s">
@@ -4368,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="AL43" s="5"/>
-      <c r="AM43" s="6"/>
+      <c r="AM43" s="18"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="11"/>
       <c r="AQ43" s="8"/>
@@ -4427,7 +4483,7 @@
       <c r="AJ44" s="14"/>
       <c r="AK44" s="13"/>
       <c r="AL44" s="5"/>
-      <c r="AM44" s="6"/>
+      <c r="AM44" s="18"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="11"/>
       <c r="AQ44" s="8" t="s">
@@ -4438,7 +4494,7 @@
       </c>
       <c r="AS44" s="13"/>
       <c r="AT44" s="5"/>
-      <c r="AU44" s="6"/>
+      <c r="AU44" s="18"/>
       <c r="AW44" s="4"/>
       <c r="AX44" s="11"/>
       <c r="AY44" s="8" t="s">
@@ -4480,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="AL45" s="5"/>
-      <c r="AM45" s="6"/>
+      <c r="AM45" s="18"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="11"/>
       <c r="AQ45" s="8" t="s">
@@ -4491,7 +4547,7 @@
       </c>
       <c r="AS45" s="13"/>
       <c r="AT45" s="5"/>
-      <c r="AU45" s="6"/>
+      <c r="AU45" s="18"/>
       <c r="AW45" s="4"/>
       <c r="AX45" s="11"/>
       <c r="AY45" s="8" t="s">
@@ -4524,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="AL46" s="5"/>
-      <c r="AM46" s="6"/>
+      <c r="AM46" s="18"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="8" t="s">
@@ -4535,7 +4591,7 @@
       </c>
       <c r="AS46" s="13"/>
       <c r="AT46" s="5"/>
-      <c r="AU46" s="6"/>
+      <c r="AU46" s="18"/>
       <c r="AW46" s="4"/>
       <c r="AX46" s="11"/>
       <c r="AY46" s="8" t="s">
@@ -4568,7 +4624,7 @@
       </c>
       <c r="AK47" s="13"/>
       <c r="AL47" s="5"/>
-      <c r="AM47" s="6"/>
+      <c r="AM47" s="18"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="8" t="s">
@@ -4579,7 +4635,7 @@
       </c>
       <c r="AS47" s="13"/>
       <c r="AT47" s="5"/>
-      <c r="AU47" s="6"/>
+      <c r="AU47" s="18"/>
       <c r="AW47" s="4"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="8" t="s">
@@ -4610,7 +4666,7 @@
       </c>
       <c r="AK48" s="13"/>
       <c r="AL48" s="5"/>
-      <c r="AM48" s="6"/>
+      <c r="AM48" s="18"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="11"/>
       <c r="AQ48" s="8" t="s">
@@ -4621,7 +4677,7 @@
       </c>
       <c r="AS48" s="13"/>
       <c r="AT48" s="5"/>
-      <c r="AU48" s="6"/>
+      <c r="AU48" s="18"/>
       <c r="AW48" s="4"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="8" t="s">
@@ -4652,7 +4708,7 @@
       </c>
       <c r="AK49" s="13"/>
       <c r="AL49" s="5"/>
-      <c r="AM49" s="6"/>
+      <c r="AM49" s="18"/>
       <c r="AO49" s="4"/>
       <c r="AP49" s="11"/>
       <c r="AQ49" s="8" t="s">
@@ -4663,7 +4719,7 @@
       </c>
       <c r="AS49" s="13"/>
       <c r="AT49" s="5"/>
-      <c r="AU49" s="6"/>
+      <c r="AU49" s="18"/>
       <c r="AW49" s="4"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="8" t="s">
@@ -4694,7 +4750,7 @@
       </c>
       <c r="AK50" s="13"/>
       <c r="AL50" s="5"/>
-      <c r="AM50" s="6"/>
+      <c r="AM50" s="18"/>
       <c r="AO50" s="4"/>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="8" t="s">
@@ -4707,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="AT50" s="5"/>
-      <c r="AU50" s="6"/>
+      <c r="AU50" s="18"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="8" t="s">
@@ -4740,7 +4796,7 @@
       </c>
       <c r="AK51" s="13"/>
       <c r="AL51" s="5"/>
-      <c r="AM51" s="6"/>
+      <c r="AM51" s="18"/>
       <c r="AO51" s="4"/>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="8" t="s">
@@ -4753,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="AT51" s="5"/>
-      <c r="AU51" s="6"/>
+      <c r="AU51" s="18"/>
       <c r="AW51" s="4"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="8"/>
@@ -4782,14 +4838,14 @@
         <v>2</v>
       </c>
       <c r="AL52" s="5"/>
-      <c r="AM52" s="6"/>
+      <c r="AM52" s="18"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="8"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="13"/>
       <c r="AT52" s="5"/>
-      <c r="AU52" s="6"/>
+      <c r="AU52" s="18"/>
       <c r="AW52" s="4" t="s">
         <v>111</v>
       </c>
@@ -4826,7 +4882,7 @@
       </c>
       <c r="AK53" s="13"/>
       <c r="AL53" s="5"/>
-      <c r="AM53" s="6"/>
+      <c r="AM53" s="18"/>
       <c r="AO53" s="4" t="s">
         <v>86</v>
       </c>
@@ -4882,7 +4938,7 @@
       </c>
       <c r="AK54" s="13"/>
       <c r="AL54" s="5"/>
-      <c r="AM54" s="6"/>
+      <c r="AM54" s="18"/>
       <c r="AO54" s="4"/>
       <c r="AP54" s="11"/>
       <c r="AQ54" s="8"/>
@@ -4924,7 +4980,7 @@
       </c>
       <c r="AK55" s="13"/>
       <c r="AL55" s="5"/>
-      <c r="AM55" s="6"/>
+      <c r="AM55" s="18"/>
       <c r="AO55" s="4"/>
       <c r="AP55" s="11"/>
       <c r="AQ55" s="8" t="s">
@@ -4937,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="AT55" s="5"/>
-      <c r="AU55" s="6"/>
+      <c r="AU55" s="18"/>
       <c r="AW55" s="4"/>
       <c r="AX55" s="11"/>
       <c r="AY55" s="8" t="s">
@@ -4970,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="AL56" s="5"/>
-      <c r="AM56" s="6"/>
+      <c r="AM56" s="18"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="11"/>
       <c r="AQ56" s="8" t="s">
@@ -5012,7 +5068,7 @@
       <c r="AJ57" s="14"/>
       <c r="AK57" s="13"/>
       <c r="AL57" s="5"/>
-      <c r="AM57" s="6"/>
+      <c r="AM57" s="18"/>
       <c r="AO57" s="4"/>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="8"/>
@@ -5058,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="AL58" s="5"/>
-      <c r="AM58" s="6"/>
+      <c r="AM58" s="18"/>
       <c r="AO58" s="4"/>
       <c r="AP58" s="11"/>
       <c r="AQ58" s="8" t="s">
@@ -5069,7 +5125,7 @@
       </c>
       <c r="AS58" s="13"/>
       <c r="AT58" s="5"/>
-      <c r="AU58" s="6"/>
+      <c r="AU58" s="18"/>
       <c r="AW58" s="4"/>
       <c r="AX58" s="11"/>
       <c r="AY58" s="8" t="s">
@@ -5102,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="AL59" s="5"/>
-      <c r="AM59" s="6"/>
+      <c r="AM59" s="18"/>
       <c r="AO59" s="4"/>
       <c r="AP59" s="11"/>
       <c r="AQ59" s="8" t="s">
@@ -5113,7 +5169,7 @@
       </c>
       <c r="AS59" s="13"/>
       <c r="AT59" s="5"/>
-      <c r="AU59" s="6"/>
+      <c r="AU59" s="18"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="11"/>
       <c r="AY59" s="8" t="s">
@@ -5144,7 +5200,7 @@
       </c>
       <c r="AK60" s="13"/>
       <c r="AL60" s="5"/>
-      <c r="AM60" s="6"/>
+      <c r="AM60" s="18"/>
       <c r="AO60" s="4"/>
       <c r="AP60" s="11"/>
       <c r="AQ60" s="8" t="s">
@@ -5155,7 +5211,7 @@
       </c>
       <c r="AS60" s="13"/>
       <c r="AT60" s="5"/>
-      <c r="AU60" s="6"/>
+      <c r="AU60" s="18"/>
       <c r="AW60" s="4"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="8" t="s">
@@ -5188,7 +5244,7 @@
       </c>
       <c r="AK61" s="13"/>
       <c r="AL61" s="5"/>
-      <c r="AM61" s="6"/>
+      <c r="AM61" s="18"/>
       <c r="AO61" s="4"/>
       <c r="AP61" s="11"/>
       <c r="AQ61" s="8" t="s">
@@ -5199,7 +5255,7 @@
       </c>
       <c r="AS61" s="13"/>
       <c r="AT61" s="5"/>
-      <c r="AU61" s="6"/>
+      <c r="AU61" s="18"/>
       <c r="AW61" s="4"/>
       <c r="AX61" s="11"/>
       <c r="AY61" s="8" t="s">
@@ -5230,7 +5286,7 @@
       </c>
       <c r="AK62" s="13"/>
       <c r="AL62" s="5"/>
-      <c r="AM62" s="6"/>
+      <c r="AM62" s="18"/>
       <c r="AO62" s="4"/>
       <c r="AP62" s="11"/>
       <c r="AQ62" s="8" t="s">
@@ -5241,7 +5297,7 @@
       </c>
       <c r="AS62" s="13"/>
       <c r="AT62" s="5"/>
-      <c r="AU62" s="6"/>
+      <c r="AU62" s="18"/>
       <c r="AW62" s="4"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="8" t="s">
@@ -5272,7 +5328,7 @@
       </c>
       <c r="AK63" s="13"/>
       <c r="AL63" s="5"/>
-      <c r="AM63" s="6"/>
+      <c r="AM63" s="18"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="11"/>
       <c r="AQ63" s="8" t="s">
@@ -5283,7 +5339,7 @@
       </c>
       <c r="AS63" s="13"/>
       <c r="AT63" s="5"/>
-      <c r="AU63" s="6"/>
+      <c r="AU63" s="18"/>
       <c r="AW63" s="4"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="8" t="s">
@@ -5314,7 +5370,7 @@
       </c>
       <c r="AK64" s="13"/>
       <c r="AL64" s="5"/>
-      <c r="AM64" s="6"/>
+      <c r="AM64" s="18"/>
       <c r="AO64" s="4"/>
       <c r="AP64" s="11"/>
       <c r="AQ64" s="8" t="s">
@@ -5327,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="AT64" s="5"/>
-      <c r="AU64" s="6"/>
+      <c r="AU64" s="18"/>
       <c r="AW64" s="4"/>
       <c r="AX64" s="11"/>
       <c r="AY64" s="8" t="s">
@@ -5362,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="AL65" s="5"/>
-      <c r="AM65" s="6"/>
+      <c r="AM65" s="18"/>
       <c r="AO65" s="4"/>
       <c r="AP65" s="11"/>
       <c r="AQ65" s="8" t="s">
@@ -5375,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="AT65" s="5"/>
-      <c r="AU65" s="6"/>
+      <c r="AU65" s="18"/>
       <c r="AW65" s="4"/>
       <c r="AX65" s="11"/>
       <c r="AY65" s="8"/>
@@ -5402,14 +5458,14 @@
       </c>
       <c r="AK66" s="13"/>
       <c r="AL66" s="5"/>
-      <c r="AM66" s="6"/>
+      <c r="AM66" s="18"/>
       <c r="AO66" s="4"/>
       <c r="AP66" s="11"/>
       <c r="AQ66" s="8"/>
       <c r="AR66" s="14"/>
       <c r="AS66" s="13"/>
       <c r="AT66" s="5"/>
-      <c r="AU66" s="6"/>
+      <c r="AU66" s="18"/>
       <c r="AW66" s="4" t="s">
         <v>113</v>
       </c>
@@ -5446,7 +5502,7 @@
       </c>
       <c r="AK67" s="13"/>
       <c r="AL67" s="5"/>
-      <c r="AM67" s="6"/>
+      <c r="AM67" s="18"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="11" t="s">
         <v>78</v>
@@ -5500,7 +5556,7 @@
       </c>
       <c r="AK68" s="13"/>
       <c r="AL68" s="5"/>
-      <c r="AM68" s="6"/>
+      <c r="AM68" s="18"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="11"/>
       <c r="AQ68" s="8"/>
@@ -5544,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="AL69" s="5"/>
-      <c r="AM69" s="6"/>
+      <c r="AM69" s="18"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="11"/>
       <c r="AQ69" s="8" t="s">
@@ -5557,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="AT69" s="5"/>
-      <c r="AU69" s="6"/>
+      <c r="AU69" s="18"/>
       <c r="AW69" s="4"/>
       <c r="AX69" s="11"/>
       <c r="AY69" s="8" t="s">
@@ -5584,7 +5640,7 @@
       <c r="AJ70" s="14"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="5"/>
-      <c r="AM70" s="6"/>
+      <c r="AM70" s="18"/>
       <c r="AO70" s="4"/>
       <c r="AP70" s="11"/>
       <c r="AQ70" s="8" t="s">
@@ -5634,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="AL71" s="5"/>
-      <c r="AM71" s="6"/>
+      <c r="AM71" s="18"/>
       <c r="AO71" s="4"/>
       <c r="AP71" s="11"/>
       <c r="AQ71" s="8"/>
@@ -5678,7 +5734,7 @@
         <v>3</v>
       </c>
       <c r="AL72" s="5"/>
-      <c r="AM72" s="6"/>
+      <c r="AM72" s="18"/>
       <c r="AO72" s="4"/>
       <c r="AP72" s="11"/>
       <c r="AQ72" s="8" t="s">
@@ -5689,7 +5745,7 @@
       </c>
       <c r="AS72" s="13"/>
       <c r="AT72" s="5"/>
-      <c r="AU72" s="6"/>
+      <c r="AU72" s="18"/>
       <c r="AW72" s="4"/>
       <c r="AX72" s="11"/>
       <c r="AY72" s="8" t="s">
@@ -5720,7 +5776,7 @@
       </c>
       <c r="AK73" s="13"/>
       <c r="AL73" s="5"/>
-      <c r="AM73" s="6"/>
+      <c r="AM73" s="18"/>
       <c r="AO73" s="4"/>
       <c r="AP73" s="11"/>
       <c r="AQ73" s="8" t="s">
@@ -5731,7 +5787,7 @@
       </c>
       <c r="AS73" s="13"/>
       <c r="AT73" s="5"/>
-      <c r="AU73" s="6"/>
+      <c r="AU73" s="18"/>
       <c r="AW73" s="4"/>
       <c r="AX73" s="11"/>
       <c r="AY73" s="8" t="s">
@@ -5764,7 +5820,7 @@
       </c>
       <c r="AK74" s="13"/>
       <c r="AL74" s="5"/>
-      <c r="AM74" s="6"/>
+      <c r="AM74" s="18"/>
       <c r="AO74" s="4"/>
       <c r="AP74" s="11"/>
       <c r="AQ74" s="8" t="s">
@@ -5775,7 +5831,7 @@
       </c>
       <c r="AS74" s="13"/>
       <c r="AT74" s="5"/>
-      <c r="AU74" s="6"/>
+      <c r="AU74" s="18"/>
       <c r="AW74" s="4"/>
       <c r="AX74" s="11"/>
       <c r="AY74" s="8" t="s">
@@ -5806,7 +5862,7 @@
       </c>
       <c r="AK75" s="13"/>
       <c r="AL75" s="5"/>
-      <c r="AM75" s="6"/>
+      <c r="AM75" s="18"/>
       <c r="AO75" s="4"/>
       <c r="AP75" s="11"/>
       <c r="AQ75" s="8" t="s">
@@ -5817,7 +5873,7 @@
       </c>
       <c r="AS75" s="13"/>
       <c r="AT75" s="5"/>
-      <c r="AU75" s="6"/>
+      <c r="AU75" s="18"/>
       <c r="AW75" s="4"/>
       <c r="AX75" s="11"/>
       <c r="AY75" s="8" t="s">
@@ -5848,7 +5904,7 @@
       </c>
       <c r="AK76" s="13"/>
       <c r="AL76" s="5"/>
-      <c r="AM76" s="6"/>
+      <c r="AM76" s="18"/>
       <c r="AO76" s="4"/>
       <c r="AP76" s="11"/>
       <c r="AQ76" s="8" t="s">
@@ -5859,7 +5915,7 @@
       </c>
       <c r="AS76" s="13"/>
       <c r="AT76" s="5"/>
-      <c r="AU76" s="6"/>
+      <c r="AU76" s="18"/>
       <c r="AW76" s="4"/>
       <c r="AX76" s="11"/>
       <c r="AY76" s="8" t="s">
@@ -5892,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="AL77" s="5"/>
-      <c r="AM77" s="6"/>
+      <c r="AM77" s="18"/>
       <c r="AO77" s="4"/>
       <c r="AP77" s="11"/>
       <c r="AQ77" s="8" t="s">
@@ -5905,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AT77" s="5"/>
-      <c r="AU77" s="6"/>
+      <c r="AU77" s="18"/>
       <c r="AW77" s="4"/>
       <c r="AX77" s="11"/>
       <c r="AY77" s="8" t="s">
@@ -5938,7 +5994,7 @@
       </c>
       <c r="AK78" s="13"/>
       <c r="AL78" s="5"/>
-      <c r="AM78" s="6"/>
+      <c r="AM78" s="18"/>
       <c r="AO78" s="4"/>
       <c r="AP78" s="11"/>
       <c r="AQ78" s="8" t="s">
@@ -5951,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="AT78" s="5"/>
-      <c r="AU78" s="6"/>
+      <c r="AU78" s="18"/>
       <c r="AW78" s="4"/>
       <c r="AX78" s="11"/>
       <c r="AY78" s="8"/>
@@ -5978,14 +6034,14 @@
       </c>
       <c r="AK79" s="13"/>
       <c r="AL79" s="5"/>
-      <c r="AM79" s="6"/>
+      <c r="AM79" s="18"/>
       <c r="AO79" s="4"/>
       <c r="AP79" s="11"/>
       <c r="AQ79" s="8"/>
       <c r="AR79" s="14"/>
       <c r="AS79" s="13"/>
       <c r="AT79" s="5"/>
-      <c r="AU79" s="6"/>
+      <c r="AU79" s="18"/>
       <c r="AW79" s="4" t="s">
         <v>86</v>
       </c>
@@ -6022,7 +6078,7 @@
       </c>
       <c r="AK80" s="13"/>
       <c r="AL80" s="5"/>
-      <c r="AM80" s="6"/>
+      <c r="AM80" s="18"/>
       <c r="AO80" s="4" t="s">
         <v>86</v>
       </c>
@@ -6039,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="AT80" s="5"/>
-      <c r="AU80" s="6"/>
+      <c r="AU80" s="18"/>
       <c r="AW80" s="4"/>
       <c r="AX80" s="11"/>
       <c r="AY80" s="8" t="s">
@@ -6072,7 +6128,7 @@
       </c>
       <c r="AK81" s="13"/>
       <c r="AL81" s="5"/>
-      <c r="AM81" s="6"/>
+      <c r="AM81" s="18"/>
       <c r="AO81" s="4"/>
       <c r="AP81" s="11"/>
       <c r="AQ81" s="8" t="s">
@@ -6085,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="AT81" s="5"/>
-      <c r="AU81" s="6"/>
+      <c r="AU81" s="18"/>
       <c r="AW81" s="4"/>
       <c r="AX81" s="11"/>
       <c r="AY81" s="8" t="s">
@@ -6118,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="AL82" s="5"/>
-      <c r="AM82" s="6"/>
+      <c r="AM82" s="18"/>
       <c r="AO82" s="4"/>
       <c r="AP82" s="11"/>
       <c r="AQ82" s="8" t="s">
@@ -6129,7 +6185,7 @@
       </c>
       <c r="AS82" s="13"/>
       <c r="AT82" s="5"/>
-      <c r="AU82" s="6"/>
+      <c r="AU82" s="18"/>
       <c r="AW82" s="4"/>
       <c r="AX82" s="11"/>
       <c r="AY82" s="8" t="s">
@@ -6156,7 +6212,7 @@
       <c r="AJ83" s="14"/>
       <c r="AK83" s="13"/>
       <c r="AL83" s="5"/>
-      <c r="AM83" s="6"/>
+      <c r="AM83" s="18"/>
       <c r="AO83" s="4"/>
       <c r="AP83" s="11"/>
       <c r="AQ83" s="8" t="s">
@@ -6167,7 +6223,7 @@
       </c>
       <c r="AS83" s="13"/>
       <c r="AT83" s="5"/>
-      <c r="AU83" s="6"/>
+      <c r="AU83" s="18"/>
       <c r="AW83" s="4"/>
       <c r="AX83" s="11"/>
       <c r="AY83" s="8" t="s">
@@ -6202,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="AL84" s="5"/>
-      <c r="AM84" s="6"/>
+      <c r="AM84" s="18"/>
       <c r="AO84" s="4"/>
       <c r="AP84" s="11"/>
       <c r="AQ84" s="8" t="s">
@@ -6213,7 +6269,7 @@
       </c>
       <c r="AS84" s="13"/>
       <c r="AT84" s="5"/>
-      <c r="AU84" s="6"/>
+      <c r="AU84" s="18"/>
       <c r="AW84" s="4"/>
       <c r="AX84" s="11"/>
       <c r="AY84" s="8" t="s">
@@ -6246,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="AL85" s="5"/>
-      <c r="AM85" s="6"/>
+      <c r="AM85" s="18"/>
       <c r="AO85" s="4"/>
       <c r="AP85" s="11"/>
       <c r="AQ85" s="8" t="s">
@@ -6257,7 +6313,7 @@
       </c>
       <c r="AS85" s="13"/>
       <c r="AT85" s="5"/>
-      <c r="AU85" s="6"/>
+      <c r="AU85" s="18"/>
       <c r="AW85" s="4"/>
       <c r="AX85" s="11"/>
       <c r="AY85" s="8" t="s">
@@ -6292,7 +6348,7 @@
       </c>
       <c r="AK86" s="13"/>
       <c r="AL86" s="5"/>
-      <c r="AM86" s="6"/>
+      <c r="AM86" s="18"/>
       <c r="AO86" s="4"/>
       <c r="AP86" s="11"/>
       <c r="AQ86" s="8" t="s">
@@ -6338,7 +6394,7 @@
       </c>
       <c r="AK87" s="13"/>
       <c r="AL87" s="5"/>
-      <c r="AM87" s="6"/>
+      <c r="AM87" s="18"/>
       <c r="AO87" s="4"/>
       <c r="AP87" s="11"/>
       <c r="AQ87" s="8"/>
@@ -6382,7 +6438,7 @@
       </c>
       <c r="AK88" s="13"/>
       <c r="AL88" s="5"/>
-      <c r="AM88" s="6"/>
+      <c r="AM88" s="18"/>
       <c r="AO88" s="4"/>
       <c r="AP88" s="11"/>
       <c r="AQ88" s="8" t="s">
@@ -6393,7 +6449,7 @@
       </c>
       <c r="AS88" s="13"/>
       <c r="AT88" s="5"/>
-      <c r="AU88" s="6"/>
+      <c r="AU88" s="18"/>
       <c r="AW88" s="4"/>
       <c r="AX88" s="11"/>
       <c r="AY88" s="8" t="s">
@@ -6424,7 +6480,7 @@
       </c>
       <c r="AK89" s="13"/>
       <c r="AL89" s="5"/>
-      <c r="AM89" s="6"/>
+      <c r="AM89" s="18"/>
       <c r="AO89" s="4"/>
       <c r="AP89" s="11"/>
       <c r="AQ89" s="8" t="s">
@@ -6435,7 +6491,7 @@
       </c>
       <c r="AS89" s="13"/>
       <c r="AT89" s="5"/>
-      <c r="AU89" s="6"/>
+      <c r="AU89" s="18"/>
       <c r="AW89" s="4"/>
       <c r="AX89" s="11"/>
       <c r="AY89" s="8" t="s">
@@ -6466,7 +6522,7 @@
       </c>
       <c r="AK90" s="13"/>
       <c r="AL90" s="5"/>
-      <c r="AM90" s="6"/>
+      <c r="AM90" s="18"/>
       <c r="AO90" s="4"/>
       <c r="AP90" s="11"/>
       <c r="AQ90" s="8" t="s">
@@ -6479,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="AT90" s="5"/>
-      <c r="AU90" s="6"/>
+      <c r="AU90" s="18"/>
       <c r="AW90" s="4"/>
       <c r="AX90" s="11"/>
       <c r="AY90" s="8" t="s">
@@ -6512,7 +6568,7 @@
       </c>
       <c r="AK91" s="13"/>
       <c r="AL91" s="5"/>
-      <c r="AM91" s="6"/>
+      <c r="AM91" s="18"/>
       <c r="AO91" s="4"/>
       <c r="AP91" s="11"/>
       <c r="AQ91" s="8" t="s">
@@ -6525,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="AT91" s="5"/>
-      <c r="AU91" s="6"/>
+      <c r="AU91" s="18"/>
       <c r="AW91" s="4"/>
       <c r="AX91" s="11"/>
       <c r="AY91" s="8"/>
@@ -6554,14 +6610,14 @@
         <v>2</v>
       </c>
       <c r="AL92" s="5"/>
-      <c r="AM92" s="6"/>
+      <c r="AM92" s="18"/>
       <c r="AO92" s="4"/>
       <c r="AP92" s="11"/>
       <c r="AQ92" s="8"/>
       <c r="AR92" s="14"/>
       <c r="AS92" s="13"/>
       <c r="AT92" s="5"/>
-      <c r="AU92" s="6"/>
+      <c r="AU92" s="18"/>
       <c r="AW92" s="4"/>
       <c r="AX92" s="11" t="s">
         <v>122</v>
@@ -6596,7 +6652,7 @@
       </c>
       <c r="AK93" s="13"/>
       <c r="AL93" s="5"/>
-      <c r="AM93" s="6"/>
+      <c r="AM93" s="18"/>
       <c r="AO93" s="4" t="s">
         <v>86</v>
       </c>
@@ -6613,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="AT93" s="5"/>
-      <c r="AU93" s="6"/>
+      <c r="AU93" s="18"/>
       <c r="AW93" s="4"/>
       <c r="AX93" s="11"/>
       <c r="AY93" s="8" t="s">
@@ -6646,7 +6702,7 @@
       </c>
       <c r="AK94" s="13"/>
       <c r="AL94" s="5"/>
-      <c r="AM94" s="6"/>
+      <c r="AM94" s="18"/>
       <c r="AO94" s="4"/>
       <c r="AP94" s="11"/>
       <c r="AQ94" s="8" t="s">
@@ -6659,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="AT94" s="5"/>
-      <c r="AU94" s="6"/>
+      <c r="AU94" s="18"/>
       <c r="AW94" s="4"/>
       <c r="AX94" s="11"/>
       <c r="AY94" s="8" t="s">
@@ -6692,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="AL95" s="5"/>
-      <c r="AM95" s="6"/>
+      <c r="AM95" s="18"/>
       <c r="AO95" s="4"/>
       <c r="AP95" s="11"/>
       <c r="AQ95" s="8" t="s">
@@ -6703,7 +6759,7 @@
       </c>
       <c r="AS95" s="13"/>
       <c r="AT95" s="5"/>
-      <c r="AU95" s="6"/>
+      <c r="AU95" s="18"/>
       <c r="AW95" s="4"/>
       <c r="AX95" s="11"/>
       <c r="AY95" s="8" t="s">
@@ -6730,7 +6786,7 @@
       <c r="AJ96" s="14"/>
       <c r="AK96" s="13"/>
       <c r="AL96" s="5"/>
-      <c r="AM96" s="6"/>
+      <c r="AM96" s="18"/>
       <c r="AO96" s="4"/>
       <c r="AP96" s="11"/>
       <c r="AQ96" s="8" t="s">
@@ -6741,7 +6797,7 @@
       </c>
       <c r="AS96" s="13"/>
       <c r="AT96" s="5"/>
-      <c r="AU96" s="6"/>
+      <c r="AU96" s="18"/>
       <c r="AW96" s="4"/>
       <c r="AX96" s="11"/>
       <c r="AY96" s="8" t="s">
@@ -6776,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="AL97" s="5"/>
-      <c r="AM97" s="6"/>
+      <c r="AM97" s="18"/>
       <c r="AO97" s="4"/>
       <c r="AP97" s="11"/>
       <c r="AQ97" s="8" t="s">
@@ -6787,7 +6843,7 @@
       </c>
       <c r="AS97" s="13"/>
       <c r="AT97" s="5"/>
-      <c r="AU97" s="6"/>
+      <c r="AU97" s="18"/>
       <c r="AW97" s="4"/>
       <c r="AX97" s="11"/>
       <c r="AY97" s="8" t="s">
@@ -6824,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="AL98" s="5"/>
-      <c r="AM98" s="6"/>
+      <c r="AM98" s="18"/>
       <c r="AO98" s="4"/>
       <c r="AP98" s="11"/>
       <c r="AQ98" s="8" t="s">
@@ -6835,7 +6891,7 @@
       </c>
       <c r="AS98" s="13"/>
       <c r="AT98" s="5"/>
-      <c r="AU98" s="6"/>
+      <c r="AU98" s="18"/>
       <c r="AW98" s="4"/>
       <c r="AX98" s="11"/>
       <c r="AY98" s="8"/>
@@ -6866,7 +6922,7 @@
       </c>
       <c r="AK99" s="13"/>
       <c r="AL99" s="5"/>
-      <c r="AM99" s="6"/>
+      <c r="AM99" s="18"/>
       <c r="AO99" s="4"/>
       <c r="AP99" s="11"/>
       <c r="AQ99" s="8" t="s">
@@ -6914,7 +6970,7 @@
       </c>
       <c r="AK100" s="13"/>
       <c r="AL100" s="5"/>
-      <c r="AM100" s="6"/>
+      <c r="AM100" s="18"/>
       <c r="AO100" s="4"/>
       <c r="AP100" s="11"/>
       <c r="AQ100" s="8"/>
@@ -6956,7 +7012,7 @@
       </c>
       <c r="AK101" s="13"/>
       <c r="AL101" s="5"/>
-      <c r="AM101" s="6"/>
+      <c r="AM101" s="18"/>
       <c r="AO101" s="4"/>
       <c r="AP101" s="11"/>
       <c r="AQ101" s="8" t="s">
@@ -6967,7 +7023,7 @@
       </c>
       <c r="AS101" s="13"/>
       <c r="AT101" s="5"/>
-      <c r="AU101" s="6"/>
+      <c r="AU101" s="18"/>
       <c r="AW101" s="4"/>
       <c r="AX101" s="11"/>
       <c r="AY101" s="8" t="s">
@@ -6998,7 +7054,7 @@
       </c>
       <c r="AK102" s="13"/>
       <c r="AL102" s="5"/>
-      <c r="AM102" s="6"/>
+      <c r="AM102" s="18"/>
       <c r="AO102" s="4"/>
       <c r="AP102" s="11"/>
       <c r="AQ102" s="8" t="s">
@@ -7009,7 +7065,7 @@
       </c>
       <c r="AS102" s="13"/>
       <c r="AT102" s="5"/>
-      <c r="AU102" s="6"/>
+      <c r="AU102" s="18"/>
       <c r="AW102" s="4"/>
       <c r="AX102" s="11"/>
       <c r="AY102" s="8" t="s">
@@ -7042,7 +7098,7 @@
       </c>
       <c r="AK103" s="13"/>
       <c r="AL103" s="5"/>
-      <c r="AM103" s="6"/>
+      <c r="AM103" s="18"/>
       <c r="AO103" s="4"/>
       <c r="AP103" s="11"/>
       <c r="AQ103" s="8" t="s">
@@ -7055,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="AT103" s="5"/>
-      <c r="AU103" s="6"/>
+      <c r="AU103" s="18"/>
       <c r="AW103" s="4"/>
       <c r="AX103" s="11"/>
       <c r="AY103" s="8"/>
@@ -7082,7 +7138,7 @@
       </c>
       <c r="AK104" s="13"/>
       <c r="AL104" s="5"/>
-      <c r="AM104" s="6"/>
+      <c r="AM104" s="18"/>
       <c r="AO104" s="4"/>
       <c r="AP104" s="11"/>
       <c r="AQ104" s="8" t="s">
@@ -7095,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="AT104" s="5"/>
-      <c r="AU104" s="6"/>
+      <c r="AU104" s="18"/>
       <c r="AW104" s="4" t="s">
         <v>111</v>
       </c>
@@ -7138,14 +7194,14 @@
         <v>2</v>
       </c>
       <c r="AL105" s="5"/>
-      <c r="AM105" s="6"/>
+      <c r="AM105" s="18"/>
       <c r="AO105" s="4"/>
       <c r="AP105" s="11"/>
       <c r="AQ105" s="8"/>
       <c r="AR105" s="14"/>
       <c r="AS105" s="13"/>
       <c r="AT105" s="5"/>
-      <c r="AU105" s="6"/>
+      <c r="AU105" s="18"/>
       <c r="AW105" s="4"/>
       <c r="AX105" s="11"/>
       <c r="AY105" s="8"/>
@@ -7176,7 +7232,7 @@
       </c>
       <c r="AK106" s="13"/>
       <c r="AL106" s="5"/>
-      <c r="AM106" s="6"/>
+      <c r="AM106" s="18"/>
       <c r="AO106" s="4"/>
       <c r="AP106" s="11" t="s">
         <v>87</v>
@@ -7191,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="AT106" s="5"/>
-      <c r="AU106" s="6"/>
+      <c r="AU106" s="18"/>
       <c r="AW106" s="4"/>
       <c r="AX106" s="11"/>
       <c r="AY106" s="8" t="s">
@@ -7224,7 +7280,7 @@
       </c>
       <c r="AK107" s="13"/>
       <c r="AL107" s="5"/>
-      <c r="AM107" s="6"/>
+      <c r="AM107" s="18"/>
       <c r="AO107" s="4"/>
       <c r="AP107" s="11"/>
       <c r="AQ107" s="8" t="s">
@@ -7237,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="AT107" s="5"/>
-      <c r="AU107" s="6"/>
+      <c r="AU107" s="18"/>
       <c r="AW107" s="4"/>
       <c r="AX107" s="11"/>
       <c r="AY107" s="8" t="s">
@@ -7270,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AL108" s="5"/>
-      <c r="AM108" s="6"/>
+      <c r="AM108" s="18"/>
       <c r="AO108" s="4"/>
       <c r="AP108" s="11"/>
       <c r="AQ108" s="8" t="s">
@@ -7281,7 +7337,7 @@
       </c>
       <c r="AS108" s="13"/>
       <c r="AT108" s="5"/>
-      <c r="AU108" s="6"/>
+      <c r="AU108" s="18"/>
       <c r="AW108" s="4"/>
       <c r="AX108" s="11"/>
       <c r="AY108" s="8" t="s">
@@ -7308,7 +7364,7 @@
       <c r="AJ109" s="14"/>
       <c r="AK109" s="13"/>
       <c r="AL109" s="5"/>
-      <c r="AM109" s="6"/>
+      <c r="AM109" s="18"/>
       <c r="AO109" s="4"/>
       <c r="AP109" s="11"/>
       <c r="AQ109" s="8" t="s">
@@ -7319,7 +7375,7 @@
       </c>
       <c r="AS109" s="13"/>
       <c r="AT109" s="5"/>
-      <c r="AU109" s="6"/>
+      <c r="AU109" s="18"/>
       <c r="AW109" s="4"/>
       <c r="AX109" s="11"/>
       <c r="AY109" s="8" t="s">
@@ -7354,7 +7410,7 @@
         <v>4</v>
       </c>
       <c r="AL110" s="5"/>
-      <c r="AM110" s="6"/>
+      <c r="AM110" s="18"/>
       <c r="AO110" s="4"/>
       <c r="AP110" s="11"/>
       <c r="AQ110" s="8" t="s">
@@ -7365,7 +7421,7 @@
       </c>
       <c r="AS110" s="13"/>
       <c r="AT110" s="5"/>
-      <c r="AU110" s="6"/>
+      <c r="AU110" s="18"/>
       <c r="AW110" s="4"/>
       <c r="AX110" s="11"/>
       <c r="AY110" s="8" t="s">
@@ -7398,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="AL111" s="5"/>
-      <c r="AM111" s="6"/>
+      <c r="AM111" s="18"/>
       <c r="AO111" s="4"/>
       <c r="AP111" s="11"/>
       <c r="AQ111" s="8" t="s">
@@ -7448,7 +7504,7 @@
       </c>
       <c r="AK112" s="13"/>
       <c r="AL112" s="5"/>
-      <c r="AM112" s="6"/>
+      <c r="AM112" s="18"/>
       <c r="AO112" s="4"/>
       <c r="AP112" s="11"/>
       <c r="AQ112" s="8"/>
@@ -7490,7 +7546,7 @@
       </c>
       <c r="AK113" s="13"/>
       <c r="AL113" s="5"/>
-      <c r="AM113" s="6"/>
+      <c r="AM113" s="18"/>
       <c r="AO113" s="4"/>
       <c r="AP113" s="11"/>
       <c r="AQ113" s="8" t="s">
@@ -7501,7 +7557,7 @@
       </c>
       <c r="AS113" s="13"/>
       <c r="AT113" s="5"/>
-      <c r="AU113" s="6"/>
+      <c r="AU113" s="18"/>
       <c r="AW113" s="4"/>
       <c r="AX113" s="11"/>
       <c r="AY113" s="8" t="s">
@@ -7534,7 +7590,7 @@
       </c>
       <c r="AK114" s="13"/>
       <c r="AL114" s="5"/>
-      <c r="AM114" s="6"/>
+      <c r="AM114" s="18"/>
       <c r="AO114" s="4"/>
       <c r="AP114" s="11"/>
       <c r="AQ114" s="8" t="s">
@@ -7545,7 +7601,7 @@
       </c>
       <c r="AS114" s="13"/>
       <c r="AT114" s="5"/>
-      <c r="AU114" s="6"/>
+      <c r="AU114" s="18"/>
       <c r="AW114" s="4"/>
       <c r="AX114" s="11"/>
       <c r="AY114" s="8" t="s">
@@ -7576,7 +7632,7 @@
       </c>
       <c r="AK115" s="13"/>
       <c r="AL115" s="5"/>
-      <c r="AM115" s="6"/>
+      <c r="AM115" s="18"/>
       <c r="AO115" s="4"/>
       <c r="AP115" s="11"/>
       <c r="AQ115" s="8" t="s">
@@ -7589,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="AT115" s="5"/>
-      <c r="AU115" s="6"/>
+      <c r="AU115" s="18"/>
       <c r="AW115" s="4"/>
       <c r="AX115" s="11"/>
       <c r="AY115" s="8" t="s">
@@ -7620,7 +7676,7 @@
       </c>
       <c r="AK116" s="13"/>
       <c r="AL116" s="5"/>
-      <c r="AM116" s="6"/>
+      <c r="AM116" s="18"/>
       <c r="AO116" s="4"/>
       <c r="AP116" s="11"/>
       <c r="AQ116" s="8" t="s">
@@ -7633,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="AT116" s="5"/>
-      <c r="AU116" s="6"/>
+      <c r="AU116" s="18"/>
       <c r="AW116" s="4"/>
       <c r="AX116" s="11"/>
       <c r="AY116" s="8" t="s">
@@ -7666,14 +7722,14 @@
         <v>2</v>
       </c>
       <c r="AL117" s="5"/>
-      <c r="AM117" s="6"/>
+      <c r="AM117" s="18"/>
       <c r="AO117" s="4"/>
       <c r="AP117" s="11"/>
       <c r="AQ117" s="8"/>
       <c r="AR117" s="14"/>
       <c r="AS117" s="13"/>
       <c r="AT117" s="5"/>
-      <c r="AU117" s="6"/>
+      <c r="AU117" s="18"/>
       <c r="AW117" s="4"/>
       <c r="AX117" s="11"/>
       <c r="AY117" s="8" t="s">
@@ -7706,7 +7762,7 @@
       </c>
       <c r="AK118" s="13"/>
       <c r="AL118" s="5"/>
-      <c r="AM118" s="6"/>
+      <c r="AM118" s="18"/>
       <c r="AO118" s="4" t="s">
         <v>86</v>
       </c>
@@ -7723,7 +7779,7 @@
         <v>4</v>
       </c>
       <c r="AT118" s="5"/>
-      <c r="AU118" s="6"/>
+      <c r="AU118" s="18"/>
       <c r="AW118" s="4"/>
       <c r="AX118" s="11"/>
       <c r="AY118" s="8"/>
@@ -7750,7 +7806,7 @@
       </c>
       <c r="AK119" s="13"/>
       <c r="AL119" s="5"/>
-      <c r="AM119" s="6"/>
+      <c r="AM119" s="18"/>
       <c r="AO119" s="4"/>
       <c r="AP119" s="11"/>
       <c r="AQ119" s="8" t="s">
@@ -7763,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="AT119" s="5"/>
-      <c r="AU119" s="6"/>
+      <c r="AU119" s="18"/>
       <c r="AW119" s="4" t="s">
         <v>113</v>
       </c>
@@ -7804,7 +7860,7 @@
       </c>
       <c r="AK120" s="13"/>
       <c r="AL120" s="5"/>
-      <c r="AM120" s="6"/>
+      <c r="AM120" s="18"/>
       <c r="AO120" s="4"/>
       <c r="AP120" s="11"/>
       <c r="AQ120" s="8" t="s">
@@ -7815,7 +7871,7 @@
       </c>
       <c r="AS120" s="13"/>
       <c r="AT120" s="5"/>
-      <c r="AU120" s="6"/>
+      <c r="AU120" s="18"/>
       <c r="AW120" s="4"/>
       <c r="AX120" s="11"/>
       <c r="AY120" s="8"/>
@@ -7848,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="AL121" s="5"/>
-      <c r="AM121" s="6"/>
+      <c r="AM121" s="18"/>
       <c r="AO121" s="4"/>
       <c r="AP121" s="11"/>
       <c r="AQ121" s="8" t="s">
@@ -7859,7 +7915,7 @@
       </c>
       <c r="AS121" s="13"/>
       <c r="AT121" s="5"/>
-      <c r="AU121" s="6"/>
+      <c r="AU121" s="18"/>
       <c r="AW121" s="4"/>
       <c r="AX121" s="11"/>
       <c r="AY121" s="8" t="s">
@@ -7888,7 +7944,7 @@
       <c r="AJ122" s="14"/>
       <c r="AK122" s="13"/>
       <c r="AL122" s="5"/>
-      <c r="AM122" s="6"/>
+      <c r="AM122" s="18"/>
       <c r="AO122" s="4"/>
       <c r="AP122" s="11"/>
       <c r="AQ122" s="8" t="s">
@@ -7899,7 +7955,7 @@
       </c>
       <c r="AS122" s="13"/>
       <c r="AT122" s="5"/>
-      <c r="AU122" s="6"/>
+      <c r="AU122" s="18"/>
       <c r="AW122" s="4"/>
       <c r="AX122" s="11"/>
       <c r="AY122" s="8" t="s">
@@ -7934,7 +7990,7 @@
         <v>4</v>
       </c>
       <c r="AL123" s="5"/>
-      <c r="AM123" s="6"/>
+      <c r="AM123" s="18"/>
       <c r="AO123" s="4"/>
       <c r="AP123" s="11"/>
       <c r="AQ123" s="8" t="s">
@@ -7945,7 +8001,7 @@
       </c>
       <c r="AS123" s="13"/>
       <c r="AT123" s="5"/>
-      <c r="AU123" s="6"/>
+      <c r="AU123" s="18"/>
       <c r="AW123" s="4"/>
       <c r="AX123" s="11"/>
       <c r="AY123" s="8" t="s">
@@ -7978,7 +8034,7 @@
         <v>3</v>
       </c>
       <c r="AL124" s="5"/>
-      <c r="AM124" s="6"/>
+      <c r="AM124" s="18"/>
       <c r="AO124" s="4"/>
       <c r="AP124" s="11"/>
       <c r="AQ124" s="8" t="s">
@@ -8024,7 +8080,7 @@
       </c>
       <c r="AK125" s="13"/>
       <c r="AL125" s="5"/>
-      <c r="AM125" s="6"/>
+      <c r="AM125" s="18"/>
       <c r="AO125" s="4"/>
       <c r="AP125" s="11"/>
       <c r="AQ125" s="8"/>
@@ -8070,7 +8126,7 @@
       </c>
       <c r="AK126" s="13"/>
       <c r="AL126" s="5"/>
-      <c r="AM126" s="6"/>
+      <c r="AM126" s="18"/>
       <c r="AO126" s="4"/>
       <c r="AP126" s="11"/>
       <c r="AQ126" s="8" t="s">
@@ -8081,7 +8137,7 @@
       </c>
       <c r="AS126" s="13"/>
       <c r="AT126" s="5"/>
-      <c r="AU126" s="6"/>
+      <c r="AU126" s="18"/>
       <c r="AW126" s="4"/>
       <c r="AX126" s="11"/>
       <c r="AY126" s="8"/>
@@ -8112,7 +8168,7 @@
       </c>
       <c r="AK127" s="13"/>
       <c r="AL127" s="5"/>
-      <c r="AM127" s="6"/>
+      <c r="AM127" s="18"/>
       <c r="AO127" s="4"/>
       <c r="AP127" s="11"/>
       <c r="AQ127" s="8" t="s">
@@ -8125,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="AT127" s="5"/>
-      <c r="AU127" s="6"/>
+      <c r="AU127" s="18"/>
       <c r="AW127" s="4"/>
       <c r="AX127" s="11"/>
       <c r="AY127" s="8" t="s">
@@ -8158,7 +8214,7 @@
       </c>
       <c r="AK128" s="13"/>
       <c r="AL128" s="5"/>
-      <c r="AM128" s="6"/>
+      <c r="AM128" s="18"/>
       <c r="AO128" s="4"/>
       <c r="AP128" s="11"/>
       <c r="AQ128" s="8" t="s">
@@ -8169,7 +8225,7 @@
       </c>
       <c r="AS128" s="13"/>
       <c r="AT128" s="5"/>
-      <c r="AU128" s="6"/>
+      <c r="AU128" s="18"/>
       <c r="AW128" s="4"/>
       <c r="AX128" s="11"/>
       <c r="AY128" s="8" t="s">
@@ -8202,7 +8258,7 @@
         <v>2</v>
       </c>
       <c r="AL129" s="5"/>
-      <c r="AM129" s="6"/>
+      <c r="AM129" s="18"/>
       <c r="AO129" s="4"/>
       <c r="AP129" s="11"/>
       <c r="AQ129" s="8" t="s">
@@ -8213,7 +8269,7 @@
       </c>
       <c r="AS129" s="13"/>
       <c r="AT129" s="5"/>
-      <c r="AU129" s="6"/>
+      <c r="AU129" s="18"/>
       <c r="AW129" s="4"/>
       <c r="AX129" s="11"/>
       <c r="AY129" s="8" t="s">
@@ -8244,7 +8300,7 @@
       </c>
       <c r="AK130" s="13"/>
       <c r="AL130" s="5"/>
-      <c r="AM130" s="6"/>
+      <c r="AM130" s="18"/>
       <c r="AO130" s="4"/>
       <c r="AP130" s="11"/>
       <c r="AQ130" s="8" t="s">
@@ -8257,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="AT130" s="5"/>
-      <c r="AU130" s="6"/>
+      <c r="AU130" s="18"/>
       <c r="AW130" s="4"/>
       <c r="AX130" s="11"/>
       <c r="AY130" s="8" t="s">
@@ -8288,14 +8344,14 @@
       </c>
       <c r="AK131" s="13"/>
       <c r="AL131" s="5"/>
-      <c r="AM131" s="6"/>
+      <c r="AM131" s="18"/>
       <c r="AO131" s="4"/>
       <c r="AP131" s="11"/>
       <c r="AQ131" s="8"/>
       <c r="AR131" s="14"/>
       <c r="AS131" s="13"/>
       <c r="AT131" s="5"/>
-      <c r="AU131" s="6"/>
+      <c r="AU131" s="18"/>
       <c r="AW131" s="4"/>
       <c r="AX131" s="11"/>
       <c r="AY131" s="8" t="s">
@@ -8328,7 +8384,7 @@
       </c>
       <c r="AK132" s="13"/>
       <c r="AL132" s="5"/>
-      <c r="AM132" s="6"/>
+      <c r="AM132" s="18"/>
       <c r="AO132" s="4" t="s">
         <v>86</v>
       </c>
@@ -8345,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="AT132" s="5"/>
-      <c r="AU132" s="6"/>
+      <c r="AU132" s="18"/>
       <c r="AW132" s="4"/>
       <c r="AX132" s="11"/>
       <c r="AY132" s="8"/>
@@ -8372,7 +8428,7 @@
       </c>
       <c r="AK133" s="13"/>
       <c r="AL133" s="5"/>
-      <c r="AM133" s="6"/>
+      <c r="AM133" s="18"/>
       <c r="AO133" s="4"/>
       <c r="AP133" s="11"/>
       <c r="AQ133" s="8" t="s">
@@ -8385,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="AT133" s="5"/>
-      <c r="AU133" s="6"/>
+      <c r="AU133" s="18"/>
       <c r="AW133" s="4" t="s">
         <v>111</v>
       </c>
@@ -8426,7 +8482,7 @@
       </c>
       <c r="AK134" s="13"/>
       <c r="AL134" s="5"/>
-      <c r="AM134" s="6"/>
+      <c r="AM134" s="18"/>
       <c r="AO134" s="4"/>
       <c r="AP134" s="11"/>
       <c r="AQ134" s="8" t="s">
@@ -8437,7 +8493,7 @@
       </c>
       <c r="AS134" s="13"/>
       <c r="AT134" s="5"/>
-      <c r="AU134" s="6"/>
+      <c r="AU134" s="18"/>
       <c r="AW134" s="4"/>
       <c r="AX134" s="11"/>
       <c r="AY134" s="8"/>
@@ -8470,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="AL135" s="5"/>
-      <c r="AM135" s="6"/>
+      <c r="AM135" s="18"/>
       <c r="AO135" s="4"/>
       <c r="AP135" s="11"/>
       <c r="AQ135" s="8" t="s">
@@ -8481,7 +8537,7 @@
       </c>
       <c r="AS135" s="13"/>
       <c r="AT135" s="5"/>
-      <c r="AU135" s="6"/>
+      <c r="AU135" s="18"/>
       <c r="AW135" s="4"/>
       <c r="AX135" s="11"/>
       <c r="AY135" s="8" t="s">
@@ -8510,7 +8566,7 @@
       <c r="AJ136" s="14"/>
       <c r="AK136" s="13"/>
       <c r="AL136" s="5"/>
-      <c r="AM136" s="6"/>
+      <c r="AM136" s="18"/>
       <c r="AO136" s="4"/>
       <c r="AP136" s="11"/>
       <c r="AQ136" s="8" t="s">
@@ -8521,7 +8577,7 @@
       </c>
       <c r="AS136" s="13"/>
       <c r="AT136" s="5"/>
-      <c r="AU136" s="6"/>
+      <c r="AU136" s="18"/>
       <c r="AW136" s="4"/>
       <c r="AX136" s="11"/>
       <c r="AY136" s="8" t="s">
@@ -8556,7 +8612,7 @@
         <v>4</v>
       </c>
       <c r="AL137" s="5"/>
-      <c r="AM137" s="6"/>
+      <c r="AM137" s="18"/>
       <c r="AO137" s="4"/>
       <c r="AP137" s="11"/>
       <c r="AQ137" s="8" t="s">
@@ -8567,7 +8623,7 @@
       </c>
       <c r="AS137" s="13"/>
       <c r="AT137" s="5"/>
-      <c r="AU137" s="6"/>
+      <c r="AU137" s="18"/>
       <c r="AW137" s="4"/>
       <c r="AX137" s="11"/>
       <c r="AY137" s="8" t="s">
@@ -8600,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="AL138" s="5"/>
-      <c r="AM138" s="6"/>
+      <c r="AM138" s="18"/>
       <c r="AO138" s="4"/>
       <c r="AP138" s="11"/>
       <c r="AQ138" s="8" t="s">
@@ -8646,7 +8702,7 @@
       </c>
       <c r="AK139" s="13"/>
       <c r="AL139" s="5"/>
-      <c r="AM139" s="6"/>
+      <c r="AM139" s="18"/>
       <c r="AO139" s="4"/>
       <c r="AP139" s="11"/>
       <c r="AQ139" s="8"/>
@@ -8688,7 +8744,7 @@
       </c>
       <c r="AK140" s="13"/>
       <c r="AL140" s="5"/>
-      <c r="AM140" s="6"/>
+      <c r="AM140" s="18"/>
       <c r="AO140" s="4"/>
       <c r="AP140" s="11"/>
       <c r="AQ140" s="8" t="s">
@@ -8699,7 +8755,7 @@
       </c>
       <c r="AS140" s="13"/>
       <c r="AT140" s="5"/>
-      <c r="AU140" s="6"/>
+      <c r="AU140" s="18"/>
       <c r="AW140" s="4"/>
       <c r="AX140" s="11"/>
       <c r="AY140" s="8" t="s">
@@ -8734,7 +8790,7 @@
       </c>
       <c r="AK141" s="13"/>
       <c r="AL141" s="5"/>
-      <c r="AM141" s="6"/>
+      <c r="AM141" s="18"/>
       <c r="AO141" s="4"/>
       <c r="AP141" s="11"/>
       <c r="AQ141" s="8" t="s">
@@ -8747,7 +8803,7 @@
         <v>2</v>
       </c>
       <c r="AT141" s="5"/>
-      <c r="AU141" s="6"/>
+      <c r="AU141" s="18"/>
       <c r="AW141" s="4"/>
       <c r="AX141" s="11"/>
       <c r="AY141" s="8"/>
@@ -8778,7 +8834,7 @@
       </c>
       <c r="AK142" s="13"/>
       <c r="AL142" s="5"/>
-      <c r="AM142" s="6"/>
+      <c r="AM142" s="18"/>
       <c r="AO142" s="4"/>
       <c r="AP142" s="11"/>
       <c r="AQ142" s="8" t="s">
@@ -8789,7 +8845,7 @@
       </c>
       <c r="AS142" s="13"/>
       <c r="AT142" s="5"/>
-      <c r="AU142" s="6"/>
+      <c r="AU142" s="18"/>
       <c r="AW142" s="4"/>
       <c r="AX142" s="11"/>
       <c r="AY142" s="8" t="s">
@@ -8824,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="AL143" s="5"/>
-      <c r="AM143" s="6"/>
+      <c r="AM143" s="18"/>
       <c r="AO143" s="4"/>
       <c r="AP143" s="11"/>
       <c r="AQ143" s="8" t="s">
@@ -8835,7 +8891,7 @@
       </c>
       <c r="AS143" s="13"/>
       <c r="AT143" s="5"/>
-      <c r="AU143" s="6"/>
+      <c r="AU143" s="18"/>
       <c r="AW143" s="4"/>
       <c r="AX143" s="11"/>
       <c r="AY143" s="8" t="s">
@@ -8866,7 +8922,7 @@
       </c>
       <c r="AK144" s="13"/>
       <c r="AL144" s="5"/>
-      <c r="AM144" s="6"/>
+      <c r="AM144" s="18"/>
       <c r="AO144" s="4"/>
       <c r="AP144" s="11"/>
       <c r="AQ144" s="8" t="s">
@@ -8879,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="AT144" s="5"/>
-      <c r="AU144" s="6"/>
+      <c r="AU144" s="18"/>
       <c r="AW144" s="4"/>
       <c r="AX144" s="11"/>
       <c r="AY144" s="8" t="s">
@@ -8910,14 +8966,14 @@
       </c>
       <c r="AK145" s="13"/>
       <c r="AL145" s="5"/>
-      <c r="AM145" s="6"/>
+      <c r="AM145" s="18"/>
       <c r="AO145" s="4"/>
       <c r="AP145" s="11"/>
       <c r="AQ145" s="8"/>
       <c r="AR145" s="14"/>
       <c r="AS145" s="13"/>
       <c r="AT145" s="5"/>
-      <c r="AU145" s="6"/>
+      <c r="AU145" s="18"/>
       <c r="AW145" s="4"/>
       <c r="AX145" s="11"/>
       <c r="AY145" s="8" t="s">
@@ -8948,7 +9004,7 @@
       </c>
       <c r="AK146" s="13"/>
       <c r="AL146" s="5"/>
-      <c r="AM146" s="6"/>
+      <c r="AM146" s="18"/>
       <c r="AO146" s="4"/>
       <c r="AP146" s="11" t="s">
         <v>91</v>
@@ -8963,7 +9019,7 @@
         <v>4</v>
       </c>
       <c r="AT146" s="5"/>
-      <c r="AU146" s="6"/>
+      <c r="AU146" s="18"/>
       <c r="AW146" s="4"/>
       <c r="AX146" s="11"/>
       <c r="AY146" s="8" t="s">
@@ -8996,7 +9052,7 @@
       </c>
       <c r="AK147" s="13"/>
       <c r="AL147" s="5"/>
-      <c r="AM147" s="6"/>
+      <c r="AM147" s="18"/>
       <c r="AO147" s="4"/>
       <c r="AP147" s="11"/>
       <c r="AQ147" s="8" t="s">
@@ -9009,7 +9065,7 @@
         <v>3</v>
       </c>
       <c r="AT147" s="5"/>
-      <c r="AU147" s="6"/>
+      <c r="AU147" s="18"/>
       <c r="AW147" s="4"/>
       <c r="AX147" s="11"/>
       <c r="AY147" s="8"/>
@@ -9036,7 +9092,7 @@
       </c>
       <c r="AK148" s="13"/>
       <c r="AL148" s="5"/>
-      <c r="AM148" s="6"/>
+      <c r="AM148" s="18"/>
       <c r="AO148" s="4"/>
       <c r="AP148" s="11"/>
       <c r="AQ148" s="8" t="s">
@@ -9047,7 +9103,7 @@
       </c>
       <c r="AS148" s="13"/>
       <c r="AT148" s="5"/>
-      <c r="AU148" s="6"/>
+      <c r="AU148" s="18"/>
       <c r="AW148" s="4" t="s">
         <v>113</v>
       </c>
@@ -9090,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="AL149" s="5"/>
-      <c r="AM149" s="6"/>
+      <c r="AM149" s="18"/>
       <c r="AO149" s="4"/>
       <c r="AP149" s="11"/>
       <c r="AQ149" s="8" t="s">
@@ -9101,7 +9157,7 @@
       </c>
       <c r="AS149" s="13"/>
       <c r="AT149" s="5"/>
-      <c r="AU149" s="6"/>
+      <c r="AU149" s="18"/>
       <c r="AW149" s="4"/>
       <c r="AX149" s="11"/>
       <c r="AY149" s="8"/>
@@ -9128,7 +9184,7 @@
       <c r="AJ150" s="14"/>
       <c r="AK150" s="13"/>
       <c r="AL150" s="5"/>
-      <c r="AM150" s="6"/>
+      <c r="AM150" s="18"/>
       <c r="AO150" s="4"/>
       <c r="AP150" s="11"/>
       <c r="AQ150" s="8" t="s">
@@ -9139,7 +9195,7 @@
       </c>
       <c r="AS150" s="13"/>
       <c r="AT150" s="5"/>
-      <c r="AU150" s="6"/>
+      <c r="AU150" s="18"/>
       <c r="AW150" s="4"/>
       <c r="AX150" s="11"/>
       <c r="AY150" s="8" t="s">
@@ -9176,7 +9232,7 @@
         <v>4</v>
       </c>
       <c r="AL151" s="5"/>
-      <c r="AM151" s="6"/>
+      <c r="AM151" s="18"/>
       <c r="AO151" s="4"/>
       <c r="AP151" s="11"/>
       <c r="AQ151" s="8" t="s">
@@ -9224,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="AL152" s="5"/>
-      <c r="AM152" s="6"/>
+      <c r="AM152" s="18"/>
       <c r="AO152" s="4"/>
       <c r="AP152" s="11"/>
       <c r="AQ152" s="8"/>
@@ -9266,7 +9322,7 @@
       </c>
       <c r="AK153" s="13"/>
       <c r="AL153" s="5"/>
-      <c r="AM153" s="6"/>
+      <c r="AM153" s="18"/>
       <c r="AO153" s="4"/>
       <c r="AP153" s="11"/>
       <c r="AQ153" s="8" t="s">
@@ -9277,7 +9333,7 @@
       </c>
       <c r="AS153" s="13"/>
       <c r="AT153" s="5"/>
-      <c r="AU153" s="6"/>
+      <c r="AU153" s="18"/>
       <c r="AW153" s="4"/>
       <c r="AX153" s="11"/>
       <c r="AY153" s="8" t="s">
@@ -9308,7 +9364,7 @@
       </c>
       <c r="AK154" s="13"/>
       <c r="AL154" s="5"/>
-      <c r="AM154" s="6"/>
+      <c r="AM154" s="18"/>
       <c r="AO154" s="4"/>
       <c r="AP154" s="11"/>
       <c r="AQ154" s="8" t="s">
@@ -9321,7 +9377,7 @@
         <v>2</v>
       </c>
       <c r="AT154" s="5"/>
-      <c r="AU154" s="6"/>
+      <c r="AU154" s="18"/>
       <c r="AW154" s="4"/>
       <c r="AX154" s="11"/>
       <c r="AY154" s="8" t="s">
@@ -9356,7 +9412,7 @@
       </c>
       <c r="AK155" s="13"/>
       <c r="AL155" s="5"/>
-      <c r="AM155" s="6"/>
+      <c r="AM155" s="18"/>
       <c r="AO155" s="4"/>
       <c r="AP155" s="11"/>
       <c r="AQ155" s="8" t="s">
@@ -9367,7 +9423,7 @@
       </c>
       <c r="AS155" s="13"/>
       <c r="AT155" s="5"/>
-      <c r="AU155" s="6"/>
+      <c r="AU155" s="18"/>
       <c r="AW155" s="4"/>
       <c r="AX155" s="11"/>
       <c r="AY155" s="8"/>
@@ -9400,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="AL156" s="5"/>
-      <c r="AM156" s="6"/>
+      <c r="AM156" s="18"/>
       <c r="AO156" s="4"/>
       <c r="AP156" s="11"/>
       <c r="AQ156" s="8" t="s">
@@ -9411,7 +9467,7 @@
       </c>
       <c r="AS156" s="13"/>
       <c r="AT156" s="5"/>
-      <c r="AU156" s="6"/>
+      <c r="AU156" s="18"/>
       <c r="AW156" s="4"/>
       <c r="AX156" s="11"/>
       <c r="AY156" s="8" t="s">
@@ -9444,7 +9500,7 @@
       </c>
       <c r="AK157" s="13"/>
       <c r="AL157" s="5"/>
-      <c r="AM157" s="6"/>
+      <c r="AM157" s="18"/>
       <c r="AO157" s="4"/>
       <c r="AP157" s="11"/>
       <c r="AQ157" s="8" t="s">
@@ -9457,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="AT157" s="5"/>
-      <c r="AU157" s="6"/>
+      <c r="AU157" s="18"/>
       <c r="AW157" s="4"/>
       <c r="AX157" s="11"/>
       <c r="AY157" s="8" t="s">
@@ -9488,14 +9544,14 @@
       </c>
       <c r="AK158" s="13"/>
       <c r="AL158" s="5"/>
-      <c r="AM158" s="6"/>
+      <c r="AM158" s="18"/>
       <c r="AO158" s="4"/>
       <c r="AP158" s="11"/>
       <c r="AQ158" s="8"/>
       <c r="AR158" s="14"/>
       <c r="AS158" s="13"/>
       <c r="AT158" s="5"/>
-      <c r="AU158" s="6"/>
+      <c r="AU158" s="18"/>
       <c r="AW158" s="4"/>
       <c r="AX158" s="11"/>
       <c r="AY158" s="8" t="s">
@@ -9526,7 +9582,7 @@
       </c>
       <c r="AK159" s="13"/>
       <c r="AL159" s="5"/>
-      <c r="AM159" s="6"/>
+      <c r="AM159" s="18"/>
       <c r="AO159" s="4" t="s">
         <v>86</v>
       </c>
@@ -9578,7 +9634,7 @@
       </c>
       <c r="AK160" s="13"/>
       <c r="AL160" s="5"/>
-      <c r="AM160" s="6"/>
+      <c r="AM160" s="18"/>
       <c r="AO160" s="4"/>
       <c r="AP160" s="11"/>
       <c r="AQ160" s="8"/>
@@ -9622,7 +9678,7 @@
       </c>
       <c r="AK161" s="13"/>
       <c r="AL161" s="5"/>
-      <c r="AM161" s="6"/>
+      <c r="AM161" s="18"/>
       <c r="AO161" s="4"/>
       <c r="AP161" s="11"/>
       <c r="AQ161" s="8" t="s">
@@ -9635,7 +9691,7 @@
         <v>3</v>
       </c>
       <c r="AT161" s="5"/>
-      <c r="AU161" s="6"/>
+      <c r="AU161" s="18"/>
       <c r="AW161" s="4"/>
       <c r="AX161" s="11"/>
       <c r="AY161" s="8"/>
@@ -9662,7 +9718,7 @@
       </c>
       <c r="AK162" s="13"/>
       <c r="AL162" s="5"/>
-      <c r="AM162" s="6"/>
+      <c r="AM162" s="18"/>
       <c r="AO162" s="4"/>
       <c r="AP162" s="11"/>
       <c r="AQ162" s="8" t="s">
@@ -9673,7 +9729,7 @@
       </c>
       <c r="AS162" s="13"/>
       <c r="AT162" s="5"/>
-      <c r="AU162" s="6"/>
+      <c r="AU162" s="18"/>
       <c r="AW162" s="4" t="s">
         <v>86</v>
       </c>
@@ -9712,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="AL163" s="5"/>
-      <c r="AM163" s="6"/>
+      <c r="AM163" s="18"/>
       <c r="AO163" s="4"/>
       <c r="AP163" s="11"/>
       <c r="AQ163" s="8" t="s">
@@ -9723,7 +9779,7 @@
       </c>
       <c r="AS163" s="13"/>
       <c r="AT163" s="5"/>
-      <c r="AU163" s="6"/>
+      <c r="AU163" s="18"/>
       <c r="AW163" s="4"/>
       <c r="AX163" s="11"/>
       <c r="AY163" s="8" t="s">
@@ -9752,7 +9808,7 @@
       <c r="AJ164" s="14"/>
       <c r="AK164" s="13"/>
       <c r="AL164" s="5"/>
-      <c r="AM164" s="6"/>
+      <c r="AM164" s="18"/>
       <c r="AO164" s="4"/>
       <c r="AP164" s="11"/>
       <c r="AQ164" s="8" t="s">
@@ -9763,7 +9819,7 @@
       </c>
       <c r="AS164" s="13"/>
       <c r="AT164" s="5"/>
-      <c r="AU164" s="6"/>
+      <c r="AU164" s="18"/>
       <c r="AW164" s="4"/>
       <c r="AX164" s="11"/>
       <c r="AY164" s="8" t="s">
@@ -10041,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="AT170" s="5"/>
-      <c r="AU170" s="6"/>
+      <c r="AU170" s="18"/>
       <c r="AW170" s="4"/>
       <c r="AX170" s="11"/>
       <c r="AY170" s="8" t="s">
@@ -10083,7 +10139,7 @@
       </c>
       <c r="AS171" s="13"/>
       <c r="AT171" s="5"/>
-      <c r="AU171" s="6"/>
+      <c r="AU171" s="18"/>
       <c r="AW171" s="4"/>
       <c r="AX171" s="11"/>
       <c r="AY171" s="8" t="s">
@@ -10125,7 +10181,7 @@
       </c>
       <c r="AS172" s="13"/>
       <c r="AT172" s="5"/>
-      <c r="AU172" s="6"/>
+      <c r="AU172" s="18"/>
       <c r="AW172" s="4"/>
       <c r="AX172" s="11"/>
       <c r="AY172" s="8" t="s">
@@ -10169,7 +10225,7 @@
       </c>
       <c r="AS173" s="13"/>
       <c r="AT173" s="5"/>
-      <c r="AU173" s="6"/>
+      <c r="AU173" s="18"/>
       <c r="AW173" s="4"/>
       <c r="AX173" s="11"/>
       <c r="AY173" s="8" t="s">
@@ -10211,7 +10267,7 @@
       </c>
       <c r="AS174" s="13"/>
       <c r="AT174" s="5"/>
-      <c r="AU174" s="6"/>
+      <c r="AU174" s="18"/>
       <c r="AW174" s="4"/>
       <c r="AX174" s="11"/>
       <c r="AY174" s="8" t="s">
@@ -10257,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AT175" s="5"/>
-      <c r="AU175" s="6"/>
+      <c r="AU175" s="18"/>
       <c r="AW175" s="4"/>
       <c r="AX175" s="11"/>
       <c r="AY175" s="8"/>
@@ -10291,7 +10347,7 @@
       <c r="AR176" s="14"/>
       <c r="AS176" s="13"/>
       <c r="AT176" s="5"/>
-      <c r="AU176" s="6"/>
+      <c r="AU176" s="18"/>
       <c r="AW176" s="4"/>
       <c r="AX176" s="11" t="s">
         <v>132</v>
@@ -10433,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="AT179" s="5"/>
-      <c r="AU179" s="6"/>
+      <c r="AU179" s="18"/>
       <c r="AW179" s="4"/>
       <c r="AX179" s="11"/>
       <c r="AY179" s="8" t="s">
@@ -10483,7 +10539,7 @@
       </c>
       <c r="AS180" s="13"/>
       <c r="AT180" s="5"/>
-      <c r="AU180" s="6"/>
+      <c r="AU180" s="18"/>
       <c r="AW180" s="4"/>
       <c r="AX180" s="11"/>
       <c r="AY180" s="8" t="s">
@@ -10529,7 +10585,7 @@
       </c>
       <c r="AS181" s="13"/>
       <c r="AT181" s="5"/>
-      <c r="AU181" s="6"/>
+      <c r="AU181" s="18"/>
       <c r="AW181" s="4"/>
       <c r="AX181" s="11"/>
       <c r="AY181" s="8"/>
@@ -10571,7 +10627,7 @@
       </c>
       <c r="AS182" s="13"/>
       <c r="AT182" s="5"/>
-      <c r="AU182" s="6"/>
+      <c r="AU182" s="18"/>
       <c r="AW182" s="4"/>
       <c r="AX182" s="11"/>
       <c r="AY182" s="8" t="s">
@@ -10841,7 +10897,7 @@
         <v>2</v>
       </c>
       <c r="AT188" s="5"/>
-      <c r="AU188" s="6"/>
+      <c r="AU188" s="18"/>
       <c r="AW188" s="4"/>
       <c r="AX188" s="11"/>
       <c r="AY188" s="8"/>
@@ -10879,12 +10935,22 @@
       </c>
       <c r="AS189" s="13"/>
       <c r="AT189" s="5"/>
-      <c r="AU189" s="6"/>
-      <c r="AW189" s="4"/>
-      <c r="AX189" s="11"/>
-      <c r="AY189" s="8"/>
-      <c r="AZ189" s="14"/>
-      <c r="BA189" s="13"/>
+      <c r="AU189" s="18"/>
+      <c r="AW189" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX189" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY189" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ189" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA189" s="13">
+        <v>3</v>
+      </c>
       <c r="BB189" s="5"/>
       <c r="BC189" s="18"/>
     </row>
@@ -10917,11 +10983,15 @@
       </c>
       <c r="AS190" s="13"/>
       <c r="AT190" s="5"/>
-      <c r="AU190" s="6"/>
+      <c r="AU190" s="18"/>
       <c r="AW190" s="4"/>
       <c r="AX190" s="11"/>
-      <c r="AY190" s="8"/>
-      <c r="AZ190" s="14"/>
+      <c r="AY190" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ190" s="14">
+        <v>3</v>
+      </c>
       <c r="BA190" s="13"/>
       <c r="BB190" s="5"/>
       <c r="BC190" s="18"/>
@@ -10955,11 +11025,15 @@
       </c>
       <c r="AS191" s="13"/>
       <c r="AT191" s="5"/>
-      <c r="AU191" s="6"/>
+      <c r="AU191" s="18"/>
       <c r="AW191" s="4"/>
       <c r="AX191" s="11"/>
-      <c r="AY191" s="8"/>
-      <c r="AZ191" s="14"/>
+      <c r="AY191" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ191" s="14">
+        <v>3</v>
+      </c>
       <c r="BA191" s="13"/>
       <c r="BB191" s="5"/>
       <c r="BC191" s="18"/>
@@ -10993,11 +11067,15 @@
       </c>
       <c r="AS192" s="13"/>
       <c r="AT192" s="5"/>
-      <c r="AU192" s="6"/>
+      <c r="AU192" s="18"/>
       <c r="AW192" s="4"/>
       <c r="AX192" s="11"/>
-      <c r="AY192" s="8"/>
-      <c r="AZ192" s="14"/>
+      <c r="AY192" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ192" s="14">
+        <v>3</v>
+      </c>
       <c r="BA192" s="13"/>
       <c r="BB192" s="5"/>
       <c r="BC192" s="18"/>
@@ -11035,14 +11113,22 @@
         <v>1</v>
       </c>
       <c r="AT193" s="5"/>
-      <c r="AU193" s="6"/>
+      <c r="AU193" s="18"/>
       <c r="AW193" s="4"/>
       <c r="AX193" s="11"/>
-      <c r="AY193" s="8"/>
-      <c r="AZ193" s="14"/>
+      <c r="AY193" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ193" s="14">
+        <v>6</v>
+      </c>
       <c r="BA193" s="13"/>
-      <c r="BB193" s="5"/>
-      <c r="BC193" s="18"/>
+      <c r="BB193" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC193" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="194" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -11058,21 +11144,25 @@
       <c r="AJ194" s="14"/>
       <c r="AK194" s="13"/>
       <c r="AL194" s="5"/>
-      <c r="AM194" s="6"/>
+      <c r="AM194" s="18"/>
       <c r="AO194" s="4"/>
       <c r="AP194" s="11"/>
       <c r="AQ194" s="8"/>
       <c r="AR194" s="14"/>
       <c r="AS194" s="13"/>
       <c r="AT194" s="5"/>
-      <c r="AU194" s="6"/>
+      <c r="AU194" s="18"/>
       <c r="AW194" s="4"/>
       <c r="AX194" s="11"/>
       <c r="AY194" s="8"/>
       <c r="AZ194" s="14"/>
       <c r="BA194" s="13"/>
-      <c r="BB194" s="5"/>
-      <c r="BC194" s="18"/>
+      <c r="BB194" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC194" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="195" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
@@ -11122,8 +11212,12 @@
       </c>
       <c r="AW195" s="4"/>
       <c r="AX195" s="11"/>
-      <c r="AY195" s="8"/>
-      <c r="AZ195" s="14"/>
+      <c r="AY195" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ195" s="14">
+        <v>2</v>
+      </c>
       <c r="BA195" s="13"/>
       <c r="BB195" s="5"/>
       <c r="BC195" s="18"/>
@@ -11160,8 +11254,12 @@
       </c>
       <c r="AW196" s="4"/>
       <c r="AX196" s="11"/>
-      <c r="AY196" s="8"/>
-      <c r="AZ196" s="14"/>
+      <c r="AY196" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ196" s="14">
+        <v>3</v>
+      </c>
       <c r="BA196" s="13"/>
       <c r="BB196" s="5"/>
       <c r="BC196" s="18"/>
@@ -11197,11 +11295,15 @@
         <v>3</v>
       </c>
       <c r="AT197" s="5"/>
-      <c r="AU197" s="6"/>
+      <c r="AU197" s="18"/>
       <c r="AW197" s="4"/>
       <c r="AX197" s="11"/>
-      <c r="AY197" s="8"/>
-      <c r="AZ197" s="14"/>
+      <c r="AY197" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ197" s="14">
+        <v>2</v>
+      </c>
       <c r="BA197" s="13"/>
       <c r="BB197" s="5"/>
       <c r="BC197" s="18"/>
@@ -11237,14 +11339,24 @@
       </c>
       <c r="AS198" s="13"/>
       <c r="AT198" s="5"/>
-      <c r="AU198" s="6"/>
+      <c r="AU198" s="18"/>
       <c r="AW198" s="4"/>
       <c r="AX198" s="11"/>
-      <c r="AY198" s="8"/>
-      <c r="AZ198" s="14"/>
-      <c r="BA198" s="13"/>
-      <c r="BB198" s="5"/>
-      <c r="BC198" s="18"/>
+      <c r="AY198" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ198" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA198" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB198" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC198" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="199" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
@@ -11275,14 +11387,18 @@
       </c>
       <c r="AS199" s="13"/>
       <c r="AT199" s="5"/>
-      <c r="AU199" s="6"/>
+      <c r="AU199" s="18"/>
       <c r="AW199" s="4"/>
       <c r="AX199" s="11"/>
       <c r="AY199" s="8"/>
       <c r="AZ199" s="14"/>
       <c r="BA199" s="13"/>
-      <c r="BB199" s="5"/>
-      <c r="BC199" s="18"/>
+      <c r="BB199" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC199" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="200" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
@@ -11320,8 +11436,12 @@
       </c>
       <c r="AW200" s="4"/>
       <c r="AX200" s="11"/>
-      <c r="AY200" s="8"/>
-      <c r="AZ200" s="14"/>
+      <c r="AY200" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ200" s="14">
+        <v>3</v>
+      </c>
       <c r="BA200" s="13"/>
       <c r="BB200" s="5"/>
       <c r="BC200" s="18"/>
@@ -11358,8 +11478,12 @@
       </c>
       <c r="AW201" s="4"/>
       <c r="AX201" s="11"/>
-      <c r="AY201" s="8"/>
-      <c r="AZ201" s="14"/>
+      <c r="AY201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ201" s="14">
+        <v>2</v>
+      </c>
       <c r="BA201" s="13"/>
       <c r="BB201" s="5"/>
       <c r="BC201" s="18"/>
@@ -11402,8 +11526,12 @@
       </c>
       <c r="AW202" s="4"/>
       <c r="AX202" s="11"/>
-      <c r="AY202" s="8"/>
-      <c r="AZ202" s="14"/>
+      <c r="AY202" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ202" s="14">
+        <v>2</v>
+      </c>
       <c r="BA202" s="13"/>
       <c r="BB202" s="5"/>
       <c r="BC202" s="18"/>
@@ -11440,9 +11568,15 @@
       </c>
       <c r="AW203" s="4"/>
       <c r="AX203" s="11"/>
-      <c r="AY203" s="8"/>
-      <c r="AZ203" s="14"/>
-      <c r="BA203" s="13"/>
+      <c r="AY203" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ203" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA203" s="13">
+        <v>1</v>
+      </c>
       <c r="BB203" s="5"/>
       <c r="BC203" s="18"/>
     </row>
@@ -11515,12 +11649,22 @@
         <v>2</v>
       </c>
       <c r="AT205" s="5"/>
-      <c r="AU205" s="6"/>
-      <c r="AW205" s="4"/>
-      <c r="AX205" s="11"/>
-      <c r="AY205" s="8"/>
-      <c r="AZ205" s="14"/>
-      <c r="BA205" s="13"/>
+      <c r="AU205" s="18"/>
+      <c r="AW205" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX205" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY205" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ205" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA205" s="13">
+        <v>3</v>
+      </c>
       <c r="BB205" s="5"/>
       <c r="BC205" s="18"/>
     </row>
@@ -11553,11 +11697,15 @@
       </c>
       <c r="AS206" s="13"/>
       <c r="AT206" s="5"/>
-      <c r="AU206" s="6"/>
+      <c r="AU206" s="18"/>
       <c r="AW206" s="4"/>
       <c r="AX206" s="11"/>
-      <c r="AY206" s="8"/>
-      <c r="AZ206" s="14"/>
+      <c r="AY206" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ206" s="14">
+        <v>3</v>
+      </c>
       <c r="BA206" s="13"/>
       <c r="BB206" s="5"/>
       <c r="BC206" s="18"/>
@@ -11591,11 +11739,15 @@
       </c>
       <c r="AS207" s="13"/>
       <c r="AT207" s="5"/>
-      <c r="AU207" s="6"/>
+      <c r="AU207" s="18"/>
       <c r="AW207" s="4"/>
       <c r="AX207" s="11"/>
-      <c r="AY207" s="8"/>
-      <c r="AZ207" s="14"/>
+      <c r="AY207" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ207" s="14">
+        <v>3</v>
+      </c>
       <c r="BA207" s="13"/>
       <c r="BB207" s="5"/>
       <c r="BC207" s="18"/>
@@ -11631,9 +11783,20 @@
       </c>
       <c r="AS208" s="13"/>
       <c r="AT208" s="5"/>
-      <c r="AU208" s="6"/>
-    </row>
-    <row r="209" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU208" s="18"/>
+      <c r="AW208" s="4"/>
+      <c r="AX208" s="11"/>
+      <c r="AY208" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ208" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA208" s="13"/>
+      <c r="BB208" s="5"/>
+      <c r="BC208" s="18"/>
+    </row>
+    <row r="209" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="11"/>
       <c r="C209" s="8"/>
@@ -11647,7 +11810,7 @@
       <c r="AJ209" s="14"/>
       <c r="AK209" s="13"/>
       <c r="AL209" s="5"/>
-      <c r="AM209" s="6"/>
+      <c r="AM209" s="18"/>
       <c r="AO209" s="4"/>
       <c r="AP209" s="11"/>
       <c r="AQ209" s="8" t="s">
@@ -11658,9 +11821,24 @@
       </c>
       <c r="AS209" s="13"/>
       <c r="AT209" s="5"/>
-      <c r="AU209" s="6"/>
-    </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU209" s="18"/>
+      <c r="AW209" s="4"/>
+      <c r="AX209" s="11"/>
+      <c r="AY209" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ209" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA209" s="13"/>
+      <c r="BB209" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC209" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="11"/>
       <c r="C210" s="8"/>
@@ -11699,9 +11877,20 @@
         <v>1</v>
       </c>
       <c r="AT210" s="5"/>
-      <c r="AU210" s="6"/>
-    </row>
-    <row r="211" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU210" s="18"/>
+      <c r="AW210" s="4"/>
+      <c r="AX210" s="11"/>
+      <c r="AY210" s="8"/>
+      <c r="AZ210" s="14"/>
+      <c r="BA210" s="13"/>
+      <c r="BB210" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC210" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="211" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="11"/>
       <c r="C211" s="8"/>
@@ -11726,9 +11915,20 @@
       <c r="AR211" s="14"/>
       <c r="AS211" s="13"/>
       <c r="AT211" s="5"/>
-      <c r="AU211" s="6"/>
-    </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU211" s="18"/>
+      <c r="AW211" s="4"/>
+      <c r="AX211" s="11"/>
+      <c r="AY211" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ211" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA211" s="13"/>
+      <c r="BB211" s="5"/>
+      <c r="BC211" s="18"/>
+    </row>
+    <row r="212" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="11"/>
       <c r="C212" s="8"/>
@@ -11768,8 +11968,19 @@
       <c r="AU212" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW212" s="4"/>
+      <c r="AX212" s="11"/>
+      <c r="AY212" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ212" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA212" s="13"/>
+      <c r="BB212" s="5"/>
+      <c r="BC212" s="18"/>
+    </row>
+    <row r="213" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="11"/>
       <c r="C213" s="8"/>
@@ -11799,8 +12010,19 @@
       <c r="AU213" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW213" s="4"/>
+      <c r="AX213" s="11"/>
+      <c r="AY213" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ213" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA213" s="13"/>
+      <c r="BB213" s="5"/>
+      <c r="BC213" s="18"/>
+    </row>
+    <row r="214" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="11"/>
       <c r="C214" s="8"/>
@@ -11820,7 +12042,7 @@
         <v>3</v>
       </c>
       <c r="AL214" s="5"/>
-      <c r="AM214" s="6"/>
+      <c r="AM214" s="18"/>
       <c r="AO214" s="4"/>
       <c r="AP214" s="11"/>
       <c r="AQ214" s="8" t="s">
@@ -11833,9 +12055,26 @@
         <v>3</v>
       </c>
       <c r="AT214" s="5"/>
-      <c r="AU214" s="6"/>
-    </row>
-    <row r="215" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU214" s="18"/>
+      <c r="AW214" s="4"/>
+      <c r="AX214" s="11"/>
+      <c r="AY214" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ214" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA214" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB214" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC214" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="11"/>
       <c r="C215" s="8"/>
@@ -11853,7 +12092,7 @@
       </c>
       <c r="AK215" s="13"/>
       <c r="AL215" s="5"/>
-      <c r="AM215" s="6"/>
+      <c r="AM215" s="18"/>
       <c r="AO215" s="4"/>
       <c r="AP215" s="11"/>
       <c r="AQ215" s="8" t="s">
@@ -11864,9 +12103,20 @@
       </c>
       <c r="AS215" s="13"/>
       <c r="AT215" s="5"/>
-      <c r="AU215" s="6"/>
-    </row>
-    <row r="216" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU215" s="18"/>
+      <c r="AW215" s="4"/>
+      <c r="AX215" s="11"/>
+      <c r="AY215" s="8"/>
+      <c r="AZ215" s="14"/>
+      <c r="BA215" s="13"/>
+      <c r="BB215" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC215" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="11"/>
       <c r="C216" s="8"/>
@@ -11884,7 +12134,7 @@
       </c>
       <c r="AK216" s="13"/>
       <c r="AL216" s="5"/>
-      <c r="AM216" s="6"/>
+      <c r="AM216" s="18"/>
       <c r="AO216" s="4"/>
       <c r="AP216" s="11"/>
       <c r="AQ216" s="8" t="s">
@@ -11895,9 +12145,20 @@
       </c>
       <c r="AS216" s="13"/>
       <c r="AT216" s="5"/>
-      <c r="AU216" s="6"/>
-    </row>
-    <row r="217" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU216" s="18"/>
+      <c r="AW216" s="4"/>
+      <c r="AX216" s="11"/>
+      <c r="AY216" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ216" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA216" s="13"/>
+      <c r="BB216" s="5"/>
+      <c r="BC216" s="18"/>
+    </row>
+    <row r="217" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="11"/>
       <c r="C217" s="8"/>
@@ -11915,7 +12176,7 @@
       </c>
       <c r="AK217" s="13"/>
       <c r="AL217" s="5"/>
-      <c r="AM217" s="6"/>
+      <c r="AM217" s="18"/>
       <c r="AO217" s="4"/>
       <c r="AP217" s="11"/>
       <c r="AQ217" s="8" t="s">
@@ -11926,9 +12187,20 @@
       </c>
       <c r="AS217" s="13"/>
       <c r="AT217" s="5"/>
-      <c r="AU217" s="6"/>
-    </row>
-    <row r="218" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU217" s="18"/>
+      <c r="AW217" s="4"/>
+      <c r="AX217" s="11"/>
+      <c r="AY217" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ217" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA217" s="13"/>
+      <c r="BB217" s="5"/>
+      <c r="BC217" s="18"/>
+    </row>
+    <row r="218" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="11"/>
       <c r="C218" s="8"/>
@@ -11946,7 +12218,7 @@
       </c>
       <c r="AK218" s="13"/>
       <c r="AL218" s="5"/>
-      <c r="AM218" s="6"/>
+      <c r="AM218" s="18"/>
       <c r="AO218" s="4"/>
       <c r="AP218" s="11"/>
       <c r="AQ218" s="8" t="s">
@@ -11962,8 +12234,19 @@
       <c r="AU218" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="219" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW218" s="4"/>
+      <c r="AX218" s="11"/>
+      <c r="AY218" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ218" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA218" s="13"/>
+      <c r="BB218" s="5"/>
+      <c r="BC218" s="18"/>
+    </row>
+    <row r="219" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="11"/>
       <c r="C219" s="8"/>
@@ -11983,7 +12266,7 @@
         <v>2</v>
       </c>
       <c r="AL219" s="5"/>
-      <c r="AM219" s="6"/>
+      <c r="AM219" s="18"/>
       <c r="AO219" s="4"/>
       <c r="AP219" s="11"/>
       <c r="AQ219" s="8"/>
@@ -11995,8 +12278,21 @@
       <c r="AU219" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="220" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW219" s="4"/>
+      <c r="AX219" s="11"/>
+      <c r="AY219" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ219" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA219" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB219" s="5"/>
+      <c r="BC219" s="18"/>
+    </row>
+    <row r="220" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="11"/>
       <c r="C220" s="8"/>
@@ -12014,7 +12310,7 @@
       </c>
       <c r="AK220" s="13"/>
       <c r="AL220" s="5"/>
-      <c r="AM220" s="6"/>
+      <c r="AM220" s="18"/>
       <c r="AO220" s="4"/>
       <c r="AP220" s="11"/>
       <c r="AQ220" s="8" t="s">
@@ -12030,8 +12326,15 @@
       <c r="AU220" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="221" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW220" s="4"/>
+      <c r="AX220" s="11"/>
+      <c r="AY220" s="8"/>
+      <c r="AZ220" s="14"/>
+      <c r="BA220" s="13"/>
+      <c r="BB220" s="5"/>
+      <c r="BC220" s="18"/>
+    </row>
+    <row r="221" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="11"/>
       <c r="C221" s="8"/>
@@ -12049,7 +12352,7 @@
       </c>
       <c r="AK221" s="13"/>
       <c r="AL221" s="5"/>
-      <c r="AM221" s="6"/>
+      <c r="AM221" s="18"/>
       <c r="AO221" s="4"/>
       <c r="AP221" s="11"/>
       <c r="AQ221" s="8"/>
@@ -12061,8 +12364,23 @@
       <c r="AU221" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="222" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW221" s="4"/>
+      <c r="AX221" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY221" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ221" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA221" s="13">
+        <v>3</v>
+      </c>
+      <c r="BB221" s="5"/>
+      <c r="BC221" s="18"/>
+    </row>
+    <row r="222" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="11"/>
       <c r="C222" s="8"/>
@@ -12080,7 +12398,7 @@
       </c>
       <c r="AK222" s="13"/>
       <c r="AL222" s="5"/>
-      <c r="AM222" s="6"/>
+      <c r="AM222" s="18"/>
       <c r="AO222" s="4"/>
       <c r="AP222" s="11"/>
       <c r="AQ222" s="8" t="s">
@@ -12093,9 +12411,20 @@
         <v>2</v>
       </c>
       <c r="AT222" s="5"/>
-      <c r="AU222" s="6"/>
-    </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU222" s="18"/>
+      <c r="AW222" s="4"/>
+      <c r="AX222" s="11"/>
+      <c r="AY222" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ222" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA222" s="13"/>
+      <c r="BB222" s="5"/>
+      <c r="BC222" s="18"/>
+    </row>
+    <row r="223" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="11"/>
       <c r="C223" s="8"/>
@@ -12113,7 +12442,7 @@
       </c>
       <c r="AK223" s="13"/>
       <c r="AL223" s="5"/>
-      <c r="AM223" s="6"/>
+      <c r="AM223" s="18"/>
       <c r="AO223" s="4"/>
       <c r="AP223" s="11"/>
       <c r="AQ223" s="8" t="s">
@@ -12124,9 +12453,20 @@
       </c>
       <c r="AS223" s="13"/>
       <c r="AT223" s="5"/>
-      <c r="AU223" s="6"/>
-    </row>
-    <row r="224" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU223" s="18"/>
+      <c r="AW223" s="4"/>
+      <c r="AX223" s="11"/>
+      <c r="AY223" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ223" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA223" s="13"/>
+      <c r="BB223" s="5"/>
+      <c r="BC223" s="18"/>
+    </row>
+    <row r="224" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="11"/>
       <c r="C224" s="8"/>
@@ -12144,7 +12484,7 @@
       </c>
       <c r="AK224" s="13"/>
       <c r="AL224" s="5"/>
-      <c r="AM224" s="6"/>
+      <c r="AM224" s="18"/>
       <c r="AO224" s="4"/>
       <c r="AP224" s="11"/>
       <c r="AQ224" s="8" t="s">
@@ -12155,9 +12495,24 @@
       </c>
       <c r="AS224" s="13"/>
       <c r="AT224" s="5"/>
-      <c r="AU224" s="6"/>
-    </row>
-    <row r="225" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU224" s="18"/>
+      <c r="AW224" s="4"/>
+      <c r="AX224" s="11"/>
+      <c r="AY224" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ224" s="14">
+        <v>6</v>
+      </c>
+      <c r="BA224" s="13"/>
+      <c r="BB224" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC224" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="225" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="11"/>
       <c r="C225" s="8"/>
@@ -12177,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="AL225" s="5"/>
-      <c r="AM225" s="6"/>
+      <c r="AM225" s="18"/>
       <c r="AO225" s="4"/>
       <c r="AP225" s="11"/>
       <c r="AQ225" s="8" t="s">
@@ -12188,9 +12543,20 @@
       </c>
       <c r="AS225" s="13"/>
       <c r="AT225" s="5"/>
-      <c r="AU225" s="6"/>
-    </row>
-    <row r="226" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU225" s="18"/>
+      <c r="AW225" s="4"/>
+      <c r="AX225" s="11"/>
+      <c r="AY225" s="8"/>
+      <c r="AZ225" s="14"/>
+      <c r="BA225" s="13"/>
+      <c r="BB225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC225" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="226" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="11"/>
       <c r="C226" s="8"/>
@@ -12204,7 +12570,7 @@
       <c r="AJ226" s="14"/>
       <c r="AK226" s="13"/>
       <c r="AL226" s="5"/>
-      <c r="AM226" s="6"/>
+      <c r="AM226" s="18"/>
       <c r="AO226" s="4"/>
       <c r="AP226" s="11"/>
       <c r="AQ226" s="8" t="s">
@@ -12215,9 +12581,20 @@
       </c>
       <c r="AS226" s="13"/>
       <c r="AT226" s="5"/>
-      <c r="AU226" s="6"/>
-    </row>
-    <row r="227" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU226" s="18"/>
+      <c r="AW226" s="4"/>
+      <c r="AX226" s="11"/>
+      <c r="AY226" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ226" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA226" s="13"/>
+      <c r="BB226" s="5"/>
+      <c r="BC226" s="18"/>
+    </row>
+    <row r="227" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="11"/>
       <c r="C227" s="8"/>
@@ -12256,9 +12633,20 @@
         <v>1</v>
       </c>
       <c r="AT227" s="5"/>
-      <c r="AU227" s="6"/>
-    </row>
-    <row r="228" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU227" s="18"/>
+      <c r="AW227" s="4"/>
+      <c r="AX227" s="11"/>
+      <c r="AY227" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ227" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA227" s="13"/>
+      <c r="BB227" s="5"/>
+      <c r="BC227" s="18"/>
+    </row>
+    <row r="228" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="11"/>
       <c r="C228" s="8"/>
@@ -12283,9 +12671,20 @@
       <c r="AR228" s="14"/>
       <c r="AS228" s="13"/>
       <c r="AT228" s="5"/>
-      <c r="AU228" s="6"/>
-    </row>
-    <row r="229" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU228" s="18"/>
+      <c r="AW228" s="4"/>
+      <c r="AX228" s="11"/>
+      <c r="AY228" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ228" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA228" s="13"/>
+      <c r="BB228" s="5"/>
+      <c r="BC228" s="18"/>
+    </row>
+    <row r="229" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="11"/>
       <c r="C229" s="8"/>
@@ -12325,8 +12724,25 @@
       <c r="AU229" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW229" s="4"/>
+      <c r="AX229" s="11"/>
+      <c r="AY229" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ229" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA229" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB229" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC229" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="11"/>
       <c r="C230" s="8"/>
@@ -12356,8 +12772,19 @@
       <c r="AU230" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="231" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW230" s="4"/>
+      <c r="AX230" s="11"/>
+      <c r="AY230" s="8"/>
+      <c r="AZ230" s="14"/>
+      <c r="BA230" s="13"/>
+      <c r="BB230" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC230" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="11"/>
       <c r="C231" s="8"/>
@@ -12377,7 +12804,7 @@
         <v>3</v>
       </c>
       <c r="AL231" s="5"/>
-      <c r="AM231" s="6"/>
+      <c r="AM231" s="18"/>
       <c r="AO231" s="4"/>
       <c r="AP231" s="11"/>
       <c r="AQ231" s="8" t="s">
@@ -12390,9 +12817,20 @@
         <v>3</v>
       </c>
       <c r="AT231" s="5"/>
-      <c r="AU231" s="6"/>
-    </row>
-    <row r="232" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU231" s="18"/>
+      <c r="AW231" s="4"/>
+      <c r="AX231" s="11"/>
+      <c r="AY231" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ231" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA231" s="13"/>
+      <c r="BB231" s="5"/>
+      <c r="BC231" s="18"/>
+    </row>
+    <row r="232" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="11"/>
       <c r="C232" s="8"/>
@@ -12410,7 +12848,7 @@
       </c>
       <c r="AK232" s="13"/>
       <c r="AL232" s="5"/>
-      <c r="AM232" s="6"/>
+      <c r="AM232" s="18"/>
       <c r="AO232" s="4"/>
       <c r="AP232" s="11"/>
       <c r="AQ232" s="8" t="s">
@@ -12421,9 +12859,20 @@
       </c>
       <c r="AS232" s="13"/>
       <c r="AT232" s="5"/>
-      <c r="AU232" s="6"/>
-    </row>
-    <row r="233" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU232" s="18"/>
+      <c r="AW232" s="4"/>
+      <c r="AX232" s="11"/>
+      <c r="AY232" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ232" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA232" s="13"/>
+      <c r="BB232" s="5"/>
+      <c r="BC232" s="18"/>
+    </row>
+    <row r="233" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="11"/>
       <c r="C233" s="8"/>
@@ -12441,7 +12890,7 @@
       </c>
       <c r="AK233" s="13"/>
       <c r="AL233" s="5"/>
-      <c r="AM233" s="6"/>
+      <c r="AM233" s="18"/>
       <c r="AO233" s="4"/>
       <c r="AP233" s="11"/>
       <c r="AQ233" s="8" t="s">
@@ -12452,9 +12901,20 @@
       </c>
       <c r="AS233" s="13"/>
       <c r="AT233" s="5"/>
-      <c r="AU233" s="6"/>
-    </row>
-    <row r="234" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU233" s="18"/>
+      <c r="AW233" s="4"/>
+      <c r="AX233" s="11"/>
+      <c r="AY233" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ233" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA233" s="13"/>
+      <c r="BB233" s="5"/>
+      <c r="BC233" s="18"/>
+    </row>
+    <row r="234" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="11"/>
       <c r="C234" s="8"/>
@@ -12472,7 +12932,7 @@
       </c>
       <c r="AK234" s="13"/>
       <c r="AL234" s="5"/>
-      <c r="AM234" s="6"/>
+      <c r="AM234" s="18"/>
       <c r="AO234" s="4"/>
       <c r="AP234" s="11"/>
       <c r="AQ234" s="8" t="s">
@@ -12483,9 +12943,22 @@
       </c>
       <c r="AS234" s="13"/>
       <c r="AT234" s="5"/>
-      <c r="AU234" s="6"/>
-    </row>
-    <row r="235" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU234" s="18"/>
+      <c r="AW234" s="4"/>
+      <c r="AX234" s="11"/>
+      <c r="AY234" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ234" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA234" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB234" s="5"/>
+      <c r="BC234" s="18"/>
+    </row>
+    <row r="235" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="11"/>
       <c r="C235" s="8"/>
@@ -12503,7 +12976,7 @@
       </c>
       <c r="AK235" s="13"/>
       <c r="AL235" s="5"/>
-      <c r="AM235" s="6"/>
+      <c r="AM235" s="18"/>
       <c r="AO235" s="4"/>
       <c r="AP235" s="11"/>
       <c r="AQ235" s="8" t="s">
@@ -12519,8 +12992,15 @@
       <c r="AU235" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="236" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW235" s="4"/>
+      <c r="AX235" s="11"/>
+      <c r="AY235" s="8"/>
+      <c r="AZ235" s="14"/>
+      <c r="BA235" s="13"/>
+      <c r="BB235" s="5"/>
+      <c r="BC235" s="18"/>
+    </row>
+    <row r="236" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="11"/>
       <c r="C236" s="8"/>
@@ -12540,7 +13020,7 @@
         <v>2</v>
       </c>
       <c r="AL236" s="5"/>
-      <c r="AM236" s="6"/>
+      <c r="AM236" s="18"/>
       <c r="AO236" s="4"/>
       <c r="AP236" s="11"/>
       <c r="AQ236" s="8"/>
@@ -12552,8 +13032,15 @@
       <c r="AU236" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="237" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW236" s="4"/>
+      <c r="AX236" s="11"/>
+      <c r="AY236" s="8"/>
+      <c r="AZ236" s="14"/>
+      <c r="BA236" s="13"/>
+      <c r="BB236" s="5"/>
+      <c r="BC236" s="18"/>
+    </row>
+    <row r="237" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="11"/>
       <c r="C237" s="8"/>
@@ -12571,7 +13058,7 @@
       </c>
       <c r="AK237" s="13"/>
       <c r="AL237" s="5"/>
-      <c r="AM237" s="6"/>
+      <c r="AM237" s="18"/>
       <c r="AO237" s="4"/>
       <c r="AP237" s="11"/>
       <c r="AQ237" s="8" t="s">
@@ -12587,8 +13074,15 @@
       <c r="AU237" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="238" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW237" s="4"/>
+      <c r="AX237" s="11"/>
+      <c r="AY237" s="8"/>
+      <c r="AZ237" s="14"/>
+      <c r="BA237" s="13"/>
+      <c r="BB237" s="5"/>
+      <c r="BC237" s="18"/>
+    </row>
+    <row r="238" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="11"/>
       <c r="C238" s="8"/>
@@ -12606,7 +13100,7 @@
       </c>
       <c r="AK238" s="13"/>
       <c r="AL238" s="5"/>
-      <c r="AM238" s="6"/>
+      <c r="AM238" s="18"/>
       <c r="AO238" s="4"/>
       <c r="AP238" s="11"/>
       <c r="AQ238" s="8"/>
@@ -12618,8 +13112,15 @@
       <c r="AU238" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="239" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW238" s="4"/>
+      <c r="AX238" s="11"/>
+      <c r="AY238" s="8"/>
+      <c r="AZ238" s="14"/>
+      <c r="BA238" s="13"/>
+      <c r="BB238" s="5"/>
+      <c r="BC238" s="18"/>
+    </row>
+    <row r="239" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="11"/>
       <c r="C239" s="8"/>
@@ -12637,7 +13138,7 @@
       </c>
       <c r="AK239" s="13"/>
       <c r="AL239" s="5"/>
-      <c r="AM239" s="6"/>
+      <c r="AM239" s="18"/>
       <c r="AO239" s="4"/>
       <c r="AP239" s="11"/>
       <c r="AQ239" s="8" t="s">
@@ -12650,9 +13151,16 @@
         <v>2</v>
       </c>
       <c r="AT239" s="5"/>
-      <c r="AU239" s="6"/>
-    </row>
-    <row r="240" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU239" s="18"/>
+      <c r="AW239" s="4"/>
+      <c r="AX239" s="11"/>
+      <c r="AY239" s="8"/>
+      <c r="AZ239" s="14"/>
+      <c r="BA239" s="13"/>
+      <c r="BB239" s="5"/>
+      <c r="BC239" s="18"/>
+    </row>
+    <row r="240" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="11"/>
       <c r="C240" s="8"/>
@@ -12670,7 +13178,7 @@
       </c>
       <c r="AK240" s="13"/>
       <c r="AL240" s="5"/>
-      <c r="AM240" s="6"/>
+      <c r="AM240" s="18"/>
       <c r="AO240" s="4"/>
       <c r="AP240" s="11"/>
       <c r="AQ240" s="8" t="s">
@@ -12681,9 +13189,16 @@
       </c>
       <c r="AS240" s="13"/>
       <c r="AT240" s="5"/>
-      <c r="AU240" s="6"/>
-    </row>
-    <row r="241" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU240" s="18"/>
+      <c r="AW240" s="4"/>
+      <c r="AX240" s="11"/>
+      <c r="AY240" s="8"/>
+      <c r="AZ240" s="14"/>
+      <c r="BA240" s="13"/>
+      <c r="BB240" s="5"/>
+      <c r="BC240" s="18"/>
+    </row>
+    <row r="241" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="11"/>
       <c r="C241" s="8"/>
@@ -12701,7 +13216,7 @@
       </c>
       <c r="AK241" s="13"/>
       <c r="AL241" s="5"/>
-      <c r="AM241" s="6"/>
+      <c r="AM241" s="18"/>
       <c r="AO241" s="4"/>
       <c r="AP241" s="11"/>
       <c r="AQ241" s="8" t="s">
@@ -12712,9 +13227,16 @@
       </c>
       <c r="AS241" s="13"/>
       <c r="AT241" s="5"/>
-      <c r="AU241" s="6"/>
-    </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU241" s="18"/>
+      <c r="AW241" s="4"/>
+      <c r="AX241" s="11"/>
+      <c r="AY241" s="8"/>
+      <c r="AZ241" s="14"/>
+      <c r="BA241" s="13"/>
+      <c r="BB241" s="5"/>
+      <c r="BC241" s="18"/>
+    </row>
+    <row r="242" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="11"/>
       <c r="C242" s="8"/>
@@ -12734,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="AL242" s="5"/>
-      <c r="AM242" s="6"/>
+      <c r="AM242" s="18"/>
       <c r="AO242" s="4"/>
       <c r="AP242" s="11"/>
       <c r="AQ242" s="8" t="s">
@@ -12745,9 +13267,16 @@
       </c>
       <c r="AS242" s="13"/>
       <c r="AT242" s="5"/>
-      <c r="AU242" s="6"/>
-    </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU242" s="18"/>
+      <c r="AW242" s="4"/>
+      <c r="AX242" s="11"/>
+      <c r="AY242" s="8"/>
+      <c r="AZ242" s="14"/>
+      <c r="BA242" s="13"/>
+      <c r="BB242" s="5"/>
+      <c r="BC242" s="18"/>
+    </row>
+    <row r="243" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="11"/>
       <c r="C243" s="8"/>
@@ -12761,7 +13290,7 @@
       <c r="AJ243" s="14"/>
       <c r="AK243" s="13"/>
       <c r="AL243" s="5"/>
-      <c r="AM243" s="6"/>
+      <c r="AM243" s="18"/>
       <c r="AO243" s="4"/>
       <c r="AP243" s="11"/>
       <c r="AQ243" s="8" t="s">
@@ -12772,9 +13301,16 @@
       </c>
       <c r="AS243" s="13"/>
       <c r="AT243" s="5"/>
-      <c r="AU243" s="6"/>
-    </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU243" s="18"/>
+      <c r="AW243" s="4"/>
+      <c r="AX243" s="11"/>
+      <c r="AY243" s="8"/>
+      <c r="AZ243" s="14"/>
+      <c r="BA243" s="13"/>
+      <c r="BB243" s="5"/>
+      <c r="BC243" s="18"/>
+    </row>
+    <row r="244" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="11"/>
       <c r="C244" s="8"/>
@@ -12813,9 +13349,16 @@
         <v>1</v>
       </c>
       <c r="AT244" s="5"/>
-      <c r="AU244" s="6"/>
-    </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU244" s="18"/>
+      <c r="AW244" s="4"/>
+      <c r="AX244" s="11"/>
+      <c r="AY244" s="8"/>
+      <c r="AZ244" s="14"/>
+      <c r="BA244" s="13"/>
+      <c r="BB244" s="5"/>
+      <c r="BC244" s="18"/>
+    </row>
+    <row r="245" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="11"/>
       <c r="C245" s="8"/>
@@ -12840,9 +13383,16 @@
       <c r="AR245" s="14"/>
       <c r="AS245" s="13"/>
       <c r="AT245" s="5"/>
-      <c r="AU245" s="6"/>
-    </row>
-    <row r="246" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU245" s="18"/>
+      <c r="AW245" s="4"/>
+      <c r="AX245" s="11"/>
+      <c r="AY245" s="8"/>
+      <c r="AZ245" s="14"/>
+      <c r="BA245" s="13"/>
+      <c r="BB245" s="5"/>
+      <c r="BC245" s="18"/>
+    </row>
+    <row r="246" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="11"/>
       <c r="C246" s="8"/>
@@ -12880,8 +13430,15 @@
       <c r="AU246" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW246" s="4"/>
+      <c r="AX246" s="11"/>
+      <c r="AY246" s="8"/>
+      <c r="AZ246" s="14"/>
+      <c r="BA246" s="13"/>
+      <c r="BB246" s="5"/>
+      <c r="BC246" s="18"/>
+    </row>
+    <row r="247" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="11"/>
       <c r="C247" s="8"/>
@@ -12911,8 +13468,15 @@
       <c r="AU247" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW247" s="4"/>
+      <c r="AX247" s="11"/>
+      <c r="AY247" s="8"/>
+      <c r="AZ247" s="14"/>
+      <c r="BA247" s="13"/>
+      <c r="BB247" s="5"/>
+      <c r="BC247" s="18"/>
+    </row>
+    <row r="248" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="11"/>
       <c r="C248" s="8"/>
@@ -12932,7 +13496,7 @@
         <v>3</v>
       </c>
       <c r="AL248" s="5"/>
-      <c r="AM248" s="6"/>
+      <c r="AM248" s="18"/>
       <c r="AO248" s="4"/>
       <c r="AP248" s="11"/>
       <c r="AQ248" s="8" t="s">
@@ -12945,9 +13509,16 @@
         <v>3</v>
       </c>
       <c r="AT248" s="5"/>
-      <c r="AU248" s="6"/>
-    </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU248" s="18"/>
+      <c r="AW248" s="4"/>
+      <c r="AX248" s="11"/>
+      <c r="AY248" s="8"/>
+      <c r="AZ248" s="14"/>
+      <c r="BA248" s="13"/>
+      <c r="BB248" s="5"/>
+      <c r="BC248" s="18"/>
+    </row>
+    <row r="249" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="11"/>
       <c r="C249" s="8"/>
@@ -12965,7 +13536,7 @@
       </c>
       <c r="AK249" s="13"/>
       <c r="AL249" s="5"/>
-      <c r="AM249" s="6"/>
+      <c r="AM249" s="18"/>
       <c r="AO249" s="4"/>
       <c r="AP249" s="11"/>
       <c r="AQ249" s="8" t="s">
@@ -12976,9 +13547,16 @@
       </c>
       <c r="AS249" s="13"/>
       <c r="AT249" s="5"/>
-      <c r="AU249" s="6"/>
-    </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU249" s="18"/>
+      <c r="AW249" s="4"/>
+      <c r="AX249" s="11"/>
+      <c r="AY249" s="8"/>
+      <c r="AZ249" s="14"/>
+      <c r="BA249" s="13"/>
+      <c r="BB249" s="5"/>
+      <c r="BC249" s="18"/>
+    </row>
+    <row r="250" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="11"/>
       <c r="C250" s="8"/>
@@ -12996,7 +13574,7 @@
       </c>
       <c r="AK250" s="13"/>
       <c r="AL250" s="5"/>
-      <c r="AM250" s="6"/>
+      <c r="AM250" s="18"/>
       <c r="AO250" s="4"/>
       <c r="AP250" s="11"/>
       <c r="AQ250" s="8" t="s">
@@ -13007,9 +13585,16 @@
       </c>
       <c r="AS250" s="13"/>
       <c r="AT250" s="5"/>
-      <c r="AU250" s="6"/>
-    </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU250" s="18"/>
+      <c r="AW250" s="4"/>
+      <c r="AX250" s="11"/>
+      <c r="AY250" s="8"/>
+      <c r="AZ250" s="14"/>
+      <c r="BA250" s="13"/>
+      <c r="BB250" s="5"/>
+      <c r="BC250" s="18"/>
+    </row>
+    <row r="251" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="11"/>
       <c r="C251" s="8"/>
@@ -13027,7 +13612,7 @@
       </c>
       <c r="AK251" s="13"/>
       <c r="AL251" s="5"/>
-      <c r="AM251" s="6"/>
+      <c r="AM251" s="18"/>
       <c r="AO251" s="4"/>
       <c r="AP251" s="11"/>
       <c r="AQ251" s="8" t="s">
@@ -13043,8 +13628,15 @@
       <c r="AU251" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW251" s="4"/>
+      <c r="AX251" s="11"/>
+      <c r="AY251" s="8"/>
+      <c r="AZ251" s="14"/>
+      <c r="BA251" s="13"/>
+      <c r="BB251" s="5"/>
+      <c r="BC251" s="18"/>
+    </row>
+    <row r="252" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AG252" s="4"/>
       <c r="AH252" s="11"/>
       <c r="AI252" s="9" t="s">
@@ -13057,7 +13649,7 @@
         <v>2</v>
       </c>
       <c r="AL252" s="5"/>
-      <c r="AM252" s="6"/>
+      <c r="AM252" s="18"/>
       <c r="AO252" s="4"/>
       <c r="AP252" s="11"/>
       <c r="AQ252" s="8"/>
@@ -13069,8 +13661,15 @@
       <c r="AU252" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="253" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW252" s="4"/>
+      <c r="AX252" s="11"/>
+      <c r="AY252" s="8"/>
+      <c r="AZ252" s="14"/>
+      <c r="BA252" s="13"/>
+      <c r="BB252" s="5"/>
+      <c r="BC252" s="18"/>
+    </row>
+    <row r="253" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AG253" s="4"/>
       <c r="AH253" s="11"/>
       <c r="AI253" s="9" t="s">
@@ -13081,7 +13680,7 @@
       </c>
       <c r="AK253" s="13"/>
       <c r="AL253" s="5"/>
-      <c r="AM253" s="6"/>
+      <c r="AM253" s="18"/>
       <c r="AO253" s="4"/>
       <c r="AP253" s="11"/>
       <c r="AQ253" s="8" t="s">
@@ -13097,8 +13696,15 @@
       <c r="AU253" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="254" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW253" s="4"/>
+      <c r="AX253" s="11"/>
+      <c r="AY253" s="8"/>
+      <c r="AZ253" s="14"/>
+      <c r="BA253" s="13"/>
+      <c r="BB253" s="5"/>
+      <c r="BC253" s="18"/>
+    </row>
+    <row r="254" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AG254" s="4"/>
       <c r="AH254" s="11"/>
       <c r="AI254" s="9" t="s">
@@ -13109,7 +13715,7 @@
       </c>
       <c r="AK254" s="13"/>
       <c r="AL254" s="5"/>
-      <c r="AM254" s="6"/>
+      <c r="AM254" s="18"/>
       <c r="AO254" s="4"/>
       <c r="AP254" s="11"/>
       <c r="AQ254" s="8"/>
@@ -13121,8 +13727,15 @@
       <c r="AU254" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AW254" s="4"/>
+      <c r="AX254" s="11"/>
+      <c r="AY254" s="8"/>
+      <c r="AZ254" s="14"/>
+      <c r="BA254" s="13"/>
+      <c r="BB254" s="5"/>
+      <c r="BC254" s="18"/>
+    </row>
+    <row r="255" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AG255" s="4"/>
       <c r="AH255" s="11"/>
       <c r="AI255" s="9" t="s">
@@ -13133,7 +13746,7 @@
       </c>
       <c r="AK255" s="13"/>
       <c r="AL255" s="5"/>
-      <c r="AM255" s="6"/>
+      <c r="AM255" s="18"/>
       <c r="AO255" s="4"/>
       <c r="AP255" s="11"/>
       <c r="AQ255" s="8" t="s">
@@ -13146,9 +13759,16 @@
         <v>2</v>
       </c>
       <c r="AT255" s="5"/>
-      <c r="AU255" s="6"/>
-    </row>
-    <row r="256" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU255" s="18"/>
+      <c r="AW255" s="4"/>
+      <c r="AX255" s="11"/>
+      <c r="AY255" s="8"/>
+      <c r="AZ255" s="14"/>
+      <c r="BA255" s="13"/>
+      <c r="BB255" s="5"/>
+      <c r="BC255" s="18"/>
+    </row>
+    <row r="256" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AG256" s="4"/>
       <c r="AH256" s="11"/>
       <c r="AI256" s="9" t="s">
@@ -13159,7 +13779,7 @@
       </c>
       <c r="AK256" s="13"/>
       <c r="AL256" s="5"/>
-      <c r="AM256" s="6"/>
+      <c r="AM256" s="18"/>
       <c r="AO256" s="4"/>
       <c r="AP256" s="11"/>
       <c r="AQ256" s="8" t="s">
@@ -13170,9 +13790,16 @@
       </c>
       <c r="AS256" s="13"/>
       <c r="AT256" s="5"/>
-      <c r="AU256" s="6"/>
-    </row>
-    <row r="257" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU256" s="18"/>
+      <c r="AW256" s="4"/>
+      <c r="AX256" s="11"/>
+      <c r="AY256" s="8"/>
+      <c r="AZ256" s="14"/>
+      <c r="BA256" s="13"/>
+      <c r="BB256" s="5"/>
+      <c r="BC256" s="18"/>
+    </row>
+    <row r="257" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG257" s="4"/>
       <c r="AH257" s="11"/>
       <c r="AI257" s="9" t="s">
@@ -13183,7 +13810,7 @@
       </c>
       <c r="AK257" s="13"/>
       <c r="AL257" s="5"/>
-      <c r="AM257" s="6"/>
+      <c r="AM257" s="18"/>
       <c r="AO257" s="4"/>
       <c r="AP257" s="11"/>
       <c r="AQ257" s="8" t="s">
@@ -13194,9 +13821,16 @@
       </c>
       <c r="AS257" s="13"/>
       <c r="AT257" s="5"/>
-      <c r="AU257" s="6"/>
-    </row>
-    <row r="258" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU257" s="18"/>
+      <c r="AW257" s="4"/>
+      <c r="AX257" s="11"/>
+      <c r="AY257" s="8"/>
+      <c r="AZ257" s="14"/>
+      <c r="BA257" s="13"/>
+      <c r="BB257" s="5"/>
+      <c r="BC257" s="18"/>
+    </row>
+    <row r="258" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG258" s="4"/>
       <c r="AH258" s="11"/>
       <c r="AI258" s="9" t="s">
@@ -13207,7 +13841,7 @@
       </c>
       <c r="AK258" s="13"/>
       <c r="AL258" s="5"/>
-      <c r="AM258" s="6"/>
+      <c r="AM258" s="18"/>
       <c r="AO258" s="4"/>
       <c r="AP258" s="11"/>
       <c r="AQ258" s="8" t="s">
@@ -13218,9 +13852,16 @@
       </c>
       <c r="AS258" s="13"/>
       <c r="AT258" s="5"/>
-      <c r="AU258" s="6"/>
-    </row>
-    <row r="259" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU258" s="18"/>
+      <c r="AW258" s="4"/>
+      <c r="AX258" s="11"/>
+      <c r="AY258" s="8"/>
+      <c r="AZ258" s="14"/>
+      <c r="BA258" s="13"/>
+      <c r="BB258" s="5"/>
+      <c r="BC258" s="18"/>
+    </row>
+    <row r="259" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG259" s="4"/>
       <c r="AH259" s="11"/>
       <c r="AI259" s="9" t="s">
@@ -13233,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="AL259" s="5"/>
-      <c r="AM259" s="6"/>
+      <c r="AM259" s="18"/>
       <c r="AO259" s="4"/>
       <c r="AP259" s="11"/>
       <c r="AQ259" s="8" t="s">
@@ -13244,16 +13885,23 @@
       </c>
       <c r="AS259" s="13"/>
       <c r="AT259" s="5"/>
-      <c r="AU259" s="6"/>
-    </row>
-    <row r="260" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU259" s="18"/>
+      <c r="AW259" s="4"/>
+      <c r="AX259" s="11"/>
+      <c r="AY259" s="8"/>
+      <c r="AZ259" s="14"/>
+      <c r="BA259" s="13"/>
+      <c r="BB259" s="5"/>
+      <c r="BC259" s="18"/>
+    </row>
+    <row r="260" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG260" s="4"/>
       <c r="AH260" s="11"/>
       <c r="AI260" s="8"/>
       <c r="AJ260" s="14"/>
       <c r="AK260" s="13"/>
       <c r="AL260" s="5"/>
-      <c r="AM260" s="6"/>
+      <c r="AM260" s="18"/>
       <c r="AO260" s="4"/>
       <c r="AP260" s="11"/>
       <c r="AQ260" s="8" t="s">
@@ -13266,9 +13914,16 @@
         <v>1</v>
       </c>
       <c r="AT260" s="5"/>
-      <c r="AU260" s="6"/>
-    </row>
-    <row r="261" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU260" s="18"/>
+      <c r="AW260" s="4"/>
+      <c r="AX260" s="11"/>
+      <c r="AY260" s="8"/>
+      <c r="AZ260" s="14"/>
+      <c r="BA260" s="13"/>
+      <c r="BB260" s="5"/>
+      <c r="BC260" s="18"/>
+    </row>
+    <row r="261" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG261" s="4"/>
       <c r="AH261" s="17" t="s">
         <v>68</v>
@@ -13283,16 +13938,23 @@
         <v>4</v>
       </c>
       <c r="AL261" s="5"/>
-      <c r="AM261" s="6"/>
+      <c r="AM261" s="18"/>
       <c r="AO261" s="4"/>
       <c r="AP261" s="11"/>
       <c r="AQ261" s="8"/>
       <c r="AR261" s="14"/>
       <c r="AS261" s="13"/>
       <c r="AT261" s="5"/>
-      <c r="AU261" s="6"/>
-    </row>
-    <row r="262" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU261" s="18"/>
+      <c r="AW261" s="4"/>
+      <c r="AX261" s="11"/>
+      <c r="AY261" s="8"/>
+      <c r="AZ261" s="14"/>
+      <c r="BA261" s="13"/>
+      <c r="BB261" s="5"/>
+      <c r="BC261" s="18"/>
+    </row>
+    <row r="262" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG262" s="4"/>
       <c r="AH262" s="11"/>
       <c r="AI262" s="9" t="s">
@@ -13305,7 +13967,7 @@
         <v>3</v>
       </c>
       <c r="AL262" s="5"/>
-      <c r="AM262" s="6"/>
+      <c r="AM262" s="18"/>
       <c r="AO262" s="4" t="s">
         <v>86</v>
       </c>
@@ -13322,9 +13984,16 @@
         <v>4</v>
       </c>
       <c r="AT262" s="5"/>
-      <c r="AU262" s="6"/>
-    </row>
-    <row r="263" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU262" s="18"/>
+      <c r="AW262" s="4"/>
+      <c r="AX262" s="11"/>
+      <c r="AY262" s="8"/>
+      <c r="AZ262" s="14"/>
+      <c r="BA262" s="13"/>
+      <c r="BB262" s="5"/>
+      <c r="BC262" s="18"/>
+    </row>
+    <row r="263" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG263" s="4"/>
       <c r="AH263" s="11"/>
       <c r="AI263" s="9" t="s">
@@ -13335,7 +14004,7 @@
       </c>
       <c r="AK263" s="13"/>
       <c r="AL263" s="5"/>
-      <c r="AM263" s="6"/>
+      <c r="AM263" s="18"/>
       <c r="AO263" s="4"/>
       <c r="AP263" s="11"/>
       <c r="AQ263" s="8" t="s">
@@ -13348,9 +14017,16 @@
         <v>3</v>
       </c>
       <c r="AT263" s="5"/>
-      <c r="AU263" s="6"/>
-    </row>
-    <row r="264" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU263" s="18"/>
+      <c r="AW263" s="4"/>
+      <c r="AX263" s="11"/>
+      <c r="AY263" s="8"/>
+      <c r="AZ263" s="14"/>
+      <c r="BA263" s="13"/>
+      <c r="BB263" s="5"/>
+      <c r="BC263" s="18"/>
+    </row>
+    <row r="264" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG264" s="4"/>
       <c r="AH264" s="11"/>
       <c r="AI264" s="9" t="s">
@@ -13361,7 +14037,7 @@
       </c>
       <c r="AK264" s="13"/>
       <c r="AL264" s="5"/>
-      <c r="AM264" s="6"/>
+      <c r="AM264" s="18"/>
       <c r="AO264" s="4"/>
       <c r="AP264" s="11"/>
       <c r="AQ264" s="8" t="s">
@@ -13372,9 +14048,16 @@
       </c>
       <c r="AS264" s="13"/>
       <c r="AT264" s="5"/>
-      <c r="AU264" s="6"/>
-    </row>
-    <row r="265" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU264" s="18"/>
+      <c r="AW264" s="4"/>
+      <c r="AX264" s="11"/>
+      <c r="AY264" s="8"/>
+      <c r="AZ264" s="14"/>
+      <c r="BA264" s="13"/>
+      <c r="BB264" s="5"/>
+      <c r="BC264" s="18"/>
+    </row>
+    <row r="265" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG265" s="4"/>
       <c r="AH265" s="11"/>
       <c r="AI265" s="9" t="s">
@@ -13385,7 +14068,7 @@
       </c>
       <c r="AK265" s="13"/>
       <c r="AL265" s="5"/>
-      <c r="AM265" s="6"/>
+      <c r="AM265" s="18"/>
       <c r="AO265" s="4"/>
       <c r="AP265" s="11"/>
       <c r="AQ265" s="8" t="s">
@@ -13396,9 +14079,16 @@
       </c>
       <c r="AS265" s="13"/>
       <c r="AT265" s="5"/>
-      <c r="AU265" s="6"/>
-    </row>
-    <row r="266" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU265" s="18"/>
+      <c r="AW265" s="4"/>
+      <c r="AX265" s="11"/>
+      <c r="AY265" s="8"/>
+      <c r="AZ265" s="14"/>
+      <c r="BA265" s="13"/>
+      <c r="BB265" s="5"/>
+      <c r="BC265" s="18"/>
+    </row>
+    <row r="266" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG266" s="4"/>
       <c r="AH266" s="11"/>
       <c r="AI266" s="9" t="s">
@@ -13409,7 +14099,7 @@
       </c>
       <c r="AK266" s="13"/>
       <c r="AL266" s="5"/>
-      <c r="AM266" s="6"/>
+      <c r="AM266" s="18"/>
       <c r="AO266" s="4"/>
       <c r="AP266" s="11"/>
       <c r="AQ266" s="8" t="s">
@@ -13420,9 +14110,16 @@
       </c>
       <c r="AS266" s="13"/>
       <c r="AT266" s="5"/>
-      <c r="AU266" s="6"/>
-    </row>
-    <row r="267" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU266" s="18"/>
+      <c r="AW266" s="4"/>
+      <c r="AX266" s="11"/>
+      <c r="AY266" s="8"/>
+      <c r="AZ266" s="14"/>
+      <c r="BA266" s="13"/>
+      <c r="BB266" s="5"/>
+      <c r="BC266" s="18"/>
+    </row>
+    <row r="267" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG267" s="4"/>
       <c r="AH267" s="11"/>
       <c r="AI267" s="9" t="s">
@@ -13435,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="AL267" s="5"/>
-      <c r="AM267" s="6"/>
+      <c r="AM267" s="18"/>
       <c r="AO267" s="4"/>
       <c r="AP267" s="11"/>
       <c r="AQ267" s="8" t="s">
@@ -13451,8 +14148,15 @@
       <c r="AU267" s="18">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="268" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW267" s="4"/>
+      <c r="AX267" s="11"/>
+      <c r="AY267" s="8"/>
+      <c r="AZ267" s="14"/>
+      <c r="BA267" s="13"/>
+      <c r="BB267" s="5"/>
+      <c r="BC267" s="18"/>
+    </row>
+    <row r="268" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG268" s="4"/>
       <c r="AH268" s="11"/>
       <c r="AI268" s="9" t="s">
@@ -13463,7 +14167,7 @@
       </c>
       <c r="AK268" s="13"/>
       <c r="AL268" s="5"/>
-      <c r="AM268" s="6"/>
+      <c r="AM268" s="18"/>
       <c r="AO268" s="4"/>
       <c r="AP268" s="11"/>
       <c r="AQ268" s="8"/>
@@ -13475,8 +14179,15 @@
       <c r="AU268" s="18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="269" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW268" s="4"/>
+      <c r="AX268" s="11"/>
+      <c r="AY268" s="8"/>
+      <c r="AZ268" s="14"/>
+      <c r="BA268" s="13"/>
+      <c r="BB268" s="5"/>
+      <c r="BC268" s="18"/>
+    </row>
+    <row r="269" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG269" s="4"/>
       <c r="AH269" s="11"/>
       <c r="AI269" s="9" t="s">
@@ -13487,7 +14198,7 @@
       </c>
       <c r="AK269" s="13"/>
       <c r="AL269" s="5"/>
-      <c r="AM269" s="6"/>
+      <c r="AM269" s="18"/>
       <c r="AO269" s="4"/>
       <c r="AP269" s="11"/>
       <c r="AQ269" s="8" t="s">
@@ -13500,9 +14211,16 @@
         <v>2</v>
       </c>
       <c r="AT269" s="5"/>
-      <c r="AU269" s="6"/>
-    </row>
-    <row r="270" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU269" s="18"/>
+      <c r="AW269" s="4"/>
+      <c r="AX269" s="11"/>
+      <c r="AY269" s="8"/>
+      <c r="AZ269" s="14"/>
+      <c r="BA269" s="13"/>
+      <c r="BB269" s="5"/>
+      <c r="BC269" s="18"/>
+    </row>
+    <row r="270" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG270" s="4"/>
       <c r="AH270" s="11"/>
       <c r="AI270" s="9" t="s">
@@ -13513,7 +14231,7 @@
       </c>
       <c r="AK270" s="13"/>
       <c r="AL270" s="5"/>
-      <c r="AM270" s="6"/>
+      <c r="AM270" s="18"/>
       <c r="AO270" s="4"/>
       <c r="AP270" s="11"/>
       <c r="AQ270" s="8" t="s">
@@ -13524,9 +14242,16 @@
       </c>
       <c r="AS270" s="13"/>
       <c r="AT270" s="5"/>
-      <c r="AU270" s="6"/>
-    </row>
-    <row r="271" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU270" s="18"/>
+      <c r="AW270" s="4"/>
+      <c r="AX270" s="11"/>
+      <c r="AY270" s="8"/>
+      <c r="AZ270" s="14"/>
+      <c r="BA270" s="13"/>
+      <c r="BB270" s="5"/>
+      <c r="BC270" s="18"/>
+    </row>
+    <row r="271" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG271" s="4"/>
       <c r="AH271" s="11"/>
       <c r="AI271" s="9" t="s">
@@ -13537,7 +14262,7 @@
       </c>
       <c r="AK271" s="13"/>
       <c r="AL271" s="5"/>
-      <c r="AM271" s="6"/>
+      <c r="AM271" s="18"/>
       <c r="AO271" s="4"/>
       <c r="AP271" s="11"/>
       <c r="AQ271" s="8" t="s">
@@ -13548,9 +14273,16 @@
       </c>
       <c r="AS271" s="13"/>
       <c r="AT271" s="5"/>
-      <c r="AU271" s="6"/>
-    </row>
-    <row r="272" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU271" s="18"/>
+      <c r="AW271" s="4"/>
+      <c r="AX271" s="11"/>
+      <c r="AY271" s="8"/>
+      <c r="AZ271" s="14"/>
+      <c r="BA271" s="13"/>
+      <c r="BB271" s="5"/>
+      <c r="BC271" s="18"/>
+    </row>
+    <row r="272" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG272" s="4"/>
       <c r="AH272" s="11"/>
       <c r="AI272" s="9" t="s">
@@ -13561,7 +14293,7 @@
       </c>
       <c r="AK272" s="13"/>
       <c r="AL272" s="5"/>
-      <c r="AM272" s="6"/>
+      <c r="AM272" s="18"/>
       <c r="AO272" s="4"/>
       <c r="AP272" s="11"/>
       <c r="AQ272" s="8" t="s">
@@ -13572,9 +14304,16 @@
       </c>
       <c r="AS272" s="13"/>
       <c r="AT272" s="5"/>
-      <c r="AU272" s="6"/>
-    </row>
-    <row r="273" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU272" s="18"/>
+      <c r="AW272" s="4"/>
+      <c r="AX272" s="11"/>
+      <c r="AY272" s="8"/>
+      <c r="AZ272" s="14"/>
+      <c r="BA272" s="13"/>
+      <c r="BB272" s="5"/>
+      <c r="BC272" s="18"/>
+    </row>
+    <row r="273" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG273" s="4"/>
       <c r="AH273" s="11"/>
       <c r="AI273" s="9" t="s">
@@ -13585,7 +14324,7 @@
       </c>
       <c r="AK273" s="13"/>
       <c r="AL273" s="5"/>
-      <c r="AM273" s="6"/>
+      <c r="AM273" s="18"/>
       <c r="AO273" s="4"/>
       <c r="AP273" s="11"/>
       <c r="AQ273" s="8" t="s">
@@ -13596,9 +14335,16 @@
       </c>
       <c r="AS273" s="13"/>
       <c r="AT273" s="5"/>
-      <c r="AU273" s="6"/>
-    </row>
-    <row r="274" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU273" s="18"/>
+      <c r="AW273" s="4"/>
+      <c r="AX273" s="11"/>
+      <c r="AY273" s="8"/>
+      <c r="AZ273" s="14"/>
+      <c r="BA273" s="13"/>
+      <c r="BB273" s="5"/>
+      <c r="BC273" s="18"/>
+    </row>
+    <row r="274" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG274" s="4"/>
       <c r="AH274" s="11"/>
       <c r="AI274" s="9" t="s">
@@ -13611,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="AL274" s="5"/>
-      <c r="AM274" s="6"/>
+      <c r="AM274" s="18"/>
       <c r="AO274" s="4"/>
       <c r="AP274" s="11"/>
       <c r="AQ274" s="8" t="s">
@@ -13622,16 +14368,16 @@
       </c>
       <c r="AS274" s="13"/>
       <c r="AT274" s="5"/>
-      <c r="AU274" s="6"/>
-    </row>
-    <row r="275" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU274" s="18"/>
+    </row>
+    <row r="275" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG275" s="4"/>
       <c r="AH275" s="11"/>
       <c r="AI275" s="8"/>
       <c r="AJ275" s="14"/>
       <c r="AK275" s="13"/>
       <c r="AL275" s="5"/>
-      <c r="AM275" s="6"/>
+      <c r="AM275" s="18"/>
       <c r="AO275" s="4"/>
       <c r="AP275" s="11"/>
       <c r="AQ275" s="8" t="s">
@@ -13642,9 +14388,9 @@
       </c>
       <c r="AS275" s="13"/>
       <c r="AT275" s="5"/>
-      <c r="AU275" s="6"/>
-    </row>
-    <row r="276" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU275" s="18"/>
+    </row>
+    <row r="276" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG276" s="4"/>
       <c r="AH276" s="17" t="s">
         <v>69</v>
@@ -13659,7 +14405,7 @@
         <v>4</v>
       </c>
       <c r="AL276" s="5"/>
-      <c r="AM276" s="6"/>
+      <c r="AM276" s="18"/>
       <c r="AO276" s="4"/>
       <c r="AP276" s="11"/>
       <c r="AQ276" s="8" t="s">
@@ -13672,9 +14418,9 @@
         <v>1</v>
       </c>
       <c r="AT276" s="5"/>
-      <c r="AU276" s="6"/>
-    </row>
-    <row r="277" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU276" s="18"/>
+    </row>
+    <row r="277" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG277" s="4"/>
       <c r="AH277" s="11"/>
       <c r="AI277" s="9" t="s">
@@ -13687,16 +14433,16 @@
         <v>3</v>
       </c>
       <c r="AL277" s="5"/>
-      <c r="AM277" s="6"/>
+      <c r="AM277" s="18"/>
       <c r="AO277" s="4"/>
       <c r="AP277" s="11"/>
       <c r="AQ277" s="8"/>
       <c r="AR277" s="14"/>
       <c r="AS277" s="13"/>
       <c r="AT277" s="5"/>
-      <c r="AU277" s="6"/>
-    </row>
-    <row r="278" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU277" s="18"/>
+    </row>
+    <row r="278" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG278" s="4"/>
       <c r="AH278" s="11"/>
       <c r="AI278" s="9" t="s">
@@ -13707,7 +14453,7 @@
       </c>
       <c r="AK278" s="13"/>
       <c r="AL278" s="5"/>
-      <c r="AM278" s="6"/>
+      <c r="AM278" s="18"/>
       <c r="AO278" s="4" t="s">
         <v>86</v>
       </c>
@@ -13724,9 +14470,9 @@
         <v>4</v>
       </c>
       <c r="AT278" s="5"/>
-      <c r="AU278" s="6"/>
-    </row>
-    <row r="279" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU278" s="18"/>
+    </row>
+    <row r="279" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG279" s="4"/>
       <c r="AH279" s="11"/>
       <c r="AI279" s="9" t="s">
@@ -13737,7 +14483,7 @@
       </c>
       <c r="AK279" s="13"/>
       <c r="AL279" s="5"/>
-      <c r="AM279" s="6"/>
+      <c r="AM279" s="18"/>
       <c r="AO279" s="4"/>
       <c r="AP279" s="11"/>
       <c r="AQ279" s="8" t="s">
@@ -13750,9 +14496,9 @@
         <v>3</v>
       </c>
       <c r="AT279" s="5"/>
-      <c r="AU279" s="6"/>
-    </row>
-    <row r="280" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU279" s="18"/>
+    </row>
+    <row r="280" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG280" s="4"/>
       <c r="AH280" s="11"/>
       <c r="AI280" s="9" t="s">
@@ -13763,7 +14509,7 @@
       </c>
       <c r="AK280" s="13"/>
       <c r="AL280" s="5"/>
-      <c r="AM280" s="6"/>
+      <c r="AM280" s="18"/>
       <c r="AO280" s="4"/>
       <c r="AP280" s="11"/>
       <c r="AQ280" s="8" t="s">
@@ -13774,9 +14520,9 @@
       </c>
       <c r="AS280" s="13"/>
       <c r="AT280" s="5"/>
-      <c r="AU280" s="6"/>
-    </row>
-    <row r="281" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU280" s="18"/>
+    </row>
+    <row r="281" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG281" s="4"/>
       <c r="AH281" s="11"/>
       <c r="AI281" s="9" t="s">
@@ -13787,7 +14533,7 @@
       </c>
       <c r="AK281" s="13"/>
       <c r="AL281" s="5"/>
-      <c r="AM281" s="6"/>
+      <c r="AM281" s="18"/>
       <c r="AO281" s="4"/>
       <c r="AP281" s="11"/>
       <c r="AQ281" s="8" t="s">
@@ -13798,9 +14544,9 @@
       </c>
       <c r="AS281" s="13"/>
       <c r="AT281" s="5"/>
-      <c r="AU281" s="6"/>
-    </row>
-    <row r="282" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU281" s="18"/>
+    </row>
+    <row r="282" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG282" s="4"/>
       <c r="AH282" s="11"/>
       <c r="AI282" s="9" t="s">
@@ -13813,7 +14559,7 @@
         <v>2</v>
       </c>
       <c r="AL282" s="5"/>
-      <c r="AM282" s="6"/>
+      <c r="AM282" s="18"/>
       <c r="AO282" s="4"/>
       <c r="AP282" s="11"/>
       <c r="AQ282" s="8" t="s">
@@ -13824,9 +14570,9 @@
       </c>
       <c r="AS282" s="13"/>
       <c r="AT282" s="5"/>
-      <c r="AU282" s="6"/>
-    </row>
-    <row r="283" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU282" s="18"/>
+    </row>
+    <row r="283" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG283" s="4"/>
       <c r="AH283" s="11"/>
       <c r="AI283" s="9" t="s">
@@ -13837,7 +14583,7 @@
       </c>
       <c r="AK283" s="13"/>
       <c r="AL283" s="5"/>
-      <c r="AM283" s="6"/>
+      <c r="AM283" s="18"/>
       <c r="AO283" s="4"/>
       <c r="AP283" s="11"/>
       <c r="AQ283" s="8" t="s">
@@ -13854,7 +14600,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="284" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="284" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG284" s="4"/>
       <c r="AH284" s="11"/>
       <c r="AI284" s="9" t="s">
@@ -13865,7 +14611,7 @@
       </c>
       <c r="AK284" s="13"/>
       <c r="AL284" s="5"/>
-      <c r="AM284" s="6"/>
+      <c r="AM284" s="18"/>
       <c r="AO284" s="4"/>
       <c r="AP284" s="11"/>
       <c r="AQ284" s="8"/>
@@ -13878,7 +14624,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="285" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="285" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG285" s="4"/>
       <c r="AH285" s="11"/>
       <c r="AI285" s="9" t="s">
@@ -13889,7 +14635,7 @@
       </c>
       <c r="AK285" s="13"/>
       <c r="AL285" s="5"/>
-      <c r="AM285" s="6"/>
+      <c r="AM285" s="18"/>
       <c r="AO285" s="4"/>
       <c r="AP285" s="11"/>
       <c r="AQ285" s="8" t="s">
@@ -13902,9 +14648,9 @@
         <v>2</v>
       </c>
       <c r="AT285" s="5"/>
-      <c r="AU285" s="6"/>
-    </row>
-    <row r="286" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU285" s="18"/>
+    </row>
+    <row r="286" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG286" s="4"/>
       <c r="AH286" s="11"/>
       <c r="AI286" s="9" t="s">
@@ -13915,7 +14661,7 @@
       </c>
       <c r="AK286" s="13"/>
       <c r="AL286" s="5"/>
-      <c r="AM286" s="6"/>
+      <c r="AM286" s="18"/>
       <c r="AO286" s="4"/>
       <c r="AP286" s="11"/>
       <c r="AQ286" s="8" t="s">
@@ -13926,9 +14672,9 @@
       </c>
       <c r="AS286" s="13"/>
       <c r="AT286" s="5"/>
-      <c r="AU286" s="6"/>
-    </row>
-    <row r="287" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU286" s="18"/>
+    </row>
+    <row r="287" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG287" s="4"/>
       <c r="AH287" s="11"/>
       <c r="AI287" s="9" t="s">
@@ -13939,7 +14685,7 @@
       </c>
       <c r="AK287" s="13"/>
       <c r="AL287" s="5"/>
-      <c r="AM287" s="6"/>
+      <c r="AM287" s="18"/>
       <c r="AO287" s="4"/>
       <c r="AP287" s="11"/>
       <c r="AQ287" s="8" t="s">
@@ -13950,9 +14696,9 @@
       </c>
       <c r="AS287" s="13"/>
       <c r="AT287" s="5"/>
-      <c r="AU287" s="6"/>
-    </row>
-    <row r="288" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AU287" s="18"/>
+    </row>
+    <row r="288" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG288" s="4"/>
       <c r="AH288" s="11"/>
       <c r="AI288" s="9" t="s">
@@ -13963,7 +14709,7 @@
       </c>
       <c r="AK288" s="13"/>
       <c r="AL288" s="5"/>
-      <c r="AM288" s="6"/>
+      <c r="AM288" s="18"/>
       <c r="AO288" s="4"/>
       <c r="AP288" s="11"/>
       <c r="AQ288" s="8" t="s">
@@ -13974,7 +14720,7 @@
       </c>
       <c r="AS288" s="13"/>
       <c r="AT288" s="5"/>
-      <c r="AU288" s="6"/>
+      <c r="AU288" s="18"/>
     </row>
     <row r="289" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG289" s="4"/>
@@ -13989,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="AL289" s="5"/>
-      <c r="AM289" s="6"/>
+      <c r="AM289" s="18"/>
       <c r="AO289" s="4"/>
       <c r="AP289" s="11"/>
       <c r="AQ289" s="8" t="s">
@@ -14000,7 +14746,7 @@
       </c>
       <c r="AS289" s="13"/>
       <c r="AT289" s="5"/>
-      <c r="AU289" s="6"/>
+      <c r="AU289" s="18"/>
     </row>
     <row r="290" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG290" s="4"/>
@@ -14012,7 +14758,7 @@
       </c>
       <c r="AK290" s="13"/>
       <c r="AL290" s="5"/>
-      <c r="AM290" s="6"/>
+      <c r="AM290" s="18"/>
       <c r="AO290" s="4"/>
       <c r="AP290" s="11"/>
       <c r="AQ290" s="8" t="s">
@@ -14023,7 +14769,7 @@
       </c>
       <c r="AS290" s="13"/>
       <c r="AT290" s="5"/>
-      <c r="AU290" s="6"/>
+      <c r="AU290" s="18"/>
     </row>
     <row r="291" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG291" s="4"/>
@@ -14040,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="AL291" s="5"/>
-      <c r="AM291" s="6"/>
+      <c r="AM291" s="18"/>
       <c r="AO291" s="4"/>
       <c r="AP291" s="11"/>
       <c r="AQ291" s="8" t="s">
@@ -14051,7 +14797,7 @@
       </c>
       <c r="AS291" s="13"/>
       <c r="AT291" s="5"/>
-      <c r="AU291" s="6"/>
+      <c r="AU291" s="18"/>
     </row>
     <row r="292" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG292" s="4"/>
@@ -14066,7 +14812,7 @@
         <v>3</v>
       </c>
       <c r="AL292" s="5"/>
-      <c r="AM292" s="6"/>
+      <c r="AM292" s="18"/>
       <c r="AO292" s="4"/>
       <c r="AP292" s="11"/>
       <c r="AQ292" s="8" t="s">
@@ -14079,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="AT292" s="5"/>
-      <c r="AU292" s="6"/>
+      <c r="AU292" s="18"/>
     </row>
     <row r="293" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG293" s="4"/>
@@ -14092,14 +14838,14 @@
       </c>
       <c r="AK293" s="13"/>
       <c r="AL293" s="5"/>
-      <c r="AM293" s="6"/>
+      <c r="AM293" s="18"/>
       <c r="AO293" s="4"/>
       <c r="AP293" s="11"/>
       <c r="AQ293" s="8"/>
       <c r="AR293" s="14"/>
       <c r="AS293" s="13"/>
       <c r="AT293" s="5"/>
-      <c r="AU293" s="6"/>
+      <c r="AU293" s="18"/>
     </row>
     <row r="294" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG294" s="4"/>
@@ -14112,7 +14858,7 @@
       </c>
       <c r="AK294" s="13"/>
       <c r="AL294" s="5"/>
-      <c r="AM294" s="6"/>
+      <c r="AM294" s="18"/>
       <c r="AO294" s="4"/>
       <c r="AP294" s="11" t="s">
         <v>107</v>
@@ -14127,7 +14873,7 @@
         <v>4</v>
       </c>
       <c r="AT294" s="5"/>
-      <c r="AU294" s="6"/>
+      <c r="AU294" s="18"/>
     </row>
     <row r="295" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG295" s="4"/>
@@ -14140,7 +14886,7 @@
       </c>
       <c r="AK295" s="13"/>
       <c r="AL295" s="5"/>
-      <c r="AM295" s="6"/>
+      <c r="AM295" s="18"/>
       <c r="AO295" s="4"/>
       <c r="AP295" s="11"/>
       <c r="AQ295" s="8" t="s">
@@ -14153,7 +14899,7 @@
         <v>3</v>
       </c>
       <c r="AT295" s="5"/>
-      <c r="AU295" s="6"/>
+      <c r="AU295" s="18"/>
     </row>
     <row r="296" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG296" s="4"/>
@@ -14168,7 +14914,7 @@
         <v>2</v>
       </c>
       <c r="AL296" s="5"/>
-      <c r="AM296" s="6"/>
+      <c r="AM296" s="18"/>
       <c r="AO296" s="4"/>
       <c r="AP296" s="11"/>
       <c r="AQ296" s="8" t="s">
@@ -14179,7 +14925,7 @@
       </c>
       <c r="AS296" s="13"/>
       <c r="AT296" s="5"/>
-      <c r="AU296" s="6"/>
+      <c r="AU296" s="18"/>
     </row>
     <row r="297" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG297" s="4"/>
@@ -14192,7 +14938,7 @@
       </c>
       <c r="AK297" s="13"/>
       <c r="AL297" s="5"/>
-      <c r="AM297" s="6"/>
+      <c r="AM297" s="18"/>
       <c r="AO297" s="4"/>
       <c r="AP297" s="11"/>
       <c r="AQ297" s="8" t="s">
@@ -14203,7 +14949,7 @@
       </c>
       <c r="AS297" s="13"/>
       <c r="AT297" s="5"/>
-      <c r="AU297" s="6"/>
+      <c r="AU297" s="18"/>
     </row>
     <row r="298" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG298" s="4"/>
@@ -14216,7 +14962,7 @@
       </c>
       <c r="AK298" s="13"/>
       <c r="AL298" s="5"/>
-      <c r="AM298" s="6"/>
+      <c r="AM298" s="18"/>
       <c r="AO298" s="4"/>
       <c r="AP298" s="11"/>
       <c r="AQ298" s="8" t="s">
@@ -14244,7 +14990,7 @@
       </c>
       <c r="AK299" s="13"/>
       <c r="AL299" s="5"/>
-      <c r="AM299" s="6"/>
+      <c r="AM299" s="18"/>
       <c r="AO299" s="4"/>
       <c r="AP299" s="11"/>
       <c r="AQ299" s="8"/>
@@ -14268,7 +15014,7 @@
       </c>
       <c r="AK300" s="13"/>
       <c r="AL300" s="5"/>
-      <c r="AM300" s="6"/>
+      <c r="AM300" s="18"/>
       <c r="AO300" s="4"/>
       <c r="AP300" s="11"/>
       <c r="AQ300" s="8" t="s">
@@ -14281,7 +15027,7 @@
         <v>2</v>
       </c>
       <c r="AT300" s="5"/>
-      <c r="AU300" s="6"/>
+      <c r="AU300" s="18"/>
     </row>
     <row r="301" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG301" s="4"/>
@@ -14294,7 +15040,7 @@
       </c>
       <c r="AK301" s="13"/>
       <c r="AL301" s="5"/>
-      <c r="AM301" s="6"/>
+      <c r="AM301" s="18"/>
       <c r="AO301" s="4"/>
       <c r="AP301" s="11"/>
       <c r="AQ301" s="8" t="s">
@@ -14305,7 +15051,7 @@
       </c>
       <c r="AS301" s="13"/>
       <c r="AT301" s="5"/>
-      <c r="AU301" s="6"/>
+      <c r="AU301" s="18"/>
     </row>
     <row r="302" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG302" s="4"/>
@@ -14318,7 +15064,7 @@
       </c>
       <c r="AK302" s="13"/>
       <c r="AL302" s="5"/>
-      <c r="AM302" s="6"/>
+      <c r="AM302" s="18"/>
       <c r="AO302" s="4"/>
       <c r="AP302" s="11"/>
       <c r="AQ302" s="8" t="s">
@@ -14329,7 +15075,7 @@
       </c>
       <c r="AS302" s="13"/>
       <c r="AT302" s="5"/>
-      <c r="AU302" s="6"/>
+      <c r="AU302" s="18"/>
     </row>
     <row r="303" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG303" s="4"/>
@@ -14342,7 +15088,7 @@
       </c>
       <c r="AK303" s="13"/>
       <c r="AL303" s="5"/>
-      <c r="AM303" s="6"/>
+      <c r="AM303" s="18"/>
       <c r="AO303" s="4"/>
       <c r="AP303" s="11"/>
       <c r="AQ303" s="8" t="s">
@@ -14353,7 +15099,7 @@
       </c>
       <c r="AS303" s="13"/>
       <c r="AT303" s="5"/>
-      <c r="AU303" s="6"/>
+      <c r="AU303" s="18"/>
     </row>
     <row r="304" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG304" s="4"/>
@@ -14368,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="AL304" s="5"/>
-      <c r="AM304" s="6"/>
+      <c r="AM304" s="18"/>
       <c r="AO304" s="4"/>
       <c r="AP304" s="11"/>
       <c r="AQ304" s="8" t="s">
@@ -14379,7 +15125,7 @@
       </c>
       <c r="AS304" s="13"/>
       <c r="AT304" s="5"/>
-      <c r="AU304" s="6"/>
+      <c r="AU304" s="18"/>
     </row>
     <row r="305" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG305" s="4"/>
@@ -14388,7 +15134,7 @@
       <c r="AJ305" s="14"/>
       <c r="AK305" s="13"/>
       <c r="AL305" s="5"/>
-      <c r="AM305" s="6"/>
+      <c r="AM305" s="18"/>
       <c r="AO305" s="4"/>
       <c r="AP305" s="11"/>
       <c r="AQ305" s="8" t="s">
@@ -14399,15 +15145,24 @@
       </c>
       <c r="AS305" s="13"/>
       <c r="AT305" s="5"/>
-      <c r="AU305" s="6"/>
+      <c r="AU305" s="18"/>
     </row>
     <row r="306" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG306" s="16"/>
-      <c r="AH306" s="16"/>
-      <c r="AI306" s="16"/>
-      <c r="AK306" s="16"/>
-      <c r="AL306" s="16"/>
-      <c r="AM306" s="16"/>
+      <c r="AG306" s="4"/>
+      <c r="AH306" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI306" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ306" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK306" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL306" s="5"/>
+      <c r="AM306" s="18"/>
       <c r="AO306" s="4"/>
       <c r="AP306" s="11"/>
       <c r="AQ306" s="8" t="s">
@@ -14418,15 +15173,20 @@
       </c>
       <c r="AS306" s="13"/>
       <c r="AT306" s="5"/>
-      <c r="AU306" s="6"/>
+      <c r="AU306" s="18"/>
     </row>
     <row r="307" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG307" s="16"/>
-      <c r="AH307" s="16"/>
-      <c r="AI307" s="16"/>
-      <c r="AK307" s="16"/>
-      <c r="AL307" s="16"/>
-      <c r="AM307" s="16"/>
+      <c r="AG307" s="4"/>
+      <c r="AH307" s="11"/>
+      <c r="AI307" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ307" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK307" s="13"/>
+      <c r="AL307" s="5"/>
+      <c r="AM307" s="18"/>
       <c r="AO307" s="4"/>
       <c r="AP307" s="11"/>
       <c r="AQ307" s="8" t="s">
@@ -14439,54 +15199,2741 @@
         <v>1</v>
       </c>
       <c r="AT307" s="5"/>
-      <c r="AU307" s="6"/>
+      <c r="AU307" s="18"/>
     </row>
     <row r="308" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG308" s="16"/>
-      <c r="AH308" s="16"/>
-      <c r="AI308" s="16"/>
-      <c r="AK308" s="16"/>
-      <c r="AL308" s="16"/>
-      <c r="AM308" s="16"/>
+      <c r="AG308" s="4"/>
+      <c r="AH308" s="11"/>
+      <c r="AI308" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ308" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK308" s="13"/>
+      <c r="AL308" s="5"/>
+      <c r="AM308" s="18"/>
       <c r="AO308" s="4"/>
       <c r="AP308" s="11"/>
       <c r="AQ308" s="8"/>
       <c r="AR308" s="14"/>
       <c r="AS308" s="13"/>
       <c r="AT308" s="5"/>
-      <c r="AU308" s="6"/>
+      <c r="AU308" s="18"/>
     </row>
     <row r="309" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG309" s="16"/>
-      <c r="AH309" s="16"/>
-      <c r="AI309" s="16"/>
-      <c r="AK309" s="16"/>
-      <c r="AL309" s="16"/>
-      <c r="AM309" s="16"/>
+      <c r="AG309" s="4"/>
+      <c r="AH309" s="11"/>
+      <c r="AI309" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ309" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK309" s="13"/>
+      <c r="AL309" s="5"/>
+      <c r="AM309" s="18"/>
+      <c r="AO309" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP309" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ309" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR309" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS309" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT309" s="5"/>
+      <c r="AU309" s="18"/>
     </row>
     <row r="310" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG310" s="16"/>
-      <c r="AH310" s="16"/>
-      <c r="AI310" s="16"/>
-      <c r="AK310" s="16"/>
-      <c r="AL310" s="16"/>
-      <c r="AM310" s="16"/>
+      <c r="AG310" s="4"/>
+      <c r="AH310" s="11"/>
+      <c r="AI310" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ310" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK310" s="13"/>
+      <c r="AL310" s="5"/>
+      <c r="AM310" s="18"/>
+      <c r="AO310" s="4"/>
+      <c r="AP310" s="11"/>
+      <c r="AQ310" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR310" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS310" s="13"/>
+      <c r="AT310" s="5"/>
+      <c r="AU310" s="18"/>
     </row>
     <row r="311" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG311" s="16"/>
-      <c r="AH311" s="16"/>
-      <c r="AI311" s="16"/>
-      <c r="AK311" s="16"/>
-      <c r="AL311" s="16"/>
-      <c r="AM311" s="16"/>
+      <c r="AG311" s="4"/>
+      <c r="AH311" s="11"/>
+      <c r="AI311" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ311" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK311" s="13"/>
+      <c r="AL311" s="5"/>
+      <c r="AM311" s="18"/>
+      <c r="AO311" s="4"/>
+      <c r="AP311" s="11"/>
+      <c r="AQ311" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR311" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS311" s="13"/>
+      <c r="AT311" s="5"/>
+      <c r="AU311" s="18"/>
     </row>
     <row r="312" spans="33:47" x14ac:dyDescent="0.25">
-      <c r="AG312" s="16"/>
-      <c r="AH312" s="16"/>
-      <c r="AI312" s="16"/>
-      <c r="AK312" s="16"/>
-      <c r="AL312" s="16"/>
-      <c r="AM312" s="16"/>
+      <c r="AG312" s="4"/>
+      <c r="AH312" s="11"/>
+      <c r="AI312" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ312" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK312" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL312" s="5"/>
+      <c r="AM312" s="18"/>
+      <c r="AO312" s="4"/>
+      <c r="AP312" s="11"/>
+      <c r="AQ312" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR312" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS312" s="13"/>
+      <c r="AT312" s="5"/>
+      <c r="AU312" s="18"/>
+    </row>
+    <row r="313" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG313" s="4"/>
+      <c r="AH313" s="11"/>
+      <c r="AI313" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ313" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK313" s="13"/>
+      <c r="AL313" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM313" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO313" s="4"/>
+      <c r="AP313" s="11"/>
+      <c r="AQ313" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR313" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS313" s="13"/>
+      <c r="AT313" s="5"/>
+      <c r="AU313" s="18"/>
+    </row>
+    <row r="314" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG314" s="4"/>
+      <c r="AH314" s="11"/>
+      <c r="AI314" s="8"/>
+      <c r="AJ314" s="14"/>
+      <c r="AK314" s="13"/>
+      <c r="AL314" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM314" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO314" s="4"/>
+      <c r="AP314" s="11"/>
+      <c r="AQ314" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR314" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS314" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT314" s="5"/>
+      <c r="AU314" s="18"/>
+    </row>
+    <row r="315" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG315" s="4"/>
+      <c r="AH315" s="11"/>
+      <c r="AI315" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ315" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK315" s="13"/>
+      <c r="AL315" s="5"/>
+      <c r="AM315" s="18"/>
+      <c r="AO315" s="4"/>
+      <c r="AP315" s="11"/>
+      <c r="AQ315" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR315" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS315" s="13"/>
+      <c r="AT315" s="5"/>
+      <c r="AU315" s="18"/>
+    </row>
+    <row r="316" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG316" s="4"/>
+      <c r="AH316" s="11"/>
+      <c r="AI316" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ316" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK316" s="13"/>
+      <c r="AL316" s="5"/>
+      <c r="AM316" s="18"/>
+      <c r="AO316" s="4"/>
+      <c r="AP316" s="11"/>
+      <c r="AQ316" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR316" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS316" s="13"/>
+      <c r="AT316" s="5"/>
+      <c r="AU316" s="18"/>
+    </row>
+    <row r="317" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG317" s="4"/>
+      <c r="AH317" s="11"/>
+      <c r="AI317" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ317" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK317" s="13"/>
+      <c r="AL317" s="5"/>
+      <c r="AM317" s="18"/>
+      <c r="AO317" s="4"/>
+      <c r="AP317" s="11"/>
+      <c r="AQ317" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR317" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS317" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT317" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU317" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="318" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG318" s="4"/>
+      <c r="AH318" s="11"/>
+      <c r="AI318" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ318" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK318" s="13"/>
+      <c r="AL318" s="5"/>
+      <c r="AM318" s="18"/>
+      <c r="AO318" s="4"/>
+      <c r="AP318" s="11"/>
+      <c r="AQ318" s="8"/>
+      <c r="AR318" s="14"/>
+      <c r="AS318" s="13"/>
+      <c r="AT318" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU318" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="319" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG319" s="4"/>
+      <c r="AH319" s="11"/>
+      <c r="AI319" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ319" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK319" s="13"/>
+      <c r="AL319" s="5"/>
+      <c r="AM319" s="18"/>
+      <c r="AO319" s="4"/>
+      <c r="AP319" s="11"/>
+      <c r="AQ319" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR319" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS319" s="13"/>
+      <c r="AT319" s="5"/>
+      <c r="AU319" s="18"/>
+    </row>
+    <row r="320" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG320" s="4"/>
+      <c r="AH320" s="11"/>
+      <c r="AI320" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ320" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK320" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL320" s="5"/>
+      <c r="AM320" s="18"/>
+      <c r="AO320" s="4"/>
+      <c r="AP320" s="11"/>
+      <c r="AQ320" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR320" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS320" s="13"/>
+      <c r="AT320" s="5"/>
+      <c r="AU320" s="18"/>
+    </row>
+    <row r="321" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG321" s="4"/>
+      <c r="AH321" s="11"/>
+      <c r="AI321" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ321" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK321" s="13"/>
+      <c r="AL321" s="5"/>
+      <c r="AM321" s="18"/>
+      <c r="AO321" s="4"/>
+      <c r="AP321" s="11"/>
+      <c r="AQ321" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR321" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS321" s="13"/>
+      <c r="AT321" s="5"/>
+      <c r="AU321" s="18"/>
+    </row>
+    <row r="322" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG322" s="4"/>
+      <c r="AH322" s="11"/>
+      <c r="AI322" s="8"/>
+      <c r="AJ322" s="14"/>
+      <c r="AK322" s="13"/>
+      <c r="AL322" s="5"/>
+      <c r="AM322" s="18"/>
+      <c r="AO322" s="4"/>
+      <c r="AP322" s="11"/>
+      <c r="AQ322" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR322" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS322" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT322" s="5"/>
+      <c r="AU322" s="18"/>
+    </row>
+    <row r="323" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG323" s="4"/>
+      <c r="AH323" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI323" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ323" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK323" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL323" s="5"/>
+      <c r="AM323" s="18"/>
+      <c r="AO323" s="4"/>
+      <c r="AP323" s="11"/>
+      <c r="AQ323" s="8"/>
+      <c r="AR323" s="14"/>
+      <c r="AS323" s="13"/>
+      <c r="AT323" s="5"/>
+      <c r="AU323" s="18"/>
+    </row>
+    <row r="324" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG324" s="4"/>
+      <c r="AH324" s="11"/>
+      <c r="AI324" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ324" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK324" s="13"/>
+      <c r="AL324" s="5"/>
+      <c r="AM324" s="18"/>
+      <c r="AO324" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP324" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ324" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR324" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS324" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT324" s="5"/>
+      <c r="AU324" s="18"/>
+    </row>
+    <row r="325" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG325" s="4"/>
+      <c r="AH325" s="11"/>
+      <c r="AI325" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ325" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK325" s="13"/>
+      <c r="AL325" s="5"/>
+      <c r="AM325" s="18"/>
+      <c r="AO325" s="4"/>
+      <c r="AP325" s="11"/>
+      <c r="AQ325" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR325" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS325" s="13"/>
+      <c r="AT325" s="5"/>
+      <c r="AU325" s="18"/>
+    </row>
+    <row r="326" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG326" s="4"/>
+      <c r="AH326" s="11"/>
+      <c r="AI326" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ326" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK326" s="13"/>
+      <c r="AL326" s="5"/>
+      <c r="AM326" s="18"/>
+      <c r="AO326" s="4"/>
+      <c r="AP326" s="11"/>
+      <c r="AQ326" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR326" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS326" s="13"/>
+      <c r="AT326" s="5"/>
+      <c r="AU326" s="18"/>
+    </row>
+    <row r="327" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG327" s="4"/>
+      <c r="AH327" s="11"/>
+      <c r="AI327" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ327" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK327" s="13"/>
+      <c r="AL327" s="5"/>
+      <c r="AM327" s="18"/>
+      <c r="AO327" s="4"/>
+      <c r="AP327" s="11"/>
+      <c r="AQ327" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR327" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS327" s="13"/>
+      <c r="AT327" s="5"/>
+      <c r="AU327" s="18"/>
+    </row>
+    <row r="328" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG328" s="4"/>
+      <c r="AH328" s="11"/>
+      <c r="AI328" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ328" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK328" s="13"/>
+      <c r="AL328" s="5"/>
+      <c r="AM328" s="18"/>
+      <c r="AO328" s="4"/>
+      <c r="AP328" s="11"/>
+      <c r="AQ328" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR328" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS328" s="13"/>
+      <c r="AT328" s="5"/>
+      <c r="AU328" s="18"/>
+    </row>
+    <row r="329" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG329" s="4"/>
+      <c r="AH329" s="11"/>
+      <c r="AI329" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ329" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK329" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL329" s="5"/>
+      <c r="AM329" s="18"/>
+      <c r="AO329" s="4"/>
+      <c r="AP329" s="11"/>
+      <c r="AQ329" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR329" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS329" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT329" s="5"/>
+      <c r="AU329" s="18"/>
+    </row>
+    <row r="330" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG330" s="4"/>
+      <c r="AH330" s="11"/>
+      <c r="AI330" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ330" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK330" s="13"/>
+      <c r="AL330" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM330" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO330" s="4"/>
+      <c r="AP330" s="11"/>
+      <c r="AQ330" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR330" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS330" s="13"/>
+      <c r="AT330" s="5"/>
+      <c r="AU330" s="18"/>
+    </row>
+    <row r="331" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG331" s="4"/>
+      <c r="AH331" s="11"/>
+      <c r="AI331" s="8"/>
+      <c r="AJ331" s="14"/>
+      <c r="AK331" s="13"/>
+      <c r="AL331" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM331" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO331" s="4"/>
+      <c r="AP331" s="11"/>
+      <c r="AQ331" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR331" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS331" s="13"/>
+      <c r="AT331" s="5"/>
+      <c r="AU331" s="18"/>
+    </row>
+    <row r="332" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG332" s="4"/>
+      <c r="AH332" s="11"/>
+      <c r="AI332" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ332" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK332" s="13"/>
+      <c r="AL332" s="5"/>
+      <c r="AM332" s="18"/>
+      <c r="AO332" s="4"/>
+      <c r="AP332" s="11"/>
+      <c r="AQ332" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR332" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS332" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT332" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU332" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="333" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG333" s="4"/>
+      <c r="AH333" s="11"/>
+      <c r="AI333" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ333" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK333" s="13"/>
+      <c r="AL333" s="5"/>
+      <c r="AM333" s="18"/>
+      <c r="AO333" s="4"/>
+      <c r="AP333" s="11"/>
+      <c r="AQ333" s="8"/>
+      <c r="AR333" s="14"/>
+      <c r="AS333" s="13"/>
+      <c r="AT333" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU333" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="334" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG334" s="4"/>
+      <c r="AH334" s="11"/>
+      <c r="AI334" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ334" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK334" s="13"/>
+      <c r="AL334" s="5"/>
+      <c r="AM334" s="18"/>
+      <c r="AO334" s="4"/>
+      <c r="AP334" s="11"/>
+      <c r="AQ334" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR334" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS334" s="13"/>
+      <c r="AT334" s="5"/>
+      <c r="AU334" s="18"/>
+    </row>
+    <row r="335" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG335" s="4"/>
+      <c r="AH335" s="11"/>
+      <c r="AI335" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ335" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK335" s="13"/>
+      <c r="AL335" s="5"/>
+      <c r="AM335" s="18"/>
+      <c r="AO335" s="4"/>
+      <c r="AP335" s="11"/>
+      <c r="AQ335" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR335" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS335" s="13"/>
+      <c r="AT335" s="5"/>
+      <c r="AU335" s="18"/>
+    </row>
+    <row r="336" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG336" s="4"/>
+      <c r="AH336" s="11"/>
+      <c r="AI336" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ336" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK336" s="13"/>
+      <c r="AL336" s="5"/>
+      <c r="AM336" s="18"/>
+      <c r="AO336" s="4"/>
+      <c r="AP336" s="11"/>
+      <c r="AQ336" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR336" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS336" s="13"/>
+      <c r="AT336" s="5"/>
+      <c r="AU336" s="18"/>
+    </row>
+    <row r="337" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG337" s="4"/>
+      <c r="AH337" s="11"/>
+      <c r="AI337" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ337" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK337" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL337" s="5"/>
+      <c r="AM337" s="18"/>
+      <c r="AO337" s="4"/>
+      <c r="AP337" s="11"/>
+      <c r="AQ337" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR337" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS337" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT337" s="5"/>
+      <c r="AU337" s="18"/>
+    </row>
+    <row r="338" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG338" s="4"/>
+      <c r="AH338" s="11"/>
+      <c r="AI338" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ338" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK338" s="13"/>
+      <c r="AL338" s="5"/>
+      <c r="AM338" s="18"/>
+      <c r="AO338" s="4"/>
+      <c r="AP338" s="11"/>
+      <c r="AQ338" s="8"/>
+      <c r="AR338" s="14"/>
+      <c r="AS338" s="13"/>
+      <c r="AT338" s="5"/>
+      <c r="AU338" s="18"/>
+    </row>
+    <row r="339" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG339" s="4"/>
+      <c r="AH339" s="11"/>
+      <c r="AI339" s="8"/>
+      <c r="AJ339" s="14"/>
+      <c r="AK339" s="13"/>
+      <c r="AL339" s="5"/>
+      <c r="AM339" s="18"/>
+      <c r="AO339" s="4"/>
+      <c r="AP339" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ339" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR339" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS339" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT339" s="5"/>
+      <c r="AU339" s="18"/>
+    </row>
+    <row r="340" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG340" s="4"/>
+      <c r="AH340" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI340" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ340" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK340" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL340" s="5"/>
+      <c r="AM340" s="18"/>
+      <c r="AO340" s="4"/>
+      <c r="AP340" s="11"/>
+      <c r="AQ340" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR340" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS340" s="13"/>
+      <c r="AT340" s="5"/>
+      <c r="AU340" s="18"/>
+    </row>
+    <row r="341" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG341" s="4"/>
+      <c r="AH341" s="11"/>
+      <c r="AI341" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ341" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK341" s="13"/>
+      <c r="AL341" s="5"/>
+      <c r="AM341" s="18"/>
+      <c r="AO341" s="4"/>
+      <c r="AP341" s="11"/>
+      <c r="AQ341" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR341" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS341" s="13"/>
+      <c r="AT341" s="5"/>
+      <c r="AU341" s="18"/>
+    </row>
+    <row r="342" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG342" s="4"/>
+      <c r="AH342" s="11"/>
+      <c r="AI342" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ342" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK342" s="13"/>
+      <c r="AL342" s="5"/>
+      <c r="AM342" s="18"/>
+      <c r="AO342" s="4"/>
+      <c r="AP342" s="11"/>
+      <c r="AQ342" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR342" s="14">
+        <v>5</v>
+      </c>
+      <c r="AS342" s="13"/>
+      <c r="AT342" s="5"/>
+      <c r="AU342" s="18"/>
+    </row>
+    <row r="343" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG343" s="4"/>
+      <c r="AH343" s="11"/>
+      <c r="AI343" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ343" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK343" s="13"/>
+      <c r="AL343" s="5"/>
+      <c r="AM343" s="18"/>
+      <c r="AO343" s="4"/>
+      <c r="AP343" s="11"/>
+      <c r="AQ343" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR343" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS343" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT343" s="5"/>
+      <c r="AU343" s="18"/>
+    </row>
+    <row r="344" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG344" s="4"/>
+      <c r="AH344" s="11"/>
+      <c r="AI344" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ344" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK344" s="13"/>
+      <c r="AL344" s="5"/>
+      <c r="AM344" s="18"/>
+      <c r="AO344" s="4"/>
+      <c r="AP344" s="11"/>
+      <c r="AQ344" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR344" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS344" s="13"/>
+      <c r="AT344" s="5"/>
+      <c r="AU344" s="18"/>
+    </row>
+    <row r="345" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG345" s="4"/>
+      <c r="AH345" s="11"/>
+      <c r="AI345" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ345" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK345" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL345" s="5"/>
+      <c r="AM345" s="18"/>
+      <c r="AO345" s="4"/>
+      <c r="AP345" s="11"/>
+      <c r="AQ345" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR345" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS345" s="13"/>
+      <c r="AT345" s="5"/>
+      <c r="AU345" s="18"/>
+    </row>
+    <row r="346" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG346" s="4"/>
+      <c r="AH346" s="11"/>
+      <c r="AI346" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ346" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK346" s="13"/>
+      <c r="AL346" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM346" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO346" s="4"/>
+      <c r="AP346" s="11"/>
+      <c r="AQ346" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR346" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS346" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT346" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU346" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="347" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG347" s="4"/>
+      <c r="AH347" s="11"/>
+      <c r="AI347" s="8"/>
+      <c r="AJ347" s="14"/>
+      <c r="AK347" s="13"/>
+      <c r="AL347" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM347" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AO347" s="4"/>
+      <c r="AP347" s="11"/>
+      <c r="AQ347" s="8"/>
+      <c r="AR347" s="14"/>
+      <c r="AS347" s="13"/>
+      <c r="AT347" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU347" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="348" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG348" s="4"/>
+      <c r="AH348" s="11"/>
+      <c r="AI348" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ348" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AK348" s="13"/>
+      <c r="AL348" s="5"/>
+      <c r="AM348" s="18"/>
+      <c r="AO348" s="4"/>
+      <c r="AP348" s="11"/>
+      <c r="AQ348" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR348" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS348" s="13"/>
+      <c r="AT348" s="5"/>
+      <c r="AU348" s="18"/>
+    </row>
+    <row r="349" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG349" s="4"/>
+      <c r="AH349" s="11"/>
+      <c r="AI349" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ349" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="AK349" s="13"/>
+      <c r="AL349" s="5"/>
+      <c r="AM349" s="18"/>
+      <c r="AO349" s="4"/>
+      <c r="AP349" s="11"/>
+      <c r="AQ349" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR349" s="14">
+        <v>2</v>
+      </c>
+      <c r="AS349" s="13"/>
+      <c r="AT349" s="5"/>
+      <c r="AU349" s="18"/>
+    </row>
+    <row r="350" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG350" s="4"/>
+      <c r="AH350" s="11"/>
+      <c r="AI350" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ350" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK350" s="13"/>
+      <c r="AL350" s="5"/>
+      <c r="AM350" s="18"/>
+      <c r="AO350" s="4"/>
+      <c r="AP350" s="11"/>
+      <c r="AQ350" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR350" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS350" s="13"/>
+      <c r="AT350" s="5"/>
+      <c r="AU350" s="18"/>
+    </row>
+    <row r="351" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG351" s="4"/>
+      <c r="AH351" s="11"/>
+      <c r="AI351" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ351" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK351" s="13"/>
+      <c r="AL351" s="5"/>
+      <c r="AM351" s="18"/>
+      <c r="AO351" s="4"/>
+      <c r="AP351" s="11"/>
+      <c r="AQ351" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR351" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS351" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT351" s="5"/>
+      <c r="AU351" s="18"/>
+    </row>
+    <row r="352" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG352" s="4"/>
+      <c r="AH352" s="11"/>
+      <c r="AI352" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ352" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK352" s="13"/>
+      <c r="AL352" s="5"/>
+      <c r="AM352" s="18"/>
+      <c r="AO352" s="4"/>
+      <c r="AP352" s="11"/>
+      <c r="AQ352" s="8"/>
+      <c r="AR352" s="14"/>
+      <c r="AS352" s="13"/>
+      <c r="AT352" s="5"/>
+      <c r="AU352" s="18"/>
+    </row>
+    <row r="353" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG353" s="4"/>
+      <c r="AH353" s="11"/>
+      <c r="AI353" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ353" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK353" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL353" s="5"/>
+      <c r="AM353" s="18"/>
+      <c r="AO353" s="4"/>
+      <c r="AP353" s="11"/>
+      <c r="AQ353" s="8"/>
+      <c r="AR353" s="14"/>
+      <c r="AS353" s="13"/>
+      <c r="AT353" s="5"/>
+      <c r="AU353" s="18"/>
+    </row>
+    <row r="354" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG354" s="4"/>
+      <c r="AH354" s="11"/>
+      <c r="AI354" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ354" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK354" s="13"/>
+      <c r="AL354" s="5"/>
+      <c r="AM354" s="18"/>
+      <c r="AO354" s="4"/>
+      <c r="AP354" s="11"/>
+      <c r="AQ354" s="8"/>
+      <c r="AR354" s="14"/>
+      <c r="AS354" s="13"/>
+      <c r="AT354" s="5"/>
+      <c r="AU354" s="18"/>
+    </row>
+    <row r="355" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG355" s="4"/>
+      <c r="AH355" s="11"/>
+      <c r="AI355" s="8"/>
+      <c r="AJ355" s="14"/>
+      <c r="AK355" s="13"/>
+      <c r="AL355" s="5"/>
+      <c r="AM355" s="18"/>
+      <c r="AO355" s="4"/>
+      <c r="AP355" s="11"/>
+      <c r="AQ355" s="8"/>
+      <c r="AR355" s="14"/>
+      <c r="AS355" s="13"/>
+      <c r="AT355" s="5"/>
+      <c r="AU355" s="18"/>
+    </row>
+    <row r="356" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG356" s="4"/>
+      <c r="AH356" s="11"/>
+      <c r="AI356" s="8"/>
+      <c r="AJ356" s="14"/>
+      <c r="AK356" s="13"/>
+      <c r="AL356" s="5"/>
+      <c r="AM356" s="18"/>
+      <c r="AO356" s="4"/>
+      <c r="AP356" s="11"/>
+      <c r="AQ356" s="8"/>
+      <c r="AR356" s="14"/>
+      <c r="AS356" s="13"/>
+      <c r="AT356" s="5"/>
+      <c r="AU356" s="18"/>
+    </row>
+    <row r="357" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG357" s="4"/>
+      <c r="AH357" s="11"/>
+      <c r="AI357" s="8"/>
+      <c r="AJ357" s="14"/>
+      <c r="AK357" s="13"/>
+      <c r="AL357" s="5"/>
+      <c r="AM357" s="18"/>
+      <c r="AO357" s="4"/>
+      <c r="AP357" s="11"/>
+      <c r="AQ357" s="8"/>
+      <c r="AR357" s="14"/>
+      <c r="AS357" s="13"/>
+      <c r="AT357" s="5"/>
+      <c r="AU357" s="18"/>
+    </row>
+    <row r="358" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG358" s="4"/>
+      <c r="AH358" s="11"/>
+      <c r="AI358" s="8"/>
+      <c r="AJ358" s="14"/>
+      <c r="AK358" s="13"/>
+      <c r="AL358" s="5"/>
+      <c r="AM358" s="18"/>
+      <c r="AO358" s="4"/>
+      <c r="AP358" s="11"/>
+      <c r="AQ358" s="8"/>
+      <c r="AR358" s="14"/>
+      <c r="AS358" s="13"/>
+      <c r="AT358" s="5"/>
+      <c r="AU358" s="18"/>
+    </row>
+    <row r="359" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG359" s="4"/>
+      <c r="AH359" s="11"/>
+      <c r="AI359" s="8"/>
+      <c r="AJ359" s="14"/>
+      <c r="AK359" s="13"/>
+      <c r="AL359" s="5"/>
+      <c r="AM359" s="18"/>
+      <c r="AO359" s="4"/>
+      <c r="AP359" s="11"/>
+      <c r="AQ359" s="8"/>
+      <c r="AR359" s="14"/>
+      <c r="AS359" s="13"/>
+      <c r="AT359" s="5"/>
+      <c r="AU359" s="18"/>
+    </row>
+    <row r="360" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG360" s="4"/>
+      <c r="AH360" s="11"/>
+      <c r="AI360" s="8"/>
+      <c r="AJ360" s="14"/>
+      <c r="AK360" s="13"/>
+      <c r="AL360" s="5"/>
+      <c r="AM360" s="18"/>
+      <c r="AO360" s="4"/>
+      <c r="AP360" s="11"/>
+      <c r="AQ360" s="8"/>
+      <c r="AR360" s="14"/>
+      <c r="AS360" s="13"/>
+      <c r="AT360" s="5"/>
+      <c r="AU360" s="18"/>
+    </row>
+    <row r="361" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG361" s="4"/>
+      <c r="AH361" s="11"/>
+      <c r="AI361" s="8"/>
+      <c r="AJ361" s="14"/>
+      <c r="AK361" s="13"/>
+      <c r="AL361" s="5"/>
+      <c r="AM361" s="18"/>
+      <c r="AO361" s="4"/>
+      <c r="AP361" s="11"/>
+      <c r="AQ361" s="8"/>
+      <c r="AR361" s="14"/>
+      <c r="AS361" s="13"/>
+      <c r="AT361" s="5"/>
+      <c r="AU361" s="18"/>
+    </row>
+    <row r="362" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG362" s="4"/>
+      <c r="AH362" s="11"/>
+      <c r="AI362" s="8"/>
+      <c r="AJ362" s="14"/>
+      <c r="AK362" s="13"/>
+      <c r="AL362" s="5"/>
+      <c r="AM362" s="18"/>
+      <c r="AO362" s="4"/>
+      <c r="AP362" s="11"/>
+      <c r="AQ362" s="8"/>
+      <c r="AR362" s="14"/>
+      <c r="AS362" s="13"/>
+      <c r="AT362" s="5"/>
+      <c r="AU362" s="18"/>
+    </row>
+    <row r="363" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG363" s="4"/>
+      <c r="AH363" s="11"/>
+      <c r="AI363" s="8"/>
+      <c r="AJ363" s="14"/>
+      <c r="AK363" s="13"/>
+      <c r="AL363" s="5"/>
+      <c r="AM363" s="18"/>
+      <c r="AO363" s="4"/>
+      <c r="AP363" s="11"/>
+      <c r="AQ363" s="8"/>
+      <c r="AR363" s="14"/>
+      <c r="AS363" s="13"/>
+      <c r="AT363" s="5"/>
+      <c r="AU363" s="18"/>
+    </row>
+    <row r="364" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG364" s="4"/>
+      <c r="AH364" s="11"/>
+      <c r="AI364" s="8"/>
+      <c r="AJ364" s="14"/>
+      <c r="AK364" s="13"/>
+      <c r="AL364" s="5"/>
+      <c r="AM364" s="18"/>
+      <c r="AO364" s="4"/>
+      <c r="AP364" s="11"/>
+      <c r="AQ364" s="8"/>
+      <c r="AR364" s="14"/>
+      <c r="AS364" s="13"/>
+      <c r="AT364" s="5"/>
+      <c r="AU364" s="18"/>
+    </row>
+    <row r="365" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG365" s="4"/>
+      <c r="AH365" s="11"/>
+      <c r="AI365" s="8"/>
+      <c r="AJ365" s="14"/>
+      <c r="AK365" s="13"/>
+      <c r="AL365" s="5"/>
+      <c r="AM365" s="18"/>
+      <c r="AO365" s="4"/>
+      <c r="AP365" s="11"/>
+      <c r="AQ365" s="8"/>
+      <c r="AR365" s="14"/>
+      <c r="AS365" s="13"/>
+      <c r="AT365" s="5"/>
+      <c r="AU365" s="18"/>
+    </row>
+    <row r="366" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG366" s="4"/>
+      <c r="AH366" s="11"/>
+      <c r="AI366" s="8"/>
+      <c r="AJ366" s="14"/>
+      <c r="AK366" s="13"/>
+      <c r="AL366" s="5"/>
+      <c r="AM366" s="18"/>
+      <c r="AO366" s="4"/>
+      <c r="AP366" s="11"/>
+      <c r="AQ366" s="8"/>
+      <c r="AR366" s="14"/>
+      <c r="AS366" s="13"/>
+      <c r="AT366" s="5"/>
+      <c r="AU366" s="18"/>
+    </row>
+    <row r="367" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG367" s="4"/>
+      <c r="AH367" s="11"/>
+      <c r="AI367" s="8"/>
+      <c r="AJ367" s="14"/>
+      <c r="AK367" s="13"/>
+      <c r="AL367" s="5"/>
+      <c r="AM367" s="18"/>
+      <c r="AO367" s="4"/>
+      <c r="AP367" s="11"/>
+      <c r="AQ367" s="8"/>
+      <c r="AR367" s="14"/>
+      <c r="AS367" s="13"/>
+      <c r="AT367" s="5"/>
+      <c r="AU367" s="18"/>
+    </row>
+    <row r="368" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG368" s="4"/>
+      <c r="AH368" s="11"/>
+      <c r="AI368" s="8"/>
+      <c r="AJ368" s="14"/>
+      <c r="AK368" s="13"/>
+      <c r="AL368" s="5"/>
+      <c r="AM368" s="18"/>
+      <c r="AO368" s="4"/>
+      <c r="AP368" s="11"/>
+      <c r="AQ368" s="8"/>
+      <c r="AR368" s="14"/>
+      <c r="AS368" s="13"/>
+      <c r="AT368" s="5"/>
+      <c r="AU368" s="18"/>
+    </row>
+    <row r="369" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG369" s="4"/>
+      <c r="AH369" s="11"/>
+      <c r="AI369" s="8"/>
+      <c r="AJ369" s="14"/>
+      <c r="AK369" s="13"/>
+      <c r="AL369" s="5"/>
+      <c r="AM369" s="18"/>
+      <c r="AO369" s="4"/>
+      <c r="AP369" s="11"/>
+      <c r="AQ369" s="8"/>
+      <c r="AR369" s="14"/>
+      <c r="AS369" s="13"/>
+      <c r="AT369" s="5"/>
+      <c r="AU369" s="18"/>
+    </row>
+    <row r="370" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG370" s="4"/>
+      <c r="AH370" s="11"/>
+      <c r="AI370" s="8"/>
+      <c r="AJ370" s="14"/>
+      <c r="AK370" s="13"/>
+      <c r="AL370" s="5"/>
+      <c r="AM370" s="18"/>
+      <c r="AO370" s="4"/>
+      <c r="AP370" s="11"/>
+      <c r="AQ370" s="8"/>
+      <c r="AR370" s="14"/>
+      <c r="AS370" s="13"/>
+      <c r="AT370" s="5"/>
+      <c r="AU370" s="18"/>
+    </row>
+    <row r="371" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG371" s="4"/>
+      <c r="AH371" s="11"/>
+      <c r="AI371" s="8"/>
+      <c r="AJ371" s="14"/>
+      <c r="AK371" s="13"/>
+      <c r="AL371" s="5"/>
+      <c r="AM371" s="18"/>
+      <c r="AO371" s="4"/>
+      <c r="AP371" s="11"/>
+      <c r="AQ371" s="8"/>
+      <c r="AR371" s="14"/>
+      <c r="AS371" s="13"/>
+      <c r="AT371" s="5"/>
+      <c r="AU371" s="18"/>
+    </row>
+    <row r="372" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG372" s="4"/>
+      <c r="AH372" s="11"/>
+      <c r="AI372" s="8"/>
+      <c r="AJ372" s="14"/>
+      <c r="AK372" s="13"/>
+      <c r="AL372" s="5"/>
+      <c r="AM372" s="18"/>
+      <c r="AO372" s="4"/>
+      <c r="AP372" s="11"/>
+      <c r="AQ372" s="8"/>
+      <c r="AR372" s="14"/>
+      <c r="AS372" s="13"/>
+      <c r="AT372" s="5"/>
+      <c r="AU372" s="18"/>
+    </row>
+    <row r="373" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG373" s="4"/>
+      <c r="AH373" s="11"/>
+      <c r="AI373" s="8"/>
+      <c r="AJ373" s="14"/>
+      <c r="AK373" s="13"/>
+      <c r="AL373" s="5"/>
+      <c r="AM373" s="18"/>
+      <c r="AO373" s="4"/>
+      <c r="AP373" s="11"/>
+      <c r="AQ373" s="8"/>
+      <c r="AR373" s="14"/>
+      <c r="AS373" s="13"/>
+      <c r="AT373" s="5"/>
+      <c r="AU373" s="18"/>
+    </row>
+    <row r="374" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG374" s="4"/>
+      <c r="AH374" s="11"/>
+      <c r="AI374" s="8"/>
+      <c r="AJ374" s="14"/>
+      <c r="AK374" s="13"/>
+      <c r="AL374" s="5"/>
+      <c r="AM374" s="18"/>
+      <c r="AO374" s="4"/>
+      <c r="AP374" s="11"/>
+      <c r="AQ374" s="8"/>
+      <c r="AR374" s="14"/>
+      <c r="AS374" s="13"/>
+      <c r="AT374" s="5"/>
+      <c r="AU374" s="18"/>
+    </row>
+    <row r="375" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG375" s="4"/>
+      <c r="AH375" s="11"/>
+      <c r="AI375" s="8"/>
+      <c r="AJ375" s="14"/>
+      <c r="AK375" s="13"/>
+      <c r="AL375" s="5"/>
+      <c r="AM375" s="18"/>
+      <c r="AO375" s="4"/>
+      <c r="AP375" s="11"/>
+      <c r="AQ375" s="8"/>
+      <c r="AR375" s="14"/>
+      <c r="AS375" s="13"/>
+      <c r="AT375" s="5"/>
+      <c r="AU375" s="18"/>
+    </row>
+    <row r="376" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG376" s="4"/>
+      <c r="AH376" s="11"/>
+      <c r="AI376" s="8"/>
+      <c r="AJ376" s="14"/>
+      <c r="AK376" s="13"/>
+      <c r="AL376" s="5"/>
+      <c r="AM376" s="18"/>
+      <c r="AO376" s="4"/>
+      <c r="AP376" s="11"/>
+      <c r="AQ376" s="8"/>
+      <c r="AR376" s="14"/>
+      <c r="AS376" s="13"/>
+      <c r="AT376" s="5"/>
+      <c r="AU376" s="18"/>
+    </row>
+    <row r="377" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG377" s="4"/>
+      <c r="AH377" s="11"/>
+      <c r="AI377" s="8"/>
+      <c r="AJ377" s="14"/>
+      <c r="AK377" s="13"/>
+      <c r="AL377" s="5"/>
+      <c r="AM377" s="18"/>
+      <c r="AO377" s="4"/>
+      <c r="AP377" s="11"/>
+      <c r="AQ377" s="8"/>
+      <c r="AR377" s="14"/>
+      <c r="AS377" s="13"/>
+      <c r="AT377" s="5"/>
+      <c r="AU377" s="18"/>
+    </row>
+    <row r="378" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG378" s="4"/>
+      <c r="AH378" s="11"/>
+      <c r="AI378" s="8"/>
+      <c r="AJ378" s="14"/>
+      <c r="AK378" s="13"/>
+      <c r="AL378" s="5"/>
+      <c r="AM378" s="18"/>
+      <c r="AO378" s="4"/>
+      <c r="AP378" s="11"/>
+      <c r="AQ378" s="8"/>
+      <c r="AR378" s="14"/>
+      <c r="AS378" s="13"/>
+      <c r="AT378" s="5"/>
+      <c r="AU378" s="18"/>
+    </row>
+    <row r="379" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG379" s="4"/>
+      <c r="AH379" s="11"/>
+      <c r="AI379" s="8"/>
+      <c r="AJ379" s="14"/>
+      <c r="AK379" s="13"/>
+      <c r="AL379" s="5"/>
+      <c r="AM379" s="18"/>
+      <c r="AO379" s="4"/>
+      <c r="AP379" s="11"/>
+      <c r="AQ379" s="8"/>
+      <c r="AR379" s="14"/>
+      <c r="AS379" s="13"/>
+      <c r="AT379" s="5"/>
+      <c r="AU379" s="18"/>
+    </row>
+    <row r="380" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG380" s="4"/>
+      <c r="AH380" s="11"/>
+      <c r="AI380" s="8"/>
+      <c r="AJ380" s="14"/>
+      <c r="AK380" s="13"/>
+      <c r="AL380" s="5"/>
+      <c r="AM380" s="18"/>
+      <c r="AO380" s="4"/>
+      <c r="AP380" s="11"/>
+      <c r="AQ380" s="8"/>
+      <c r="AR380" s="14"/>
+      <c r="AS380" s="13"/>
+      <c r="AT380" s="5"/>
+      <c r="AU380" s="18"/>
+    </row>
+    <row r="381" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG381" s="4"/>
+      <c r="AH381" s="11"/>
+      <c r="AI381" s="8"/>
+      <c r="AJ381" s="14"/>
+      <c r="AK381" s="13"/>
+      <c r="AL381" s="5"/>
+      <c r="AM381" s="18"/>
+      <c r="AO381" s="4"/>
+      <c r="AP381" s="11"/>
+      <c r="AQ381" s="8"/>
+      <c r="AR381" s="14"/>
+      <c r="AS381" s="13"/>
+      <c r="AT381" s="5"/>
+      <c r="AU381" s="18"/>
+    </row>
+    <row r="382" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG382" s="4"/>
+      <c r="AH382" s="11"/>
+      <c r="AI382" s="8"/>
+      <c r="AJ382" s="14"/>
+      <c r="AK382" s="13"/>
+      <c r="AL382" s="5"/>
+      <c r="AM382" s="18"/>
+      <c r="AO382" s="4"/>
+      <c r="AP382" s="11"/>
+      <c r="AQ382" s="8"/>
+      <c r="AR382" s="14"/>
+      <c r="AS382" s="13"/>
+      <c r="AT382" s="5"/>
+      <c r="AU382" s="18"/>
+    </row>
+    <row r="383" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG383" s="4"/>
+      <c r="AH383" s="11"/>
+      <c r="AI383" s="8"/>
+      <c r="AJ383" s="14"/>
+      <c r="AK383" s="13"/>
+      <c r="AL383" s="5"/>
+      <c r="AM383" s="18"/>
+      <c r="AO383" s="4"/>
+      <c r="AP383" s="11"/>
+      <c r="AQ383" s="8"/>
+      <c r="AR383" s="14"/>
+      <c r="AS383" s="13"/>
+      <c r="AT383" s="5"/>
+      <c r="AU383" s="18"/>
+    </row>
+    <row r="384" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG384" s="4"/>
+      <c r="AH384" s="11"/>
+      <c r="AI384" s="8"/>
+      <c r="AJ384" s="14"/>
+      <c r="AK384" s="13"/>
+      <c r="AL384" s="5"/>
+      <c r="AM384" s="18"/>
+      <c r="AO384" s="4"/>
+      <c r="AP384" s="11"/>
+      <c r="AQ384" s="8"/>
+      <c r="AR384" s="14"/>
+      <c r="AS384" s="13"/>
+      <c r="AT384" s="5"/>
+      <c r="AU384" s="18"/>
+    </row>
+    <row r="385" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG385" s="4"/>
+      <c r="AH385" s="11"/>
+      <c r="AI385" s="8"/>
+      <c r="AJ385" s="14"/>
+      <c r="AK385" s="13"/>
+      <c r="AL385" s="5"/>
+      <c r="AM385" s="18"/>
+      <c r="AO385" s="4"/>
+      <c r="AP385" s="11"/>
+      <c r="AQ385" s="8"/>
+      <c r="AR385" s="14"/>
+      <c r="AS385" s="13"/>
+      <c r="AT385" s="5"/>
+      <c r="AU385" s="18"/>
+    </row>
+    <row r="386" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG386" s="4"/>
+      <c r="AH386" s="11"/>
+      <c r="AI386" s="8"/>
+      <c r="AJ386" s="14"/>
+      <c r="AK386" s="13"/>
+      <c r="AL386" s="5"/>
+      <c r="AM386" s="18"/>
+      <c r="AO386" s="4"/>
+      <c r="AP386" s="11"/>
+      <c r="AQ386" s="8"/>
+      <c r="AR386" s="14"/>
+      <c r="AS386" s="13"/>
+      <c r="AT386" s="5"/>
+      <c r="AU386" s="18"/>
+    </row>
+    <row r="387" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG387" s="4"/>
+      <c r="AH387" s="11"/>
+      <c r="AI387" s="8"/>
+      <c r="AJ387" s="14"/>
+      <c r="AK387" s="13"/>
+      <c r="AL387" s="5"/>
+      <c r="AM387" s="18"/>
+      <c r="AO387" s="4"/>
+      <c r="AP387" s="11"/>
+      <c r="AQ387" s="8"/>
+      <c r="AR387" s="14"/>
+      <c r="AS387" s="13"/>
+      <c r="AT387" s="5"/>
+      <c r="AU387" s="18"/>
+    </row>
+    <row r="388" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG388" s="4"/>
+      <c r="AH388" s="11"/>
+      <c r="AI388" s="8"/>
+      <c r="AJ388" s="14"/>
+      <c r="AK388" s="13"/>
+      <c r="AL388" s="5"/>
+      <c r="AM388" s="18"/>
+      <c r="AO388" s="4"/>
+      <c r="AP388" s="11"/>
+      <c r="AQ388" s="8"/>
+      <c r="AR388" s="14"/>
+      <c r="AS388" s="13"/>
+      <c r="AT388" s="5"/>
+      <c r="AU388" s="18"/>
+    </row>
+    <row r="389" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG389" s="4"/>
+      <c r="AH389" s="11"/>
+      <c r="AI389" s="8"/>
+      <c r="AJ389" s="14"/>
+      <c r="AK389" s="13"/>
+      <c r="AL389" s="5"/>
+      <c r="AM389" s="18"/>
+      <c r="AO389" s="4"/>
+      <c r="AP389" s="11"/>
+      <c r="AQ389" s="8"/>
+      <c r="AR389" s="14"/>
+      <c r="AS389" s="13"/>
+      <c r="AT389" s="5"/>
+      <c r="AU389" s="18"/>
+    </row>
+    <row r="390" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG390" s="4"/>
+      <c r="AH390" s="11"/>
+      <c r="AI390" s="8"/>
+      <c r="AJ390" s="14"/>
+      <c r="AK390" s="13"/>
+      <c r="AL390" s="5"/>
+      <c r="AM390" s="18"/>
+      <c r="AO390" s="4"/>
+      <c r="AP390" s="11"/>
+      <c r="AQ390" s="8"/>
+      <c r="AR390" s="14"/>
+      <c r="AS390" s="13"/>
+      <c r="AT390" s="5"/>
+      <c r="AU390" s="18"/>
+    </row>
+    <row r="391" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG391" s="4"/>
+      <c r="AH391" s="11"/>
+      <c r="AI391" s="8"/>
+      <c r="AJ391" s="14"/>
+      <c r="AK391" s="13"/>
+      <c r="AL391" s="5"/>
+      <c r="AM391" s="18"/>
+      <c r="AO391" s="4"/>
+      <c r="AP391" s="11"/>
+      <c r="AQ391" s="8"/>
+      <c r="AR391" s="14"/>
+      <c r="AS391" s="13"/>
+      <c r="AT391" s="5"/>
+      <c r="AU391" s="18"/>
+    </row>
+    <row r="392" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG392" s="4"/>
+      <c r="AH392" s="11"/>
+      <c r="AI392" s="8"/>
+      <c r="AJ392" s="14"/>
+      <c r="AK392" s="13"/>
+      <c r="AL392" s="5"/>
+      <c r="AM392" s="18"/>
+      <c r="AO392" s="4"/>
+      <c r="AP392" s="11"/>
+      <c r="AQ392" s="8"/>
+      <c r="AR392" s="14"/>
+      <c r="AS392" s="13"/>
+      <c r="AT392" s="5"/>
+      <c r="AU392" s="18"/>
+    </row>
+    <row r="393" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG393" s="4"/>
+      <c r="AH393" s="11"/>
+      <c r="AI393" s="8"/>
+      <c r="AJ393" s="14"/>
+      <c r="AK393" s="13"/>
+      <c r="AL393" s="5"/>
+      <c r="AM393" s="18"/>
+      <c r="AO393" s="4"/>
+      <c r="AP393" s="11"/>
+      <c r="AQ393" s="8"/>
+      <c r="AR393" s="14"/>
+      <c r="AS393" s="13"/>
+      <c r="AT393" s="5"/>
+      <c r="AU393" s="18"/>
+    </row>
+    <row r="394" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG394" s="4"/>
+      <c r="AH394" s="11"/>
+      <c r="AI394" s="8"/>
+      <c r="AJ394" s="14"/>
+      <c r="AK394" s="13"/>
+      <c r="AL394" s="5"/>
+      <c r="AM394" s="18"/>
+      <c r="AO394" s="4"/>
+      <c r="AP394" s="11"/>
+      <c r="AQ394" s="8"/>
+      <c r="AR394" s="14"/>
+      <c r="AS394" s="13"/>
+      <c r="AT394" s="5"/>
+      <c r="AU394" s="18"/>
+    </row>
+    <row r="395" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG395" s="4"/>
+      <c r="AH395" s="11"/>
+      <c r="AI395" s="8"/>
+      <c r="AJ395" s="14"/>
+      <c r="AK395" s="13"/>
+      <c r="AL395" s="5"/>
+      <c r="AM395" s="18"/>
+      <c r="AO395" s="4"/>
+      <c r="AP395" s="11"/>
+      <c r="AQ395" s="8"/>
+      <c r="AR395" s="14"/>
+      <c r="AS395" s="13"/>
+      <c r="AT395" s="5"/>
+      <c r="AU395" s="18"/>
+    </row>
+    <row r="396" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG396" s="4"/>
+      <c r="AH396" s="11"/>
+      <c r="AI396" s="8"/>
+      <c r="AJ396" s="14"/>
+      <c r="AK396" s="13"/>
+      <c r="AL396" s="5"/>
+      <c r="AM396" s="18"/>
+      <c r="AO396" s="4"/>
+      <c r="AP396" s="11"/>
+      <c r="AQ396" s="8"/>
+      <c r="AR396" s="14"/>
+      <c r="AS396" s="13"/>
+      <c r="AT396" s="5"/>
+      <c r="AU396" s="18"/>
+    </row>
+    <row r="397" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG397" s="4"/>
+      <c r="AH397" s="11"/>
+      <c r="AI397" s="8"/>
+      <c r="AJ397" s="14"/>
+      <c r="AK397" s="13"/>
+      <c r="AL397" s="5"/>
+      <c r="AM397" s="18"/>
+      <c r="AO397" s="4"/>
+      <c r="AP397" s="11"/>
+      <c r="AQ397" s="8"/>
+      <c r="AR397" s="14"/>
+      <c r="AS397" s="13"/>
+      <c r="AT397" s="5"/>
+      <c r="AU397" s="18"/>
+    </row>
+    <row r="398" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG398" s="4"/>
+      <c r="AH398" s="11"/>
+      <c r="AI398" s="8"/>
+      <c r="AJ398" s="14"/>
+      <c r="AK398" s="13"/>
+      <c r="AL398" s="5"/>
+      <c r="AM398" s="18"/>
+      <c r="AO398" s="4"/>
+      <c r="AP398" s="11"/>
+      <c r="AQ398" s="8"/>
+      <c r="AR398" s="14"/>
+      <c r="AS398" s="13"/>
+      <c r="AT398" s="5"/>
+      <c r="AU398" s="18"/>
+    </row>
+    <row r="399" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG399" s="4"/>
+      <c r="AH399" s="11"/>
+      <c r="AI399" s="8"/>
+      <c r="AJ399" s="14"/>
+      <c r="AK399" s="13"/>
+      <c r="AL399" s="5"/>
+      <c r="AM399" s="18"/>
+      <c r="AO399" s="4"/>
+      <c r="AP399" s="11"/>
+      <c r="AQ399" s="8"/>
+      <c r="AR399" s="14"/>
+      <c r="AS399" s="13"/>
+      <c r="AT399" s="5"/>
+      <c r="AU399" s="18"/>
+    </row>
+    <row r="400" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG400" s="4"/>
+      <c r="AH400" s="11"/>
+      <c r="AI400" s="8"/>
+      <c r="AJ400" s="14"/>
+      <c r="AK400" s="13"/>
+      <c r="AL400" s="5"/>
+      <c r="AM400" s="18"/>
+      <c r="AO400" s="4"/>
+      <c r="AP400" s="11"/>
+      <c r="AQ400" s="8"/>
+      <c r="AR400" s="14"/>
+      <c r="AS400" s="13"/>
+      <c r="AT400" s="5"/>
+      <c r="AU400" s="18"/>
+    </row>
+    <row r="401" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG401" s="4"/>
+      <c r="AH401" s="11"/>
+      <c r="AI401" s="8"/>
+      <c r="AJ401" s="14"/>
+      <c r="AK401" s="13"/>
+      <c r="AL401" s="5"/>
+      <c r="AM401" s="18"/>
+      <c r="AO401" s="4"/>
+      <c r="AP401" s="11"/>
+      <c r="AQ401" s="8"/>
+      <c r="AR401" s="14"/>
+      <c r="AS401" s="13"/>
+      <c r="AT401" s="5"/>
+      <c r="AU401" s="18"/>
+    </row>
+    <row r="402" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG402" s="4"/>
+      <c r="AH402" s="11"/>
+      <c r="AI402" s="8"/>
+      <c r="AJ402" s="14"/>
+      <c r="AK402" s="13"/>
+      <c r="AL402" s="5"/>
+      <c r="AM402" s="18"/>
+      <c r="AO402" s="4"/>
+      <c r="AP402" s="11"/>
+      <c r="AQ402" s="8"/>
+      <c r="AR402" s="14"/>
+      <c r="AS402" s="13"/>
+      <c r="AT402" s="5"/>
+      <c r="AU402" s="18"/>
+    </row>
+    <row r="403" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG403" s="4"/>
+      <c r="AH403" s="11"/>
+      <c r="AI403" s="8"/>
+      <c r="AJ403" s="14"/>
+      <c r="AK403" s="13"/>
+      <c r="AL403" s="5"/>
+      <c r="AM403" s="18"/>
+      <c r="AO403" s="4"/>
+      <c r="AP403" s="11"/>
+      <c r="AQ403" s="8"/>
+      <c r="AR403" s="14"/>
+      <c r="AS403" s="13"/>
+      <c r="AT403" s="5"/>
+      <c r="AU403" s="18"/>
+    </row>
+    <row r="404" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG404" s="4"/>
+      <c r="AH404" s="11"/>
+      <c r="AI404" s="8"/>
+      <c r="AJ404" s="14"/>
+      <c r="AK404" s="13"/>
+      <c r="AL404" s="5"/>
+      <c r="AM404" s="18"/>
+      <c r="AO404" s="4"/>
+      <c r="AP404" s="11"/>
+      <c r="AQ404" s="8"/>
+      <c r="AR404" s="14"/>
+      <c r="AS404" s="13"/>
+      <c r="AT404" s="5"/>
+      <c r="AU404" s="18"/>
+    </row>
+    <row r="405" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG405" s="4"/>
+      <c r="AH405" s="11"/>
+      <c r="AI405" s="8"/>
+      <c r="AJ405" s="14"/>
+      <c r="AK405" s="13"/>
+      <c r="AL405" s="5"/>
+      <c r="AM405" s="18"/>
+      <c r="AO405" s="4"/>
+      <c r="AP405" s="11"/>
+      <c r="AQ405" s="8"/>
+      <c r="AR405" s="14"/>
+      <c r="AS405" s="13"/>
+      <c r="AT405" s="5"/>
+      <c r="AU405" s="18"/>
+    </row>
+    <row r="406" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG406" s="4"/>
+      <c r="AH406" s="11"/>
+      <c r="AI406" s="8"/>
+      <c r="AJ406" s="14"/>
+      <c r="AK406" s="13"/>
+      <c r="AL406" s="5"/>
+      <c r="AM406" s="18"/>
+      <c r="AO406" s="4"/>
+      <c r="AP406" s="11"/>
+      <c r="AQ406" s="8"/>
+      <c r="AR406" s="14"/>
+      <c r="AS406" s="13"/>
+      <c r="AT406" s="5"/>
+      <c r="AU406" s="18"/>
+    </row>
+    <row r="407" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG407" s="4"/>
+      <c r="AH407" s="11"/>
+      <c r="AI407" s="8"/>
+      <c r="AJ407" s="14"/>
+      <c r="AK407" s="13"/>
+      <c r="AL407" s="5"/>
+      <c r="AM407" s="18"/>
+      <c r="AO407" s="4"/>
+      <c r="AP407" s="11"/>
+      <c r="AQ407" s="8"/>
+      <c r="AR407" s="14"/>
+      <c r="AS407" s="13"/>
+      <c r="AT407" s="5"/>
+      <c r="AU407" s="18"/>
+    </row>
+    <row r="408" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG408" s="4"/>
+      <c r="AH408" s="11"/>
+      <c r="AI408" s="8"/>
+      <c r="AJ408" s="14"/>
+      <c r="AK408" s="13"/>
+      <c r="AL408" s="5"/>
+      <c r="AM408" s="18"/>
+      <c r="AO408" s="4"/>
+      <c r="AP408" s="11"/>
+      <c r="AQ408" s="8"/>
+      <c r="AR408" s="14"/>
+      <c r="AS408" s="13"/>
+      <c r="AT408" s="5"/>
+      <c r="AU408" s="18"/>
+    </row>
+    <row r="409" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG409" s="4"/>
+      <c r="AH409" s="11"/>
+      <c r="AI409" s="8"/>
+      <c r="AJ409" s="14"/>
+      <c r="AK409" s="13"/>
+      <c r="AL409" s="5"/>
+      <c r="AM409" s="18"/>
+      <c r="AO409" s="4"/>
+      <c r="AP409" s="11"/>
+      <c r="AQ409" s="8"/>
+      <c r="AR409" s="14"/>
+      <c r="AS409" s="13"/>
+      <c r="AT409" s="5"/>
+      <c r="AU409" s="18"/>
+    </row>
+    <row r="410" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG410" s="4"/>
+      <c r="AH410" s="11"/>
+      <c r="AI410" s="8"/>
+      <c r="AJ410" s="14"/>
+      <c r="AK410" s="13"/>
+      <c r="AL410" s="5"/>
+      <c r="AM410" s="18"/>
+      <c r="AO410" s="4"/>
+      <c r="AP410" s="11"/>
+      <c r="AQ410" s="8"/>
+      <c r="AR410" s="14"/>
+      <c r="AS410" s="13"/>
+      <c r="AT410" s="5"/>
+      <c r="AU410" s="18"/>
+    </row>
+    <row r="411" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG411" s="4"/>
+      <c r="AH411" s="11"/>
+      <c r="AI411" s="8"/>
+      <c r="AJ411" s="14"/>
+      <c r="AK411" s="13"/>
+      <c r="AL411" s="5"/>
+      <c r="AM411" s="18"/>
+      <c r="AO411" s="4"/>
+      <c r="AP411" s="11"/>
+      <c r="AQ411" s="8"/>
+      <c r="AR411" s="14"/>
+      <c r="AS411" s="13"/>
+      <c r="AT411" s="5"/>
+      <c r="AU411" s="18"/>
+    </row>
+    <row r="412" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG412" s="4"/>
+      <c r="AH412" s="11"/>
+      <c r="AI412" s="8"/>
+      <c r="AJ412" s="14"/>
+      <c r="AK412" s="13"/>
+      <c r="AL412" s="5"/>
+      <c r="AM412" s="18"/>
+      <c r="AO412" s="4"/>
+      <c r="AP412" s="11"/>
+      <c r="AQ412" s="8"/>
+      <c r="AR412" s="14"/>
+      <c r="AS412" s="13"/>
+      <c r="AT412" s="5"/>
+      <c r="AU412" s="18"/>
+    </row>
+    <row r="413" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG413" s="4"/>
+      <c r="AH413" s="11"/>
+      <c r="AI413" s="8"/>
+      <c r="AJ413" s="14"/>
+      <c r="AK413" s="13"/>
+      <c r="AL413" s="5"/>
+      <c r="AM413" s="18"/>
+      <c r="AO413" s="4"/>
+      <c r="AP413" s="11"/>
+      <c r="AQ413" s="8"/>
+      <c r="AR413" s="14"/>
+      <c r="AS413" s="13"/>
+      <c r="AT413" s="5"/>
+      <c r="AU413" s="18"/>
+    </row>
+    <row r="414" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG414" s="4"/>
+      <c r="AH414" s="11"/>
+      <c r="AI414" s="8"/>
+      <c r="AJ414" s="14"/>
+      <c r="AK414" s="13"/>
+      <c r="AL414" s="5"/>
+      <c r="AM414" s="18"/>
+      <c r="AO414" s="4"/>
+      <c r="AP414" s="11"/>
+      <c r="AQ414" s="8"/>
+      <c r="AR414" s="14"/>
+      <c r="AS414" s="13"/>
+      <c r="AT414" s="5"/>
+      <c r="AU414" s="18"/>
+    </row>
+    <row r="415" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG415" s="4"/>
+      <c r="AH415" s="11"/>
+      <c r="AI415" s="8"/>
+      <c r="AJ415" s="14"/>
+      <c r="AK415" s="13"/>
+      <c r="AL415" s="5"/>
+      <c r="AM415" s="18"/>
+      <c r="AO415" s="4"/>
+      <c r="AP415" s="11"/>
+      <c r="AQ415" s="8"/>
+      <c r="AR415" s="14"/>
+      <c r="AS415" s="13"/>
+      <c r="AT415" s="5"/>
+      <c r="AU415" s="18"/>
+    </row>
+    <row r="416" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG416" s="4"/>
+      <c r="AH416" s="11"/>
+      <c r="AI416" s="8"/>
+      <c r="AJ416" s="14"/>
+      <c r="AK416" s="13"/>
+      <c r="AL416" s="5"/>
+      <c r="AM416" s="18"/>
+      <c r="AO416" s="4"/>
+      <c r="AP416" s="11"/>
+      <c r="AQ416" s="8"/>
+      <c r="AR416" s="14"/>
+      <c r="AS416" s="13"/>
+      <c r="AT416" s="5"/>
+      <c r="AU416" s="18"/>
+    </row>
+    <row r="417" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG417" s="4"/>
+      <c r="AH417" s="11"/>
+      <c r="AI417" s="8"/>
+      <c r="AJ417" s="14"/>
+      <c r="AK417" s="13"/>
+      <c r="AL417" s="5"/>
+      <c r="AM417" s="18"/>
+      <c r="AO417" s="4"/>
+      <c r="AP417" s="11"/>
+      <c r="AQ417" s="8"/>
+      <c r="AR417" s="14"/>
+      <c r="AS417" s="13"/>
+      <c r="AT417" s="5"/>
+      <c r="AU417" s="18"/>
+    </row>
+    <row r="418" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG418" s="4"/>
+      <c r="AH418" s="11"/>
+      <c r="AI418" s="8"/>
+      <c r="AJ418" s="14"/>
+      <c r="AK418" s="13"/>
+      <c r="AL418" s="5"/>
+      <c r="AM418" s="18"/>
+      <c r="AO418" s="4"/>
+      <c r="AP418" s="11"/>
+      <c r="AQ418" s="8"/>
+      <c r="AR418" s="14"/>
+      <c r="AS418" s="13"/>
+      <c r="AT418" s="5"/>
+      <c r="AU418" s="18"/>
+    </row>
+    <row r="419" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG419" s="4"/>
+      <c r="AH419" s="11"/>
+      <c r="AI419" s="8"/>
+      <c r="AJ419" s="14"/>
+      <c r="AK419" s="13"/>
+      <c r="AL419" s="5"/>
+      <c r="AM419" s="18"/>
+      <c r="AO419" s="4"/>
+      <c r="AP419" s="11"/>
+      <c r="AQ419" s="8"/>
+      <c r="AR419" s="14"/>
+      <c r="AS419" s="13"/>
+      <c r="AT419" s="5"/>
+      <c r="AU419" s="18"/>
+    </row>
+    <row r="420" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG420" s="4"/>
+      <c r="AH420" s="11"/>
+      <c r="AI420" s="8"/>
+      <c r="AJ420" s="14"/>
+      <c r="AK420" s="13"/>
+      <c r="AL420" s="5"/>
+      <c r="AM420" s="18"/>
+      <c r="AO420" s="4"/>
+      <c r="AP420" s="11"/>
+      <c r="AQ420" s="8"/>
+      <c r="AR420" s="14"/>
+      <c r="AS420" s="13"/>
+      <c r="AT420" s="5"/>
+      <c r="AU420" s="18"/>
+    </row>
+    <row r="421" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG421" s="4"/>
+      <c r="AH421" s="11"/>
+      <c r="AI421" s="8"/>
+      <c r="AJ421" s="14"/>
+      <c r="AK421" s="13"/>
+      <c r="AL421" s="5"/>
+      <c r="AM421" s="18"/>
+    </row>
+    <row r="422" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG422" s="4"/>
+      <c r="AH422" s="11"/>
+      <c r="AI422" s="8"/>
+      <c r="AJ422" s="14"/>
+      <c r="AK422" s="13"/>
+      <c r="AL422" s="5"/>
+      <c r="AM422" s="18"/>
+    </row>
+    <row r="423" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG423" s="4"/>
+      <c r="AH423" s="11"/>
+      <c r="AI423" s="8"/>
+      <c r="AJ423" s="14"/>
+      <c r="AK423" s="13"/>
+      <c r="AL423" s="5"/>
+      <c r="AM423" s="18"/>
+    </row>
+    <row r="424" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG424" s="4"/>
+      <c r="AH424" s="11"/>
+      <c r="AI424" s="8"/>
+      <c r="AJ424" s="14"/>
+      <c r="AK424" s="13"/>
+      <c r="AL424" s="5"/>
+      <c r="AM424" s="18"/>
+    </row>
+    <row r="425" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG425" s="4"/>
+      <c r="AH425" s="11"/>
+      <c r="AI425" s="8"/>
+      <c r="AJ425" s="14"/>
+      <c r="AK425" s="13"/>
+      <c r="AL425" s="5"/>
+      <c r="AM425" s="18"/>
+    </row>
+    <row r="426" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG426" s="4"/>
+      <c r="AH426" s="11"/>
+      <c r="AI426" s="8"/>
+      <c r="AJ426" s="14"/>
+      <c r="AK426" s="13"/>
+      <c r="AL426" s="5"/>
+      <c r="AM426" s="18"/>
+    </row>
+    <row r="427" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG427" s="4"/>
+      <c r="AH427" s="11"/>
+      <c r="AI427" s="8"/>
+      <c r="AJ427" s="14"/>
+      <c r="AK427" s="13"/>
+      <c r="AL427" s="5"/>
+      <c r="AM427" s="18"/>
+    </row>
+    <row r="428" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG428" s="4"/>
+      <c r="AH428" s="11"/>
+      <c r="AI428" s="8"/>
+      <c r="AJ428" s="14"/>
+      <c r="AK428" s="13"/>
+      <c r="AL428" s="5"/>
+      <c r="AM428" s="18"/>
+    </row>
+    <row r="429" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG429" s="4"/>
+      <c r="AH429" s="11"/>
+      <c r="AI429" s="8"/>
+      <c r="AJ429" s="14"/>
+      <c r="AK429" s="13"/>
+      <c r="AL429" s="5"/>
+      <c r="AM429" s="18"/>
+    </row>
+    <row r="430" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG430" s="4"/>
+      <c r="AH430" s="11"/>
+      <c r="AI430" s="8"/>
+      <c r="AJ430" s="14"/>
+      <c r="AK430" s="13"/>
+      <c r="AL430" s="5"/>
+      <c r="AM430" s="18"/>
+    </row>
+    <row r="431" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG431" s="4"/>
+      <c r="AH431" s="11"/>
+      <c r="AI431" s="8"/>
+      <c r="AJ431" s="14"/>
+      <c r="AK431" s="13"/>
+      <c r="AL431" s="5"/>
+      <c r="AM431" s="18"/>
+    </row>
+    <row r="432" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG432" s="4"/>
+      <c r="AH432" s="11"/>
+      <c r="AI432" s="8"/>
+      <c r="AJ432" s="14"/>
+      <c r="AK432" s="13"/>
+      <c r="AL432" s="5"/>
+      <c r="AM432" s="18"/>
+    </row>
+    <row r="433" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG433" s="4"/>
+      <c r="AH433" s="11"/>
+      <c r="AI433" s="8"/>
+      <c r="AJ433" s="14"/>
+      <c r="AK433" s="13"/>
+      <c r="AL433" s="5"/>
+      <c r="AM433" s="18"/>
+    </row>
+    <row r="434" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG434" s="4"/>
+      <c r="AH434" s="11"/>
+      <c r="AI434" s="8"/>
+      <c r="AJ434" s="14"/>
+      <c r="AK434" s="13"/>
+      <c r="AL434" s="5"/>
+      <c r="AM434" s="18"/>
+    </row>
+    <row r="435" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG435" s="4"/>
+      <c r="AH435" s="11"/>
+      <c r="AI435" s="8"/>
+      <c r="AJ435" s="14"/>
+      <c r="AK435" s="13"/>
+      <c r="AL435" s="5"/>
+      <c r="AM435" s="18"/>
+    </row>
+    <row r="436" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG436" s="4"/>
+      <c r="AH436" s="11"/>
+      <c r="AI436" s="8"/>
+      <c r="AJ436" s="14"/>
+      <c r="AK436" s="13"/>
+      <c r="AL436" s="5"/>
+      <c r="AM436" s="18"/>
+    </row>
+    <row r="437" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG437" s="4"/>
+      <c r="AH437" s="11"/>
+      <c r="AI437" s="8"/>
+      <c r="AJ437" s="14"/>
+      <c r="AK437" s="13"/>
+      <c r="AL437" s="5"/>
+      <c r="AM437" s="18"/>
+    </row>
+    <row r="438" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG438" s="4"/>
+      <c r="AH438" s="11"/>
+      <c r="AI438" s="8"/>
+      <c r="AJ438" s="14"/>
+      <c r="AK438" s="13"/>
+      <c r="AL438" s="5"/>
+      <c r="AM438" s="18"/>
+    </row>
+    <row r="439" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG439" s="4"/>
+      <c r="AH439" s="11"/>
+      <c r="AI439" s="8"/>
+      <c r="AJ439" s="14"/>
+      <c r="AK439" s="13"/>
+      <c r="AL439" s="5"/>
+      <c r="AM439" s="18"/>
+    </row>
+    <row r="440" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG440" s="4"/>
+      <c r="AH440" s="11"/>
+      <c r="AI440" s="8"/>
+      <c r="AJ440" s="14"/>
+      <c r="AK440" s="13"/>
+      <c r="AL440" s="5"/>
+      <c r="AM440" s="18"/>
+    </row>
+    <row r="441" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG441" s="4"/>
+      <c r="AH441" s="11"/>
+      <c r="AI441" s="8"/>
+      <c r="AJ441" s="14"/>
+      <c r="AK441" s="13"/>
+      <c r="AL441" s="5"/>
+      <c r="AM441" s="18"/>
+    </row>
+    <row r="442" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG442" s="4"/>
+      <c r="AH442" s="11"/>
+      <c r="AI442" s="8"/>
+      <c r="AJ442" s="14"/>
+      <c r="AK442" s="13"/>
+      <c r="AL442" s="5"/>
+      <c r="AM442" s="18"/>
+    </row>
+    <row r="443" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG443" s="4"/>
+      <c r="AH443" s="11"/>
+      <c r="AI443" s="8"/>
+      <c r="AJ443" s="14"/>
+      <c r="AK443" s="13"/>
+      <c r="AL443" s="5"/>
+      <c r="AM443" s="18"/>
+    </row>
+    <row r="444" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG444" s="4"/>
+      <c r="AH444" s="11"/>
+      <c r="AI444" s="8"/>
+      <c r="AJ444" s="14"/>
+      <c r="AK444" s="13"/>
+      <c r="AL444" s="5"/>
+      <c r="AM444" s="18"/>
+    </row>
+    <row r="445" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG445" s="4"/>
+      <c r="AH445" s="11"/>
+      <c r="AI445" s="8"/>
+      <c r="AJ445" s="14"/>
+      <c r="AK445" s="13"/>
+      <c r="AL445" s="5"/>
+      <c r="AM445" s="18"/>
+    </row>
+    <row r="446" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG446" s="4"/>
+      <c r="AH446" s="11"/>
+      <c r="AI446" s="8"/>
+      <c r="AJ446" s="14"/>
+      <c r="AK446" s="13"/>
+      <c r="AL446" s="5"/>
+      <c r="AM446" s="18"/>
+    </row>
+    <row r="447" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG447" s="4"/>
+      <c r="AH447" s="11"/>
+      <c r="AI447" s="8"/>
+      <c r="AJ447" s="14"/>
+      <c r="AK447" s="13"/>
+      <c r="AL447" s="5"/>
+      <c r="AM447" s="18"/>
+    </row>
+    <row r="448" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG448" s="4"/>
+      <c r="AH448" s="11"/>
+      <c r="AI448" s="8"/>
+      <c r="AJ448" s="14"/>
+      <c r="AK448" s="13"/>
+      <c r="AL448" s="5"/>
+      <c r="AM448" s="18"/>
+    </row>
+    <row r="449" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG449" s="4"/>
+      <c r="AH449" s="11"/>
+      <c r="AI449" s="8"/>
+      <c r="AJ449" s="14"/>
+      <c r="AK449" s="13"/>
+      <c r="AL449" s="5"/>
+      <c r="AM449" s="18"/>
+    </row>
+    <row r="450" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG450" s="4"/>
+      <c r="AH450" s="11"/>
+      <c r="AI450" s="8"/>
+      <c r="AJ450" s="14"/>
+      <c r="AK450" s="13"/>
+      <c r="AL450" s="5"/>
+      <c r="AM450" s="18"/>
+    </row>
+    <row r="451" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG451" s="4"/>
+      <c r="AH451" s="11"/>
+      <c r="AI451" s="8"/>
+      <c r="AJ451" s="14"/>
+      <c r="AK451" s="13"/>
+      <c r="AL451" s="5"/>
+      <c r="AM451" s="18"/>
+    </row>
+    <row r="452" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG452" s="4"/>
+      <c r="AH452" s="11"/>
+      <c r="AI452" s="8"/>
+      <c r="AJ452" s="14"/>
+      <c r="AK452" s="13"/>
+      <c r="AL452" s="5"/>
+      <c r="AM452" s="18"/>
+    </row>
+    <row r="453" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG453" s="4"/>
+      <c r="AH453" s="11"/>
+      <c r="AI453" s="8"/>
+      <c r="AJ453" s="14"/>
+      <c r="AK453" s="13"/>
+      <c r="AL453" s="5"/>
+      <c r="AM453" s="18"/>
+    </row>
+    <row r="454" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG454" s="4"/>
+      <c r="AH454" s="11"/>
+      <c r="AI454" s="8"/>
+      <c r="AJ454" s="14"/>
+      <c r="AK454" s="13"/>
+      <c r="AL454" s="5"/>
+      <c r="AM454" s="18"/>
+    </row>
+    <row r="455" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG455" s="4"/>
+      <c r="AH455" s="11"/>
+      <c r="AI455" s="8"/>
+      <c r="AJ455" s="14"/>
+      <c r="AK455" s="13"/>
+      <c r="AL455" s="5"/>
+      <c r="AM455" s="18"/>
+    </row>
+    <row r="456" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG456" s="4"/>
+      <c r="AH456" s="11"/>
+      <c r="AI456" s="8"/>
+      <c r="AJ456" s="14"/>
+      <c r="AK456" s="13"/>
+      <c r="AL456" s="5"/>
+      <c r="AM456" s="18"/>
+    </row>
+    <row r="457" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG457" s="4"/>
+      <c r="AH457" s="11"/>
+      <c r="AI457" s="8"/>
+      <c r="AJ457" s="14"/>
+      <c r="AK457" s="13"/>
+      <c r="AL457" s="5"/>
+      <c r="AM457" s="18"/>
+    </row>
+    <row r="458" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG458" s="4"/>
+      <c r="AH458" s="11"/>
+      <c r="AI458" s="8"/>
+      <c r="AJ458" s="14"/>
+      <c r="AK458" s="13"/>
+      <c r="AL458" s="5"/>
+      <c r="AM458" s="18"/>
+    </row>
+    <row r="459" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG459" s="4"/>
+      <c r="AH459" s="11"/>
+      <c r="AI459" s="8"/>
+      <c r="AJ459" s="14"/>
+      <c r="AK459" s="13"/>
+      <c r="AL459" s="5"/>
+      <c r="AM459" s="18"/>
+    </row>
+    <row r="460" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG460" s="4"/>
+      <c r="AH460" s="11"/>
+      <c r="AI460" s="8"/>
+      <c r="AJ460" s="14"/>
+      <c r="AK460" s="13"/>
+      <c r="AL460" s="5"/>
+      <c r="AM460" s="18"/>
+    </row>
+    <row r="461" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG461" s="4"/>
+      <c r="AH461" s="11"/>
+      <c r="AI461" s="8"/>
+      <c r="AJ461" s="14"/>
+      <c r="AK461" s="13"/>
+      <c r="AL461" s="5"/>
+      <c r="AM461" s="18"/>
+    </row>
+    <row r="462" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG462" s="4"/>
+      <c r="AH462" s="11"/>
+      <c r="AI462" s="8"/>
+      <c r="AJ462" s="14"/>
+      <c r="AK462" s="13"/>
+      <c r="AL462" s="5"/>
+      <c r="AM462" s="18"/>
+    </row>
+    <row r="463" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG463" s="4"/>
+      <c r="AH463" s="11"/>
+      <c r="AI463" s="8"/>
+      <c r="AJ463" s="14"/>
+      <c r="AK463" s="13"/>
+      <c r="AL463" s="5"/>
+      <c r="AM463" s="18"/>
+    </row>
+    <row r="464" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG464" s="4"/>
+      <c r="AH464" s="11"/>
+      <c r="AI464" s="8"/>
+      <c r="AJ464" s="14"/>
+      <c r="AK464" s="13"/>
+      <c r="AL464" s="5"/>
+      <c r="AM464" s="18"/>
+    </row>
+    <row r="465" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG465" s="4"/>
+      <c r="AH465" s="11"/>
+      <c r="AI465" s="8"/>
+      <c r="AJ465" s="14"/>
+      <c r="AK465" s="13"/>
+      <c r="AL465" s="5"/>
+      <c r="AM465" s="18"/>
+    </row>
+    <row r="466" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG466" s="4"/>
+      <c r="AH466" s="11"/>
+      <c r="AI466" s="8"/>
+      <c r="AJ466" s="14"/>
+      <c r="AK466" s="13"/>
+      <c r="AL466" s="5"/>
+      <c r="AM466" s="18"/>
+    </row>
+    <row r="467" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG467" s="4"/>
+      <c r="AH467" s="11"/>
+      <c r="AI467" s="8"/>
+      <c r="AJ467" s="14"/>
+      <c r="AK467" s="13"/>
+      <c r="AL467" s="5"/>
+      <c r="AM467" s="18"/>
+    </row>
+    <row r="468" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG468" s="4"/>
+      <c r="AH468" s="11"/>
+      <c r="AI468" s="8"/>
+      <c r="AJ468" s="14"/>
+      <c r="AK468" s="13"/>
+      <c r="AL468" s="5"/>
+      <c r="AM468" s="18"/>
+    </row>
+    <row r="469" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG469" s="4"/>
+      <c r="AH469" s="11"/>
+      <c r="AI469" s="8"/>
+      <c r="AJ469" s="14"/>
+      <c r="AK469" s="13"/>
+      <c r="AL469" s="5"/>
+      <c r="AM469" s="18"/>
+    </row>
+    <row r="470" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG470" s="4"/>
+      <c r="AH470" s="11"/>
+      <c r="AI470" s="8"/>
+      <c r="AJ470" s="14"/>
+      <c r="AK470" s="13"/>
+      <c r="AL470" s="5"/>
+      <c r="AM470" s="18"/>
+    </row>
+    <row r="471" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG471" s="4"/>
+      <c r="AH471" s="11"/>
+      <c r="AI471" s="8"/>
+      <c r="AJ471" s="14"/>
+      <c r="AK471" s="13"/>
+      <c r="AL471" s="5"/>
+      <c r="AM471" s="18"/>
+    </row>
+    <row r="472" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG472" s="4"/>
+      <c r="AH472" s="11"/>
+      <c r="AI472" s="8"/>
+      <c r="AJ472" s="14"/>
+      <c r="AK472" s="13"/>
+      <c r="AL472" s="5"/>
+      <c r="AM472" s="18"/>
+    </row>
+    <row r="473" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG473" s="4"/>
+      <c r="AH473" s="11"/>
+      <c r="AI473" s="8"/>
+      <c r="AJ473" s="14"/>
+      <c r="AK473" s="13"/>
+      <c r="AL473" s="5"/>
+      <c r="AM473" s="18"/>
+    </row>
+    <row r="474" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG474" s="4"/>
+      <c r="AH474" s="11"/>
+      <c r="AI474" s="8"/>
+      <c r="AJ474" s="14"/>
+      <c r="AK474" s="13"/>
+      <c r="AL474" s="5"/>
+      <c r="AM474" s="18"/>
+    </row>
+    <row r="475" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG475" s="4"/>
+      <c r="AH475" s="11"/>
+      <c r="AI475" s="8"/>
+      <c r="AJ475" s="14"/>
+      <c r="AK475" s="13"/>
+      <c r="AL475" s="5"/>
+      <c r="AM475" s="18"/>
+    </row>
+    <row r="476" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG476" s="4"/>
+      <c r="AH476" s="11"/>
+      <c r="AI476" s="8"/>
+      <c r="AJ476" s="14"/>
+      <c r="AK476" s="13"/>
+      <c r="AL476" s="5"/>
+      <c r="AM476" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E09D9-0EBF-4710-953B-4241D65862DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE39544-03CD-4405-AC50-9CA420BE6E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3495" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="164">
   <si>
     <t>ClassNames</t>
   </si>
@@ -492,6 +492,42 @@
   </si>
   <si>
     <t>2 langues parmi DE, FR, Latin</t>
+  </si>
+  <si>
+    <t>5C-AD</t>
+  </si>
+  <si>
+    <t>Activités</t>
+  </si>
+  <si>
+    <t>4C-AD</t>
+  </si>
+  <si>
+    <t>3CG-AD</t>
+  </si>
+  <si>
+    <t>2CG-AD</t>
+  </si>
+  <si>
+    <t>1CG-AD</t>
+  </si>
+  <si>
+    <t>3I-FR</t>
+  </si>
+  <si>
+    <t>Sciences expérimentales</t>
+  </si>
+  <si>
+    <t>Arts visuels supérieurs</t>
+  </si>
+  <si>
+    <t>Arts visuels moyens</t>
+  </si>
+  <si>
+    <t>Informatique/Projet</t>
+  </si>
+  <si>
+    <t>Mathématiques (option)</t>
   </si>
 </sst>
 </file>
@@ -966,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:BC476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL306" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR330" sqref="AR330"/>
+    <sheetView tabSelected="1" topLeftCell="AC349" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL369" sqref="AL369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,15 +1011,18 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="22"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="22"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="22"/>
+    <col min="35" max="35" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.7109375" style="22"/>
     <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" style="22"/>
-    <col min="51" max="51" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.7109375" style="22"/>
   </cols>
@@ -1025,7 +1064,7 @@
       <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1"/>
@@ -1044,7 +1083,7 @@
       <c r="V1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Y1" s="1"/>
@@ -1063,7 +1102,7 @@
       <c r="AD1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AG1" s="1"/>
@@ -1139,21 +1178,21 @@
       <c r="L2" s="14"/>
       <c r="M2" s="13"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="18"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="11"/>
       <c r="S2" s="8"/>
       <c r="T2" s="14"/>
       <c r="U2" s="13"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="6"/>
+      <c r="W2" s="18"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="6"/>
+      <c r="AE2" s="18"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="8"/>
@@ -1207,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="18"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="17" t="s">
         <v>23</v>
@@ -1222,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="V3" s="5"/>
-      <c r="W3" s="6"/>
+      <c r="W3" s="18"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="17" t="s">
         <v>28</v>
@@ -1237,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="6"/>
+      <c r="AE3" s="18"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="17" t="s">
         <v>32</v>
@@ -1307,7 +1346,7 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="18"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="11"/>
       <c r="S4" s="9" t="s">
@@ -1318,7 +1357,7 @@
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="6"/>
+      <c r="W4" s="18"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="9" t="s">
@@ -1329,7 +1368,7 @@
       </c>
       <c r="AC4" s="13"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="6"/>
+      <c r="AE4" s="18"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="9" t="s">
@@ -1387,7 +1426,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="18"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="11"/>
       <c r="S5" s="9" t="s">
@@ -1398,7 +1437,7 @@
       </c>
       <c r="U5" s="13"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="18"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="9" t="s">
@@ -1409,7 +1448,7 @@
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="6"/>
+      <c r="AE5" s="18"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="9" t="s">
@@ -1469,7 +1508,7 @@
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="18"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="11"/>
       <c r="S6" s="9" t="s">
@@ -1480,7 +1519,7 @@
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="18"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="9" t="s">
@@ -1491,7 +1530,7 @@
       </c>
       <c r="AC6" s="13"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="6"/>
+      <c r="AE6" s="18"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="9" t="s">
@@ -1557,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="18"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="11"/>
       <c r="S7" s="9" t="s">
@@ -1568,7 +1607,7 @@
       </c>
       <c r="U7" s="13"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="18"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="9" t="s">
@@ -1581,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="6"/>
+      <c r="AE7" s="18"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="9" t="s">
@@ -1643,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="18"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="11"/>
       <c r="S8" s="9" t="s">
@@ -1656,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="V8" s="5"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="18"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="9" t="s">
@@ -1669,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="6"/>
+      <c r="AE8" s="18"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="9" t="s">
@@ -1733,7 +1772,7 @@
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="18"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="11"/>
       <c r="S9" s="9" t="s">
@@ -1744,7 +1783,7 @@
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="18"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="11"/>
       <c r="AA9" s="9" t="s">
@@ -1755,7 +1794,7 @@
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="18"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="9" t="s">
@@ -1817,7 +1856,7 @@
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="18"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="11"/>
       <c r="S10" s="9" t="s">
@@ -1828,7 +1867,7 @@
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="18"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="9" t="s">
@@ -1839,7 +1878,7 @@
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="6"/>
+      <c r="AE10" s="18"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="9" t="s">
@@ -1901,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="18"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="11"/>
       <c r="S11" s="9" t="s">
@@ -1912,7 +1951,7 @@
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="18"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="9" t="s">
@@ -1923,7 +1962,7 @@
       </c>
       <c r="AC11" s="13"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="6"/>
+      <c r="AE11" s="18"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="9" t="s">
@@ -1983,7 +2022,7 @@
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="18"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="11"/>
       <c r="S12" s="9" t="s">
@@ -1994,7 +2033,7 @@
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="18"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="9" t="s">
@@ -2005,7 +2044,7 @@
       </c>
       <c r="AC12" s="13"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="6"/>
+      <c r="AE12" s="18"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="11"/>
       <c r="AI12" s="9" t="s">
@@ -2051,7 +2090,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="13"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="18"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="11"/>
       <c r="S13" s="9" t="s">
@@ -2062,7 +2101,7 @@
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="18"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="9" t="s">
@@ -2073,7 +2112,7 @@
       </c>
       <c r="AC13" s="13"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="6"/>
+      <c r="AE13" s="18"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="11"/>
       <c r="AI13" s="9" t="s">
@@ -2137,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="18"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="11"/>
       <c r="S14" s="9" t="s">
@@ -2150,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="5"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="18"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="9" t="s">
@@ -2161,7 +2200,7 @@
       </c>
       <c r="AC14" s="13"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="6"/>
+      <c r="AE14" s="18"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="9" t="s">
@@ -2211,14 +2250,14 @@
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="18"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="11"/>
       <c r="S15" s="8"/>
       <c r="T15" s="14"/>
       <c r="U15" s="13"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="18"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="9" t="s">
@@ -2231,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="6"/>
+      <c r="AE15" s="18"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="9" t="s">
@@ -2291,7 +2330,7 @@
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="18"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="17" t="s">
         <v>26</v>
@@ -2306,14 +2345,14 @@
         <v>4</v>
       </c>
       <c r="V16" s="5"/>
-      <c r="W16" s="6"/>
+      <c r="W16" s="18"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="6"/>
+      <c r="AE16" s="18"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="8"/>
@@ -2363,7 +2402,7 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="18"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="9" t="s">
@@ -2374,7 +2413,7 @@
       </c>
       <c r="U17" s="13"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="6"/>
+      <c r="W17" s="18"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="17" t="s">
         <v>30</v>
@@ -2389,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="6"/>
+      <c r="AE17" s="18"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="17" t="s">
         <v>36</v>
@@ -2451,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="18"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="9" t="s">
@@ -2462,7 +2501,7 @@
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="6"/>
+      <c r="W18" s="18"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="9" t="s">
@@ -2473,7 +2512,7 @@
       </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="6"/>
+      <c r="AE18" s="18"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="11"/>
       <c r="AI18" s="9" t="s">
@@ -2533,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="18"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="9" t="s">
@@ -2544,7 +2583,7 @@
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="18"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="9" t="s">
@@ -2555,7 +2594,7 @@
       </c>
       <c r="AC19" s="13"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="6"/>
+      <c r="AE19" s="18"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="11"/>
       <c r="AI19" s="9" t="s">
@@ -2609,7 +2648,7 @@
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="18"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="9" t="s">
@@ -2620,7 +2659,7 @@
       </c>
       <c r="U20" s="13"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="18"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="9" t="s">
@@ -2631,7 +2670,7 @@
       </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="6"/>
+      <c r="AE20" s="18"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="11"/>
       <c r="AI20" s="9" t="s">
@@ -2691,7 +2730,7 @@
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="18"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="9" t="s">
@@ -2704,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="6"/>
+      <c r="W21" s="18"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="9" t="s">
@@ -2717,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="6"/>
+      <c r="AE21" s="18"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="11"/>
       <c r="AI21" s="9" t="s">
@@ -2775,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="18"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="9" t="s">
@@ -2786,7 +2825,7 @@
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="6"/>
+      <c r="W22" s="18"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="9" t="s">
@@ -2799,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="6"/>
+      <c r="AE22" s="18"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="9" t="s">
@@ -2853,7 +2892,7 @@
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="18"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="9" t="s">
@@ -2864,7 +2903,7 @@
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="6"/>
+      <c r="W23" s="18"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="9" t="s">
@@ -2875,7 +2914,7 @@
       </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="6"/>
+      <c r="AE23" s="18"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="9" t="s">
@@ -2935,7 +2974,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="13"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
+      <c r="O24" s="18"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="9" t="s">
@@ -2946,7 +2985,7 @@
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="6"/>
+      <c r="W24" s="18"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="9" t="s">
@@ -2957,7 +2996,7 @@
       </c>
       <c r="AC24" s="13"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="6"/>
+      <c r="AE24" s="18"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="11"/>
       <c r="AI24" s="9" t="s">
@@ -3017,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
+      <c r="O25" s="18"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="9" t="s">
@@ -3028,7 +3067,7 @@
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="6"/>
+      <c r="W25" s="18"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="9" t="s">
@@ -3039,7 +3078,7 @@
       </c>
       <c r="AC25" s="13"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="18"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="9" t="s">
@@ -3097,7 +3136,7 @@
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="18"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="9" t="s">
@@ -3108,7 +3147,7 @@
       </c>
       <c r="U26" s="13"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="6"/>
+      <c r="W26" s="18"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="9" t="s">
@@ -3119,7 +3158,7 @@
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="6"/>
+      <c r="AE26" s="18"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="9" t="s">
@@ -3169,7 +3208,7 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="18"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="9" t="s">
@@ -3182,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="6"/>
+      <c r="W27" s="18"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="9" t="s">
@@ -3193,7 +3232,7 @@
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="6"/>
+      <c r="AE27" s="18"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="9" t="s">
@@ -3251,14 +3290,14 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
+      <c r="O28" s="18"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="8"/>
       <c r="T28" s="14"/>
       <c r="U28" s="13"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="6"/>
+      <c r="W28" s="18"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="9" t="s">
@@ -3269,7 +3308,7 @@
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="6"/>
+      <c r="AE28" s="18"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="11"/>
       <c r="AI28" s="9" t="s">
@@ -3325,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
+      <c r="O29" s="18"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="17" t="s">
         <v>27</v>
@@ -3340,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="V29" s="5"/>
-      <c r="W29" s="6"/>
+      <c r="W29" s="18"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="9" t="s">
@@ -3353,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="6"/>
+      <c r="AE29" s="18"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="11"/>
       <c r="AI29" s="9" t="s">
@@ -3411,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+      <c r="O30" s="18"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="9" t="s">
@@ -3422,14 +3461,14 @@
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="6"/>
+      <c r="W30" s="18"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="6"/>
+      <c r="AE30" s="18"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="8"/>
@@ -3481,7 +3520,7 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
+      <c r="O31" s="18"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="9" t="s">
@@ -3492,7 +3531,7 @@
       </c>
       <c r="U31" s="13"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="6"/>
+      <c r="W31" s="18"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="17" t="s">
         <v>31</v>
@@ -3507,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="18"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="17" t="s">
         <v>37</v>
@@ -3569,7 +3608,7 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="18"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="9" t="s">
@@ -3580,7 +3619,7 @@
       </c>
       <c r="U32" s="13"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="6"/>
+      <c r="W32" s="18"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="9" t="s">
@@ -3591,7 +3630,7 @@
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="6"/>
+      <c r="AE32" s="18"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="11"/>
       <c r="AI32" s="9" t="s">
@@ -3649,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
+      <c r="O33" s="18"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="9" t="s">
@@ -3662,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="5"/>
-      <c r="W33" s="6"/>
+      <c r="W33" s="18"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="9" t="s">
@@ -3673,7 +3712,7 @@
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="6"/>
+      <c r="AE33" s="18"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="11"/>
       <c r="AI33" s="9" t="s">
@@ -3729,7 +3768,7 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
+      <c r="O34" s="18"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="9" t="s">
@@ -3740,7 +3779,7 @@
       </c>
       <c r="U34" s="13"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="6"/>
+      <c r="W34" s="18"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="9" t="s">
@@ -3751,7 +3790,7 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="6"/>
+      <c r="AE34" s="18"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="11"/>
       <c r="AI34" s="9" t="s">
@@ -3801,7 +3840,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="13"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
+      <c r="O35" s="18"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="9" t="s">
@@ -3812,7 +3851,7 @@
       </c>
       <c r="U35" s="13"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="6"/>
+      <c r="W35" s="18"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="9" t="s">
@@ -3825,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="6"/>
+      <c r="AE35" s="18"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="11"/>
       <c r="AI35" s="9" t="s">
@@ -3876,7 +3915,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="13"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
+      <c r="O36" s="18"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="9" t="s">
@@ -3887,7 +3926,7 @@
       </c>
       <c r="U36" s="13"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="6"/>
+      <c r="W36" s="18"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="9" t="s">
@@ -3900,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="6"/>
+      <c r="AE36" s="18"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="11"/>
       <c r="AI36" s="9" t="s">
@@ -3951,7 +3990,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="13"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
+      <c r="O37" s="18"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="9" t="s">
@@ -3962,7 +4001,7 @@
       </c>
       <c r="U37" s="13"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="18"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="9" t="s">
@@ -3973,7 +4012,7 @@
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="6"/>
+      <c r="AE37" s="18"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="11"/>
       <c r="AI37" s="9" t="s">
@@ -4020,7 +4059,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="13"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
+      <c r="O38" s="18"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="9" t="s">
@@ -4031,7 +4070,7 @@
       </c>
       <c r="U38" s="13"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="18"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="9" t="s">
@@ -4042,7 +4081,7 @@
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="6"/>
+      <c r="AE38" s="18"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="11"/>
       <c r="AI38" s="9" t="s">
@@ -4097,7 +4136,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="13"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
+      <c r="O39" s="18"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="9" t="s">
@@ -4110,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="V39" s="5"/>
-      <c r="W39" s="6"/>
+      <c r="W39" s="18"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9" t="s">
@@ -4121,7 +4160,7 @@
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="6"/>
+      <c r="AE39" s="18"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="11"/>
       <c r="AI39" s="9" t="s">
@@ -4182,14 +4221,14 @@
       <c r="L40" s="14"/>
       <c r="M40" s="13"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="18"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="8"/>
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="18"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="9" t="s">
@@ -4200,7 +4239,7 @@
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="6"/>
+      <c r="AE40" s="18"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="11"/>
       <c r="AI40" s="9" t="s">
@@ -4251,14 +4290,22 @@
       <c r="L41" s="14"/>
       <c r="M41" s="13"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
+      <c r="O41" s="18"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="13"/>
+      <c r="R41" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T41" s="14">
+        <v>6</v>
+      </c>
+      <c r="U41" s="13">
+        <v>2</v>
+      </c>
       <c r="V41" s="5"/>
-      <c r="W41" s="6"/>
+      <c r="W41" s="18"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="11"/>
       <c r="AA41" s="9" t="s">
@@ -4269,7 +4316,7 @@
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="18"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="11"/>
       <c r="AI41" s="9" t="s">
@@ -4320,14 +4367,18 @@
       <c r="L42" s="14"/>
       <c r="M42" s="13"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
+      <c r="O42" s="18"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="14"/>
+      <c r="S42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="14">
+        <v>6</v>
+      </c>
       <c r="U42" s="13"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="18"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="9" t="s">
@@ -4338,7 +4389,7 @@
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="18"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="11"/>
       <c r="AI42" s="9" t="s">
@@ -4391,14 +4442,18 @@
       <c r="L43" s="14"/>
       <c r="M43" s="13"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
+      <c r="O43" s="18"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="14"/>
+      <c r="S43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="14">
+        <v>6</v>
+      </c>
       <c r="U43" s="13"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="18"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="11"/>
       <c r="AA43" s="9" t="s">
@@ -4411,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="6"/>
+      <c r="AE43" s="18"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="11"/>
       <c r="AI43" s="9" t="s">
@@ -4462,21 +4517,25 @@
       <c r="L44" s="14"/>
       <c r="M44" s="13"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
+      <c r="O44" s="18"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="14"/>
+      <c r="S44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="14">
+        <v>6</v>
+      </c>
       <c r="U44" s="13"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="6"/>
+      <c r="W44" s="18"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="13"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="6"/>
+      <c r="AE44" s="18"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="11"/>
       <c r="AI44" s="8"/>
@@ -4521,7 +4580,35 @@
       <c r="L45" s="14"/>
       <c r="M45" s="13"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
+      <c r="O45" s="18"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="14">
+        <v>2</v>
+      </c>
+      <c r="U45" s="13">
+        <v>1</v>
+      </c>
+      <c r="V45" s="5"/>
+      <c r="W45" s="18"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB45" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="18"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="17" t="s">
         <v>39</v>
@@ -4568,6 +4655,28 @@
       <c r="E46" s="13"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T46" s="14">
+        <v>2</v>
+      </c>
+      <c r="U46" s="13"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="18"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="18"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="11"/>
       <c r="AI46" s="9" t="s">
@@ -4614,6 +4723,28 @@
       <c r="E47" s="13"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="14">
+        <v>2</v>
+      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="18"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB47" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="18"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="11"/>
       <c r="AI47" s="9" t="s">
@@ -4656,6 +4787,28 @@
       <c r="E48" s="13"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T48" s="14">
+        <v>2</v>
+      </c>
+      <c r="U48" s="13"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="18"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="18"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="11"/>
       <c r="AI48" s="9" t="s">
@@ -4698,6 +4851,30 @@
       <c r="E49" s="13"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T49" s="14">
+        <v>2</v>
+      </c>
+      <c r="U49" s="13"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="18"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="18"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="11"/>
       <c r="AI49" s="9" t="s">
@@ -4740,6 +4917,24 @@
       <c r="E50" s="13"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="18"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="18"/>
       <c r="AG50" s="4"/>
       <c r="AH50" s="11"/>
       <c r="AI50" s="9" t="s">
@@ -4786,6 +4981,24 @@
       <c r="E51" s="13"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="18"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB51" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="18"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="11"/>
       <c r="AI51" s="9" t="s">
@@ -4826,6 +5039,24 @@
       <c r="E52" s="13"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="18"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB52" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="18"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="11"/>
       <c r="AI52" s="9" t="s">
@@ -4872,6 +5103,24 @@
       <c r="E53" s="13"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="18"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="18"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="11"/>
       <c r="AI53" s="9" t="s">
@@ -4928,6 +5177,24 @@
       <c r="E54" s="13"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="18"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="18"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="11"/>
       <c r="AI54" s="9" t="s">
@@ -4970,6 +5237,20 @@
       <c r="E55" s="13"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="18"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="18"/>
       <c r="AG55" s="4"/>
       <c r="AH55" s="11"/>
       <c r="AI55" s="9" t="s">
@@ -5014,6 +5295,20 @@
       <c r="E56" s="13"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="18"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="18"/>
       <c r="AG56" s="4"/>
       <c r="AH56" s="11"/>
       <c r="AI56" s="9" t="s">
@@ -5062,6 +5357,20 @@
       <c r="E57" s="13"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="18"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="18"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="11"/>
       <c r="AI57" s="8"/>
@@ -5100,6 +5409,20 @@
       <c r="E58" s="13"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="18"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="18"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="17" t="s">
         <v>40</v>
@@ -5146,6 +5469,20 @@
       <c r="E59" s="13"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="18"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="18"/>
       <c r="AG59" s="4"/>
       <c r="AH59" s="11"/>
       <c r="AI59" s="9" t="s">
@@ -5190,6 +5527,20 @@
       <c r="E60" s="13"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="18"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="18"/>
       <c r="AG60" s="4"/>
       <c r="AH60" s="11"/>
       <c r="AI60" s="9" t="s">
@@ -5234,6 +5585,20 @@
       <c r="E61" s="13"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="18"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="18"/>
       <c r="AG61" s="4"/>
       <c r="AH61" s="11"/>
       <c r="AI61" s="9" t="s">
@@ -5276,6 +5641,20 @@
       <c r="E62" s="13"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="18"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="18"/>
       <c r="AG62" s="4"/>
       <c r="AH62" s="11"/>
       <c r="AI62" s="9" t="s">
@@ -5318,6 +5697,20 @@
       <c r="E63" s="13"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="18"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="18"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="11"/>
       <c r="AI63" s="9" t="s">
@@ -5360,6 +5753,20 @@
       <c r="E64" s="13"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="18"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="18"/>
       <c r="AG64" s="4"/>
       <c r="AH64" s="11"/>
       <c r="AI64" s="9" t="s">
@@ -5406,6 +5813,20 @@
       <c r="E65" s="13"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="18"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="18"/>
       <c r="AG65" s="4"/>
       <c r="AH65" s="11"/>
       <c r="AI65" s="9" t="s">
@@ -5448,6 +5869,20 @@
       <c r="E66" s="13"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="18"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="18"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="11"/>
       <c r="AI66" s="9" t="s">
@@ -5492,6 +5927,20 @@
       <c r="E67" s="13"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="18"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="13"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="18"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="11"/>
       <c r="AI67" s="9" t="s">
@@ -5546,6 +5995,20 @@
       <c r="E68" s="13"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="18"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="18"/>
       <c r="AG68" s="4"/>
       <c r="AH68" s="11"/>
       <c r="AI68" s="9" t="s">
@@ -5588,6 +6051,20 @@
       <c r="E69" s="13"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="18"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="18"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="11"/>
       <c r="AI69" s="9" t="s">
@@ -5634,6 +6111,20 @@
       <c r="E70" s="13"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="18"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="18"/>
       <c r="AG70" s="4"/>
       <c r="AH70" s="11"/>
       <c r="AI70" s="8"/>
@@ -5676,6 +6167,13 @@
       <c r="E71" s="13"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="18"/>
       <c r="AG71" s="4"/>
       <c r="AH71" s="17" t="s">
         <v>41</v>
@@ -5722,6 +6220,13 @@
       <c r="E72" s="13"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="18"/>
       <c r="AG72" s="4"/>
       <c r="AH72" s="11"/>
       <c r="AI72" s="9" t="s">
@@ -5766,6 +6271,13 @@
       <c r="E73" s="13"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="18"/>
       <c r="AG73" s="4"/>
       <c r="AH73" s="11"/>
       <c r="AI73" s="9" t="s">
@@ -13033,10 +13545,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AW236" s="4"/>
-      <c r="AX236" s="11"/>
-      <c r="AY236" s="8"/>
-      <c r="AZ236" s="14"/>
-      <c r="BA236" s="13"/>
+      <c r="AX236" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY236" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ236" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA236" s="13">
+        <v>4</v>
+      </c>
       <c r="BB236" s="5"/>
       <c r="BC236" s="18"/>
     </row>
@@ -13076,9 +13596,15 @@
       </c>
       <c r="AW237" s="4"/>
       <c r="AX237" s="11"/>
-      <c r="AY237" s="8"/>
-      <c r="AZ237" s="14"/>
-      <c r="BA237" s="13"/>
+      <c r="AY237" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ237" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA237" s="13">
+        <v>3</v>
+      </c>
       <c r="BB237" s="5"/>
       <c r="BC237" s="18"/>
     </row>
@@ -13114,8 +13640,12 @@
       </c>
       <c r="AW238" s="4"/>
       <c r="AX238" s="11"/>
-      <c r="AY238" s="8"/>
-      <c r="AZ238" s="14"/>
+      <c r="AY238" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ238" s="14">
+        <v>3</v>
+      </c>
       <c r="BA238" s="13"/>
       <c r="BB238" s="5"/>
       <c r="BC238" s="18"/>
@@ -13154,8 +13684,12 @@
       <c r="AU239" s="18"/>
       <c r="AW239" s="4"/>
       <c r="AX239" s="11"/>
-      <c r="AY239" s="8"/>
-      <c r="AZ239" s="14"/>
+      <c r="AY239" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ239" s="14">
+        <v>3</v>
+      </c>
       <c r="BA239" s="13"/>
       <c r="BB239" s="5"/>
       <c r="BC239" s="18"/>
@@ -13192,11 +13726,19 @@
       <c r="AU240" s="18"/>
       <c r="AW240" s="4"/>
       <c r="AX240" s="11"/>
-      <c r="AY240" s="8"/>
-      <c r="AZ240" s="14"/>
+      <c r="AY240" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ240" s="14">
+        <v>6</v>
+      </c>
       <c r="BA240" s="13"/>
-      <c r="BB240" s="5"/>
-      <c r="BC240" s="18"/>
+      <c r="BB240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC240" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="241" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
@@ -13233,8 +13775,12 @@
       <c r="AY241" s="8"/>
       <c r="AZ241" s="14"/>
       <c r="BA241" s="13"/>
-      <c r="BB241" s="5"/>
-      <c r="BC241" s="18"/>
+      <c r="BB241" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC241" s="18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
@@ -13270,9 +13816,15 @@
       <c r="AU242" s="18"/>
       <c r="AW242" s="4"/>
       <c r="AX242" s="11"/>
-      <c r="AY242" s="8"/>
-      <c r="AZ242" s="14"/>
-      <c r="BA242" s="13"/>
+      <c r="AY242" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ242" s="14">
+        <v>3</v>
+      </c>
+      <c r="BA242" s="13">
+        <v>2</v>
+      </c>
       <c r="BB242" s="5"/>
       <c r="BC242" s="18"/>
     </row>
@@ -13304,8 +13856,12 @@
       <c r="AU243" s="18"/>
       <c r="AW243" s="4"/>
       <c r="AX243" s="11"/>
-      <c r="AY243" s="8"/>
-      <c r="AZ243" s="14"/>
+      <c r="AY243" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ243" s="14">
+        <v>3</v>
+      </c>
       <c r="BA243" s="13"/>
       <c r="BB243" s="5"/>
       <c r="BC243" s="18"/>
@@ -13352,8 +13908,12 @@
       <c r="AU244" s="18"/>
       <c r="AW244" s="4"/>
       <c r="AX244" s="11"/>
-      <c r="AY244" s="8"/>
-      <c r="AZ244" s="14"/>
+      <c r="AY244" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ244" s="14">
+        <v>2</v>
+      </c>
       <c r="BA244" s="13"/>
       <c r="BB244" s="5"/>
       <c r="BC244" s="18"/>
@@ -13386,8 +13946,12 @@
       <c r="AU245" s="18"/>
       <c r="AW245" s="4"/>
       <c r="AX245" s="11"/>
-      <c r="AY245" s="8"/>
-      <c r="AZ245" s="14"/>
+      <c r="AY245" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ245" s="14">
+        <v>2</v>
+      </c>
       <c r="BA245" s="13"/>
       <c r="BB245" s="5"/>
       <c r="BC245" s="18"/>
@@ -13432,8 +13996,12 @@
       </c>
       <c r="AW246" s="4"/>
       <c r="AX246" s="11"/>
-      <c r="AY246" s="8"/>
-      <c r="AZ246" s="14"/>
+      <c r="AY246" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ246" s="14">
+        <v>1</v>
+      </c>
       <c r="BA246" s="13"/>
       <c r="BB246" s="5"/>
       <c r="BC246" s="18"/>
@@ -13470,9 +14038,15 @@
       </c>
       <c r="AW247" s="4"/>
       <c r="AX247" s="11"/>
-      <c r="AY247" s="8"/>
-      <c r="AZ247" s="14"/>
-      <c r="BA247" s="13"/>
+      <c r="AY247" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ247" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA247" s="13">
+        <v>1</v>
+      </c>
       <c r="BB247" s="5"/>
       <c r="BC247" s="18"/>
     </row>
@@ -16348,10 +16922,18 @@
       <c r="AL353" s="5"/>
       <c r="AM353" s="18"/>
       <c r="AO353" s="4"/>
-      <c r="AP353" s="11"/>
-      <c r="AQ353" s="8"/>
-      <c r="AR353" s="14"/>
-      <c r="AS353" s="13"/>
+      <c r="AP353" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ353" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR353" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS353" s="13">
+        <v>4</v>
+      </c>
       <c r="AT353" s="5"/>
       <c r="AU353" s="18"/>
     </row>
@@ -16369,9 +16951,15 @@
       <c r="AM354" s="18"/>
       <c r="AO354" s="4"/>
       <c r="AP354" s="11"/>
-      <c r="AQ354" s="8"/>
-      <c r="AR354" s="14"/>
-      <c r="AS354" s="13"/>
+      <c r="AQ354" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR354" s="14">
+        <v>4</v>
+      </c>
+      <c r="AS354" s="13">
+        <v>3</v>
+      </c>
       <c r="AT354" s="5"/>
       <c r="AU354" s="18"/>
     </row>
@@ -16385,24 +16973,40 @@
       <c r="AM355" s="18"/>
       <c r="AO355" s="4"/>
       <c r="AP355" s="11"/>
-      <c r="AQ355" s="8"/>
-      <c r="AR355" s="14"/>
+      <c r="AQ355" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR355" s="14">
+        <v>4</v>
+      </c>
       <c r="AS355" s="13"/>
       <c r="AT355" s="5"/>
       <c r="AU355" s="18"/>
     </row>
     <row r="356" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG356" s="4"/>
-      <c r="AH356" s="11"/>
-      <c r="AI356" s="8"/>
-      <c r="AJ356" s="14"/>
-      <c r="AK356" s="13"/>
+      <c r="AH356" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI356" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ356" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK356" s="13">
+        <v>4</v>
+      </c>
       <c r="AL356" s="5"/>
       <c r="AM356" s="18"/>
       <c r="AO356" s="4"/>
       <c r="AP356" s="11"/>
-      <c r="AQ356" s="8"/>
-      <c r="AR356" s="14"/>
+      <c r="AQ356" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR356" s="14">
+        <v>4</v>
+      </c>
       <c r="AS356" s="13"/>
       <c r="AT356" s="5"/>
       <c r="AU356" s="18"/>
@@ -16410,24 +17014,42 @@
     <row r="357" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG357" s="4"/>
       <c r="AH357" s="11"/>
-      <c r="AI357" s="8"/>
-      <c r="AJ357" s="14"/>
-      <c r="AK357" s="13"/>
+      <c r="AI357" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ357" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK357" s="13">
+        <v>3</v>
+      </c>
       <c r="AL357" s="5"/>
       <c r="AM357" s="18"/>
       <c r="AO357" s="4"/>
       <c r="AP357" s="11"/>
-      <c r="AQ357" s="8"/>
-      <c r="AR357" s="14"/>
+      <c r="AQ357" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR357" s="14">
+        <v>3</v>
+      </c>
       <c r="AS357" s="13"/>
-      <c r="AT357" s="5"/>
-      <c r="AU357" s="18"/>
+      <c r="AT357" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU357" s="18">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="358" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG358" s="4"/>
       <c r="AH358" s="11"/>
-      <c r="AI358" s="8"/>
-      <c r="AJ358" s="14"/>
+      <c r="AI358" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ358" s="14">
+        <v>4</v>
+      </c>
       <c r="AK358" s="13"/>
       <c r="AL358" s="5"/>
       <c r="AM358" s="18"/>
@@ -16436,37 +17058,59 @@
       <c r="AQ358" s="8"/>
       <c r="AR358" s="14"/>
       <c r="AS358" s="13"/>
-      <c r="AT358" s="5"/>
-      <c r="AU358" s="18"/>
+      <c r="AT358" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU358" s="18">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="359" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG359" s="4"/>
       <c r="AH359" s="11"/>
-      <c r="AI359" s="8"/>
-      <c r="AJ359" s="14"/>
+      <c r="AI359" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ359" s="14">
+        <v>4</v>
+      </c>
       <c r="AK359" s="13"/>
       <c r="AL359" s="5"/>
       <c r="AM359" s="18"/>
       <c r="AO359" s="4"/>
       <c r="AP359" s="11"/>
-      <c r="AQ359" s="8"/>
-      <c r="AR359" s="14"/>
-      <c r="AS359" s="13"/>
+      <c r="AQ359" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR359" s="14">
+        <v>3</v>
+      </c>
+      <c r="AS359" s="13">
+        <v>2</v>
+      </c>
       <c r="AT359" s="5"/>
       <c r="AU359" s="18"/>
     </row>
     <row r="360" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG360" s="4"/>
       <c r="AH360" s="11"/>
-      <c r="AI360" s="8"/>
-      <c r="AJ360" s="14"/>
+      <c r="AI360" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ360" s="14">
+        <v>4</v>
+      </c>
       <c r="AK360" s="13"/>
       <c r="AL360" s="5"/>
       <c r="AM360" s="18"/>
       <c r="AO360" s="4"/>
       <c r="AP360" s="11"/>
-      <c r="AQ360" s="8"/>
-      <c r="AR360" s="14"/>
+      <c r="AQ360" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR360" s="14">
+        <v>2</v>
+      </c>
       <c r="AS360" s="13"/>
       <c r="AT360" s="5"/>
       <c r="AU360" s="18"/>
@@ -16474,15 +17118,25 @@
     <row r="361" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG361" s="4"/>
       <c r="AH361" s="11"/>
-      <c r="AI361" s="8"/>
-      <c r="AJ361" s="14"/>
-      <c r="AK361" s="13"/>
+      <c r="AI361" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ361" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK361" s="13">
+        <v>2</v>
+      </c>
       <c r="AL361" s="5"/>
       <c r="AM361" s="18"/>
       <c r="AO361" s="4"/>
       <c r="AP361" s="11"/>
-      <c r="AQ361" s="8"/>
-      <c r="AR361" s="14"/>
+      <c r="AQ361" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR361" s="14">
+        <v>3</v>
+      </c>
       <c r="AS361" s="13"/>
       <c r="AT361" s="5"/>
       <c r="AU361" s="18"/>
@@ -16490,15 +17144,23 @@
     <row r="362" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG362" s="4"/>
       <c r="AH362" s="11"/>
-      <c r="AI362" s="8"/>
-      <c r="AJ362" s="14"/>
+      <c r="AI362" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ362" s="14">
+        <v>2</v>
+      </c>
       <c r="AK362" s="13"/>
       <c r="AL362" s="5"/>
       <c r="AM362" s="18"/>
       <c r="AO362" s="4"/>
       <c r="AP362" s="11"/>
-      <c r="AQ362" s="8"/>
-      <c r="AR362" s="14"/>
+      <c r="AQ362" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR362" s="14">
+        <v>2</v>
+      </c>
       <c r="AS362" s="13"/>
       <c r="AT362" s="5"/>
       <c r="AU362" s="18"/>
@@ -16506,15 +17168,23 @@
     <row r="363" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG363" s="4"/>
       <c r="AH363" s="11"/>
-      <c r="AI363" s="8"/>
-      <c r="AJ363" s="14"/>
+      <c r="AI363" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ363" s="14">
+        <v>2</v>
+      </c>
       <c r="AK363" s="13"/>
       <c r="AL363" s="5"/>
       <c r="AM363" s="18"/>
       <c r="AO363" s="4"/>
       <c r="AP363" s="11"/>
-      <c r="AQ363" s="8"/>
-      <c r="AR363" s="14"/>
+      <c r="AQ363" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR363" s="14">
+        <v>1</v>
+      </c>
       <c r="AS363" s="13"/>
       <c r="AT363" s="5"/>
       <c r="AU363" s="18"/>
@@ -16522,15 +17192,23 @@
     <row r="364" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG364" s="4"/>
       <c r="AH364" s="11"/>
-      <c r="AI364" s="8"/>
-      <c r="AJ364" s="14"/>
+      <c r="AI364" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ364" s="14">
+        <v>2</v>
+      </c>
       <c r="AK364" s="13"/>
       <c r="AL364" s="5"/>
       <c r="AM364" s="18"/>
       <c r="AO364" s="4"/>
       <c r="AP364" s="11"/>
-      <c r="AQ364" s="8"/>
-      <c r="AR364" s="14"/>
+      <c r="AQ364" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR364" s="14">
+        <v>1</v>
+      </c>
       <c r="AS364" s="13"/>
       <c r="AT364" s="5"/>
       <c r="AU364" s="18"/>
@@ -16538,15 +17216,23 @@
     <row r="365" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG365" s="4"/>
       <c r="AH365" s="11"/>
-      <c r="AI365" s="8"/>
-      <c r="AJ365" s="14"/>
+      <c r="AI365" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ365" s="14">
+        <v>2</v>
+      </c>
       <c r="AK365" s="13"/>
       <c r="AL365" s="5"/>
       <c r="AM365" s="18"/>
       <c r="AO365" s="4"/>
       <c r="AP365" s="11"/>
-      <c r="AQ365" s="8"/>
-      <c r="AR365" s="14"/>
+      <c r="AQ365" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR365" s="14">
+        <v>2</v>
+      </c>
       <c r="AS365" s="13"/>
       <c r="AT365" s="5"/>
       <c r="AU365" s="18"/>
@@ -16554,25 +17240,41 @@
     <row r="366" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG366" s="4"/>
       <c r="AH366" s="11"/>
-      <c r="AI366" s="8"/>
-      <c r="AJ366" s="14"/>
+      <c r="AI366" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ366" s="14">
+        <v>2</v>
+      </c>
       <c r="AK366" s="13"/>
       <c r="AL366" s="5"/>
       <c r="AM366" s="18"/>
       <c r="AO366" s="4"/>
       <c r="AP366" s="11"/>
-      <c r="AQ366" s="8"/>
-      <c r="AR366" s="14"/>
-      <c r="AS366" s="13"/>
+      <c r="AQ366" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR366" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS366" s="13">
+        <v>1</v>
+      </c>
       <c r="AT366" s="5"/>
       <c r="AU366" s="18"/>
     </row>
     <row r="367" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG367" s="4"/>
       <c r="AH367" s="11"/>
-      <c r="AI367" s="8"/>
-      <c r="AJ367" s="14"/>
-      <c r="AK367" s="13"/>
+      <c r="AI367" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ367" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK367" s="13">
+        <v>1</v>
+      </c>
       <c r="AL367" s="5"/>
       <c r="AM367" s="18"/>
       <c r="AO367" s="4"/>
@@ -16601,10 +17303,18 @@
     </row>
     <row r="369" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG369" s="4"/>
-      <c r="AH369" s="11"/>
-      <c r="AI369" s="8"/>
-      <c r="AJ369" s="14"/>
-      <c r="AK369" s="13"/>
+      <c r="AH369" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI369" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ369" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK369" s="13">
+        <v>4</v>
+      </c>
       <c r="AL369" s="5"/>
       <c r="AM369" s="18"/>
       <c r="AO369" s="4"/>
@@ -16618,8 +17328,12 @@
     <row r="370" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG370" s="4"/>
       <c r="AH370" s="11"/>
-      <c r="AI370" s="8"/>
-      <c r="AJ370" s="14"/>
+      <c r="AI370" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ370" s="14">
+        <v>4</v>
+      </c>
       <c r="AK370" s="13"/>
       <c r="AL370" s="5"/>
       <c r="AM370" s="18"/>
@@ -16634,11 +17348,19 @@
     <row r="371" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG371" s="4"/>
       <c r="AH371" s="11"/>
-      <c r="AI371" s="8"/>
-      <c r="AJ371" s="14"/>
+      <c r="AI371" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ371" s="14">
+        <v>5</v>
+      </c>
       <c r="AK371" s="13"/>
-      <c r="AL371" s="5"/>
-      <c r="AM371" s="18"/>
+      <c r="AL371" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM371" s="18">
+        <v>0.4</v>
+      </c>
       <c r="AO371" s="4"/>
       <c r="AP371" s="11"/>
       <c r="AQ371" s="8"/>
@@ -16653,8 +17375,12 @@
       <c r="AI372" s="8"/>
       <c r="AJ372" s="14"/>
       <c r="AK372" s="13"/>
-      <c r="AL372" s="5"/>
-      <c r="AM372" s="18"/>
+      <c r="AL372" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM372" s="18">
+        <v>0.2</v>
+      </c>
       <c r="AO372" s="4"/>
       <c r="AP372" s="11"/>
       <c r="AQ372" s="8"/>
@@ -16669,8 +17395,12 @@
       <c r="AI373" s="8"/>
       <c r="AJ373" s="14"/>
       <c r="AK373" s="13"/>
-      <c r="AL373" s="5"/>
-      <c r="AM373" s="18"/>
+      <c r="AL373" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM373" s="18">
+        <v>0.4</v>
+      </c>
       <c r="AO373" s="4"/>
       <c r="AP373" s="11"/>
       <c r="AQ373" s="8"/>
@@ -16682,11 +17412,19 @@
     <row r="374" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG374" s="4"/>
       <c r="AH374" s="11"/>
-      <c r="AI374" s="8"/>
-      <c r="AJ374" s="14"/>
+      <c r="AI374" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ374" s="14">
+        <v>5</v>
+      </c>
       <c r="AK374" s="13"/>
-      <c r="AL374" s="5"/>
-      <c r="AM374" s="18"/>
+      <c r="AL374" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM374" s="18">
+        <v>0.6</v>
+      </c>
       <c r="AO374" s="4"/>
       <c r="AP374" s="11"/>
       <c r="AQ374" s="8"/>
@@ -16701,8 +17439,12 @@
       <c r="AI375" s="8"/>
       <c r="AJ375" s="14"/>
       <c r="AK375" s="13"/>
-      <c r="AL375" s="5"/>
-      <c r="AM375" s="18"/>
+      <c r="AL375" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM375" s="18">
+        <v>0.4</v>
+      </c>
       <c r="AO375" s="4"/>
       <c r="AP375" s="11"/>
       <c r="AQ375" s="8"/>
@@ -16714,9 +17456,15 @@
     <row r="376" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG376" s="4"/>
       <c r="AH376" s="11"/>
-      <c r="AI376" s="8"/>
-      <c r="AJ376" s="14"/>
-      <c r="AK376" s="13"/>
+      <c r="AI376" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ376" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK376" s="13">
+        <v>3</v>
+      </c>
       <c r="AL376" s="5"/>
       <c r="AM376" s="18"/>
       <c r="AO376" s="4"/>
@@ -16730,8 +17478,12 @@
     <row r="377" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG377" s="4"/>
       <c r="AH377" s="11"/>
-      <c r="AI377" s="8"/>
-      <c r="AJ377" s="14"/>
+      <c r="AI377" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ377" s="14">
+        <v>4</v>
+      </c>
       <c r="AK377" s="13"/>
       <c r="AL377" s="5"/>
       <c r="AM377" s="18"/>
@@ -16746,8 +17498,12 @@
     <row r="378" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG378" s="4"/>
       <c r="AH378" s="11"/>
-      <c r="AI378" s="8"/>
-      <c r="AJ378" s="14"/>
+      <c r="AI378" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ378" s="14">
+        <v>4</v>
+      </c>
       <c r="AK378" s="13"/>
       <c r="AL378" s="5"/>
       <c r="AM378" s="18"/>
@@ -16762,8 +17518,12 @@
     <row r="379" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG379" s="4"/>
       <c r="AH379" s="11"/>
-      <c r="AI379" s="8"/>
-      <c r="AJ379" s="14"/>
+      <c r="AI379" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ379" s="14">
+        <v>3</v>
+      </c>
       <c r="AK379" s="13"/>
       <c r="AL379" s="5"/>
       <c r="AM379" s="18"/>
@@ -16778,9 +17538,15 @@
     <row r="380" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG380" s="4"/>
       <c r="AH380" s="11"/>
-      <c r="AI380" s="8"/>
-      <c r="AJ380" s="14"/>
-      <c r="AK380" s="13"/>
+      <c r="AI380" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ380" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK380" s="13">
+        <v>2</v>
+      </c>
       <c r="AL380" s="5"/>
       <c r="AM380" s="18"/>
       <c r="AO380" s="4"/>
@@ -16794,8 +17560,12 @@
     <row r="381" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG381" s="4"/>
       <c r="AH381" s="11"/>
-      <c r="AI381" s="8"/>
-      <c r="AJ381" s="14"/>
+      <c r="AI381" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ381" s="14">
+        <v>2</v>
+      </c>
       <c r="AK381" s="13"/>
       <c r="AL381" s="5"/>
       <c r="AM381" s="18"/>
@@ -16810,8 +17580,12 @@
     <row r="382" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG382" s="4"/>
       <c r="AH382" s="11"/>
-      <c r="AI382" s="8"/>
-      <c r="AJ382" s="14"/>
+      <c r="AI382" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ382" s="14">
+        <v>2</v>
+      </c>
       <c r="AK382" s="13"/>
       <c r="AL382" s="5"/>
       <c r="AM382" s="18"/>
@@ -16826,8 +17600,12 @@
     <row r="383" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG383" s="4"/>
       <c r="AH383" s="11"/>
-      <c r="AI383" s="8"/>
-      <c r="AJ383" s="14"/>
+      <c r="AI383" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ383" s="14">
+        <v>2</v>
+      </c>
       <c r="AK383" s="13"/>
       <c r="AL383" s="5"/>
       <c r="AM383" s="18"/>
@@ -16842,8 +17620,12 @@
     <row r="384" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG384" s="4"/>
       <c r="AH384" s="11"/>
-      <c r="AI384" s="8"/>
-      <c r="AJ384" s="14"/>
+      <c r="AI384" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ384" s="14">
+        <v>2</v>
+      </c>
       <c r="AK384" s="13"/>
       <c r="AL384" s="5"/>
       <c r="AM384" s="18"/>
@@ -16858,9 +17640,15 @@
     <row r="385" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG385" s="4"/>
       <c r="AH385" s="11"/>
-      <c r="AI385" s="8"/>
-      <c r="AJ385" s="14"/>
-      <c r="AK385" s="13"/>
+      <c r="AI385" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ385" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK385" s="13">
+        <v>1</v>
+      </c>
       <c r="AL385" s="5"/>
       <c r="AM385" s="18"/>
       <c r="AO385" s="4"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D882BA7-77F7-488D-B8E4-109FB4E00CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFB69E-6417-4D6C-AB1A-56AD4044458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="8055" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="209">
   <si>
     <t>ClassNames</t>
   </si>
@@ -631,6 +631,39 @@
   <si>
     <t>1CA-PSYF</t>
   </si>
+  <si>
+    <t>3CA-COUC</t>
+  </si>
+  <si>
+    <t>Discipline combinée</t>
+  </si>
+  <si>
+    <t>Cours complémentaire</t>
+  </si>
+  <si>
+    <t>3CB-COUC</t>
+  </si>
+  <si>
+    <t>3CC-COUC</t>
+  </si>
+  <si>
+    <t>3CD-COUC</t>
+  </si>
+  <si>
+    <t>Cours complémentaires</t>
+  </si>
+  <si>
+    <t>3CE-COUC</t>
+  </si>
+  <si>
+    <t>3CF-COUC</t>
+  </si>
+  <si>
+    <t>Choral</t>
+  </si>
+  <si>
+    <t>3CG-COUC</t>
+  </si>
 </sst>
 </file>
 
@@ -1100,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC545"/>
+  <dimension ref="A1:BC661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AY306" sqref="AY306"/>
+    <sheetView tabSelected="1" topLeftCell="AF623" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK660" sqref="AK660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22115,6 +22148,1600 @@
       <c r="AL545" s="4"/>
       <c r="AM545" s="16"/>
     </row>
+    <row r="546" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG546" s="3"/>
+      <c r="AH546" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI546" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ546" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK546" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL546" s="4"/>
+      <c r="AM546" s="16"/>
+    </row>
+    <row r="547" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG547" s="3"/>
+      <c r="AH547" s="9"/>
+      <c r="AI547" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ547" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK547" s="11"/>
+      <c r="AL547" s="4"/>
+      <c r="AM547" s="16"/>
+    </row>
+    <row r="548" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG548" s="3"/>
+      <c r="AH548" s="9"/>
+      <c r="AI548" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ548" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK548" s="11"/>
+      <c r="AL548" s="4"/>
+      <c r="AM548" s="16"/>
+    </row>
+    <row r="549" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG549" s="3"/>
+      <c r="AH549" s="9"/>
+      <c r="AI549" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ549" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK549" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL549" s="4"/>
+      <c r="AM549" s="16"/>
+    </row>
+    <row r="550" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG550" s="3"/>
+      <c r="AH550" s="9"/>
+      <c r="AI550" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ550" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK550" s="11"/>
+      <c r="AL550" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM550" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="551" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG551" s="3"/>
+      <c r="AH551" s="9"/>
+      <c r="AI551" s="6"/>
+      <c r="AJ551" s="12"/>
+      <c r="AK551" s="11"/>
+      <c r="AL551" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM551" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="552" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG552" s="3"/>
+      <c r="AH552" s="9"/>
+      <c r="AI552" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ552" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK552" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL552" s="4"/>
+      <c r="AM552" s="16"/>
+    </row>
+    <row r="553" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG553" s="3"/>
+      <c r="AH553" s="9"/>
+      <c r="AI553" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ553" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK553" s="11"/>
+      <c r="AL553" s="4"/>
+      <c r="AM553" s="16"/>
+    </row>
+    <row r="554" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG554" s="3"/>
+      <c r="AH554" s="9"/>
+      <c r="AI554" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ554" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK554" s="11"/>
+      <c r="AL554" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM554" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="555" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG555" s="3"/>
+      <c r="AH555" s="9"/>
+      <c r="AI555" s="6"/>
+      <c r="AJ555" s="12"/>
+      <c r="AK555" s="11"/>
+      <c r="AL555" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM555" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="556" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG556" s="3"/>
+      <c r="AH556" s="9"/>
+      <c r="AI556" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ556" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK556" s="11"/>
+      <c r="AL556" s="4"/>
+      <c r="AM556" s="16"/>
+    </row>
+    <row r="557" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG557" s="3"/>
+      <c r="AH557" s="9"/>
+      <c r="AI557" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ557" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK557" s="11"/>
+      <c r="AL557" s="4"/>
+      <c r="AM557" s="16"/>
+    </row>
+    <row r="558" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG558" s="3"/>
+      <c r="AH558" s="9"/>
+      <c r="AI558" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ558" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK558" s="11"/>
+      <c r="AL558" s="4"/>
+      <c r="AM558" s="16"/>
+    </row>
+    <row r="559" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG559" s="3"/>
+      <c r="AH559" s="9"/>
+      <c r="AI559" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ559" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK559" s="11"/>
+      <c r="AL559" s="4"/>
+      <c r="AM559" s="16"/>
+    </row>
+    <row r="560" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG560" s="3"/>
+      <c r="AH560" s="9"/>
+      <c r="AI560" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ560" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK560" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL560" s="4"/>
+      <c r="AM560" s="16"/>
+    </row>
+    <row r="561" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG561" s="3"/>
+      <c r="AH561" s="9"/>
+      <c r="AI561" s="6"/>
+      <c r="AJ561" s="12"/>
+      <c r="AK561" s="11"/>
+      <c r="AL561" s="4"/>
+      <c r="AM561" s="16"/>
+    </row>
+    <row r="562" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG562" s="3"/>
+      <c r="AH562" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI562" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ562" s="12">
+        <v>6</v>
+      </c>
+      <c r="AK562" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL562" s="4"/>
+      <c r="AM562" s="16"/>
+    </row>
+    <row r="563" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG563" s="3"/>
+      <c r="AH563" s="9"/>
+      <c r="AI563" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ563" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK563" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL563" s="4"/>
+      <c r="AM563" s="16"/>
+    </row>
+    <row r="564" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG564" s="3"/>
+      <c r="AH564" s="9"/>
+      <c r="AI564" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ564" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK564" s="11"/>
+      <c r="AL564" s="4"/>
+      <c r="AM564" s="16"/>
+    </row>
+    <row r="565" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG565" s="3"/>
+      <c r="AH565" s="9"/>
+      <c r="AI565" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ565" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK565" s="11"/>
+      <c r="AL565" s="4"/>
+      <c r="AM565" s="16"/>
+    </row>
+    <row r="566" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG566" s="3"/>
+      <c r="AH566" s="9"/>
+      <c r="AI566" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ566" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK566" s="11"/>
+      <c r="AL566" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM566" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="567" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG567" s="3"/>
+      <c r="AH567" s="9"/>
+      <c r="AI567" s="6"/>
+      <c r="AJ567" s="12"/>
+      <c r="AK567" s="11"/>
+      <c r="AL567" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM567" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="568" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG568" s="3"/>
+      <c r="AH568" s="9"/>
+      <c r="AI568" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ568" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK568" s="11"/>
+      <c r="AL568" s="4"/>
+      <c r="AM568" s="16"/>
+    </row>
+    <row r="569" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG569" s="3"/>
+      <c r="AH569" s="9"/>
+      <c r="AI569" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ569" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK569" s="11"/>
+      <c r="AL569" s="4"/>
+      <c r="AM569" s="16"/>
+    </row>
+    <row r="570" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG570" s="3"/>
+      <c r="AH570" s="9"/>
+      <c r="AI570" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ570" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK570" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL570" s="4"/>
+      <c r="AM570" s="16"/>
+    </row>
+    <row r="571" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG571" s="3"/>
+      <c r="AH571" s="9"/>
+      <c r="AI571" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ571" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK571" s="11"/>
+      <c r="AL571" s="4"/>
+      <c r="AM571" s="16"/>
+    </row>
+    <row r="572" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG572" s="3"/>
+      <c r="AH572" s="9"/>
+      <c r="AI572" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ572" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK572" s="11"/>
+      <c r="AL572" s="4"/>
+      <c r="AM572" s="16"/>
+    </row>
+    <row r="573" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG573" s="3"/>
+      <c r="AH573" s="9"/>
+      <c r="AI573" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ573" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK573" s="11"/>
+      <c r="AL573" s="4"/>
+      <c r="AM573" s="16"/>
+    </row>
+    <row r="574" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG574" s="3"/>
+      <c r="AH574" s="9"/>
+      <c r="AI574" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ574" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK574" s="11"/>
+      <c r="AL574" s="4"/>
+      <c r="AM574" s="16"/>
+    </row>
+    <row r="575" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG575" s="3"/>
+      <c r="AH575" s="9"/>
+      <c r="AI575" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ575" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK575" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="4"/>
+      <c r="AM575" s="16"/>
+    </row>
+    <row r="576" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG576" s="3"/>
+      <c r="AH576" s="9"/>
+      <c r="AI576" s="6"/>
+      <c r="AJ576" s="12"/>
+      <c r="AK576" s="11"/>
+      <c r="AL576" s="4"/>
+      <c r="AM576" s="16"/>
+    </row>
+    <row r="577" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG577" s="3"/>
+      <c r="AH577" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI577" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ577" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK577" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL577" s="4"/>
+      <c r="AM577" s="16"/>
+    </row>
+    <row r="578" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG578" s="3"/>
+      <c r="AH578" s="9"/>
+      <c r="AI578" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ578" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK578" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL578" s="4"/>
+      <c r="AM578" s="16"/>
+    </row>
+    <row r="579" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG579" s="3"/>
+      <c r="AH579" s="9"/>
+      <c r="AI579" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ579" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK579" s="11"/>
+      <c r="AL579" s="4"/>
+      <c r="AM579" s="16"/>
+    </row>
+    <row r="580" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG580" s="3"/>
+      <c r="AH580" s="9"/>
+      <c r="AI580" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ580" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK580" s="11"/>
+      <c r="AL580" s="4"/>
+      <c r="AM580" s="16"/>
+    </row>
+    <row r="581" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG581" s="3"/>
+      <c r="AH581" s="9"/>
+      <c r="AI581" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ581" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AK581" s="11"/>
+      <c r="AL581" s="4"/>
+      <c r="AM581" s="16"/>
+    </row>
+    <row r="582" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG582" s="3"/>
+      <c r="AH582" s="9"/>
+      <c r="AI582" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ582" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK582" s="11"/>
+      <c r="AL582" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM582" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="583" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG583" s="3"/>
+      <c r="AH583" s="9"/>
+      <c r="AI583" s="6"/>
+      <c r="AJ583" s="12"/>
+      <c r="AK583" s="11"/>
+      <c r="AL583" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM583" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="584" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG584" s="3"/>
+      <c r="AH584" s="9"/>
+      <c r="AI584" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ584" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK584" s="11"/>
+      <c r="AL584" s="4"/>
+      <c r="AM584" s="16"/>
+    </row>
+    <row r="585" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG585" s="3"/>
+      <c r="AH585" s="9"/>
+      <c r="AI585" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ585" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK585" s="11"/>
+      <c r="AL585" s="4"/>
+      <c r="AM585" s="16"/>
+    </row>
+    <row r="586" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG586" s="3"/>
+      <c r="AH586" s="9"/>
+      <c r="AI586" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ586" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK586" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL586" s="4"/>
+      <c r="AM586" s="16"/>
+    </row>
+    <row r="587" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG587" s="3"/>
+      <c r="AH587" s="9"/>
+      <c r="AI587" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ587" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK587" s="11"/>
+      <c r="AL587" s="4"/>
+      <c r="AM587" s="16"/>
+    </row>
+    <row r="588" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG588" s="3"/>
+      <c r="AH588" s="9"/>
+      <c r="AI588" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ588" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK588" s="11"/>
+      <c r="AL588" s="4"/>
+      <c r="AM588" s="16"/>
+    </row>
+    <row r="589" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG589" s="3"/>
+      <c r="AH589" s="9"/>
+      <c r="AI589" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ589" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK589" s="11"/>
+      <c r="AL589" s="4"/>
+      <c r="AM589" s="16"/>
+    </row>
+    <row r="590" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG590" s="3"/>
+      <c r="AH590" s="9"/>
+      <c r="AI590" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ590" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK590" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="4"/>
+      <c r="AM590" s="16"/>
+    </row>
+    <row r="591" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG591" s="3"/>
+      <c r="AH591" s="9"/>
+      <c r="AI591" s="6"/>
+      <c r="AJ591" s="12"/>
+      <c r="AK591" s="11"/>
+      <c r="AL591" s="4"/>
+      <c r="AM591" s="16"/>
+    </row>
+    <row r="592" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG592" s="3"/>
+      <c r="AH592" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI592" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ592" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK592" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL592" s="4"/>
+      <c r="AM592" s="16"/>
+    </row>
+    <row r="593" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG593" s="3"/>
+      <c r="AH593" s="9"/>
+      <c r="AI593" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ593" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK593" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL593" s="4"/>
+      <c r="AM593" s="16"/>
+    </row>
+    <row r="594" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG594" s="3"/>
+      <c r="AH594" s="9"/>
+      <c r="AI594" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ594" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK594" s="11"/>
+      <c r="AL594" s="4"/>
+      <c r="AM594" s="16"/>
+    </row>
+    <row r="595" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG595" s="3"/>
+      <c r="AH595" s="9"/>
+      <c r="AI595" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ595" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK595" s="11"/>
+      <c r="AL595" s="4"/>
+      <c r="AM595" s="16"/>
+    </row>
+    <row r="596" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG596" s="3"/>
+      <c r="AH596" s="9"/>
+      <c r="AI596" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ596" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AK596" s="11"/>
+      <c r="AL596" s="4"/>
+      <c r="AM596" s="16"/>
+    </row>
+    <row r="597" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG597" s="3"/>
+      <c r="AH597" s="9"/>
+      <c r="AI597" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ597" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK597" s="11"/>
+      <c r="AL597" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM597" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="598" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG598" s="3"/>
+      <c r="AH598" s="9"/>
+      <c r="AI598" s="6"/>
+      <c r="AJ598" s="12"/>
+      <c r="AK598" s="11"/>
+      <c r="AL598" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM598" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="599" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG599" s="3"/>
+      <c r="AH599" s="9"/>
+      <c r="AI599" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ599" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK599" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL599" s="4"/>
+      <c r="AM599" s="16"/>
+    </row>
+    <row r="600" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG600" s="3"/>
+      <c r="AH600" s="9"/>
+      <c r="AI600" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ600" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK600" s="11"/>
+      <c r="AL600" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM600" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="601" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG601" s="3"/>
+      <c r="AH601" s="9"/>
+      <c r="AI601" s="6"/>
+      <c r="AJ601" s="12"/>
+      <c r="AK601" s="11"/>
+      <c r="AL601" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM601" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="602" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG602" s="3"/>
+      <c r="AH602" s="9"/>
+      <c r="AI602" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ602" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK602" s="11"/>
+      <c r="AL602" s="4"/>
+      <c r="AM602" s="16"/>
+    </row>
+    <row r="603" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG603" s="3"/>
+      <c r="AH603" s="9"/>
+      <c r="AI603" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ603" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK603" s="11"/>
+      <c r="AL603" s="4"/>
+      <c r="AM603" s="16"/>
+    </row>
+    <row r="604" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG604" s="3"/>
+      <c r="AH604" s="9"/>
+      <c r="AI604" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ604" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK604" s="11"/>
+      <c r="AL604" s="4"/>
+      <c r="AM604" s="16"/>
+    </row>
+    <row r="605" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG605" s="3"/>
+      <c r="AH605" s="9"/>
+      <c r="AI605" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ605" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK605" s="11"/>
+      <c r="AL605" s="4"/>
+      <c r="AM605" s="16"/>
+    </row>
+    <row r="606" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG606" s="3"/>
+      <c r="AH606" s="9"/>
+      <c r="AI606" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ606" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK606" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL606" s="4"/>
+      <c r="AM606" s="16"/>
+    </row>
+    <row r="607" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG607" s="3"/>
+      <c r="AH607" s="9"/>
+      <c r="AI607" s="6"/>
+      <c r="AJ607" s="12"/>
+      <c r="AK607" s="11"/>
+      <c r="AL607" s="4"/>
+      <c r="AM607" s="16"/>
+    </row>
+    <row r="608" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG608" s="3"/>
+      <c r="AH608" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI608" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ608" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK608" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL608" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM608" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="609" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG609" s="3"/>
+      <c r="AH609" s="9"/>
+      <c r="AI609" s="6"/>
+      <c r="AJ609" s="12"/>
+      <c r="AK609" s="11"/>
+      <c r="AL609" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM609" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="610" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG610" s="3"/>
+      <c r="AH610" s="9"/>
+      <c r="AI610" s="6"/>
+      <c r="AJ610" s="12"/>
+      <c r="AK610" s="11"/>
+      <c r="AL610" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM610" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="611" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG611" s="3"/>
+      <c r="AH611" s="9"/>
+      <c r="AI611" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ611" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK611" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL611" s="4"/>
+      <c r="AM611" s="16"/>
+    </row>
+    <row r="612" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG612" s="3"/>
+      <c r="AH612" s="9"/>
+      <c r="AI612" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ612" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK612" s="11"/>
+      <c r="AL612" s="4"/>
+      <c r="AM612" s="16"/>
+    </row>
+    <row r="613" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG613" s="3"/>
+      <c r="AH613" s="9"/>
+      <c r="AI613" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ613" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK613" s="11"/>
+      <c r="AL613" s="4"/>
+      <c r="AM613" s="16"/>
+    </row>
+    <row r="614" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG614" s="3"/>
+      <c r="AH614" s="9"/>
+      <c r="AI614" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ614" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK614" s="11"/>
+      <c r="AL614" s="4"/>
+      <c r="AM614" s="16"/>
+    </row>
+    <row r="615" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG615" s="3"/>
+      <c r="AH615" s="9"/>
+      <c r="AI615" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ615" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK615" s="11"/>
+      <c r="AL615" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM615" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="616" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG616" s="3"/>
+      <c r="AH616" s="9"/>
+      <c r="AI616" s="6"/>
+      <c r="AJ616" s="12"/>
+      <c r="AK616" s="11"/>
+      <c r="AL616" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM616" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="617" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG617" s="3"/>
+      <c r="AH617" s="9"/>
+      <c r="AI617" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ617" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK617" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL617" s="4"/>
+      <c r="AM617" s="16"/>
+    </row>
+    <row r="618" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG618" s="3"/>
+      <c r="AH618" s="9"/>
+      <c r="AI618" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ618" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK618" s="11"/>
+      <c r="AL618" s="4"/>
+      <c r="AM618" s="16"/>
+    </row>
+    <row r="619" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG619" s="3"/>
+      <c r="AH619" s="9"/>
+      <c r="AI619" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ619" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK619" s="11"/>
+      <c r="AL619" s="4"/>
+      <c r="AM619" s="16"/>
+    </row>
+    <row r="620" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG620" s="3"/>
+      <c r="AH620" s="9"/>
+      <c r="AI620" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ620" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK620" s="11"/>
+      <c r="AL620" s="4"/>
+      <c r="AM620" s="16"/>
+    </row>
+    <row r="621" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG621" s="3"/>
+      <c r="AH621" s="9"/>
+      <c r="AI621" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ621" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK621" s="11"/>
+      <c r="AL621" s="4"/>
+      <c r="AM621" s="16"/>
+    </row>
+    <row r="622" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG622" s="3"/>
+      <c r="AH622" s="9"/>
+      <c r="AI622" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ622" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK622" s="11"/>
+      <c r="AL622" s="4"/>
+      <c r="AM622" s="16"/>
+    </row>
+    <row r="623" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG623" s="3"/>
+      <c r="AH623" s="9"/>
+      <c r="AI623" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ623" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK623" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL623" s="4"/>
+      <c r="AM623" s="16"/>
+    </row>
+    <row r="624" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG624" s="3"/>
+      <c r="AH624" s="9"/>
+      <c r="AI624" s="6"/>
+      <c r="AJ624" s="12"/>
+      <c r="AK624" s="11"/>
+      <c r="AL624" s="4"/>
+      <c r="AM624" s="16"/>
+    </row>
+    <row r="625" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG625" s="3"/>
+      <c r="AH625" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI625" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ625" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK625" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL625" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM625" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="626" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG626" s="3"/>
+      <c r="AH626" s="9"/>
+      <c r="AI626" s="6"/>
+      <c r="AJ626" s="12"/>
+      <c r="AK626" s="11"/>
+      <c r="AL626" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM626" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="627" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG627" s="3"/>
+      <c r="AH627" s="9"/>
+      <c r="AI627" s="6"/>
+      <c r="AJ627" s="12"/>
+      <c r="AK627" s="11"/>
+      <c r="AL627" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM627" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="628" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG628" s="3"/>
+      <c r="AH628" s="9"/>
+      <c r="AI628" s="6"/>
+      <c r="AJ628" s="12"/>
+      <c r="AK628" s="11"/>
+      <c r="AL628" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM628" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="629" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG629" s="3"/>
+      <c r="AH629" s="9"/>
+      <c r="AI629" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ629" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK629" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL629" s="4"/>
+      <c r="AM629" s="16"/>
+    </row>
+    <row r="630" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG630" s="3"/>
+      <c r="AH630" s="9"/>
+      <c r="AI630" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ630" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK630" s="11"/>
+      <c r="AL630" s="4"/>
+      <c r="AM630" s="16"/>
+    </row>
+    <row r="631" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG631" s="3"/>
+      <c r="AH631" s="9"/>
+      <c r="AI631" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ631" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK631" s="11"/>
+      <c r="AL631" s="4"/>
+      <c r="AM631" s="16"/>
+    </row>
+    <row r="632" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG632" s="3"/>
+      <c r="AH632" s="9"/>
+      <c r="AI632" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ632" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK632" s="11"/>
+      <c r="AL632" s="4"/>
+      <c r="AM632" s="16"/>
+    </row>
+    <row r="633" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG633" s="3"/>
+      <c r="AH633" s="9"/>
+      <c r="AI633" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ633" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK633" s="11"/>
+      <c r="AL633" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM633" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="634" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG634" s="3"/>
+      <c r="AH634" s="9"/>
+      <c r="AI634" s="6"/>
+      <c r="AJ634" s="12"/>
+      <c r="AK634" s="11"/>
+      <c r="AL634" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM634" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="635" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG635" s="3"/>
+      <c r="AH635" s="9"/>
+      <c r="AI635" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ635" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK635" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL635" s="4"/>
+      <c r="AM635" s="16"/>
+    </row>
+    <row r="636" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG636" s="3"/>
+      <c r="AH636" s="9"/>
+      <c r="AI636" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ636" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK636" s="11"/>
+      <c r="AL636" s="4"/>
+      <c r="AM636" s="16"/>
+    </row>
+    <row r="637" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG637" s="3"/>
+      <c r="AH637" s="9"/>
+      <c r="AI637" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ637" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK637" s="11"/>
+      <c r="AL637" s="4"/>
+      <c r="AM637" s="16"/>
+    </row>
+    <row r="638" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG638" s="3"/>
+      <c r="AH638" s="9"/>
+      <c r="AI638" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ638" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK638" s="11"/>
+      <c r="AL638" s="4"/>
+      <c r="AM638" s="16"/>
+    </row>
+    <row r="639" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG639" s="3"/>
+      <c r="AH639" s="9"/>
+      <c r="AI639" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ639" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK639" s="11"/>
+      <c r="AL639" s="4"/>
+      <c r="AM639" s="16"/>
+    </row>
+    <row r="640" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG640" s="3"/>
+      <c r="AH640" s="9"/>
+      <c r="AI640" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ640" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK640" s="11"/>
+      <c r="AL640" s="4"/>
+      <c r="AM640" s="16"/>
+    </row>
+    <row r="641" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG641" s="3"/>
+      <c r="AH641" s="9"/>
+      <c r="AI641" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ641" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK641" s="11"/>
+      <c r="AL641" s="4"/>
+      <c r="AM641" s="16"/>
+    </row>
+    <row r="642" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG642" s="3"/>
+      <c r="AH642" s="9"/>
+      <c r="AI642" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ642" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK642" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL642" s="4"/>
+      <c r="AM642" s="16"/>
+    </row>
+    <row r="643" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG643" s="3"/>
+      <c r="AH643" s="9"/>
+      <c r="AI643" s="6"/>
+      <c r="AJ643" s="12"/>
+      <c r="AK643" s="11"/>
+      <c r="AL643" s="4"/>
+      <c r="AM643" s="16"/>
+    </row>
+    <row r="644" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG644" s="3"/>
+      <c r="AH644" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI644" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ644" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK644" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL644" s="4"/>
+      <c r="AM644" s="16"/>
+    </row>
+    <row r="645" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG645" s="3"/>
+      <c r="AH645" s="9"/>
+      <c r="AI645" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ645" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK645" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL645" s="4"/>
+      <c r="AM645" s="16"/>
+    </row>
+    <row r="646" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG646" s="3"/>
+      <c r="AH646" s="9"/>
+      <c r="AI646" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ646" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK646" s="11"/>
+      <c r="AL646" s="4"/>
+      <c r="AM646" s="16"/>
+    </row>
+    <row r="647" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG647" s="3"/>
+      <c r="AH647" s="9"/>
+      <c r="AI647" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ647" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK647" s="11"/>
+      <c r="AL647" s="4"/>
+      <c r="AM647" s="16"/>
+    </row>
+    <row r="648" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG648" s="3"/>
+      <c r="AH648" s="9"/>
+      <c r="AI648" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ648" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK648" s="11"/>
+      <c r="AL648" s="4"/>
+      <c r="AM648" s="16"/>
+    </row>
+    <row r="649" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG649" s="3"/>
+      <c r="AH649" s="9"/>
+      <c r="AI649" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ649" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK649" s="11"/>
+      <c r="AL649" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM649" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="650" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG650" s="3"/>
+      <c r="AH650" s="9"/>
+      <c r="AI650" s="6"/>
+      <c r="AJ650" s="12"/>
+      <c r="AK650" s="11"/>
+      <c r="AL650" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM650" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="651" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG651" s="3"/>
+      <c r="AH651" s="9"/>
+      <c r="AI651" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ651" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK651" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL651" s="4"/>
+      <c r="AM651" s="16"/>
+    </row>
+    <row r="652" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG652" s="3"/>
+      <c r="AH652" s="9"/>
+      <c r="AI652" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ652" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK652" s="11"/>
+      <c r="AL652" s="4"/>
+      <c r="AM652" s="16"/>
+    </row>
+    <row r="653" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG653" s="3"/>
+      <c r="AH653" s="9"/>
+      <c r="AI653" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ653" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK653" s="11"/>
+      <c r="AL653" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM653" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="654" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG654" s="3"/>
+      <c r="AH654" s="9"/>
+      <c r="AI654" s="6"/>
+      <c r="AJ654" s="12"/>
+      <c r="AK654" s="11"/>
+      <c r="AL654" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM654" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="655" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG655" s="3"/>
+      <c r="AH655" s="9"/>
+      <c r="AI655" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ655" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK655" s="11"/>
+      <c r="AL655" s="4"/>
+      <c r="AM655" s="16"/>
+    </row>
+    <row r="656" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG656" s="3"/>
+      <c r="AH656" s="9"/>
+      <c r="AI656" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ656" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK656" s="11"/>
+      <c r="AL656" s="4"/>
+      <c r="AM656" s="16"/>
+    </row>
+    <row r="657" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG657" s="3"/>
+      <c r="AH657" s="9"/>
+      <c r="AI657" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ657" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK657" s="11"/>
+      <c r="AL657" s="4"/>
+      <c r="AM657" s="16"/>
+    </row>
+    <row r="658" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG658" s="3"/>
+      <c r="AH658" s="9"/>
+      <c r="AI658" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ658" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK658" s="11"/>
+      <c r="AL658" s="4"/>
+      <c r="AM658" s="16"/>
+    </row>
+    <row r="659" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG659" s="3"/>
+      <c r="AH659" s="9"/>
+      <c r="AI659" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ659" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK659" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="4"/>
+      <c r="AM659" s="16"/>
+    </row>
+    <row r="660" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG660" s="3"/>
+      <c r="AH660" s="9"/>
+      <c r="AI660" s="6"/>
+      <c r="AJ660" s="12"/>
+      <c r="AK660" s="11"/>
+      <c r="AL660" s="4"/>
+      <c r="AM660" s="16"/>
+    </row>
+    <row r="661" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG661" s="3"/>
+      <c r="AH661" s="9"/>
+      <c r="AI661" s="6"/>
+      <c r="AJ661" s="12"/>
+      <c r="AK661" s="11"/>
+      <c r="AL661" s="4"/>
+      <c r="AM661" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFB69E-6417-4D6C-AB1A-56AD4044458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB0E24-4CA3-4AE1-AAD2-240C30A87E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="8055" windowWidth="28800" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="1065" yWindow="2100" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1135,12 +1135,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:BC661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF623" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK660" sqref="AK660"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="20"/>
@@ -1157,6 +1158,7 @@
     <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" style="20"/>
+    <col min="50" max="50" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.7109375" style="20"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB0E24-4CA3-4AE1-AAD2-240C30A87E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC472E6D-0019-4FE0-92FF-1018D26E2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2100" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="795" yWindow="4605" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -819,6 +819,7 @@
     <xf numFmtId="12" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1136,7 +1137,7 @@
   <dimension ref="A1:BC661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,6 +7034,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="4"/>
       <c r="G79" s="16"/>
+      <c r="N79" s="21"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="6" t="s">

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC472E6D-0019-4FE0-92FF-1018D26E2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0988AB6-AF9E-4581-8184-915045832E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="4605" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:BC661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0988AB6-AF9E-4581-8184-915045832E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124D03F-6C30-45EB-9F5A-91CC41D0784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="4605" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="7110" yWindow="3300" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:BC661"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="AD17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE688C-7AC6-4F21-9366-5714D7422E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09862B7E-836A-4079-900B-A54F84167BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="3300" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="231">
   <si>
     <t>ClassNames</t>
   </si>
@@ -685,6 +685,51 @@
   <si>
     <t>3CLG-COUC</t>
   </si>
+  <si>
+    <t>2CA-COUC</t>
+  </si>
+  <si>
+    <t>2CB-COUC</t>
+  </si>
+  <si>
+    <t>2CC-COUC</t>
+  </si>
+  <si>
+    <t>2CD-COUC</t>
+  </si>
+  <si>
+    <t>2CE-COUC</t>
+  </si>
+  <si>
+    <t>2CF-COUC</t>
+  </si>
+  <si>
+    <t>2CG-COUC</t>
+  </si>
+  <si>
+    <t>2CLA-COUC</t>
+  </si>
+  <si>
+    <t>2CLB-COUC</t>
+  </si>
+  <si>
+    <t>choix 3 parmi FR, DE, EN, LAT</t>
+  </si>
+  <si>
+    <t>2CLC-COUC</t>
+  </si>
+  <si>
+    <t>2CLD-COUC</t>
+  </si>
+  <si>
+    <t>2CLE-COUC</t>
+  </si>
+  <si>
+    <t>2CLF-COUC</t>
+  </si>
+  <si>
+    <t>2CLG-COUC</t>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -841,6 +886,7 @@
     <xf numFmtId="12" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1155,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC789"/>
+  <dimension ref="A1:BC791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC744" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP773" sqref="AP773"/>
+    <sheetView tabSelected="1" topLeftCell="AI620" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP645" sqref="AP645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1223,8 @@
     <col min="35" max="35" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.7109375" style="20"/>
-    <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" style="20"/>
     <col min="50" max="50" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -21009,10 +21056,18 @@
       <c r="AL461" s="4"/>
       <c r="AM461" s="16"/>
       <c r="AO461" s="3"/>
-      <c r="AP461" s="9"/>
-      <c r="AQ461" s="6"/>
-      <c r="AR461" s="12"/>
-      <c r="AS461" s="11"/>
+      <c r="AP461" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ461" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR461" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS461" s="11">
+        <v>4</v>
+      </c>
       <c r="AT461" s="4"/>
       <c r="AU461" s="16"/>
     </row>
@@ -21032,8 +21087,12 @@
       <c r="AM462" s="16"/>
       <c r="AO462" s="3"/>
       <c r="AP462" s="9"/>
-      <c r="AQ462" s="6"/>
-      <c r="AR462" s="12"/>
+      <c r="AQ462" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR462" s="12">
+        <v>5</v>
+      </c>
       <c r="AS462" s="11"/>
       <c r="AT462" s="4"/>
       <c r="AU462" s="16"/>
@@ -21052,8 +21111,12 @@
       <c r="AM463" s="16"/>
       <c r="AO463" s="3"/>
       <c r="AP463" s="9"/>
-      <c r="AQ463" s="6"/>
-      <c r="AR463" s="12"/>
+      <c r="AQ463" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR463" s="12">
+        <v>5</v>
+      </c>
       <c r="AS463" s="11"/>
       <c r="AT463" s="4"/>
       <c r="AU463" s="16"/>
@@ -21072,9 +21135,15 @@
       <c r="AM464" s="16"/>
       <c r="AO464" s="3"/>
       <c r="AP464" s="9"/>
-      <c r="AQ464" s="6"/>
-      <c r="AR464" s="12"/>
-      <c r="AS464" s="11"/>
+      <c r="AQ464" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR464" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS464" s="11">
+        <v>3</v>
+      </c>
       <c r="AT464" s="4"/>
       <c r="AU464" s="16"/>
     </row>
@@ -21092,9 +21161,15 @@
       <c r="AM465" s="16"/>
       <c r="AO465" s="3"/>
       <c r="AP465" s="9"/>
-      <c r="AQ465" s="6"/>
-      <c r="AR465" s="12"/>
-      <c r="AS465" s="11"/>
+      <c r="AQ465" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR465" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS465" s="11">
+        <v>2</v>
+      </c>
       <c r="AT465" s="4"/>
       <c r="AU465" s="16"/>
     </row>
@@ -21112,8 +21187,12 @@
       <c r="AM466" s="16"/>
       <c r="AO466" s="3"/>
       <c r="AP466" s="9"/>
-      <c r="AQ466" s="6"/>
-      <c r="AR466" s="12"/>
+      <c r="AQ466" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR466" s="12">
+        <v>3</v>
+      </c>
       <c r="AS466" s="11"/>
       <c r="AT466" s="4"/>
       <c r="AU466" s="16"/>
@@ -21130,6 +21209,17 @@
       <c r="AK467" s="11"/>
       <c r="AL467" s="4"/>
       <c r="AM467" s="16"/>
+      <c r="AO467" s="3"/>
+      <c r="AP467" s="9"/>
+      <c r="AQ467" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR467" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS467" s="11"/>
+      <c r="AT467" s="4"/>
+      <c r="AU467" s="16"/>
     </row>
     <row r="468" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG468" s="3"/>
@@ -21143,6 +21233,17 @@
       <c r="AK468" s="11"/>
       <c r="AL468" s="4"/>
       <c r="AM468" s="16"/>
+      <c r="AO468" s="3"/>
+      <c r="AP468" s="9"/>
+      <c r="AQ468" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR468" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS468" s="11"/>
+      <c r="AT468" s="4"/>
+      <c r="AU468" s="16"/>
     </row>
     <row r="469" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG469" s="3"/>
@@ -21158,6 +21259,17 @@
       </c>
       <c r="AL469" s="4"/>
       <c r="AM469" s="16"/>
+      <c r="AO469" s="3"/>
+      <c r="AP469" s="9"/>
+      <c r="AQ469" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR469" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS469" s="11"/>
+      <c r="AT469" s="4"/>
+      <c r="AU469" s="16"/>
     </row>
     <row r="470" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG470" s="3"/>
@@ -21167,6 +21279,19 @@
       <c r="AK470" s="11"/>
       <c r="AL470" s="4"/>
       <c r="AM470" s="16"/>
+      <c r="AO470" s="3"/>
+      <c r="AP470" s="9"/>
+      <c r="AQ470" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR470" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS470" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT470" s="4"/>
+      <c r="AU470" s="16"/>
     </row>
     <row r="471" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG471" s="3"/>
@@ -21184,6 +21309,13 @@
       </c>
       <c r="AL471" s="4"/>
       <c r="AM471" s="16"/>
+      <c r="AO471" s="3"/>
+      <c r="AP471" s="9"/>
+      <c r="AQ471" s="6"/>
+      <c r="AR471" s="12"/>
+      <c r="AS471" s="11"/>
+      <c r="AT471" s="4"/>
+      <c r="AU471" s="16"/>
     </row>
     <row r="472" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG472" s="3"/>
@@ -21199,6 +21331,25 @@
       </c>
       <c r="AL472" s="4"/>
       <c r="AM472" s="16"/>
+      <c r="AO472" s="3"/>
+      <c r="AP472" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ472" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR472" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS472" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT472" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU472" s="16">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="473" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG473" s="3"/>
@@ -21212,6 +21363,17 @@
       <c r="AK473" s="11"/>
       <c r="AL473" s="4"/>
       <c r="AM473" s="16"/>
+      <c r="AO473" s="3"/>
+      <c r="AP473" s="9"/>
+      <c r="AQ473" s="6"/>
+      <c r="AR473" s="12"/>
+      <c r="AS473" s="11"/>
+      <c r="AT473" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU473" s="16">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="474" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG474" s="3"/>
@@ -21225,6 +21387,19 @@
       <c r="AK474" s="11"/>
       <c r="AL474" s="4"/>
       <c r="AM474" s="16"/>
+      <c r="AO474" s="3"/>
+      <c r="AP474" s="9"/>
+      <c r="AQ474" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR474" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS474" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT474" s="4"/>
+      <c r="AU474" s="16"/>
     </row>
     <row r="475" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG475" s="3"/>
@@ -21238,6 +21413,17 @@
       <c r="AK475" s="11"/>
       <c r="AL475" s="4"/>
       <c r="AM475" s="16"/>
+      <c r="AO475" s="3"/>
+      <c r="AP475" s="9"/>
+      <c r="AQ475" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR475" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS475" s="11"/>
+      <c r="AT475" s="4"/>
+      <c r="AU475" s="16"/>
     </row>
     <row r="476" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG476" s="3"/>
@@ -21251,6 +21437,17 @@
       <c r="AK476" s="11"/>
       <c r="AL476" s="4"/>
       <c r="AM476" s="16"/>
+      <c r="AO476" s="3"/>
+      <c r="AP476" s="9"/>
+      <c r="AQ476" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR476" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS476" s="11"/>
+      <c r="AT476" s="4"/>
+      <c r="AU476" s="16"/>
     </row>
     <row r="477" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG477" s="3"/>
@@ -21266,6 +21463,17 @@
       </c>
       <c r="AL477" s="4"/>
       <c r="AM477" s="16"/>
+      <c r="AO477" s="3"/>
+      <c r="AP477" s="9"/>
+      <c r="AQ477" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR477" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS477" s="11"/>
+      <c r="AT477" s="4"/>
+      <c r="AU477" s="16"/>
     </row>
     <row r="478" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG478" s="3"/>
@@ -21279,6 +21487,17 @@
       <c r="AK478" s="11"/>
       <c r="AL478" s="4"/>
       <c r="AM478" s="16"/>
+      <c r="AO478" s="3"/>
+      <c r="AP478" s="9"/>
+      <c r="AQ478" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR478" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS478" s="11"/>
+      <c r="AT478" s="4"/>
+      <c r="AU478" s="16"/>
     </row>
     <row r="479" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG479" s="3"/>
@@ -21292,6 +21511,17 @@
       <c r="AK479" s="11"/>
       <c r="AL479" s="4"/>
       <c r="AM479" s="16"/>
+      <c r="AO479" s="3"/>
+      <c r="AP479" s="9"/>
+      <c r="AQ479" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR479" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS479" s="11"/>
+      <c r="AT479" s="4"/>
+      <c r="AU479" s="16"/>
     </row>
     <row r="480" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG480" s="3"/>
@@ -21305,8 +21535,21 @@
       <c r="AK480" s="11"/>
       <c r="AL480" s="4"/>
       <c r="AM480" s="16"/>
-    </row>
-    <row r="481" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO480" s="3"/>
+      <c r="AP480" s="9"/>
+      <c r="AQ480" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR480" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS480" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT480" s="4"/>
+      <c r="AU480" s="16"/>
+    </row>
+    <row r="481" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG481" s="3"/>
       <c r="AH481" s="9"/>
       <c r="AI481" s="6" t="s">
@@ -21318,8 +21561,19 @@
       <c r="AK481" s="11"/>
       <c r="AL481" s="4"/>
       <c r="AM481" s="16"/>
-    </row>
-    <row r="482" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO481" s="3"/>
+      <c r="AP481" s="9"/>
+      <c r="AQ481" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR481" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS481" s="11"/>
+      <c r="AT481" s="4"/>
+      <c r="AU481" s="16"/>
+    </row>
+    <row r="482" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG482" s="3"/>
       <c r="AH482" s="9"/>
       <c r="AI482" s="6" t="s">
@@ -21331,8 +21585,19 @@
       <c r="AK482" s="11"/>
       <c r="AL482" s="4"/>
       <c r="AM482" s="16"/>
-    </row>
-    <row r="483" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO482" s="3"/>
+      <c r="AP482" s="9"/>
+      <c r="AQ482" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR482" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS482" s="11"/>
+      <c r="AT482" s="4"/>
+      <c r="AU482" s="16"/>
+    </row>
+    <row r="483" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG483" s="3"/>
       <c r="AH483" s="9"/>
       <c r="AI483" s="6" t="s">
@@ -21344,8 +21609,21 @@
       <c r="AK483" s="11"/>
       <c r="AL483" s="4"/>
       <c r="AM483" s="16"/>
-    </row>
-    <row r="484" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO483" s="3"/>
+      <c r="AP483" s="9"/>
+      <c r="AQ483" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR483" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS483" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT483" s="4"/>
+      <c r="AU483" s="16"/>
+    </row>
+    <row r="484" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG484" s="3"/>
       <c r="AH484" s="9"/>
       <c r="AI484" s="6" t="s">
@@ -21359,8 +21637,15 @@
       </c>
       <c r="AL484" s="4"/>
       <c r="AM484" s="16"/>
-    </row>
-    <row r="485" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO484" s="3"/>
+      <c r="AP484" s="9"/>
+      <c r="AQ484" s="6"/>
+      <c r="AR484" s="12"/>
+      <c r="AS484" s="11"/>
+      <c r="AT484" s="4"/>
+      <c r="AU484" s="16"/>
+    </row>
+    <row r="485" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG485" s="3"/>
       <c r="AH485" s="9"/>
       <c r="AI485" s="6"/>
@@ -21368,8 +21653,23 @@
       <c r="AK485" s="11"/>
       <c r="AL485" s="4"/>
       <c r="AM485" s="16"/>
-    </row>
-    <row r="486" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO485" s="3"/>
+      <c r="AP485" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ485" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR485" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS485" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT485" s="4"/>
+      <c r="AU485" s="16"/>
+    </row>
+    <row r="486" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG486" s="3"/>
       <c r="AH486" s="9" t="s">
         <v>183</v>
@@ -21385,8 +21685,21 @@
       </c>
       <c r="AL486" s="4"/>
       <c r="AM486" s="16"/>
-    </row>
-    <row r="487" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO486" s="3"/>
+      <c r="AP486" s="9"/>
+      <c r="AQ486" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR486" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS486" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT486" s="4"/>
+      <c r="AU486" s="16"/>
+    </row>
+    <row r="487" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG487" s="3"/>
       <c r="AH487" s="9"/>
       <c r="AI487" s="6" t="s">
@@ -21398,8 +21711,19 @@
       <c r="AK487" s="11"/>
       <c r="AL487" s="4"/>
       <c r="AM487" s="16"/>
-    </row>
-    <row r="488" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO487" s="3"/>
+      <c r="AP487" s="9"/>
+      <c r="AQ487" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR487" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS487" s="11"/>
+      <c r="AT487" s="4"/>
+      <c r="AU487" s="16"/>
+    </row>
+    <row r="488" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG488" s="3"/>
       <c r="AH488" s="9"/>
       <c r="AI488" s="6" t="s">
@@ -21413,8 +21737,19 @@
       </c>
       <c r="AL488" s="4"/>
       <c r="AM488" s="16"/>
-    </row>
-    <row r="489" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO488" s="3"/>
+      <c r="AP488" s="9"/>
+      <c r="AQ488" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR488" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS488" s="11"/>
+      <c r="AT488" s="4"/>
+      <c r="AU488" s="16"/>
+    </row>
+    <row r="489" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG489" s="3"/>
       <c r="AH489" s="9"/>
       <c r="AI489" s="6" t="s">
@@ -21426,8 +21761,19 @@
       <c r="AK489" s="11"/>
       <c r="AL489" s="4"/>
       <c r="AM489" s="16"/>
-    </row>
-    <row r="490" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO489" s="3"/>
+      <c r="AP489" s="9"/>
+      <c r="AQ489" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR489" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS489" s="11"/>
+      <c r="AT489" s="4"/>
+      <c r="AU489" s="16"/>
+    </row>
+    <row r="490" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG490" s="3"/>
       <c r="AH490" s="9"/>
       <c r="AI490" s="6" t="s">
@@ -21441,8 +21787,19 @@
       </c>
       <c r="AL490" s="4"/>
       <c r="AM490" s="16"/>
-    </row>
-    <row r="491" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO490" s="3"/>
+      <c r="AP490" s="9"/>
+      <c r="AQ490" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR490" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS490" s="11"/>
+      <c r="AT490" s="4"/>
+      <c r="AU490" s="16"/>
+    </row>
+    <row r="491" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG491" s="3"/>
       <c r="AH491" s="9"/>
       <c r="AI491" s="6" t="s">
@@ -21454,8 +21811,19 @@
       <c r="AK491" s="11"/>
       <c r="AL491" s="4"/>
       <c r="AM491" s="16"/>
-    </row>
-    <row r="492" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO491" s="3"/>
+      <c r="AP491" s="9"/>
+      <c r="AQ491" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR491" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS491" s="11"/>
+      <c r="AT491" s="4"/>
+      <c r="AU491" s="16"/>
+    </row>
+    <row r="492" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG492" s="3"/>
       <c r="AH492" s="9"/>
       <c r="AI492" s="6" t="s">
@@ -21467,8 +21835,21 @@
       <c r="AK492" s="11"/>
       <c r="AL492" s="4"/>
       <c r="AM492" s="16"/>
-    </row>
-    <row r="493" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO492" s="3"/>
+      <c r="AP492" s="9"/>
+      <c r="AQ492" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR492" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS492" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT492" s="4"/>
+      <c r="AU492" s="16"/>
+    </row>
+    <row r="493" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG493" s="3"/>
       <c r="AH493" s="9"/>
       <c r="AI493" s="6" t="s">
@@ -21480,8 +21861,19 @@
       <c r="AK493" s="11"/>
       <c r="AL493" s="4"/>
       <c r="AM493" s="16"/>
-    </row>
-    <row r="494" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO493" s="3"/>
+      <c r="AP493" s="9"/>
+      <c r="AQ493" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR493" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS493" s="11"/>
+      <c r="AT493" s="4"/>
+      <c r="AU493" s="16"/>
+    </row>
+    <row r="494" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG494" s="3"/>
       <c r="AH494" s="9"/>
       <c r="AI494" s="6" t="s">
@@ -21493,8 +21885,19 @@
       <c r="AK494" s="11"/>
       <c r="AL494" s="4"/>
       <c r="AM494" s="16"/>
-    </row>
-    <row r="495" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO494" s="3"/>
+      <c r="AP494" s="9"/>
+      <c r="AQ494" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR494" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS494" s="11"/>
+      <c r="AT494" s="4"/>
+      <c r="AU494" s="16"/>
+    </row>
+    <row r="495" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG495" s="3"/>
       <c r="AH495" s="9"/>
       <c r="AI495" s="6" t="s">
@@ -21506,8 +21909,21 @@
       <c r="AK495" s="11"/>
       <c r="AL495" s="4"/>
       <c r="AM495" s="16"/>
-    </row>
-    <row r="496" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO495" s="3"/>
+      <c r="AP495" s="9"/>
+      <c r="AQ495" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR495" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS495" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT495" s="4"/>
+      <c r="AU495" s="16"/>
+    </row>
+    <row r="496" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG496" s="3"/>
       <c r="AH496" s="9"/>
       <c r="AI496" s="6" t="s">
@@ -21519,8 +21935,15 @@
       <c r="AK496" s="11"/>
       <c r="AL496" s="4"/>
       <c r="AM496" s="16"/>
-    </row>
-    <row r="497" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO496" s="3"/>
+      <c r="AP496" s="9"/>
+      <c r="AQ496" s="6"/>
+      <c r="AR496" s="12"/>
+      <c r="AS496" s="11"/>
+      <c r="AT496" s="4"/>
+      <c r="AU496" s="16"/>
+    </row>
+    <row r="497" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG497" s="3"/>
       <c r="AH497" s="9"/>
       <c r="AI497" s="6" t="s">
@@ -21532,8 +21955,23 @@
       <c r="AK497" s="11"/>
       <c r="AL497" s="4"/>
       <c r="AM497" s="16"/>
-    </row>
-    <row r="498" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO497" s="3"/>
+      <c r="AP497" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ497" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR497" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS497" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT497" s="4"/>
+      <c r="AU497" s="16"/>
+    </row>
+    <row r="498" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG498" s="3"/>
       <c r="AH498" s="9"/>
       <c r="AI498" s="6" t="s">
@@ -21547,8 +21985,21 @@
       </c>
       <c r="AL498" s="4"/>
       <c r="AM498" s="16"/>
-    </row>
-    <row r="499" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO498" s="3"/>
+      <c r="AP498" s="9"/>
+      <c r="AQ498" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR498" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS498" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT498" s="4"/>
+      <c r="AU498" s="16"/>
+    </row>
+    <row r="499" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG499" s="3"/>
       <c r="AH499" s="9"/>
       <c r="AI499" s="6" t="s">
@@ -21560,8 +22011,19 @@
       <c r="AK499" s="11"/>
       <c r="AL499" s="4"/>
       <c r="AM499" s="16"/>
-    </row>
-    <row r="500" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO499" s="3"/>
+      <c r="AP499" s="9"/>
+      <c r="AQ499" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR499" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS499" s="11"/>
+      <c r="AT499" s="4"/>
+      <c r="AU499" s="16"/>
+    </row>
+    <row r="500" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG500" s="3"/>
       <c r="AH500" s="9"/>
       <c r="AI500" s="6"/>
@@ -21569,8 +22031,19 @@
       <c r="AK500" s="11"/>
       <c r="AL500" s="4"/>
       <c r="AM500" s="16"/>
-    </row>
-    <row r="501" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO500" s="3"/>
+      <c r="AP500" s="9"/>
+      <c r="AQ500" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR500" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS500" s="11"/>
+      <c r="AT500" s="4"/>
+      <c r="AU500" s="16"/>
+    </row>
+    <row r="501" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG501" s="3"/>
       <c r="AH501" s="9" t="s">
         <v>184</v>
@@ -21586,8 +22059,19 @@
       </c>
       <c r="AL501" s="4"/>
       <c r="AM501" s="16"/>
-    </row>
-    <row r="502" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO501" s="3"/>
+      <c r="AP501" s="9"/>
+      <c r="AQ501" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR501" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS501" s="11"/>
+      <c r="AT501" s="4"/>
+      <c r="AU501" s="16"/>
+    </row>
+    <row r="502" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG502" s="3"/>
       <c r="AH502" s="9"/>
       <c r="AI502" s="6" t="s">
@@ -21599,8 +22083,19 @@
       <c r="AK502" s="11"/>
       <c r="AL502" s="4"/>
       <c r="AM502" s="16"/>
-    </row>
-    <row r="503" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO502" s="3"/>
+      <c r="AP502" s="9"/>
+      <c r="AQ502" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR502" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS502" s="11"/>
+      <c r="AT502" s="4"/>
+      <c r="AU502" s="16"/>
+    </row>
+    <row r="503" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG503" s="3"/>
       <c r="AH503" s="9"/>
       <c r="AI503" s="6" t="s">
@@ -21614,8 +22109,21 @@
       </c>
       <c r="AL503" s="4"/>
       <c r="AM503" s="16"/>
-    </row>
-    <row r="504" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO503" s="3"/>
+      <c r="AP503" s="9"/>
+      <c r="AQ503" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR503" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS503" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT503" s="4"/>
+      <c r="AU503" s="16"/>
+    </row>
+    <row r="504" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG504" s="3"/>
       <c r="AH504" s="9"/>
       <c r="AI504" s="6" t="s">
@@ -21627,8 +22135,19 @@
       <c r="AK504" s="11"/>
       <c r="AL504" s="4"/>
       <c r="AM504" s="16"/>
-    </row>
-    <row r="505" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO504" s="3"/>
+      <c r="AP504" s="9"/>
+      <c r="AQ504" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR504" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS504" s="11"/>
+      <c r="AT504" s="4"/>
+      <c r="AU504" s="16"/>
+    </row>
+    <row r="505" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG505" s="3"/>
       <c r="AH505" s="9"/>
       <c r="AI505" s="6" t="s">
@@ -21640,8 +22159,19 @@
       <c r="AK505" s="11"/>
       <c r="AL505" s="4"/>
       <c r="AM505" s="16"/>
-    </row>
-    <row r="506" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO505" s="3"/>
+      <c r="AP505" s="9"/>
+      <c r="AQ505" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR505" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS505" s="11"/>
+      <c r="AT505" s="4"/>
+      <c r="AU505" s="16"/>
+    </row>
+    <row r="506" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG506" s="3"/>
       <c r="AH506" s="9"/>
       <c r="AI506" s="6" t="s">
@@ -21655,8 +22185,19 @@
       </c>
       <c r="AL506" s="4"/>
       <c r="AM506" s="16"/>
-    </row>
-    <row r="507" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO506" s="3"/>
+      <c r="AP506" s="9"/>
+      <c r="AQ506" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR506" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS506" s="11"/>
+      <c r="AT506" s="4"/>
+      <c r="AU506" s="16"/>
+    </row>
+    <row r="507" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG507" s="3"/>
       <c r="AH507" s="9"/>
       <c r="AI507" s="6" t="s">
@@ -21668,8 +22209,19 @@
       <c r="AK507" s="11"/>
       <c r="AL507" s="4"/>
       <c r="AM507" s="16"/>
-    </row>
-    <row r="508" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO507" s="3"/>
+      <c r="AP507" s="9"/>
+      <c r="AQ507" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR507" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS507" s="11"/>
+      <c r="AT507" s="4"/>
+      <c r="AU507" s="16"/>
+    </row>
+    <row r="508" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG508" s="3"/>
       <c r="AH508" s="9"/>
       <c r="AI508" s="6" t="s">
@@ -21681,8 +22233,21 @@
       <c r="AK508" s="11"/>
       <c r="AL508" s="4"/>
       <c r="AM508" s="16"/>
-    </row>
-    <row r="509" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO508" s="3"/>
+      <c r="AP508" s="9"/>
+      <c r="AQ508" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR508" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS508" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT508" s="4"/>
+      <c r="AU508" s="16"/>
+    </row>
+    <row r="509" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG509" s="3"/>
       <c r="AH509" s="9"/>
       <c r="AI509" s="6" t="s">
@@ -21694,8 +22259,15 @@
       <c r="AK509" s="11"/>
       <c r="AL509" s="4"/>
       <c r="AM509" s="16"/>
-    </row>
-    <row r="510" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO509" s="3"/>
+      <c r="AP509" s="9"/>
+      <c r="AQ509" s="6"/>
+      <c r="AR509" s="12"/>
+      <c r="AS509" s="11"/>
+      <c r="AT509" s="4"/>
+      <c r="AU509" s="16"/>
+    </row>
+    <row r="510" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG510" s="3"/>
       <c r="AH510" s="9"/>
       <c r="AI510" s="6" t="s">
@@ -21707,8 +22279,27 @@
       <c r="AK510" s="11"/>
       <c r="AL510" s="4"/>
       <c r="AM510" s="16"/>
-    </row>
-    <row r="511" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO510" s="3"/>
+      <c r="AP510" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ510" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR510" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS510" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT510" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU510" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="511" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG511" s="3"/>
       <c r="AH511" s="9"/>
       <c r="AI511" s="6" t="s">
@@ -21720,8 +22311,19 @@
       <c r="AK511" s="11"/>
       <c r="AL511" s="4"/>
       <c r="AM511" s="16"/>
-    </row>
-    <row r="512" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO511" s="3"/>
+      <c r="AP511" s="9"/>
+      <c r="AQ511" s="6"/>
+      <c r="AR511" s="12"/>
+      <c r="AS511" s="11"/>
+      <c r="AT511" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU511" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="512" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG512" s="3"/>
       <c r="AH512" s="9"/>
       <c r="AI512" s="6" t="s">
@@ -21733,8 +22335,25 @@
       <c r="AK512" s="11"/>
       <c r="AL512" s="4"/>
       <c r="AM512" s="16"/>
-    </row>
-    <row r="513" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO512" s="3"/>
+      <c r="AP512" s="9"/>
+      <c r="AQ512" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR512" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS512" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT512" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU512" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="513" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG513" s="3"/>
       <c r="AH513" s="9"/>
       <c r="AI513" s="6" t="s">
@@ -21748,8 +22367,19 @@
       </c>
       <c r="AL513" s="4"/>
       <c r="AM513" s="16"/>
-    </row>
-    <row r="514" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO513" s="3"/>
+      <c r="AP513" s="9"/>
+      <c r="AQ513" s="6"/>
+      <c r="AR513" s="12"/>
+      <c r="AS513" s="11"/>
+      <c r="AT513" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU513" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="514" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG514" s="3"/>
       <c r="AH514" s="9"/>
       <c r="AI514" s="6" t="s">
@@ -21761,8 +22391,19 @@
       <c r="AK514" s="11"/>
       <c r="AL514" s="4"/>
       <c r="AM514" s="16"/>
-    </row>
-    <row r="515" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO514" s="3"/>
+      <c r="AP514" s="9"/>
+      <c r="AQ514" s="6"/>
+      <c r="AR514" s="12"/>
+      <c r="AS514" s="11"/>
+      <c r="AT514" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU514" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="515" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG515" s="3"/>
       <c r="AH515" s="9"/>
       <c r="AI515" s="6"/>
@@ -21770,8 +22411,19 @@
       <c r="AK515" s="11"/>
       <c r="AL515" s="4"/>
       <c r="AM515" s="16"/>
-    </row>
-    <row r="516" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO515" s="3"/>
+      <c r="AP515" s="9"/>
+      <c r="AQ515" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR515" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS515" s="11"/>
+      <c r="AT515" s="4"/>
+      <c r="AU515" s="16"/>
+    </row>
+    <row r="516" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG516" s="3"/>
       <c r="AH516" s="9" t="s">
         <v>187</v>
@@ -21787,8 +22439,19 @@
       </c>
       <c r="AL516" s="4"/>
       <c r="AM516" s="16"/>
-    </row>
-    <row r="517" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO516" s="3"/>
+      <c r="AP516" s="9"/>
+      <c r="AQ516" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR516" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AS516" s="11"/>
+      <c r="AT516" s="4"/>
+      <c r="AU516" s="16"/>
+    </row>
+    <row r="517" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG517" s="3"/>
       <c r="AH517" s="9"/>
       <c r="AI517" s="6" t="s">
@@ -21800,8 +22463,19 @@
       <c r="AK517" s="11"/>
       <c r="AL517" s="4"/>
       <c r="AM517" s="16"/>
-    </row>
-    <row r="518" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO517" s="3"/>
+      <c r="AP517" s="9"/>
+      <c r="AQ517" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR517" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS517" s="11"/>
+      <c r="AT517" s="4"/>
+      <c r="AU517" s="16"/>
+    </row>
+    <row r="518" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG518" s="3"/>
       <c r="AH518" s="9"/>
       <c r="AI518" s="6" t="s">
@@ -21815,8 +22489,21 @@
       </c>
       <c r="AL518" s="4"/>
       <c r="AM518" s="16"/>
-    </row>
-    <row r="519" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO518" s="3"/>
+      <c r="AP518" s="9"/>
+      <c r="AQ518" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR518" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS518" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT518" s="4"/>
+      <c r="AU518" s="16"/>
+    </row>
+    <row r="519" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG519" s="3"/>
       <c r="AH519" s="9"/>
       <c r="AI519" s="6" t="s">
@@ -21828,8 +22515,19 @@
       <c r="AK519" s="11"/>
       <c r="AL519" s="4"/>
       <c r="AM519" s="16"/>
-    </row>
-    <row r="520" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO519" s="3"/>
+      <c r="AP519" s="9"/>
+      <c r="AQ519" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR519" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS519" s="11"/>
+      <c r="AT519" s="4"/>
+      <c r="AU519" s="16"/>
+    </row>
+    <row r="520" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG520" s="3"/>
       <c r="AH520" s="9"/>
       <c r="AI520" s="6" t="s">
@@ -21843,8 +22541,19 @@
       </c>
       <c r="AL520" s="4"/>
       <c r="AM520" s="16"/>
-    </row>
-    <row r="521" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO520" s="3"/>
+      <c r="AP520" s="9"/>
+      <c r="AQ520" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR520" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS520" s="11"/>
+      <c r="AT520" s="4"/>
+      <c r="AU520" s="16"/>
+    </row>
+    <row r="521" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG521" s="3"/>
       <c r="AH521" s="9"/>
       <c r="AI521" s="6" t="s">
@@ -21856,8 +22565,19 @@
       <c r="AK521" s="11"/>
       <c r="AL521" s="4"/>
       <c r="AM521" s="16"/>
-    </row>
-    <row r="522" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO521" s="3"/>
+      <c r="AP521" s="9"/>
+      <c r="AQ521" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR521" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS521" s="11"/>
+      <c r="AT521" s="4"/>
+      <c r="AU521" s="16"/>
+    </row>
+    <row r="522" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG522" s="3"/>
       <c r="AH522" s="9"/>
       <c r="AI522" s="6" t="s">
@@ -21869,8 +22589,19 @@
       <c r="AK522" s="11"/>
       <c r="AL522" s="4"/>
       <c r="AM522" s="16"/>
-    </row>
-    <row r="523" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO522" s="3"/>
+      <c r="AP522" s="9"/>
+      <c r="AQ522" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR522" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS522" s="11"/>
+      <c r="AT522" s="4"/>
+      <c r="AU522" s="16"/>
+    </row>
+    <row r="523" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG523" s="3"/>
       <c r="AH523" s="9"/>
       <c r="AI523" s="6" t="s">
@@ -21882,8 +22613,19 @@
       <c r="AK523" s="11"/>
       <c r="AL523" s="4"/>
       <c r="AM523" s="16"/>
-    </row>
-    <row r="524" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO523" s="3"/>
+      <c r="AP523" s="9"/>
+      <c r="AQ523" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR523" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS523" s="11"/>
+      <c r="AT523" s="4"/>
+      <c r="AU523" s="16"/>
+    </row>
+    <row r="524" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG524" s="3"/>
       <c r="AH524" s="9"/>
       <c r="AI524" s="6" t="s">
@@ -21895,8 +22637,19 @@
       <c r="AK524" s="11"/>
       <c r="AL524" s="4"/>
       <c r="AM524" s="16"/>
-    </row>
-    <row r="525" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO524" s="3"/>
+      <c r="AP524" s="9"/>
+      <c r="AQ524" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR524" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS524" s="11"/>
+      <c r="AT524" s="4"/>
+      <c r="AU524" s="16"/>
+    </row>
+    <row r="525" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG525" s="3"/>
       <c r="AH525" s="9"/>
       <c r="AI525" s="6" t="s">
@@ -21908,8 +22661,21 @@
       <c r="AK525" s="11"/>
       <c r="AL525" s="4"/>
       <c r="AM525" s="16"/>
-    </row>
-    <row r="526" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO525" s="3"/>
+      <c r="AP525" s="9"/>
+      <c r="AQ525" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR525" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS525" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT525" s="4"/>
+      <c r="AU525" s="16"/>
+    </row>
+    <row r="526" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG526" s="3"/>
       <c r="AH526" s="9"/>
       <c r="AI526" s="6" t="s">
@@ -21921,8 +22687,15 @@
       <c r="AK526" s="11"/>
       <c r="AL526" s="4"/>
       <c r="AM526" s="16"/>
-    </row>
-    <row r="527" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO526" s="3"/>
+      <c r="AP526" s="9"/>
+      <c r="AQ526" s="6"/>
+      <c r="AR526" s="12"/>
+      <c r="AS526" s="11"/>
+      <c r="AT526" s="4"/>
+      <c r="AU526" s="16"/>
+    </row>
+    <row r="527" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG527" s="3"/>
       <c r="AH527" s="9"/>
       <c r="AI527" s="6" t="s">
@@ -21934,8 +22707,27 @@
       <c r="AK527" s="11"/>
       <c r="AL527" s="4"/>
       <c r="AM527" s="16"/>
-    </row>
-    <row r="528" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO527" s="3"/>
+      <c r="AP527" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ527" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR527" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS527" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT527" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU527" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="528" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG528" s="3"/>
       <c r="AH528" s="9"/>
       <c r="AI528" s="6" t="s">
@@ -21949,8 +22741,19 @@
       </c>
       <c r="AL528" s="4"/>
       <c r="AM528" s="16"/>
-    </row>
-    <row r="529" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO528" s="3"/>
+      <c r="AP528" s="9"/>
+      <c r="AQ528" s="6"/>
+      <c r="AR528" s="12"/>
+      <c r="AS528" s="11"/>
+      <c r="AT528" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU528" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="529" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG529" s="3"/>
       <c r="AH529" s="9"/>
       <c r="AI529" s="6" t="s">
@@ -21962,8 +22765,25 @@
       <c r="AK529" s="11"/>
       <c r="AL529" s="4"/>
       <c r="AM529" s="16"/>
-    </row>
-    <row r="530" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO529" s="3"/>
+      <c r="AP529" s="9"/>
+      <c r="AQ529" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR529" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS529" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT529" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU529" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="530" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG530" s="3"/>
       <c r="AH530" s="9"/>
       <c r="AI530" s="6"/>
@@ -21971,8 +22791,19 @@
       <c r="AK530" s="11"/>
       <c r="AL530" s="4"/>
       <c r="AM530" s="16"/>
-    </row>
-    <row r="531" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO530" s="3"/>
+      <c r="AP530" s="9"/>
+      <c r="AQ530" s="6"/>
+      <c r="AR530" s="12"/>
+      <c r="AS530" s="11"/>
+      <c r="AT530" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU530" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="531" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG531" s="3"/>
       <c r="AH531" s="9" t="s">
         <v>188</v>
@@ -21988,8 +22819,19 @@
       </c>
       <c r="AL531" s="4"/>
       <c r="AM531" s="16"/>
-    </row>
-    <row r="532" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO531" s="3"/>
+      <c r="AP531" s="9"/>
+      <c r="AQ531" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR531" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS531" s="11"/>
+      <c r="AT531" s="4"/>
+      <c r="AU531" s="16"/>
+    </row>
+    <row r="532" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG532" s="3"/>
       <c r="AH532" s="9"/>
       <c r="AI532" s="6" t="s">
@@ -22001,8 +22843,19 @@
       <c r="AK532" s="11"/>
       <c r="AL532" s="4"/>
       <c r="AM532" s="16"/>
-    </row>
-    <row r="533" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO532" s="3"/>
+      <c r="AP532" s="9"/>
+      <c r="AQ532" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR532" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS532" s="11"/>
+      <c r="AT532" s="4"/>
+      <c r="AU532" s="16"/>
+    </row>
+    <row r="533" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG533" s="3"/>
       <c r="AH533" s="9"/>
       <c r="AI533" s="6" t="s">
@@ -22016,8 +22869,19 @@
       </c>
       <c r="AL533" s="4"/>
       <c r="AM533" s="16"/>
-    </row>
-    <row r="534" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO533" s="3"/>
+      <c r="AP533" s="9"/>
+      <c r="AQ533" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR533" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS533" s="11"/>
+      <c r="AT533" s="4"/>
+      <c r="AU533" s="16"/>
+    </row>
+    <row r="534" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG534" s="3"/>
       <c r="AH534" s="9"/>
       <c r="AI534" s="6" t="s">
@@ -22029,8 +22893,21 @@
       <c r="AK534" s="11"/>
       <c r="AL534" s="4"/>
       <c r="AM534" s="16"/>
-    </row>
-    <row r="535" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO534" s="3"/>
+      <c r="AP534" s="9"/>
+      <c r="AQ534" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR534" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS534" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT534" s="4"/>
+      <c r="AU534" s="16"/>
+    </row>
+    <row r="535" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG535" s="3"/>
       <c r="AH535" s="9"/>
       <c r="AI535" s="6" t="s">
@@ -22042,8 +22919,19 @@
       <c r="AK535" s="11"/>
       <c r="AL535" s="4"/>
       <c r="AM535" s="16"/>
-    </row>
-    <row r="536" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO535" s="3"/>
+      <c r="AP535" s="9"/>
+      <c r="AQ535" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR535" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS535" s="11"/>
+      <c r="AT535" s="4"/>
+      <c r="AU535" s="16"/>
+    </row>
+    <row r="536" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG536" s="3"/>
       <c r="AH536" s="9"/>
       <c r="AI536" s="6" t="s">
@@ -22057,8 +22945,19 @@
       </c>
       <c r="AL536" s="4"/>
       <c r="AM536" s="16"/>
-    </row>
-    <row r="537" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO536" s="3"/>
+      <c r="AP536" s="9"/>
+      <c r="AQ536" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR536" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS536" s="11"/>
+      <c r="AT536" s="4"/>
+      <c r="AU536" s="16"/>
+    </row>
+    <row r="537" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG537" s="3"/>
       <c r="AH537" s="9"/>
       <c r="AI537" s="6" t="s">
@@ -22070,8 +22969,19 @@
       <c r="AK537" s="11"/>
       <c r="AL537" s="4"/>
       <c r="AM537" s="16"/>
-    </row>
-    <row r="538" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO537" s="3"/>
+      <c r="AP537" s="9"/>
+      <c r="AQ537" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR537" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS537" s="11"/>
+      <c r="AT537" s="4"/>
+      <c r="AU537" s="16"/>
+    </row>
+    <row r="538" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG538" s="3"/>
       <c r="AH538" s="9"/>
       <c r="AI538" s="6" t="s">
@@ -22083,8 +22993,19 @@
       <c r="AK538" s="11"/>
       <c r="AL538" s="4"/>
       <c r="AM538" s="16"/>
-    </row>
-    <row r="539" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO538" s="3"/>
+      <c r="AP538" s="9"/>
+      <c r="AQ538" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR538" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS538" s="11"/>
+      <c r="AT538" s="4"/>
+      <c r="AU538" s="16"/>
+    </row>
+    <row r="539" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG539" s="3"/>
       <c r="AH539" s="9"/>
       <c r="AI539" s="6" t="s">
@@ -22096,8 +23017,19 @@
       <c r="AK539" s="11"/>
       <c r="AL539" s="4"/>
       <c r="AM539" s="16"/>
-    </row>
-    <row r="540" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO539" s="3"/>
+      <c r="AP539" s="9"/>
+      <c r="AQ539" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR539" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS539" s="11"/>
+      <c r="AT539" s="4"/>
+      <c r="AU539" s="16"/>
+    </row>
+    <row r="540" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG540" s="3"/>
       <c r="AH540" s="9"/>
       <c r="AI540" s="6" t="s">
@@ -22109,8 +23041,19 @@
       <c r="AK540" s="11"/>
       <c r="AL540" s="4"/>
       <c r="AM540" s="16"/>
-    </row>
-    <row r="541" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO540" s="3"/>
+      <c r="AP540" s="9"/>
+      <c r="AQ540" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR540" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS540" s="11"/>
+      <c r="AT540" s="4"/>
+      <c r="AU540" s="16"/>
+    </row>
+    <row r="541" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG541" s="3"/>
       <c r="AH541" s="9"/>
       <c r="AI541" s="6" t="s">
@@ -22122,8 +23065,21 @@
       <c r="AK541" s="11"/>
       <c r="AL541" s="4"/>
       <c r="AM541" s="16"/>
-    </row>
-    <row r="542" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO541" s="3"/>
+      <c r="AP541" s="9"/>
+      <c r="AQ541" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR541" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS541" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT541" s="4"/>
+      <c r="AU541" s="16"/>
+    </row>
+    <row r="542" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG542" s="3"/>
       <c r="AH542" s="9"/>
       <c r="AI542" s="6" t="s">
@@ -22135,8 +23091,15 @@
       <c r="AK542" s="11"/>
       <c r="AL542" s="4"/>
       <c r="AM542" s="16"/>
-    </row>
-    <row r="543" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO542" s="3"/>
+      <c r="AP542" s="9"/>
+      <c r="AQ542" s="6"/>
+      <c r="AR542" s="12"/>
+      <c r="AS542" s="11"/>
+      <c r="AT542" s="4"/>
+      <c r="AU542" s="16"/>
+    </row>
+    <row r="543" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG543" s="3"/>
       <c r="AH543" s="9"/>
       <c r="AI543" s="6" t="s">
@@ -22150,8 +23113,23 @@
       </c>
       <c r="AL543" s="4"/>
       <c r="AM543" s="16"/>
-    </row>
-    <row r="544" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO543" s="3"/>
+      <c r="AP543" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ543" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR543" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS543" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT543" s="4"/>
+      <c r="AU543" s="16"/>
+    </row>
+    <row r="544" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG544" s="3"/>
       <c r="AH544" s="9"/>
       <c r="AI544" s="6" t="s">
@@ -22163,8 +23141,21 @@
       <c r="AK544" s="11"/>
       <c r="AL544" s="4"/>
       <c r="AM544" s="16"/>
-    </row>
-    <row r="545" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO544" s="3"/>
+      <c r="AP544" s="9"/>
+      <c r="AQ544" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR544" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS544" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT544" s="4"/>
+      <c r="AU544" s="16"/>
+    </row>
+    <row r="545" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG545" s="3"/>
       <c r="AH545" s="9"/>
       <c r="AI545" s="6"/>
@@ -22172,8 +23163,19 @@
       <c r="AK545" s="11"/>
       <c r="AL545" s="4"/>
       <c r="AM545" s="16"/>
-    </row>
-    <row r="546" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO545" s="3"/>
+      <c r="AP545" s="9"/>
+      <c r="AQ545" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR545" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS545" s="11"/>
+      <c r="AT545" s="4"/>
+      <c r="AU545" s="16"/>
+    </row>
+    <row r="546" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG546" s="3"/>
       <c r="AH546" s="9" t="s">
         <v>196</v>
@@ -22189,8 +23191,19 @@
       </c>
       <c r="AL546" s="4"/>
       <c r="AM546" s="16"/>
-    </row>
-    <row r="547" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO546" s="3"/>
+      <c r="AP546" s="9"/>
+      <c r="AQ546" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR546" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS546" s="11"/>
+      <c r="AT546" s="4"/>
+      <c r="AU546" s="16"/>
+    </row>
+    <row r="547" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG547" s="3"/>
       <c r="AH547" s="9"/>
       <c r="AI547" s="6" t="s">
@@ -22202,8 +23215,21 @@
       <c r="AK547" s="11"/>
       <c r="AL547" s="4"/>
       <c r="AM547" s="16"/>
-    </row>
-    <row r="548" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO547" s="3"/>
+      <c r="AP547" s="9"/>
+      <c r="AQ547" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR547" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS547" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT547" s="4"/>
+      <c r="AU547" s="16"/>
+    </row>
+    <row r="548" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG548" s="3"/>
       <c r="AH548" s="9"/>
       <c r="AI548" s="6" t="s">
@@ -22215,8 +23241,19 @@
       <c r="AK548" s="11"/>
       <c r="AL548" s="4"/>
       <c r="AM548" s="16"/>
-    </row>
-    <row r="549" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO548" s="3"/>
+      <c r="AP548" s="9"/>
+      <c r="AQ548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR548" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS548" s="11"/>
+      <c r="AT548" s="4"/>
+      <c r="AU548" s="16"/>
+    </row>
+    <row r="549" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG549" s="3"/>
       <c r="AH549" s="9"/>
       <c r="AI549" s="6" t="s">
@@ -22230,8 +23267,19 @@
       </c>
       <c r="AL549" s="4"/>
       <c r="AM549" s="16"/>
-    </row>
-    <row r="550" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO549" s="3"/>
+      <c r="AP549" s="9"/>
+      <c r="AQ549" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR549" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS549" s="11"/>
+      <c r="AT549" s="4"/>
+      <c r="AU549" s="16"/>
+    </row>
+    <row r="550" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG550" s="3"/>
       <c r="AH550" s="9"/>
       <c r="AI550" s="6" t="s">
@@ -22247,8 +23295,19 @@
       <c r="AM550" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="551" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO550" s="3"/>
+      <c r="AP550" s="9"/>
+      <c r="AQ550" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR550" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS550" s="11"/>
+      <c r="AT550" s="4"/>
+      <c r="AU550" s="16"/>
+    </row>
+    <row r="551" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG551" s="3"/>
       <c r="AH551" s="9"/>
       <c r="AI551" s="6"/>
@@ -22260,8 +23319,19 @@
       <c r="AM551" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="552" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO551" s="3"/>
+      <c r="AP551" s="9"/>
+      <c r="AQ551" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR551" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS551" s="11"/>
+      <c r="AT551" s="4"/>
+      <c r="AU551" s="16"/>
+    </row>
+    <row r="552" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG552" s="3"/>
       <c r="AH552" s="9"/>
       <c r="AI552" s="6" t="s">
@@ -22275,8 +23345,19 @@
       </c>
       <c r="AL552" s="4"/>
       <c r="AM552" s="16"/>
-    </row>
-    <row r="553" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO552" s="3"/>
+      <c r="AP552" s="9"/>
+      <c r="AQ552" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR552" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS552" s="11"/>
+      <c r="AT552" s="4"/>
+      <c r="AU552" s="16"/>
+    </row>
+    <row r="553" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG553" s="3"/>
       <c r="AH553" s="9"/>
       <c r="AI553" s="6" t="s">
@@ -22288,8 +23369,19 @@
       <c r="AK553" s="11"/>
       <c r="AL553" s="4"/>
       <c r="AM553" s="16"/>
-    </row>
-    <row r="554" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO553" s="3"/>
+      <c r="AP553" s="9"/>
+      <c r="AQ553" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR553" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS553" s="11"/>
+      <c r="AT553" s="4"/>
+      <c r="AU553" s="16"/>
+    </row>
+    <row r="554" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG554" s="3"/>
       <c r="AH554" s="9"/>
       <c r="AI554" s="6" t="s">
@@ -22305,8 +23397,19 @@
       <c r="AM554" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="555" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO554" s="3"/>
+      <c r="AP554" s="9"/>
+      <c r="AQ554" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR554" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS554" s="11"/>
+      <c r="AT554" s="4"/>
+      <c r="AU554" s="16"/>
+    </row>
+    <row r="555" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG555" s="3"/>
       <c r="AH555" s="9"/>
       <c r="AI555" s="6"/>
@@ -22318,8 +23421,19 @@
       <c r="AM555" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="556" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO555" s="3"/>
+      <c r="AP555" s="9"/>
+      <c r="AQ555" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR555" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS555" s="11"/>
+      <c r="AT555" s="4"/>
+      <c r="AU555" s="16"/>
+    </row>
+    <row r="556" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG556" s="3"/>
       <c r="AH556" s="9"/>
       <c r="AI556" s="6" t="s">
@@ -22331,8 +23445,21 @@
       <c r="AK556" s="11"/>
       <c r="AL556" s="4"/>
       <c r="AM556" s="16"/>
-    </row>
-    <row r="557" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO556" s="3"/>
+      <c r="AP556" s="9"/>
+      <c r="AQ556" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR556" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS556" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT556" s="4"/>
+      <c r="AU556" s="16"/>
+    </row>
+    <row r="557" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG557" s="3"/>
       <c r="AH557" s="9"/>
       <c r="AI557" s="6" t="s">
@@ -22344,8 +23471,15 @@
       <c r="AK557" s="11"/>
       <c r="AL557" s="4"/>
       <c r="AM557" s="16"/>
-    </row>
-    <row r="558" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO557" s="3"/>
+      <c r="AP557" s="9"/>
+      <c r="AQ557" s="6"/>
+      <c r="AR557" s="12"/>
+      <c r="AS557" s="11"/>
+      <c r="AT557" s="4"/>
+      <c r="AU557" s="16"/>
+    </row>
+    <row r="558" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG558" s="3"/>
       <c r="AH558" s="9"/>
       <c r="AI558" s="6" t="s">
@@ -22357,8 +23491,23 @@
       <c r="AK558" s="11"/>
       <c r="AL558" s="4"/>
       <c r="AM558" s="16"/>
-    </row>
-    <row r="559" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO558" s="3"/>
+      <c r="AP558" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ558" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR558" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS558" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT558" s="4"/>
+      <c r="AU558" s="16"/>
+    </row>
+    <row r="559" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG559" s="3"/>
       <c r="AH559" s="9"/>
       <c r="AI559" s="6" t="s">
@@ -22370,8 +23519,19 @@
       <c r="AK559" s="11"/>
       <c r="AL559" s="4"/>
       <c r="AM559" s="16"/>
-    </row>
-    <row r="560" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO559" s="3"/>
+      <c r="AP559" s="9"/>
+      <c r="AQ559" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR559" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS559" s="11"/>
+      <c r="AT559" s="4"/>
+      <c r="AU559" s="16"/>
+    </row>
+    <row r="560" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG560" s="3"/>
       <c r="AH560" s="9"/>
       <c r="AI560" s="6" t="s">
@@ -22385,8 +23545,19 @@
       </c>
       <c r="AL560" s="4"/>
       <c r="AM560" s="16"/>
-    </row>
-    <row r="561" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO560" s="3"/>
+      <c r="AP560" s="9"/>
+      <c r="AQ560" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR560" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS560" s="11"/>
+      <c r="AT560" s="4"/>
+      <c r="AU560" s="16"/>
+    </row>
+    <row r="561" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG561" s="3"/>
       <c r="AH561" s="9"/>
       <c r="AI561" s="6"/>
@@ -22394,8 +23565,21 @@
       <c r="AK561" s="11"/>
       <c r="AL561" s="4"/>
       <c r="AM561" s="16"/>
-    </row>
-    <row r="562" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO561" s="3"/>
+      <c r="AP561" s="9"/>
+      <c r="AQ561" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR561" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS561" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT561" s="4"/>
+      <c r="AU561" s="16"/>
+    </row>
+    <row r="562" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG562" s="3"/>
       <c r="AH562" s="9" t="s">
         <v>199</v>
@@ -22411,8 +23595,19 @@
       </c>
       <c r="AL562" s="4"/>
       <c r="AM562" s="16"/>
-    </row>
-    <row r="563" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO562" s="3"/>
+      <c r="AP562" s="9"/>
+      <c r="AQ562" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR562" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS562" s="11"/>
+      <c r="AT562" s="4"/>
+      <c r="AU562" s="16"/>
+    </row>
+    <row r="563" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG563" s="3"/>
       <c r="AH563" s="9"/>
       <c r="AI563" s="6" t="s">
@@ -22426,8 +23621,21 @@
       </c>
       <c r="AL563" s="4"/>
       <c r="AM563" s="16"/>
-    </row>
-    <row r="564" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO563" s="3"/>
+      <c r="AP563" s="9"/>
+      <c r="AQ563" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR563" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS563" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT563" s="4"/>
+      <c r="AU563" s="16"/>
+    </row>
+    <row r="564" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG564" s="3"/>
       <c r="AH564" s="9"/>
       <c r="AI564" s="6" t="s">
@@ -22439,8 +23647,19 @@
       <c r="AK564" s="11"/>
       <c r="AL564" s="4"/>
       <c r="AM564" s="16"/>
-    </row>
-    <row r="565" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO564" s="3"/>
+      <c r="AP564" s="9"/>
+      <c r="AQ564" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR564" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS564" s="11"/>
+      <c r="AT564" s="4"/>
+      <c r="AU564" s="16"/>
+    </row>
+    <row r="565" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG565" s="3"/>
       <c r="AH565" s="9"/>
       <c r="AI565" s="6" t="s">
@@ -22452,8 +23671,19 @@
       <c r="AK565" s="11"/>
       <c r="AL565" s="4"/>
       <c r="AM565" s="16"/>
-    </row>
-    <row r="566" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO565" s="3"/>
+      <c r="AP565" s="9"/>
+      <c r="AQ565" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR565" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS565" s="11"/>
+      <c r="AT565" s="4"/>
+      <c r="AU565" s="16"/>
+    </row>
+    <row r="566" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG566" s="3"/>
       <c r="AH566" s="9"/>
       <c r="AI566" s="6" t="s">
@@ -22469,8 +23699,19 @@
       <c r="AM566" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="567" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO566" s="3"/>
+      <c r="AP566" s="9"/>
+      <c r="AQ566" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR566" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS566" s="11"/>
+      <c r="AT566" s="4"/>
+      <c r="AU566" s="16"/>
+    </row>
+    <row r="567" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG567" s="3"/>
       <c r="AH567" s="9"/>
       <c r="AI567" s="6"/>
@@ -22482,8 +23723,21 @@
       <c r="AM567" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="568" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO567" s="3"/>
+      <c r="AP567" s="9"/>
+      <c r="AQ567" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR567" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS567" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT567" s="4"/>
+      <c r="AU567" s="16"/>
+    </row>
+    <row r="568" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG568" s="3"/>
       <c r="AH568" s="9"/>
       <c r="AI568" s="6" t="s">
@@ -22495,8 +23749,15 @@
       <c r="AK568" s="11"/>
       <c r="AL568" s="4"/>
       <c r="AM568" s="16"/>
-    </row>
-    <row r="569" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO568" s="3"/>
+      <c r="AP568" s="9"/>
+      <c r="AQ568" s="6"/>
+      <c r="AR568" s="12"/>
+      <c r="AS568" s="11"/>
+      <c r="AT568" s="4"/>
+      <c r="AU568" s="16"/>
+    </row>
+    <row r="569" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG569" s="3"/>
       <c r="AH569" s="9"/>
       <c r="AI569" s="6" t="s">
@@ -22508,8 +23769,29 @@
       <c r="AK569" s="11"/>
       <c r="AL569" s="4"/>
       <c r="AM569" s="16"/>
-    </row>
-    <row r="570" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO569" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP569" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ569" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR569" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS569" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT569" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU569" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="570" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG570" s="3"/>
       <c r="AH570" s="9"/>
       <c r="AI570" s="6" t="s">
@@ -22523,8 +23805,19 @@
       </c>
       <c r="AL570" s="4"/>
       <c r="AM570" s="16"/>
-    </row>
-    <row r="571" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO570" s="3"/>
+      <c r="AP570" s="9"/>
+      <c r="AQ570" s="6"/>
+      <c r="AR570" s="12"/>
+      <c r="AS570" s="11"/>
+      <c r="AT570" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU570" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="571" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG571" s="3"/>
       <c r="AH571" s="9"/>
       <c r="AI571" s="6" t="s">
@@ -22536,8 +23829,21 @@
       <c r="AK571" s="11"/>
       <c r="AL571" s="4"/>
       <c r="AM571" s="16"/>
-    </row>
-    <row r="572" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO571" s="3"/>
+      <c r="AP571" s="9"/>
+      <c r="AQ571" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR571" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS571" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT571" s="4"/>
+      <c r="AU571" s="16"/>
+    </row>
+    <row r="572" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG572" s="3"/>
       <c r="AH572" s="9"/>
       <c r="AI572" s="6" t="s">
@@ -22549,8 +23855,19 @@
       <c r="AK572" s="11"/>
       <c r="AL572" s="4"/>
       <c r="AM572" s="16"/>
-    </row>
-    <row r="573" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO572" s="3"/>
+      <c r="AP572" s="9"/>
+      <c r="AQ572" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR572" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS572" s="11"/>
+      <c r="AT572" s="4"/>
+      <c r="AU572" s="16"/>
+    </row>
+    <row r="573" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG573" s="3"/>
       <c r="AH573" s="9"/>
       <c r="AI573" s="6" t="s">
@@ -22562,8 +23879,19 @@
       <c r="AK573" s="11"/>
       <c r="AL573" s="4"/>
       <c r="AM573" s="16"/>
-    </row>
-    <row r="574" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO573" s="3"/>
+      <c r="AP573" s="9"/>
+      <c r="AQ573" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR573" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS573" s="11"/>
+      <c r="AT573" s="4"/>
+      <c r="AU573" s="16"/>
+    </row>
+    <row r="574" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG574" s="3"/>
       <c r="AH574" s="9"/>
       <c r="AI574" s="6" t="s">
@@ -22575,8 +23903,19 @@
       <c r="AK574" s="11"/>
       <c r="AL574" s="4"/>
       <c r="AM574" s="16"/>
-    </row>
-    <row r="575" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO574" s="3"/>
+      <c r="AP574" s="9"/>
+      <c r="AQ574" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR574" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS574" s="11"/>
+      <c r="AT574" s="4"/>
+      <c r="AU574" s="16"/>
+    </row>
+    <row r="575" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG575" s="3"/>
       <c r="AH575" s="9"/>
       <c r="AI575" s="6" t="s">
@@ -22590,8 +23929,19 @@
       </c>
       <c r="AL575" s="4"/>
       <c r="AM575" s="16"/>
-    </row>
-    <row r="576" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO575" s="3"/>
+      <c r="AP575" s="9"/>
+      <c r="AQ575" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR575" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS575" s="11"/>
+      <c r="AT575" s="4"/>
+      <c r="AU575" s="16"/>
+    </row>
+    <row r="576" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG576" s="3"/>
       <c r="AH576" s="9"/>
       <c r="AI576" s="6"/>
@@ -22599,8 +23949,19 @@
       <c r="AK576" s="11"/>
       <c r="AL576" s="4"/>
       <c r="AM576" s="16"/>
-    </row>
-    <row r="577" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO576" s="3"/>
+      <c r="AP576" s="9"/>
+      <c r="AQ576" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR576" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS576" s="11"/>
+      <c r="AT576" s="4"/>
+      <c r="AU576" s="16"/>
+    </row>
+    <row r="577" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG577" s="3"/>
       <c r="AH577" s="9" t="s">
         <v>200</v>
@@ -22616,8 +23977,19 @@
       </c>
       <c r="AL577" s="4"/>
       <c r="AM577" s="16"/>
-    </row>
-    <row r="578" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO577" s="3"/>
+      <c r="AP577" s="9"/>
+      <c r="AQ577" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR577" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS577" s="11"/>
+      <c r="AT577" s="4"/>
+      <c r="AU577" s="16"/>
+    </row>
+    <row r="578" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG578" s="3"/>
       <c r="AH578" s="9"/>
       <c r="AI578" s="6" t="s">
@@ -22631,8 +24003,21 @@
       </c>
       <c r="AL578" s="4"/>
       <c r="AM578" s="16"/>
-    </row>
-    <row r="579" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO578" s="3"/>
+      <c r="AP578" s="9"/>
+      <c r="AQ578" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR578" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS578" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT578" s="4"/>
+      <c r="AU578" s="16"/>
+    </row>
+    <row r="579" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG579" s="3"/>
       <c r="AH579" s="9"/>
       <c r="AI579" s="6" t="s">
@@ -22644,8 +24029,19 @@
       <c r="AK579" s="11"/>
       <c r="AL579" s="4"/>
       <c r="AM579" s="16"/>
-    </row>
-    <row r="580" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO579" s="3"/>
+      <c r="AP579" s="9"/>
+      <c r="AQ579" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR579" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS579" s="11"/>
+      <c r="AT579" s="4"/>
+      <c r="AU579" s="16"/>
+    </row>
+    <row r="580" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG580" s="3"/>
       <c r="AH580" s="9"/>
       <c r="AI580" s="6" t="s">
@@ -22657,8 +24053,19 @@
       <c r="AK580" s="11"/>
       <c r="AL580" s="4"/>
       <c r="AM580" s="16"/>
-    </row>
-    <row r="581" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO580" s="3"/>
+      <c r="AP580" s="9"/>
+      <c r="AQ580" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR580" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS580" s="11"/>
+      <c r="AT580" s="4"/>
+      <c r="AU580" s="16"/>
+    </row>
+    <row r="581" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG581" s="3"/>
       <c r="AH581" s="9"/>
       <c r="AI581" s="6" t="s">
@@ -22670,8 +24077,21 @@
       <c r="AK581" s="11"/>
       <c r="AL581" s="4"/>
       <c r="AM581" s="16"/>
-    </row>
-    <row r="582" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO581" s="3"/>
+      <c r="AP581" s="9"/>
+      <c r="AQ581" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR581" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS581" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT581" s="4"/>
+      <c r="AU581" s="16"/>
+    </row>
+    <row r="582" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG582" s="3"/>
       <c r="AH582" s="9"/>
       <c r="AI582" s="6" t="s">
@@ -22687,8 +24107,15 @@
       <c r="AM582" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="583" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO582" s="3"/>
+      <c r="AP582" s="9"/>
+      <c r="AQ582" s="6"/>
+      <c r="AR582" s="12"/>
+      <c r="AS582" s="11"/>
+      <c r="AT582" s="4"/>
+      <c r="AU582" s="16"/>
+    </row>
+    <row r="583" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG583" s="3"/>
       <c r="AH583" s="9"/>
       <c r="AI583" s="6"/>
@@ -22700,8 +24127,25 @@
       <c r="AM583" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="584" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO583" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP583" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ583" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR583" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS583" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT583" s="4"/>
+      <c r="AU583" s="16"/>
+    </row>
+    <row r="584" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG584" s="3"/>
       <c r="AH584" s="9"/>
       <c r="AI584" s="6" t="s">
@@ -22713,8 +24157,21 @@
       <c r="AK584" s="11"/>
       <c r="AL584" s="4"/>
       <c r="AM584" s="16"/>
-    </row>
-    <row r="585" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO584" s="3"/>
+      <c r="AP584" s="9"/>
+      <c r="AQ584" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR584" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS584" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT584" s="4"/>
+      <c r="AU584" s="16"/>
+    </row>
+    <row r="585" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG585" s="3"/>
       <c r="AH585" s="9"/>
       <c r="AI585" s="6" t="s">
@@ -22726,8 +24183,19 @@
       <c r="AK585" s="11"/>
       <c r="AL585" s="4"/>
       <c r="AM585" s="16"/>
-    </row>
-    <row r="586" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO585" s="3"/>
+      <c r="AP585" s="9"/>
+      <c r="AQ585" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR585" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS585" s="11"/>
+      <c r="AT585" s="4"/>
+      <c r="AU585" s="16"/>
+    </row>
+    <row r="586" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG586" s="3"/>
       <c r="AH586" s="9"/>
       <c r="AI586" s="6" t="s">
@@ -22741,8 +24209,19 @@
       </c>
       <c r="AL586" s="4"/>
       <c r="AM586" s="16"/>
-    </row>
-    <row r="587" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO586" s="3"/>
+      <c r="AP586" s="9"/>
+      <c r="AQ586" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR586" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS586" s="11"/>
+      <c r="AT586" s="4"/>
+      <c r="AU586" s="16"/>
+    </row>
+    <row r="587" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG587" s="3"/>
       <c r="AH587" s="9"/>
       <c r="AI587" s="6" t="s">
@@ -22754,8 +24233,19 @@
       <c r="AK587" s="11"/>
       <c r="AL587" s="4"/>
       <c r="AM587" s="16"/>
-    </row>
-    <row r="588" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO587" s="3"/>
+      <c r="AP587" s="9"/>
+      <c r="AQ587" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR587" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS587" s="11"/>
+      <c r="AT587" s="4"/>
+      <c r="AU587" s="16"/>
+    </row>
+    <row r="588" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG588" s="3"/>
       <c r="AH588" s="9"/>
       <c r="AI588" s="6" t="s">
@@ -22767,8 +24257,19 @@
       <c r="AK588" s="11"/>
       <c r="AL588" s="4"/>
       <c r="AM588" s="16"/>
-    </row>
-    <row r="589" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO588" s="3"/>
+      <c r="AP588" s="9"/>
+      <c r="AQ588" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR588" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS588" s="11"/>
+      <c r="AT588" s="4"/>
+      <c r="AU588" s="16"/>
+    </row>
+    <row r="589" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG589" s="3"/>
       <c r="AH589" s="9"/>
       <c r="AI589" s="6" t="s">
@@ -22780,8 +24281,19 @@
       <c r="AK589" s="11"/>
       <c r="AL589" s="4"/>
       <c r="AM589" s="16"/>
-    </row>
-    <row r="590" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO589" s="3"/>
+      <c r="AP589" s="9"/>
+      <c r="AQ589" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR589" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS589" s="11"/>
+      <c r="AT589" s="4"/>
+      <c r="AU589" s="16"/>
+    </row>
+    <row r="590" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG590" s="3"/>
       <c r="AH590" s="9"/>
       <c r="AI590" s="6" t="s">
@@ -22795,8 +24307,19 @@
       </c>
       <c r="AL590" s="4"/>
       <c r="AM590" s="16"/>
-    </row>
-    <row r="591" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO590" s="3"/>
+      <c r="AP590" s="9"/>
+      <c r="AQ590" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR590" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS590" s="11"/>
+      <c r="AT590" s="4"/>
+      <c r="AU590" s="16"/>
+    </row>
+    <row r="591" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG591" s="3"/>
       <c r="AH591" s="9"/>
       <c r="AI591" s="6"/>
@@ -22804,8 +24327,21 @@
       <c r="AK591" s="11"/>
       <c r="AL591" s="4"/>
       <c r="AM591" s="16"/>
-    </row>
-    <row r="592" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO591" s="3"/>
+      <c r="AP591" s="9"/>
+      <c r="AQ591" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR591" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS591" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT591" s="4"/>
+      <c r="AU591" s="16"/>
+    </row>
+    <row r="592" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG592" s="3"/>
       <c r="AH592" s="9" t="s">
         <v>201</v>
@@ -22821,8 +24357,19 @@
       </c>
       <c r="AL592" s="4"/>
       <c r="AM592" s="16"/>
-    </row>
-    <row r="593" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO592" s="3"/>
+      <c r="AP592" s="9"/>
+      <c r="AQ592" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR592" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS592" s="11"/>
+      <c r="AT592" s="4"/>
+      <c r="AU592" s="16"/>
+    </row>
+    <row r="593" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG593" s="3"/>
       <c r="AH593" s="9"/>
       <c r="AI593" s="6" t="s">
@@ -22836,8 +24383,19 @@
       </c>
       <c r="AL593" s="4"/>
       <c r="AM593" s="16"/>
-    </row>
-    <row r="594" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO593" s="3"/>
+      <c r="AP593" s="9"/>
+      <c r="AQ593" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR593" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS593" s="11"/>
+      <c r="AT593" s="4"/>
+      <c r="AU593" s="16"/>
+    </row>
+    <row r="594" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG594" s="3"/>
       <c r="AH594" s="9"/>
       <c r="AI594" s="6" t="s">
@@ -22849,8 +24407,21 @@
       <c r="AK594" s="11"/>
       <c r="AL594" s="4"/>
       <c r="AM594" s="16"/>
-    </row>
-    <row r="595" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO594" s="3"/>
+      <c r="AP594" s="9"/>
+      <c r="AQ594" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR594" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS594" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT594" s="4"/>
+      <c r="AU594" s="16"/>
+    </row>
+    <row r="595" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG595" s="3"/>
       <c r="AH595" s="9"/>
       <c r="AI595" s="6" t="s">
@@ -22862,8 +24433,15 @@
       <c r="AK595" s="11"/>
       <c r="AL595" s="4"/>
       <c r="AM595" s="16"/>
-    </row>
-    <row r="596" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO595" s="3"/>
+      <c r="AP595" s="9"/>
+      <c r="AQ595" s="6"/>
+      <c r="AR595" s="12"/>
+      <c r="AS595" s="11"/>
+      <c r="AT595" s="4"/>
+      <c r="AU595" s="16"/>
+    </row>
+    <row r="596" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG596" s="3"/>
       <c r="AH596" s="9"/>
       <c r="AI596" s="6" t="s">
@@ -22875,8 +24453,25 @@
       <c r="AK596" s="11"/>
       <c r="AL596" s="4"/>
       <c r="AM596" s="16"/>
-    </row>
-    <row r="597" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO596" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP596" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ596" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR596" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS596" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT596" s="4"/>
+      <c r="AU596" s="16"/>
+    </row>
+    <row r="597" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG597" s="3"/>
       <c r="AH597" s="9"/>
       <c r="AI597" s="6" t="s">
@@ -22892,8 +24487,21 @@
       <c r="AM597" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="598" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO597" s="3"/>
+      <c r="AP597" s="9"/>
+      <c r="AQ597" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR597" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS597" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT597" s="4"/>
+      <c r="AU597" s="16"/>
+    </row>
+    <row r="598" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG598" s="3"/>
       <c r="AH598" s="9"/>
       <c r="AI598" s="6"/>
@@ -22905,8 +24513,19 @@
       <c r="AM598" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="599" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO598" s="3"/>
+      <c r="AP598" s="9"/>
+      <c r="AQ598" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR598" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS598" s="11"/>
+      <c r="AT598" s="4"/>
+      <c r="AU598" s="16"/>
+    </row>
+    <row r="599" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG599" s="3"/>
       <c r="AH599" s="9"/>
       <c r="AI599" s="6" t="s">
@@ -22920,8 +24539,19 @@
       </c>
       <c r="AL599" s="4"/>
       <c r="AM599" s="16"/>
-    </row>
-    <row r="600" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO599" s="3"/>
+      <c r="AP599" s="9"/>
+      <c r="AQ599" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR599" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS599" s="11"/>
+      <c r="AT599" s="4"/>
+      <c r="AU599" s="16"/>
+    </row>
+    <row r="600" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG600" s="3"/>
       <c r="AH600" s="9"/>
       <c r="AI600" s="6" t="s">
@@ -22937,8 +24567,19 @@
       <c r="AM600" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="601" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO600" s="3"/>
+      <c r="AP600" s="9"/>
+      <c r="AQ600" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR600" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS600" s="11"/>
+      <c r="AT600" s="4"/>
+      <c r="AU600" s="16"/>
+    </row>
+    <row r="601" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG601" s="3"/>
       <c r="AH601" s="9"/>
       <c r="AI601" s="6"/>
@@ -22950,8 +24591,19 @@
       <c r="AM601" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="602" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO601" s="3"/>
+      <c r="AP601" s="9"/>
+      <c r="AQ601" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR601" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS601" s="11"/>
+      <c r="AT601" s="4"/>
+      <c r="AU601" s="16"/>
+    </row>
+    <row r="602" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG602" s="3"/>
       <c r="AH602" s="9"/>
       <c r="AI602" s="6" t="s">
@@ -22963,8 +24615,19 @@
       <c r="AK602" s="11"/>
       <c r="AL602" s="4"/>
       <c r="AM602" s="16"/>
-    </row>
-    <row r="603" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO602" s="3"/>
+      <c r="AP602" s="9"/>
+      <c r="AQ602" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR602" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS602" s="11"/>
+      <c r="AT602" s="4"/>
+      <c r="AU602" s="16"/>
+    </row>
+    <row r="603" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG603" s="3"/>
       <c r="AH603" s="9"/>
       <c r="AI603" s="6" t="s">
@@ -22976,8 +24639,21 @@
       <c r="AK603" s="11"/>
       <c r="AL603" s="4"/>
       <c r="AM603" s="16"/>
-    </row>
-    <row r="604" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO603" s="3"/>
+      <c r="AP603" s="9"/>
+      <c r="AQ603" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR603" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS603" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT603" s="4"/>
+      <c r="AU603" s="16"/>
+    </row>
+    <row r="604" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG604" s="3"/>
       <c r="AH604" s="9"/>
       <c r="AI604" s="6" t="s">
@@ -22989,8 +24665,19 @@
       <c r="AK604" s="11"/>
       <c r="AL604" s="4"/>
       <c r="AM604" s="16"/>
-    </row>
-    <row r="605" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO604" s="3"/>
+      <c r="AP604" s="9"/>
+      <c r="AQ604" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR604" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS604" s="11"/>
+      <c r="AT604" s="4"/>
+      <c r="AU604" s="16"/>
+    </row>
+    <row r="605" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG605" s="3"/>
       <c r="AH605" s="9"/>
       <c r="AI605" s="6" t="s">
@@ -23002,8 +24689,19 @@
       <c r="AK605" s="11"/>
       <c r="AL605" s="4"/>
       <c r="AM605" s="16"/>
-    </row>
-    <row r="606" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO605" s="3"/>
+      <c r="AP605" s="9"/>
+      <c r="AQ605" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR605" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS605" s="11"/>
+      <c r="AT605" s="4"/>
+      <c r="AU605" s="16"/>
+    </row>
+    <row r="606" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG606" s="3"/>
       <c r="AH606" s="9"/>
       <c r="AI606" s="6" t="s">
@@ -23017,8 +24715,19 @@
       </c>
       <c r="AL606" s="4"/>
       <c r="AM606" s="16"/>
-    </row>
-    <row r="607" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO606" s="3"/>
+      <c r="AP606" s="9"/>
+      <c r="AQ606" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR606" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS606" s="11"/>
+      <c r="AT606" s="4"/>
+      <c r="AU606" s="16"/>
+    </row>
+    <row r="607" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG607" s="3"/>
       <c r="AH607" s="9"/>
       <c r="AI607" s="6"/>
@@ -23026,8 +24735,19 @@
       <c r="AK607" s="11"/>
       <c r="AL607" s="4"/>
       <c r="AM607" s="16"/>
-    </row>
-    <row r="608" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO607" s="3"/>
+      <c r="AP607" s="9"/>
+      <c r="AQ607" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR607" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS607" s="11"/>
+      <c r="AT607" s="4"/>
+      <c r="AU607" s="16"/>
+    </row>
+    <row r="608" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG608" s="3"/>
       <c r="AH608" s="9" t="s">
         <v>203</v>
@@ -23047,8 +24767,21 @@
       <c r="AM608" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="609" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO608" s="3"/>
+      <c r="AP608" s="9"/>
+      <c r="AQ608" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR608" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS608" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT608" s="4"/>
+      <c r="AU608" s="16"/>
+    </row>
+    <row r="609" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG609" s="3"/>
       <c r="AH609" s="9"/>
       <c r="AI609" s="6"/>
@@ -23060,8 +24793,15 @@
       <c r="AM609" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="610" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO609" s="3"/>
+      <c r="AP609" s="9"/>
+      <c r="AQ609" s="6"/>
+      <c r="AR609" s="12"/>
+      <c r="AS609" s="11"/>
+      <c r="AT609" s="4"/>
+      <c r="AU609" s="16"/>
+    </row>
+    <row r="610" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG610" s="3"/>
       <c r="AH610" s="9"/>
       <c r="AI610" s="6"/>
@@ -23073,8 +24813,29 @@
       <c r="AM610" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="611" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO610" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP610" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ610" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR610" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS610" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT610" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU610" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG611" s="3"/>
       <c r="AH611" s="9"/>
       <c r="AI611" s="6" t="s">
@@ -23088,8 +24849,19 @@
       </c>
       <c r="AL611" s="4"/>
       <c r="AM611" s="16"/>
-    </row>
-    <row r="612" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO611" s="3"/>
+      <c r="AP611" s="9"/>
+      <c r="AQ611" s="6"/>
+      <c r="AR611" s="12"/>
+      <c r="AS611" s="11"/>
+      <c r="AT611" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU611" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="612" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG612" s="3"/>
       <c r="AH612" s="9"/>
       <c r="AI612" s="6" t="s">
@@ -23101,8 +24873,25 @@
       <c r="AK612" s="11"/>
       <c r="AL612" s="4"/>
       <c r="AM612" s="16"/>
-    </row>
-    <row r="613" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO612" s="3"/>
+      <c r="AP612" s="9"/>
+      <c r="AQ612" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR612" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS612" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT612" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU612" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="613" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG613" s="3"/>
       <c r="AH613" s="9"/>
       <c r="AI613" s="6" t="s">
@@ -23114,8 +24903,19 @@
       <c r="AK613" s="11"/>
       <c r="AL613" s="4"/>
       <c r="AM613" s="16"/>
-    </row>
-    <row r="614" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO613" s="3"/>
+      <c r="AP613" s="9"/>
+      <c r="AQ613" s="6"/>
+      <c r="AR613" s="12"/>
+      <c r="AS613" s="11"/>
+      <c r="AT613" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU613" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="614" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG614" s="3"/>
       <c r="AH614" s="9"/>
       <c r="AI614" s="6" t="s">
@@ -23127,8 +24927,19 @@
       <c r="AK614" s="11"/>
       <c r="AL614" s="4"/>
       <c r="AM614" s="16"/>
-    </row>
-    <row r="615" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO614" s="3"/>
+      <c r="AP614" s="9"/>
+      <c r="AQ614" s="6"/>
+      <c r="AR614" s="12"/>
+      <c r="AS614" s="11"/>
+      <c r="AT614" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU614" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="615" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG615" s="3"/>
       <c r="AH615" s="9"/>
       <c r="AI615" s="6" t="s">
@@ -23144,8 +24955,19 @@
       <c r="AM615" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="616" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO615" s="3"/>
+      <c r="AP615" s="9"/>
+      <c r="AQ615" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR615" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS615" s="11"/>
+      <c r="AT615" s="4"/>
+      <c r="AU615" s="16"/>
+    </row>
+    <row r="616" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG616" s="3"/>
       <c r="AH616" s="9"/>
       <c r="AI616" s="6"/>
@@ -23157,8 +24979,19 @@
       <c r="AM616" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="617" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO616" s="3"/>
+      <c r="AP616" s="9"/>
+      <c r="AQ616" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR616" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS616" s="11"/>
+      <c r="AT616" s="4"/>
+      <c r="AU616" s="16"/>
+    </row>
+    <row r="617" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG617" s="3"/>
       <c r="AH617" s="9"/>
       <c r="AI617" s="6" t="s">
@@ -23172,8 +25005,19 @@
       </c>
       <c r="AL617" s="4"/>
       <c r="AM617" s="16"/>
-    </row>
-    <row r="618" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO617" s="3"/>
+      <c r="AP617" s="9"/>
+      <c r="AQ617" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR617" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS617" s="11"/>
+      <c r="AT617" s="4"/>
+      <c r="AU617" s="16"/>
+    </row>
+    <row r="618" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG618" s="3"/>
       <c r="AH618" s="9"/>
       <c r="AI618" s="6" t="s">
@@ -23185,8 +25029,19 @@
       <c r="AK618" s="11"/>
       <c r="AL618" s="4"/>
       <c r="AM618" s="16"/>
-    </row>
-    <row r="619" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO618" s="3"/>
+      <c r="AP618" s="9"/>
+      <c r="AQ618" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR618" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS618" s="11"/>
+      <c r="AT618" s="4"/>
+      <c r="AU618" s="16"/>
+    </row>
+    <row r="619" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG619" s="3"/>
       <c r="AH619" s="9"/>
       <c r="AI619" s="6" t="s">
@@ -23198,8 +25053,21 @@
       <c r="AK619" s="11"/>
       <c r="AL619" s="4"/>
       <c r="AM619" s="16"/>
-    </row>
-    <row r="620" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO619" s="3"/>
+      <c r="AP619" s="9"/>
+      <c r="AQ619" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR619" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS619" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT619" s="4"/>
+      <c r="AU619" s="16"/>
+    </row>
+    <row r="620" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG620" s="3"/>
       <c r="AH620" s="9"/>
       <c r="AI620" s="6" t="s">
@@ -23211,8 +25079,19 @@
       <c r="AK620" s="11"/>
       <c r="AL620" s="4"/>
       <c r="AM620" s="16"/>
-    </row>
-    <row r="621" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO620" s="3"/>
+      <c r="AP620" s="9"/>
+      <c r="AQ620" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR620" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS620" s="11"/>
+      <c r="AT620" s="4"/>
+      <c r="AU620" s="16"/>
+    </row>
+    <row r="621" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG621" s="3"/>
       <c r="AH621" s="9"/>
       <c r="AI621" s="6" t="s">
@@ -23224,8 +25103,19 @@
       <c r="AK621" s="11"/>
       <c r="AL621" s="4"/>
       <c r="AM621" s="16"/>
-    </row>
-    <row r="622" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO621" s="3"/>
+      <c r="AP621" s="9"/>
+      <c r="AQ621" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR621" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS621" s="11"/>
+      <c r="AT621" s="4"/>
+      <c r="AU621" s="16"/>
+    </row>
+    <row r="622" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG622" s="3"/>
       <c r="AH622" s="9"/>
       <c r="AI622" s="6" t="s">
@@ -23237,8 +25127,19 @@
       <c r="AK622" s="11"/>
       <c r="AL622" s="4"/>
       <c r="AM622" s="16"/>
-    </row>
-    <row r="623" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO622" s="3"/>
+      <c r="AP622" s="9"/>
+      <c r="AQ622" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR622" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS622" s="11"/>
+      <c r="AT622" s="4"/>
+      <c r="AU622" s="16"/>
+    </row>
+    <row r="623" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG623" s="3"/>
       <c r="AH623" s="9"/>
       <c r="AI623" s="6" t="s">
@@ -23252,8 +25153,19 @@
       </c>
       <c r="AL623" s="4"/>
       <c r="AM623" s="16"/>
-    </row>
-    <row r="624" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO623" s="3"/>
+      <c r="AP623" s="9"/>
+      <c r="AQ623" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR623" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS623" s="11"/>
+      <c r="AT623" s="4"/>
+      <c r="AU623" s="16"/>
+    </row>
+    <row r="624" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG624" s="3"/>
       <c r="AH624" s="9"/>
       <c r="AI624" s="6"/>
@@ -23261,8 +25173,19 @@
       <c r="AK624" s="11"/>
       <c r="AL624" s="4"/>
       <c r="AM624" s="16"/>
-    </row>
-    <row r="625" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO624" s="3"/>
+      <c r="AP624" s="9"/>
+      <c r="AQ624" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR624" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS624" s="11"/>
+      <c r="AT624" s="4"/>
+      <c r="AU624" s="16"/>
+    </row>
+    <row r="625" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG625" s="3"/>
       <c r="AH625" s="9" t="s">
         <v>204</v>
@@ -23282,8 +25205,19 @@
       <c r="AM625" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="626" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO625" s="3"/>
+      <c r="AP625" s="9"/>
+      <c r="AQ625" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR625" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS625" s="11"/>
+      <c r="AT625" s="4"/>
+      <c r="AU625" s="16"/>
+    </row>
+    <row r="626" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG626" s="3"/>
       <c r="AH626" s="9"/>
       <c r="AI626" s="6"/>
@@ -23295,8 +25229,21 @@
       <c r="AM626" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="627" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO626" s="3"/>
+      <c r="AP626" s="9"/>
+      <c r="AQ626" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR626" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS626" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT626" s="4"/>
+      <c r="AU626" s="16"/>
+    </row>
+    <row r="627" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG627" s="3"/>
       <c r="AH627" s="9"/>
       <c r="AI627" s="6"/>
@@ -23308,8 +25255,15 @@
       <c r="AM627" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="628" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO627" s="3"/>
+      <c r="AP627" s="9"/>
+      <c r="AQ627" s="6"/>
+      <c r="AR627" s="12"/>
+      <c r="AS627" s="11"/>
+      <c r="AT627" s="4"/>
+      <c r="AU627" s="16"/>
+    </row>
+    <row r="628" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG628" s="3"/>
       <c r="AH628" s="9"/>
       <c r="AI628" s="6"/>
@@ -23321,8 +25275,29 @@
       <c r="AM628" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="629" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO628" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP628" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ628" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR628" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS628" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT628" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU628" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="629" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG629" s="3"/>
       <c r="AH629" s="9"/>
       <c r="AI629" s="6" t="s">
@@ -23336,8 +25311,19 @@
       </c>
       <c r="AL629" s="4"/>
       <c r="AM629" s="16"/>
-    </row>
-    <row r="630" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO629" s="3"/>
+      <c r="AP629" s="9"/>
+      <c r="AQ629" s="6"/>
+      <c r="AR629" s="12"/>
+      <c r="AS629" s="11"/>
+      <c r="AT629" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU629" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="630" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG630" s="3"/>
       <c r="AH630" s="9"/>
       <c r="AI630" s="6" t="s">
@@ -23349,8 +25335,25 @@
       <c r="AK630" s="11"/>
       <c r="AL630" s="4"/>
       <c r="AM630" s="16"/>
-    </row>
-    <row r="631" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO630" s="3"/>
+      <c r="AP630" s="9"/>
+      <c r="AQ630" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR630" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS630" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT630" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU630" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="631" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG631" s="3"/>
       <c r="AH631" s="9"/>
       <c r="AI631" s="6" t="s">
@@ -23362,8 +25365,19 @@
       <c r="AK631" s="11"/>
       <c r="AL631" s="4"/>
       <c r="AM631" s="16"/>
-    </row>
-    <row r="632" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO631" s="3"/>
+      <c r="AP631" s="9"/>
+      <c r="AQ631" s="6"/>
+      <c r="AR631" s="12"/>
+      <c r="AS631" s="11"/>
+      <c r="AT631" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU631" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="632" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG632" s="3"/>
       <c r="AH632" s="9"/>
       <c r="AI632" s="6" t="s">
@@ -23375,8 +25389,19 @@
       <c r="AK632" s="11"/>
       <c r="AL632" s="4"/>
       <c r="AM632" s="16"/>
-    </row>
-    <row r="633" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO632" s="3"/>
+      <c r="AP632" s="9"/>
+      <c r="AQ632" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR632" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS632" s="11"/>
+      <c r="AT632" s="4"/>
+      <c r="AU632" s="16"/>
+    </row>
+    <row r="633" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG633" s="3"/>
       <c r="AH633" s="9"/>
       <c r="AI633" s="6" t="s">
@@ -23392,8 +25417,19 @@
       <c r="AM633" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="634" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO633" s="3"/>
+      <c r="AP633" s="9"/>
+      <c r="AQ633" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR633" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS633" s="11"/>
+      <c r="AT633" s="4"/>
+      <c r="AU633" s="16"/>
+    </row>
+    <row r="634" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG634" s="3"/>
       <c r="AH634" s="9"/>
       <c r="AI634" s="6"/>
@@ -23405,8 +25441,19 @@
       <c r="AM634" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="635" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO634" s="3"/>
+      <c r="AP634" s="9"/>
+      <c r="AQ634" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR634" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS634" s="11"/>
+      <c r="AT634" s="4"/>
+      <c r="AU634" s="16"/>
+    </row>
+    <row r="635" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG635" s="3"/>
       <c r="AH635" s="9"/>
       <c r="AI635" s="6" t="s">
@@ -23420,8 +25467,19 @@
       </c>
       <c r="AL635" s="4"/>
       <c r="AM635" s="16"/>
-    </row>
-    <row r="636" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO635" s="3"/>
+      <c r="AP635" s="9"/>
+      <c r="AQ635" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR635" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS635" s="11"/>
+      <c r="AT635" s="4"/>
+      <c r="AU635" s="16"/>
+    </row>
+    <row r="636" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG636" s="3"/>
       <c r="AH636" s="9"/>
       <c r="AI636" s="6" t="s">
@@ -23433,8 +25491,21 @@
       <c r="AK636" s="11"/>
       <c r="AL636" s="4"/>
       <c r="AM636" s="16"/>
-    </row>
-    <row r="637" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO636" s="3"/>
+      <c r="AP636" s="9"/>
+      <c r="AQ636" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR636" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS636" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT636" s="4"/>
+      <c r="AU636" s="16"/>
+    </row>
+    <row r="637" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG637" s="3"/>
       <c r="AH637" s="9"/>
       <c r="AI637" s="6" t="s">
@@ -23446,8 +25517,19 @@
       <c r="AK637" s="11"/>
       <c r="AL637" s="4"/>
       <c r="AM637" s="16"/>
-    </row>
-    <row r="638" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO637" s="3"/>
+      <c r="AP637" s="9"/>
+      <c r="AQ637" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR637" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS637" s="11"/>
+      <c r="AT637" s="4"/>
+      <c r="AU637" s="16"/>
+    </row>
+    <row r="638" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG638" s="3"/>
       <c r="AH638" s="9"/>
       <c r="AI638" s="6" t="s">
@@ -23459,8 +25541,19 @@
       <c r="AK638" s="11"/>
       <c r="AL638" s="4"/>
       <c r="AM638" s="16"/>
-    </row>
-    <row r="639" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO638" s="3"/>
+      <c r="AP638" s="9"/>
+      <c r="AQ638" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR638" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS638" s="11"/>
+      <c r="AT638" s="4"/>
+      <c r="AU638" s="16"/>
+    </row>
+    <row r="639" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG639" s="3"/>
       <c r="AH639" s="9"/>
       <c r="AI639" s="6" t="s">
@@ -23472,8 +25565,19 @@
       <c r="AK639" s="11"/>
       <c r="AL639" s="4"/>
       <c r="AM639" s="16"/>
-    </row>
-    <row r="640" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO639" s="3"/>
+      <c r="AP639" s="9"/>
+      <c r="AQ639" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR639" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS639" s="11"/>
+      <c r="AT639" s="4"/>
+      <c r="AU639" s="16"/>
+    </row>
+    <row r="640" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG640" s="3"/>
       <c r="AH640" s="9"/>
       <c r="AI640" s="6" t="s">
@@ -23485,8 +25589,19 @@
       <c r="AK640" s="11"/>
       <c r="AL640" s="4"/>
       <c r="AM640" s="16"/>
-    </row>
-    <row r="641" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO640" s="3"/>
+      <c r="AP640" s="9"/>
+      <c r="AQ640" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR640" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AS640" s="11"/>
+      <c r="AT640" s="4"/>
+      <c r="AU640" s="16"/>
+    </row>
+    <row r="641" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG641" s="3"/>
       <c r="AH641" s="9"/>
       <c r="AI641" s="6" t="s">
@@ -23498,8 +25613,19 @@
       <c r="AK641" s="11"/>
       <c r="AL641" s="4"/>
       <c r="AM641" s="16"/>
-    </row>
-    <row r="642" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO641" s="3"/>
+      <c r="AP641" s="9"/>
+      <c r="AQ641" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR641" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS641" s="11"/>
+      <c r="AT641" s="4"/>
+      <c r="AU641" s="16"/>
+    </row>
+    <row r="642" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG642" s="3"/>
       <c r="AH642" s="9"/>
       <c r="AI642" s="6" t="s">
@@ -23513,8 +25639,19 @@
       </c>
       <c r="AL642" s="4"/>
       <c r="AM642" s="16"/>
-    </row>
-    <row r="643" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO642" s="3"/>
+      <c r="AP642" s="9"/>
+      <c r="AQ642" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR642" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS642" s="11"/>
+      <c r="AT642" s="4"/>
+      <c r="AU642" s="16"/>
+    </row>
+    <row r="643" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG643" s="3"/>
       <c r="AH643" s="9"/>
       <c r="AI643" s="6"/>
@@ -23522,8 +25659,21 @@
       <c r="AK643" s="11"/>
       <c r="AL643" s="4"/>
       <c r="AM643" s="16"/>
-    </row>
-    <row r="644" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO643" s="3"/>
+      <c r="AP643" s="9"/>
+      <c r="AQ643" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR643" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS643" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT643" s="4"/>
+      <c r="AU643" s="16"/>
+    </row>
+    <row r="644" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG644" s="3"/>
       <c r="AH644" s="9" t="s">
         <v>206</v>
@@ -23539,8 +25689,15 @@
       </c>
       <c r="AL644" s="4"/>
       <c r="AM644" s="16"/>
-    </row>
-    <row r="645" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO644" s="3"/>
+      <c r="AP644" s="9"/>
+      <c r="AQ644" s="6"/>
+      <c r="AR644" s="12"/>
+      <c r="AS644" s="11"/>
+      <c r="AT644" s="4"/>
+      <c r="AU644" s="16"/>
+    </row>
+    <row r="645" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG645" s="3"/>
       <c r="AH645" s="9"/>
       <c r="AI645" s="6" t="s">
@@ -23554,8 +25711,25 @@
       </c>
       <c r="AL645" s="4"/>
       <c r="AM645" s="16"/>
-    </row>
-    <row r="646" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO645" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP645" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ645" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR645" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS645" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT645" s="4"/>
+      <c r="AU645" s="16"/>
+    </row>
+    <row r="646" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG646" s="3"/>
       <c r="AH646" s="9"/>
       <c r="AI646" s="6" t="s">
@@ -23567,8 +25741,21 @@
       <c r="AK646" s="11"/>
       <c r="AL646" s="4"/>
       <c r="AM646" s="16"/>
-    </row>
-    <row r="647" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO646" s="3"/>
+      <c r="AP646" s="9"/>
+      <c r="AQ646" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR646" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS646" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT646" s="4"/>
+      <c r="AU646" s="16"/>
+    </row>
+    <row r="647" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG647" s="3"/>
       <c r="AH647" s="9"/>
       <c r="AI647" s="6" t="s">
@@ -23580,8 +25767,19 @@
       <c r="AK647" s="11"/>
       <c r="AL647" s="4"/>
       <c r="AM647" s="16"/>
-    </row>
-    <row r="648" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO647" s="3"/>
+      <c r="AP647" s="9"/>
+      <c r="AQ647" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR647" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AS647" s="11"/>
+      <c r="AT647" s="4"/>
+      <c r="AU647" s="16"/>
+    </row>
+    <row r="648" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG648" s="3"/>
       <c r="AH648" s="9"/>
       <c r="AI648" s="6" t="s">
@@ -23593,8 +25791,19 @@
       <c r="AK648" s="11"/>
       <c r="AL648" s="4"/>
       <c r="AM648" s="16"/>
-    </row>
-    <row r="649" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO648" s="3"/>
+      <c r="AP648" s="9"/>
+      <c r="AQ648" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR648" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS648" s="11"/>
+      <c r="AT648" s="4"/>
+      <c r="AU648" s="16"/>
+    </row>
+    <row r="649" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG649" s="3"/>
       <c r="AH649" s="9"/>
       <c r="AI649" s="6" t="s">
@@ -23610,8 +25819,19 @@
       <c r="AM649" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="650" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO649" s="3"/>
+      <c r="AP649" s="9"/>
+      <c r="AQ649" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR649" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS649" s="11"/>
+      <c r="AT649" s="4"/>
+      <c r="AU649" s="16"/>
+    </row>
+    <row r="650" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG650" s="3"/>
       <c r="AH650" s="9"/>
       <c r="AI650" s="6"/>
@@ -23623,8 +25843,21 @@
       <c r="AM650" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="651" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO650" s="3"/>
+      <c r="AP650" s="9"/>
+      <c r="AQ650" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR650" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS650" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT650" s="4"/>
+      <c r="AU650" s="16"/>
+    </row>
+    <row r="651" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG651" s="3"/>
       <c r="AH651" s="9"/>
       <c r="AI651" s="6" t="s">
@@ -23638,8 +25871,19 @@
       </c>
       <c r="AL651" s="4"/>
       <c r="AM651" s="16"/>
-    </row>
-    <row r="652" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO651" s="3"/>
+      <c r="AP651" s="9"/>
+      <c r="AQ651" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR651" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS651" s="11"/>
+      <c r="AT651" s="4"/>
+      <c r="AU651" s="16"/>
+    </row>
+    <row r="652" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG652" s="3"/>
       <c r="AH652" s="9"/>
       <c r="AI652" s="6" t="s">
@@ -23651,8 +25895,19 @@
       <c r="AK652" s="11"/>
       <c r="AL652" s="4"/>
       <c r="AM652" s="16"/>
-    </row>
-    <row r="653" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO652" s="3"/>
+      <c r="AP652" s="9"/>
+      <c r="AQ652" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR652" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS652" s="11"/>
+      <c r="AT652" s="4"/>
+      <c r="AU652" s="16"/>
+    </row>
+    <row r="653" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG653" s="3"/>
       <c r="AH653" s="9"/>
       <c r="AI653" s="6" t="s">
@@ -23668,8 +25923,19 @@
       <c r="AM653" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="654" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO653" s="3"/>
+      <c r="AP653" s="9"/>
+      <c r="AQ653" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR653" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS653" s="11"/>
+      <c r="AT653" s="4"/>
+      <c r="AU653" s="16"/>
+    </row>
+    <row r="654" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG654" s="3"/>
       <c r="AH654" s="9"/>
       <c r="AI654" s="6"/>
@@ -23681,8 +25947,19 @@
       <c r="AM654" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="655" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO654" s="3"/>
+      <c r="AP654" s="9"/>
+      <c r="AQ654" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR654" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS654" s="11"/>
+      <c r="AT654" s="4"/>
+      <c r="AU654" s="16"/>
+    </row>
+    <row r="655" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG655" s="3"/>
       <c r="AH655" s="9"/>
       <c r="AI655" s="6" t="s">
@@ -23694,8 +25971,19 @@
       <c r="AK655" s="11"/>
       <c r="AL655" s="4"/>
       <c r="AM655" s="16"/>
-    </row>
-    <row r="656" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO655" s="3"/>
+      <c r="AP655" s="9"/>
+      <c r="AQ655" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR655" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS655" s="11"/>
+      <c r="AT655" s="4"/>
+      <c r="AU655" s="16"/>
+    </row>
+    <row r="656" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG656" s="3"/>
       <c r="AH656" s="9"/>
       <c r="AI656" s="6" t="s">
@@ -23707,8 +25995,19 @@
       <c r="AK656" s="11"/>
       <c r="AL656" s="4"/>
       <c r="AM656" s="16"/>
-    </row>
-    <row r="657" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO656" s="3"/>
+      <c r="AP656" s="9"/>
+      <c r="AQ656" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR656" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS656" s="11"/>
+      <c r="AT656" s="4"/>
+      <c r="AU656" s="16"/>
+    </row>
+    <row r="657" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG657" s="3"/>
       <c r="AH657" s="9"/>
       <c r="AI657" s="6" t="s">
@@ -23720,8 +26019,19 @@
       <c r="AK657" s="11"/>
       <c r="AL657" s="4"/>
       <c r="AM657" s="16"/>
-    </row>
-    <row r="658" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO657" s="3"/>
+      <c r="AP657" s="9"/>
+      <c r="AQ657" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR657" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS657" s="11"/>
+      <c r="AT657" s="4"/>
+      <c r="AU657" s="16"/>
+    </row>
+    <row r="658" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG658" s="3"/>
       <c r="AH658" s="9"/>
       <c r="AI658" s="6" t="s">
@@ -23733,8 +26043,19 @@
       <c r="AK658" s="11"/>
       <c r="AL658" s="4"/>
       <c r="AM658" s="16"/>
-    </row>
-    <row r="659" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO658" s="3"/>
+      <c r="AP658" s="9"/>
+      <c r="AQ658" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR658" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS658" s="11"/>
+      <c r="AT658" s="4"/>
+      <c r="AU658" s="16"/>
+    </row>
+    <row r="659" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG659" s="3"/>
       <c r="AH659" s="9"/>
       <c r="AI659" s="6" t="s">
@@ -23748,8 +26069,21 @@
       </c>
       <c r="AL659" s="4"/>
       <c r="AM659" s="16"/>
-    </row>
-    <row r="660" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO659" s="3"/>
+      <c r="AP659" s="9"/>
+      <c r="AQ659" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR659" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS659" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT659" s="4"/>
+      <c r="AU659" s="16"/>
+    </row>
+    <row r="660" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG660" s="3"/>
       <c r="AH660" s="9"/>
       <c r="AI660" s="6"/>
@@ -23757,8 +26091,15 @@
       <c r="AK660" s="11"/>
       <c r="AL660" s="4"/>
       <c r="AM660" s="16"/>
-    </row>
-    <row r="661" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO660" s="3"/>
+      <c r="AP660" s="9"/>
+      <c r="AQ660" s="6"/>
+      <c r="AR660" s="12"/>
+      <c r="AS660" s="11"/>
+      <c r="AT660" s="4"/>
+      <c r="AU660" s="16"/>
+    </row>
+    <row r="661" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG661" s="3"/>
       <c r="AH661" s="9" t="s">
         <v>207</v>
@@ -23774,8 +26115,15 @@
       </c>
       <c r="AL661" s="4"/>
       <c r="AM661" s="16"/>
-    </row>
-    <row r="662" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO661" s="3"/>
+      <c r="AP661" s="9"/>
+      <c r="AQ661" s="6"/>
+      <c r="AR661" s="12"/>
+      <c r="AS661" s="11"/>
+      <c r="AT661" s="4"/>
+      <c r="AU661" s="16"/>
+    </row>
+    <row r="662" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG662" s="3"/>
       <c r="AH662" s="9"/>
       <c r="AI662" s="6" t="s">
@@ -23787,8 +26135,15 @@
       <c r="AK662" s="11"/>
       <c r="AL662" s="4"/>
       <c r="AM662" s="16"/>
-    </row>
-    <row r="663" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO662" s="3"/>
+      <c r="AP662" s="9"/>
+      <c r="AQ662" s="6"/>
+      <c r="AR662" s="12"/>
+      <c r="AS662" s="11"/>
+      <c r="AT662" s="4"/>
+      <c r="AU662" s="16"/>
+    </row>
+    <row r="663" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG663" s="3"/>
       <c r="AH663" s="9"/>
       <c r="AI663" s="6" t="s">
@@ -23800,8 +26155,15 @@
       <c r="AK663" s="11"/>
       <c r="AL663" s="4"/>
       <c r="AM663" s="16"/>
-    </row>
-    <row r="664" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO663" s="3"/>
+      <c r="AP663" s="9"/>
+      <c r="AQ663" s="6"/>
+      <c r="AR663" s="12"/>
+      <c r="AS663" s="11"/>
+      <c r="AT663" s="4"/>
+      <c r="AU663" s="16"/>
+    </row>
+    <row r="664" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG664" s="3"/>
       <c r="AH664" s="9"/>
       <c r="AI664" s="6" t="s">
@@ -23815,8 +26177,15 @@
       </c>
       <c r="AL664" s="4"/>
       <c r="AM664" s="16"/>
-    </row>
-    <row r="665" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO664" s="3"/>
+      <c r="AP664" s="9"/>
+      <c r="AQ664" s="6"/>
+      <c r="AR664" s="12"/>
+      <c r="AS664" s="11"/>
+      <c r="AT664" s="4"/>
+      <c r="AU664" s="16"/>
+    </row>
+    <row r="665" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG665" s="3"/>
       <c r="AH665" s="9"/>
       <c r="AI665" s="6" t="s">
@@ -23828,8 +26197,15 @@
       <c r="AK665" s="11"/>
       <c r="AL665" s="4"/>
       <c r="AM665" s="16"/>
-    </row>
-    <row r="666" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO665" s="3"/>
+      <c r="AP665" s="9"/>
+      <c r="AQ665" s="6"/>
+      <c r="AR665" s="12"/>
+      <c r="AS665" s="11"/>
+      <c r="AT665" s="4"/>
+      <c r="AU665" s="16"/>
+    </row>
+    <row r="666" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG666" s="3"/>
       <c r="AH666" s="9"/>
       <c r="AI666" s="6" t="s">
@@ -23845,8 +26221,15 @@
       <c r="AM666" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="667" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO666" s="3"/>
+      <c r="AP666" s="9"/>
+      <c r="AQ666" s="6"/>
+      <c r="AR666" s="12"/>
+      <c r="AS666" s="11"/>
+      <c r="AT666" s="4"/>
+      <c r="AU666" s="16"/>
+    </row>
+    <row r="667" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG667" s="3"/>
       <c r="AH667" s="9"/>
       <c r="AI667" s="6"/>
@@ -23858,8 +26241,15 @@
       <c r="AM667" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="668" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO667" s="3"/>
+      <c r="AP667" s="9"/>
+      <c r="AQ667" s="6"/>
+      <c r="AR667" s="12"/>
+      <c r="AS667" s="11"/>
+      <c r="AT667" s="4"/>
+      <c r="AU667" s="16"/>
+    </row>
+    <row r="668" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG668" s="3"/>
       <c r="AH668" s="9"/>
       <c r="AI668" s="6" t="s">
@@ -23873,8 +26263,15 @@
       </c>
       <c r="AL668" s="4"/>
       <c r="AM668" s="16"/>
-    </row>
-    <row r="669" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO668" s="3"/>
+      <c r="AP668" s="9"/>
+      <c r="AQ668" s="6"/>
+      <c r="AR668" s="12"/>
+      <c r="AS668" s="11"/>
+      <c r="AT668" s="4"/>
+      <c r="AU668" s="16"/>
+    </row>
+    <row r="669" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG669" s="3"/>
       <c r="AH669" s="9"/>
       <c r="AI669" s="6" t="s">
@@ -23886,8 +26283,15 @@
       <c r="AK669" s="11"/>
       <c r="AL669" s="4"/>
       <c r="AM669" s="16"/>
-    </row>
-    <row r="670" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO669" s="3"/>
+      <c r="AP669" s="9"/>
+      <c r="AQ669" s="6"/>
+      <c r="AR669" s="12"/>
+      <c r="AS669" s="11"/>
+      <c r="AT669" s="4"/>
+      <c r="AU669" s="16"/>
+    </row>
+    <row r="670" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG670" s="3"/>
       <c r="AH670" s="9"/>
       <c r="AI670" s="6" t="s">
@@ -23903,8 +26307,15 @@
       <c r="AM670" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="671" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO670" s="3"/>
+      <c r="AP670" s="9"/>
+      <c r="AQ670" s="6"/>
+      <c r="AR670" s="12"/>
+      <c r="AS670" s="11"/>
+      <c r="AT670" s="4"/>
+      <c r="AU670" s="16"/>
+    </row>
+    <row r="671" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG671" s="3"/>
       <c r="AH671" s="9"/>
       <c r="AI671" s="6"/>
@@ -23916,8 +26327,15 @@
       <c r="AM671" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="672" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO671" s="3"/>
+      <c r="AP671" s="9"/>
+      <c r="AQ671" s="6"/>
+      <c r="AR671" s="12"/>
+      <c r="AS671" s="11"/>
+      <c r="AT671" s="4"/>
+      <c r="AU671" s="16"/>
+    </row>
+    <row r="672" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG672" s="3"/>
       <c r="AH672" s="9"/>
       <c r="AI672" s="6" t="s">
@@ -23929,8 +26347,15 @@
       <c r="AK672" s="11"/>
       <c r="AL672" s="4"/>
       <c r="AM672" s="16"/>
-    </row>
-    <row r="673" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO672" s="3"/>
+      <c r="AP672" s="9"/>
+      <c r="AQ672" s="6"/>
+      <c r="AR672" s="12"/>
+      <c r="AS672" s="11"/>
+      <c r="AT672" s="4"/>
+      <c r="AU672" s="16"/>
+    </row>
+    <row r="673" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG673" s="3"/>
       <c r="AH673" s="9"/>
       <c r="AI673" s="6" t="s">
@@ -23942,8 +26367,15 @@
       <c r="AK673" s="11"/>
       <c r="AL673" s="4"/>
       <c r="AM673" s="16"/>
-    </row>
-    <row r="674" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO673" s="3"/>
+      <c r="AP673" s="9"/>
+      <c r="AQ673" s="6"/>
+      <c r="AR673" s="12"/>
+      <c r="AS673" s="11"/>
+      <c r="AT673" s="4"/>
+      <c r="AU673" s="16"/>
+    </row>
+    <row r="674" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG674" s="3"/>
       <c r="AH674" s="9"/>
       <c r="AI674" s="6" t="s">
@@ -23955,8 +26387,15 @@
       <c r="AK674" s="11"/>
       <c r="AL674" s="4"/>
       <c r="AM674" s="16"/>
-    </row>
-    <row r="675" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO674" s="3"/>
+      <c r="AP674" s="9"/>
+      <c r="AQ674" s="6"/>
+      <c r="AR674" s="12"/>
+      <c r="AS674" s="11"/>
+      <c r="AT674" s="4"/>
+      <c r="AU674" s="16"/>
+    </row>
+    <row r="675" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG675" s="3"/>
       <c r="AH675" s="9"/>
       <c r="AI675" s="6" t="s">
@@ -23970,8 +26409,15 @@
       </c>
       <c r="AL675" s="4"/>
       <c r="AM675" s="16"/>
-    </row>
-    <row r="676" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO675" s="3"/>
+      <c r="AP675" s="9"/>
+      <c r="AQ675" s="6"/>
+      <c r="AR675" s="12"/>
+      <c r="AS675" s="11"/>
+      <c r="AT675" s="4"/>
+      <c r="AU675" s="16"/>
+    </row>
+    <row r="676" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG676" s="3"/>
       <c r="AH676" s="9"/>
       <c r="AI676" s="6"/>
@@ -23979,8 +26425,15 @@
       <c r="AK676" s="11"/>
       <c r="AL676" s="4"/>
       <c r="AM676" s="16"/>
-    </row>
-    <row r="677" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO676" s="3"/>
+      <c r="AP676" s="9"/>
+      <c r="AQ676" s="6"/>
+      <c r="AR676" s="12"/>
+      <c r="AS676" s="11"/>
+      <c r="AT676" s="4"/>
+      <c r="AU676" s="16"/>
+    </row>
+    <row r="677" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG677" s="3"/>
       <c r="AH677" s="9" t="s">
         <v>208</v>
@@ -23996,8 +26449,15 @@
       </c>
       <c r="AL677" s="4"/>
       <c r="AM677" s="16"/>
-    </row>
-    <row r="678" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO677" s="3"/>
+      <c r="AP677" s="9"/>
+      <c r="AQ677" s="6"/>
+      <c r="AR677" s="12"/>
+      <c r="AS677" s="11"/>
+      <c r="AT677" s="4"/>
+      <c r="AU677" s="16"/>
+    </row>
+    <row r="678" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG678" s="3"/>
       <c r="AH678" s="9"/>
       <c r="AI678" s="6" t="s">
@@ -24011,8 +26471,15 @@
       </c>
       <c r="AL678" s="4"/>
       <c r="AM678" s="16"/>
-    </row>
-    <row r="679" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO678" s="3"/>
+      <c r="AP678" s="9"/>
+      <c r="AQ678" s="6"/>
+      <c r="AR678" s="12"/>
+      <c r="AS678" s="11"/>
+      <c r="AT678" s="4"/>
+      <c r="AU678" s="16"/>
+    </row>
+    <row r="679" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG679" s="3"/>
       <c r="AH679" s="9"/>
       <c r="AI679" s="6" t="s">
@@ -24024,8 +26491,15 @@
       <c r="AK679" s="11"/>
       <c r="AL679" s="4"/>
       <c r="AM679" s="16"/>
-    </row>
-    <row r="680" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO679" s="3"/>
+      <c r="AP679" s="9"/>
+      <c r="AQ679" s="6"/>
+      <c r="AR679" s="12"/>
+      <c r="AS679" s="11"/>
+      <c r="AT679" s="4"/>
+      <c r="AU679" s="16"/>
+    </row>
+    <row r="680" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG680" s="3"/>
       <c r="AH680" s="9"/>
       <c r="AI680" s="6" t="s">
@@ -24037,8 +26511,15 @@
       <c r="AK680" s="11"/>
       <c r="AL680" s="4"/>
       <c r="AM680" s="16"/>
-    </row>
-    <row r="681" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO680" s="3"/>
+      <c r="AP680" s="9"/>
+      <c r="AQ680" s="6"/>
+      <c r="AR680" s="12"/>
+      <c r="AS680" s="11"/>
+      <c r="AT680" s="4"/>
+      <c r="AU680" s="16"/>
+    </row>
+    <row r="681" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG681" s="3"/>
       <c r="AH681" s="9"/>
       <c r="AI681" s="6" t="s">
@@ -24050,8 +26531,15 @@
       <c r="AK681" s="11"/>
       <c r="AL681" s="4"/>
       <c r="AM681" s="16"/>
-    </row>
-    <row r="682" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO681" s="3"/>
+      <c r="AP681" s="9"/>
+      <c r="AQ681" s="6"/>
+      <c r="AR681" s="12"/>
+      <c r="AS681" s="11"/>
+      <c r="AT681" s="4"/>
+      <c r="AU681" s="16"/>
+    </row>
+    <row r="682" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG682" s="3"/>
       <c r="AH682" s="9"/>
       <c r="AI682" s="6" t="s">
@@ -24067,8 +26555,15 @@
       <c r="AM682" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="683" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO682" s="3"/>
+      <c r="AP682" s="9"/>
+      <c r="AQ682" s="6"/>
+      <c r="AR682" s="12"/>
+      <c r="AS682" s="11"/>
+      <c r="AT682" s="4"/>
+      <c r="AU682" s="16"/>
+    </row>
+    <row r="683" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG683" s="3"/>
       <c r="AH683" s="9"/>
       <c r="AI683" s="6"/>
@@ -24080,8 +26575,15 @@
       <c r="AM683" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="684" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO683" s="3"/>
+      <c r="AP683" s="9"/>
+      <c r="AQ683" s="6"/>
+      <c r="AR683" s="12"/>
+      <c r="AS683" s="11"/>
+      <c r="AT683" s="4"/>
+      <c r="AU683" s="16"/>
+    </row>
+    <row r="684" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG684" s="3"/>
       <c r="AH684" s="9"/>
       <c r="AI684" s="6" t="s">
@@ -24093,8 +26595,15 @@
       <c r="AK684" s="11"/>
       <c r="AL684" s="4"/>
       <c r="AM684" s="16"/>
-    </row>
-    <row r="685" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO684" s="3"/>
+      <c r="AP684" s="9"/>
+      <c r="AQ684" s="6"/>
+      <c r="AR684" s="12"/>
+      <c r="AS684" s="11"/>
+      <c r="AT684" s="4"/>
+      <c r="AU684" s="16"/>
+    </row>
+    <row r="685" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG685" s="3"/>
       <c r="AH685" s="9"/>
       <c r="AI685" s="6" t="s">
@@ -24106,8 +26615,15 @@
       <c r="AK685" s="11"/>
       <c r="AL685" s="4"/>
       <c r="AM685" s="16"/>
-    </row>
-    <row r="686" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO685" s="3"/>
+      <c r="AP685" s="9"/>
+      <c r="AQ685" s="6"/>
+      <c r="AR685" s="12"/>
+      <c r="AS685" s="11"/>
+      <c r="AT685" s="4"/>
+      <c r="AU685" s="16"/>
+    </row>
+    <row r="686" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG686" s="3"/>
       <c r="AH686" s="9"/>
       <c r="AI686" s="6" t="s">
@@ -24121,8 +26637,15 @@
       </c>
       <c r="AL686" s="4"/>
       <c r="AM686" s="16"/>
-    </row>
-    <row r="687" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO686" s="3"/>
+      <c r="AP686" s="9"/>
+      <c r="AQ686" s="6"/>
+      <c r="AR686" s="12"/>
+      <c r="AS686" s="11"/>
+      <c r="AT686" s="4"/>
+      <c r="AU686" s="16"/>
+    </row>
+    <row r="687" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG687" s="3"/>
       <c r="AH687" s="9"/>
       <c r="AI687" s="6" t="s">
@@ -24134,8 +26657,15 @@
       <c r="AK687" s="11"/>
       <c r="AL687" s="4"/>
       <c r="AM687" s="16"/>
-    </row>
-    <row r="688" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO687" s="3"/>
+      <c r="AP687" s="9"/>
+      <c r="AQ687" s="6"/>
+      <c r="AR687" s="12"/>
+      <c r="AS687" s="11"/>
+      <c r="AT687" s="4"/>
+      <c r="AU687" s="16"/>
+    </row>
+    <row r="688" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG688" s="3"/>
       <c r="AH688" s="9"/>
       <c r="AI688" s="6" t="s">
@@ -24147,8 +26677,15 @@
       <c r="AK688" s="11"/>
       <c r="AL688" s="4"/>
       <c r="AM688" s="16"/>
-    </row>
-    <row r="689" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO688" s="3"/>
+      <c r="AP688" s="9"/>
+      <c r="AQ688" s="6"/>
+      <c r="AR688" s="12"/>
+      <c r="AS688" s="11"/>
+      <c r="AT688" s="4"/>
+      <c r="AU688" s="16"/>
+    </row>
+    <row r="689" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG689" s="3"/>
       <c r="AH689" s="9"/>
       <c r="AI689" s="6" t="s">
@@ -24160,8 +26697,15 @@
       <c r="AK689" s="11"/>
       <c r="AL689" s="4"/>
       <c r="AM689" s="16"/>
-    </row>
-    <row r="690" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO689" s="3"/>
+      <c r="AP689" s="9"/>
+      <c r="AQ689" s="6"/>
+      <c r="AR689" s="12"/>
+      <c r="AS689" s="11"/>
+      <c r="AT689" s="4"/>
+      <c r="AU689" s="16"/>
+    </row>
+    <row r="690" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG690" s="3"/>
       <c r="AH690" s="9"/>
       <c r="AI690" s="6" t="s">
@@ -24175,8 +26719,15 @@
       </c>
       <c r="AL690" s="4"/>
       <c r="AM690" s="16"/>
-    </row>
-    <row r="691" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO690" s="3"/>
+      <c r="AP690" s="9"/>
+      <c r="AQ690" s="6"/>
+      <c r="AR690" s="12"/>
+      <c r="AS690" s="11"/>
+      <c r="AT690" s="4"/>
+      <c r="AU690" s="16"/>
+    </row>
+    <row r="691" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG691" s="3"/>
       <c r="AH691" s="9"/>
       <c r="AI691" s="6"/>
@@ -24184,8 +26735,15 @@
       <c r="AK691" s="11"/>
       <c r="AL691" s="4"/>
       <c r="AM691" s="16"/>
-    </row>
-    <row r="692" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO691" s="3"/>
+      <c r="AP691" s="9"/>
+      <c r="AQ691" s="6"/>
+      <c r="AR691" s="12"/>
+      <c r="AS691" s="11"/>
+      <c r="AT691" s="4"/>
+      <c r="AU691" s="16"/>
+    </row>
+    <row r="692" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG692" s="3"/>
       <c r="AH692" s="9" t="s">
         <v>211</v>
@@ -24201,8 +26759,15 @@
       </c>
       <c r="AL692" s="4"/>
       <c r="AM692" s="16"/>
-    </row>
-    <row r="693" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO692" s="3"/>
+      <c r="AP692" s="9"/>
+      <c r="AQ692" s="6"/>
+      <c r="AR692" s="12"/>
+      <c r="AS692" s="11"/>
+      <c r="AT692" s="4"/>
+      <c r="AU692" s="16"/>
+    </row>
+    <row r="693" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG693" s="3"/>
       <c r="AH693" s="9"/>
       <c r="AI693" s="6" t="s">
@@ -24216,8 +26781,15 @@
       </c>
       <c r="AL693" s="4"/>
       <c r="AM693" s="16"/>
-    </row>
-    <row r="694" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO693" s="3"/>
+      <c r="AP693" s="9"/>
+      <c r="AQ693" s="6"/>
+      <c r="AR693" s="12"/>
+      <c r="AS693" s="11"/>
+      <c r="AT693" s="4"/>
+      <c r="AU693" s="16"/>
+    </row>
+    <row r="694" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG694" s="3"/>
       <c r="AH694" s="9"/>
       <c r="AI694" s="6" t="s">
@@ -24229,8 +26801,15 @@
       <c r="AK694" s="11"/>
       <c r="AL694" s="4"/>
       <c r="AM694" s="16"/>
-    </row>
-    <row r="695" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO694" s="3"/>
+      <c r="AP694" s="9"/>
+      <c r="AQ694" s="6"/>
+      <c r="AR694" s="12"/>
+      <c r="AS694" s="11"/>
+      <c r="AT694" s="4"/>
+      <c r="AU694" s="16"/>
+    </row>
+    <row r="695" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG695" s="3"/>
       <c r="AH695" s="9"/>
       <c r="AI695" s="6" t="s">
@@ -24242,8 +26821,15 @@
       <c r="AK695" s="11"/>
       <c r="AL695" s="4"/>
       <c r="AM695" s="16"/>
-    </row>
-    <row r="696" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO695" s="3"/>
+      <c r="AP695" s="9"/>
+      <c r="AQ695" s="6"/>
+      <c r="AR695" s="12"/>
+      <c r="AS695" s="11"/>
+      <c r="AT695" s="4"/>
+      <c r="AU695" s="16"/>
+    </row>
+    <row r="696" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG696" s="3"/>
       <c r="AH696" s="9"/>
       <c r="AI696" s="6" t="s">
@@ -24255,8 +26841,15 @@
       <c r="AK696" s="11"/>
       <c r="AL696" s="4"/>
       <c r="AM696" s="16"/>
-    </row>
-    <row r="697" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO696" s="3"/>
+      <c r="AP696" s="9"/>
+      <c r="AQ696" s="6"/>
+      <c r="AR696" s="12"/>
+      <c r="AS696" s="11"/>
+      <c r="AT696" s="4"/>
+      <c r="AU696" s="16"/>
+    </row>
+    <row r="697" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG697" s="3"/>
       <c r="AH697" s="9"/>
       <c r="AI697" s="6" t="s">
@@ -24268,8 +26861,15 @@
       <c r="AK697" s="11"/>
       <c r="AL697" s="4"/>
       <c r="AM697" s="16"/>
-    </row>
-    <row r="698" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO697" s="3"/>
+      <c r="AP697" s="9"/>
+      <c r="AQ697" s="6"/>
+      <c r="AR697" s="12"/>
+      <c r="AS697" s="11"/>
+      <c r="AT697" s="4"/>
+      <c r="AU697" s="16"/>
+    </row>
+    <row r="698" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG698" s="3"/>
       <c r="AH698" s="9"/>
       <c r="AI698" s="6" t="s">
@@ -24285,8 +26885,15 @@
       <c r="AM698" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="699" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO698" s="3"/>
+      <c r="AP698" s="9"/>
+      <c r="AQ698" s="6"/>
+      <c r="AR698" s="12"/>
+      <c r="AS698" s="11"/>
+      <c r="AT698" s="4"/>
+      <c r="AU698" s="16"/>
+    </row>
+    <row r="699" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG699" s="3"/>
       <c r="AH699" s="9"/>
       <c r="AI699" s="6"/>
@@ -24298,8 +26905,15 @@
       <c r="AM699" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="700" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO699" s="3"/>
+      <c r="AP699" s="9"/>
+      <c r="AQ699" s="6"/>
+      <c r="AR699" s="12"/>
+      <c r="AS699" s="11"/>
+      <c r="AT699" s="4"/>
+      <c r="AU699" s="16"/>
+    </row>
+    <row r="700" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG700" s="3"/>
       <c r="AH700" s="9"/>
       <c r="AI700" s="6" t="s">
@@ -24311,8 +26925,15 @@
       <c r="AK700" s="11"/>
       <c r="AL700" s="4"/>
       <c r="AM700" s="16"/>
-    </row>
-    <row r="701" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO700" s="3"/>
+      <c r="AP700" s="9"/>
+      <c r="AQ700" s="6"/>
+      <c r="AR700" s="12"/>
+      <c r="AS700" s="11"/>
+      <c r="AT700" s="4"/>
+      <c r="AU700" s="16"/>
+    </row>
+    <row r="701" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG701" s="3"/>
       <c r="AH701" s="9"/>
       <c r="AI701" s="6" t="s">
@@ -24324,8 +26945,15 @@
       <c r="AK701" s="11"/>
       <c r="AL701" s="4"/>
       <c r="AM701" s="16"/>
-    </row>
-    <row r="702" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO701" s="3"/>
+      <c r="AP701" s="9"/>
+      <c r="AQ701" s="6"/>
+      <c r="AR701" s="12"/>
+      <c r="AS701" s="11"/>
+      <c r="AT701" s="4"/>
+      <c r="AU701" s="16"/>
+    </row>
+    <row r="702" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG702" s="3"/>
       <c r="AH702" s="9"/>
       <c r="AI702" s="6" t="s">
@@ -24339,8 +26967,15 @@
       </c>
       <c r="AL702" s="4"/>
       <c r="AM702" s="16"/>
-    </row>
-    <row r="703" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO702" s="3"/>
+      <c r="AP702" s="9"/>
+      <c r="AQ702" s="6"/>
+      <c r="AR702" s="12"/>
+      <c r="AS702" s="11"/>
+      <c r="AT702" s="4"/>
+      <c r="AU702" s="16"/>
+    </row>
+    <row r="703" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG703" s="3"/>
       <c r="AH703" s="9"/>
       <c r="AI703" s="6" t="s">
@@ -24352,8 +26987,15 @@
       <c r="AK703" s="11"/>
       <c r="AL703" s="4"/>
       <c r="AM703" s="16"/>
-    </row>
-    <row r="704" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO703" s="3"/>
+      <c r="AP703" s="9"/>
+      <c r="AQ703" s="6"/>
+      <c r="AR703" s="12"/>
+      <c r="AS703" s="11"/>
+      <c r="AT703" s="4"/>
+      <c r="AU703" s="16"/>
+    </row>
+    <row r="704" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG704" s="3"/>
       <c r="AH704" s="9"/>
       <c r="AI704" s="6" t="s">
@@ -24365,8 +27007,15 @@
       <c r="AK704" s="11"/>
       <c r="AL704" s="4"/>
       <c r="AM704" s="16"/>
-    </row>
-    <row r="705" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO704" s="3"/>
+      <c r="AP704" s="9"/>
+      <c r="AQ704" s="6"/>
+      <c r="AR704" s="12"/>
+      <c r="AS704" s="11"/>
+      <c r="AT704" s="4"/>
+      <c r="AU704" s="16"/>
+    </row>
+    <row r="705" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG705" s="3"/>
       <c r="AH705" s="9"/>
       <c r="AI705" s="6" t="s">
@@ -24380,8 +27029,15 @@
       </c>
       <c r="AL705" s="4"/>
       <c r="AM705" s="16"/>
-    </row>
-    <row r="706" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO705" s="3"/>
+      <c r="AP705" s="9"/>
+      <c r="AQ705" s="6"/>
+      <c r="AR705" s="12"/>
+      <c r="AS705" s="11"/>
+      <c r="AT705" s="4"/>
+      <c r="AU705" s="16"/>
+    </row>
+    <row r="706" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG706" s="3"/>
       <c r="AH706" s="9"/>
       <c r="AI706" s="6"/>
@@ -24389,8 +27045,15 @@
       <c r="AK706" s="11"/>
       <c r="AL706" s="4"/>
       <c r="AM706" s="16"/>
-    </row>
-    <row r="707" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO706" s="3"/>
+      <c r="AP706" s="9"/>
+      <c r="AQ706" s="6"/>
+      <c r="AR706" s="12"/>
+      <c r="AS706" s="11"/>
+      <c r="AT706" s="4"/>
+      <c r="AU706" s="16"/>
+    </row>
+    <row r="707" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG707" s="3"/>
       <c r="AH707" s="9" t="s">
         <v>212</v>
@@ -24406,8 +27069,15 @@
       </c>
       <c r="AL707" s="4"/>
       <c r="AM707" s="16"/>
-    </row>
-    <row r="708" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO707" s="3"/>
+      <c r="AP707" s="9"/>
+      <c r="AQ707" s="6"/>
+      <c r="AR707" s="12"/>
+      <c r="AS707" s="11"/>
+      <c r="AT707" s="4"/>
+      <c r="AU707" s="16"/>
+    </row>
+    <row r="708" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG708" s="3"/>
       <c r="AH708" s="9"/>
       <c r="AI708" s="6" t="s">
@@ -24421,8 +27091,15 @@
       </c>
       <c r="AL708" s="4"/>
       <c r="AM708" s="16"/>
-    </row>
-    <row r="709" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO708" s="3"/>
+      <c r="AP708" s="9"/>
+      <c r="AQ708" s="6"/>
+      <c r="AR708" s="12"/>
+      <c r="AS708" s="11"/>
+      <c r="AT708" s="4"/>
+      <c r="AU708" s="16"/>
+    </row>
+    <row r="709" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG709" s="3"/>
       <c r="AH709" s="9"/>
       <c r="AI709" s="6" t="s">
@@ -24434,8 +27111,15 @@
       <c r="AK709" s="11"/>
       <c r="AL709" s="4"/>
       <c r="AM709" s="16"/>
-    </row>
-    <row r="710" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO709" s="3"/>
+      <c r="AP709" s="9"/>
+      <c r="AQ709" s="6"/>
+      <c r="AR709" s="12"/>
+      <c r="AS709" s="11"/>
+      <c r="AT709" s="4"/>
+      <c r="AU709" s="16"/>
+    </row>
+    <row r="710" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG710" s="3"/>
       <c r="AH710" s="9"/>
       <c r="AI710" s="6" t="s">
@@ -24447,8 +27131,15 @@
       <c r="AK710" s="11"/>
       <c r="AL710" s="4"/>
       <c r="AM710" s="16"/>
-    </row>
-    <row r="711" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO710" s="3"/>
+      <c r="AP710" s="9"/>
+      <c r="AQ710" s="6"/>
+      <c r="AR710" s="12"/>
+      <c r="AS710" s="11"/>
+      <c r="AT710" s="4"/>
+      <c r="AU710" s="16"/>
+    </row>
+    <row r="711" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG711" s="3"/>
       <c r="AH711" s="9"/>
       <c r="AI711" s="6" t="s">
@@ -24460,8 +27151,15 @@
       <c r="AK711" s="11"/>
       <c r="AL711" s="4"/>
       <c r="AM711" s="16"/>
-    </row>
-    <row r="712" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO711" s="3"/>
+      <c r="AP711" s="9"/>
+      <c r="AQ711" s="6"/>
+      <c r="AR711" s="12"/>
+      <c r="AS711" s="11"/>
+      <c r="AT711" s="4"/>
+      <c r="AU711" s="16"/>
+    </row>
+    <row r="712" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG712" s="3"/>
       <c r="AH712" s="9"/>
       <c r="AI712" s="6" t="s">
@@ -24477,8 +27175,15 @@
       <c r="AM712" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="713" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO712" s="3"/>
+      <c r="AP712" s="9"/>
+      <c r="AQ712" s="6"/>
+      <c r="AR712" s="12"/>
+      <c r="AS712" s="11"/>
+      <c r="AT712" s="4"/>
+      <c r="AU712" s="16"/>
+    </row>
+    <row r="713" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG713" s="3"/>
       <c r="AH713" s="9"/>
       <c r="AI713" s="6"/>
@@ -24490,8 +27195,15 @@
       <c r="AM713" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="714" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO713" s="3"/>
+      <c r="AP713" s="9"/>
+      <c r="AQ713" s="6"/>
+      <c r="AR713" s="12"/>
+      <c r="AS713" s="11"/>
+      <c r="AT713" s="4"/>
+      <c r="AU713" s="16"/>
+    </row>
+    <row r="714" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG714" s="3"/>
       <c r="AH714" s="9"/>
       <c r="AI714" s="6" t="s">
@@ -24505,8 +27217,15 @@
       </c>
       <c r="AL714" s="4"/>
       <c r="AM714" s="16"/>
-    </row>
-    <row r="715" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO714" s="3"/>
+      <c r="AP714" s="9"/>
+      <c r="AQ714" s="6"/>
+      <c r="AR714" s="12"/>
+      <c r="AS714" s="11"/>
+      <c r="AT714" s="4"/>
+      <c r="AU714" s="16"/>
+    </row>
+    <row r="715" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG715" s="3"/>
       <c r="AH715" s="9"/>
       <c r="AI715" s="6" t="s">
@@ -24522,8 +27241,15 @@
       <c r="AM715" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="716" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO715" s="3"/>
+      <c r="AP715" s="9"/>
+      <c r="AQ715" s="6"/>
+      <c r="AR715" s="12"/>
+      <c r="AS715" s="11"/>
+      <c r="AT715" s="4"/>
+      <c r="AU715" s="16"/>
+    </row>
+    <row r="716" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG716" s="3"/>
       <c r="AH716" s="9"/>
       <c r="AI716" s="6"/>
@@ -24535,8 +27261,15 @@
       <c r="AM716" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="717" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO716" s="3"/>
+      <c r="AP716" s="9"/>
+      <c r="AQ716" s="6"/>
+      <c r="AR716" s="12"/>
+      <c r="AS716" s="11"/>
+      <c r="AT716" s="4"/>
+      <c r="AU716" s="16"/>
+    </row>
+    <row r="717" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG717" s="3"/>
       <c r="AH717" s="9"/>
       <c r="AI717" s="6" t="s">
@@ -24548,8 +27281,15 @@
       <c r="AK717" s="11"/>
       <c r="AL717" s="4"/>
       <c r="AM717" s="16"/>
-    </row>
-    <row r="718" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO717" s="3"/>
+      <c r="AP717" s="9"/>
+      <c r="AQ717" s="6"/>
+      <c r="AR717" s="12"/>
+      <c r="AS717" s="11"/>
+      <c r="AT717" s="4"/>
+      <c r="AU717" s="16"/>
+    </row>
+    <row r="718" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG718" s="3"/>
       <c r="AH718" s="9"/>
       <c r="AI718" s="6" t="s">
@@ -24561,8 +27301,15 @@
       <c r="AK718" s="11"/>
       <c r="AL718" s="4"/>
       <c r="AM718" s="16"/>
-    </row>
-    <row r="719" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO718" s="3"/>
+      <c r="AP718" s="9"/>
+      <c r="AQ718" s="6"/>
+      <c r="AR718" s="12"/>
+      <c r="AS718" s="11"/>
+      <c r="AT718" s="4"/>
+      <c r="AU718" s="16"/>
+    </row>
+    <row r="719" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG719" s="3"/>
       <c r="AH719" s="9"/>
       <c r="AI719" s="6" t="s">
@@ -24574,8 +27321,15 @@
       <c r="AK719" s="11"/>
       <c r="AL719" s="4"/>
       <c r="AM719" s="16"/>
-    </row>
-    <row r="720" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO719" s="3"/>
+      <c r="AP719" s="9"/>
+      <c r="AQ719" s="6"/>
+      <c r="AR719" s="12"/>
+      <c r="AS719" s="11"/>
+      <c r="AT719" s="4"/>
+      <c r="AU719" s="16"/>
+    </row>
+    <row r="720" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG720" s="3"/>
       <c r="AH720" s="9"/>
       <c r="AI720" s="6" t="s">
@@ -24589,8 +27343,15 @@
       </c>
       <c r="AL720" s="4"/>
       <c r="AM720" s="16"/>
-    </row>
-    <row r="721" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO720" s="3"/>
+      <c r="AP720" s="9"/>
+      <c r="AQ720" s="6"/>
+      <c r="AR720" s="12"/>
+      <c r="AS720" s="11"/>
+      <c r="AT720" s="4"/>
+      <c r="AU720" s="16"/>
+    </row>
+    <row r="721" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG721" s="3"/>
       <c r="AH721" s="9"/>
       <c r="AI721" s="6"/>
@@ -24598,8 +27359,15 @@
       <c r="AK721" s="11"/>
       <c r="AL721" s="4"/>
       <c r="AM721" s="16"/>
-    </row>
-    <row r="722" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO721" s="3"/>
+      <c r="AP721" s="9"/>
+      <c r="AQ721" s="6"/>
+      <c r="AR721" s="12"/>
+      <c r="AS721" s="11"/>
+      <c r="AT721" s="4"/>
+      <c r="AU721" s="16"/>
+    </row>
+    <row r="722" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG722" s="3"/>
       <c r="AH722" s="9" t="s">
         <v>213</v>
@@ -24619,8 +27387,15 @@
       <c r="AM722" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="723" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO722" s="3"/>
+      <c r="AP722" s="9"/>
+      <c r="AQ722" s="6"/>
+      <c r="AR722" s="12"/>
+      <c r="AS722" s="11"/>
+      <c r="AT722" s="4"/>
+      <c r="AU722" s="16"/>
+    </row>
+    <row r="723" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG723" s="3"/>
       <c r="AH723" s="9"/>
       <c r="AI723" s="6"/>
@@ -24632,8 +27407,15 @@
       <c r="AM723" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="724" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO723" s="3"/>
+      <c r="AP723" s="9"/>
+      <c r="AQ723" s="6"/>
+      <c r="AR723" s="12"/>
+      <c r="AS723" s="11"/>
+      <c r="AT723" s="4"/>
+      <c r="AU723" s="16"/>
+    </row>
+    <row r="724" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG724" s="3"/>
       <c r="AH724" s="9"/>
       <c r="AI724" s="6"/>
@@ -24645,8 +27427,15 @@
       <c r="AM724" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="725" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO724" s="3"/>
+      <c r="AP724" s="9"/>
+      <c r="AQ724" s="6"/>
+      <c r="AR724" s="12"/>
+      <c r="AS724" s="11"/>
+      <c r="AT724" s="4"/>
+      <c r="AU724" s="16"/>
+    </row>
+    <row r="725" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG725" s="3"/>
       <c r="AH725" s="9"/>
       <c r="AI725" s="6" t="s">
@@ -24660,8 +27449,15 @@
       </c>
       <c r="AL725" s="4"/>
       <c r="AM725" s="16"/>
-    </row>
-    <row r="726" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO725" s="3"/>
+      <c r="AP725" s="9"/>
+      <c r="AQ725" s="6"/>
+      <c r="AR725" s="12"/>
+      <c r="AS725" s="11"/>
+      <c r="AT725" s="4"/>
+      <c r="AU725" s="16"/>
+    </row>
+    <row r="726" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG726" s="3"/>
       <c r="AH726" s="9"/>
       <c r="AI726" s="6" t="s">
@@ -24673,8 +27469,15 @@
       <c r="AK726" s="11"/>
       <c r="AL726" s="4"/>
       <c r="AM726" s="16"/>
-    </row>
-    <row r="727" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO726" s="3"/>
+      <c r="AP726" s="9"/>
+      <c r="AQ726" s="6"/>
+      <c r="AR726" s="12"/>
+      <c r="AS726" s="11"/>
+      <c r="AT726" s="4"/>
+      <c r="AU726" s="16"/>
+    </row>
+    <row r="727" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG727" s="3"/>
       <c r="AH727" s="9"/>
       <c r="AI727" s="6" t="s">
@@ -24686,8 +27489,15 @@
       <c r="AK727" s="11"/>
       <c r="AL727" s="4"/>
       <c r="AM727" s="16"/>
-    </row>
-    <row r="728" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO727" s="3"/>
+      <c r="AP727" s="9"/>
+      <c r="AQ727" s="6"/>
+      <c r="AR727" s="12"/>
+      <c r="AS727" s="11"/>
+      <c r="AT727" s="4"/>
+      <c r="AU727" s="16"/>
+    </row>
+    <row r="728" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG728" s="3"/>
       <c r="AH728" s="9"/>
       <c r="AI728" s="6" t="s">
@@ -24699,8 +27509,15 @@
       <c r="AK728" s="11"/>
       <c r="AL728" s="4"/>
       <c r="AM728" s="16"/>
-    </row>
-    <row r="729" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO728" s="3"/>
+      <c r="AP728" s="9"/>
+      <c r="AQ728" s="6"/>
+      <c r="AR728" s="12"/>
+      <c r="AS728" s="11"/>
+      <c r="AT728" s="4"/>
+      <c r="AU728" s="16"/>
+    </row>
+    <row r="729" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG729" s="3"/>
       <c r="AH729" s="9"/>
       <c r="AI729" s="6" t="s">
@@ -24712,8 +27529,15 @@
       <c r="AK729" s="11"/>
       <c r="AL729" s="4"/>
       <c r="AM729" s="16"/>
-    </row>
-    <row r="730" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO729" s="3"/>
+      <c r="AP729" s="9"/>
+      <c r="AQ729" s="6"/>
+      <c r="AR729" s="12"/>
+      <c r="AS729" s="11"/>
+      <c r="AT729" s="4"/>
+      <c r="AU729" s="16"/>
+    </row>
+    <row r="730" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG730" s="3"/>
       <c r="AH730" s="9"/>
       <c r="AI730" s="6" t="s">
@@ -24729,8 +27553,15 @@
       <c r="AM730" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="731" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO730" s="3"/>
+      <c r="AP730" s="9"/>
+      <c r="AQ730" s="6"/>
+      <c r="AR730" s="12"/>
+      <c r="AS730" s="11"/>
+      <c r="AT730" s="4"/>
+      <c r="AU730" s="16"/>
+    </row>
+    <row r="731" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG731" s="3"/>
       <c r="AH731" s="9"/>
       <c r="AI731" s="6"/>
@@ -24742,8 +27573,15 @@
       <c r="AM731" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="732" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO731" s="3"/>
+      <c r="AP731" s="9"/>
+      <c r="AQ731" s="6"/>
+      <c r="AR731" s="12"/>
+      <c r="AS731" s="11"/>
+      <c r="AT731" s="4"/>
+      <c r="AU731" s="16"/>
+    </row>
+    <row r="732" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG732" s="3"/>
       <c r="AH732" s="9"/>
       <c r="AI732" s="6" t="s">
@@ -24757,8 +27595,15 @@
       </c>
       <c r="AL732" s="4"/>
       <c r="AM732" s="16"/>
-    </row>
-    <row r="733" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO732" s="3"/>
+      <c r="AP732" s="9"/>
+      <c r="AQ732" s="6"/>
+      <c r="AR732" s="12"/>
+      <c r="AS732" s="11"/>
+      <c r="AT732" s="4"/>
+      <c r="AU732" s="16"/>
+    </row>
+    <row r="733" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG733" s="3"/>
       <c r="AH733" s="9"/>
       <c r="AI733" s="6" t="s">
@@ -24770,8 +27615,15 @@
       <c r="AK733" s="11"/>
       <c r="AL733" s="4"/>
       <c r="AM733" s="16"/>
-    </row>
-    <row r="734" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO733" s="3"/>
+      <c r="AP733" s="9"/>
+      <c r="AQ733" s="6"/>
+      <c r="AR733" s="12"/>
+      <c r="AS733" s="11"/>
+      <c r="AT733" s="4"/>
+      <c r="AU733" s="16"/>
+    </row>
+    <row r="734" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG734" s="3"/>
       <c r="AH734" s="9"/>
       <c r="AI734" s="6" t="s">
@@ -24783,8 +27635,15 @@
       <c r="AK734" s="11"/>
       <c r="AL734" s="4"/>
       <c r="AM734" s="16"/>
-    </row>
-    <row r="735" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO734" s="3"/>
+      <c r="AP734" s="9"/>
+      <c r="AQ734" s="6"/>
+      <c r="AR734" s="12"/>
+      <c r="AS734" s="11"/>
+      <c r="AT734" s="4"/>
+      <c r="AU734" s="16"/>
+    </row>
+    <row r="735" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG735" s="3"/>
       <c r="AH735" s="9"/>
       <c r="AI735" s="6" t="s">
@@ -24796,8 +27655,15 @@
       <c r="AK735" s="11"/>
       <c r="AL735" s="4"/>
       <c r="AM735" s="16"/>
-    </row>
-    <row r="736" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO735" s="3"/>
+      <c r="AP735" s="9"/>
+      <c r="AQ735" s="6"/>
+      <c r="AR735" s="12"/>
+      <c r="AS735" s="11"/>
+      <c r="AT735" s="4"/>
+      <c r="AU735" s="16"/>
+    </row>
+    <row r="736" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG736" s="3"/>
       <c r="AH736" s="9"/>
       <c r="AI736" s="6" t="s">
@@ -24809,8 +27675,15 @@
       <c r="AK736" s="11"/>
       <c r="AL736" s="4"/>
       <c r="AM736" s="16"/>
-    </row>
-    <row r="737" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO736" s="3"/>
+      <c r="AP736" s="9"/>
+      <c r="AQ736" s="6"/>
+      <c r="AR736" s="12"/>
+      <c r="AS736" s="11"/>
+      <c r="AT736" s="4"/>
+      <c r="AU736" s="16"/>
+    </row>
+    <row r="737" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG737" s="3"/>
       <c r="AH737" s="9"/>
       <c r="AI737" s="6" t="s">
@@ -24824,8 +27697,15 @@
       </c>
       <c r="AL737" s="4"/>
       <c r="AM737" s="16"/>
-    </row>
-    <row r="738" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO737" s="3"/>
+      <c r="AP737" s="9"/>
+      <c r="AQ737" s="6"/>
+      <c r="AR737" s="12"/>
+      <c r="AS737" s="11"/>
+      <c r="AT737" s="4"/>
+      <c r="AU737" s="16"/>
+    </row>
+    <row r="738" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG738" s="3"/>
       <c r="AH738" s="9"/>
       <c r="AI738" s="6"/>
@@ -24833,8 +27713,15 @@
       <c r="AK738" s="11"/>
       <c r="AL738" s="4"/>
       <c r="AM738" s="16"/>
-    </row>
-    <row r="739" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO738" s="3"/>
+      <c r="AP738" s="9"/>
+      <c r="AQ738" s="6"/>
+      <c r="AR738" s="12"/>
+      <c r="AS738" s="11"/>
+      <c r="AT738" s="4"/>
+      <c r="AU738" s="16"/>
+    </row>
+    <row r="739" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG739" s="3"/>
       <c r="AH739" s="9" t="s">
         <v>214</v>
@@ -24854,8 +27741,15 @@
       <c r="AM739" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="740" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO739" s="3"/>
+      <c r="AP739" s="9"/>
+      <c r="AQ739" s="6"/>
+      <c r="AR739" s="12"/>
+      <c r="AS739" s="11"/>
+      <c r="AT739" s="4"/>
+      <c r="AU739" s="16"/>
+    </row>
+    <row r="740" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG740" s="3"/>
       <c r="AH740" s="9"/>
       <c r="AI740" s="6"/>
@@ -24867,8 +27761,15 @@
       <c r="AM740" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="741" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO740" s="3"/>
+      <c r="AP740" s="9"/>
+      <c r="AQ740" s="6"/>
+      <c r="AR740" s="12"/>
+      <c r="AS740" s="11"/>
+      <c r="AT740" s="4"/>
+      <c r="AU740" s="16"/>
+    </row>
+    <row r="741" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG741" s="3"/>
       <c r="AH741" s="9"/>
       <c r="AI741" s="6"/>
@@ -24880,8 +27781,15 @@
       <c r="AM741" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="742" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO741" s="3"/>
+      <c r="AP741" s="9"/>
+      <c r="AQ741" s="6"/>
+      <c r="AR741" s="12"/>
+      <c r="AS741" s="11"/>
+      <c r="AT741" s="4"/>
+      <c r="AU741" s="16"/>
+    </row>
+    <row r="742" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG742" s="3"/>
       <c r="AH742" s="9"/>
       <c r="AI742" s="6"/>
@@ -24893,8 +27801,15 @@
       <c r="AM742" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="743" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO742" s="3"/>
+      <c r="AP742" s="9"/>
+      <c r="AQ742" s="6"/>
+      <c r="AR742" s="12"/>
+      <c r="AS742" s="11"/>
+      <c r="AT742" s="4"/>
+      <c r="AU742" s="16"/>
+    </row>
+    <row r="743" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG743" s="3"/>
       <c r="AH743" s="9"/>
       <c r="AI743" s="6" t="s">
@@ -24908,8 +27823,15 @@
       </c>
       <c r="AL743" s="4"/>
       <c r="AM743" s="16"/>
-    </row>
-    <row r="744" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO743" s="3"/>
+      <c r="AP743" s="9"/>
+      <c r="AQ743" s="6"/>
+      <c r="AR743" s="12"/>
+      <c r="AS743" s="11"/>
+      <c r="AT743" s="4"/>
+      <c r="AU743" s="16"/>
+    </row>
+    <row r="744" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG744" s="3"/>
       <c r="AH744" s="9"/>
       <c r="AI744" s="6" t="s">
@@ -24921,8 +27843,15 @@
       <c r="AK744" s="11"/>
       <c r="AL744" s="4"/>
       <c r="AM744" s="16"/>
-    </row>
-    <row r="745" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO744" s="3"/>
+      <c r="AP744" s="9"/>
+      <c r="AQ744" s="6"/>
+      <c r="AR744" s="12"/>
+      <c r="AS744" s="11"/>
+      <c r="AT744" s="4"/>
+      <c r="AU744" s="16"/>
+    </row>
+    <row r="745" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG745" s="3"/>
       <c r="AH745" s="9"/>
       <c r="AI745" s="6" t="s">
@@ -24934,8 +27863,15 @@
       <c r="AK745" s="11"/>
       <c r="AL745" s="4"/>
       <c r="AM745" s="16"/>
-    </row>
-    <row r="746" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO745" s="3"/>
+      <c r="AP745" s="9"/>
+      <c r="AQ745" s="6"/>
+      <c r="AR745" s="12"/>
+      <c r="AS745" s="11"/>
+      <c r="AT745" s="4"/>
+      <c r="AU745" s="16"/>
+    </row>
+    <row r="746" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG746" s="3"/>
       <c r="AH746" s="9"/>
       <c r="AI746" s="6" t="s">
@@ -24947,8 +27883,15 @@
       <c r="AK746" s="11"/>
       <c r="AL746" s="4"/>
       <c r="AM746" s="16"/>
-    </row>
-    <row r="747" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO746" s="3"/>
+      <c r="AP746" s="9"/>
+      <c r="AQ746" s="6"/>
+      <c r="AR746" s="12"/>
+      <c r="AS746" s="11"/>
+      <c r="AT746" s="4"/>
+      <c r="AU746" s="16"/>
+    </row>
+    <row r="747" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG747" s="3"/>
       <c r="AH747" s="9"/>
       <c r="AI747" s="6" t="s">
@@ -24960,8 +27903,15 @@
       <c r="AK747" s="11"/>
       <c r="AL747" s="4"/>
       <c r="AM747" s="16"/>
-    </row>
-    <row r="748" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO747" s="3"/>
+      <c r="AP747" s="9"/>
+      <c r="AQ747" s="6"/>
+      <c r="AR747" s="12"/>
+      <c r="AS747" s="11"/>
+      <c r="AT747" s="4"/>
+      <c r="AU747" s="16"/>
+    </row>
+    <row r="748" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG748" s="3"/>
       <c r="AH748" s="9"/>
       <c r="AI748" s="6" t="s">
@@ -24977,8 +27927,15 @@
       <c r="AM748" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="749" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO748" s="3"/>
+      <c r="AP748" s="9"/>
+      <c r="AQ748" s="6"/>
+      <c r="AR748" s="12"/>
+      <c r="AS748" s="11"/>
+      <c r="AT748" s="4"/>
+      <c r="AU748" s="16"/>
+    </row>
+    <row r="749" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG749" s="3"/>
       <c r="AH749" s="9"/>
       <c r="AI749" s="6"/>
@@ -24990,8 +27947,15 @@
       <c r="AM749" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="750" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO749" s="3"/>
+      <c r="AP749" s="9"/>
+      <c r="AQ749" s="6"/>
+      <c r="AR749" s="12"/>
+      <c r="AS749" s="11"/>
+      <c r="AT749" s="4"/>
+      <c r="AU749" s="16"/>
+    </row>
+    <row r="750" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG750" s="3"/>
       <c r="AH750" s="9"/>
       <c r="AI750" s="6" t="s">
@@ -25005,8 +27969,15 @@
       </c>
       <c r="AL750" s="4"/>
       <c r="AM750" s="16"/>
-    </row>
-    <row r="751" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO750" s="3"/>
+      <c r="AP750" s="9"/>
+      <c r="AQ750" s="6"/>
+      <c r="AR750" s="12"/>
+      <c r="AS750" s="11"/>
+      <c r="AT750" s="4"/>
+      <c r="AU750" s="16"/>
+    </row>
+    <row r="751" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG751" s="3"/>
       <c r="AH751" s="9"/>
       <c r="AI751" s="6" t="s">
@@ -25018,8 +27989,15 @@
       <c r="AK751" s="11"/>
       <c r="AL751" s="4"/>
       <c r="AM751" s="16"/>
-    </row>
-    <row r="752" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO751" s="3"/>
+      <c r="AP751" s="9"/>
+      <c r="AQ751" s="6"/>
+      <c r="AR751" s="12"/>
+      <c r="AS751" s="11"/>
+      <c r="AT751" s="4"/>
+      <c r="AU751" s="16"/>
+    </row>
+    <row r="752" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG752" s="3"/>
       <c r="AH752" s="9"/>
       <c r="AI752" s="6" t="s">
@@ -25031,8 +28009,15 @@
       <c r="AK752" s="11"/>
       <c r="AL752" s="4"/>
       <c r="AM752" s="16"/>
-    </row>
-    <row r="753" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO752" s="3"/>
+      <c r="AP752" s="9"/>
+      <c r="AQ752" s="6"/>
+      <c r="AR752" s="12"/>
+      <c r="AS752" s="11"/>
+      <c r="AT752" s="4"/>
+      <c r="AU752" s="16"/>
+    </row>
+    <row r="753" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG753" s="3"/>
       <c r="AH753" s="9"/>
       <c r="AI753" s="6" t="s">
@@ -25044,8 +28029,15 @@
       <c r="AK753" s="11"/>
       <c r="AL753" s="4"/>
       <c r="AM753" s="16"/>
-    </row>
-    <row r="754" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO753" s="3"/>
+      <c r="AP753" s="9"/>
+      <c r="AQ753" s="6"/>
+      <c r="AR753" s="12"/>
+      <c r="AS753" s="11"/>
+      <c r="AT753" s="4"/>
+      <c r="AU753" s="16"/>
+    </row>
+    <row r="754" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG754" s="3"/>
       <c r="AH754" s="9"/>
       <c r="AI754" s="6" t="s">
@@ -25057,8 +28049,15 @@
       <c r="AK754" s="11"/>
       <c r="AL754" s="4"/>
       <c r="AM754" s="16"/>
-    </row>
-    <row r="755" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO754" s="3"/>
+      <c r="AP754" s="9"/>
+      <c r="AQ754" s="6"/>
+      <c r="AR754" s="12"/>
+      <c r="AS754" s="11"/>
+      <c r="AT754" s="4"/>
+      <c r="AU754" s="16"/>
+    </row>
+    <row r="755" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG755" s="3"/>
       <c r="AH755" s="9"/>
       <c r="AI755" s="6" t="s">
@@ -25070,8 +28069,15 @@
       <c r="AK755" s="11"/>
       <c r="AL755" s="4"/>
       <c r="AM755" s="16"/>
-    </row>
-    <row r="756" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO755" s="3"/>
+      <c r="AP755" s="9"/>
+      <c r="AQ755" s="6"/>
+      <c r="AR755" s="12"/>
+      <c r="AS755" s="11"/>
+      <c r="AT755" s="4"/>
+      <c r="AU755" s="16"/>
+    </row>
+    <row r="756" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG756" s="3"/>
       <c r="AH756" s="9"/>
       <c r="AI756" s="6" t="s">
@@ -25085,8 +28091,15 @@
       </c>
       <c r="AL756" s="4"/>
       <c r="AM756" s="16"/>
-    </row>
-    <row r="757" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO756" s="3"/>
+      <c r="AP756" s="9"/>
+      <c r="AQ756" s="6"/>
+      <c r="AR756" s="12"/>
+      <c r="AS756" s="11"/>
+      <c r="AT756" s="4"/>
+      <c r="AU756" s="16"/>
+    </row>
+    <row r="757" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG757" s="3"/>
       <c r="AH757" s="9"/>
       <c r="AI757" s="6"/>
@@ -25094,8 +28107,15 @@
       <c r="AK757" s="11"/>
       <c r="AL757" s="4"/>
       <c r="AM757" s="16"/>
-    </row>
-    <row r="758" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO757" s="3"/>
+      <c r="AP757" s="9"/>
+      <c r="AQ757" s="6"/>
+      <c r="AR757" s="12"/>
+      <c r="AS757" s="11"/>
+      <c r="AT757" s="4"/>
+      <c r="AU757" s="16"/>
+    </row>
+    <row r="758" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG758" s="3"/>
       <c r="AH758" s="9" t="s">
         <v>215</v>
@@ -25111,8 +28131,15 @@
       </c>
       <c r="AL758" s="4"/>
       <c r="AM758" s="16"/>
-    </row>
-    <row r="759" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO758" s="3"/>
+      <c r="AP758" s="9"/>
+      <c r="AQ758" s="6"/>
+      <c r="AR758" s="12"/>
+      <c r="AS758" s="11"/>
+      <c r="AT758" s="4"/>
+      <c r="AU758" s="16"/>
+    </row>
+    <row r="759" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG759" s="3"/>
       <c r="AH759" s="9"/>
       <c r="AI759" s="6" t="s">
@@ -25126,8 +28153,15 @@
       </c>
       <c r="AL759" s="4"/>
       <c r="AM759" s="16"/>
-    </row>
-    <row r="760" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO759" s="3"/>
+      <c r="AP759" s="9"/>
+      <c r="AQ759" s="6"/>
+      <c r="AR759" s="12"/>
+      <c r="AS759" s="11"/>
+      <c r="AT759" s="4"/>
+      <c r="AU759" s="16"/>
+    </row>
+    <row r="760" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG760" s="3"/>
       <c r="AH760" s="9"/>
       <c r="AI760" s="6" t="s">
@@ -25139,8 +28173,15 @@
       <c r="AK760" s="11"/>
       <c r="AL760" s="4"/>
       <c r="AM760" s="16"/>
-    </row>
-    <row r="761" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO760" s="3"/>
+      <c r="AP760" s="9"/>
+      <c r="AQ760" s="6"/>
+      <c r="AR760" s="12"/>
+      <c r="AS760" s="11"/>
+      <c r="AT760" s="4"/>
+      <c r="AU760" s="16"/>
+    </row>
+    <row r="761" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG761" s="3"/>
       <c r="AH761" s="9"/>
       <c r="AI761" s="6" t="s">
@@ -25152,8 +28193,15 @@
       <c r="AK761" s="11"/>
       <c r="AL761" s="4"/>
       <c r="AM761" s="16"/>
-    </row>
-    <row r="762" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO761" s="3"/>
+      <c r="AP761" s="9"/>
+      <c r="AQ761" s="6"/>
+      <c r="AR761" s="12"/>
+      <c r="AS761" s="11"/>
+      <c r="AT761" s="4"/>
+      <c r="AU761" s="16"/>
+    </row>
+    <row r="762" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG762" s="3"/>
       <c r="AH762" s="9"/>
       <c r="AI762" s="6" t="s">
@@ -25165,8 +28213,15 @@
       <c r="AK762" s="11"/>
       <c r="AL762" s="4"/>
       <c r="AM762" s="16"/>
-    </row>
-    <row r="763" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO762" s="3"/>
+      <c r="AP762" s="9"/>
+      <c r="AQ762" s="6"/>
+      <c r="AR762" s="12"/>
+      <c r="AS762" s="11"/>
+      <c r="AT762" s="4"/>
+      <c r="AU762" s="16"/>
+    </row>
+    <row r="763" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG763" s="3"/>
       <c r="AH763" s="9"/>
       <c r="AI763" s="6" t="s">
@@ -25178,8 +28233,15 @@
       <c r="AK763" s="11"/>
       <c r="AL763" s="4"/>
       <c r="AM763" s="16"/>
-    </row>
-    <row r="764" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO763" s="3"/>
+      <c r="AP763" s="9"/>
+      <c r="AQ763" s="6"/>
+      <c r="AR763" s="12"/>
+      <c r="AS763" s="11"/>
+      <c r="AT763" s="4"/>
+      <c r="AU763" s="16"/>
+    </row>
+    <row r="764" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG764" s="3"/>
       <c r="AH764" s="9"/>
       <c r="AI764" s="6" t="s">
@@ -25195,8 +28257,15 @@
       <c r="AM764" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="765" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO764" s="3"/>
+      <c r="AP764" s="9"/>
+      <c r="AQ764" s="6"/>
+      <c r="AR764" s="12"/>
+      <c r="AS764" s="11"/>
+      <c r="AT764" s="4"/>
+      <c r="AU764" s="16"/>
+    </row>
+    <row r="765" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG765" s="3"/>
       <c r="AH765" s="9"/>
       <c r="AI765" s="6"/>
@@ -25208,8 +28277,15 @@
       <c r="AM765" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="766" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO765" s="3"/>
+      <c r="AP765" s="9"/>
+      <c r="AQ765" s="6"/>
+      <c r="AR765" s="12"/>
+      <c r="AS765" s="11"/>
+      <c r="AT765" s="4"/>
+      <c r="AU765" s="16"/>
+    </row>
+    <row r="766" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG766" s="3"/>
       <c r="AH766" s="9"/>
       <c r="AI766" s="6" t="s">
@@ -25223,8 +28299,15 @@
       </c>
       <c r="AL766" s="4"/>
       <c r="AM766" s="16"/>
-    </row>
-    <row r="767" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO766" s="3"/>
+      <c r="AP766" s="9"/>
+      <c r="AQ766" s="6"/>
+      <c r="AR766" s="12"/>
+      <c r="AS766" s="11"/>
+      <c r="AT766" s="4"/>
+      <c r="AU766" s="16"/>
+    </row>
+    <row r="767" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG767" s="3"/>
       <c r="AH767" s="9"/>
       <c r="AI767" s="6" t="s">
@@ -25236,8 +28319,15 @@
       <c r="AK767" s="11"/>
       <c r="AL767" s="4"/>
       <c r="AM767" s="16"/>
-    </row>
-    <row r="768" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO767" s="3"/>
+      <c r="AP767" s="9"/>
+      <c r="AQ767" s="6"/>
+      <c r="AR767" s="12"/>
+      <c r="AS767" s="11"/>
+      <c r="AT767" s="4"/>
+      <c r="AU767" s="16"/>
+    </row>
+    <row r="768" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG768" s="3"/>
       <c r="AH768" s="9"/>
       <c r="AI768" s="6" t="s">
@@ -25253,8 +28343,15 @@
       <c r="AM768" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="769" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO768" s="3"/>
+      <c r="AP768" s="9"/>
+      <c r="AQ768" s="6"/>
+      <c r="AR768" s="12"/>
+      <c r="AS768" s="11"/>
+      <c r="AT768" s="4"/>
+      <c r="AU768" s="16"/>
+    </row>
+    <row r="769" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG769" s="3"/>
       <c r="AH769" s="9"/>
       <c r="AI769" s="6"/>
@@ -25266,8 +28363,15 @@
       <c r="AM769" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="770" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO769" s="3"/>
+      <c r="AP769" s="9"/>
+      <c r="AQ769" s="6"/>
+      <c r="AR769" s="12"/>
+      <c r="AS769" s="11"/>
+      <c r="AT769" s="4"/>
+      <c r="AU769" s="16"/>
+    </row>
+    <row r="770" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG770" s="3"/>
       <c r="AH770" s="9"/>
       <c r="AI770" s="6" t="s">
@@ -25279,8 +28383,15 @@
       <c r="AK770" s="11"/>
       <c r="AL770" s="4"/>
       <c r="AM770" s="16"/>
-    </row>
-    <row r="771" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO770" s="3"/>
+      <c r="AP770" s="9"/>
+      <c r="AQ770" s="6"/>
+      <c r="AR770" s="12"/>
+      <c r="AS770" s="11"/>
+      <c r="AT770" s="4"/>
+      <c r="AU770" s="16"/>
+    </row>
+    <row r="771" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG771" s="3"/>
       <c r="AH771" s="9"/>
       <c r="AI771" s="6" t="s">
@@ -25292,8 +28403,15 @@
       <c r="AK771" s="11"/>
       <c r="AL771" s="4"/>
       <c r="AM771" s="16"/>
-    </row>
-    <row r="772" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO771" s="3"/>
+      <c r="AP771" s="9"/>
+      <c r="AQ771" s="6"/>
+      <c r="AR771" s="12"/>
+      <c r="AS771" s="11"/>
+      <c r="AT771" s="4"/>
+      <c r="AU771" s="16"/>
+    </row>
+    <row r="772" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG772" s="3"/>
       <c r="AH772" s="9"/>
       <c r="AI772" s="6" t="s">
@@ -25305,8 +28423,15 @@
       <c r="AK772" s="11"/>
       <c r="AL772" s="4"/>
       <c r="AM772" s="16"/>
-    </row>
-    <row r="773" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO772" s="3"/>
+      <c r="AP772" s="9"/>
+      <c r="AQ772" s="6"/>
+      <c r="AR772" s="12"/>
+      <c r="AS772" s="11"/>
+      <c r="AT772" s="4"/>
+      <c r="AU772" s="16"/>
+    </row>
+    <row r="773" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG773" s="3"/>
       <c r="AH773" s="9"/>
       <c r="AI773" s="6" t="s">
@@ -25320,8 +28445,15 @@
       </c>
       <c r="AL773" s="4"/>
       <c r="AM773" s="16"/>
-    </row>
-    <row r="774" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO773" s="3"/>
+      <c r="AP773" s="9"/>
+      <c r="AQ773" s="6"/>
+      <c r="AR773" s="12"/>
+      <c r="AS773" s="11"/>
+      <c r="AT773" s="4"/>
+      <c r="AU773" s="16"/>
+    </row>
+    <row r="774" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG774" s="3"/>
       <c r="AH774" s="9"/>
       <c r="AI774" s="6"/>
@@ -25329,8 +28461,15 @@
       <c r="AK774" s="11"/>
       <c r="AL774" s="4"/>
       <c r="AM774" s="16"/>
-    </row>
-    <row r="775" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO774" s="3"/>
+      <c r="AP774" s="9"/>
+      <c r="AQ774" s="6"/>
+      <c r="AR774" s="12"/>
+      <c r="AS774" s="11"/>
+      <c r="AT774" s="4"/>
+      <c r="AU774" s="16"/>
+    </row>
+    <row r="775" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG775" s="3"/>
       <c r="AH775" s="9"/>
       <c r="AI775" s="6"/>
@@ -25338,8 +28477,15 @@
       <c r="AK775" s="11"/>
       <c r="AL775" s="4"/>
       <c r="AM775" s="16"/>
-    </row>
-    <row r="776" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO775" s="3"/>
+      <c r="AP775" s="9"/>
+      <c r="AQ775" s="6"/>
+      <c r="AR775" s="12"/>
+      <c r="AS775" s="11"/>
+      <c r="AT775" s="4"/>
+      <c r="AU775" s="16"/>
+    </row>
+    <row r="776" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG776" s="3"/>
       <c r="AH776" s="9"/>
       <c r="AI776" s="6"/>
@@ -25347,8 +28493,15 @@
       <c r="AK776" s="11"/>
       <c r="AL776" s="4"/>
       <c r="AM776" s="16"/>
-    </row>
-    <row r="777" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO776" s="3"/>
+      <c r="AP776" s="9"/>
+      <c r="AQ776" s="6"/>
+      <c r="AR776" s="12"/>
+      <c r="AS776" s="11"/>
+      <c r="AT776" s="4"/>
+      <c r="AU776" s="16"/>
+    </row>
+    <row r="777" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG777" s="3"/>
       <c r="AH777" s="9"/>
       <c r="AI777" s="6"/>
@@ -25356,8 +28509,15 @@
       <c r="AK777" s="11"/>
       <c r="AL777" s="4"/>
       <c r="AM777" s="16"/>
-    </row>
-    <row r="778" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO777" s="3"/>
+      <c r="AP777" s="9"/>
+      <c r="AQ777" s="6"/>
+      <c r="AR777" s="12"/>
+      <c r="AS777" s="11"/>
+      <c r="AT777" s="4"/>
+      <c r="AU777" s="16"/>
+    </row>
+    <row r="778" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG778" s="3"/>
       <c r="AH778" s="9"/>
       <c r="AI778" s="6"/>
@@ -25365,8 +28525,15 @@
       <c r="AK778" s="11"/>
       <c r="AL778" s="4"/>
       <c r="AM778" s="16"/>
-    </row>
-    <row r="779" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO778" s="3"/>
+      <c r="AP778" s="9"/>
+      <c r="AQ778" s="6"/>
+      <c r="AR778" s="12"/>
+      <c r="AS778" s="11"/>
+      <c r="AT778" s="4"/>
+      <c r="AU778" s="16"/>
+    </row>
+    <row r="779" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG779" s="3"/>
       <c r="AH779" s="9"/>
       <c r="AI779" s="6"/>
@@ -25374,8 +28541,15 @@
       <c r="AK779" s="11"/>
       <c r="AL779" s="4"/>
       <c r="AM779" s="16"/>
-    </row>
-    <row r="780" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO779" s="3"/>
+      <c r="AP779" s="9"/>
+      <c r="AQ779" s="6"/>
+      <c r="AR779" s="12"/>
+      <c r="AS779" s="11"/>
+      <c r="AT779" s="4"/>
+      <c r="AU779" s="16"/>
+    </row>
+    <row r="780" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG780" s="3"/>
       <c r="AH780" s="9"/>
       <c r="AI780" s="6"/>
@@ -25383,8 +28557,15 @@
       <c r="AK780" s="11"/>
       <c r="AL780" s="4"/>
       <c r="AM780" s="16"/>
-    </row>
-    <row r="781" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO780" s="3"/>
+      <c r="AP780" s="9"/>
+      <c r="AQ780" s="6"/>
+      <c r="AR780" s="12"/>
+      <c r="AS780" s="11"/>
+      <c r="AT780" s="4"/>
+      <c r="AU780" s="16"/>
+    </row>
+    <row r="781" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG781" s="3"/>
       <c r="AH781" s="9"/>
       <c r="AI781" s="6"/>
@@ -25392,8 +28573,15 @@
       <c r="AK781" s="11"/>
       <c r="AL781" s="4"/>
       <c r="AM781" s="16"/>
-    </row>
-    <row r="782" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO781" s="3"/>
+      <c r="AP781" s="9"/>
+      <c r="AQ781" s="6"/>
+      <c r="AR781" s="12"/>
+      <c r="AS781" s="11"/>
+      <c r="AT781" s="4"/>
+      <c r="AU781" s="16"/>
+    </row>
+    <row r="782" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG782" s="3"/>
       <c r="AH782" s="9"/>
       <c r="AI782" s="6"/>
@@ -25401,8 +28589,15 @@
       <c r="AK782" s="11"/>
       <c r="AL782" s="4"/>
       <c r="AM782" s="16"/>
-    </row>
-    <row r="783" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO782" s="3"/>
+      <c r="AP782" s="9"/>
+      <c r="AQ782" s="6"/>
+      <c r="AR782" s="12"/>
+      <c r="AS782" s="11"/>
+      <c r="AT782" s="4"/>
+      <c r="AU782" s="16"/>
+    </row>
+    <row r="783" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG783" s="3"/>
       <c r="AH783" s="9"/>
       <c r="AI783" s="6"/>
@@ -25410,8 +28605,15 @@
       <c r="AK783" s="11"/>
       <c r="AL783" s="4"/>
       <c r="AM783" s="16"/>
-    </row>
-    <row r="784" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO783" s="3"/>
+      <c r="AP783" s="9"/>
+      <c r="AQ783" s="6"/>
+      <c r="AR783" s="12"/>
+      <c r="AS783" s="11"/>
+      <c r="AT783" s="4"/>
+      <c r="AU783" s="16"/>
+    </row>
+    <row r="784" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG784" s="3"/>
       <c r="AH784" s="9"/>
       <c r="AI784" s="6"/>
@@ -25419,8 +28621,15 @@
       <c r="AK784" s="11"/>
       <c r="AL784" s="4"/>
       <c r="AM784" s="16"/>
-    </row>
-    <row r="785" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO784" s="3"/>
+      <c r="AP784" s="9"/>
+      <c r="AQ784" s="6"/>
+      <c r="AR784" s="12"/>
+      <c r="AS784" s="11"/>
+      <c r="AT784" s="4"/>
+      <c r="AU784" s="16"/>
+    </row>
+    <row r="785" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG785" s="3"/>
       <c r="AH785" s="9"/>
       <c r="AI785" s="6"/>
@@ -25428,8 +28637,15 @@
       <c r="AK785" s="11"/>
       <c r="AL785" s="4"/>
       <c r="AM785" s="16"/>
-    </row>
-    <row r="786" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO785" s="3"/>
+      <c r="AP785" s="9"/>
+      <c r="AQ785" s="6"/>
+      <c r="AR785" s="12"/>
+      <c r="AS785" s="11"/>
+      <c r="AT785" s="4"/>
+      <c r="AU785" s="16"/>
+    </row>
+    <row r="786" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG786" s="3"/>
       <c r="AH786" s="9"/>
       <c r="AI786" s="6"/>
@@ -25437,8 +28653,15 @@
       <c r="AK786" s="11"/>
       <c r="AL786" s="4"/>
       <c r="AM786" s="16"/>
-    </row>
-    <row r="787" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO786" s="3"/>
+      <c r="AP786" s="9"/>
+      <c r="AQ786" s="6"/>
+      <c r="AR786" s="12"/>
+      <c r="AS786" s="11"/>
+      <c r="AT786" s="4"/>
+      <c r="AU786" s="16"/>
+    </row>
+    <row r="787" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG787" s="3"/>
       <c r="AH787" s="9"/>
       <c r="AI787" s="6"/>
@@ -25446,8 +28669,15 @@
       <c r="AK787" s="11"/>
       <c r="AL787" s="4"/>
       <c r="AM787" s="16"/>
-    </row>
-    <row r="788" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO787" s="3"/>
+      <c r="AP787" s="9"/>
+      <c r="AQ787" s="6"/>
+      <c r="AR787" s="12"/>
+      <c r="AS787" s="11"/>
+      <c r="AT787" s="4"/>
+      <c r="AU787" s="16"/>
+    </row>
+    <row r="788" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG788" s="3"/>
       <c r="AH788" s="9"/>
       <c r="AI788" s="6"/>
@@ -25455,8 +28685,15 @@
       <c r="AK788" s="11"/>
       <c r="AL788" s="4"/>
       <c r="AM788" s="16"/>
-    </row>
-    <row r="789" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO788" s="3"/>
+      <c r="AP788" s="9"/>
+      <c r="AQ788" s="6"/>
+      <c r="AR788" s="12"/>
+      <c r="AS788" s="11"/>
+      <c r="AT788" s="4"/>
+      <c r="AU788" s="16"/>
+    </row>
+    <row r="789" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG789" s="3"/>
       <c r="AH789" s="9"/>
       <c r="AI789" s="6"/>
@@ -25464,6 +28701,31 @@
       <c r="AK789" s="11"/>
       <c r="AL789" s="4"/>
       <c r="AM789" s="16"/>
+      <c r="AO789" s="3"/>
+      <c r="AP789" s="9"/>
+      <c r="AQ789" s="6"/>
+      <c r="AR789" s="12"/>
+      <c r="AS789" s="11"/>
+      <c r="AT789" s="4"/>
+      <c r="AU789" s="16"/>
+    </row>
+    <row r="790" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AO790" s="3"/>
+      <c r="AP790" s="9"/>
+      <c r="AQ790" s="6"/>
+      <c r="AR790" s="12"/>
+      <c r="AS790" s="11"/>
+      <c r="AT790" s="4"/>
+      <c r="AU790" s="16"/>
+    </row>
+    <row r="791" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AO791" s="3"/>
+      <c r="AP791" s="9"/>
+      <c r="AQ791" s="6"/>
+      <c r="AR791" s="12"/>
+      <c r="AS791" s="11"/>
+      <c r="AT791" s="4"/>
+      <c r="AU791" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09862B7E-836A-4079-900B-A54F84167BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A646C1-671F-4D6D-9175-A33C54107E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="3300" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="243">
   <si>
     <t>ClassNames</t>
   </si>
@@ -730,6 +730,42 @@
   <si>
     <t>2CLG-COUC</t>
   </si>
+  <si>
+    <t>1CA-COUC</t>
+  </si>
+  <si>
+    <t>1CB-COUC</t>
+  </si>
+  <si>
+    <t>choix 2 parmi FR, DE, EN</t>
+  </si>
+  <si>
+    <t>1CC-COUC</t>
+  </si>
+  <si>
+    <t>choix ECO, HISTO</t>
+  </si>
+  <si>
+    <t>1CD-COUC</t>
+  </si>
+  <si>
+    <t>Socom</t>
+  </si>
+  <si>
+    <t>1CE-COUC</t>
+  </si>
+  <si>
+    <t>1CF-COUC</t>
+  </si>
+  <si>
+    <t>Musique/Analyse</t>
+  </si>
+  <si>
+    <t>Chorale/Instrument</t>
+  </si>
+  <si>
+    <t>1CG-COUC</t>
+  </si>
 </sst>
 </file>
 
@@ -1203,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:BC791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI620" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP645" sqref="AP645"/>
+    <sheetView tabSelected="1" topLeftCell="AN359" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW395" sqref="AW395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1264,7 @@
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" style="20"/>
     <col min="50" max="50" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.7109375" style="20"/>
   </cols>
@@ -17314,10 +17350,18 @@
         <v>0.5</v>
       </c>
       <c r="AW317" s="3"/>
-      <c r="AX317" s="9"/>
-      <c r="AY317" s="6"/>
-      <c r="AZ317" s="12"/>
-      <c r="BA317" s="11"/>
+      <c r="AX317" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY317" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ317" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA317" s="11">
+        <v>4</v>
+      </c>
       <c r="BB317" s="4"/>
       <c r="BC317" s="16"/>
     </row>
@@ -17346,8 +17390,12 @@
       </c>
       <c r="AW318" s="3"/>
       <c r="AX318" s="9"/>
-      <c r="AY318" s="6"/>
-      <c r="AZ318" s="12"/>
+      <c r="AY318" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ318" s="12">
+        <v>5</v>
+      </c>
       <c r="BA318" s="11"/>
       <c r="BB318" s="4"/>
       <c r="BC318" s="16"/>
@@ -17377,8 +17425,12 @@
       <c r="AU319" s="16"/>
       <c r="AW319" s="3"/>
       <c r="AX319" s="9"/>
-      <c r="AY319" s="6"/>
-      <c r="AZ319" s="12"/>
+      <c r="AY319" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ319" s="12">
+        <v>5</v>
+      </c>
       <c r="BA319" s="11"/>
       <c r="BB319" s="4"/>
       <c r="BC319" s="16"/>
@@ -17410,8 +17462,12 @@
       <c r="AU320" s="16"/>
       <c r="AW320" s="3"/>
       <c r="AX320" s="9"/>
-      <c r="AY320" s="6"/>
-      <c r="AZ320" s="12"/>
+      <c r="AY320" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ320" s="12">
+        <v>5</v>
+      </c>
       <c r="BA320" s="11"/>
       <c r="BB320" s="4"/>
       <c r="BC320" s="16"/>
@@ -17441,9 +17497,15 @@
       <c r="AU321" s="16"/>
       <c r="AW321" s="3"/>
       <c r="AX321" s="9"/>
-      <c r="AY321" s="6"/>
-      <c r="AZ321" s="12"/>
-      <c r="BA321" s="11"/>
+      <c r="AY321" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ321" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA321" s="11">
+        <v>3</v>
+      </c>
       <c r="BB321" s="4"/>
       <c r="BC321" s="16"/>
     </row>
@@ -17470,9 +17532,15 @@
       <c r="AU322" s="16"/>
       <c r="AW322" s="3"/>
       <c r="AX322" s="9"/>
-      <c r="AY322" s="6"/>
-      <c r="AZ322" s="12"/>
-      <c r="BA322" s="11"/>
+      <c r="AY322" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ322" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA322" s="11">
+        <v>2</v>
+      </c>
       <c r="BB322" s="4"/>
       <c r="BC322" s="16"/>
     </row>
@@ -17501,8 +17569,12 @@
       <c r="AU323" s="16"/>
       <c r="AW323" s="3"/>
       <c r="AX323" s="9"/>
-      <c r="AY323" s="6"/>
-      <c r="AZ323" s="12"/>
+      <c r="AY323" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ323" s="12">
+        <v>2</v>
+      </c>
       <c r="BA323" s="11"/>
       <c r="BB323" s="4"/>
       <c r="BC323" s="16"/>
@@ -17538,8 +17610,12 @@
       <c r="AU324" s="16"/>
       <c r="AW324" s="3"/>
       <c r="AX324" s="9"/>
-      <c r="AY324" s="6"/>
-      <c r="AZ324" s="12"/>
+      <c r="AY324" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ324" s="12">
+        <v>2</v>
+      </c>
       <c r="BA324" s="11"/>
       <c r="BB324" s="4"/>
       <c r="BC324" s="16"/>
@@ -17569,9 +17645,15 @@
       <c r="AU325" s="16"/>
       <c r="AW325" s="3"/>
       <c r="AX325" s="9"/>
-      <c r="AY325" s="6"/>
-      <c r="AZ325" s="12"/>
-      <c r="BA325" s="11"/>
+      <c r="AY325" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ325" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA325" s="11">
+        <v>1</v>
+      </c>
       <c r="BB325" s="4"/>
       <c r="BC325" s="16"/>
     </row>
@@ -17629,13 +17711,27 @@
       <c r="AS327" s="11"/>
       <c r="AT327" s="4"/>
       <c r="AU327" s="16"/>
-      <c r="AW327" s="3"/>
-      <c r="AX327" s="9"/>
-      <c r="AY327" s="6"/>
-      <c r="AZ327" s="12"/>
-      <c r="BA327" s="11"/>
-      <c r="BB327" s="4"/>
-      <c r="BC327" s="16"/>
+      <c r="AW327" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX327" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY327" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ327" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA327" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB327" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC327" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="328" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG328" s="3"/>
@@ -17660,13 +17756,19 @@
       <c r="AS328" s="11"/>
       <c r="AT328" s="4"/>
       <c r="AU328" s="16"/>
-      <c r="AW328" s="3"/>
+      <c r="AW328" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="AX328" s="9"/>
       <c r="AY328" s="6"/>
       <c r="AZ328" s="12"/>
       <c r="BA328" s="11"/>
-      <c r="BB328" s="4"/>
-      <c r="BC328" s="16"/>
+      <c r="BB328" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC328" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="329" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG329" s="3"/>
@@ -17697,9 +17799,15 @@
       <c r="AU329" s="16"/>
       <c r="AW329" s="3"/>
       <c r="AX329" s="9"/>
-      <c r="AY329" s="6"/>
-      <c r="AZ329" s="12"/>
-      <c r="BA329" s="11"/>
+      <c r="AY329" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ329" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA329" s="11">
+        <v>3</v>
+      </c>
       <c r="BB329" s="4"/>
       <c r="BC329" s="16"/>
     </row>
@@ -17732,8 +17840,12 @@
       <c r="AU330" s="16"/>
       <c r="AW330" s="3"/>
       <c r="AX330" s="9"/>
-      <c r="AY330" s="6"/>
-      <c r="AZ330" s="12"/>
+      <c r="AY330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ330" s="12">
+        <v>3</v>
+      </c>
       <c r="BA330" s="11"/>
       <c r="BB330" s="4"/>
       <c r="BC330" s="16"/>
@@ -17763,8 +17875,12 @@
       <c r="AU331" s="16"/>
       <c r="AW331" s="3"/>
       <c r="AX331" s="9"/>
-      <c r="AY331" s="6"/>
-      <c r="AZ331" s="12"/>
+      <c r="AY331" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ331" s="12">
+        <v>3</v>
+      </c>
       <c r="BA331" s="11"/>
       <c r="BB331" s="4"/>
       <c r="BC331" s="16"/>
@@ -17800,8 +17916,12 @@
       </c>
       <c r="AW332" s="3"/>
       <c r="AX332" s="9"/>
-      <c r="AY332" s="6"/>
-      <c r="AZ332" s="12"/>
+      <c r="AY332" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ332" s="12">
+        <v>4</v>
+      </c>
       <c r="BA332" s="11"/>
       <c r="BB332" s="4"/>
       <c r="BC332" s="16"/>
@@ -17831,8 +17951,12 @@
       </c>
       <c r="AW333" s="3"/>
       <c r="AX333" s="9"/>
-      <c r="AY333" s="6"/>
-      <c r="AZ333" s="12"/>
+      <c r="AY333" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ333" s="12">
+        <v>4</v>
+      </c>
       <c r="BA333" s="11"/>
       <c r="BB333" s="4"/>
       <c r="BC333" s="16"/>
@@ -17860,6 +17984,17 @@
       <c r="AS334" s="11"/>
       <c r="AT334" s="4"/>
       <c r="AU334" s="16"/>
+      <c r="AW334" s="3"/>
+      <c r="AX334" s="9"/>
+      <c r="AY334" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ334" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA334" s="11"/>
+      <c r="BB334" s="4"/>
+      <c r="BC334" s="16"/>
     </row>
     <row r="335" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG335" s="3"/>
@@ -17884,6 +18019,19 @@
       <c r="AS335" s="11"/>
       <c r="AT335" s="4"/>
       <c r="AU335" s="16"/>
+      <c r="AW335" s="3"/>
+      <c r="AX335" s="9"/>
+      <c r="AY335" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ335" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA335" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB335" s="4"/>
+      <c r="BC335" s="16"/>
     </row>
     <row r="336" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG336" s="3"/>
@@ -17908,8 +18056,19 @@
       <c r="AS336" s="11"/>
       <c r="AT336" s="4"/>
       <c r="AU336" s="16"/>
-    </row>
-    <row r="337" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW336" s="3"/>
+      <c r="AX336" s="9"/>
+      <c r="AY336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ336" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA336" s="11"/>
+      <c r="BB336" s="4"/>
+      <c r="BC336" s="16"/>
+    </row>
+    <row r="337" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG337" s="3"/>
       <c r="AH337" s="9"/>
       <c r="AI337" s="6" t="s">
@@ -17936,8 +18095,19 @@
       </c>
       <c r="AT337" s="4"/>
       <c r="AU337" s="16"/>
-    </row>
-    <row r="338" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW337" s="3"/>
+      <c r="AX337" s="9"/>
+      <c r="AY337" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ337" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA337" s="11"/>
+      <c r="BB337" s="4"/>
+      <c r="BC337" s="16"/>
+    </row>
+    <row r="338" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG338" s="3"/>
       <c r="AH338" s="9"/>
       <c r="AI338" s="6" t="s">
@@ -17956,8 +18126,19 @@
       <c r="AS338" s="11"/>
       <c r="AT338" s="4"/>
       <c r="AU338" s="16"/>
-    </row>
-    <row r="339" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW338" s="3"/>
+      <c r="AX338" s="9"/>
+      <c r="AY338" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ338" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA338" s="11"/>
+      <c r="BB338" s="4"/>
+      <c r="BC338" s="16"/>
+    </row>
+    <row r="339" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG339" s="3"/>
       <c r="AH339" s="9"/>
       <c r="AI339" s="6"/>
@@ -17980,8 +18161,21 @@
       </c>
       <c r="AT339" s="4"/>
       <c r="AU339" s="16"/>
-    </row>
-    <row r="340" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW339" s="3"/>
+      <c r="AX339" s="9"/>
+      <c r="AY339" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ339" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA339" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB339" s="4"/>
+      <c r="BC339" s="16"/>
+    </row>
+    <row r="340" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG340" s="3"/>
       <c r="AH340" s="9" t="s">
         <v>140</v>
@@ -18008,8 +18202,15 @@
       <c r="AS340" s="11"/>
       <c r="AT340" s="4"/>
       <c r="AU340" s="16"/>
-    </row>
-    <row r="341" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW340" s="3"/>
+      <c r="AX340" s="9"/>
+      <c r="AY340" s="6"/>
+      <c r="AZ340" s="12"/>
+      <c r="BA340" s="11"/>
+      <c r="BB340" s="4"/>
+      <c r="BC340" s="16"/>
+    </row>
+    <row r="341" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG341" s="3"/>
       <c r="AH341" s="9"/>
       <c r="AI341" s="6" t="s">
@@ -18032,8 +18233,25 @@
       <c r="AS341" s="11"/>
       <c r="AT341" s="4"/>
       <c r="AU341" s="16"/>
-    </row>
-    <row r="342" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW341" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX341" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY341" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ341" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA341" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB341" s="4"/>
+      <c r="BC341" s="16"/>
+    </row>
+    <row r="342" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG342" s="3"/>
       <c r="AH342" s="9"/>
       <c r="AI342" s="6" t="s">
@@ -18056,8 +18274,23 @@
       <c r="AS342" s="11"/>
       <c r="AT342" s="4"/>
       <c r="AU342" s="16"/>
-    </row>
-    <row r="343" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW342" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX342" s="9"/>
+      <c r="AY342" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ342" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA342" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB342" s="4"/>
+      <c r="BC342" s="16"/>
+    </row>
+    <row r="343" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG343" s="3"/>
       <c r="AH343" s="9"/>
       <c r="AI343" s="6" t="s">
@@ -18082,8 +18315,19 @@
       </c>
       <c r="AT343" s="4"/>
       <c r="AU343" s="16"/>
-    </row>
-    <row r="344" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW343" s="3"/>
+      <c r="AX343" s="9"/>
+      <c r="AY343" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ343" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA343" s="11"/>
+      <c r="BB343" s="4"/>
+      <c r="BC343" s="16"/>
+    </row>
+    <row r="344" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG344" s="3"/>
       <c r="AH344" s="9"/>
       <c r="AI344" s="6" t="s">
@@ -18106,8 +18350,19 @@
       <c r="AS344" s="11"/>
       <c r="AT344" s="4"/>
       <c r="AU344" s="16"/>
-    </row>
-    <row r="345" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW344" s="3"/>
+      <c r="AX344" s="9"/>
+      <c r="AY344" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ344" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA344" s="11"/>
+      <c r="BB344" s="4"/>
+      <c r="BC344" s="16"/>
+    </row>
+    <row r="345" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG345" s="3"/>
       <c r="AH345" s="9"/>
       <c r="AI345" s="6" t="s">
@@ -18132,8 +18387,19 @@
       <c r="AS345" s="11"/>
       <c r="AT345" s="4"/>
       <c r="AU345" s="16"/>
-    </row>
-    <row r="346" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW345" s="3"/>
+      <c r="AX345" s="9"/>
+      <c r="AY345" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ345" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA345" s="11"/>
+      <c r="BB345" s="4"/>
+      <c r="BC345" s="16"/>
+    </row>
+    <row r="346" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG346" s="3"/>
       <c r="AH346" s="9"/>
       <c r="AI346" s="6" t="s">
@@ -18166,8 +18432,19 @@
       <c r="AU346" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="347" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW346" s="3"/>
+      <c r="AX346" s="9"/>
+      <c r="AY346" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ346" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA346" s="11"/>
+      <c r="BB346" s="4"/>
+      <c r="BC346" s="16"/>
+    </row>
+    <row r="347" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG347" s="3"/>
       <c r="AH347" s="9"/>
       <c r="AI347" s="6"/>
@@ -18190,8 +18467,19 @@
       <c r="AU347" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="348" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW347" s="3"/>
+      <c r="AX347" s="9"/>
+      <c r="AY347" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ347" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA347" s="11"/>
+      <c r="BB347" s="4"/>
+      <c r="BC347" s="16"/>
+    </row>
+    <row r="348" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG348" s="3"/>
       <c r="AH348" s="9"/>
       <c r="AI348" s="6" t="s">
@@ -18214,8 +18502,21 @@
       <c r="AS348" s="11"/>
       <c r="AT348" s="4"/>
       <c r="AU348" s="16"/>
-    </row>
-    <row r="349" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW348" s="3"/>
+      <c r="AX348" s="9"/>
+      <c r="AY348" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ348" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA348" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB348" s="4"/>
+      <c r="BC348" s="16"/>
+    </row>
+    <row r="349" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG349" s="3"/>
       <c r="AH349" s="9"/>
       <c r="AI349" s="6" t="s">
@@ -18238,8 +18539,19 @@
       <c r="AS349" s="11"/>
       <c r="AT349" s="4"/>
       <c r="AU349" s="16"/>
-    </row>
-    <row r="350" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW349" s="3"/>
+      <c r="AX349" s="9"/>
+      <c r="AY349" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ349" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA349" s="11"/>
+      <c r="BB349" s="4"/>
+      <c r="BC349" s="16"/>
+    </row>
+    <row r="350" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG350" s="3"/>
       <c r="AH350" s="9"/>
       <c r="AI350" s="6" t="s">
@@ -18262,8 +18574,19 @@
       <c r="AS350" s="11"/>
       <c r="AT350" s="4"/>
       <c r="AU350" s="16"/>
-    </row>
-    <row r="351" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW350" s="3"/>
+      <c r="AX350" s="9"/>
+      <c r="AY350" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ350" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA350" s="11"/>
+      <c r="BB350" s="4"/>
+      <c r="BC350" s="16"/>
+    </row>
+    <row r="351" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG351" s="3"/>
       <c r="AH351" s="9"/>
       <c r="AI351" s="6" t="s">
@@ -18288,8 +18611,19 @@
       </c>
       <c r="AT351" s="4"/>
       <c r="AU351" s="16"/>
-    </row>
-    <row r="352" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW351" s="3"/>
+      <c r="AX351" s="9"/>
+      <c r="AY351" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ351" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA351" s="11"/>
+      <c r="BB351" s="4"/>
+      <c r="BC351" s="16"/>
+    </row>
+    <row r="352" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG352" s="3"/>
       <c r="AH352" s="9"/>
       <c r="AI352" s="6" t="s">
@@ -18308,8 +18642,21 @@
       <c r="AS352" s="11"/>
       <c r="AT352" s="4"/>
       <c r="AU352" s="16"/>
-    </row>
-    <row r="353" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW352" s="3"/>
+      <c r="AX352" s="9"/>
+      <c r="AY352" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ352" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA352" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB352" s="4"/>
+      <c r="BC352" s="16"/>
+    </row>
+    <row r="353" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG353" s="3"/>
       <c r="AH353" s="9"/>
       <c r="AI353" s="6" t="s">
@@ -18338,8 +18685,15 @@
       </c>
       <c r="AT353" s="4"/>
       <c r="AU353" s="16"/>
-    </row>
-    <row r="354" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW353" s="3"/>
+      <c r="AX353" s="9"/>
+      <c r="AY353" s="6"/>
+      <c r="AZ353" s="12"/>
+      <c r="BA353" s="11"/>
+      <c r="BB353" s="4"/>
+      <c r="BC353" s="16"/>
+    </row>
+    <row r="354" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG354" s="3"/>
       <c r="AH354" s="9"/>
       <c r="AI354" s="6" t="s">
@@ -18364,8 +18718,23 @@
       </c>
       <c r="AT354" s="4"/>
       <c r="AU354" s="16"/>
-    </row>
-    <row r="355" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW354" s="3"/>
+      <c r="AX354" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY354" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ354" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA354" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB354" s="4"/>
+      <c r="BC354" s="16"/>
+    </row>
+    <row r="355" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG355" s="3"/>
       <c r="AH355" s="9"/>
       <c r="AI355" s="6"/>
@@ -18384,8 +18753,21 @@
       <c r="AS355" s="11"/>
       <c r="AT355" s="4"/>
       <c r="AU355" s="16"/>
-    </row>
-    <row r="356" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW355" s="3"/>
+      <c r="AX355" s="9"/>
+      <c r="AY355" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ355" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA355" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB355" s="4"/>
+      <c r="BC355" s="16"/>
+    </row>
+    <row r="356" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG356" s="3"/>
       <c r="AH356" s="9" t="s">
         <v>154</v>
@@ -18412,8 +18794,19 @@
       <c r="AS356" s="11"/>
       <c r="AT356" s="4"/>
       <c r="AU356" s="16"/>
-    </row>
-    <row r="357" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW356" s="3"/>
+      <c r="AX356" s="9"/>
+      <c r="AY356" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ356" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA356" s="11"/>
+      <c r="BB356" s="4"/>
+      <c r="BC356" s="16"/>
+    </row>
+    <row r="357" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG357" s="3"/>
       <c r="AH357" s="9"/>
       <c r="AI357" s="6" t="s">
@@ -18442,8 +18835,19 @@
       <c r="AU357" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="358" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW357" s="3"/>
+      <c r="AX357" s="9"/>
+      <c r="AY357" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ357" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA357" s="11"/>
+      <c r="BB357" s="4"/>
+      <c r="BC357" s="16"/>
+    </row>
+    <row r="358" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG358" s="3"/>
       <c r="AH358" s="9"/>
       <c r="AI358" s="6" t="s">
@@ -18466,8 +18870,19 @@
       <c r="AU358" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="359" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW358" s="3"/>
+      <c r="AX358" s="9"/>
+      <c r="AY358" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ358" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA358" s="11"/>
+      <c r="BB358" s="4"/>
+      <c r="BC358" s="16"/>
+    </row>
+    <row r="359" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG359" s="3"/>
       <c r="AH359" s="9"/>
       <c r="AI359" s="6" t="s">
@@ -18492,8 +18907,23 @@
       </c>
       <c r="AT359" s="4"/>
       <c r="AU359" s="16"/>
-    </row>
-    <row r="360" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW359" s="3"/>
+      <c r="AX359" s="9"/>
+      <c r="AY359" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ359" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA359" s="11"/>
+      <c r="BB359" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC359" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG360" s="3"/>
       <c r="AH360" s="9"/>
       <c r="AI360" s="6" t="s">
@@ -18516,8 +18946,19 @@
       <c r="AS360" s="11"/>
       <c r="AT360" s="4"/>
       <c r="AU360" s="16"/>
-    </row>
-    <row r="361" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW360" s="3"/>
+      <c r="AX360" s="9"/>
+      <c r="AY360" s="6"/>
+      <c r="AZ360" s="12"/>
+      <c r="BA360" s="11"/>
+      <c r="BB360" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC360" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="361" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG361" s="3"/>
       <c r="AH361" s="9"/>
       <c r="AI361" s="6" t="s">
@@ -18542,8 +18983,21 @@
       <c r="AS361" s="11"/>
       <c r="AT361" s="4"/>
       <c r="AU361" s="16"/>
-    </row>
-    <row r="362" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW361" s="3"/>
+      <c r="AX361" s="9"/>
+      <c r="AY361" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ361" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA361" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB361" s="4"/>
+      <c r="BC361" s="16"/>
+    </row>
+    <row r="362" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG362" s="3"/>
       <c r="AH362" s="9"/>
       <c r="AI362" s="6" t="s">
@@ -18566,8 +19020,19 @@
       <c r="AS362" s="11"/>
       <c r="AT362" s="4"/>
       <c r="AU362" s="16"/>
-    </row>
-    <row r="363" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW362" s="3"/>
+      <c r="AX362" s="9"/>
+      <c r="AY362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ362" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA362" s="11"/>
+      <c r="BB362" s="4"/>
+      <c r="BC362" s="16"/>
+    </row>
+    <row r="363" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG363" s="3"/>
       <c r="AH363" s="9"/>
       <c r="AI363" s="6" t="s">
@@ -18590,8 +19055,19 @@
       <c r="AS363" s="11"/>
       <c r="AT363" s="4"/>
       <c r="AU363" s="16"/>
-    </row>
-    <row r="364" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW363" s="3"/>
+      <c r="AX363" s="9"/>
+      <c r="AY363" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ363" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA363" s="11"/>
+      <c r="BB363" s="4"/>
+      <c r="BC363" s="16"/>
+    </row>
+    <row r="364" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG364" s="3"/>
       <c r="AH364" s="9"/>
       <c r="AI364" s="6" t="s">
@@ -18614,8 +19090,21 @@
       <c r="AS364" s="11"/>
       <c r="AT364" s="4"/>
       <c r="AU364" s="16"/>
-    </row>
-    <row r="365" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW364" s="3"/>
+      <c r="AX364" s="9"/>
+      <c r="AY364" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ364" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA364" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB364" s="4"/>
+      <c r="BC364" s="16"/>
+    </row>
+    <row r="365" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG365" s="3"/>
       <c r="AH365" s="9"/>
       <c r="AI365" s="6" t="s">
@@ -18638,8 +19127,15 @@
       <c r="AS365" s="11"/>
       <c r="AT365" s="4"/>
       <c r="AU365" s="16"/>
-    </row>
-    <row r="366" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW365" s="3"/>
+      <c r="AX365" s="9"/>
+      <c r="AY365" s="6"/>
+      <c r="AZ365" s="12"/>
+      <c r="BA365" s="11"/>
+      <c r="BB365" s="4"/>
+      <c r="BC365" s="16"/>
+    </row>
+    <row r="366" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG366" s="3"/>
       <c r="AH366" s="9"/>
       <c r="AI366" s="6" t="s">
@@ -18664,8 +19160,29 @@
       </c>
       <c r="AT366" s="4"/>
       <c r="AU366" s="16"/>
-    </row>
-    <row r="367" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW366" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX366" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY366" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ366" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA366" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB366" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC366" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="367" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG367" s="3"/>
       <c r="AH367" s="9"/>
       <c r="AI367" s="6" t="s">
@@ -18686,8 +19203,19 @@
       <c r="AS367" s="11"/>
       <c r="AT367" s="4"/>
       <c r="AU367" s="16"/>
-    </row>
-    <row r="368" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW367" s="3"/>
+      <c r="AX367" s="9"/>
+      <c r="AY367" s="6"/>
+      <c r="AZ367" s="12"/>
+      <c r="BA367" s="11"/>
+      <c r="BB367" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC367" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="368" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG368" s="3"/>
       <c r="AH368" s="9"/>
       <c r="AI368" s="6"/>
@@ -18710,8 +19238,21 @@
       </c>
       <c r="AT368" s="4"/>
       <c r="AU368" s="16"/>
-    </row>
-    <row r="369" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW368" s="3"/>
+      <c r="AX368" s="9"/>
+      <c r="AY368" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ368" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA368" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB368" s="4"/>
+      <c r="BC368" s="16"/>
+    </row>
+    <row r="369" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG369" s="3"/>
       <c r="AH369" s="9" t="s">
         <v>157</v>
@@ -18738,8 +19279,19 @@
       <c r="AS369" s="11"/>
       <c r="AT369" s="4"/>
       <c r="AU369" s="16"/>
-    </row>
-    <row r="370" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW369" s="3"/>
+      <c r="AX369" s="9"/>
+      <c r="AY369" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ369" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA369" s="11"/>
+      <c r="BB369" s="4"/>
+      <c r="BC369" s="16"/>
+    </row>
+    <row r="370" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG370" s="3"/>
       <c r="AH370" s="9"/>
       <c r="AI370" s="6" t="s">
@@ -18762,8 +19314,19 @@
       <c r="AS370" s="11"/>
       <c r="AT370" s="4"/>
       <c r="AU370" s="16"/>
-    </row>
-    <row r="371" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW370" s="3"/>
+      <c r="AX370" s="9"/>
+      <c r="AY370" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ370" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA370" s="11"/>
+      <c r="BB370" s="4"/>
+      <c r="BC370" s="16"/>
+    </row>
+    <row r="371" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG371" s="3"/>
       <c r="AH371" s="9"/>
       <c r="AI371" s="6" t="s">
@@ -18792,8 +19355,23 @@
       </c>
       <c r="AT371" s="4"/>
       <c r="AU371" s="16"/>
-    </row>
-    <row r="372" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW371" s="3"/>
+      <c r="AX371" s="9"/>
+      <c r="AY371" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ371" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA371" s="11"/>
+      <c r="BB371" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC371" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="372" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG372" s="3"/>
       <c r="AH372" s="9"/>
       <c r="AI372" s="6"/>
@@ -18820,8 +19398,19 @@
       <c r="AU372" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="373" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW372" s="3"/>
+      <c r="AX372" s="9"/>
+      <c r="AY372" s="6"/>
+      <c r="AZ372" s="12"/>
+      <c r="BA372" s="11"/>
+      <c r="BB372" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC372" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="373" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG373" s="3"/>
       <c r="AH373" s="9"/>
       <c r="AI373" s="6"/>
@@ -18844,8 +19433,19 @@
       <c r="AU373" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="374" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW373" s="3"/>
+      <c r="AX373" s="9"/>
+      <c r="AY373" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ373" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA373" s="11"/>
+      <c r="BB373" s="4"/>
+      <c r="BC373" s="16"/>
+    </row>
+    <row r="374" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG374" s="3"/>
       <c r="AH374" s="9"/>
       <c r="AI374" s="6" t="s">
@@ -18874,8 +19474,21 @@
       </c>
       <c r="AT374" s="4"/>
       <c r="AU374" s="16"/>
-    </row>
-    <row r="375" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW374" s="3"/>
+      <c r="AX374" s="9"/>
+      <c r="AY374" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ374" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA374" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB374" s="4"/>
+      <c r="BC374" s="16"/>
+    </row>
+    <row r="375" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG375" s="3"/>
       <c r="AH375" s="9"/>
       <c r="AI375" s="6"/>
@@ -18898,8 +19511,19 @@
       <c r="AS375" s="11"/>
       <c r="AT375" s="4"/>
       <c r="AU375" s="16"/>
-    </row>
-    <row r="376" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW375" s="3"/>
+      <c r="AX375" s="9"/>
+      <c r="AY375" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ375" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA375" s="11"/>
+      <c r="BB375" s="4"/>
+      <c r="BC375" s="16"/>
+    </row>
+    <row r="376" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG376" s="3"/>
       <c r="AH376" s="9"/>
       <c r="AI376" s="6" t="s">
@@ -18924,8 +19548,19 @@
       <c r="AS376" s="11"/>
       <c r="AT376" s="4"/>
       <c r="AU376" s="16"/>
-    </row>
-    <row r="377" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW376" s="3"/>
+      <c r="AX376" s="9"/>
+      <c r="AY376" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ376" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA376" s="11"/>
+      <c r="BB376" s="4"/>
+      <c r="BC376" s="16"/>
+    </row>
+    <row r="377" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG377" s="3"/>
       <c r="AH377" s="9"/>
       <c r="AI377" s="6" t="s">
@@ -18948,8 +19583,19 @@
       <c r="AS377" s="11"/>
       <c r="AT377" s="4"/>
       <c r="AU377" s="16"/>
-    </row>
-    <row r="378" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW377" s="3"/>
+      <c r="AX377" s="9"/>
+      <c r="AY377" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ377" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA377" s="11"/>
+      <c r="BB377" s="4"/>
+      <c r="BC377" s="16"/>
+    </row>
+    <row r="378" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG378" s="3"/>
       <c r="AH378" s="9"/>
       <c r="AI378" s="6" t="s">
@@ -18972,8 +19618,21 @@
       <c r="AS378" s="11"/>
       <c r="AT378" s="4"/>
       <c r="AU378" s="16"/>
-    </row>
-    <row r="379" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW378" s="3"/>
+      <c r="AX378" s="9"/>
+      <c r="AY378" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ378" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA378" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB378" s="4"/>
+      <c r="BC378" s="16"/>
+    </row>
+    <row r="379" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG379" s="3"/>
       <c r="AH379" s="9"/>
       <c r="AI379" s="6" t="s">
@@ -18998,8 +19657,15 @@
       </c>
       <c r="AT379" s="4"/>
       <c r="AU379" s="16"/>
-    </row>
-    <row r="380" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW379" s="3"/>
+      <c r="AX379" s="9"/>
+      <c r="AY379" s="6"/>
+      <c r="AZ379" s="12"/>
+      <c r="BA379" s="11"/>
+      <c r="BB379" s="4"/>
+      <c r="BC379" s="16"/>
+    </row>
+    <row r="380" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG380" s="3"/>
       <c r="AH380" s="9"/>
       <c r="AI380" s="6" t="s">
@@ -19020,8 +19686,29 @@
       <c r="AS380" s="11"/>
       <c r="AT380" s="4"/>
       <c r="AU380" s="16"/>
-    </row>
-    <row r="381" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW380" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX380" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY380" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ380" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA380" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB380" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC380" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="381" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG381" s="3"/>
       <c r="AH381" s="9"/>
       <c r="AI381" s="6" t="s">
@@ -19048,8 +19735,19 @@
       </c>
       <c r="AT381" s="4"/>
       <c r="AU381" s="16"/>
-    </row>
-    <row r="382" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW381" s="3"/>
+      <c r="AX381" s="9"/>
+      <c r="AY381" s="6"/>
+      <c r="AZ381" s="12"/>
+      <c r="BA381" s="11"/>
+      <c r="BB381" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC381" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="382" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG382" s="3"/>
       <c r="AH382" s="9"/>
       <c r="AI382" s="6" t="s">
@@ -19072,8 +19770,21 @@
       <c r="AS382" s="11"/>
       <c r="AT382" s="4"/>
       <c r="AU382" s="16"/>
-    </row>
-    <row r="383" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW382" s="3"/>
+      <c r="AX382" s="9"/>
+      <c r="AY382" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ382" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA382" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB382" s="4"/>
+      <c r="BC382" s="16"/>
+    </row>
+    <row r="383" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG383" s="3"/>
       <c r="AH383" s="9"/>
       <c r="AI383" s="6" t="s">
@@ -19096,8 +19807,19 @@
       <c r="AS383" s="11"/>
       <c r="AT383" s="4"/>
       <c r="AU383" s="16"/>
-    </row>
-    <row r="384" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW383" s="3"/>
+      <c r="AX383" s="9"/>
+      <c r="AY383" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ383" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA383" s="11"/>
+      <c r="BB383" s="4"/>
+      <c r="BC383" s="16"/>
+    </row>
+    <row r="384" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG384" s="3"/>
       <c r="AH384" s="9"/>
       <c r="AI384" s="6" t="s">
@@ -19122,8 +19844,19 @@
       </c>
       <c r="AT384" s="4"/>
       <c r="AU384" s="16"/>
-    </row>
-    <row r="385" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW384" s="3"/>
+      <c r="AX384" s="9"/>
+      <c r="AY384" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ384" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA384" s="11"/>
+      <c r="BB384" s="4"/>
+      <c r="BC384" s="16"/>
+    </row>
+    <row r="385" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG385" s="3"/>
       <c r="AH385" s="9"/>
       <c r="AI385" s="6" t="s">
@@ -19148,8 +19881,19 @@
       <c r="AS385" s="11"/>
       <c r="AT385" s="4"/>
       <c r="AU385" s="16"/>
-    </row>
-    <row r="386" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW385" s="3"/>
+      <c r="AX385" s="9"/>
+      <c r="AY385" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ385" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA385" s="11"/>
+      <c r="BB385" s="4"/>
+      <c r="BC385" s="16"/>
+    </row>
+    <row r="386" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG386" s="3"/>
       <c r="AH386" s="9"/>
       <c r="AI386" s="6"/>
@@ -19172,8 +19916,23 @@
       <c r="AU386" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="387" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW386" s="3"/>
+      <c r="AX386" s="9"/>
+      <c r="AY386" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ386" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA386" s="11"/>
+      <c r="BB386" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC386" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="387" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG387" s="3"/>
       <c r="AH387" s="9" t="s">
         <v>171</v>
@@ -19200,8 +19959,19 @@
       <c r="AU387" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="388" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW387" s="3"/>
+      <c r="AX387" s="9"/>
+      <c r="AY387" s="6"/>
+      <c r="AZ387" s="12"/>
+      <c r="BA387" s="11"/>
+      <c r="BB387" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC387" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="388" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG388" s="3"/>
       <c r="AH388" s="9"/>
       <c r="AI388" s="6" t="s">
@@ -19226,8 +19996,21 @@
       </c>
       <c r="AT388" s="4"/>
       <c r="AU388" s="16"/>
-    </row>
-    <row r="389" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW388" s="3"/>
+      <c r="AX388" s="9"/>
+      <c r="AY388" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ388" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA388" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB388" s="4"/>
+      <c r="BC388" s="16"/>
+    </row>
+    <row r="389" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG389" s="3"/>
       <c r="AH389" s="9"/>
       <c r="AI389" s="6" t="s">
@@ -19250,8 +20033,19 @@
       <c r="AS389" s="11"/>
       <c r="AT389" s="4"/>
       <c r="AU389" s="16"/>
-    </row>
-    <row r="390" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW389" s="3"/>
+      <c r="AX389" s="9"/>
+      <c r="AY389" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ389" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA389" s="11"/>
+      <c r="BB389" s="4"/>
+      <c r="BC389" s="16"/>
+    </row>
+    <row r="390" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG390" s="3"/>
       <c r="AH390" s="9"/>
       <c r="AI390" s="6" t="s">
@@ -19278,8 +20072,19 @@
       <c r="AS390" s="11"/>
       <c r="AT390" s="4"/>
       <c r="AU390" s="16"/>
-    </row>
-    <row r="391" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW390" s="3"/>
+      <c r="AX390" s="9"/>
+      <c r="AY390" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ390" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA390" s="11"/>
+      <c r="BB390" s="4"/>
+      <c r="BC390" s="16"/>
+    </row>
+    <row r="391" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG391" s="3"/>
       <c r="AH391" s="9"/>
       <c r="AI391" s="6"/>
@@ -19302,8 +20107,19 @@
       <c r="AS391" s="11"/>
       <c r="AT391" s="4"/>
       <c r="AU391" s="16"/>
-    </row>
-    <row r="392" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW391" s="3"/>
+      <c r="AX391" s="9"/>
+      <c r="AY391" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ391" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA391" s="11"/>
+      <c r="BB391" s="4"/>
+      <c r="BC391" s="16"/>
+    </row>
+    <row r="392" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG392" s="3"/>
       <c r="AH392" s="9"/>
       <c r="AI392" s="6"/>
@@ -19328,8 +20144,21 @@
       </c>
       <c r="AT392" s="4"/>
       <c r="AU392" s="16"/>
-    </row>
-    <row r="393" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW392" s="3"/>
+      <c r="AX392" s="9"/>
+      <c r="AY392" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ392" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA392" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB392" s="4"/>
+      <c r="BC392" s="16"/>
+    </row>
+    <row r="393" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG393" s="3"/>
       <c r="AH393" s="9"/>
       <c r="AI393" s="6" t="s">
@@ -19350,8 +20179,15 @@
       <c r="AS393" s="11"/>
       <c r="AT393" s="4"/>
       <c r="AU393" s="16"/>
-    </row>
-    <row r="394" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW393" s="3"/>
+      <c r="AX393" s="9"/>
+      <c r="AY393" s="6"/>
+      <c r="AZ393" s="12"/>
+      <c r="BA393" s="11"/>
+      <c r="BB393" s="4"/>
+      <c r="BC393" s="16"/>
+    </row>
+    <row r="394" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG394" s="3"/>
       <c r="AH394" s="9"/>
       <c r="AI394" s="6" t="s">
@@ -19378,8 +20214,23 @@
       </c>
       <c r="AT394" s="4"/>
       <c r="AU394" s="16"/>
-    </row>
-    <row r="395" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW394" s="3"/>
+      <c r="AX394" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY394" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ394" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA394" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB394" s="4"/>
+      <c r="BC394" s="16"/>
+    </row>
+    <row r="395" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG395" s="3"/>
       <c r="AH395" s="9"/>
       <c r="AI395" s="6" t="s">
@@ -19404,8 +20255,21 @@
       <c r="AS395" s="11"/>
       <c r="AT395" s="4"/>
       <c r="AU395" s="16"/>
-    </row>
-    <row r="396" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW395" s="3"/>
+      <c r="AX395" s="9"/>
+      <c r="AY395" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ395" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA395" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB395" s="4"/>
+      <c r="BC395" s="16"/>
+    </row>
+    <row r="396" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG396" s="3"/>
       <c r="AH396" s="9"/>
       <c r="AI396" s="6" t="s">
@@ -19428,8 +20292,19 @@
       <c r="AS396" s="11"/>
       <c r="AT396" s="4"/>
       <c r="AU396" s="16"/>
-    </row>
-    <row r="397" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW396" s="3"/>
+      <c r="AX396" s="9"/>
+      <c r="AY396" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ396" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA396" s="11"/>
+      <c r="BB396" s="4"/>
+      <c r="BC396" s="16"/>
+    </row>
+    <row r="397" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG397" s="3"/>
       <c r="AH397" s="9"/>
       <c r="AI397" s="6" t="s">
@@ -19456,8 +20331,19 @@
       </c>
       <c r="AT397" s="4"/>
       <c r="AU397" s="16"/>
-    </row>
-    <row r="398" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW397" s="3"/>
+      <c r="AX397" s="9"/>
+      <c r="AY397" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ397" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA397" s="11"/>
+      <c r="BB397" s="4"/>
+      <c r="BC397" s="16"/>
+    </row>
+    <row r="398" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG398" s="3"/>
       <c r="AH398" s="9"/>
       <c r="AI398" s="6"/>
@@ -19476,8 +20362,23 @@
       <c r="AS398" s="11"/>
       <c r="AT398" s="4"/>
       <c r="AU398" s="16"/>
-    </row>
-    <row r="399" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW398" s="3"/>
+      <c r="AX398" s="9"/>
+      <c r="AY398" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ398" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA398" s="11"/>
+      <c r="BB398" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC398" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="399" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG399" s="3"/>
       <c r="AH399" s="9" t="s">
         <v>172</v>
@@ -19508,8 +20409,19 @@
       <c r="AU399" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="400" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW399" s="3"/>
+      <c r="AX399" s="9"/>
+      <c r="AY399" s="6"/>
+      <c r="AZ399" s="12"/>
+      <c r="BA399" s="11"/>
+      <c r="BB399" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC399" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="400" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG400" s="3"/>
       <c r="AH400" s="9"/>
       <c r="AI400" s="6" t="s">
@@ -19532,8 +20444,21 @@
       <c r="AU400" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="401" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW400" s="3"/>
+      <c r="AX400" s="9"/>
+      <c r="AY400" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ400" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA400" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB400" s="4"/>
+      <c r="BC400" s="16"/>
+    </row>
+    <row r="401" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG401" s="3"/>
       <c r="AH401" s="9"/>
       <c r="AI401" s="6" t="s">
@@ -19558,8 +20483,19 @@
       </c>
       <c r="AT401" s="4"/>
       <c r="AU401" s="16"/>
-    </row>
-    <row r="402" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW401" s="3"/>
+      <c r="AX401" s="9"/>
+      <c r="AY401" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ401" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA401" s="11"/>
+      <c r="BB401" s="4"/>
+      <c r="BC401" s="16"/>
+    </row>
+    <row r="402" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG402" s="3"/>
       <c r="AH402" s="9"/>
       <c r="AI402" s="6" t="s">
@@ -19584,8 +20520,19 @@
       <c r="AS402" s="11"/>
       <c r="AT402" s="4"/>
       <c r="AU402" s="16"/>
-    </row>
-    <row r="403" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW402" s="3"/>
+      <c r="AX402" s="9"/>
+      <c r="AY402" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ402" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA402" s="11"/>
+      <c r="BB402" s="4"/>
+      <c r="BC402" s="16"/>
+    </row>
+    <row r="403" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG403" s="3"/>
       <c r="AH403" s="9"/>
       <c r="AI403" s="6" t="s">
@@ -19610,8 +20557,19 @@
       <c r="AS403" s="11"/>
       <c r="AT403" s="4"/>
       <c r="AU403" s="16"/>
-    </row>
-    <row r="404" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW403" s="3"/>
+      <c r="AX403" s="9"/>
+      <c r="AY403" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ403" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA403" s="11"/>
+      <c r="BB403" s="4"/>
+      <c r="BC403" s="16"/>
+    </row>
+    <row r="404" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG404" s="3"/>
       <c r="AH404" s="9"/>
       <c r="AI404" s="6" t="s">
@@ -19634,8 +20592,19 @@
       <c r="AS404" s="11"/>
       <c r="AT404" s="4"/>
       <c r="AU404" s="16"/>
-    </row>
-    <row r="405" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW404" s="3"/>
+      <c r="AX404" s="9"/>
+      <c r="AY404" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ404" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA404" s="11"/>
+      <c r="BB404" s="4"/>
+      <c r="BC404" s="16"/>
+    </row>
+    <row r="405" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG405" s="3"/>
       <c r="AH405" s="9"/>
       <c r="AI405" s="6" t="s">
@@ -19660,8 +20629,21 @@
       </c>
       <c r="AT405" s="4"/>
       <c r="AU405" s="16"/>
-    </row>
-    <row r="406" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW405" s="3"/>
+      <c r="AX405" s="9"/>
+      <c r="AY405" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ405" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA405" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB405" s="4"/>
+      <c r="BC405" s="16"/>
+    </row>
+    <row r="406" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG406" s="3"/>
       <c r="AH406" s="9"/>
       <c r="AI406" s="6" t="s">
@@ -19680,8 +20662,15 @@
       <c r="AS406" s="11"/>
       <c r="AT406" s="4"/>
       <c r="AU406" s="16"/>
-    </row>
-    <row r="407" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW406" s="3"/>
+      <c r="AX406" s="9"/>
+      <c r="AY406" s="6"/>
+      <c r="AZ406" s="12"/>
+      <c r="BA406" s="11"/>
+      <c r="BB406" s="4"/>
+      <c r="BC406" s="16"/>
+    </row>
+    <row r="407" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG407" s="3"/>
       <c r="AH407" s="9"/>
       <c r="AI407" s="6" t="s">
@@ -19708,8 +20697,15 @@
       </c>
       <c r="AT407" s="4"/>
       <c r="AU407" s="16"/>
-    </row>
-    <row r="408" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW407" s="3"/>
+      <c r="AX407" s="9"/>
+      <c r="AY407" s="6"/>
+      <c r="AZ407" s="12"/>
+      <c r="BA407" s="11"/>
+      <c r="BB407" s="4"/>
+      <c r="BC407" s="16"/>
+    </row>
+    <row r="408" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG408" s="3"/>
       <c r="AH408" s="9"/>
       <c r="AI408" s="6" t="s">
@@ -19732,8 +20728,15 @@
       <c r="AS408" s="11"/>
       <c r="AT408" s="4"/>
       <c r="AU408" s="16"/>
-    </row>
-    <row r="409" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW408" s="3"/>
+      <c r="AX408" s="9"/>
+      <c r="AY408" s="6"/>
+      <c r="AZ408" s="12"/>
+      <c r="BA408" s="11"/>
+      <c r="BB408" s="4"/>
+      <c r="BC408" s="16"/>
+    </row>
+    <row r="409" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG409" s="3"/>
       <c r="AH409" s="9"/>
       <c r="AI409" s="6" t="s">
@@ -19758,8 +20761,15 @@
       </c>
       <c r="AT409" s="4"/>
       <c r="AU409" s="16"/>
-    </row>
-    <row r="410" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW409" s="3"/>
+      <c r="AX409" s="9"/>
+      <c r="AY409" s="6"/>
+      <c r="AZ409" s="12"/>
+      <c r="BA409" s="11"/>
+      <c r="BB409" s="4"/>
+      <c r="BC409" s="16"/>
+    </row>
+    <row r="410" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG410" s="3"/>
       <c r="AH410" s="9"/>
       <c r="AI410" s="6" t="s">
@@ -19782,8 +20792,15 @@
       <c r="AS410" s="11"/>
       <c r="AT410" s="4"/>
       <c r="AU410" s="16"/>
-    </row>
-    <row r="411" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW410" s="3"/>
+      <c r="AX410" s="9"/>
+      <c r="AY410" s="6"/>
+      <c r="AZ410" s="12"/>
+      <c r="BA410" s="11"/>
+      <c r="BB410" s="4"/>
+      <c r="BC410" s="16"/>
+    </row>
+    <row r="411" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG411" s="3"/>
       <c r="AH411" s="9"/>
       <c r="AI411" s="6" t="s">
@@ -19810,8 +20827,15 @@
         <v>10</v>
       </c>
       <c r="AU411" s="16"/>
-    </row>
-    <row r="412" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW411" s="3"/>
+      <c r="AX411" s="9"/>
+      <c r="AY411" s="6"/>
+      <c r="AZ411" s="12"/>
+      <c r="BA411" s="11"/>
+      <c r="BB411" s="4"/>
+      <c r="BC411" s="16"/>
+    </row>
+    <row r="412" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG412" s="3"/>
       <c r="AH412" s="9"/>
       <c r="AI412" s="6"/>
@@ -19828,8 +20852,15 @@
         <v>72</v>
       </c>
       <c r="AU412" s="16"/>
-    </row>
-    <row r="413" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW412" s="3"/>
+      <c r="AX412" s="9"/>
+      <c r="AY412" s="6"/>
+      <c r="AZ412" s="12"/>
+      <c r="BA412" s="11"/>
+      <c r="BB412" s="4"/>
+      <c r="BC412" s="16"/>
+    </row>
+    <row r="413" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG413" s="3"/>
       <c r="AH413" s="9" t="s">
         <v>173</v>
@@ -19858,8 +20889,15 @@
       </c>
       <c r="AT413" s="4"/>
       <c r="AU413" s="16"/>
-    </row>
-    <row r="414" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW413" s="3"/>
+      <c r="AX413" s="9"/>
+      <c r="AY413" s="6"/>
+      <c r="AZ413" s="12"/>
+      <c r="BA413" s="11"/>
+      <c r="BB413" s="4"/>
+      <c r="BC413" s="16"/>
+    </row>
+    <row r="414" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG414" s="3"/>
       <c r="AH414" s="9"/>
       <c r="AI414" s="6" t="s">
@@ -19882,8 +20920,15 @@
       <c r="AS414" s="11"/>
       <c r="AT414" s="4"/>
       <c r="AU414" s="16"/>
-    </row>
-    <row r="415" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW414" s="3"/>
+      <c r="AX414" s="9"/>
+      <c r="AY414" s="6"/>
+      <c r="AZ414" s="12"/>
+      <c r="BA414" s="11"/>
+      <c r="BB414" s="4"/>
+      <c r="BC414" s="16"/>
+    </row>
+    <row r="415" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG415" s="3"/>
       <c r="AH415" s="9"/>
       <c r="AI415" s="6" t="s">
@@ -19906,8 +20951,15 @@
       <c r="AS415" s="11"/>
       <c r="AT415" s="4"/>
       <c r="AU415" s="16"/>
-    </row>
-    <row r="416" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW415" s="3"/>
+      <c r="AX415" s="9"/>
+      <c r="AY415" s="6"/>
+      <c r="AZ415" s="12"/>
+      <c r="BA415" s="11"/>
+      <c r="BB415" s="4"/>
+      <c r="BC415" s="16"/>
+    </row>
+    <row r="416" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG416" s="3"/>
       <c r="AH416" s="9"/>
       <c r="AI416" s="6" t="s">
@@ -19932,8 +20984,15 @@
       <c r="AS416" s="11"/>
       <c r="AT416" s="4"/>
       <c r="AU416" s="16"/>
-    </row>
-    <row r="417" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW416" s="3"/>
+      <c r="AX416" s="9"/>
+      <c r="AY416" s="6"/>
+      <c r="AZ416" s="12"/>
+      <c r="BA416" s="11"/>
+      <c r="BB416" s="4"/>
+      <c r="BC416" s="16"/>
+    </row>
+    <row r="417" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG417" s="3"/>
       <c r="AH417" s="9"/>
       <c r="AI417" s="6" t="s">
@@ -19958,8 +21017,15 @@
       </c>
       <c r="AT417" s="4"/>
       <c r="AU417" s="16"/>
-    </row>
-    <row r="418" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW417" s="3"/>
+      <c r="AX417" s="9"/>
+      <c r="AY417" s="6"/>
+      <c r="AZ417" s="12"/>
+      <c r="BA417" s="11"/>
+      <c r="BB417" s="4"/>
+      <c r="BC417" s="16"/>
+    </row>
+    <row r="418" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG418" s="3"/>
       <c r="AH418" s="9"/>
       <c r="AI418" s="6" t="s">
@@ -19986,8 +21052,15 @@
       </c>
       <c r="AT418" s="4"/>
       <c r="AU418" s="16"/>
-    </row>
-    <row r="419" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW418" s="3"/>
+      <c r="AX418" s="9"/>
+      <c r="AY418" s="6"/>
+      <c r="AZ418" s="12"/>
+      <c r="BA418" s="11"/>
+      <c r="BB418" s="4"/>
+      <c r="BC418" s="16"/>
+    </row>
+    <row r="419" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG419" s="3"/>
       <c r="AH419" s="9"/>
       <c r="AI419" s="6" t="s">
@@ -20006,8 +21079,15 @@
       <c r="AS419" s="11"/>
       <c r="AT419" s="4"/>
       <c r="AU419" s="16"/>
-    </row>
-    <row r="420" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW419" s="3"/>
+      <c r="AX419" s="9"/>
+      <c r="AY419" s="6"/>
+      <c r="AZ419" s="12"/>
+      <c r="BA419" s="11"/>
+      <c r="BB419" s="4"/>
+      <c r="BC419" s="16"/>
+    </row>
+    <row r="420" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG420" s="3"/>
       <c r="AH420" s="9"/>
       <c r="AI420" s="6" t="s">
@@ -20034,8 +21114,15 @@
       </c>
       <c r="AT420" s="4"/>
       <c r="AU420" s="16"/>
-    </row>
-    <row r="421" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW420" s="3"/>
+      <c r="AX420" s="9"/>
+      <c r="AY420" s="6"/>
+      <c r="AZ420" s="12"/>
+      <c r="BA420" s="11"/>
+      <c r="BB420" s="4"/>
+      <c r="BC420" s="16"/>
+    </row>
+    <row r="421" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG421" s="3"/>
       <c r="AH421" s="9"/>
       <c r="AI421" s="6" t="s">
@@ -20058,8 +21145,15 @@
       <c r="AS421" s="11"/>
       <c r="AT421" s="4"/>
       <c r="AU421" s="16"/>
-    </row>
-    <row r="422" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW421" s="3"/>
+      <c r="AX421" s="9"/>
+      <c r="AY421" s="6"/>
+      <c r="AZ421" s="12"/>
+      <c r="BA421" s="11"/>
+      <c r="BB421" s="4"/>
+      <c r="BC421" s="16"/>
+    </row>
+    <row r="422" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG422" s="3"/>
       <c r="AH422" s="9"/>
       <c r="AI422" s="6" t="s">
@@ -20084,8 +21178,15 @@
       </c>
       <c r="AT422" s="4"/>
       <c r="AU422" s="16"/>
-    </row>
-    <row r="423" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW422" s="3"/>
+      <c r="AX422" s="9"/>
+      <c r="AY422" s="6"/>
+      <c r="AZ422" s="12"/>
+      <c r="BA422" s="11"/>
+      <c r="BB422" s="4"/>
+      <c r="BC422" s="16"/>
+    </row>
+    <row r="423" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG423" s="3"/>
       <c r="AH423" s="9"/>
       <c r="AI423" s="6" t="s">
@@ -20108,8 +21209,15 @@
       <c r="AS423" s="11"/>
       <c r="AT423" s="4"/>
       <c r="AU423" s="16"/>
-    </row>
-    <row r="424" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW423" s="3"/>
+      <c r="AX423" s="9"/>
+      <c r="AY423" s="6"/>
+      <c r="AZ423" s="12"/>
+      <c r="BA423" s="11"/>
+      <c r="BB423" s="4"/>
+      <c r="BC423" s="16"/>
+    </row>
+    <row r="424" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG424" s="3"/>
       <c r="AH424" s="9"/>
       <c r="AI424" s="6" t="s">
@@ -20136,8 +21244,15 @@
       <c r="AU424" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="425" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW424" s="3"/>
+      <c r="AX424" s="9"/>
+      <c r="AY424" s="6"/>
+      <c r="AZ424" s="12"/>
+      <c r="BA424" s="11"/>
+      <c r="BB424" s="4"/>
+      <c r="BC424" s="16"/>
+    </row>
+    <row r="425" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG425" s="3"/>
       <c r="AH425" s="9"/>
       <c r="AI425" s="6" t="s">
@@ -20162,8 +21277,15 @@
       <c r="AU425" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="426" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW425" s="3"/>
+      <c r="AX425" s="9"/>
+      <c r="AY425" s="6"/>
+      <c r="AZ425" s="12"/>
+      <c r="BA425" s="11"/>
+      <c r="BB425" s="4"/>
+      <c r="BC425" s="16"/>
+    </row>
+    <row r="426" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG426" s="3"/>
       <c r="AH426" s="9"/>
       <c r="AI426" s="6"/>
@@ -20184,8 +21306,15 @@
       </c>
       <c r="AT426" s="4"/>
       <c r="AU426" s="16"/>
-    </row>
-    <row r="427" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW426" s="3"/>
+      <c r="AX426" s="9"/>
+      <c r="AY426" s="6"/>
+      <c r="AZ426" s="12"/>
+      <c r="BA426" s="11"/>
+      <c r="BB426" s="4"/>
+      <c r="BC426" s="16"/>
+    </row>
+    <row r="427" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG427" s="3"/>
       <c r="AH427" s="9" t="s">
         <v>174</v>
@@ -20212,8 +21341,15 @@
       <c r="AS427" s="11"/>
       <c r="AT427" s="4"/>
       <c r="AU427" s="16"/>
-    </row>
-    <row r="428" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW427" s="3"/>
+      <c r="AX427" s="9"/>
+      <c r="AY427" s="6"/>
+      <c r="AZ427" s="12"/>
+      <c r="BA427" s="11"/>
+      <c r="BB427" s="4"/>
+      <c r="BC427" s="16"/>
+    </row>
+    <row r="428" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG428" s="3"/>
       <c r="AH428" s="9"/>
       <c r="AI428" s="6" t="s">
@@ -20236,8 +21372,15 @@
       <c r="AS428" s="11"/>
       <c r="AT428" s="4"/>
       <c r="AU428" s="16"/>
-    </row>
-    <row r="429" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW428" s="3"/>
+      <c r="AX428" s="9"/>
+      <c r="AY428" s="6"/>
+      <c r="AZ428" s="12"/>
+      <c r="BA428" s="11"/>
+      <c r="BB428" s="4"/>
+      <c r="BC428" s="16"/>
+    </row>
+    <row r="429" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG429" s="3"/>
       <c r="AH429" s="9"/>
       <c r="AI429" s="6" t="s">
@@ -20260,8 +21403,15 @@
       <c r="AS429" s="11"/>
       <c r="AT429" s="4"/>
       <c r="AU429" s="16"/>
-    </row>
-    <row r="430" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW429" s="3"/>
+      <c r="AX429" s="9"/>
+      <c r="AY429" s="6"/>
+      <c r="AZ429" s="12"/>
+      <c r="BA429" s="11"/>
+      <c r="BB429" s="4"/>
+      <c r="BC429" s="16"/>
+    </row>
+    <row r="430" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG430" s="3"/>
       <c r="AH430" s="9"/>
       <c r="AI430" s="6" t="s">
@@ -20288,8 +21438,15 @@
       </c>
       <c r="AT430" s="4"/>
       <c r="AU430" s="16"/>
-    </row>
-    <row r="431" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW430" s="3"/>
+      <c r="AX430" s="9"/>
+      <c r="AY430" s="6"/>
+      <c r="AZ430" s="12"/>
+      <c r="BA430" s="11"/>
+      <c r="BB430" s="4"/>
+      <c r="BC430" s="16"/>
+    </row>
+    <row r="431" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG431" s="3"/>
       <c r="AH431" s="9"/>
       <c r="AI431" s="6" t="s">
@@ -20314,8 +21471,15 @@
       </c>
       <c r="AT431" s="4"/>
       <c r="AU431" s="16"/>
-    </row>
-    <row r="432" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW431" s="3"/>
+      <c r="AX431" s="9"/>
+      <c r="AY431" s="6"/>
+      <c r="AZ431" s="12"/>
+      <c r="BA431" s="11"/>
+      <c r="BB431" s="4"/>
+      <c r="BC431" s="16"/>
+    </row>
+    <row r="432" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG432" s="3"/>
       <c r="AH432" s="9"/>
       <c r="AI432" s="6" t="s">
@@ -20336,8 +21500,15 @@
       <c r="AS432" s="11"/>
       <c r="AT432" s="4"/>
       <c r="AU432" s="16"/>
-    </row>
-    <row r="433" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW432" s="3"/>
+      <c r="AX432" s="9"/>
+      <c r="AY432" s="6"/>
+      <c r="AZ432" s="12"/>
+      <c r="BA432" s="11"/>
+      <c r="BB432" s="4"/>
+      <c r="BC432" s="16"/>
+    </row>
+    <row r="433" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG433" s="3"/>
       <c r="AH433" s="9"/>
       <c r="AI433" s="6" t="s">
@@ -20364,8 +21535,15 @@
       </c>
       <c r="AT433" s="4"/>
       <c r="AU433" s="16"/>
-    </row>
-    <row r="434" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW433" s="3"/>
+      <c r="AX433" s="9"/>
+      <c r="AY433" s="6"/>
+      <c r="AZ433" s="12"/>
+      <c r="BA433" s="11"/>
+      <c r="BB433" s="4"/>
+      <c r="BC433" s="16"/>
+    </row>
+    <row r="434" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG434" s="3"/>
       <c r="AH434" s="9"/>
       <c r="AI434" s="6" t="s">
@@ -20388,8 +21566,15 @@
       <c r="AS434" s="11"/>
       <c r="AT434" s="4"/>
       <c r="AU434" s="16"/>
-    </row>
-    <row r="435" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW434" s="3"/>
+      <c r="AX434" s="9"/>
+      <c r="AY434" s="6"/>
+      <c r="AZ434" s="12"/>
+      <c r="BA434" s="11"/>
+      <c r="BB434" s="4"/>
+      <c r="BC434" s="16"/>
+    </row>
+    <row r="435" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG435" s="3"/>
       <c r="AH435" s="9"/>
       <c r="AI435" s="6" t="s">
@@ -20414,8 +21599,15 @@
       </c>
       <c r="AT435" s="4"/>
       <c r="AU435" s="16"/>
-    </row>
-    <row r="436" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW435" s="3"/>
+      <c r="AX435" s="9"/>
+      <c r="AY435" s="6"/>
+      <c r="AZ435" s="12"/>
+      <c r="BA435" s="11"/>
+      <c r="BB435" s="4"/>
+      <c r="BC435" s="16"/>
+    </row>
+    <row r="436" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG436" s="3"/>
       <c r="AH436" s="9"/>
       <c r="AI436" s="6" t="s">
@@ -20438,8 +21630,15 @@
       <c r="AS436" s="11"/>
       <c r="AT436" s="4"/>
       <c r="AU436" s="16"/>
-    </row>
-    <row r="437" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW436" s="3"/>
+      <c r="AX436" s="9"/>
+      <c r="AY436" s="6"/>
+      <c r="AZ436" s="12"/>
+      <c r="BA436" s="11"/>
+      <c r="BB436" s="4"/>
+      <c r="BC436" s="16"/>
+    </row>
+    <row r="437" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG437" s="3"/>
       <c r="AH437" s="9"/>
       <c r="AI437" s="6" t="s">
@@ -20466,8 +21665,15 @@
       <c r="AU437" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="438" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW437" s="3"/>
+      <c r="AX437" s="9"/>
+      <c r="AY437" s="6"/>
+      <c r="AZ437" s="12"/>
+      <c r="BA437" s="11"/>
+      <c r="BB437" s="4"/>
+      <c r="BC437" s="16"/>
+    </row>
+    <row r="438" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG438" s="3"/>
       <c r="AH438" s="9"/>
       <c r="AI438" s="6" t="s">
@@ -20490,8 +21696,15 @@
       <c r="AU438" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="439" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW438" s="3"/>
+      <c r="AX438" s="9"/>
+      <c r="AY438" s="6"/>
+      <c r="AZ438" s="12"/>
+      <c r="BA438" s="11"/>
+      <c r="BB438" s="4"/>
+      <c r="BC438" s="16"/>
+    </row>
+    <row r="439" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG439" s="3"/>
       <c r="AH439" s="9"/>
       <c r="AI439" s="6" t="s">
@@ -20518,8 +21731,15 @@
       </c>
       <c r="AT439" s="4"/>
       <c r="AU439" s="16"/>
-    </row>
-    <row r="440" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW439" s="3"/>
+      <c r="AX439" s="9"/>
+      <c r="AY439" s="6"/>
+      <c r="AZ439" s="12"/>
+      <c r="BA439" s="11"/>
+      <c r="BB439" s="4"/>
+      <c r="BC439" s="16"/>
+    </row>
+    <row r="440" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG440" s="3"/>
       <c r="AH440" s="9"/>
       <c r="AI440" s="6"/>
@@ -20538,8 +21758,15 @@
       <c r="AS440" s="11"/>
       <c r="AT440" s="4"/>
       <c r="AU440" s="16"/>
-    </row>
-    <row r="441" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW440" s="3"/>
+      <c r="AX440" s="9"/>
+      <c r="AY440" s="6"/>
+      <c r="AZ440" s="12"/>
+      <c r="BA440" s="11"/>
+      <c r="BB440" s="4"/>
+      <c r="BC440" s="16"/>
+    </row>
+    <row r="441" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG441" s="3"/>
       <c r="AH441" s="9" t="s">
         <v>180</v>
@@ -20566,8 +21793,15 @@
       <c r="AS441" s="11"/>
       <c r="AT441" s="4"/>
       <c r="AU441" s="16"/>
-    </row>
-    <row r="442" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW441" s="3"/>
+      <c r="AX441" s="9"/>
+      <c r="AY441" s="6"/>
+      <c r="AZ441" s="12"/>
+      <c r="BA441" s="11"/>
+      <c r="BB441" s="4"/>
+      <c r="BC441" s="16"/>
+    </row>
+    <row r="442" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG442" s="3"/>
       <c r="AH442" s="9"/>
       <c r="AI442" s="6" t="s">
@@ -20592,8 +21826,15 @@
       <c r="AS442" s="11"/>
       <c r="AT442" s="4"/>
       <c r="AU442" s="16"/>
-    </row>
-    <row r="443" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW442" s="3"/>
+      <c r="AX442" s="9"/>
+      <c r="AY442" s="6"/>
+      <c r="AZ442" s="12"/>
+      <c r="BA442" s="11"/>
+      <c r="BB442" s="4"/>
+      <c r="BC442" s="16"/>
+    </row>
+    <row r="443" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG443" s="3"/>
       <c r="AH443" s="9"/>
       <c r="AI443" s="6" t="s">
@@ -20616,8 +21857,15 @@
       <c r="AS443" s="11"/>
       <c r="AT443" s="4"/>
       <c r="AU443" s="16"/>
-    </row>
-    <row r="444" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW443" s="3"/>
+      <c r="AX443" s="9"/>
+      <c r="AY443" s="6"/>
+      <c r="AZ443" s="12"/>
+      <c r="BA443" s="11"/>
+      <c r="BB443" s="4"/>
+      <c r="BC443" s="16"/>
+    </row>
+    <row r="444" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG444" s="3"/>
       <c r="AH444" s="9"/>
       <c r="AI444" s="6" t="s">
@@ -20642,8 +21890,15 @@
       </c>
       <c r="AT444" s="4"/>
       <c r="AU444" s="16"/>
-    </row>
-    <row r="445" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW444" s="3"/>
+      <c r="AX444" s="9"/>
+      <c r="AY444" s="6"/>
+      <c r="AZ444" s="12"/>
+      <c r="BA444" s="11"/>
+      <c r="BB444" s="4"/>
+      <c r="BC444" s="16"/>
+    </row>
+    <row r="445" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG445" s="3"/>
       <c r="AH445" s="9"/>
       <c r="AI445" s="6" t="s">
@@ -20668,8 +21923,15 @@
       </c>
       <c r="AT445" s="4"/>
       <c r="AU445" s="16"/>
-    </row>
-    <row r="446" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW445" s="3"/>
+      <c r="AX445" s="9"/>
+      <c r="AY445" s="6"/>
+      <c r="AZ445" s="12"/>
+      <c r="BA445" s="11"/>
+      <c r="BB445" s="4"/>
+      <c r="BC445" s="16"/>
+    </row>
+    <row r="446" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG446" s="3"/>
       <c r="AH446" s="9"/>
       <c r="AI446" s="6" t="s">
@@ -20690,8 +21952,15 @@
       <c r="AS446" s="11"/>
       <c r="AT446" s="4"/>
       <c r="AU446" s="16"/>
-    </row>
-    <row r="447" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW446" s="3"/>
+      <c r="AX446" s="9"/>
+      <c r="AY446" s="6"/>
+      <c r="AZ446" s="12"/>
+      <c r="BA446" s="11"/>
+      <c r="BB446" s="4"/>
+      <c r="BC446" s="16"/>
+    </row>
+    <row r="447" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG447" s="3"/>
       <c r="AH447" s="9"/>
       <c r="AI447" s="6" t="s">
@@ -20718,8 +21987,15 @@
       </c>
       <c r="AT447" s="4"/>
       <c r="AU447" s="16"/>
-    </row>
-    <row r="448" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW447" s="3"/>
+      <c r="AX447" s="9"/>
+      <c r="AY447" s="6"/>
+      <c r="AZ447" s="12"/>
+      <c r="BA447" s="11"/>
+      <c r="BB447" s="4"/>
+      <c r="BC447" s="16"/>
+    </row>
+    <row r="448" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG448" s="3"/>
       <c r="AH448" s="9"/>
       <c r="AI448" s="6" t="s">
@@ -20742,8 +22018,15 @@
       <c r="AS448" s="11"/>
       <c r="AT448" s="4"/>
       <c r="AU448" s="16"/>
-    </row>
-    <row r="449" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW448" s="3"/>
+      <c r="AX448" s="9"/>
+      <c r="AY448" s="6"/>
+      <c r="AZ448" s="12"/>
+      <c r="BA448" s="11"/>
+      <c r="BB448" s="4"/>
+      <c r="BC448" s="16"/>
+    </row>
+    <row r="449" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG449" s="3"/>
       <c r="AH449" s="9"/>
       <c r="AI449" s="6" t="s">
@@ -20768,8 +22051,15 @@
       </c>
       <c r="AT449" s="4"/>
       <c r="AU449" s="16"/>
-    </row>
-    <row r="450" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW449" s="3"/>
+      <c r="AX449" s="9"/>
+      <c r="AY449" s="6"/>
+      <c r="AZ449" s="12"/>
+      <c r="BA449" s="11"/>
+      <c r="BB449" s="4"/>
+      <c r="BC449" s="16"/>
+    </row>
+    <row r="450" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG450" s="3"/>
       <c r="AH450" s="9"/>
       <c r="AI450" s="6" t="s">
@@ -20792,8 +22082,15 @@
       <c r="AS450" s="11"/>
       <c r="AT450" s="4"/>
       <c r="AU450" s="16"/>
-    </row>
-    <row r="451" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW450" s="3"/>
+      <c r="AX450" s="9"/>
+      <c r="AY450" s="6"/>
+      <c r="AZ450" s="12"/>
+      <c r="BA450" s="11"/>
+      <c r="BB450" s="4"/>
+      <c r="BC450" s="16"/>
+    </row>
+    <row r="451" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG451" s="3"/>
       <c r="AH451" s="9"/>
       <c r="AI451" s="6" t="s">
@@ -20820,8 +22117,15 @@
       <c r="AU451" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="452" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW451" s="3"/>
+      <c r="AX451" s="9"/>
+      <c r="AY451" s="6"/>
+      <c r="AZ451" s="12"/>
+      <c r="BA451" s="11"/>
+      <c r="BB451" s="4"/>
+      <c r="BC451" s="16"/>
+    </row>
+    <row r="452" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG452" s="3"/>
       <c r="AH452" s="9"/>
       <c r="AI452" s="6" t="s">
@@ -20844,8 +22148,15 @@
       <c r="AU452" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="453" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW452" s="3"/>
+      <c r="AX452" s="9"/>
+      <c r="AY452" s="6"/>
+      <c r="AZ452" s="12"/>
+      <c r="BA452" s="11"/>
+      <c r="BB452" s="4"/>
+      <c r="BC452" s="16"/>
+    </row>
+    <row r="453" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG453" s="3"/>
       <c r="AH453" s="9"/>
       <c r="AI453" s="6" t="s">
@@ -20870,8 +22181,15 @@
       </c>
       <c r="AT453" s="4"/>
       <c r="AU453" s="16"/>
-    </row>
-    <row r="454" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW453" s="3"/>
+      <c r="AX453" s="9"/>
+      <c r="AY453" s="6"/>
+      <c r="AZ453" s="12"/>
+      <c r="BA453" s="11"/>
+      <c r="BB453" s="4"/>
+      <c r="BC453" s="16"/>
+    </row>
+    <row r="454" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG454" s="3"/>
       <c r="AH454" s="9"/>
       <c r="AI454" s="6" t="s">
@@ -20896,8 +22214,15 @@
       <c r="AS454" s="11"/>
       <c r="AT454" s="4"/>
       <c r="AU454" s="16"/>
-    </row>
-    <row r="455" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW454" s="3"/>
+      <c r="AX454" s="9"/>
+      <c r="AY454" s="6"/>
+      <c r="AZ454" s="12"/>
+      <c r="BA454" s="11"/>
+      <c r="BB454" s="4"/>
+      <c r="BC454" s="16"/>
+    </row>
+    <row r="455" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG455" s="3"/>
       <c r="AH455" s="9"/>
       <c r="AI455" s="6"/>
@@ -20916,8 +22241,15 @@
       <c r="AS455" s="11"/>
       <c r="AT455" s="4"/>
       <c r="AU455" s="16"/>
-    </row>
-    <row r="456" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW455" s="3"/>
+      <c r="AX455" s="9"/>
+      <c r="AY455" s="6"/>
+      <c r="AZ455" s="12"/>
+      <c r="BA455" s="11"/>
+      <c r="BB455" s="4"/>
+      <c r="BC455" s="16"/>
+    </row>
+    <row r="456" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG456" s="3"/>
       <c r="AH456" s="9" t="s">
         <v>181</v>
@@ -20944,8 +22276,15 @@
       <c r="AS456" s="11"/>
       <c r="AT456" s="4"/>
       <c r="AU456" s="16"/>
-    </row>
-    <row r="457" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW456" s="3"/>
+      <c r="AX456" s="9"/>
+      <c r="AY456" s="6"/>
+      <c r="AZ456" s="12"/>
+      <c r="BA456" s="11"/>
+      <c r="BB456" s="4"/>
+      <c r="BC456" s="16"/>
+    </row>
+    <row r="457" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG457" s="3"/>
       <c r="AH457" s="9"/>
       <c r="AI457" s="6" t="s">
@@ -20970,8 +22309,15 @@
       <c r="AS457" s="11"/>
       <c r="AT457" s="4"/>
       <c r="AU457" s="16"/>
-    </row>
-    <row r="458" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW457" s="3"/>
+      <c r="AX457" s="9"/>
+      <c r="AY457" s="6"/>
+      <c r="AZ457" s="12"/>
+      <c r="BA457" s="11"/>
+      <c r="BB457" s="4"/>
+      <c r="BC457" s="16"/>
+    </row>
+    <row r="458" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG458" s="3"/>
       <c r="AH458" s="9"/>
       <c r="AI458" s="6" t="s">
@@ -20996,8 +22342,15 @@
       </c>
       <c r="AT458" s="4"/>
       <c r="AU458" s="16"/>
-    </row>
-    <row r="459" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW458" s="3"/>
+      <c r="AX458" s="9"/>
+      <c r="AY458" s="6"/>
+      <c r="AZ458" s="12"/>
+      <c r="BA458" s="11"/>
+      <c r="BB458" s="4"/>
+      <c r="BC458" s="16"/>
+    </row>
+    <row r="459" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG459" s="3"/>
       <c r="AH459" s="9"/>
       <c r="AI459" s="6" t="s">
@@ -21022,8 +22375,15 @@
       </c>
       <c r="AT459" s="4"/>
       <c r="AU459" s="16"/>
-    </row>
-    <row r="460" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW459" s="3"/>
+      <c r="AX459" s="9"/>
+      <c r="AY459" s="6"/>
+      <c r="AZ459" s="12"/>
+      <c r="BA459" s="11"/>
+      <c r="BB459" s="4"/>
+      <c r="BC459" s="16"/>
+    </row>
+    <row r="460" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG460" s="3"/>
       <c r="AH460" s="9"/>
       <c r="AI460" s="6" t="s">
@@ -21042,8 +22402,15 @@
       <c r="AS460" s="11"/>
       <c r="AT460" s="4"/>
       <c r="AU460" s="16"/>
-    </row>
-    <row r="461" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW460" s="3"/>
+      <c r="AX460" s="9"/>
+      <c r="AY460" s="6"/>
+      <c r="AZ460" s="12"/>
+      <c r="BA460" s="11"/>
+      <c r="BB460" s="4"/>
+      <c r="BC460" s="16"/>
+    </row>
+    <row r="461" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG461" s="3"/>
       <c r="AH461" s="9"/>
       <c r="AI461" s="6" t="s">
@@ -21070,8 +22437,15 @@
       </c>
       <c r="AT461" s="4"/>
       <c r="AU461" s="16"/>
-    </row>
-    <row r="462" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW461" s="3"/>
+      <c r="AX461" s="9"/>
+      <c r="AY461" s="6"/>
+      <c r="AZ461" s="12"/>
+      <c r="BA461" s="11"/>
+      <c r="BB461" s="4"/>
+      <c r="BC461" s="16"/>
+    </row>
+    <row r="462" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG462" s="3"/>
       <c r="AH462" s="9"/>
       <c r="AI462" s="6" t="s">
@@ -21096,8 +22470,15 @@
       <c r="AS462" s="11"/>
       <c r="AT462" s="4"/>
       <c r="AU462" s="16"/>
-    </row>
-    <row r="463" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW462" s="3"/>
+      <c r="AX462" s="9"/>
+      <c r="AY462" s="6"/>
+      <c r="AZ462" s="12"/>
+      <c r="BA462" s="11"/>
+      <c r="BB462" s="4"/>
+      <c r="BC462" s="16"/>
+    </row>
+    <row r="463" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG463" s="3"/>
       <c r="AH463" s="9"/>
       <c r="AI463" s="6" t="s">
@@ -21120,8 +22501,15 @@
       <c r="AS463" s="11"/>
       <c r="AT463" s="4"/>
       <c r="AU463" s="16"/>
-    </row>
-    <row r="464" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW463" s="3"/>
+      <c r="AX463" s="9"/>
+      <c r="AY463" s="6"/>
+      <c r="AZ463" s="12"/>
+      <c r="BA463" s="11"/>
+      <c r="BB463" s="4"/>
+      <c r="BC463" s="16"/>
+    </row>
+    <row r="464" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG464" s="3"/>
       <c r="AH464" s="9"/>
       <c r="AI464" s="6" t="s">
@@ -21146,8 +22534,15 @@
       </c>
       <c r="AT464" s="4"/>
       <c r="AU464" s="16"/>
-    </row>
-    <row r="465" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW464" s="3"/>
+      <c r="AX464" s="9"/>
+      <c r="AY464" s="6"/>
+      <c r="AZ464" s="12"/>
+      <c r="BA464" s="11"/>
+      <c r="BB464" s="4"/>
+      <c r="BC464" s="16"/>
+    </row>
+    <row r="465" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG465" s="3"/>
       <c r="AH465" s="9"/>
       <c r="AI465" s="6" t="s">
@@ -21172,8 +22567,15 @@
       </c>
       <c r="AT465" s="4"/>
       <c r="AU465" s="16"/>
-    </row>
-    <row r="466" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW465" s="3"/>
+      <c r="AX465" s="9"/>
+      <c r="AY465" s="6"/>
+      <c r="AZ465" s="12"/>
+      <c r="BA465" s="11"/>
+      <c r="BB465" s="4"/>
+      <c r="BC465" s="16"/>
+    </row>
+    <row r="466" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG466" s="3"/>
       <c r="AH466" s="9"/>
       <c r="AI466" s="6" t="s">
@@ -21196,8 +22598,15 @@
       <c r="AS466" s="11"/>
       <c r="AT466" s="4"/>
       <c r="AU466" s="16"/>
-    </row>
-    <row r="467" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW466" s="3"/>
+      <c r="AX466" s="9"/>
+      <c r="AY466" s="6"/>
+      <c r="AZ466" s="12"/>
+      <c r="BA466" s="11"/>
+      <c r="BB466" s="4"/>
+      <c r="BC466" s="16"/>
+    </row>
+    <row r="467" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG467" s="3"/>
       <c r="AH467" s="9"/>
       <c r="AI467" s="6" t="s">
@@ -21220,8 +22629,15 @@
       <c r="AS467" s="11"/>
       <c r="AT467" s="4"/>
       <c r="AU467" s="16"/>
-    </row>
-    <row r="468" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW467" s="3"/>
+      <c r="AX467" s="9"/>
+      <c r="AY467" s="6"/>
+      <c r="AZ467" s="12"/>
+      <c r="BA467" s="11"/>
+      <c r="BB467" s="4"/>
+      <c r="BC467" s="16"/>
+    </row>
+    <row r="468" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG468" s="3"/>
       <c r="AH468" s="9"/>
       <c r="AI468" s="6" t="s">
@@ -21244,8 +22660,15 @@
       <c r="AS468" s="11"/>
       <c r="AT468" s="4"/>
       <c r="AU468" s="16"/>
-    </row>
-    <row r="469" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW468" s="3"/>
+      <c r="AX468" s="9"/>
+      <c r="AY468" s="6"/>
+      <c r="AZ468" s="12"/>
+      <c r="BA468" s="11"/>
+      <c r="BB468" s="4"/>
+      <c r="BC468" s="16"/>
+    </row>
+    <row r="469" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG469" s="3"/>
       <c r="AH469" s="9"/>
       <c r="AI469" s="6" t="s">
@@ -21270,8 +22693,15 @@
       <c r="AS469" s="11"/>
       <c r="AT469" s="4"/>
       <c r="AU469" s="16"/>
-    </row>
-    <row r="470" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW469" s="3"/>
+      <c r="AX469" s="9"/>
+      <c r="AY469" s="6"/>
+      <c r="AZ469" s="12"/>
+      <c r="BA469" s="11"/>
+      <c r="BB469" s="4"/>
+      <c r="BC469" s="16"/>
+    </row>
+    <row r="470" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG470" s="3"/>
       <c r="AH470" s="9"/>
       <c r="AI470" s="6"/>
@@ -21292,8 +22722,15 @@
       </c>
       <c r="AT470" s="4"/>
       <c r="AU470" s="16"/>
-    </row>
-    <row r="471" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW470" s="3"/>
+      <c r="AX470" s="9"/>
+      <c r="AY470" s="6"/>
+      <c r="AZ470" s="12"/>
+      <c r="BA470" s="11"/>
+      <c r="BB470" s="4"/>
+      <c r="BC470" s="16"/>
+    </row>
+    <row r="471" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG471" s="3"/>
       <c r="AH471" s="9" t="s">
         <v>182</v>
@@ -21316,8 +22753,15 @@
       <c r="AS471" s="11"/>
       <c r="AT471" s="4"/>
       <c r="AU471" s="16"/>
-    </row>
-    <row r="472" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW471" s="3"/>
+      <c r="AX471" s="9"/>
+      <c r="AY471" s="6"/>
+      <c r="AZ471" s="12"/>
+      <c r="BA471" s="11"/>
+      <c r="BB471" s="4"/>
+      <c r="BC471" s="16"/>
+    </row>
+    <row r="472" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG472" s="3"/>
       <c r="AH472" s="9"/>
       <c r="AI472" s="6" t="s">
@@ -21350,8 +22794,15 @@
       <c r="AU472" s="16">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="473" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW472" s="3"/>
+      <c r="AX472" s="9"/>
+      <c r="AY472" s="6"/>
+      <c r="AZ472" s="12"/>
+      <c r="BA472" s="11"/>
+      <c r="BB472" s="4"/>
+      <c r="BC472" s="16"/>
+    </row>
+    <row r="473" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG473" s="3"/>
       <c r="AH473" s="9"/>
       <c r="AI473" s="6" t="s">
@@ -21374,8 +22825,15 @@
       <c r="AU473" s="16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="474" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW473" s="3"/>
+      <c r="AX473" s="9"/>
+      <c r="AY473" s="6"/>
+      <c r="AZ473" s="12"/>
+      <c r="BA473" s="11"/>
+      <c r="BB473" s="4"/>
+      <c r="BC473" s="16"/>
+    </row>
+    <row r="474" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG474" s="3"/>
       <c r="AH474" s="9"/>
       <c r="AI474" s="6" t="s">
@@ -21400,8 +22858,15 @@
       </c>
       <c r="AT474" s="4"/>
       <c r="AU474" s="16"/>
-    </row>
-    <row r="475" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW474" s="3"/>
+      <c r="AX474" s="9"/>
+      <c r="AY474" s="6"/>
+      <c r="AZ474" s="12"/>
+      <c r="BA474" s="11"/>
+      <c r="BB474" s="4"/>
+      <c r="BC474" s="16"/>
+    </row>
+    <row r="475" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG475" s="3"/>
       <c r="AH475" s="9"/>
       <c r="AI475" s="6" t="s">
@@ -21424,8 +22889,15 @@
       <c r="AS475" s="11"/>
       <c r="AT475" s="4"/>
       <c r="AU475" s="16"/>
-    </row>
-    <row r="476" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW475" s="3"/>
+      <c r="AX475" s="9"/>
+      <c r="AY475" s="6"/>
+      <c r="AZ475" s="12"/>
+      <c r="BA475" s="11"/>
+      <c r="BB475" s="4"/>
+      <c r="BC475" s="16"/>
+    </row>
+    <row r="476" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG476" s="3"/>
       <c r="AH476" s="9"/>
       <c r="AI476" s="6" t="s">
@@ -21448,8 +22920,15 @@
       <c r="AS476" s="11"/>
       <c r="AT476" s="4"/>
       <c r="AU476" s="16"/>
-    </row>
-    <row r="477" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW476" s="3"/>
+      <c r="AX476" s="9"/>
+      <c r="AY476" s="6"/>
+      <c r="AZ476" s="12"/>
+      <c r="BA476" s="11"/>
+      <c r="BB476" s="4"/>
+      <c r="BC476" s="16"/>
+    </row>
+    <row r="477" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG477" s="3"/>
       <c r="AH477" s="9"/>
       <c r="AI477" s="6" t="s">
@@ -21474,8 +22953,15 @@
       <c r="AS477" s="11"/>
       <c r="AT477" s="4"/>
       <c r="AU477" s="16"/>
-    </row>
-    <row r="478" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW477" s="3"/>
+      <c r="AX477" s="9"/>
+      <c r="AY477" s="6"/>
+      <c r="AZ477" s="12"/>
+      <c r="BA477" s="11"/>
+      <c r="BB477" s="4"/>
+      <c r="BC477" s="16"/>
+    </row>
+    <row r="478" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG478" s="3"/>
       <c r="AH478" s="9"/>
       <c r="AI478" s="6" t="s">
@@ -21498,8 +22984,15 @@
       <c r="AS478" s="11"/>
       <c r="AT478" s="4"/>
       <c r="AU478" s="16"/>
-    </row>
-    <row r="479" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW478" s="3"/>
+      <c r="AX478" s="9"/>
+      <c r="AY478" s="6"/>
+      <c r="AZ478" s="12"/>
+      <c r="BA478" s="11"/>
+      <c r="BB478" s="4"/>
+      <c r="BC478" s="16"/>
+    </row>
+    <row r="479" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG479" s="3"/>
       <c r="AH479" s="9"/>
       <c r="AI479" s="6" t="s">
@@ -21522,8 +23015,15 @@
       <c r="AS479" s="11"/>
       <c r="AT479" s="4"/>
       <c r="AU479" s="16"/>
-    </row>
-    <row r="480" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW479" s="3"/>
+      <c r="AX479" s="9"/>
+      <c r="AY479" s="6"/>
+      <c r="AZ479" s="12"/>
+      <c r="BA479" s="11"/>
+      <c r="BB479" s="4"/>
+      <c r="BC479" s="16"/>
+    </row>
+    <row r="480" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG480" s="3"/>
       <c r="AH480" s="9"/>
       <c r="AI480" s="6" t="s">
@@ -21548,8 +23048,15 @@
       </c>
       <c r="AT480" s="4"/>
       <c r="AU480" s="16"/>
-    </row>
-    <row r="481" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW480" s="3"/>
+      <c r="AX480" s="9"/>
+      <c r="AY480" s="6"/>
+      <c r="AZ480" s="12"/>
+      <c r="BA480" s="11"/>
+      <c r="BB480" s="4"/>
+      <c r="BC480" s="16"/>
+    </row>
+    <row r="481" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG481" s="3"/>
       <c r="AH481" s="9"/>
       <c r="AI481" s="6" t="s">
@@ -21572,8 +23079,15 @@
       <c r="AS481" s="11"/>
       <c r="AT481" s="4"/>
       <c r="AU481" s="16"/>
-    </row>
-    <row r="482" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW481" s="3"/>
+      <c r="AX481" s="9"/>
+      <c r="AY481" s="6"/>
+      <c r="AZ481" s="12"/>
+      <c r="BA481" s="11"/>
+      <c r="BB481" s="4"/>
+      <c r="BC481" s="16"/>
+    </row>
+    <row r="482" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG482" s="3"/>
       <c r="AH482" s="9"/>
       <c r="AI482" s="6" t="s">
@@ -21596,8 +23110,15 @@
       <c r="AS482" s="11"/>
       <c r="AT482" s="4"/>
       <c r="AU482" s="16"/>
-    </row>
-    <row r="483" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW482" s="3"/>
+      <c r="AX482" s="9"/>
+      <c r="AY482" s="6"/>
+      <c r="AZ482" s="12"/>
+      <c r="BA482" s="11"/>
+      <c r="BB482" s="4"/>
+      <c r="BC482" s="16"/>
+    </row>
+    <row r="483" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG483" s="3"/>
       <c r="AH483" s="9"/>
       <c r="AI483" s="6" t="s">
@@ -21622,8 +23143,15 @@
       </c>
       <c r="AT483" s="4"/>
       <c r="AU483" s="16"/>
-    </row>
-    <row r="484" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW483" s="3"/>
+      <c r="AX483" s="9"/>
+      <c r="AY483" s="6"/>
+      <c r="AZ483" s="12"/>
+      <c r="BA483" s="11"/>
+      <c r="BB483" s="4"/>
+      <c r="BC483" s="16"/>
+    </row>
+    <row r="484" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG484" s="3"/>
       <c r="AH484" s="9"/>
       <c r="AI484" s="6" t="s">
@@ -21644,8 +23172,15 @@
       <c r="AS484" s="11"/>
       <c r="AT484" s="4"/>
       <c r="AU484" s="16"/>
-    </row>
-    <row r="485" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW484" s="3"/>
+      <c r="AX484" s="9"/>
+      <c r="AY484" s="6"/>
+      <c r="AZ484" s="12"/>
+      <c r="BA484" s="11"/>
+      <c r="BB484" s="4"/>
+      <c r="BC484" s="16"/>
+    </row>
+    <row r="485" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG485" s="3"/>
       <c r="AH485" s="9"/>
       <c r="AI485" s="6"/>
@@ -21668,8 +23203,15 @@
       </c>
       <c r="AT485" s="4"/>
       <c r="AU485" s="16"/>
-    </row>
-    <row r="486" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW485" s="3"/>
+      <c r="AX485" s="9"/>
+      <c r="AY485" s="6"/>
+      <c r="AZ485" s="12"/>
+      <c r="BA485" s="11"/>
+      <c r="BB485" s="4"/>
+      <c r="BC485" s="16"/>
+    </row>
+    <row r="486" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG486" s="3"/>
       <c r="AH486" s="9" t="s">
         <v>183</v>
@@ -21698,8 +23240,15 @@
       </c>
       <c r="AT486" s="4"/>
       <c r="AU486" s="16"/>
-    </row>
-    <row r="487" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW486" s="3"/>
+      <c r="AX486" s="9"/>
+      <c r="AY486" s="6"/>
+      <c r="AZ486" s="12"/>
+      <c r="BA486" s="11"/>
+      <c r="BB486" s="4"/>
+      <c r="BC486" s="16"/>
+    </row>
+    <row r="487" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG487" s="3"/>
       <c r="AH487" s="9"/>
       <c r="AI487" s="6" t="s">
@@ -21722,8 +23271,15 @@
       <c r="AS487" s="11"/>
       <c r="AT487" s="4"/>
       <c r="AU487" s="16"/>
-    </row>
-    <row r="488" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW487" s="3"/>
+      <c r="AX487" s="9"/>
+      <c r="AY487" s="6"/>
+      <c r="AZ487" s="12"/>
+      <c r="BA487" s="11"/>
+      <c r="BB487" s="4"/>
+      <c r="BC487" s="16"/>
+    </row>
+    <row r="488" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG488" s="3"/>
       <c r="AH488" s="9"/>
       <c r="AI488" s="6" t="s">
@@ -21748,8 +23304,15 @@
       <c r="AS488" s="11"/>
       <c r="AT488" s="4"/>
       <c r="AU488" s="16"/>
-    </row>
-    <row r="489" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW488" s="3"/>
+      <c r="AX488" s="9"/>
+      <c r="AY488" s="6"/>
+      <c r="AZ488" s="12"/>
+      <c r="BA488" s="11"/>
+      <c r="BB488" s="4"/>
+      <c r="BC488" s="16"/>
+    </row>
+    <row r="489" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG489" s="3"/>
       <c r="AH489" s="9"/>
       <c r="AI489" s="6" t="s">
@@ -21772,8 +23335,15 @@
       <c r="AS489" s="11"/>
       <c r="AT489" s="4"/>
       <c r="AU489" s="16"/>
-    </row>
-    <row r="490" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW489" s="3"/>
+      <c r="AX489" s="9"/>
+      <c r="AY489" s="6"/>
+      <c r="AZ489" s="12"/>
+      <c r="BA489" s="11"/>
+      <c r="BB489" s="4"/>
+      <c r="BC489" s="16"/>
+    </row>
+    <row r="490" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG490" s="3"/>
       <c r="AH490" s="9"/>
       <c r="AI490" s="6" t="s">
@@ -21798,8 +23368,15 @@
       <c r="AS490" s="11"/>
       <c r="AT490" s="4"/>
       <c r="AU490" s="16"/>
-    </row>
-    <row r="491" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW490" s="3"/>
+      <c r="AX490" s="9"/>
+      <c r="AY490" s="6"/>
+      <c r="AZ490" s="12"/>
+      <c r="BA490" s="11"/>
+      <c r="BB490" s="4"/>
+      <c r="BC490" s="16"/>
+    </row>
+    <row r="491" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG491" s="3"/>
       <c r="AH491" s="9"/>
       <c r="AI491" s="6" t="s">
@@ -21822,8 +23399,15 @@
       <c r="AS491" s="11"/>
       <c r="AT491" s="4"/>
       <c r="AU491" s="16"/>
-    </row>
-    <row r="492" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW491" s="3"/>
+      <c r="AX491" s="9"/>
+      <c r="AY491" s="6"/>
+      <c r="AZ491" s="12"/>
+      <c r="BA491" s="11"/>
+      <c r="BB491" s="4"/>
+      <c r="BC491" s="16"/>
+    </row>
+    <row r="492" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG492" s="3"/>
       <c r="AH492" s="9"/>
       <c r="AI492" s="6" t="s">
@@ -21848,8 +23432,15 @@
       </c>
       <c r="AT492" s="4"/>
       <c r="AU492" s="16"/>
-    </row>
-    <row r="493" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW492" s="3"/>
+      <c r="AX492" s="9"/>
+      <c r="AY492" s="6"/>
+      <c r="AZ492" s="12"/>
+      <c r="BA492" s="11"/>
+      <c r="BB492" s="4"/>
+      <c r="BC492" s="16"/>
+    </row>
+    <row r="493" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG493" s="3"/>
       <c r="AH493" s="9"/>
       <c r="AI493" s="6" t="s">
@@ -21872,8 +23463,15 @@
       <c r="AS493" s="11"/>
       <c r="AT493" s="4"/>
       <c r="AU493" s="16"/>
-    </row>
-    <row r="494" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW493" s="3"/>
+      <c r="AX493" s="9"/>
+      <c r="AY493" s="6"/>
+      <c r="AZ493" s="12"/>
+      <c r="BA493" s="11"/>
+      <c r="BB493" s="4"/>
+      <c r="BC493" s="16"/>
+    </row>
+    <row r="494" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG494" s="3"/>
       <c r="AH494" s="9"/>
       <c r="AI494" s="6" t="s">
@@ -21896,8 +23494,15 @@
       <c r="AS494" s="11"/>
       <c r="AT494" s="4"/>
       <c r="AU494" s="16"/>
-    </row>
-    <row r="495" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW494" s="3"/>
+      <c r="AX494" s="9"/>
+      <c r="AY494" s="6"/>
+      <c r="AZ494" s="12"/>
+      <c r="BA494" s="11"/>
+      <c r="BB494" s="4"/>
+      <c r="BC494" s="16"/>
+    </row>
+    <row r="495" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG495" s="3"/>
       <c r="AH495" s="9"/>
       <c r="AI495" s="6" t="s">
@@ -21922,8 +23527,15 @@
       </c>
       <c r="AT495" s="4"/>
       <c r="AU495" s="16"/>
-    </row>
-    <row r="496" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW495" s="3"/>
+      <c r="AX495" s="9"/>
+      <c r="AY495" s="6"/>
+      <c r="AZ495" s="12"/>
+      <c r="BA495" s="11"/>
+      <c r="BB495" s="4"/>
+      <c r="BC495" s="16"/>
+    </row>
+    <row r="496" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG496" s="3"/>
       <c r="AH496" s="9"/>
       <c r="AI496" s="6" t="s">
@@ -21942,8 +23554,15 @@
       <c r="AS496" s="11"/>
       <c r="AT496" s="4"/>
       <c r="AU496" s="16"/>
-    </row>
-    <row r="497" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW496" s="3"/>
+      <c r="AX496" s="9"/>
+      <c r="AY496" s="6"/>
+      <c r="AZ496" s="12"/>
+      <c r="BA496" s="11"/>
+      <c r="BB496" s="4"/>
+      <c r="BC496" s="16"/>
+    </row>
+    <row r="497" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG497" s="3"/>
       <c r="AH497" s="9"/>
       <c r="AI497" s="6" t="s">
@@ -21970,8 +23589,15 @@
       </c>
       <c r="AT497" s="4"/>
       <c r="AU497" s="16"/>
-    </row>
-    <row r="498" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW497" s="3"/>
+      <c r="AX497" s="9"/>
+      <c r="AY497" s="6"/>
+      <c r="AZ497" s="12"/>
+      <c r="BA497" s="11"/>
+      <c r="BB497" s="4"/>
+      <c r="BC497" s="16"/>
+    </row>
+    <row r="498" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG498" s="3"/>
       <c r="AH498" s="9"/>
       <c r="AI498" s="6" t="s">
@@ -21998,8 +23624,15 @@
       </c>
       <c r="AT498" s="4"/>
       <c r="AU498" s="16"/>
-    </row>
-    <row r="499" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW498" s="3"/>
+      <c r="AX498" s="9"/>
+      <c r="AY498" s="6"/>
+      <c r="AZ498" s="12"/>
+      <c r="BA498" s="11"/>
+      <c r="BB498" s="4"/>
+      <c r="BC498" s="16"/>
+    </row>
+    <row r="499" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG499" s="3"/>
       <c r="AH499" s="9"/>
       <c r="AI499" s="6" t="s">
@@ -22022,8 +23655,15 @@
       <c r="AS499" s="11"/>
       <c r="AT499" s="4"/>
       <c r="AU499" s="16"/>
-    </row>
-    <row r="500" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW499" s="3"/>
+      <c r="AX499" s="9"/>
+      <c r="AY499" s="6"/>
+      <c r="AZ499" s="12"/>
+      <c r="BA499" s="11"/>
+      <c r="BB499" s="4"/>
+      <c r="BC499" s="16"/>
+    </row>
+    <row r="500" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG500" s="3"/>
       <c r="AH500" s="9"/>
       <c r="AI500" s="6"/>
@@ -22042,8 +23682,15 @@
       <c r="AS500" s="11"/>
       <c r="AT500" s="4"/>
       <c r="AU500" s="16"/>
-    </row>
-    <row r="501" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW500" s="3"/>
+      <c r="AX500" s="9"/>
+      <c r="AY500" s="6"/>
+      <c r="AZ500" s="12"/>
+      <c r="BA500" s="11"/>
+      <c r="BB500" s="4"/>
+      <c r="BC500" s="16"/>
+    </row>
+    <row r="501" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG501" s="3"/>
       <c r="AH501" s="9" t="s">
         <v>184</v>
@@ -22070,8 +23717,15 @@
       <c r="AS501" s="11"/>
       <c r="AT501" s="4"/>
       <c r="AU501" s="16"/>
-    </row>
-    <row r="502" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW501" s="3"/>
+      <c r="AX501" s="9"/>
+      <c r="AY501" s="6"/>
+      <c r="AZ501" s="12"/>
+      <c r="BA501" s="11"/>
+      <c r="BB501" s="4"/>
+      <c r="BC501" s="16"/>
+    </row>
+    <row r="502" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG502" s="3"/>
       <c r="AH502" s="9"/>
       <c r="AI502" s="6" t="s">
@@ -22094,8 +23748,15 @@
       <c r="AS502" s="11"/>
       <c r="AT502" s="4"/>
       <c r="AU502" s="16"/>
-    </row>
-    <row r="503" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW502" s="3"/>
+      <c r="AX502" s="9"/>
+      <c r="AY502" s="6"/>
+      <c r="AZ502" s="12"/>
+      <c r="BA502" s="11"/>
+      <c r="BB502" s="4"/>
+      <c r="BC502" s="16"/>
+    </row>
+    <row r="503" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG503" s="3"/>
       <c r="AH503" s="9"/>
       <c r="AI503" s="6" t="s">
@@ -22122,8 +23783,15 @@
       </c>
       <c r="AT503" s="4"/>
       <c r="AU503" s="16"/>
-    </row>
-    <row r="504" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW503" s="3"/>
+      <c r="AX503" s="9"/>
+      <c r="AY503" s="6"/>
+      <c r="AZ503" s="12"/>
+      <c r="BA503" s="11"/>
+      <c r="BB503" s="4"/>
+      <c r="BC503" s="16"/>
+    </row>
+    <row r="504" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG504" s="3"/>
       <c r="AH504" s="9"/>
       <c r="AI504" s="6" t="s">
@@ -22146,8 +23814,15 @@
       <c r="AS504" s="11"/>
       <c r="AT504" s="4"/>
       <c r="AU504" s="16"/>
-    </row>
-    <row r="505" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW504" s="3"/>
+      <c r="AX504" s="9"/>
+      <c r="AY504" s="6"/>
+      <c r="AZ504" s="12"/>
+      <c r="BA504" s="11"/>
+      <c r="BB504" s="4"/>
+      <c r="BC504" s="16"/>
+    </row>
+    <row r="505" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG505" s="3"/>
       <c r="AH505" s="9"/>
       <c r="AI505" s="6" t="s">
@@ -22170,8 +23845,15 @@
       <c r="AS505" s="11"/>
       <c r="AT505" s="4"/>
       <c r="AU505" s="16"/>
-    </row>
-    <row r="506" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW505" s="3"/>
+      <c r="AX505" s="9"/>
+      <c r="AY505" s="6"/>
+      <c r="AZ505" s="12"/>
+      <c r="BA505" s="11"/>
+      <c r="BB505" s="4"/>
+      <c r="BC505" s="16"/>
+    </row>
+    <row r="506" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG506" s="3"/>
       <c r="AH506" s="9"/>
       <c r="AI506" s="6" t="s">
@@ -22196,8 +23878,15 @@
       <c r="AS506" s="11"/>
       <c r="AT506" s="4"/>
       <c r="AU506" s="16"/>
-    </row>
-    <row r="507" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW506" s="3"/>
+      <c r="AX506" s="9"/>
+      <c r="AY506" s="6"/>
+      <c r="AZ506" s="12"/>
+      <c r="BA506" s="11"/>
+      <c r="BB506" s="4"/>
+      <c r="BC506" s="16"/>
+    </row>
+    <row r="507" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG507" s="3"/>
       <c r="AH507" s="9"/>
       <c r="AI507" s="6" t="s">
@@ -22220,8 +23909,15 @@
       <c r="AS507" s="11"/>
       <c r="AT507" s="4"/>
       <c r="AU507" s="16"/>
-    </row>
-    <row r="508" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW507" s="3"/>
+      <c r="AX507" s="9"/>
+      <c r="AY507" s="6"/>
+      <c r="AZ507" s="12"/>
+      <c r="BA507" s="11"/>
+      <c r="BB507" s="4"/>
+      <c r="BC507" s="16"/>
+    </row>
+    <row r="508" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG508" s="3"/>
       <c r="AH508" s="9"/>
       <c r="AI508" s="6" t="s">
@@ -22246,8 +23942,15 @@
       </c>
       <c r="AT508" s="4"/>
       <c r="AU508" s="16"/>
-    </row>
-    <row r="509" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW508" s="3"/>
+      <c r="AX508" s="9"/>
+      <c r="AY508" s="6"/>
+      <c r="AZ508" s="12"/>
+      <c r="BA508" s="11"/>
+      <c r="BB508" s="4"/>
+      <c r="BC508" s="16"/>
+    </row>
+    <row r="509" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG509" s="3"/>
       <c r="AH509" s="9"/>
       <c r="AI509" s="6" t="s">
@@ -22266,8 +23969,15 @@
       <c r="AS509" s="11"/>
       <c r="AT509" s="4"/>
       <c r="AU509" s="16"/>
-    </row>
-    <row r="510" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW509" s="3"/>
+      <c r="AX509" s="9"/>
+      <c r="AY509" s="6"/>
+      <c r="AZ509" s="12"/>
+      <c r="BA509" s="11"/>
+      <c r="BB509" s="4"/>
+      <c r="BC509" s="16"/>
+    </row>
+    <row r="510" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG510" s="3"/>
       <c r="AH510" s="9"/>
       <c r="AI510" s="6" t="s">
@@ -22298,8 +24008,15 @@
       <c r="AU510" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="511" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW510" s="3"/>
+      <c r="AX510" s="9"/>
+      <c r="AY510" s="6"/>
+      <c r="AZ510" s="12"/>
+      <c r="BA510" s="11"/>
+      <c r="BB510" s="4"/>
+      <c r="BC510" s="16"/>
+    </row>
+    <row r="511" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG511" s="3"/>
       <c r="AH511" s="9"/>
       <c r="AI511" s="6" t="s">
@@ -22322,8 +24039,15 @@
       <c r="AU511" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="512" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW511" s="3"/>
+      <c r="AX511" s="9"/>
+      <c r="AY511" s="6"/>
+      <c r="AZ511" s="12"/>
+      <c r="BA511" s="11"/>
+      <c r="BB511" s="4"/>
+      <c r="BC511" s="16"/>
+    </row>
+    <row r="512" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG512" s="3"/>
       <c r="AH512" s="9"/>
       <c r="AI512" s="6" t="s">
@@ -22352,8 +24076,15 @@
       <c r="AU512" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="513" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW512" s="3"/>
+      <c r="AX512" s="9"/>
+      <c r="AY512" s="6"/>
+      <c r="AZ512" s="12"/>
+      <c r="BA512" s="11"/>
+      <c r="BB512" s="4"/>
+      <c r="BC512" s="16"/>
+    </row>
+    <row r="513" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG513" s="3"/>
       <c r="AH513" s="9"/>
       <c r="AI513" s="6" t="s">
@@ -22378,8 +24109,15 @@
       <c r="AU513" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="514" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW513" s="3"/>
+      <c r="AX513" s="9"/>
+      <c r="AY513" s="6"/>
+      <c r="AZ513" s="12"/>
+      <c r="BA513" s="11"/>
+      <c r="BB513" s="4"/>
+      <c r="BC513" s="16"/>
+    </row>
+    <row r="514" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG514" s="3"/>
       <c r="AH514" s="9"/>
       <c r="AI514" s="6" t="s">
@@ -22402,8 +24140,15 @@
       <c r="AU514" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="515" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW514" s="3"/>
+      <c r="AX514" s="9"/>
+      <c r="AY514" s="6"/>
+      <c r="AZ514" s="12"/>
+      <c r="BA514" s="11"/>
+      <c r="BB514" s="4"/>
+      <c r="BC514" s="16"/>
+    </row>
+    <row r="515" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG515" s="3"/>
       <c r="AH515" s="9"/>
       <c r="AI515" s="6"/>
@@ -22422,8 +24167,15 @@
       <c r="AS515" s="11"/>
       <c r="AT515" s="4"/>
       <c r="AU515" s="16"/>
-    </row>
-    <row r="516" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW515" s="3"/>
+      <c r="AX515" s="9"/>
+      <c r="AY515" s="6"/>
+      <c r="AZ515" s="12"/>
+      <c r="BA515" s="11"/>
+      <c r="BB515" s="4"/>
+      <c r="BC515" s="16"/>
+    </row>
+    <row r="516" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG516" s="3"/>
       <c r="AH516" s="9" t="s">
         <v>187</v>
@@ -22450,8 +24202,15 @@
       <c r="AS516" s="11"/>
       <c r="AT516" s="4"/>
       <c r="AU516" s="16"/>
-    </row>
-    <row r="517" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW516" s="3"/>
+      <c r="AX516" s="9"/>
+      <c r="AY516" s="6"/>
+      <c r="AZ516" s="12"/>
+      <c r="BA516" s="11"/>
+      <c r="BB516" s="4"/>
+      <c r="BC516" s="16"/>
+    </row>
+    <row r="517" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG517" s="3"/>
       <c r="AH517" s="9"/>
       <c r="AI517" s="6" t="s">
@@ -22474,8 +24233,15 @@
       <c r="AS517" s="11"/>
       <c r="AT517" s="4"/>
       <c r="AU517" s="16"/>
-    </row>
-    <row r="518" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW517" s="3"/>
+      <c r="AX517" s="9"/>
+      <c r="AY517" s="6"/>
+      <c r="AZ517" s="12"/>
+      <c r="BA517" s="11"/>
+      <c r="BB517" s="4"/>
+      <c r="BC517" s="16"/>
+    </row>
+    <row r="518" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG518" s="3"/>
       <c r="AH518" s="9"/>
       <c r="AI518" s="6" t="s">
@@ -22502,8 +24268,15 @@
       </c>
       <c r="AT518" s="4"/>
       <c r="AU518" s="16"/>
-    </row>
-    <row r="519" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW518" s="3"/>
+      <c r="AX518" s="9"/>
+      <c r="AY518" s="6"/>
+      <c r="AZ518" s="12"/>
+      <c r="BA518" s="11"/>
+      <c r="BB518" s="4"/>
+      <c r="BC518" s="16"/>
+    </row>
+    <row r="519" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG519" s="3"/>
       <c r="AH519" s="9"/>
       <c r="AI519" s="6" t="s">
@@ -22526,8 +24299,15 @@
       <c r="AS519" s="11"/>
       <c r="AT519" s="4"/>
       <c r="AU519" s="16"/>
-    </row>
-    <row r="520" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW519" s="3"/>
+      <c r="AX519" s="9"/>
+      <c r="AY519" s="6"/>
+      <c r="AZ519" s="12"/>
+      <c r="BA519" s="11"/>
+      <c r="BB519" s="4"/>
+      <c r="BC519" s="16"/>
+    </row>
+    <row r="520" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG520" s="3"/>
       <c r="AH520" s="9"/>
       <c r="AI520" s="6" t="s">
@@ -22552,8 +24332,15 @@
       <c r="AS520" s="11"/>
       <c r="AT520" s="4"/>
       <c r="AU520" s="16"/>
-    </row>
-    <row r="521" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW520" s="3"/>
+      <c r="AX520" s="9"/>
+      <c r="AY520" s="6"/>
+      <c r="AZ520" s="12"/>
+      <c r="BA520" s="11"/>
+      <c r="BB520" s="4"/>
+      <c r="BC520" s="16"/>
+    </row>
+    <row r="521" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG521" s="3"/>
       <c r="AH521" s="9"/>
       <c r="AI521" s="6" t="s">
@@ -22576,8 +24363,15 @@
       <c r="AS521" s="11"/>
       <c r="AT521" s="4"/>
       <c r="AU521" s="16"/>
-    </row>
-    <row r="522" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW521" s="3"/>
+      <c r="AX521" s="9"/>
+      <c r="AY521" s="6"/>
+      <c r="AZ521" s="12"/>
+      <c r="BA521" s="11"/>
+      <c r="BB521" s="4"/>
+      <c r="BC521" s="16"/>
+    </row>
+    <row r="522" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG522" s="3"/>
       <c r="AH522" s="9"/>
       <c r="AI522" s="6" t="s">
@@ -22600,8 +24394,15 @@
       <c r="AS522" s="11"/>
       <c r="AT522" s="4"/>
       <c r="AU522" s="16"/>
-    </row>
-    <row r="523" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW522" s="3"/>
+      <c r="AX522" s="9"/>
+      <c r="AY522" s="6"/>
+      <c r="AZ522" s="12"/>
+      <c r="BA522" s="11"/>
+      <c r="BB522" s="4"/>
+      <c r="BC522" s="16"/>
+    </row>
+    <row r="523" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG523" s="3"/>
       <c r="AH523" s="9"/>
       <c r="AI523" s="6" t="s">
@@ -22624,8 +24425,15 @@
       <c r="AS523" s="11"/>
       <c r="AT523" s="4"/>
       <c r="AU523" s="16"/>
-    </row>
-    <row r="524" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW523" s="3"/>
+      <c r="AX523" s="9"/>
+      <c r="AY523" s="6"/>
+      <c r="AZ523" s="12"/>
+      <c r="BA523" s="11"/>
+      <c r="BB523" s="4"/>
+      <c r="BC523" s="16"/>
+    </row>
+    <row r="524" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG524" s="3"/>
       <c r="AH524" s="9"/>
       <c r="AI524" s="6" t="s">
@@ -22648,8 +24456,15 @@
       <c r="AS524" s="11"/>
       <c r="AT524" s="4"/>
       <c r="AU524" s="16"/>
-    </row>
-    <row r="525" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW524" s="3"/>
+      <c r="AX524" s="9"/>
+      <c r="AY524" s="6"/>
+      <c r="AZ524" s="12"/>
+      <c r="BA524" s="11"/>
+      <c r="BB524" s="4"/>
+      <c r="BC524" s="16"/>
+    </row>
+    <row r="525" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG525" s="3"/>
       <c r="AH525" s="9"/>
       <c r="AI525" s="6" t="s">
@@ -22674,8 +24489,15 @@
       </c>
       <c r="AT525" s="4"/>
       <c r="AU525" s="16"/>
-    </row>
-    <row r="526" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW525" s="3"/>
+      <c r="AX525" s="9"/>
+      <c r="AY525" s="6"/>
+      <c r="AZ525" s="12"/>
+      <c r="BA525" s="11"/>
+      <c r="BB525" s="4"/>
+      <c r="BC525" s="16"/>
+    </row>
+    <row r="526" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG526" s="3"/>
       <c r="AH526" s="9"/>
       <c r="AI526" s="6" t="s">
@@ -22694,8 +24516,15 @@
       <c r="AS526" s="11"/>
       <c r="AT526" s="4"/>
       <c r="AU526" s="16"/>
-    </row>
-    <row r="527" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW526" s="3"/>
+      <c r="AX526" s="9"/>
+      <c r="AY526" s="6"/>
+      <c r="AZ526" s="12"/>
+      <c r="BA526" s="11"/>
+      <c r="BB526" s="4"/>
+      <c r="BC526" s="16"/>
+    </row>
+    <row r="527" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG527" s="3"/>
       <c r="AH527" s="9"/>
       <c r="AI527" s="6" t="s">
@@ -22726,8 +24555,15 @@
       <c r="AU527" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="528" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW527" s="3"/>
+      <c r="AX527" s="9"/>
+      <c r="AY527" s="6"/>
+      <c r="AZ527" s="12"/>
+      <c r="BA527" s="11"/>
+      <c r="BB527" s="4"/>
+      <c r="BC527" s="16"/>
+    </row>
+    <row r="528" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG528" s="3"/>
       <c r="AH528" s="9"/>
       <c r="AI528" s="6" t="s">
@@ -22752,8 +24588,15 @@
       <c r="AU528" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="529" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW528" s="3"/>
+      <c r="AX528" s="9"/>
+      <c r="AY528" s="6"/>
+      <c r="AZ528" s="12"/>
+      <c r="BA528" s="11"/>
+      <c r="BB528" s="4"/>
+      <c r="BC528" s="16"/>
+    </row>
+    <row r="529" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG529" s="3"/>
       <c r="AH529" s="9"/>
       <c r="AI529" s="6" t="s">
@@ -22782,8 +24625,15 @@
       <c r="AU529" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="530" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW529" s="3"/>
+      <c r="AX529" s="9"/>
+      <c r="AY529" s="6"/>
+      <c r="AZ529" s="12"/>
+      <c r="BA529" s="11"/>
+      <c r="BB529" s="4"/>
+      <c r="BC529" s="16"/>
+    </row>
+    <row r="530" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG530" s="3"/>
       <c r="AH530" s="9"/>
       <c r="AI530" s="6"/>
@@ -22802,8 +24652,15 @@
       <c r="AU530" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="531" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW530" s="3"/>
+      <c r="AX530" s="9"/>
+      <c r="AY530" s="6"/>
+      <c r="AZ530" s="12"/>
+      <c r="BA530" s="11"/>
+      <c r="BB530" s="4"/>
+      <c r="BC530" s="16"/>
+    </row>
+    <row r="531" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG531" s="3"/>
       <c r="AH531" s="9" t="s">
         <v>188</v>
@@ -22830,8 +24687,15 @@
       <c r="AS531" s="11"/>
       <c r="AT531" s="4"/>
       <c r="AU531" s="16"/>
-    </row>
-    <row r="532" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW531" s="3"/>
+      <c r="AX531" s="9"/>
+      <c r="AY531" s="6"/>
+      <c r="AZ531" s="12"/>
+      <c r="BA531" s="11"/>
+      <c r="BB531" s="4"/>
+      <c r="BC531" s="16"/>
+    </row>
+    <row r="532" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG532" s="3"/>
       <c r="AH532" s="9"/>
       <c r="AI532" s="6" t="s">
@@ -22854,8 +24718,15 @@
       <c r="AS532" s="11"/>
       <c r="AT532" s="4"/>
       <c r="AU532" s="16"/>
-    </row>
-    <row r="533" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW532" s="3"/>
+      <c r="AX532" s="9"/>
+      <c r="AY532" s="6"/>
+      <c r="AZ532" s="12"/>
+      <c r="BA532" s="11"/>
+      <c r="BB532" s="4"/>
+      <c r="BC532" s="16"/>
+    </row>
+    <row r="533" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG533" s="3"/>
       <c r="AH533" s="9"/>
       <c r="AI533" s="6" t="s">
@@ -22880,8 +24751,15 @@
       <c r="AS533" s="11"/>
       <c r="AT533" s="4"/>
       <c r="AU533" s="16"/>
-    </row>
-    <row r="534" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW533" s="3"/>
+      <c r="AX533" s="9"/>
+      <c r="AY533" s="6"/>
+      <c r="AZ533" s="12"/>
+      <c r="BA533" s="11"/>
+      <c r="BB533" s="4"/>
+      <c r="BC533" s="16"/>
+    </row>
+    <row r="534" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG534" s="3"/>
       <c r="AH534" s="9"/>
       <c r="AI534" s="6" t="s">
@@ -22906,8 +24784,15 @@
       </c>
       <c r="AT534" s="4"/>
       <c r="AU534" s="16"/>
-    </row>
-    <row r="535" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW534" s="3"/>
+      <c r="AX534" s="9"/>
+      <c r="AY534" s="6"/>
+      <c r="AZ534" s="12"/>
+      <c r="BA534" s="11"/>
+      <c r="BB534" s="4"/>
+      <c r="BC534" s="16"/>
+    </row>
+    <row r="535" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG535" s="3"/>
       <c r="AH535" s="9"/>
       <c r="AI535" s="6" t="s">
@@ -22930,8 +24815,15 @@
       <c r="AS535" s="11"/>
       <c r="AT535" s="4"/>
       <c r="AU535" s="16"/>
-    </row>
-    <row r="536" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW535" s="3"/>
+      <c r="AX535" s="9"/>
+      <c r="AY535" s="6"/>
+      <c r="AZ535" s="12"/>
+      <c r="BA535" s="11"/>
+      <c r="BB535" s="4"/>
+      <c r="BC535" s="16"/>
+    </row>
+    <row r="536" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG536" s="3"/>
       <c r="AH536" s="9"/>
       <c r="AI536" s="6" t="s">
@@ -22956,8 +24848,15 @@
       <c r="AS536" s="11"/>
       <c r="AT536" s="4"/>
       <c r="AU536" s="16"/>
-    </row>
-    <row r="537" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW536" s="3"/>
+      <c r="AX536" s="9"/>
+      <c r="AY536" s="6"/>
+      <c r="AZ536" s="12"/>
+      <c r="BA536" s="11"/>
+      <c r="BB536" s="4"/>
+      <c r="BC536" s="16"/>
+    </row>
+    <row r="537" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG537" s="3"/>
       <c r="AH537" s="9"/>
       <c r="AI537" s="6" t="s">
@@ -22980,8 +24879,15 @@
       <c r="AS537" s="11"/>
       <c r="AT537" s="4"/>
       <c r="AU537" s="16"/>
-    </row>
-    <row r="538" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW537" s="3"/>
+      <c r="AX537" s="9"/>
+      <c r="AY537" s="6"/>
+      <c r="AZ537" s="12"/>
+      <c r="BA537" s="11"/>
+      <c r="BB537" s="4"/>
+      <c r="BC537" s="16"/>
+    </row>
+    <row r="538" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG538" s="3"/>
       <c r="AH538" s="9"/>
       <c r="AI538" s="6" t="s">
@@ -23004,8 +24910,15 @@
       <c r="AS538" s="11"/>
       <c r="AT538" s="4"/>
       <c r="AU538" s="16"/>
-    </row>
-    <row r="539" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW538" s="3"/>
+      <c r="AX538" s="9"/>
+      <c r="AY538" s="6"/>
+      <c r="AZ538" s="12"/>
+      <c r="BA538" s="11"/>
+      <c r="BB538" s="4"/>
+      <c r="BC538" s="16"/>
+    </row>
+    <row r="539" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG539" s="3"/>
       <c r="AH539" s="9"/>
       <c r="AI539" s="6" t="s">
@@ -23028,8 +24941,15 @@
       <c r="AS539" s="11"/>
       <c r="AT539" s="4"/>
       <c r="AU539" s="16"/>
-    </row>
-    <row r="540" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW539" s="3"/>
+      <c r="AX539" s="9"/>
+      <c r="AY539" s="6"/>
+      <c r="AZ539" s="12"/>
+      <c r="BA539" s="11"/>
+      <c r="BB539" s="4"/>
+      <c r="BC539" s="16"/>
+    </row>
+    <row r="540" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG540" s="3"/>
       <c r="AH540" s="9"/>
       <c r="AI540" s="6" t="s">
@@ -23052,8 +24972,15 @@
       <c r="AS540" s="11"/>
       <c r="AT540" s="4"/>
       <c r="AU540" s="16"/>
-    </row>
-    <row r="541" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW540" s="3"/>
+      <c r="AX540" s="9"/>
+      <c r="AY540" s="6"/>
+      <c r="AZ540" s="12"/>
+      <c r="BA540" s="11"/>
+      <c r="BB540" s="4"/>
+      <c r="BC540" s="16"/>
+    </row>
+    <row r="541" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG541" s="3"/>
       <c r="AH541" s="9"/>
       <c r="AI541" s="6" t="s">
@@ -23078,8 +25005,15 @@
       </c>
       <c r="AT541" s="4"/>
       <c r="AU541" s="16"/>
-    </row>
-    <row r="542" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW541" s="3"/>
+      <c r="AX541" s="9"/>
+      <c r="AY541" s="6"/>
+      <c r="AZ541" s="12"/>
+      <c r="BA541" s="11"/>
+      <c r="BB541" s="4"/>
+      <c r="BC541" s="16"/>
+    </row>
+    <row r="542" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG542" s="3"/>
       <c r="AH542" s="9"/>
       <c r="AI542" s="6" t="s">
@@ -23098,8 +25032,15 @@
       <c r="AS542" s="11"/>
       <c r="AT542" s="4"/>
       <c r="AU542" s="16"/>
-    </row>
-    <row r="543" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW542" s="3"/>
+      <c r="AX542" s="9"/>
+      <c r="AY542" s="6"/>
+      <c r="AZ542" s="12"/>
+      <c r="BA542" s="11"/>
+      <c r="BB542" s="4"/>
+      <c r="BC542" s="16"/>
+    </row>
+    <row r="543" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG543" s="3"/>
       <c r="AH543" s="9"/>
       <c r="AI543" s="6" t="s">
@@ -23128,8 +25069,15 @@
       </c>
       <c r="AT543" s="4"/>
       <c r="AU543" s="16"/>
-    </row>
-    <row r="544" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW543" s="3"/>
+      <c r="AX543" s="9"/>
+      <c r="AY543" s="6"/>
+      <c r="AZ543" s="12"/>
+      <c r="BA543" s="11"/>
+      <c r="BB543" s="4"/>
+      <c r="BC543" s="16"/>
+    </row>
+    <row r="544" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG544" s="3"/>
       <c r="AH544" s="9"/>
       <c r="AI544" s="6" t="s">
@@ -23154,8 +25102,15 @@
       </c>
       <c r="AT544" s="4"/>
       <c r="AU544" s="16"/>
-    </row>
-    <row r="545" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW544" s="3"/>
+      <c r="AX544" s="9"/>
+      <c r="AY544" s="6"/>
+      <c r="AZ544" s="12"/>
+      <c r="BA544" s="11"/>
+      <c r="BB544" s="4"/>
+      <c r="BC544" s="16"/>
+    </row>
+    <row r="545" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG545" s="3"/>
       <c r="AH545" s="9"/>
       <c r="AI545" s="6"/>
@@ -23174,8 +25129,15 @@
       <c r="AS545" s="11"/>
       <c r="AT545" s="4"/>
       <c r="AU545" s="16"/>
-    </row>
-    <row r="546" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW545" s="3"/>
+      <c r="AX545" s="9"/>
+      <c r="AY545" s="6"/>
+      <c r="AZ545" s="12"/>
+      <c r="BA545" s="11"/>
+      <c r="BB545" s="4"/>
+      <c r="BC545" s="16"/>
+    </row>
+    <row r="546" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG546" s="3"/>
       <c r="AH546" s="9" t="s">
         <v>196</v>
@@ -23202,8 +25164,15 @@
       <c r="AS546" s="11"/>
       <c r="AT546" s="4"/>
       <c r="AU546" s="16"/>
-    </row>
-    <row r="547" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW546" s="3"/>
+      <c r="AX546" s="9"/>
+      <c r="AY546" s="6"/>
+      <c r="AZ546" s="12"/>
+      <c r="BA546" s="11"/>
+      <c r="BB546" s="4"/>
+      <c r="BC546" s="16"/>
+    </row>
+    <row r="547" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG547" s="3"/>
       <c r="AH547" s="9"/>
       <c r="AI547" s="6" t="s">
@@ -23228,8 +25197,15 @@
       </c>
       <c r="AT547" s="4"/>
       <c r="AU547" s="16"/>
-    </row>
-    <row r="548" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW547" s="3"/>
+      <c r="AX547" s="9"/>
+      <c r="AY547" s="6"/>
+      <c r="AZ547" s="12"/>
+      <c r="BA547" s="11"/>
+      <c r="BB547" s="4"/>
+      <c r="BC547" s="16"/>
+    </row>
+    <row r="548" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG548" s="3"/>
       <c r="AH548" s="9"/>
       <c r="AI548" s="6" t="s">
@@ -23252,8 +25228,15 @@
       <c r="AS548" s="11"/>
       <c r="AT548" s="4"/>
       <c r="AU548" s="16"/>
-    </row>
-    <row r="549" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW548" s="3"/>
+      <c r="AX548" s="9"/>
+      <c r="AY548" s="6"/>
+      <c r="AZ548" s="12"/>
+      <c r="BA548" s="11"/>
+      <c r="BB548" s="4"/>
+      <c r="BC548" s="16"/>
+    </row>
+    <row r="549" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG549" s="3"/>
       <c r="AH549" s="9"/>
       <c r="AI549" s="6" t="s">
@@ -23278,8 +25261,15 @@
       <c r="AS549" s="11"/>
       <c r="AT549" s="4"/>
       <c r="AU549" s="16"/>
-    </row>
-    <row r="550" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW549" s="3"/>
+      <c r="AX549" s="9"/>
+      <c r="AY549" s="6"/>
+      <c r="AZ549" s="12"/>
+      <c r="BA549" s="11"/>
+      <c r="BB549" s="4"/>
+      <c r="BC549" s="16"/>
+    </row>
+    <row r="550" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG550" s="3"/>
       <c r="AH550" s="9"/>
       <c r="AI550" s="6" t="s">
@@ -23306,8 +25296,15 @@
       <c r="AS550" s="11"/>
       <c r="AT550" s="4"/>
       <c r="AU550" s="16"/>
-    </row>
-    <row r="551" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW550" s="3"/>
+      <c r="AX550" s="9"/>
+      <c r="AY550" s="6"/>
+      <c r="AZ550" s="12"/>
+      <c r="BA550" s="11"/>
+      <c r="BB550" s="4"/>
+      <c r="BC550" s="16"/>
+    </row>
+    <row r="551" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG551" s="3"/>
       <c r="AH551" s="9"/>
       <c r="AI551" s="6"/>
@@ -23330,8 +25327,15 @@
       <c r="AS551" s="11"/>
       <c r="AT551" s="4"/>
       <c r="AU551" s="16"/>
-    </row>
-    <row r="552" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW551" s="3"/>
+      <c r="AX551" s="9"/>
+      <c r="AY551" s="6"/>
+      <c r="AZ551" s="12"/>
+      <c r="BA551" s="11"/>
+      <c r="BB551" s="4"/>
+      <c r="BC551" s="16"/>
+    </row>
+    <row r="552" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG552" s="3"/>
       <c r="AH552" s="9"/>
       <c r="AI552" s="6" t="s">
@@ -23356,8 +25360,15 @@
       <c r="AS552" s="11"/>
       <c r="AT552" s="4"/>
       <c r="AU552" s="16"/>
-    </row>
-    <row r="553" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW552" s="3"/>
+      <c r="AX552" s="9"/>
+      <c r="AY552" s="6"/>
+      <c r="AZ552" s="12"/>
+      <c r="BA552" s="11"/>
+      <c r="BB552" s="4"/>
+      <c r="BC552" s="16"/>
+    </row>
+    <row r="553" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG553" s="3"/>
       <c r="AH553" s="9"/>
       <c r="AI553" s="6" t="s">
@@ -23380,8 +25391,15 @@
       <c r="AS553" s="11"/>
       <c r="AT553" s="4"/>
       <c r="AU553" s="16"/>
-    </row>
-    <row r="554" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW553" s="3"/>
+      <c r="AX553" s="9"/>
+      <c r="AY553" s="6"/>
+      <c r="AZ553" s="12"/>
+      <c r="BA553" s="11"/>
+      <c r="BB553" s="4"/>
+      <c r="BC553" s="16"/>
+    </row>
+    <row r="554" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG554" s="3"/>
       <c r="AH554" s="9"/>
       <c r="AI554" s="6" t="s">
@@ -23408,8 +25426,15 @@
       <c r="AS554" s="11"/>
       <c r="AT554" s="4"/>
       <c r="AU554" s="16"/>
-    </row>
-    <row r="555" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW554" s="3"/>
+      <c r="AX554" s="9"/>
+      <c r="AY554" s="6"/>
+      <c r="AZ554" s="12"/>
+      <c r="BA554" s="11"/>
+      <c r="BB554" s="4"/>
+      <c r="BC554" s="16"/>
+    </row>
+    <row r="555" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG555" s="3"/>
       <c r="AH555" s="9"/>
       <c r="AI555" s="6"/>
@@ -23432,8 +25457,15 @@
       <c r="AS555" s="11"/>
       <c r="AT555" s="4"/>
       <c r="AU555" s="16"/>
-    </row>
-    <row r="556" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW555" s="3"/>
+      <c r="AX555" s="9"/>
+      <c r="AY555" s="6"/>
+      <c r="AZ555" s="12"/>
+      <c r="BA555" s="11"/>
+      <c r="BB555" s="4"/>
+      <c r="BC555" s="16"/>
+    </row>
+    <row r="556" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG556" s="3"/>
       <c r="AH556" s="9"/>
       <c r="AI556" s="6" t="s">
@@ -23458,8 +25490,15 @@
       </c>
       <c r="AT556" s="4"/>
       <c r="AU556" s="16"/>
-    </row>
-    <row r="557" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW556" s="3"/>
+      <c r="AX556" s="9"/>
+      <c r="AY556" s="6"/>
+      <c r="AZ556" s="12"/>
+      <c r="BA556" s="11"/>
+      <c r="BB556" s="4"/>
+      <c r="BC556" s="16"/>
+    </row>
+    <row r="557" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG557" s="3"/>
       <c r="AH557" s="9"/>
       <c r="AI557" s="6" t="s">
@@ -23478,8 +25517,15 @@
       <c r="AS557" s="11"/>
       <c r="AT557" s="4"/>
       <c r="AU557" s="16"/>
-    </row>
-    <row r="558" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW557" s="3"/>
+      <c r="AX557" s="9"/>
+      <c r="AY557" s="6"/>
+      <c r="AZ557" s="12"/>
+      <c r="BA557" s="11"/>
+      <c r="BB557" s="4"/>
+      <c r="BC557" s="16"/>
+    </row>
+    <row r="558" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG558" s="3"/>
       <c r="AH558" s="9"/>
       <c r="AI558" s="6" t="s">
@@ -23506,8 +25552,15 @@
       </c>
       <c r="AT558" s="4"/>
       <c r="AU558" s="16"/>
-    </row>
-    <row r="559" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW558" s="3"/>
+      <c r="AX558" s="9"/>
+      <c r="AY558" s="6"/>
+      <c r="AZ558" s="12"/>
+      <c r="BA558" s="11"/>
+      <c r="BB558" s="4"/>
+      <c r="BC558" s="16"/>
+    </row>
+    <row r="559" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG559" s="3"/>
       <c r="AH559" s="9"/>
       <c r="AI559" s="6" t="s">
@@ -23530,8 +25583,15 @@
       <c r="AS559" s="11"/>
       <c r="AT559" s="4"/>
       <c r="AU559" s="16"/>
-    </row>
-    <row r="560" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW559" s="3"/>
+      <c r="AX559" s="9"/>
+      <c r="AY559" s="6"/>
+      <c r="AZ559" s="12"/>
+      <c r="BA559" s="11"/>
+      <c r="BB559" s="4"/>
+      <c r="BC559" s="16"/>
+    </row>
+    <row r="560" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG560" s="3"/>
       <c r="AH560" s="9"/>
       <c r="AI560" s="6" t="s">
@@ -23556,8 +25616,15 @@
       <c r="AS560" s="11"/>
       <c r="AT560" s="4"/>
       <c r="AU560" s="16"/>
-    </row>
-    <row r="561" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW560" s="3"/>
+      <c r="AX560" s="9"/>
+      <c r="AY560" s="6"/>
+      <c r="AZ560" s="12"/>
+      <c r="BA560" s="11"/>
+      <c r="BB560" s="4"/>
+      <c r="BC560" s="16"/>
+    </row>
+    <row r="561" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG561" s="3"/>
       <c r="AH561" s="9"/>
       <c r="AI561" s="6"/>
@@ -23578,8 +25645,15 @@
       </c>
       <c r="AT561" s="4"/>
       <c r="AU561" s="16"/>
-    </row>
-    <row r="562" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW561" s="3"/>
+      <c r="AX561" s="9"/>
+      <c r="AY561" s="6"/>
+      <c r="AZ561" s="12"/>
+      <c r="BA561" s="11"/>
+      <c r="BB561" s="4"/>
+      <c r="BC561" s="16"/>
+    </row>
+    <row r="562" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG562" s="3"/>
       <c r="AH562" s="9" t="s">
         <v>199</v>
@@ -23606,8 +25680,15 @@
       <c r="AS562" s="11"/>
       <c r="AT562" s="4"/>
       <c r="AU562" s="16"/>
-    </row>
-    <row r="563" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW562" s="3"/>
+      <c r="AX562" s="9"/>
+      <c r="AY562" s="6"/>
+      <c r="AZ562" s="12"/>
+      <c r="BA562" s="11"/>
+      <c r="BB562" s="4"/>
+      <c r="BC562" s="16"/>
+    </row>
+    <row r="563" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG563" s="3"/>
       <c r="AH563" s="9"/>
       <c r="AI563" s="6" t="s">
@@ -23634,8 +25715,15 @@
       </c>
       <c r="AT563" s="4"/>
       <c r="AU563" s="16"/>
-    </row>
-    <row r="564" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW563" s="3"/>
+      <c r="AX563" s="9"/>
+      <c r="AY563" s="6"/>
+      <c r="AZ563" s="12"/>
+      <c r="BA563" s="11"/>
+      <c r="BB563" s="4"/>
+      <c r="BC563" s="16"/>
+    </row>
+    <row r="564" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG564" s="3"/>
       <c r="AH564" s="9"/>
       <c r="AI564" s="6" t="s">
@@ -23658,8 +25746,15 @@
       <c r="AS564" s="11"/>
       <c r="AT564" s="4"/>
       <c r="AU564" s="16"/>
-    </row>
-    <row r="565" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW564" s="3"/>
+      <c r="AX564" s="9"/>
+      <c r="AY564" s="6"/>
+      <c r="AZ564" s="12"/>
+      <c r="BA564" s="11"/>
+      <c r="BB564" s="4"/>
+      <c r="BC564" s="16"/>
+    </row>
+    <row r="565" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG565" s="3"/>
       <c r="AH565" s="9"/>
       <c r="AI565" s="6" t="s">
@@ -23682,8 +25777,15 @@
       <c r="AS565" s="11"/>
       <c r="AT565" s="4"/>
       <c r="AU565" s="16"/>
-    </row>
-    <row r="566" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW565" s="3"/>
+      <c r="AX565" s="9"/>
+      <c r="AY565" s="6"/>
+      <c r="AZ565" s="12"/>
+      <c r="BA565" s="11"/>
+      <c r="BB565" s="4"/>
+      <c r="BC565" s="16"/>
+    </row>
+    <row r="566" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG566" s="3"/>
       <c r="AH566" s="9"/>
       <c r="AI566" s="6" t="s">
@@ -23710,8 +25812,15 @@
       <c r="AS566" s="11"/>
       <c r="AT566" s="4"/>
       <c r="AU566" s="16"/>
-    </row>
-    <row r="567" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW566" s="3"/>
+      <c r="AX566" s="9"/>
+      <c r="AY566" s="6"/>
+      <c r="AZ566" s="12"/>
+      <c r="BA566" s="11"/>
+      <c r="BB566" s="4"/>
+      <c r="BC566" s="16"/>
+    </row>
+    <row r="567" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG567" s="3"/>
       <c r="AH567" s="9"/>
       <c r="AI567" s="6"/>
@@ -23736,8 +25845,15 @@
       </c>
       <c r="AT567" s="4"/>
       <c r="AU567" s="16"/>
-    </row>
-    <row r="568" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW567" s="3"/>
+      <c r="AX567" s="9"/>
+      <c r="AY567" s="6"/>
+      <c r="AZ567" s="12"/>
+      <c r="BA567" s="11"/>
+      <c r="BB567" s="4"/>
+      <c r="BC567" s="16"/>
+    </row>
+    <row r="568" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG568" s="3"/>
       <c r="AH568" s="9"/>
       <c r="AI568" s="6" t="s">
@@ -23756,8 +25872,15 @@
       <c r="AS568" s="11"/>
       <c r="AT568" s="4"/>
       <c r="AU568" s="16"/>
-    </row>
-    <row r="569" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW568" s="3"/>
+      <c r="AX568" s="9"/>
+      <c r="AY568" s="6"/>
+      <c r="AZ568" s="12"/>
+      <c r="BA568" s="11"/>
+      <c r="BB568" s="4"/>
+      <c r="BC568" s="16"/>
+    </row>
+    <row r="569" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG569" s="3"/>
       <c r="AH569" s="9"/>
       <c r="AI569" s="6" t="s">
@@ -23790,8 +25913,15 @@
       <c r="AU569" s="16">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="570" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW569" s="3"/>
+      <c r="AX569" s="9"/>
+      <c r="AY569" s="6"/>
+      <c r="AZ569" s="12"/>
+      <c r="BA569" s="11"/>
+      <c r="BB569" s="4"/>
+      <c r="BC569" s="16"/>
+    </row>
+    <row r="570" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG570" s="3"/>
       <c r="AH570" s="9"/>
       <c r="AI570" s="6" t="s">
@@ -23816,8 +25946,15 @@
       <c r="AU570" s="16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="571" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW570" s="3"/>
+      <c r="AX570" s="9"/>
+      <c r="AY570" s="6"/>
+      <c r="AZ570" s="12"/>
+      <c r="BA570" s="11"/>
+      <c r="BB570" s="4"/>
+      <c r="BC570" s="16"/>
+    </row>
+    <row r="571" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG571" s="3"/>
       <c r="AH571" s="9"/>
       <c r="AI571" s="6" t="s">
@@ -23842,8 +25979,15 @@
       </c>
       <c r="AT571" s="4"/>
       <c r="AU571" s="16"/>
-    </row>
-    <row r="572" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW571" s="3"/>
+      <c r="AX571" s="9"/>
+      <c r="AY571" s="6"/>
+      <c r="AZ571" s="12"/>
+      <c r="BA571" s="11"/>
+      <c r="BB571" s="4"/>
+      <c r="BC571" s="16"/>
+    </row>
+    <row r="572" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG572" s="3"/>
       <c r="AH572" s="9"/>
       <c r="AI572" s="6" t="s">
@@ -23866,8 +26010,15 @@
       <c r="AS572" s="11"/>
       <c r="AT572" s="4"/>
       <c r="AU572" s="16"/>
-    </row>
-    <row r="573" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW572" s="3"/>
+      <c r="AX572" s="9"/>
+      <c r="AY572" s="6"/>
+      <c r="AZ572" s="12"/>
+      <c r="BA572" s="11"/>
+      <c r="BB572" s="4"/>
+      <c r="BC572" s="16"/>
+    </row>
+    <row r="573" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG573" s="3"/>
       <c r="AH573" s="9"/>
       <c r="AI573" s="6" t="s">
@@ -23890,8 +26041,15 @@
       <c r="AS573" s="11"/>
       <c r="AT573" s="4"/>
       <c r="AU573" s="16"/>
-    </row>
-    <row r="574" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW573" s="3"/>
+      <c r="AX573" s="9"/>
+      <c r="AY573" s="6"/>
+      <c r="AZ573" s="12"/>
+      <c r="BA573" s="11"/>
+      <c r="BB573" s="4"/>
+      <c r="BC573" s="16"/>
+    </row>
+    <row r="574" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG574" s="3"/>
       <c r="AH574" s="9"/>
       <c r="AI574" s="6" t="s">
@@ -23914,8 +26072,15 @@
       <c r="AS574" s="11"/>
       <c r="AT574" s="4"/>
       <c r="AU574" s="16"/>
-    </row>
-    <row r="575" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW574" s="3"/>
+      <c r="AX574" s="9"/>
+      <c r="AY574" s="6"/>
+      <c r="AZ574" s="12"/>
+      <c r="BA574" s="11"/>
+      <c r="BB574" s="4"/>
+      <c r="BC574" s="16"/>
+    </row>
+    <row r="575" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG575" s="3"/>
       <c r="AH575" s="9"/>
       <c r="AI575" s="6" t="s">
@@ -23940,8 +26105,15 @@
       <c r="AS575" s="11"/>
       <c r="AT575" s="4"/>
       <c r="AU575" s="16"/>
-    </row>
-    <row r="576" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW575" s="3"/>
+      <c r="AX575" s="9"/>
+      <c r="AY575" s="6"/>
+      <c r="AZ575" s="12"/>
+      <c r="BA575" s="11"/>
+      <c r="BB575" s="4"/>
+      <c r="BC575" s="16"/>
+    </row>
+    <row r="576" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG576" s="3"/>
       <c r="AH576" s="9"/>
       <c r="AI576" s="6"/>
@@ -23960,8 +26132,15 @@
       <c r="AS576" s="11"/>
       <c r="AT576" s="4"/>
       <c r="AU576" s="16"/>
-    </row>
-    <row r="577" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW576" s="3"/>
+      <c r="AX576" s="9"/>
+      <c r="AY576" s="6"/>
+      <c r="AZ576" s="12"/>
+      <c r="BA576" s="11"/>
+      <c r="BB576" s="4"/>
+      <c r="BC576" s="16"/>
+    </row>
+    <row r="577" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG577" s="3"/>
       <c r="AH577" s="9" t="s">
         <v>200</v>
@@ -23988,8 +26167,15 @@
       <c r="AS577" s="11"/>
       <c r="AT577" s="4"/>
       <c r="AU577" s="16"/>
-    </row>
-    <row r="578" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW577" s="3"/>
+      <c r="AX577" s="9"/>
+      <c r="AY577" s="6"/>
+      <c r="AZ577" s="12"/>
+      <c r="BA577" s="11"/>
+      <c r="BB577" s="4"/>
+      <c r="BC577" s="16"/>
+    </row>
+    <row r="578" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG578" s="3"/>
       <c r="AH578" s="9"/>
       <c r="AI578" s="6" t="s">
@@ -24016,8 +26202,15 @@
       </c>
       <c r="AT578" s="4"/>
       <c r="AU578" s="16"/>
-    </row>
-    <row r="579" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW578" s="3"/>
+      <c r="AX578" s="9"/>
+      <c r="AY578" s="6"/>
+      <c r="AZ578" s="12"/>
+      <c r="BA578" s="11"/>
+      <c r="BB578" s="4"/>
+      <c r="BC578" s="16"/>
+    </row>
+    <row r="579" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG579" s="3"/>
       <c r="AH579" s="9"/>
       <c r="AI579" s="6" t="s">
@@ -24040,8 +26233,15 @@
       <c r="AS579" s="11"/>
       <c r="AT579" s="4"/>
       <c r="AU579" s="16"/>
-    </row>
-    <row r="580" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW579" s="3"/>
+      <c r="AX579" s="9"/>
+      <c r="AY579" s="6"/>
+      <c r="AZ579" s="12"/>
+      <c r="BA579" s="11"/>
+      <c r="BB579" s="4"/>
+      <c r="BC579" s="16"/>
+    </row>
+    <row r="580" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG580" s="3"/>
       <c r="AH580" s="9"/>
       <c r="AI580" s="6" t="s">
@@ -24064,8 +26264,15 @@
       <c r="AS580" s="11"/>
       <c r="AT580" s="4"/>
       <c r="AU580" s="16"/>
-    </row>
-    <row r="581" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW580" s="3"/>
+      <c r="AX580" s="9"/>
+      <c r="AY580" s="6"/>
+      <c r="AZ580" s="12"/>
+      <c r="BA580" s="11"/>
+      <c r="BB580" s="4"/>
+      <c r="BC580" s="16"/>
+    </row>
+    <row r="581" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG581" s="3"/>
       <c r="AH581" s="9"/>
       <c r="AI581" s="6" t="s">
@@ -24090,8 +26297,15 @@
       </c>
       <c r="AT581" s="4"/>
       <c r="AU581" s="16"/>
-    </row>
-    <row r="582" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW581" s="3"/>
+      <c r="AX581" s="9"/>
+      <c r="AY581" s="6"/>
+      <c r="AZ581" s="12"/>
+      <c r="BA581" s="11"/>
+      <c r="BB581" s="4"/>
+      <c r="BC581" s="16"/>
+    </row>
+    <row r="582" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG582" s="3"/>
       <c r="AH582" s="9"/>
       <c r="AI582" s="6" t="s">
@@ -24114,8 +26328,15 @@
       <c r="AS582" s="11"/>
       <c r="AT582" s="4"/>
       <c r="AU582" s="16"/>
-    </row>
-    <row r="583" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW582" s="3"/>
+      <c r="AX582" s="9"/>
+      <c r="AY582" s="6"/>
+      <c r="AZ582" s="12"/>
+      <c r="BA582" s="11"/>
+      <c r="BB582" s="4"/>
+      <c r="BC582" s="16"/>
+    </row>
+    <row r="583" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG583" s="3"/>
       <c r="AH583" s="9"/>
       <c r="AI583" s="6"/>
@@ -24144,8 +26365,15 @@
       </c>
       <c r="AT583" s="4"/>
       <c r="AU583" s="16"/>
-    </row>
-    <row r="584" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW583" s="3"/>
+      <c r="AX583" s="9"/>
+      <c r="AY583" s="6"/>
+      <c r="AZ583" s="12"/>
+      <c r="BA583" s="11"/>
+      <c r="BB583" s="4"/>
+      <c r="BC583" s="16"/>
+    </row>
+    <row r="584" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG584" s="3"/>
       <c r="AH584" s="9"/>
       <c r="AI584" s="6" t="s">
@@ -24170,8 +26398,15 @@
       </c>
       <c r="AT584" s="4"/>
       <c r="AU584" s="16"/>
-    </row>
-    <row r="585" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW584" s="3"/>
+      <c r="AX584" s="9"/>
+      <c r="AY584" s="6"/>
+      <c r="AZ584" s="12"/>
+      <c r="BA584" s="11"/>
+      <c r="BB584" s="4"/>
+      <c r="BC584" s="16"/>
+    </row>
+    <row r="585" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG585" s="3"/>
       <c r="AH585" s="9"/>
       <c r="AI585" s="6" t="s">
@@ -24194,8 +26429,15 @@
       <c r="AS585" s="11"/>
       <c r="AT585" s="4"/>
       <c r="AU585" s="16"/>
-    </row>
-    <row r="586" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW585" s="3"/>
+      <c r="AX585" s="9"/>
+      <c r="AY585" s="6"/>
+      <c r="AZ585" s="12"/>
+      <c r="BA585" s="11"/>
+      <c r="BB585" s="4"/>
+      <c r="BC585" s="16"/>
+    </row>
+    <row r="586" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG586" s="3"/>
       <c r="AH586" s="9"/>
       <c r="AI586" s="6" t="s">
@@ -24220,8 +26462,15 @@
       <c r="AS586" s="11"/>
       <c r="AT586" s="4"/>
       <c r="AU586" s="16"/>
-    </row>
-    <row r="587" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW586" s="3"/>
+      <c r="AX586" s="9"/>
+      <c r="AY586" s="6"/>
+      <c r="AZ586" s="12"/>
+      <c r="BA586" s="11"/>
+      <c r="BB586" s="4"/>
+      <c r="BC586" s="16"/>
+    </row>
+    <row r="587" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG587" s="3"/>
       <c r="AH587" s="9"/>
       <c r="AI587" s="6" t="s">
@@ -24244,8 +26493,15 @@
       <c r="AS587" s="11"/>
       <c r="AT587" s="4"/>
       <c r="AU587" s="16"/>
-    </row>
-    <row r="588" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW587" s="3"/>
+      <c r="AX587" s="9"/>
+      <c r="AY587" s="6"/>
+      <c r="AZ587" s="12"/>
+      <c r="BA587" s="11"/>
+      <c r="BB587" s="4"/>
+      <c r="BC587" s="16"/>
+    </row>
+    <row r="588" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG588" s="3"/>
       <c r="AH588" s="9"/>
       <c r="AI588" s="6" t="s">
@@ -24268,8 +26524,15 @@
       <c r="AS588" s="11"/>
       <c r="AT588" s="4"/>
       <c r="AU588" s="16"/>
-    </row>
-    <row r="589" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW588" s="3"/>
+      <c r="AX588" s="9"/>
+      <c r="AY588" s="6"/>
+      <c r="AZ588" s="12"/>
+      <c r="BA588" s="11"/>
+      <c r="BB588" s="4"/>
+      <c r="BC588" s="16"/>
+    </row>
+    <row r="589" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG589" s="3"/>
       <c r="AH589" s="9"/>
       <c r="AI589" s="6" t="s">
@@ -24292,8 +26555,15 @@
       <c r="AS589" s="11"/>
       <c r="AT589" s="4"/>
       <c r="AU589" s="16"/>
-    </row>
-    <row r="590" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW589" s="3"/>
+      <c r="AX589" s="9"/>
+      <c r="AY589" s="6"/>
+      <c r="AZ589" s="12"/>
+      <c r="BA589" s="11"/>
+      <c r="BB589" s="4"/>
+      <c r="BC589" s="16"/>
+    </row>
+    <row r="590" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG590" s="3"/>
       <c r="AH590" s="9"/>
       <c r="AI590" s="6" t="s">
@@ -24318,8 +26588,15 @@
       <c r="AS590" s="11"/>
       <c r="AT590" s="4"/>
       <c r="AU590" s="16"/>
-    </row>
-    <row r="591" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW590" s="3"/>
+      <c r="AX590" s="9"/>
+      <c r="AY590" s="6"/>
+      <c r="AZ590" s="12"/>
+      <c r="BA590" s="11"/>
+      <c r="BB590" s="4"/>
+      <c r="BC590" s="16"/>
+    </row>
+    <row r="591" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG591" s="3"/>
       <c r="AH591" s="9"/>
       <c r="AI591" s="6"/>
@@ -24340,8 +26617,15 @@
       </c>
       <c r="AT591" s="4"/>
       <c r="AU591" s="16"/>
-    </row>
-    <row r="592" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW591" s="3"/>
+      <c r="AX591" s="9"/>
+      <c r="AY591" s="6"/>
+      <c r="AZ591" s="12"/>
+      <c r="BA591" s="11"/>
+      <c r="BB591" s="4"/>
+      <c r="BC591" s="16"/>
+    </row>
+    <row r="592" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG592" s="3"/>
       <c r="AH592" s="9" t="s">
         <v>201</v>
@@ -24368,8 +26652,15 @@
       <c r="AS592" s="11"/>
       <c r="AT592" s="4"/>
       <c r="AU592" s="16"/>
-    </row>
-    <row r="593" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW592" s="3"/>
+      <c r="AX592" s="9"/>
+      <c r="AY592" s="6"/>
+      <c r="AZ592" s="12"/>
+      <c r="BA592" s="11"/>
+      <c r="BB592" s="4"/>
+      <c r="BC592" s="16"/>
+    </row>
+    <row r="593" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG593" s="3"/>
       <c r="AH593" s="9"/>
       <c r="AI593" s="6" t="s">
@@ -24394,8 +26685,15 @@
       <c r="AS593" s="11"/>
       <c r="AT593" s="4"/>
       <c r="AU593" s="16"/>
-    </row>
-    <row r="594" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW593" s="3"/>
+      <c r="AX593" s="9"/>
+      <c r="AY593" s="6"/>
+      <c r="AZ593" s="12"/>
+      <c r="BA593" s="11"/>
+      <c r="BB593" s="4"/>
+      <c r="BC593" s="16"/>
+    </row>
+    <row r="594" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG594" s="3"/>
       <c r="AH594" s="9"/>
       <c r="AI594" s="6" t="s">
@@ -24420,8 +26718,15 @@
       </c>
       <c r="AT594" s="4"/>
       <c r="AU594" s="16"/>
-    </row>
-    <row r="595" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW594" s="3"/>
+      <c r="AX594" s="9"/>
+      <c r="AY594" s="6"/>
+      <c r="AZ594" s="12"/>
+      <c r="BA594" s="11"/>
+      <c r="BB594" s="4"/>
+      <c r="BC594" s="16"/>
+    </row>
+    <row r="595" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG595" s="3"/>
       <c r="AH595" s="9"/>
       <c r="AI595" s="6" t="s">
@@ -24440,8 +26745,15 @@
       <c r="AS595" s="11"/>
       <c r="AT595" s="4"/>
       <c r="AU595" s="16"/>
-    </row>
-    <row r="596" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW595" s="3"/>
+      <c r="AX595" s="9"/>
+      <c r="AY595" s="6"/>
+      <c r="AZ595" s="12"/>
+      <c r="BA595" s="11"/>
+      <c r="BB595" s="4"/>
+      <c r="BC595" s="16"/>
+    </row>
+    <row r="596" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG596" s="3"/>
       <c r="AH596" s="9"/>
       <c r="AI596" s="6" t="s">
@@ -24470,8 +26782,15 @@
       </c>
       <c r="AT596" s="4"/>
       <c r="AU596" s="16"/>
-    </row>
-    <row r="597" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW596" s="3"/>
+      <c r="AX596" s="9"/>
+      <c r="AY596" s="6"/>
+      <c r="AZ596" s="12"/>
+      <c r="BA596" s="11"/>
+      <c r="BB596" s="4"/>
+      <c r="BC596" s="16"/>
+    </row>
+    <row r="597" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG597" s="3"/>
       <c r="AH597" s="9"/>
       <c r="AI597" s="6" t="s">
@@ -24500,8 +26819,15 @@
       </c>
       <c r="AT597" s="4"/>
       <c r="AU597" s="16"/>
-    </row>
-    <row r="598" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW597" s="3"/>
+      <c r="AX597" s="9"/>
+      <c r="AY597" s="6"/>
+      <c r="AZ597" s="12"/>
+      <c r="BA597" s="11"/>
+      <c r="BB597" s="4"/>
+      <c r="BC597" s="16"/>
+    </row>
+    <row r="598" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG598" s="3"/>
       <c r="AH598" s="9"/>
       <c r="AI598" s="6"/>
@@ -24524,8 +26850,15 @@
       <c r="AS598" s="11"/>
       <c r="AT598" s="4"/>
       <c r="AU598" s="16"/>
-    </row>
-    <row r="599" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW598" s="3"/>
+      <c r="AX598" s="9"/>
+      <c r="AY598" s="6"/>
+      <c r="AZ598" s="12"/>
+      <c r="BA598" s="11"/>
+      <c r="BB598" s="4"/>
+      <c r="BC598" s="16"/>
+    </row>
+    <row r="599" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG599" s="3"/>
       <c r="AH599" s="9"/>
       <c r="AI599" s="6" t="s">
@@ -24550,8 +26883,15 @@
       <c r="AS599" s="11"/>
       <c r="AT599" s="4"/>
       <c r="AU599" s="16"/>
-    </row>
-    <row r="600" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW599" s="3"/>
+      <c r="AX599" s="9"/>
+      <c r="AY599" s="6"/>
+      <c r="AZ599" s="12"/>
+      <c r="BA599" s="11"/>
+      <c r="BB599" s="4"/>
+      <c r="BC599" s="16"/>
+    </row>
+    <row r="600" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG600" s="3"/>
       <c r="AH600" s="9"/>
       <c r="AI600" s="6" t="s">
@@ -24579,7 +26919,7 @@
       <c r="AT600" s="4"/>
       <c r="AU600" s="16"/>
     </row>
-    <row r="601" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="601" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG601" s="3"/>
       <c r="AH601" s="9"/>
       <c r="AI601" s="6"/>
@@ -24603,7 +26943,7 @@
       <c r="AT601" s="4"/>
       <c r="AU601" s="16"/>
     </row>
-    <row r="602" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="602" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG602" s="3"/>
       <c r="AH602" s="9"/>
       <c r="AI602" s="6" t="s">
@@ -24627,7 +26967,7 @@
       <c r="AT602" s="4"/>
       <c r="AU602" s="16"/>
     </row>
-    <row r="603" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="603" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG603" s="3"/>
       <c r="AH603" s="9"/>
       <c r="AI603" s="6" t="s">
@@ -24653,7 +26993,7 @@
       <c r="AT603" s="4"/>
       <c r="AU603" s="16"/>
     </row>
-    <row r="604" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="604" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG604" s="3"/>
       <c r="AH604" s="9"/>
       <c r="AI604" s="6" t="s">
@@ -24677,7 +27017,7 @@
       <c r="AT604" s="4"/>
       <c r="AU604" s="16"/>
     </row>
-    <row r="605" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="605" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG605" s="3"/>
       <c r="AH605" s="9"/>
       <c r="AI605" s="6" t="s">
@@ -24701,7 +27041,7 @@
       <c r="AT605" s="4"/>
       <c r="AU605" s="16"/>
     </row>
-    <row r="606" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="606" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG606" s="3"/>
       <c r="AH606" s="9"/>
       <c r="AI606" s="6" t="s">
@@ -24727,7 +27067,7 @@
       <c r="AT606" s="4"/>
       <c r="AU606" s="16"/>
     </row>
-    <row r="607" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="607" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG607" s="3"/>
       <c r="AH607" s="9"/>
       <c r="AI607" s="6"/>
@@ -24747,7 +27087,7 @@
       <c r="AT607" s="4"/>
       <c r="AU607" s="16"/>
     </row>
-    <row r="608" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="608" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG608" s="3"/>
       <c r="AH608" s="9" t="s">
         <v>203</v>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micfe484\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A646C1-671F-4D6D-9175-A33C54107E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F5C37-F19C-4129-A148-D74E4B56625F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="3300" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="270">
   <si>
     <t>ClassNames</t>
   </si>
@@ -766,6 +755,87 @@
   <si>
     <t>1CG-COUC</t>
   </si>
+  <si>
+    <t>1CLA-COUC</t>
+  </si>
+  <si>
+    <t>1CLB-COUC</t>
+  </si>
+  <si>
+    <t>choix 2 parmi FR, DE, EN, LAT</t>
+  </si>
+  <si>
+    <t>choix 1 parmi HISTO, ECO</t>
+  </si>
+  <si>
+    <t>1CLC-COUC</t>
+  </si>
+  <si>
+    <t>1CLD-COUC</t>
+  </si>
+  <si>
+    <t>1CLE-COUC</t>
+  </si>
+  <si>
+    <t>1CLF-COUC</t>
+  </si>
+  <si>
+    <t>1CLG-COUC</t>
+  </si>
+  <si>
+    <t>3CA-EDME</t>
+  </si>
+  <si>
+    <t>Médias</t>
+  </si>
+  <si>
+    <t>3CLA-EDME</t>
+  </si>
+  <si>
+    <t>2CA-EDME</t>
+  </si>
+  <si>
+    <t>2CLA-EDME</t>
+  </si>
+  <si>
+    <t>3CA-MATE</t>
+  </si>
+  <si>
+    <t>3CLA-MATE</t>
+  </si>
+  <si>
+    <t>2CA-MATE</t>
+  </si>
+  <si>
+    <t>2CLA-MATE</t>
+  </si>
+  <si>
+    <t>2CG-COMED</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Socio</t>
+  </si>
+  <si>
+    <t>3CG-COMED</t>
+  </si>
+  <si>
+    <t>1CG-COMED</t>
+  </si>
+  <si>
+    <t>1CLG-COMED</t>
+  </si>
+  <si>
+    <t>choix 2 parmi FR, DE, LAT</t>
+  </si>
+  <si>
+    <t>2CLG-COMED</t>
+  </si>
+  <si>
+    <t>3CLG-COMED</t>
+  </si>
 </sst>
 </file>
 
@@ -925,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,7 +1011,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,13 +1307,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC791"/>
+  <dimension ref="A1:BC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN359" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AW395" sqref="AW395"/>
+    <sheetView tabSelected="1" topLeftCell="AP776" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="AU788" sqref="AU788"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1255,15 +1325,15 @@
     <col min="23" max="23" width="10.7109375" style="20"/>
     <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" style="20"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.7109375" style="20"/>
-    <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" style="20"/>
-    <col min="50" max="50" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.7109375" style="20"/>
@@ -20698,10 +20768,18 @@
       <c r="AT407" s="4"/>
       <c r="AU407" s="16"/>
       <c r="AW407" s="3"/>
-      <c r="AX407" s="9"/>
-      <c r="AY407" s="6"/>
-      <c r="AZ407" s="12"/>
-      <c r="BA407" s="11"/>
+      <c r="AX407" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY407" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ407" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA407" s="11">
+        <v>4</v>
+      </c>
       <c r="BB407" s="4"/>
       <c r="BC407" s="16"/>
     </row>
@@ -20730,8 +20808,12 @@
       <c r="AU408" s="16"/>
       <c r="AW408" s="3"/>
       <c r="AX408" s="9"/>
-      <c r="AY408" s="6"/>
-      <c r="AZ408" s="12"/>
+      <c r="AY408" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ408" s="12">
+        <v>5</v>
+      </c>
       <c r="BA408" s="11"/>
       <c r="BB408" s="4"/>
       <c r="BC408" s="16"/>
@@ -20763,8 +20845,12 @@
       <c r="AU409" s="16"/>
       <c r="AW409" s="3"/>
       <c r="AX409" s="9"/>
-      <c r="AY409" s="6"/>
-      <c r="AZ409" s="12"/>
+      <c r="AY409" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ409" s="12">
+        <v>5</v>
+      </c>
       <c r="BA409" s="11"/>
       <c r="BB409" s="4"/>
       <c r="BC409" s="16"/>
@@ -20794,8 +20880,12 @@
       <c r="AU410" s="16"/>
       <c r="AW410" s="3"/>
       <c r="AX410" s="9"/>
-      <c r="AY410" s="6"/>
-      <c r="AZ410" s="12"/>
+      <c r="AY410" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ410" s="12">
+        <v>5</v>
+      </c>
       <c r="BA410" s="11"/>
       <c r="BB410" s="4"/>
       <c r="BC410" s="16"/>
@@ -20829,9 +20919,15 @@
       <c r="AU411" s="16"/>
       <c r="AW411" s="3"/>
       <c r="AX411" s="9"/>
-      <c r="AY411" s="6"/>
-      <c r="AZ411" s="12"/>
-      <c r="BA411" s="11"/>
+      <c r="AY411" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ411" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA411" s="11">
+        <v>3</v>
+      </c>
       <c r="BB411" s="4"/>
       <c r="BC411" s="16"/>
     </row>
@@ -20854,8 +20950,12 @@
       <c r="AU412" s="16"/>
       <c r="AW412" s="3"/>
       <c r="AX412" s="9"/>
-      <c r="AY412" s="6"/>
-      <c r="AZ412" s="12"/>
+      <c r="AY412" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ412" s="12">
+        <v>3</v>
+      </c>
       <c r="BA412" s="11"/>
       <c r="BB412" s="4"/>
       <c r="BC412" s="16"/>
@@ -20891,9 +20991,15 @@
       <c r="AU413" s="16"/>
       <c r="AW413" s="3"/>
       <c r="AX413" s="9"/>
-      <c r="AY413" s="6"/>
-      <c r="AZ413" s="12"/>
-      <c r="BA413" s="11"/>
+      <c r="AY413" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ413" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA413" s="11">
+        <v>2</v>
+      </c>
       <c r="BB413" s="4"/>
       <c r="BC413" s="16"/>
     </row>
@@ -20922,8 +21028,12 @@
       <c r="AU414" s="16"/>
       <c r="AW414" s="3"/>
       <c r="AX414" s="9"/>
-      <c r="AY414" s="6"/>
-      <c r="AZ414" s="12"/>
+      <c r="AY414" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ414" s="12">
+        <v>2</v>
+      </c>
       <c r="BA414" s="11"/>
       <c r="BB414" s="4"/>
       <c r="BC414" s="16"/>
@@ -20953,9 +21063,15 @@
       <c r="AU415" s="16"/>
       <c r="AW415" s="3"/>
       <c r="AX415" s="9"/>
-      <c r="AY415" s="6"/>
-      <c r="AZ415" s="12"/>
-      <c r="BA415" s="11"/>
+      <c r="AY415" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ415" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA415" s="11">
+        <v>1</v>
+      </c>
       <c r="BB415" s="4"/>
       <c r="BC415" s="16"/>
     </row>
@@ -21017,13 +21133,27 @@
       </c>
       <c r="AT417" s="4"/>
       <c r="AU417" s="16"/>
-      <c r="AW417" s="3"/>
-      <c r="AX417" s="9"/>
-      <c r="AY417" s="6"/>
-      <c r="AZ417" s="12"/>
-      <c r="BA417" s="11"/>
-      <c r="BB417" s="4"/>
-      <c r="BC417" s="16"/>
+      <c r="AW417" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX417" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY417" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ417" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA417" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB417" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC417" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="418" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG418" s="3"/>
@@ -21052,13 +21182,19 @@
       </c>
       <c r="AT418" s="4"/>
       <c r="AU418" s="16"/>
-      <c r="AW418" s="3"/>
+      <c r="AW418" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="AX418" s="9"/>
       <c r="AY418" s="6"/>
       <c r="AZ418" s="12"/>
       <c r="BA418" s="11"/>
-      <c r="BB418" s="4"/>
-      <c r="BC418" s="16"/>
+      <c r="BB418" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC418" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="419" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG419" s="3"/>
@@ -21081,9 +21217,15 @@
       <c r="AU419" s="16"/>
       <c r="AW419" s="3"/>
       <c r="AX419" s="9"/>
-      <c r="AY419" s="6"/>
-      <c r="AZ419" s="12"/>
-      <c r="BA419" s="11"/>
+      <c r="AY419" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ419" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA419" s="11">
+        <v>3</v>
+      </c>
       <c r="BB419" s="4"/>
       <c r="BC419" s="16"/>
     </row>
@@ -21116,8 +21258,12 @@
       <c r="AU420" s="16"/>
       <c r="AW420" s="3"/>
       <c r="AX420" s="9"/>
-      <c r="AY420" s="6"/>
-      <c r="AZ420" s="12"/>
+      <c r="AY420" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ420" s="12">
+        <v>3</v>
+      </c>
       <c r="BA420" s="11"/>
       <c r="BB420" s="4"/>
       <c r="BC420" s="16"/>
@@ -21147,8 +21293,12 @@
       <c r="AU421" s="16"/>
       <c r="AW421" s="3"/>
       <c r="AX421" s="9"/>
-      <c r="AY421" s="6"/>
-      <c r="AZ421" s="12"/>
+      <c r="AY421" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ421" s="12">
+        <v>3</v>
+      </c>
       <c r="BA421" s="11"/>
       <c r="BB421" s="4"/>
       <c r="BC421" s="16"/>
@@ -21180,8 +21330,12 @@
       <c r="AU422" s="16"/>
       <c r="AW422" s="3"/>
       <c r="AX422" s="9"/>
-      <c r="AY422" s="6"/>
-      <c r="AZ422" s="12"/>
+      <c r="AY422" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ422" s="12">
+        <v>3</v>
+      </c>
       <c r="BA422" s="11"/>
       <c r="BB422" s="4"/>
       <c r="BC422" s="16"/>
@@ -21211,8 +21365,12 @@
       <c r="AU423" s="16"/>
       <c r="AW423" s="3"/>
       <c r="AX423" s="9"/>
-      <c r="AY423" s="6"/>
-      <c r="AZ423" s="12"/>
+      <c r="AY423" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ423" s="12">
+        <v>4</v>
+      </c>
       <c r="BA423" s="11"/>
       <c r="BB423" s="4"/>
       <c r="BC423" s="16"/>
@@ -21246,8 +21404,12 @@
       </c>
       <c r="AW424" s="3"/>
       <c r="AX424" s="9"/>
-      <c r="AY424" s="6"/>
-      <c r="AZ424" s="12"/>
+      <c r="AY424" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ424" s="12">
+        <v>4</v>
+      </c>
       <c r="BA424" s="11"/>
       <c r="BB424" s="4"/>
       <c r="BC424" s="16"/>
@@ -21279,8 +21441,12 @@
       </c>
       <c r="AW425" s="3"/>
       <c r="AX425" s="9"/>
-      <c r="AY425" s="6"/>
-      <c r="AZ425" s="12"/>
+      <c r="AY425" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ425" s="12">
+        <v>4</v>
+      </c>
       <c r="BA425" s="11"/>
       <c r="BB425" s="4"/>
       <c r="BC425" s="16"/>
@@ -21308,9 +21474,15 @@
       <c r="AU426" s="16"/>
       <c r="AW426" s="3"/>
       <c r="AX426" s="9"/>
-      <c r="AY426" s="6"/>
-      <c r="AZ426" s="12"/>
-      <c r="BA426" s="11"/>
+      <c r="AY426" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ426" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA426" s="11">
+        <v>2</v>
+      </c>
       <c r="BB426" s="4"/>
       <c r="BC426" s="16"/>
     </row>
@@ -21343,8 +21515,12 @@
       <c r="AU427" s="16"/>
       <c r="AW427" s="3"/>
       <c r="AX427" s="9"/>
-      <c r="AY427" s="6"/>
-      <c r="AZ427" s="12"/>
+      <c r="AY427" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ427" s="12">
+        <v>2</v>
+      </c>
       <c r="BA427" s="11"/>
       <c r="BB427" s="4"/>
       <c r="BC427" s="16"/>
@@ -21374,8 +21550,12 @@
       <c r="AU428" s="16"/>
       <c r="AW428" s="3"/>
       <c r="AX428" s="9"/>
-      <c r="AY428" s="6"/>
-      <c r="AZ428" s="12"/>
+      <c r="AY428" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ428" s="12">
+        <v>2</v>
+      </c>
       <c r="BA428" s="11"/>
       <c r="BB428" s="4"/>
       <c r="BC428" s="16"/>
@@ -21405,8 +21585,12 @@
       <c r="AU429" s="16"/>
       <c r="AW429" s="3"/>
       <c r="AX429" s="9"/>
-      <c r="AY429" s="6"/>
-      <c r="AZ429" s="12"/>
+      <c r="AY429" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ429" s="12">
+        <v>2</v>
+      </c>
       <c r="BA429" s="11"/>
       <c r="BB429" s="4"/>
       <c r="BC429" s="16"/>
@@ -21440,9 +21624,15 @@
       <c r="AU430" s="16"/>
       <c r="AW430" s="3"/>
       <c r="AX430" s="9"/>
-      <c r="AY430" s="6"/>
-      <c r="AZ430" s="12"/>
-      <c r="BA430" s="11"/>
+      <c r="AY430" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ430" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA430" s="11">
+        <v>1</v>
+      </c>
       <c r="BB430" s="4"/>
       <c r="BC430" s="16"/>
     </row>
@@ -21500,11 +21690,21 @@
       <c r="AS432" s="11"/>
       <c r="AT432" s="4"/>
       <c r="AU432" s="16"/>
-      <c r="AW432" s="3"/>
-      <c r="AX432" s="9"/>
-      <c r="AY432" s="6"/>
-      <c r="AZ432" s="12"/>
-      <c r="BA432" s="11"/>
+      <c r="AW432" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX432" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY432" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ432" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA432" s="11">
+        <v>4</v>
+      </c>
       <c r="BB432" s="4"/>
       <c r="BC432" s="16"/>
     </row>
@@ -21535,11 +21735,19 @@
       </c>
       <c r="AT433" s="4"/>
       <c r="AU433" s="16"/>
-      <c r="AW433" s="3"/>
+      <c r="AW433" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="AX433" s="9"/>
-      <c r="AY433" s="6"/>
-      <c r="AZ433" s="12"/>
-      <c r="BA433" s="11"/>
+      <c r="AY433" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ433" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA433" s="11">
+        <v>3</v>
+      </c>
       <c r="BB433" s="4"/>
       <c r="BC433" s="16"/>
     </row>
@@ -21568,8 +21776,12 @@
       <c r="AU434" s="16"/>
       <c r="AW434" s="3"/>
       <c r="AX434" s="9"/>
-      <c r="AY434" s="6"/>
-      <c r="AZ434" s="12"/>
+      <c r="AY434" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ434" s="12">
+        <v>3</v>
+      </c>
       <c r="BA434" s="11"/>
       <c r="BB434" s="4"/>
       <c r="BC434" s="16"/>
@@ -21601,8 +21813,12 @@
       <c r="AU435" s="16"/>
       <c r="AW435" s="3"/>
       <c r="AX435" s="9"/>
-      <c r="AY435" s="6"/>
-      <c r="AZ435" s="12"/>
+      <c r="AY435" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ435" s="12">
+        <v>3</v>
+      </c>
       <c r="BA435" s="11"/>
       <c r="BB435" s="4"/>
       <c r="BC435" s="16"/>
@@ -21632,8 +21848,12 @@
       <c r="AU436" s="16"/>
       <c r="AW436" s="3"/>
       <c r="AX436" s="9"/>
-      <c r="AY436" s="6"/>
-      <c r="AZ436" s="12"/>
+      <c r="AY436" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ436" s="12">
+        <v>3</v>
+      </c>
       <c r="BA436" s="11"/>
       <c r="BB436" s="4"/>
       <c r="BC436" s="16"/>
@@ -21667,8 +21887,12 @@
       </c>
       <c r="AW437" s="3"/>
       <c r="AX437" s="9"/>
-      <c r="AY437" s="6"/>
-      <c r="AZ437" s="12"/>
+      <c r="AY437" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ437" s="12">
+        <v>6</v>
+      </c>
       <c r="BA437" s="11"/>
       <c r="BB437" s="4"/>
       <c r="BC437" s="16"/>
@@ -21698,8 +21922,12 @@
       </c>
       <c r="AW438" s="3"/>
       <c r="AX438" s="9"/>
-      <c r="AY438" s="6"/>
-      <c r="AZ438" s="12"/>
+      <c r="AY438" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ438" s="12">
+        <v>4</v>
+      </c>
       <c r="BA438" s="11"/>
       <c r="BB438" s="4"/>
       <c r="BC438" s="16"/>
@@ -21733,8 +21961,12 @@
       <c r="AU439" s="16"/>
       <c r="AW439" s="3"/>
       <c r="AX439" s="9"/>
-      <c r="AY439" s="6"/>
-      <c r="AZ439" s="12"/>
+      <c r="AY439" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ439" s="12">
+        <v>4</v>
+      </c>
       <c r="BA439" s="11"/>
       <c r="BB439" s="4"/>
       <c r="BC439" s="16"/>
@@ -21760,9 +21992,15 @@
       <c r="AU440" s="16"/>
       <c r="AW440" s="3"/>
       <c r="AX440" s="9"/>
-      <c r="AY440" s="6"/>
-      <c r="AZ440" s="12"/>
-      <c r="BA440" s="11"/>
+      <c r="AY440" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ440" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA440" s="11">
+        <v>2</v>
+      </c>
       <c r="BB440" s="4"/>
       <c r="BC440" s="16"/>
     </row>
@@ -21795,8 +22033,12 @@
       <c r="AU441" s="16"/>
       <c r="AW441" s="3"/>
       <c r="AX441" s="9"/>
-      <c r="AY441" s="6"/>
-      <c r="AZ441" s="12"/>
+      <c r="AY441" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ441" s="12">
+        <v>2</v>
+      </c>
       <c r="BA441" s="11"/>
       <c r="BB441" s="4"/>
       <c r="BC441" s="16"/>
@@ -21828,8 +22070,12 @@
       <c r="AU442" s="16"/>
       <c r="AW442" s="3"/>
       <c r="AX442" s="9"/>
-      <c r="AY442" s="6"/>
-      <c r="AZ442" s="12"/>
+      <c r="AY442" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ442" s="12">
+        <v>2</v>
+      </c>
       <c r="BA442" s="11"/>
       <c r="BB442" s="4"/>
       <c r="BC442" s="16"/>
@@ -21859,8 +22105,12 @@
       <c r="AU443" s="16"/>
       <c r="AW443" s="3"/>
       <c r="AX443" s="9"/>
-      <c r="AY443" s="6"/>
-      <c r="AZ443" s="12"/>
+      <c r="AY443" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ443" s="12">
+        <v>2</v>
+      </c>
       <c r="BA443" s="11"/>
       <c r="BB443" s="4"/>
       <c r="BC443" s="16"/>
@@ -21892,9 +22142,15 @@
       <c r="AU444" s="16"/>
       <c r="AW444" s="3"/>
       <c r="AX444" s="9"/>
-      <c r="AY444" s="6"/>
-      <c r="AZ444" s="12"/>
-      <c r="BA444" s="11"/>
+      <c r="AY444" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ444" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA444" s="11">
+        <v>1</v>
+      </c>
       <c r="BB444" s="4"/>
       <c r="BC444" s="16"/>
     </row>
@@ -21952,11 +22208,21 @@
       <c r="AS446" s="11"/>
       <c r="AT446" s="4"/>
       <c r="AU446" s="16"/>
-      <c r="AW446" s="3"/>
-      <c r="AX446" s="9"/>
-      <c r="AY446" s="6"/>
-      <c r="AZ446" s="12"/>
-      <c r="BA446" s="11"/>
+      <c r="AW446" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX446" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY446" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ446" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA446" s="11">
+        <v>4</v>
+      </c>
       <c r="BB446" s="4"/>
       <c r="BC446" s="16"/>
     </row>
@@ -21989,9 +22255,15 @@
       <c r="AU447" s="16"/>
       <c r="AW447" s="3"/>
       <c r="AX447" s="9"/>
-      <c r="AY447" s="6"/>
-      <c r="AZ447" s="12"/>
-      <c r="BA447" s="11"/>
+      <c r="AY447" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ447" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA447" s="11">
+        <v>3</v>
+      </c>
       <c r="BB447" s="4"/>
       <c r="BC447" s="16"/>
     </row>
@@ -22020,8 +22292,12 @@
       <c r="AU448" s="16"/>
       <c r="AW448" s="3"/>
       <c r="AX448" s="9"/>
-      <c r="AY448" s="6"/>
-      <c r="AZ448" s="12"/>
+      <c r="AY448" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ448" s="12">
+        <v>3</v>
+      </c>
       <c r="BA448" s="11"/>
       <c r="BB448" s="4"/>
       <c r="BC448" s="16"/>
@@ -22053,8 +22329,12 @@
       <c r="AU449" s="16"/>
       <c r="AW449" s="3"/>
       <c r="AX449" s="9"/>
-      <c r="AY449" s="6"/>
-      <c r="AZ449" s="12"/>
+      <c r="AY449" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ449" s="12">
+        <v>3</v>
+      </c>
       <c r="BA449" s="11"/>
       <c r="BB449" s="4"/>
       <c r="BC449" s="16"/>
@@ -22084,8 +22364,12 @@
       <c r="AU450" s="16"/>
       <c r="AW450" s="3"/>
       <c r="AX450" s="9"/>
-      <c r="AY450" s="6"/>
-      <c r="AZ450" s="12"/>
+      <c r="AY450" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ450" s="12">
+        <v>3</v>
+      </c>
       <c r="BA450" s="11"/>
       <c r="BB450" s="4"/>
       <c r="BC450" s="16"/>
@@ -22119,8 +22403,12 @@
       </c>
       <c r="AW451" s="3"/>
       <c r="AX451" s="9"/>
-      <c r="AY451" s="6"/>
-      <c r="AZ451" s="12"/>
+      <c r="AY451" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ451" s="12">
+        <v>5</v>
+      </c>
       <c r="BA451" s="11"/>
       <c r="BB451" s="4"/>
       <c r="BC451" s="16"/>
@@ -22150,11 +22438,19 @@
       </c>
       <c r="AW452" s="3"/>
       <c r="AX452" s="9"/>
-      <c r="AY452" s="6"/>
-      <c r="AZ452" s="12"/>
+      <c r="AY452" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ452" s="12">
+        <v>4</v>
+      </c>
       <c r="BA452" s="11"/>
-      <c r="BB452" s="4"/>
-      <c r="BC452" s="16"/>
+      <c r="BB452" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC452" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="453" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG453" s="3"/>
@@ -22186,8 +22482,12 @@
       <c r="AY453" s="6"/>
       <c r="AZ453" s="12"/>
       <c r="BA453" s="11"/>
-      <c r="BB453" s="4"/>
-      <c r="BC453" s="16"/>
+      <c r="BB453" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC453" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="454" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG454" s="3"/>
@@ -22216,9 +22516,15 @@
       <c r="AU454" s="16"/>
       <c r="AW454" s="3"/>
       <c r="AX454" s="9"/>
-      <c r="AY454" s="6"/>
-      <c r="AZ454" s="12"/>
-      <c r="BA454" s="11"/>
+      <c r="AY454" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ454" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA454" s="11">
+        <v>2</v>
+      </c>
       <c r="BB454" s="4"/>
       <c r="BC454" s="16"/>
     </row>
@@ -22243,8 +22549,12 @@
       <c r="AU455" s="16"/>
       <c r="AW455" s="3"/>
       <c r="AX455" s="9"/>
-      <c r="AY455" s="6"/>
-      <c r="AZ455" s="12"/>
+      <c r="AY455" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ455" s="12">
+        <v>2</v>
+      </c>
       <c r="BA455" s="11"/>
       <c r="BB455" s="4"/>
       <c r="BC455" s="16"/>
@@ -22278,8 +22588,12 @@
       <c r="AU456" s="16"/>
       <c r="AW456" s="3"/>
       <c r="AX456" s="9"/>
-      <c r="AY456" s="6"/>
-      <c r="AZ456" s="12"/>
+      <c r="AY456" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ456" s="12">
+        <v>2</v>
+      </c>
       <c r="BA456" s="11"/>
       <c r="BB456" s="4"/>
       <c r="BC456" s="16"/>
@@ -22311,9 +22625,15 @@
       <c r="AU457" s="16"/>
       <c r="AW457" s="3"/>
       <c r="AX457" s="9"/>
-      <c r="AY457" s="6"/>
-      <c r="AZ457" s="12"/>
-      <c r="BA457" s="11"/>
+      <c r="AY457" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ457" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA457" s="11">
+        <v>1</v>
+      </c>
       <c r="BB457" s="4"/>
       <c r="BC457" s="16"/>
     </row>
@@ -22375,13 +22695,27 @@
       </c>
       <c r="AT459" s="4"/>
       <c r="AU459" s="16"/>
-      <c r="AW459" s="3"/>
-      <c r="AX459" s="9"/>
-      <c r="AY459" s="6"/>
-      <c r="AZ459" s="12"/>
-      <c r="BA459" s="11"/>
-      <c r="BB459" s="4"/>
-      <c r="BC459" s="16"/>
+      <c r="AW459" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX459" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY459" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ459" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA459" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB459" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC459" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="460" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG460" s="3"/>
@@ -22407,8 +22741,12 @@
       <c r="AY460" s="6"/>
       <c r="AZ460" s="12"/>
       <c r="BA460" s="11"/>
-      <c r="BB460" s="4"/>
-      <c r="BC460" s="16"/>
+      <c r="BB460" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC460" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="461" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG461" s="3"/>
@@ -22439,11 +22777,21 @@
       <c r="AU461" s="16"/>
       <c r="AW461" s="3"/>
       <c r="AX461" s="9"/>
-      <c r="AY461" s="6"/>
-      <c r="AZ461" s="12"/>
-      <c r="BA461" s="11"/>
-      <c r="BB461" s="4"/>
-      <c r="BC461" s="16"/>
+      <c r="AY461" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ461" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA461" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB461" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC461" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="462" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG462" s="3"/>
@@ -22475,8 +22823,12 @@
       <c r="AY462" s="6"/>
       <c r="AZ462" s="12"/>
       <c r="BA462" s="11"/>
-      <c r="BB462" s="4"/>
-      <c r="BC462" s="16"/>
+      <c r="BB462" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC462" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="463" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG463" s="3"/>
@@ -22503,8 +22855,12 @@
       <c r="AU463" s="16"/>
       <c r="AW463" s="3"/>
       <c r="AX463" s="9"/>
-      <c r="AY463" s="6"/>
-      <c r="AZ463" s="12"/>
+      <c r="AY463" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ463" s="12">
+        <v>3</v>
+      </c>
       <c r="BA463" s="11"/>
       <c r="BB463" s="4"/>
       <c r="BC463" s="16"/>
@@ -22536,8 +22892,12 @@
       <c r="AU464" s="16"/>
       <c r="AW464" s="3"/>
       <c r="AX464" s="9"/>
-      <c r="AY464" s="6"/>
-      <c r="AZ464" s="12"/>
+      <c r="AY464" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ464" s="12">
+        <v>3</v>
+      </c>
       <c r="BA464" s="11"/>
       <c r="BB464" s="4"/>
       <c r="BC464" s="16"/>
@@ -22569,8 +22929,12 @@
       <c r="AU465" s="16"/>
       <c r="AW465" s="3"/>
       <c r="AX465" s="9"/>
-      <c r="AY465" s="6"/>
-      <c r="AZ465" s="12"/>
+      <c r="AY465" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ465" s="12">
+        <v>3</v>
+      </c>
       <c r="BA465" s="11"/>
       <c r="BB465" s="4"/>
       <c r="BC465" s="16"/>
@@ -22600,8 +22964,12 @@
       <c r="AU466" s="16"/>
       <c r="AW466" s="3"/>
       <c r="AX466" s="9"/>
-      <c r="AY466" s="6"/>
-      <c r="AZ466" s="12"/>
+      <c r="AY466" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ466" s="12">
+        <v>3</v>
+      </c>
       <c r="BA466" s="11"/>
       <c r="BB466" s="4"/>
       <c r="BC466" s="16"/>
@@ -22631,8 +22999,12 @@
       <c r="AU467" s="16"/>
       <c r="AW467" s="3"/>
       <c r="AX467" s="9"/>
-      <c r="AY467" s="6"/>
-      <c r="AZ467" s="12"/>
+      <c r="AY467" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ467" s="12">
+        <v>3</v>
+      </c>
       <c r="BA467" s="11"/>
       <c r="BB467" s="4"/>
       <c r="BC467" s="16"/>
@@ -22662,9 +23034,15 @@
       <c r="AU468" s="16"/>
       <c r="AW468" s="3"/>
       <c r="AX468" s="9"/>
-      <c r="AY468" s="6"/>
-      <c r="AZ468" s="12"/>
-      <c r="BA468" s="11"/>
+      <c r="AY468" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ468" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA468" s="11">
+        <v>2</v>
+      </c>
       <c r="BB468" s="4"/>
       <c r="BC468" s="16"/>
     </row>
@@ -22695,8 +23073,12 @@
       <c r="AU469" s="16"/>
       <c r="AW469" s="3"/>
       <c r="AX469" s="9"/>
-      <c r="AY469" s="6"/>
-      <c r="AZ469" s="12"/>
+      <c r="AY469" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ469" s="12">
+        <v>3</v>
+      </c>
       <c r="BA469" s="11"/>
       <c r="BB469" s="4"/>
       <c r="BC469" s="16"/>
@@ -22724,8 +23106,12 @@
       <c r="AU470" s="16"/>
       <c r="AW470" s="3"/>
       <c r="AX470" s="9"/>
-      <c r="AY470" s="6"/>
-      <c r="AZ470" s="12"/>
+      <c r="AY470" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ470" s="12">
+        <v>2</v>
+      </c>
       <c r="BA470" s="11"/>
       <c r="BB470" s="4"/>
       <c r="BC470" s="16"/>
@@ -22755,8 +23141,12 @@
       <c r="AU471" s="16"/>
       <c r="AW471" s="3"/>
       <c r="AX471" s="9"/>
-      <c r="AY471" s="6"/>
-      <c r="AZ471" s="12"/>
+      <c r="AY471" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ471" s="12">
+        <v>2</v>
+      </c>
       <c r="BA471" s="11"/>
       <c r="BB471" s="4"/>
       <c r="BC471" s="16"/>
@@ -22796,9 +23186,15 @@
       </c>
       <c r="AW472" s="3"/>
       <c r="AX472" s="9"/>
-      <c r="AY472" s="6"/>
-      <c r="AZ472" s="12"/>
-      <c r="BA472" s="11"/>
+      <c r="AY472" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ472" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA472" s="11">
+        <v>1</v>
+      </c>
       <c r="BB472" s="4"/>
       <c r="BC472" s="16"/>
     </row>
@@ -22858,13 +23254,27 @@
       </c>
       <c r="AT474" s="4"/>
       <c r="AU474" s="16"/>
-      <c r="AW474" s="3"/>
-      <c r="AX474" s="9"/>
-      <c r="AY474" s="6"/>
-      <c r="AZ474" s="12"/>
-      <c r="BA474" s="11"/>
-      <c r="BB474" s="4"/>
-      <c r="BC474" s="16"/>
+      <c r="AW474" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX474" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY474" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ474" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA474" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB474" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC474" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="475" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG475" s="3"/>
@@ -22894,8 +23304,12 @@
       <c r="AY475" s="6"/>
       <c r="AZ475" s="12"/>
       <c r="BA475" s="11"/>
-      <c r="BB475" s="4"/>
-      <c r="BC475" s="16"/>
+      <c r="BB475" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC475" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="476" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG476" s="3"/>
@@ -22922,9 +23336,15 @@
       <c r="AU476" s="16"/>
       <c r="AW476" s="3"/>
       <c r="AX476" s="9"/>
-      <c r="AY476" s="6"/>
-      <c r="AZ476" s="12"/>
-      <c r="BA476" s="11"/>
+      <c r="AY476" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ476" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA476" s="11">
+        <v>3</v>
+      </c>
       <c r="BB476" s="4"/>
       <c r="BC476" s="16"/>
     </row>
@@ -22955,8 +23375,12 @@
       <c r="AU477" s="16"/>
       <c r="AW477" s="3"/>
       <c r="AX477" s="9"/>
-      <c r="AY477" s="6"/>
-      <c r="AZ477" s="12"/>
+      <c r="AY477" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ477" s="12">
+        <v>3</v>
+      </c>
       <c r="BA477" s="11"/>
       <c r="BB477" s="4"/>
       <c r="BC477" s="16"/>
@@ -22986,8 +23410,12 @@
       <c r="AU478" s="16"/>
       <c r="AW478" s="3"/>
       <c r="AX478" s="9"/>
-      <c r="AY478" s="6"/>
-      <c r="AZ478" s="12"/>
+      <c r="AY478" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ478" s="12">
+        <v>3</v>
+      </c>
       <c r="BA478" s="11"/>
       <c r="BB478" s="4"/>
       <c r="BC478" s="16"/>
@@ -23017,8 +23445,12 @@
       <c r="AU479" s="16"/>
       <c r="AW479" s="3"/>
       <c r="AX479" s="9"/>
-      <c r="AY479" s="6"/>
-      <c r="AZ479" s="12"/>
+      <c r="AY479" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ479" s="12">
+        <v>3</v>
+      </c>
       <c r="BA479" s="11"/>
       <c r="BB479" s="4"/>
       <c r="BC479" s="16"/>
@@ -23050,8 +23482,12 @@
       <c r="AU480" s="16"/>
       <c r="AW480" s="3"/>
       <c r="AX480" s="9"/>
-      <c r="AY480" s="6"/>
-      <c r="AZ480" s="12"/>
+      <c r="AY480" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ480" s="12">
+        <v>4</v>
+      </c>
       <c r="BA480" s="11"/>
       <c r="BB480" s="4"/>
       <c r="BC480" s="16"/>
@@ -23081,11 +23517,19 @@
       <c r="AU481" s="16"/>
       <c r="AW481" s="3"/>
       <c r="AX481" s="9"/>
-      <c r="AY481" s="6"/>
-      <c r="AZ481" s="12"/>
+      <c r="AY481" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ481" s="12">
+        <v>3</v>
+      </c>
       <c r="BA481" s="11"/>
-      <c r="BB481" s="4"/>
-      <c r="BC481" s="16"/>
+      <c r="BB481" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC481" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="482" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG482" s="3"/>
@@ -23115,8 +23559,12 @@
       <c r="AY482" s="6"/>
       <c r="AZ482" s="12"/>
       <c r="BA482" s="11"/>
-      <c r="BB482" s="4"/>
-      <c r="BC482" s="16"/>
+      <c r="BB482" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC482" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="483" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG483" s="3"/>
@@ -23145,9 +23593,15 @@
       <c r="AU483" s="16"/>
       <c r="AW483" s="3"/>
       <c r="AX483" s="9"/>
-      <c r="AY483" s="6"/>
-      <c r="AZ483" s="12"/>
-      <c r="BA483" s="11"/>
+      <c r="AY483" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ483" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA483" s="11">
+        <v>2</v>
+      </c>
       <c r="BB483" s="4"/>
       <c r="BC483" s="16"/>
     </row>
@@ -23174,8 +23628,12 @@
       <c r="AU484" s="16"/>
       <c r="AW484" s="3"/>
       <c r="AX484" s="9"/>
-      <c r="AY484" s="6"/>
-      <c r="AZ484" s="12"/>
+      <c r="AY484" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ484" s="12">
+        <v>3</v>
+      </c>
       <c r="BA484" s="11"/>
       <c r="BB484" s="4"/>
       <c r="BC484" s="16"/>
@@ -23205,8 +23663,12 @@
       <c r="AU485" s="16"/>
       <c r="AW485" s="3"/>
       <c r="AX485" s="9"/>
-      <c r="AY485" s="6"/>
-      <c r="AZ485" s="12"/>
+      <c r="AY485" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ485" s="12">
+        <v>2</v>
+      </c>
       <c r="BA485" s="11"/>
       <c r="BB485" s="4"/>
       <c r="BC485" s="16"/>
@@ -23242,8 +23704,12 @@
       <c r="AU486" s="16"/>
       <c r="AW486" s="3"/>
       <c r="AX486" s="9"/>
-      <c r="AY486" s="6"/>
-      <c r="AZ486" s="12"/>
+      <c r="AY486" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ486" s="12">
+        <v>2</v>
+      </c>
       <c r="BA486" s="11"/>
       <c r="BB486" s="4"/>
       <c r="BC486" s="16"/>
@@ -23273,9 +23739,15 @@
       <c r="AU487" s="16"/>
       <c r="AW487" s="3"/>
       <c r="AX487" s="9"/>
-      <c r="AY487" s="6"/>
-      <c r="AZ487" s="12"/>
-      <c r="BA487" s="11"/>
+      <c r="AY487" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ487" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA487" s="11">
+        <v>1</v>
+      </c>
       <c r="BB487" s="4"/>
       <c r="BC487" s="16"/>
     </row>
@@ -23335,11 +23807,21 @@
       <c r="AS489" s="11"/>
       <c r="AT489" s="4"/>
       <c r="AU489" s="16"/>
-      <c r="AW489" s="3"/>
-      <c r="AX489" s="9"/>
-      <c r="AY489" s="6"/>
-      <c r="AZ489" s="12"/>
-      <c r="BA489" s="11"/>
+      <c r="AW489" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX489" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY489" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ489" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA489" s="11">
+        <v>4</v>
+      </c>
       <c r="BB489" s="4"/>
       <c r="BC489" s="16"/>
     </row>
@@ -23370,9 +23852,15 @@
       <c r="AU490" s="16"/>
       <c r="AW490" s="3"/>
       <c r="AX490" s="9"/>
-      <c r="AY490" s="6"/>
-      <c r="AZ490" s="12"/>
-      <c r="BA490" s="11"/>
+      <c r="AY490" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ490" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA490" s="11">
+        <v>3</v>
+      </c>
       <c r="BB490" s="4"/>
       <c r="BC490" s="16"/>
     </row>
@@ -23401,8 +23889,12 @@
       <c r="AU491" s="16"/>
       <c r="AW491" s="3"/>
       <c r="AX491" s="9"/>
-      <c r="AY491" s="6"/>
-      <c r="AZ491" s="12"/>
+      <c r="AY491" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ491" s="12">
+        <v>3</v>
+      </c>
       <c r="BA491" s="11"/>
       <c r="BB491" s="4"/>
       <c r="BC491" s="16"/>
@@ -23434,8 +23926,12 @@
       <c r="AU492" s="16"/>
       <c r="AW492" s="3"/>
       <c r="AX492" s="9"/>
-      <c r="AY492" s="6"/>
-      <c r="AZ492" s="12"/>
+      <c r="AY492" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ492" s="12">
+        <v>3</v>
+      </c>
       <c r="BA492" s="11"/>
       <c r="BB492" s="4"/>
       <c r="BC492" s="16"/>
@@ -23465,8 +23961,12 @@
       <c r="AU493" s="16"/>
       <c r="AW493" s="3"/>
       <c r="AX493" s="9"/>
-      <c r="AY493" s="6"/>
-      <c r="AZ493" s="12"/>
+      <c r="AY493" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ493" s="12">
+        <v>3</v>
+      </c>
       <c r="BA493" s="11"/>
       <c r="BB493" s="4"/>
       <c r="BC493" s="16"/>
@@ -23496,11 +23996,19 @@
       <c r="AU494" s="16"/>
       <c r="AW494" s="3"/>
       <c r="AX494" s="9"/>
-      <c r="AY494" s="6"/>
-      <c r="AZ494" s="12"/>
+      <c r="AY494" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ494" s="12">
+        <v>4</v>
+      </c>
       <c r="BA494" s="11"/>
-      <c r="BB494" s="4"/>
-      <c r="BC494" s="16"/>
+      <c r="BB494" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC494" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="495" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG495" s="3"/>
@@ -23532,8 +24040,12 @@
       <c r="AY495" s="6"/>
       <c r="AZ495" s="12"/>
       <c r="BA495" s="11"/>
-      <c r="BB495" s="4"/>
-      <c r="BC495" s="16"/>
+      <c r="BB495" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC495" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="496" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG496" s="3"/>
@@ -23556,9 +24068,15 @@
       <c r="AU496" s="16"/>
       <c r="AW496" s="3"/>
       <c r="AX496" s="9"/>
-      <c r="AY496" s="6"/>
-      <c r="AZ496" s="12"/>
-      <c r="BA496" s="11"/>
+      <c r="AY496" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ496" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA496" s="11">
+        <v>2</v>
+      </c>
       <c r="BB496" s="4"/>
       <c r="BC496" s="16"/>
     </row>
@@ -23591,8 +24109,12 @@
       <c r="AU497" s="16"/>
       <c r="AW497" s="3"/>
       <c r="AX497" s="9"/>
-      <c r="AY497" s="6"/>
-      <c r="AZ497" s="12"/>
+      <c r="AY497" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ497" s="12">
+        <v>3</v>
+      </c>
       <c r="BA497" s="11"/>
       <c r="BB497" s="4"/>
       <c r="BC497" s="16"/>
@@ -23626,8 +24148,12 @@
       <c r="AU498" s="16"/>
       <c r="AW498" s="3"/>
       <c r="AX498" s="9"/>
-      <c r="AY498" s="6"/>
-      <c r="AZ498" s="12"/>
+      <c r="AY498" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ498" s="12">
+        <v>2</v>
+      </c>
       <c r="BA498" s="11"/>
       <c r="BB498" s="4"/>
       <c r="BC498" s="16"/>
@@ -23657,8 +24183,12 @@
       <c r="AU499" s="16"/>
       <c r="AW499" s="3"/>
       <c r="AX499" s="9"/>
-      <c r="AY499" s="6"/>
-      <c r="AZ499" s="12"/>
+      <c r="AY499" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ499" s="12">
+        <v>2</v>
+      </c>
       <c r="BA499" s="11"/>
       <c r="BB499" s="4"/>
       <c r="BC499" s="16"/>
@@ -23684,8 +24214,12 @@
       <c r="AU500" s="16"/>
       <c r="AW500" s="3"/>
       <c r="AX500" s="9"/>
-      <c r="AY500" s="6"/>
-      <c r="AZ500" s="12"/>
+      <c r="AY500" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ500" s="12">
+        <v>2</v>
+      </c>
       <c r="BA500" s="11"/>
       <c r="BB500" s="4"/>
       <c r="BC500" s="16"/>
@@ -23719,9 +24253,15 @@
       <c r="AU501" s="16"/>
       <c r="AW501" s="3"/>
       <c r="AX501" s="9"/>
-      <c r="AY501" s="6"/>
-      <c r="AZ501" s="12"/>
-      <c r="BA501" s="11"/>
+      <c r="AY501" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ501" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA501" s="11">
+        <v>1</v>
+      </c>
       <c r="BB501" s="4"/>
       <c r="BC501" s="16"/>
     </row>
@@ -23784,10 +24324,18 @@
       <c r="AT503" s="4"/>
       <c r="AU503" s="16"/>
       <c r="AW503" s="3"/>
-      <c r="AX503" s="9"/>
-      <c r="AY503" s="6"/>
-      <c r="AZ503" s="12"/>
-      <c r="BA503" s="11"/>
+      <c r="AX503" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY503" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ503" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA503" s="11">
+        <v>3</v>
+      </c>
       <c r="BB503" s="4"/>
       <c r="BC503" s="16"/>
     </row>
@@ -23816,8 +24364,12 @@
       <c r="AU504" s="16"/>
       <c r="AW504" s="3"/>
       <c r="AX504" s="9"/>
-      <c r="AY504" s="6"/>
-      <c r="AZ504" s="12"/>
+      <c r="AY504" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ504" s="12">
+        <v>3</v>
+      </c>
       <c r="BA504" s="11"/>
       <c r="BB504" s="4"/>
       <c r="BC504" s="16"/>
@@ -23847,8 +24399,12 @@
       <c r="AU505" s="16"/>
       <c r="AW505" s="3"/>
       <c r="AX505" s="9"/>
-      <c r="AY505" s="6"/>
-      <c r="AZ505" s="12"/>
+      <c r="AY505" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ505" s="12">
+        <v>3</v>
+      </c>
       <c r="BA505" s="11"/>
       <c r="BB505" s="4"/>
       <c r="BC505" s="16"/>
@@ -23880,8 +24436,12 @@
       <c r="AU506" s="16"/>
       <c r="AW506" s="3"/>
       <c r="AX506" s="9"/>
-      <c r="AY506" s="6"/>
-      <c r="AZ506" s="12"/>
+      <c r="AY506" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ506" s="12">
+        <v>5</v>
+      </c>
       <c r="BA506" s="11"/>
       <c r="BB506" s="4"/>
       <c r="BC506" s="16"/>
@@ -23911,11 +24471,19 @@
       <c r="AU507" s="16"/>
       <c r="AW507" s="3"/>
       <c r="AX507" s="9"/>
-      <c r="AY507" s="6"/>
-      <c r="AZ507" s="12"/>
+      <c r="AY507" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ507" s="12">
+        <v>4</v>
+      </c>
       <c r="BA507" s="11"/>
-      <c r="BB507" s="4"/>
-      <c r="BC507" s="16"/>
+      <c r="BB507" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC507" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="508" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG508" s="3"/>
@@ -23947,8 +24515,12 @@
       <c r="AY508" s="6"/>
       <c r="AZ508" s="12"/>
       <c r="BA508" s="11"/>
-      <c r="BB508" s="4"/>
-      <c r="BC508" s="16"/>
+      <c r="BB508" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC508" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="509" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG509" s="3"/>
@@ -23971,8 +24543,12 @@
       <c r="AU509" s="16"/>
       <c r="AW509" s="3"/>
       <c r="AX509" s="9"/>
-      <c r="AY509" s="6"/>
-      <c r="AZ509" s="12"/>
+      <c r="AY509" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ509" s="12">
+        <v>2</v>
+      </c>
       <c r="BA509" s="11"/>
       <c r="BB509" s="4"/>
       <c r="BC509" s="16"/>
@@ -24010,9 +24586,15 @@
       </c>
       <c r="AW510" s="3"/>
       <c r="AX510" s="9"/>
-      <c r="AY510" s="6"/>
-      <c r="AZ510" s="12"/>
-      <c r="BA510" s="11"/>
+      <c r="AY510" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ510" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA510" s="11">
+        <v>2</v>
+      </c>
       <c r="BB510" s="4"/>
       <c r="BC510" s="16"/>
     </row>
@@ -24041,8 +24623,12 @@
       </c>
       <c r="AW511" s="3"/>
       <c r="AX511" s="9"/>
-      <c r="AY511" s="6"/>
-      <c r="AZ511" s="12"/>
+      <c r="AY511" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ511" s="12">
+        <v>3</v>
+      </c>
       <c r="BA511" s="11"/>
       <c r="BB511" s="4"/>
       <c r="BC511" s="16"/>
@@ -24078,8 +24664,12 @@
       </c>
       <c r="AW512" s="3"/>
       <c r="AX512" s="9"/>
-      <c r="AY512" s="6"/>
-      <c r="AZ512" s="12"/>
+      <c r="AY512" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ512" s="12">
+        <v>2</v>
+      </c>
       <c r="BA512" s="11"/>
       <c r="BB512" s="4"/>
       <c r="BC512" s="16"/>
@@ -24111,8 +24701,12 @@
       </c>
       <c r="AW513" s="3"/>
       <c r="AX513" s="9"/>
-      <c r="AY513" s="6"/>
-      <c r="AZ513" s="12"/>
+      <c r="AY513" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ513" s="12">
+        <v>2</v>
+      </c>
       <c r="BA513" s="11"/>
       <c r="BB513" s="4"/>
       <c r="BC513" s="16"/>
@@ -24142,9 +24736,15 @@
       </c>
       <c r="AW514" s="3"/>
       <c r="AX514" s="9"/>
-      <c r="AY514" s="6"/>
-      <c r="AZ514" s="12"/>
-      <c r="BA514" s="11"/>
+      <c r="AY514" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ514" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA514" s="11">
+        <v>1</v>
+      </c>
       <c r="BB514" s="4"/>
       <c r="BC514" s="16"/>
     </row>
@@ -24202,11 +24802,21 @@
       <c r="AS516" s="11"/>
       <c r="AT516" s="4"/>
       <c r="AU516" s="16"/>
-      <c r="AW516" s="3"/>
-      <c r="AX516" s="9"/>
-      <c r="AY516" s="6"/>
-      <c r="AZ516" s="12"/>
-      <c r="BA516" s="11"/>
+      <c r="AW516" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX516" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY516" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ516" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA516" s="11">
+        <v>3</v>
+      </c>
       <c r="BB516" s="4"/>
       <c r="BC516" s="16"/>
     </row>
@@ -24235,8 +24845,12 @@
       <c r="AU517" s="16"/>
       <c r="AW517" s="3"/>
       <c r="AX517" s="9"/>
-      <c r="AY517" s="6"/>
-      <c r="AZ517" s="12"/>
+      <c r="AY517" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ517" s="12">
+        <v>3</v>
+      </c>
       <c r="BA517" s="11"/>
       <c r="BB517" s="4"/>
       <c r="BC517" s="16"/>
@@ -24270,8 +24884,12 @@
       <c r="AU518" s="16"/>
       <c r="AW518" s="3"/>
       <c r="AX518" s="9"/>
-      <c r="AY518" s="6"/>
-      <c r="AZ518" s="12"/>
+      <c r="AY518" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ518" s="12">
+        <v>3</v>
+      </c>
       <c r="BA518" s="11"/>
       <c r="BB518" s="4"/>
       <c r="BC518" s="16"/>
@@ -24301,8 +24919,12 @@
       <c r="AU519" s="16"/>
       <c r="AW519" s="3"/>
       <c r="AX519" s="9"/>
-      <c r="AY519" s="6"/>
-      <c r="AZ519" s="12"/>
+      <c r="AY519" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ519" s="12">
+        <v>3</v>
+      </c>
       <c r="BA519" s="11"/>
       <c r="BB519" s="4"/>
       <c r="BC519" s="16"/>
@@ -24334,8 +24956,12 @@
       <c r="AU520" s="16"/>
       <c r="AW520" s="3"/>
       <c r="AX520" s="9"/>
-      <c r="AY520" s="6"/>
-      <c r="AZ520" s="12"/>
+      <c r="AY520" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ520" s="12">
+        <v>5</v>
+      </c>
       <c r="BA520" s="11"/>
       <c r="BB520" s="4"/>
       <c r="BC520" s="16"/>
@@ -24365,11 +24991,19 @@
       <c r="AU521" s="16"/>
       <c r="AW521" s="3"/>
       <c r="AX521" s="9"/>
-      <c r="AY521" s="6"/>
-      <c r="AZ521" s="12"/>
+      <c r="AY521" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ521" s="12">
+        <v>4</v>
+      </c>
       <c r="BA521" s="11"/>
-      <c r="BB521" s="4"/>
-      <c r="BC521" s="16"/>
+      <c r="BB521" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC521" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="522" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG522" s="3"/>
@@ -24399,8 +25033,12 @@
       <c r="AY522" s="6"/>
       <c r="AZ522" s="12"/>
       <c r="BA522" s="11"/>
-      <c r="BB522" s="4"/>
-      <c r="BC522" s="16"/>
+      <c r="BB522" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC522" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="523" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG523" s="3"/>
@@ -24427,8 +25065,12 @@
       <c r="AU523" s="16"/>
       <c r="AW523" s="3"/>
       <c r="AX523" s="9"/>
-      <c r="AY523" s="6"/>
-      <c r="AZ523" s="12"/>
+      <c r="AY523" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ523" s="12">
+        <v>2</v>
+      </c>
       <c r="BA523" s="11"/>
       <c r="BB523" s="4"/>
       <c r="BC523" s="16"/>
@@ -24458,9 +25100,15 @@
       <c r="AU524" s="16"/>
       <c r="AW524" s="3"/>
       <c r="AX524" s="9"/>
-      <c r="AY524" s="6"/>
-      <c r="AZ524" s="12"/>
-      <c r="BA524" s="11"/>
+      <c r="AY524" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ524" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA524" s="11">
+        <v>2</v>
+      </c>
       <c r="BB524" s="4"/>
       <c r="BC524" s="16"/>
     </row>
@@ -24491,8 +25139,12 @@
       <c r="AU525" s="16"/>
       <c r="AW525" s="3"/>
       <c r="AX525" s="9"/>
-      <c r="AY525" s="6"/>
-      <c r="AZ525" s="12"/>
+      <c r="AY525" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ525" s="12">
+        <v>3</v>
+      </c>
       <c r="BA525" s="11"/>
       <c r="BB525" s="4"/>
       <c r="BC525" s="16"/>
@@ -24518,8 +25170,12 @@
       <c r="AU526" s="16"/>
       <c r="AW526" s="3"/>
       <c r="AX526" s="9"/>
-      <c r="AY526" s="6"/>
-      <c r="AZ526" s="12"/>
+      <c r="AY526" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ526" s="12">
+        <v>2</v>
+      </c>
       <c r="BA526" s="11"/>
       <c r="BB526" s="4"/>
       <c r="BC526" s="16"/>
@@ -24557,8 +25213,12 @@
       </c>
       <c r="AW527" s="3"/>
       <c r="AX527" s="9"/>
-      <c r="AY527" s="6"/>
-      <c r="AZ527" s="12"/>
+      <c r="AY527" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ527" s="12">
+        <v>2</v>
+      </c>
       <c r="BA527" s="11"/>
       <c r="BB527" s="4"/>
       <c r="BC527" s="16"/>
@@ -24590,9 +25250,15 @@
       </c>
       <c r="AW528" s="3"/>
       <c r="AX528" s="9"/>
-      <c r="AY528" s="6"/>
-      <c r="AZ528" s="12"/>
-      <c r="BA528" s="11"/>
+      <c r="AY528" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ528" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA528" s="11">
+        <v>1</v>
+      </c>
       <c r="BB528" s="4"/>
       <c r="BC528" s="16"/>
     </row>
@@ -28456,10 +29122,18 @@
       <c r="AL661" s="4"/>
       <c r="AM661" s="16"/>
       <c r="AO661" s="3"/>
-      <c r="AP661" s="9"/>
-      <c r="AQ661" s="6"/>
-      <c r="AR661" s="12"/>
-      <c r="AS661" s="11"/>
+      <c r="AP661" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ661" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR661" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS661" s="11">
+        <v>4</v>
+      </c>
       <c r="AT661" s="4"/>
       <c r="AU661" s="16"/>
     </row>
@@ -28477,8 +29151,12 @@
       <c r="AM662" s="16"/>
       <c r="AO662" s="3"/>
       <c r="AP662" s="9"/>
-      <c r="AQ662" s="6"/>
-      <c r="AR662" s="12"/>
+      <c r="AQ662" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR662" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS662" s="11"/>
       <c r="AT662" s="4"/>
       <c r="AU662" s="16"/>
@@ -28497,8 +29175,12 @@
       <c r="AM663" s="16"/>
       <c r="AO663" s="3"/>
       <c r="AP663" s="9"/>
-      <c r="AQ663" s="6"/>
-      <c r="AR663" s="12"/>
+      <c r="AQ663" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR663" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS663" s="11"/>
       <c r="AT663" s="4"/>
       <c r="AU663" s="16"/>
@@ -28519,9 +29201,15 @@
       <c r="AM664" s="16"/>
       <c r="AO664" s="3"/>
       <c r="AP664" s="9"/>
-      <c r="AQ664" s="6"/>
-      <c r="AR664" s="12"/>
-      <c r="AS664" s="11"/>
+      <c r="AQ664" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR664" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS664" s="11">
+        <v>3</v>
+      </c>
       <c r="AT664" s="4"/>
       <c r="AU664" s="16"/>
     </row>
@@ -28539,11 +29227,19 @@
       <c r="AM665" s="16"/>
       <c r="AO665" s="3"/>
       <c r="AP665" s="9"/>
-      <c r="AQ665" s="6"/>
-      <c r="AR665" s="12"/>
+      <c r="AQ665" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR665" s="12">
+        <v>3</v>
+      </c>
       <c r="AS665" s="11"/>
-      <c r="AT665" s="4"/>
-      <c r="AU665" s="16"/>
+      <c r="AT665" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU665" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="666" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG666" s="3"/>
@@ -28566,8 +29262,12 @@
       <c r="AQ666" s="6"/>
       <c r="AR666" s="12"/>
       <c r="AS666" s="11"/>
-      <c r="AT666" s="4"/>
-      <c r="AU666" s="16"/>
+      <c r="AT666" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU666" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="667" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG667" s="3"/>
@@ -28583,9 +29283,15 @@
       </c>
       <c r="AO667" s="3"/>
       <c r="AP667" s="9"/>
-      <c r="AQ667" s="6"/>
-      <c r="AR667" s="12"/>
-      <c r="AS667" s="11"/>
+      <c r="AQ667" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR667" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS667" s="11">
+        <v>2</v>
+      </c>
       <c r="AT667" s="4"/>
       <c r="AU667" s="16"/>
     </row>
@@ -28605,8 +29311,12 @@
       <c r="AM668" s="16"/>
       <c r="AO668" s="3"/>
       <c r="AP668" s="9"/>
-      <c r="AQ668" s="6"/>
-      <c r="AR668" s="12"/>
+      <c r="AQ668" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR668" s="12">
+        <v>2</v>
+      </c>
       <c r="AS668" s="11"/>
       <c r="AT668" s="4"/>
       <c r="AU668" s="16"/>
@@ -28625,8 +29335,12 @@
       <c r="AM669" s="16"/>
       <c r="AO669" s="3"/>
       <c r="AP669" s="9"/>
-      <c r="AQ669" s="6"/>
-      <c r="AR669" s="12"/>
+      <c r="AQ669" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR669" s="12">
+        <v>1</v>
+      </c>
       <c r="AS669" s="11"/>
       <c r="AT669" s="4"/>
       <c r="AU669" s="16"/>
@@ -28649,8 +29363,12 @@
       </c>
       <c r="AO670" s="3"/>
       <c r="AP670" s="9"/>
-      <c r="AQ670" s="6"/>
-      <c r="AR670" s="12"/>
+      <c r="AQ670" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR670" s="12">
+        <v>1</v>
+      </c>
       <c r="AS670" s="11"/>
       <c r="AT670" s="4"/>
       <c r="AU670" s="16"/>
@@ -28669,8 +29387,12 @@
       </c>
       <c r="AO671" s="3"/>
       <c r="AP671" s="9"/>
-      <c r="AQ671" s="6"/>
-      <c r="AR671" s="12"/>
+      <c r="AQ671" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR671" s="12">
+        <v>2</v>
+      </c>
       <c r="AS671" s="11"/>
       <c r="AT671" s="4"/>
       <c r="AU671" s="16"/>
@@ -28689,9 +29411,15 @@
       <c r="AM672" s="16"/>
       <c r="AO672" s="3"/>
       <c r="AP672" s="9"/>
-      <c r="AQ672" s="6"/>
-      <c r="AR672" s="12"/>
-      <c r="AS672" s="11"/>
+      <c r="AQ672" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR672" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS672" s="11">
+        <v>1</v>
+      </c>
       <c r="AT672" s="4"/>
       <c r="AU672" s="16"/>
     </row>
@@ -28728,10 +29456,18 @@
       <c r="AL674" s="4"/>
       <c r="AM674" s="16"/>
       <c r="AO674" s="3"/>
-      <c r="AP674" s="9"/>
-      <c r="AQ674" s="6"/>
-      <c r="AR674" s="12"/>
-      <c r="AS674" s="11"/>
+      <c r="AP674" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ674" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR674" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS674" s="11">
+        <v>4</v>
+      </c>
       <c r="AT674" s="4"/>
       <c r="AU674" s="16"/>
     </row>
@@ -28751,8 +29487,12 @@
       <c r="AM675" s="16"/>
       <c r="AO675" s="3"/>
       <c r="AP675" s="9"/>
-      <c r="AQ675" s="6"/>
-      <c r="AR675" s="12"/>
+      <c r="AQ675" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR675" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS675" s="11"/>
       <c r="AT675" s="4"/>
       <c r="AU675" s="16"/>
@@ -28767,8 +29507,12 @@
       <c r="AM676" s="16"/>
       <c r="AO676" s="3"/>
       <c r="AP676" s="9"/>
-      <c r="AQ676" s="6"/>
-      <c r="AR676" s="12"/>
+      <c r="AQ676" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR676" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS676" s="11"/>
       <c r="AT676" s="4"/>
       <c r="AU676" s="16"/>
@@ -28791,9 +29535,15 @@
       <c r="AM677" s="16"/>
       <c r="AO677" s="3"/>
       <c r="AP677" s="9"/>
-      <c r="AQ677" s="6"/>
-      <c r="AR677" s="12"/>
-      <c r="AS677" s="11"/>
+      <c r="AQ677" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR677" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS677" s="11">
+        <v>3</v>
+      </c>
       <c r="AT677" s="4"/>
       <c r="AU677" s="16"/>
     </row>
@@ -28813,8 +29563,12 @@
       <c r="AM678" s="16"/>
       <c r="AO678" s="3"/>
       <c r="AP678" s="9"/>
-      <c r="AQ678" s="6"/>
-      <c r="AR678" s="12"/>
+      <c r="AQ678" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR678" s="12">
+        <v>5</v>
+      </c>
       <c r="AS678" s="11"/>
       <c r="AT678" s="4"/>
       <c r="AU678" s="16"/>
@@ -28833,11 +29587,19 @@
       <c r="AM679" s="16"/>
       <c r="AO679" s="3"/>
       <c r="AP679" s="9"/>
-      <c r="AQ679" s="6"/>
-      <c r="AR679" s="12"/>
+      <c r="AQ679" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR679" s="12">
+        <v>3</v>
+      </c>
       <c r="AS679" s="11"/>
-      <c r="AT679" s="4"/>
-      <c r="AU679" s="16"/>
+      <c r="AT679" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU679" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="680" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG680" s="3"/>
@@ -28856,8 +29618,12 @@
       <c r="AQ680" s="6"/>
       <c r="AR680" s="12"/>
       <c r="AS680" s="11"/>
-      <c r="AT680" s="4"/>
-      <c r="AU680" s="16"/>
+      <c r="AT680" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU680" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="681" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG681" s="3"/>
@@ -28873,9 +29639,15 @@
       <c r="AM681" s="16"/>
       <c r="AO681" s="3"/>
       <c r="AP681" s="9"/>
-      <c r="AQ681" s="6"/>
-      <c r="AR681" s="12"/>
-      <c r="AS681" s="11"/>
+      <c r="AQ681" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR681" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS681" s="11">
+        <v>2</v>
+      </c>
       <c r="AT681" s="4"/>
       <c r="AU681" s="16"/>
     </row>
@@ -28897,8 +29669,12 @@
       </c>
       <c r="AO682" s="3"/>
       <c r="AP682" s="9"/>
-      <c r="AQ682" s="6"/>
-      <c r="AR682" s="12"/>
+      <c r="AQ682" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR682" s="12">
+        <v>2</v>
+      </c>
       <c r="AS682" s="11"/>
       <c r="AT682" s="4"/>
       <c r="AU682" s="16"/>
@@ -28917,8 +29693,12 @@
       </c>
       <c r="AO683" s="3"/>
       <c r="AP683" s="9"/>
-      <c r="AQ683" s="6"/>
-      <c r="AR683" s="12"/>
+      <c r="AQ683" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR683" s="12">
+        <v>1</v>
+      </c>
       <c r="AS683" s="11"/>
       <c r="AT683" s="4"/>
       <c r="AU683" s="16"/>
@@ -28937,8 +29717,12 @@
       <c r="AM684" s="16"/>
       <c r="AO684" s="3"/>
       <c r="AP684" s="9"/>
-      <c r="AQ684" s="6"/>
-      <c r="AR684" s="12"/>
+      <c r="AQ684" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR684" s="12">
+        <v>1</v>
+      </c>
       <c r="AS684" s="11"/>
       <c r="AT684" s="4"/>
       <c r="AU684" s="16"/>
@@ -28957,9 +29741,15 @@
       <c r="AM685" s="16"/>
       <c r="AO685" s="3"/>
       <c r="AP685" s="9"/>
-      <c r="AQ685" s="6"/>
-      <c r="AR685" s="12"/>
-      <c r="AS685" s="11"/>
+      <c r="AQ685" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR685" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS685" s="11">
+        <v>1</v>
+      </c>
       <c r="AT685" s="4"/>
       <c r="AU685" s="16"/>
     </row>
@@ -28998,10 +29788,18 @@
       <c r="AL687" s="4"/>
       <c r="AM687" s="16"/>
       <c r="AO687" s="3"/>
-      <c r="AP687" s="9"/>
-      <c r="AQ687" s="6"/>
-      <c r="AR687" s="12"/>
-      <c r="AS687" s="11"/>
+      <c r="AP687" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ687" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR687" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AS687" s="11">
+        <v>4</v>
+      </c>
       <c r="AT687" s="4"/>
       <c r="AU687" s="16"/>
     </row>
@@ -29019,8 +29817,12 @@
       <c r="AM688" s="16"/>
       <c r="AO688" s="3"/>
       <c r="AP688" s="9"/>
-      <c r="AQ688" s="6"/>
-      <c r="AR688" s="12"/>
+      <c r="AQ688" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR688" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS688" s="11"/>
       <c r="AT688" s="4"/>
       <c r="AU688" s="16"/>
@@ -29039,8 +29841,12 @@
       <c r="AM689" s="16"/>
       <c r="AO689" s="3"/>
       <c r="AP689" s="9"/>
-      <c r="AQ689" s="6"/>
-      <c r="AR689" s="12"/>
+      <c r="AQ689" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR689" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS689" s="11"/>
       <c r="AT689" s="4"/>
       <c r="AU689" s="16"/>
@@ -29061,9 +29867,15 @@
       <c r="AM690" s="16"/>
       <c r="AO690" s="3"/>
       <c r="AP690" s="9"/>
-      <c r="AQ690" s="6"/>
-      <c r="AR690" s="12"/>
-      <c r="AS690" s="11"/>
+      <c r="AQ690" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR690" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AS690" s="11">
+        <v>3</v>
+      </c>
       <c r="AT690" s="4"/>
       <c r="AU690" s="16"/>
     </row>
@@ -29077,11 +29889,19 @@
       <c r="AM691" s="16"/>
       <c r="AO691" s="3"/>
       <c r="AP691" s="9"/>
-      <c r="AQ691" s="6"/>
-      <c r="AR691" s="12"/>
+      <c r="AQ691" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR691" s="12">
+        <v>3</v>
+      </c>
       <c r="AS691" s="11"/>
-      <c r="AT691" s="4"/>
-      <c r="AU691" s="16"/>
+      <c r="AT691" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU691" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="692" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG692" s="3"/>
@@ -29104,8 +29924,12 @@
       <c r="AQ692" s="6"/>
       <c r="AR692" s="12"/>
       <c r="AS692" s="11"/>
-      <c r="AT692" s="4"/>
-      <c r="AU692" s="16"/>
+      <c r="AT692" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU692" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="693" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG693" s="3"/>
@@ -29123,9 +29947,15 @@
       <c r="AM693" s="16"/>
       <c r="AO693" s="3"/>
       <c r="AP693" s="9"/>
-      <c r="AQ693" s="6"/>
-      <c r="AR693" s="12"/>
-      <c r="AS693" s="11"/>
+      <c r="AQ693" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR693" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS693" s="11">
+        <v>2</v>
+      </c>
       <c r="AT693" s="4"/>
       <c r="AU693" s="16"/>
     </row>
@@ -29143,8 +29973,12 @@
       <c r="AM694" s="16"/>
       <c r="AO694" s="3"/>
       <c r="AP694" s="9"/>
-      <c r="AQ694" s="6"/>
-      <c r="AR694" s="12"/>
+      <c r="AQ694" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR694" s="12">
+        <v>2</v>
+      </c>
       <c r="AS694" s="11"/>
       <c r="AT694" s="4"/>
       <c r="AU694" s="16"/>
@@ -29163,8 +29997,12 @@
       <c r="AM695" s="16"/>
       <c r="AO695" s="3"/>
       <c r="AP695" s="9"/>
-      <c r="AQ695" s="6"/>
-      <c r="AR695" s="12"/>
+      <c r="AQ695" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR695" s="12">
+        <v>1</v>
+      </c>
       <c r="AS695" s="11"/>
       <c r="AT695" s="4"/>
       <c r="AU695" s="16"/>
@@ -29183,8 +30021,12 @@
       <c r="AM696" s="16"/>
       <c r="AO696" s="3"/>
       <c r="AP696" s="9"/>
-      <c r="AQ696" s="6"/>
-      <c r="AR696" s="12"/>
+      <c r="AQ696" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR696" s="12">
+        <v>1</v>
+      </c>
       <c r="AS696" s="11"/>
       <c r="AT696" s="4"/>
       <c r="AU696" s="16"/>
@@ -29203,8 +30045,12 @@
       <c r="AM697" s="16"/>
       <c r="AO697" s="3"/>
       <c r="AP697" s="9"/>
-      <c r="AQ697" s="6"/>
-      <c r="AR697" s="12"/>
+      <c r="AQ697" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR697" s="12">
+        <v>2</v>
+      </c>
       <c r="AS697" s="11"/>
       <c r="AT697" s="4"/>
       <c r="AU697" s="16"/>
@@ -29227,9 +30073,15 @@
       </c>
       <c r="AO698" s="3"/>
       <c r="AP698" s="9"/>
-      <c r="AQ698" s="6"/>
-      <c r="AR698" s="12"/>
-      <c r="AS698" s="11"/>
+      <c r="AQ698" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR698" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS698" s="11">
+        <v>1</v>
+      </c>
       <c r="AT698" s="4"/>
       <c r="AU698" s="16"/>
     </row>
@@ -29266,10 +30118,18 @@
       <c r="AL700" s="4"/>
       <c r="AM700" s="16"/>
       <c r="AO700" s="3"/>
-      <c r="AP700" s="9"/>
-      <c r="AQ700" s="6"/>
-      <c r="AR700" s="12"/>
-      <c r="AS700" s="11"/>
+      <c r="AP700" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ700" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR700" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AS700" s="11">
+        <v>4</v>
+      </c>
       <c r="AT700" s="4"/>
       <c r="AU700" s="16"/>
     </row>
@@ -29287,8 +30147,12 @@
       <c r="AM701" s="16"/>
       <c r="AO701" s="3"/>
       <c r="AP701" s="9"/>
-      <c r="AQ701" s="6"/>
-      <c r="AR701" s="12"/>
+      <c r="AQ701" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR701" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS701" s="11"/>
       <c r="AT701" s="4"/>
       <c r="AU701" s="16"/>
@@ -29309,8 +30173,12 @@
       <c r="AM702" s="16"/>
       <c r="AO702" s="3"/>
       <c r="AP702" s="9"/>
-      <c r="AQ702" s="6"/>
-      <c r="AR702" s="12"/>
+      <c r="AQ702" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR702" s="12">
+        <v>4.5</v>
+      </c>
       <c r="AS702" s="11"/>
       <c r="AT702" s="4"/>
       <c r="AU702" s="16"/>
@@ -29329,9 +30197,15 @@
       <c r="AM703" s="16"/>
       <c r="AO703" s="3"/>
       <c r="AP703" s="9"/>
-      <c r="AQ703" s="6"/>
-      <c r="AR703" s="12"/>
-      <c r="AS703" s="11"/>
+      <c r="AQ703" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR703" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS703" s="11">
+        <v>3</v>
+      </c>
       <c r="AT703" s="4"/>
       <c r="AU703" s="16"/>
     </row>
@@ -29349,9 +30223,15 @@
       <c r="AM704" s="16"/>
       <c r="AO704" s="3"/>
       <c r="AP704" s="9"/>
-      <c r="AQ704" s="6"/>
-      <c r="AR704" s="12"/>
-      <c r="AS704" s="11"/>
+      <c r="AQ704" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR704" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AS704" s="11">
+        <v>3</v>
+      </c>
       <c r="AT704" s="4"/>
       <c r="AU704" s="16"/>
     </row>
@@ -29371,11 +30251,19 @@
       <c r="AM705" s="16"/>
       <c r="AO705" s="3"/>
       <c r="AP705" s="9"/>
-      <c r="AQ705" s="6"/>
-      <c r="AR705" s="12"/>
+      <c r="AQ705" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR705" s="12">
+        <v>3</v>
+      </c>
       <c r="AS705" s="11"/>
-      <c r="AT705" s="4"/>
-      <c r="AU705" s="16"/>
+      <c r="AT705" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU705" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="706" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG706" s="3"/>
@@ -29390,8 +30278,12 @@
       <c r="AQ706" s="6"/>
       <c r="AR706" s="12"/>
       <c r="AS706" s="11"/>
-      <c r="AT706" s="4"/>
-      <c r="AU706" s="16"/>
+      <c r="AT706" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU706" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="707" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG707" s="3"/>
@@ -29411,9 +30303,15 @@
       <c r="AM707" s="16"/>
       <c r="AO707" s="3"/>
       <c r="AP707" s="9"/>
-      <c r="AQ707" s="6"/>
-      <c r="AR707" s="12"/>
-      <c r="AS707" s="11"/>
+      <c r="AQ707" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR707" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS707" s="11">
+        <v>2</v>
+      </c>
       <c r="AT707" s="4"/>
       <c r="AU707" s="16"/>
     </row>
@@ -29433,8 +30331,12 @@
       <c r="AM708" s="16"/>
       <c r="AO708" s="3"/>
       <c r="AP708" s="9"/>
-      <c r="AQ708" s="6"/>
-      <c r="AR708" s="12"/>
+      <c r="AQ708" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR708" s="12">
+        <v>2</v>
+      </c>
       <c r="AS708" s="11"/>
       <c r="AT708" s="4"/>
       <c r="AU708" s="16"/>
@@ -29453,8 +30355,12 @@
       <c r="AM709" s="16"/>
       <c r="AO709" s="3"/>
       <c r="AP709" s="9"/>
-      <c r="AQ709" s="6"/>
-      <c r="AR709" s="12"/>
+      <c r="AQ709" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR709" s="12">
+        <v>1</v>
+      </c>
       <c r="AS709" s="11"/>
       <c r="AT709" s="4"/>
       <c r="AU709" s="16"/>
@@ -29473,8 +30379,12 @@
       <c r="AM710" s="16"/>
       <c r="AO710" s="3"/>
       <c r="AP710" s="9"/>
-      <c r="AQ710" s="6"/>
-      <c r="AR710" s="12"/>
+      <c r="AQ710" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR710" s="12">
+        <v>1</v>
+      </c>
       <c r="AS710" s="11"/>
       <c r="AT710" s="4"/>
       <c r="AU710" s="16"/>
@@ -29493,9 +30403,15 @@
       <c r="AM711" s="16"/>
       <c r="AO711" s="3"/>
       <c r="AP711" s="9"/>
-      <c r="AQ711" s="6"/>
-      <c r="AR711" s="12"/>
-      <c r="AS711" s="11"/>
+      <c r="AQ711" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR711" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS711" s="11">
+        <v>1</v>
+      </c>
       <c r="AT711" s="4"/>
       <c r="AU711" s="16"/>
     </row>
@@ -29536,10 +30452,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AO713" s="3"/>
-      <c r="AP713" s="9"/>
-      <c r="AQ713" s="6"/>
-      <c r="AR713" s="12"/>
-      <c r="AS713" s="11"/>
+      <c r="AP713" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ713" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR713" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS713" s="11">
+        <v>3</v>
+      </c>
       <c r="AT713" s="4"/>
       <c r="AU713" s="16"/>
     </row>
@@ -29559,8 +30483,12 @@
       <c r="AM714" s="16"/>
       <c r="AO714" s="3"/>
       <c r="AP714" s="9"/>
-      <c r="AQ714" s="6"/>
-      <c r="AR714" s="12"/>
+      <c r="AQ714" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR714" s="12">
+        <v>3</v>
+      </c>
       <c r="AS714" s="11"/>
       <c r="AT714" s="4"/>
       <c r="AU714" s="16"/>
@@ -29583,8 +30511,12 @@
       </c>
       <c r="AO715" s="3"/>
       <c r="AP715" s="9"/>
-      <c r="AQ715" s="6"/>
-      <c r="AR715" s="12"/>
+      <c r="AQ715" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR715" s="12">
+        <v>3</v>
+      </c>
       <c r="AS715" s="11"/>
       <c r="AT715" s="4"/>
       <c r="AU715" s="16"/>
@@ -29603,8 +30535,12 @@
       </c>
       <c r="AO716" s="3"/>
       <c r="AP716" s="9"/>
-      <c r="AQ716" s="6"/>
-      <c r="AR716" s="12"/>
+      <c r="AQ716" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR716" s="12">
+        <v>5</v>
+      </c>
       <c r="AS716" s="11"/>
       <c r="AT716" s="4"/>
       <c r="AU716" s="16"/>
@@ -29623,11 +30559,19 @@
       <c r="AM717" s="16"/>
       <c r="AO717" s="3"/>
       <c r="AP717" s="9"/>
-      <c r="AQ717" s="6"/>
-      <c r="AR717" s="12"/>
+      <c r="AQ717" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR717" s="12">
+        <v>3</v>
+      </c>
       <c r="AS717" s="11"/>
-      <c r="AT717" s="4"/>
-      <c r="AU717" s="16"/>
+      <c r="AT717" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU717" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="718" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG718" s="3"/>
@@ -29646,8 +30590,12 @@
       <c r="AQ718" s="6"/>
       <c r="AR718" s="12"/>
       <c r="AS718" s="11"/>
-      <c r="AT718" s="4"/>
-      <c r="AU718" s="16"/>
+      <c r="AT718" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU718" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="719" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG719" s="3"/>
@@ -29663,8 +30611,12 @@
       <c r="AM719" s="16"/>
       <c r="AO719" s="3"/>
       <c r="AP719" s="9"/>
-      <c r="AQ719" s="6"/>
-      <c r="AR719" s="12"/>
+      <c r="AQ719" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR719" s="12">
+        <v>2</v>
+      </c>
       <c r="AS719" s="11"/>
       <c r="AT719" s="4"/>
       <c r="AU719" s="16"/>
@@ -29685,9 +30637,15 @@
       <c r="AM720" s="16"/>
       <c r="AO720" s="3"/>
       <c r="AP720" s="9"/>
-      <c r="AQ720" s="6"/>
-      <c r="AR720" s="12"/>
-      <c r="AS720" s="11"/>
+      <c r="AQ720" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR720" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS720" s="11">
+        <v>2</v>
+      </c>
       <c r="AT720" s="4"/>
       <c r="AU720" s="16"/>
     </row>
@@ -29701,8 +30659,12 @@
       <c r="AM721" s="16"/>
       <c r="AO721" s="3"/>
       <c r="AP721" s="9"/>
-      <c r="AQ721" s="6"/>
-      <c r="AR721" s="12"/>
+      <c r="AQ721" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR721" s="12">
+        <v>2</v>
+      </c>
       <c r="AS721" s="11"/>
       <c r="AT721" s="4"/>
       <c r="AU721" s="16"/>
@@ -29729,8 +30691,12 @@
       </c>
       <c r="AO722" s="3"/>
       <c r="AP722" s="9"/>
-      <c r="AQ722" s="6"/>
-      <c r="AR722" s="12"/>
+      <c r="AQ722" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR722" s="12">
+        <v>1</v>
+      </c>
       <c r="AS722" s="11"/>
       <c r="AT722" s="4"/>
       <c r="AU722" s="16"/>
@@ -29749,8 +30715,12 @@
       </c>
       <c r="AO723" s="3"/>
       <c r="AP723" s="9"/>
-      <c r="AQ723" s="6"/>
-      <c r="AR723" s="12"/>
+      <c r="AQ723" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR723" s="12">
+        <v>2</v>
+      </c>
       <c r="AS723" s="11"/>
       <c r="AT723" s="4"/>
       <c r="AU723" s="16"/>
@@ -29769,8 +30739,12 @@
       </c>
       <c r="AO724" s="3"/>
       <c r="AP724" s="9"/>
-      <c r="AQ724" s="6"/>
-      <c r="AR724" s="12"/>
+      <c r="AQ724" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR724" s="12">
+        <v>1</v>
+      </c>
       <c r="AS724" s="11"/>
       <c r="AT724" s="4"/>
       <c r="AU724" s="16"/>
@@ -29791,8 +30765,12 @@
       <c r="AM725" s="16"/>
       <c r="AO725" s="3"/>
       <c r="AP725" s="9"/>
-      <c r="AQ725" s="6"/>
-      <c r="AR725" s="12"/>
+      <c r="AQ725" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR725" s="12">
+        <v>2</v>
+      </c>
       <c r="AS725" s="11"/>
       <c r="AT725" s="4"/>
       <c r="AU725" s="16"/>
@@ -29811,9 +30789,15 @@
       <c r="AM726" s="16"/>
       <c r="AO726" s="3"/>
       <c r="AP726" s="9"/>
-      <c r="AQ726" s="6"/>
-      <c r="AR726" s="12"/>
-      <c r="AS726" s="11"/>
+      <c r="AQ726" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR726" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS726" s="11">
+        <v>1</v>
+      </c>
       <c r="AT726" s="4"/>
       <c r="AU726" s="16"/>
     </row>
@@ -29849,11 +30833,21 @@
       <c r="AK728" s="11"/>
       <c r="AL728" s="4"/>
       <c r="AM728" s="16"/>
-      <c r="AO728" s="3"/>
-      <c r="AP728" s="9"/>
-      <c r="AQ728" s="6"/>
-      <c r="AR728" s="12"/>
-      <c r="AS728" s="11"/>
+      <c r="AO728" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP728" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ728" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR728" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS728" s="11">
+        <v>3</v>
+      </c>
       <c r="AT728" s="4"/>
       <c r="AU728" s="16"/>
     </row>
@@ -29871,8 +30865,12 @@
       <c r="AM729" s="16"/>
       <c r="AO729" s="3"/>
       <c r="AP729" s="9"/>
-      <c r="AQ729" s="6"/>
-      <c r="AR729" s="12"/>
+      <c r="AQ729" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR729" s="12">
+        <v>3</v>
+      </c>
       <c r="AS729" s="11"/>
       <c r="AT729" s="4"/>
       <c r="AU729" s="16"/>
@@ -29895,8 +30893,12 @@
       </c>
       <c r="AO730" s="3"/>
       <c r="AP730" s="9"/>
-      <c r="AQ730" s="6"/>
-      <c r="AR730" s="12"/>
+      <c r="AQ730" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR730" s="12">
+        <v>3</v>
+      </c>
       <c r="AS730" s="11"/>
       <c r="AT730" s="4"/>
       <c r="AU730" s="16"/>
@@ -29915,8 +30917,12 @@
       </c>
       <c r="AO731" s="3"/>
       <c r="AP731" s="9"/>
-      <c r="AQ731" s="6"/>
-      <c r="AR731" s="12"/>
+      <c r="AQ731" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR731" s="12">
+        <v>3</v>
+      </c>
       <c r="AS731" s="11"/>
       <c r="AT731" s="4"/>
       <c r="AU731" s="16"/>
@@ -29937,8 +30943,12 @@
       <c r="AM732" s="16"/>
       <c r="AO732" s="3"/>
       <c r="AP732" s="9"/>
-      <c r="AQ732" s="6"/>
-      <c r="AR732" s="12"/>
+      <c r="AQ732" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR732" s="12">
+        <v>5</v>
+      </c>
       <c r="AS732" s="11"/>
       <c r="AT732" s="4"/>
       <c r="AU732" s="16"/>
@@ -29957,11 +30967,19 @@
       <c r="AM733" s="16"/>
       <c r="AO733" s="3"/>
       <c r="AP733" s="9"/>
-      <c r="AQ733" s="6"/>
-      <c r="AR733" s="12"/>
+      <c r="AQ733" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR733" s="12">
+        <v>3</v>
+      </c>
       <c r="AS733" s="11"/>
-      <c r="AT733" s="4"/>
-      <c r="AU733" s="16"/>
+      <c r="AT733" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU733" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="734" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG734" s="3"/>
@@ -29980,8 +30998,12 @@
       <c r="AQ734" s="6"/>
       <c r="AR734" s="12"/>
       <c r="AS734" s="11"/>
-      <c r="AT734" s="4"/>
-      <c r="AU734" s="16"/>
+      <c r="AT734" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU734" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="735" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG735" s="3"/>
@@ -29997,8 +31019,12 @@
       <c r="AM735" s="16"/>
       <c r="AO735" s="3"/>
       <c r="AP735" s="9"/>
-      <c r="AQ735" s="6"/>
-      <c r="AR735" s="12"/>
+      <c r="AQ735" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR735" s="12">
+        <v>2</v>
+      </c>
       <c r="AS735" s="11"/>
       <c r="AT735" s="4"/>
       <c r="AU735" s="16"/>
@@ -30017,9 +31043,15 @@
       <c r="AM736" s="16"/>
       <c r="AO736" s="3"/>
       <c r="AP736" s="9"/>
-      <c r="AQ736" s="6"/>
-      <c r="AR736" s="12"/>
-      <c r="AS736" s="11"/>
+      <c r="AQ736" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR736" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS736" s="11">
+        <v>2</v>
+      </c>
       <c r="AT736" s="4"/>
       <c r="AU736" s="16"/>
     </row>
@@ -30039,8 +31071,12 @@
       <c r="AM737" s="16"/>
       <c r="AO737" s="3"/>
       <c r="AP737" s="9"/>
-      <c r="AQ737" s="6"/>
-      <c r="AR737" s="12"/>
+      <c r="AQ737" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR737" s="12">
+        <v>2</v>
+      </c>
       <c r="AS737" s="11"/>
       <c r="AT737" s="4"/>
       <c r="AU737" s="16"/>
@@ -30055,8 +31091,12 @@
       <c r="AM738" s="16"/>
       <c r="AO738" s="3"/>
       <c r="AP738" s="9"/>
-      <c r="AQ738" s="6"/>
-      <c r="AR738" s="12"/>
+      <c r="AQ738" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR738" s="12">
+        <v>1</v>
+      </c>
       <c r="AS738" s="11"/>
       <c r="AT738" s="4"/>
       <c r="AU738" s="16"/>
@@ -30083,8 +31123,12 @@
       </c>
       <c r="AO739" s="3"/>
       <c r="AP739" s="9"/>
-      <c r="AQ739" s="6"/>
-      <c r="AR739" s="12"/>
+      <c r="AQ739" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR739" s="12">
+        <v>2</v>
+      </c>
       <c r="AS739" s="11"/>
       <c r="AT739" s="4"/>
       <c r="AU739" s="16"/>
@@ -30103,8 +31147,12 @@
       </c>
       <c r="AO740" s="3"/>
       <c r="AP740" s="9"/>
-      <c r="AQ740" s="6"/>
-      <c r="AR740" s="12"/>
+      <c r="AQ740" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR740" s="12">
+        <v>1</v>
+      </c>
       <c r="AS740" s="11"/>
       <c r="AT740" s="4"/>
       <c r="AU740" s="16"/>
@@ -30123,8 +31171,12 @@
       </c>
       <c r="AO741" s="3"/>
       <c r="AP741" s="9"/>
-      <c r="AQ741" s="6"/>
-      <c r="AR741" s="12"/>
+      <c r="AQ741" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR741" s="12">
+        <v>2</v>
+      </c>
       <c r="AS741" s="11"/>
       <c r="AT741" s="4"/>
       <c r="AU741" s="16"/>
@@ -30143,9 +31195,15 @@
       </c>
       <c r="AO742" s="3"/>
       <c r="AP742" s="9"/>
-      <c r="AQ742" s="6"/>
-      <c r="AR742" s="12"/>
-      <c r="AS742" s="11"/>
+      <c r="AQ742" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR742" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS742" s="11">
+        <v>1</v>
+      </c>
       <c r="AT742" s="4"/>
       <c r="AU742" s="16"/>
     </row>
@@ -30811,10 +31869,18 @@
     </row>
     <row r="775" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG775" s="3"/>
-      <c r="AH775" s="9"/>
-      <c r="AI775" s="6"/>
-      <c r="AJ775" s="12"/>
-      <c r="AK775" s="11"/>
+      <c r="AH775" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI775" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ775" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK775" s="11">
+        <v>4</v>
+      </c>
       <c r="AL775" s="4"/>
       <c r="AM775" s="16"/>
       <c r="AO775" s="3"/>
@@ -30828,8 +31894,12 @@
     <row r="776" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG776" s="3"/>
       <c r="AH776" s="9"/>
-      <c r="AI776" s="6"/>
-      <c r="AJ776" s="12"/>
+      <c r="AI776" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ776" s="12">
+        <v>3.5</v>
+      </c>
       <c r="AK776" s="11"/>
       <c r="AL776" s="4"/>
       <c r="AM776" s="16"/>
@@ -30844,8 +31914,12 @@
     <row r="777" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG777" s="3"/>
       <c r="AH777" s="9"/>
-      <c r="AI777" s="6"/>
-      <c r="AJ777" s="12"/>
+      <c r="AI777" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ777" s="12">
+        <v>3</v>
+      </c>
       <c r="AK777" s="11"/>
       <c r="AL777" s="4"/>
       <c r="AM777" s="16"/>
@@ -30860,9 +31934,15 @@
     <row r="778" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG778" s="3"/>
       <c r="AH778" s="9"/>
-      <c r="AI778" s="6"/>
-      <c r="AJ778" s="12"/>
-      <c r="AK778" s="11"/>
+      <c r="AI778" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ778" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK778" s="11">
+        <v>3</v>
+      </c>
       <c r="AL778" s="4"/>
       <c r="AM778" s="16"/>
       <c r="AO778" s="3"/>
@@ -30876,9 +31956,15 @@
     <row r="779" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG779" s="3"/>
       <c r="AH779" s="9"/>
-      <c r="AI779" s="6"/>
-      <c r="AJ779" s="12"/>
-      <c r="AK779" s="11"/>
+      <c r="AI779" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ779" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK779" s="11">
+        <v>2</v>
+      </c>
       <c r="AL779" s="4"/>
       <c r="AM779" s="16"/>
       <c r="AO779" s="3"/>
@@ -30892,8 +31978,12 @@
     <row r="780" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG780" s="3"/>
       <c r="AH780" s="9"/>
-      <c r="AI780" s="6"/>
-      <c r="AJ780" s="12"/>
+      <c r="AI780" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ780" s="12">
+        <v>2</v>
+      </c>
       <c r="AK780" s="11"/>
       <c r="AL780" s="4"/>
       <c r="AM780" s="16"/>
@@ -30908,8 +31998,12 @@
     <row r="781" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG781" s="3"/>
       <c r="AH781" s="9"/>
-      <c r="AI781" s="6"/>
-      <c r="AJ781" s="12"/>
+      <c r="AI781" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ781" s="12">
+        <v>2</v>
+      </c>
       <c r="AK781" s="11"/>
       <c r="AL781" s="4"/>
       <c r="AM781" s="16"/>
@@ -30924,8 +32018,12 @@
     <row r="782" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG782" s="3"/>
       <c r="AH782" s="9"/>
-      <c r="AI782" s="6"/>
-      <c r="AJ782" s="12"/>
+      <c r="AI782" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ782" s="12">
+        <v>2</v>
+      </c>
       <c r="AK782" s="11"/>
       <c r="AL782" s="4"/>
       <c r="AM782" s="16"/>
@@ -30940,8 +32038,12 @@
     <row r="783" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG783" s="3"/>
       <c r="AH783" s="9"/>
-      <c r="AI783" s="6"/>
-      <c r="AJ783" s="12"/>
+      <c r="AI783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ783" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK783" s="11"/>
       <c r="AL783" s="4"/>
       <c r="AM783" s="16"/>
@@ -30956,8 +32058,12 @@
     <row r="784" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG784" s="3"/>
       <c r="AH784" s="9"/>
-      <c r="AI784" s="6"/>
-      <c r="AJ784" s="12"/>
+      <c r="AI784" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ784" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK784" s="11"/>
       <c r="AL784" s="4"/>
       <c r="AM784" s="16"/>
@@ -30972,8 +32078,12 @@
     <row r="785" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG785" s="3"/>
       <c r="AH785" s="9"/>
-      <c r="AI785" s="6"/>
-      <c r="AJ785" s="12"/>
+      <c r="AI785" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ785" s="12">
+        <v>1</v>
+      </c>
       <c r="AK785" s="11"/>
       <c r="AL785" s="4"/>
       <c r="AM785" s="16"/>
@@ -30988,8 +32098,12 @@
     <row r="786" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG786" s="3"/>
       <c r="AH786" s="9"/>
-      <c r="AI786" s="6"/>
-      <c r="AJ786" s="12"/>
+      <c r="AI786" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ786" s="12">
+        <v>2</v>
+      </c>
       <c r="AK786" s="11"/>
       <c r="AL786" s="4"/>
       <c r="AM786" s="16"/>
@@ -31004,8 +32118,12 @@
     <row r="787" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG787" s="3"/>
       <c r="AH787" s="9"/>
-      <c r="AI787" s="6"/>
-      <c r="AJ787" s="12"/>
+      <c r="AI787" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ787" s="12">
+        <v>1</v>
+      </c>
       <c r="AK787" s="11"/>
       <c r="AL787" s="4"/>
       <c r="AM787" s="16"/>
@@ -31020,9 +32138,15 @@
     <row r="788" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG788" s="3"/>
       <c r="AH788" s="9"/>
-      <c r="AI788" s="6"/>
-      <c r="AJ788" s="12"/>
-      <c r="AK788" s="11"/>
+      <c r="AI788" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ788" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK788" s="11">
+        <v>1</v>
+      </c>
       <c r="AL788" s="4"/>
       <c r="AM788" s="16"/>
       <c r="AO788" s="3"/>
@@ -31050,6 +32174,21 @@
       <c r="AU789" s="16"/>
     </row>
     <row r="790" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG790" s="3"/>
+      <c r="AH790" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI790" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ790" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK790" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL790" s="4"/>
+      <c r="AM790" s="16"/>
       <c r="AO790" s="3"/>
       <c r="AP790" s="9"/>
       <c r="AQ790" s="6"/>
@@ -31059,6 +32198,17 @@
       <c r="AU790" s="16"/>
     </row>
     <row r="791" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG791" s="3"/>
+      <c r="AH791" s="9"/>
+      <c r="AI791" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ791" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AK791" s="11"/>
+      <c r="AL791" s="4"/>
+      <c r="AM791" s="16"/>
       <c r="AO791" s="3"/>
       <c r="AP791" s="9"/>
       <c r="AQ791" s="6"/>
@@ -31067,6 +32217,1542 @@
       <c r="AT791" s="4"/>
       <c r="AU791" s="16"/>
     </row>
+    <row r="792" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG792" s="3"/>
+      <c r="AH792" s="9"/>
+      <c r="AI792" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ792" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK792" s="11"/>
+      <c r="AL792" s="4"/>
+      <c r="AM792" s="16"/>
+    </row>
+    <row r="793" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG793" s="3"/>
+      <c r="AH793" s="9"/>
+      <c r="AI793" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ793" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK793" s="11"/>
+      <c r="AL793" s="4"/>
+      <c r="AM793" s="16"/>
+    </row>
+    <row r="794" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG794" s="3"/>
+      <c r="AH794" s="9"/>
+      <c r="AI794" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ794" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK794" s="11"/>
+      <c r="AL794" s="4"/>
+      <c r="AM794" s="16"/>
+    </row>
+    <row r="795" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG795" s="3"/>
+      <c r="AH795" s="9"/>
+      <c r="AI795" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ795" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK795" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL795" s="4"/>
+      <c r="AM795" s="16"/>
+    </row>
+    <row r="796" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG796" s="3"/>
+      <c r="AH796" s="9"/>
+      <c r="AI796" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ796" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK796" s="11"/>
+      <c r="AL796" s="4"/>
+      <c r="AM796" s="16"/>
+    </row>
+    <row r="797" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG797" s="3"/>
+      <c r="AH797" s="9"/>
+      <c r="AI797" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ797" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK797" s="11"/>
+      <c r="AL797" s="4"/>
+      <c r="AM797" s="16"/>
+    </row>
+    <row r="798" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG798" s="3"/>
+      <c r="AH798" s="9"/>
+      <c r="AI798" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ798" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK798" s="11"/>
+      <c r="AL798" s="4"/>
+      <c r="AM798" s="16"/>
+    </row>
+    <row r="799" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG799" s="3"/>
+      <c r="AH799" s="9"/>
+      <c r="AI799" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ799" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK799" s="11"/>
+      <c r="AL799" s="4"/>
+      <c r="AM799" s="16"/>
+    </row>
+    <row r="800" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG800" s="3"/>
+      <c r="AH800" s="9"/>
+      <c r="AI800" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ800" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK800" s="11"/>
+      <c r="AL800" s="4"/>
+      <c r="AM800" s="16"/>
+    </row>
+    <row r="801" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG801" s="3"/>
+      <c r="AH801" s="9"/>
+      <c r="AI801" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ801" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK801" s="11"/>
+      <c r="AL801" s="4"/>
+      <c r="AM801" s="16"/>
+    </row>
+    <row r="802" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG802" s="3"/>
+      <c r="AH802" s="9"/>
+      <c r="AI802" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ802" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK802" s="11"/>
+      <c r="AL802" s="4"/>
+      <c r="AM802" s="16"/>
+    </row>
+    <row r="803" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG803" s="3"/>
+      <c r="AH803" s="9"/>
+      <c r="AI803" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ803" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK803" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL803" s="4"/>
+      <c r="AM803" s="16"/>
+    </row>
+    <row r="804" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG804" s="3"/>
+      <c r="AH804" s="9"/>
+      <c r="AI804" s="6"/>
+      <c r="AJ804" s="12"/>
+      <c r="AK804" s="11"/>
+      <c r="AL804" s="4"/>
+      <c r="AM804" s="16"/>
+    </row>
+    <row r="805" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG805" s="3"/>
+      <c r="AH805" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI805" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ805" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK805" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL805" s="4"/>
+      <c r="AM805" s="16"/>
+    </row>
+    <row r="806" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG806" s="3"/>
+      <c r="AH806" s="9"/>
+      <c r="AI806" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ806" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK806" s="11"/>
+      <c r="AL806" s="4"/>
+      <c r="AM806" s="16"/>
+    </row>
+    <row r="807" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG807" s="3"/>
+      <c r="AH807" s="9"/>
+      <c r="AI807" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ807" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK807" s="11"/>
+      <c r="AL807" s="4"/>
+      <c r="AM807" s="16"/>
+    </row>
+    <row r="808" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG808" s="3"/>
+      <c r="AH808" s="9"/>
+      <c r="AI808" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ808" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK808" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL808" s="4"/>
+      <c r="AM808" s="16"/>
+    </row>
+    <row r="809" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG809" s="3"/>
+      <c r="AH809" s="9"/>
+      <c r="AI809" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ809" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK809" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL809" s="4"/>
+      <c r="AM809" s="16"/>
+    </row>
+    <row r="810" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG810" s="3"/>
+      <c r="AH810" s="9"/>
+      <c r="AI810" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ810" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK810" s="11"/>
+      <c r="AL810" s="4"/>
+      <c r="AM810" s="16"/>
+    </row>
+    <row r="811" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG811" s="3"/>
+      <c r="AH811" s="9"/>
+      <c r="AI811" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ811" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK811" s="11"/>
+      <c r="AL811" s="4"/>
+      <c r="AM811" s="16"/>
+    </row>
+    <row r="812" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG812" s="3"/>
+      <c r="AH812" s="9"/>
+      <c r="AI812" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ812" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK812" s="11"/>
+      <c r="AL812" s="4"/>
+      <c r="AM812" s="16"/>
+    </row>
+    <row r="813" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG813" s="3"/>
+      <c r="AH813" s="9"/>
+      <c r="AI813" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ813" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK813" s="11"/>
+      <c r="AL813" s="4"/>
+      <c r="AM813" s="16"/>
+    </row>
+    <row r="814" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG814" s="3"/>
+      <c r="AH814" s="9"/>
+      <c r="AI814" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ814" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK814" s="11"/>
+      <c r="AL814" s="4"/>
+      <c r="AM814" s="16"/>
+    </row>
+    <row r="815" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG815" s="3"/>
+      <c r="AH815" s="9"/>
+      <c r="AI815" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ815" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK815" s="11"/>
+      <c r="AL815" s="4"/>
+      <c r="AM815" s="16"/>
+    </row>
+    <row r="816" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG816" s="3"/>
+      <c r="AH816" s="9"/>
+      <c r="AI816" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ816" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK816" s="11"/>
+      <c r="AL816" s="4"/>
+      <c r="AM816" s="16"/>
+    </row>
+    <row r="817" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG817" s="3"/>
+      <c r="AH817" s="9"/>
+      <c r="AI817" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ817" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK817" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL817" s="4"/>
+      <c r="AM817" s="16"/>
+    </row>
+    <row r="818" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG818" s="3"/>
+      <c r="AH818" s="9"/>
+      <c r="AI818" s="6"/>
+      <c r="AJ818" s="12"/>
+      <c r="AK818" s="11"/>
+      <c r="AL818" s="4"/>
+      <c r="AM818" s="16"/>
+    </row>
+    <row r="819" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG819" s="3"/>
+      <c r="AH819" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI819" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ819" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK819" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL819" s="4"/>
+      <c r="AM819" s="16"/>
+    </row>
+    <row r="820" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG820" s="3"/>
+      <c r="AH820" s="9"/>
+      <c r="AI820" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ820" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK820" s="11"/>
+      <c r="AL820" s="4"/>
+      <c r="AM820" s="16"/>
+    </row>
+    <row r="821" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG821" s="3"/>
+      <c r="AH821" s="9"/>
+      <c r="AI821" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ821" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK821" s="11"/>
+      <c r="AL821" s="4"/>
+      <c r="AM821" s="16"/>
+    </row>
+    <row r="822" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG822" s="3"/>
+      <c r="AH822" s="9"/>
+      <c r="AI822" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ822" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK822" s="11"/>
+      <c r="AL822" s="4"/>
+      <c r="AM822" s="16"/>
+    </row>
+    <row r="823" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG823" s="3"/>
+      <c r="AH823" s="9"/>
+      <c r="AI823" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ823" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK823" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL823" s="4"/>
+      <c r="AM823" s="16"/>
+    </row>
+    <row r="824" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG824" s="3"/>
+      <c r="AH824" s="9"/>
+      <c r="AI824" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ824" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK824" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL824" s="4"/>
+      <c r="AM824" s="16"/>
+    </row>
+    <row r="825" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG825" s="3"/>
+      <c r="AH825" s="9"/>
+      <c r="AI825" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ825" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK825" s="11"/>
+      <c r="AL825" s="4"/>
+      <c r="AM825" s="16"/>
+    </row>
+    <row r="826" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG826" s="3"/>
+      <c r="AH826" s="9"/>
+      <c r="AI826" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ826" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK826" s="11"/>
+      <c r="AL826" s="4"/>
+      <c r="AM826" s="16"/>
+    </row>
+    <row r="827" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG827" s="3"/>
+      <c r="AH827" s="9"/>
+      <c r="AI827" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ827" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK827" s="11"/>
+      <c r="AL827" s="4"/>
+      <c r="AM827" s="16"/>
+    </row>
+    <row r="828" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG828" s="3"/>
+      <c r="AH828" s="9"/>
+      <c r="AI828" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ828" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK828" s="11"/>
+      <c r="AL828" s="4"/>
+      <c r="AM828" s="16"/>
+    </row>
+    <row r="829" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG829" s="3"/>
+      <c r="AH829" s="9"/>
+      <c r="AI829" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ829" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK829" s="11"/>
+      <c r="AL829" s="4"/>
+      <c r="AM829" s="16"/>
+    </row>
+    <row r="830" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG830" s="3"/>
+      <c r="AH830" s="9"/>
+      <c r="AI830" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ830" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK830" s="11"/>
+      <c r="AL830" s="4"/>
+      <c r="AM830" s="16"/>
+    </row>
+    <row r="831" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG831" s="3"/>
+      <c r="AH831" s="9"/>
+      <c r="AI831" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ831" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK831" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL831" s="4"/>
+      <c r="AM831" s="16"/>
+    </row>
+    <row r="832" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG832" s="3"/>
+      <c r="AH832" s="9"/>
+      <c r="AI832" s="6"/>
+      <c r="AJ832" s="12"/>
+      <c r="AK832" s="11"/>
+      <c r="AL832" s="4"/>
+      <c r="AM832" s="16"/>
+    </row>
+    <row r="833" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG833" s="3"/>
+      <c r="AH833" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI833" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ833" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK833" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL833" s="4"/>
+      <c r="AM833" s="16"/>
+    </row>
+    <row r="834" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG834" s="3"/>
+      <c r="AH834" s="9"/>
+      <c r="AI834" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ834" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK834" s="11"/>
+      <c r="AL834" s="4"/>
+      <c r="AM834" s="16"/>
+    </row>
+    <row r="835" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG835" s="3"/>
+      <c r="AH835" s="9"/>
+      <c r="AI835" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ835" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK835" s="11"/>
+      <c r="AL835" s="4"/>
+      <c r="AM835" s="16"/>
+    </row>
+    <row r="836" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG836" s="3"/>
+      <c r="AH836" s="9"/>
+      <c r="AI836" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ836" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK836" s="11"/>
+      <c r="AL836" s="4"/>
+      <c r="AM836" s="16"/>
+    </row>
+    <row r="837" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG837" s="3"/>
+      <c r="AH837" s="9"/>
+      <c r="AI837" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ837" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK837" s="11"/>
+      <c r="AL837" s="4"/>
+      <c r="AM837" s="16"/>
+    </row>
+    <row r="838" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG838" s="3"/>
+      <c r="AH838" s="9"/>
+      <c r="AI838" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ838" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK838" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL838" s="4"/>
+      <c r="AM838" s="16"/>
+    </row>
+    <row r="839" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG839" s="3"/>
+      <c r="AH839" s="9"/>
+      <c r="AI839" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ839" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK839" s="11"/>
+      <c r="AL839" s="4"/>
+      <c r="AM839" s="16"/>
+    </row>
+    <row r="840" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG840" s="3"/>
+      <c r="AH840" s="9"/>
+      <c r="AI840" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ840" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK840" s="11"/>
+      <c r="AL840" s="4"/>
+      <c r="AM840" s="16"/>
+    </row>
+    <row r="841" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG841" s="3"/>
+      <c r="AH841" s="9"/>
+      <c r="AI841" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ841" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK841" s="11"/>
+      <c r="AL841" s="4"/>
+      <c r="AM841" s="16"/>
+    </row>
+    <row r="842" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG842" s="3"/>
+      <c r="AH842" s="9"/>
+      <c r="AI842" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ842" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK842" s="11"/>
+      <c r="AL842" s="4"/>
+      <c r="AM842" s="16"/>
+    </row>
+    <row r="843" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG843" s="3"/>
+      <c r="AH843" s="9"/>
+      <c r="AI843" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ843" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK843" s="11"/>
+      <c r="AL843" s="4"/>
+      <c r="AM843" s="16"/>
+    </row>
+    <row r="844" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG844" s="3"/>
+      <c r="AH844" s="9"/>
+      <c r="AI844" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ844" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK844" s="11"/>
+      <c r="AL844" s="4"/>
+      <c r="AM844" s="16"/>
+    </row>
+    <row r="845" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG845" s="3"/>
+      <c r="AH845" s="9"/>
+      <c r="AI845" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ845" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK845" s="11"/>
+      <c r="AL845" s="4"/>
+      <c r="AM845" s="16"/>
+    </row>
+    <row r="846" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG846" s="3"/>
+      <c r="AH846" s="9"/>
+      <c r="AI846" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ846" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK846" s="11"/>
+      <c r="AL846" s="4"/>
+      <c r="AM846" s="16"/>
+    </row>
+    <row r="847" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG847" s="3"/>
+      <c r="AH847" s="9"/>
+      <c r="AI847" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ847" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK847" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL847" s="4"/>
+      <c r="AM847" s="16"/>
+    </row>
+    <row r="848" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG848" s="3"/>
+      <c r="AH848" s="9"/>
+      <c r="AI848" s="6"/>
+      <c r="AJ848" s="12"/>
+      <c r="AK848" s="11"/>
+      <c r="AL848" s="4"/>
+      <c r="AM848" s="16"/>
+    </row>
+    <row r="849" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG849" s="3"/>
+      <c r="AH849" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI849" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ849" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK849" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL849" s="4"/>
+      <c r="AM849" s="16"/>
+    </row>
+    <row r="850" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG850" s="3"/>
+      <c r="AH850" s="9"/>
+      <c r="AI850" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ850" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK850" s="11"/>
+      <c r="AL850" s="4"/>
+      <c r="AM850" s="16"/>
+    </row>
+    <row r="851" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG851" s="3"/>
+      <c r="AH851" s="9"/>
+      <c r="AI851" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ851" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK851" s="11"/>
+      <c r="AL851" s="4"/>
+      <c r="AM851" s="16"/>
+    </row>
+    <row r="852" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG852" s="3"/>
+      <c r="AH852" s="9"/>
+      <c r="AI852" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ852" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK852" s="11"/>
+      <c r="AL852" s="4"/>
+      <c r="AM852" s="16"/>
+    </row>
+    <row r="853" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG853" s="3"/>
+      <c r="AH853" s="9"/>
+      <c r="AI853" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ853" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK853" s="11"/>
+      <c r="AL853" s="4"/>
+      <c r="AM853" s="16"/>
+    </row>
+    <row r="854" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG854" s="3"/>
+      <c r="AH854" s="9"/>
+      <c r="AI854" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ854" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK854" s="11"/>
+      <c r="AL854" s="4"/>
+      <c r="AM854" s="16"/>
+    </row>
+    <row r="855" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG855" s="3"/>
+      <c r="AH855" s="9"/>
+      <c r="AI855" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ855" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK855" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL855" s="4"/>
+      <c r="AM855" s="16"/>
+    </row>
+    <row r="856" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG856" s="3"/>
+      <c r="AH856" s="9"/>
+      <c r="AI856" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ856" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK856" s="11"/>
+      <c r="AL856" s="4"/>
+      <c r="AM856" s="16"/>
+    </row>
+    <row r="857" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG857" s="3"/>
+      <c r="AH857" s="9"/>
+      <c r="AI857" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ857" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK857" s="11"/>
+      <c r="AL857" s="4"/>
+      <c r="AM857" s="16"/>
+    </row>
+    <row r="858" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG858" s="3"/>
+      <c r="AH858" s="9"/>
+      <c r="AI858" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ858" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK858" s="11"/>
+      <c r="AL858" s="4"/>
+      <c r="AM858" s="16"/>
+    </row>
+    <row r="859" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG859" s="3"/>
+      <c r="AH859" s="9"/>
+      <c r="AI859" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ859" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK859" s="11"/>
+      <c r="AL859" s="4"/>
+      <c r="AM859" s="16"/>
+    </row>
+    <row r="860" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG860" s="3"/>
+      <c r="AH860" s="9"/>
+      <c r="AI860" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ860" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK860" s="11"/>
+      <c r="AL860" s="4"/>
+      <c r="AM860" s="16"/>
+    </row>
+    <row r="861" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG861" s="3"/>
+      <c r="AH861" s="9"/>
+      <c r="AI861" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ861" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK861" s="11"/>
+      <c r="AL861" s="4"/>
+      <c r="AM861" s="16"/>
+    </row>
+    <row r="862" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG862" s="3"/>
+      <c r="AH862" s="9"/>
+      <c r="AI862" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ862" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK862" s="11"/>
+      <c r="AL862" s="4"/>
+      <c r="AM862" s="16"/>
+    </row>
+    <row r="863" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG863" s="3"/>
+      <c r="AH863" s="9"/>
+      <c r="AI863" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ863" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK863" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL863" s="4"/>
+      <c r="AM863" s="16"/>
+    </row>
+    <row r="864" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG864" s="3"/>
+      <c r="AH864" s="9"/>
+      <c r="AI864" s="6"/>
+      <c r="AJ864" s="12"/>
+      <c r="AK864" s="11"/>
+      <c r="AL864" s="4"/>
+      <c r="AM864" s="16"/>
+    </row>
+    <row r="865" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG865" s="3"/>
+      <c r="AH865" s="9"/>
+      <c r="AI865" s="6"/>
+      <c r="AJ865" s="12"/>
+      <c r="AK865" s="11"/>
+      <c r="AL865" s="4"/>
+      <c r="AM865" s="16"/>
+    </row>
+    <row r="866" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG866" s="3"/>
+      <c r="AH866" s="9"/>
+      <c r="AI866" s="6"/>
+      <c r="AJ866" s="12"/>
+      <c r="AK866" s="11"/>
+      <c r="AL866" s="4"/>
+      <c r="AM866" s="16"/>
+    </row>
+    <row r="867" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG867" s="3"/>
+      <c r="AH867" s="9"/>
+      <c r="AI867" s="6"/>
+      <c r="AJ867" s="12"/>
+      <c r="AK867" s="11"/>
+      <c r="AL867" s="4"/>
+      <c r="AM867" s="16"/>
+    </row>
+    <row r="868" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG868" s="3"/>
+      <c r="AH868" s="9"/>
+      <c r="AI868" s="6"/>
+      <c r="AJ868" s="12"/>
+      <c r="AK868" s="11"/>
+      <c r="AL868" s="4"/>
+      <c r="AM868" s="16"/>
+    </row>
+    <row r="869" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG869" s="3"/>
+      <c r="AH869" s="9"/>
+      <c r="AI869" s="6"/>
+      <c r="AJ869" s="12"/>
+      <c r="AK869" s="11"/>
+      <c r="AL869" s="4"/>
+      <c r="AM869" s="16"/>
+    </row>
+    <row r="870" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG870" s="3"/>
+      <c r="AH870" s="9"/>
+      <c r="AI870" s="6"/>
+      <c r="AJ870" s="12"/>
+      <c r="AK870" s="11"/>
+      <c r="AL870" s="4"/>
+      <c r="AM870" s="16"/>
+    </row>
+    <row r="871" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG871" s="3"/>
+      <c r="AH871" s="9"/>
+      <c r="AI871" s="6"/>
+      <c r="AJ871" s="12"/>
+      <c r="AK871" s="11"/>
+      <c r="AL871" s="4"/>
+      <c r="AM871" s="16"/>
+    </row>
+    <row r="872" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG872" s="3"/>
+      <c r="AH872" s="9"/>
+      <c r="AI872" s="6"/>
+      <c r="AJ872" s="12"/>
+      <c r="AK872" s="11"/>
+      <c r="AL872" s="4"/>
+      <c r="AM872" s="16"/>
+    </row>
+    <row r="873" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG873" s="3"/>
+      <c r="AH873" s="9"/>
+      <c r="AI873" s="6"/>
+      <c r="AJ873" s="12"/>
+      <c r="AK873" s="11"/>
+      <c r="AL873" s="4"/>
+      <c r="AM873" s="16"/>
+    </row>
+    <row r="874" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG874" s="3"/>
+      <c r="AH874" s="9"/>
+      <c r="AI874" s="6"/>
+      <c r="AJ874" s="12"/>
+      <c r="AK874" s="11"/>
+      <c r="AL874" s="4"/>
+      <c r="AM874" s="16"/>
+    </row>
+    <row r="875" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG875" s="3"/>
+      <c r="AH875" s="9"/>
+      <c r="AI875" s="6"/>
+      <c r="AJ875" s="12"/>
+      <c r="AK875" s="11"/>
+      <c r="AL875" s="4"/>
+      <c r="AM875" s="16"/>
+    </row>
+    <row r="876" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG876" s="3"/>
+      <c r="AH876" s="9"/>
+      <c r="AI876" s="6"/>
+      <c r="AJ876" s="12"/>
+      <c r="AK876" s="11"/>
+      <c r="AL876" s="4"/>
+      <c r="AM876" s="16"/>
+    </row>
+    <row r="877" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG877" s="3"/>
+      <c r="AH877" s="9"/>
+      <c r="AI877" s="6"/>
+      <c r="AJ877" s="12"/>
+      <c r="AK877" s="11"/>
+      <c r="AL877" s="4"/>
+      <c r="AM877" s="16"/>
+    </row>
+    <row r="878" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG878" s="3"/>
+      <c r="AH878" s="9"/>
+      <c r="AI878" s="6"/>
+      <c r="AJ878" s="12"/>
+      <c r="AK878" s="11"/>
+      <c r="AL878" s="4"/>
+      <c r="AM878" s="16"/>
+    </row>
+    <row r="879" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG879" s="3"/>
+      <c r="AH879" s="9"/>
+      <c r="AI879" s="6"/>
+      <c r="AJ879" s="12"/>
+      <c r="AK879" s="11"/>
+      <c r="AL879" s="4"/>
+      <c r="AM879" s="16"/>
+    </row>
+    <row r="880" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG880" s="3"/>
+      <c r="AH880" s="9"/>
+      <c r="AI880" s="6"/>
+      <c r="AJ880" s="12"/>
+      <c r="AK880" s="11"/>
+      <c r="AL880" s="4"/>
+      <c r="AM880" s="16"/>
+    </row>
+    <row r="881" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG881" s="3"/>
+      <c r="AH881" s="9"/>
+      <c r="AI881" s="6"/>
+      <c r="AJ881" s="12"/>
+      <c r="AK881" s="11"/>
+      <c r="AL881" s="4"/>
+      <c r="AM881" s="16"/>
+    </row>
+    <row r="882" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG882" s="3"/>
+      <c r="AH882" s="9"/>
+      <c r="AI882" s="6"/>
+      <c r="AJ882" s="12"/>
+      <c r="AK882" s="11"/>
+      <c r="AL882" s="4"/>
+      <c r="AM882" s="16"/>
+    </row>
+    <row r="883" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG883" s="3"/>
+      <c r="AH883" s="9"/>
+      <c r="AI883" s="6"/>
+      <c r="AJ883" s="12"/>
+      <c r="AK883" s="11"/>
+      <c r="AL883" s="4"/>
+      <c r="AM883" s="16"/>
+    </row>
+    <row r="884" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG884" s="3"/>
+      <c r="AH884" s="9"/>
+      <c r="AI884" s="6"/>
+      <c r="AJ884" s="12"/>
+      <c r="AK884" s="11"/>
+      <c r="AL884" s="4"/>
+      <c r="AM884" s="16"/>
+    </row>
+    <row r="885" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG885" s="3"/>
+      <c r="AH885" s="9"/>
+      <c r="AI885" s="6"/>
+      <c r="AJ885" s="12"/>
+      <c r="AK885" s="11"/>
+      <c r="AL885" s="4"/>
+      <c r="AM885" s="16"/>
+    </row>
+    <row r="886" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG886" s="3"/>
+      <c r="AH886" s="9"/>
+      <c r="AI886" s="6"/>
+      <c r="AJ886" s="12"/>
+      <c r="AK886" s="11"/>
+      <c r="AL886" s="4"/>
+      <c r="AM886" s="16"/>
+    </row>
+    <row r="887" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG887" s="3"/>
+      <c r="AH887" s="9"/>
+      <c r="AI887" s="6"/>
+      <c r="AJ887" s="12"/>
+      <c r="AK887" s="11"/>
+      <c r="AL887" s="4"/>
+      <c r="AM887" s="16"/>
+    </row>
+    <row r="888" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG888" s="3"/>
+      <c r="AH888" s="9"/>
+      <c r="AI888" s="6"/>
+      <c r="AJ888" s="12"/>
+      <c r="AK888" s="11"/>
+      <c r="AL888" s="4"/>
+      <c r="AM888" s="16"/>
+    </row>
+    <row r="889" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG889" s="3"/>
+      <c r="AH889" s="9"/>
+      <c r="AI889" s="6"/>
+      <c r="AJ889" s="12"/>
+      <c r="AK889" s="11"/>
+      <c r="AL889" s="4"/>
+      <c r="AM889" s="16"/>
+    </row>
+    <row r="890" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG890" s="3"/>
+      <c r="AH890" s="9"/>
+      <c r="AI890" s="6"/>
+      <c r="AJ890" s="12"/>
+      <c r="AK890" s="11"/>
+      <c r="AL890" s="4"/>
+      <c r="AM890" s="16"/>
+    </row>
+    <row r="891" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG891" s="3"/>
+      <c r="AH891" s="9"/>
+      <c r="AI891" s="6"/>
+      <c r="AJ891" s="12"/>
+      <c r="AK891" s="11"/>
+      <c r="AL891" s="4"/>
+      <c r="AM891" s="16"/>
+    </row>
+    <row r="892" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG892" s="3"/>
+      <c r="AH892" s="9"/>
+      <c r="AI892" s="6"/>
+      <c r="AJ892" s="12"/>
+      <c r="AK892" s="11"/>
+      <c r="AL892" s="4"/>
+      <c r="AM892" s="16"/>
+    </row>
+    <row r="893" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG893" s="3"/>
+      <c r="AH893" s="9"/>
+      <c r="AI893" s="6"/>
+      <c r="AJ893" s="12"/>
+      <c r="AK893" s="11"/>
+      <c r="AL893" s="4"/>
+      <c r="AM893" s="16"/>
+    </row>
+    <row r="894" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG894" s="3"/>
+      <c r="AH894" s="9"/>
+      <c r="AI894" s="6"/>
+      <c r="AJ894" s="12"/>
+      <c r="AK894" s="11"/>
+      <c r="AL894" s="4"/>
+      <c r="AM894" s="16"/>
+    </row>
+    <row r="895" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG895" s="3"/>
+      <c r="AH895" s="9"/>
+      <c r="AI895" s="6"/>
+      <c r="AJ895" s="12"/>
+      <c r="AK895" s="11"/>
+      <c r="AL895" s="4"/>
+      <c r="AM895" s="16"/>
+    </row>
+    <row r="896" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG896" s="3"/>
+      <c r="AH896" s="9"/>
+      <c r="AI896" s="6"/>
+      <c r="AJ896" s="12"/>
+      <c r="AK896" s="11"/>
+      <c r="AL896" s="4"/>
+      <c r="AM896" s="16"/>
+    </row>
+    <row r="897" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG897" s="3"/>
+      <c r="AH897" s="9"/>
+      <c r="AI897" s="6"/>
+      <c r="AJ897" s="12"/>
+      <c r="AK897" s="11"/>
+      <c r="AL897" s="4"/>
+      <c r="AM897" s="16"/>
+    </row>
+    <row r="898" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG898" s="3"/>
+      <c r="AH898" s="9"/>
+      <c r="AI898" s="6"/>
+      <c r="AJ898" s="12"/>
+      <c r="AK898" s="11"/>
+      <c r="AL898" s="4"/>
+      <c r="AM898" s="16"/>
+    </row>
+    <row r="899" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG899" s="3"/>
+      <c r="AH899" s="9"/>
+      <c r="AI899" s="6"/>
+      <c r="AJ899" s="12"/>
+      <c r="AK899" s="11"/>
+      <c r="AL899" s="4"/>
+      <c r="AM899" s="16"/>
+    </row>
+    <row r="900" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG900" s="3"/>
+      <c r="AH900" s="9"/>
+      <c r="AI900" s="6"/>
+      <c r="AJ900" s="12"/>
+      <c r="AK900" s="11"/>
+      <c r="AL900" s="4"/>
+      <c r="AM900" s="16"/>
+    </row>
+    <row r="901" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG901" s="3"/>
+      <c r="AH901" s="9"/>
+      <c r="AI901" s="6"/>
+      <c r="AJ901" s="12"/>
+      <c r="AK901" s="11"/>
+      <c r="AL901" s="4"/>
+      <c r="AM901" s="16"/>
+    </row>
+    <row r="902" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG902" s="3"/>
+      <c r="AH902" s="9"/>
+      <c r="AI902" s="6"/>
+      <c r="AJ902" s="12"/>
+      <c r="AK902" s="11"/>
+      <c r="AL902" s="4"/>
+      <c r="AM902" s="16"/>
+    </row>
+    <row r="903" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG903" s="3"/>
+      <c r="AH903" s="9"/>
+      <c r="AI903" s="6"/>
+      <c r="AJ903" s="12"/>
+      <c r="AK903" s="11"/>
+      <c r="AL903" s="4"/>
+      <c r="AM903" s="16"/>
+    </row>
+    <row r="904" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG904" s="3"/>
+      <c r="AH904" s="9"/>
+      <c r="AI904" s="6"/>
+      <c r="AJ904" s="12"/>
+      <c r="AK904" s="11"/>
+      <c r="AL904" s="4"/>
+      <c r="AM904" s="16"/>
+    </row>
+    <row r="905" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG905" s="3"/>
+      <c r="AH905" s="9"/>
+      <c r="AI905" s="6"/>
+      <c r="AJ905" s="12"/>
+      <c r="AK905" s="11"/>
+      <c r="AL905" s="4"/>
+      <c r="AM905" s="16"/>
+    </row>
+    <row r="906" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG906" s="3"/>
+      <c r="AH906" s="9"/>
+      <c r="AI906" s="6"/>
+      <c r="AJ906" s="12"/>
+      <c r="AK906" s="11"/>
+      <c r="AL906" s="4"/>
+      <c r="AM906" s="16"/>
+    </row>
+    <row r="907" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG907" s="3"/>
+      <c r="AH907" s="9"/>
+      <c r="AI907" s="6"/>
+      <c r="AJ907" s="12"/>
+      <c r="AK907" s="11"/>
+      <c r="AL907" s="4"/>
+      <c r="AM907" s="16"/>
+    </row>
+    <row r="908" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG908" s="3"/>
+      <c r="AH908" s="9"/>
+      <c r="AI908" s="6"/>
+      <c r="AJ908" s="12"/>
+      <c r="AK908" s="11"/>
+      <c r="AL908" s="4"/>
+      <c r="AM908" s="16"/>
+    </row>
+    <row r="909" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG909" s="3"/>
+      <c r="AH909" s="9"/>
+      <c r="AI909" s="6"/>
+      <c r="AJ909" s="12"/>
+      <c r="AK909" s="11"/>
+      <c r="AL909" s="4"/>
+      <c r="AM909" s="16"/>
+    </row>
+    <row r="910" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG910" s="3"/>
+      <c r="AH910" s="9"/>
+      <c r="AI910" s="6"/>
+      <c r="AJ910" s="12"/>
+      <c r="AK910" s="11"/>
+      <c r="AL910" s="4"/>
+      <c r="AM910" s="16"/>
+    </row>
+    <row r="911" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG911" s="3"/>
+      <c r="AH911" s="9"/>
+      <c r="AI911" s="6"/>
+      <c r="AJ911" s="12"/>
+      <c r="AK911" s="11"/>
+      <c r="AL911" s="4"/>
+      <c r="AM911" s="16"/>
+    </row>
+    <row r="912" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG912" s="3"/>
+      <c r="AH912" s="9"/>
+      <c r="AI912" s="6"/>
+      <c r="AJ912" s="12"/>
+      <c r="AK912" s="11"/>
+      <c r="AL912" s="4"/>
+      <c r="AM912" s="16"/>
+    </row>
+    <row r="913" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG913" s="3"/>
+      <c r="AH913" s="9"/>
+      <c r="AI913" s="6"/>
+      <c r="AJ913" s="12"/>
+      <c r="AK913" s="11"/>
+      <c r="AL913" s="4"/>
+      <c r="AM913" s="16"/>
+    </row>
+    <row r="914" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG914" s="3"/>
+      <c r="AH914" s="9"/>
+      <c r="AI914" s="6"/>
+      <c r="AJ914" s="12"/>
+      <c r="AK914" s="11"/>
+      <c r="AL914" s="4"/>
+      <c r="AM914" s="16"/>
+    </row>
+    <row r="915" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG915" s="3"/>
+      <c r="AH915" s="9"/>
+      <c r="AI915" s="6"/>
+      <c r="AJ915" s="12"/>
+      <c r="AK915" s="11"/>
+      <c r="AL915" s="4"/>
+      <c r="AM915" s="16"/>
+    </row>
+    <row r="916" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG916" s="3"/>
+      <c r="AH916" s="9"/>
+      <c r="AI916" s="6"/>
+      <c r="AJ916" s="12"/>
+      <c r="AK916" s="11"/>
+      <c r="AL916" s="4"/>
+      <c r="AM916" s="16"/>
+    </row>
+    <row r="917" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG917" s="3"/>
+      <c r="AH917" s="9"/>
+      <c r="AI917" s="6"/>
+      <c r="AJ917" s="12"/>
+      <c r="AK917" s="11"/>
+      <c r="AL917" s="4"/>
+      <c r="AM917" s="16"/>
+    </row>
+    <row r="918" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG918" s="3"/>
+      <c r="AH918" s="9"/>
+      <c r="AI918" s="6"/>
+      <c r="AJ918" s="12"/>
+      <c r="AK918" s="11"/>
+      <c r="AL918" s="4"/>
+      <c r="AM918" s="16"/>
+    </row>
+    <row r="919" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG919" s="3"/>
+      <c r="AH919" s="9"/>
+      <c r="AI919" s="6"/>
+      <c r="AJ919" s="12"/>
+      <c r="AK919" s="11"/>
+      <c r="AL919" s="4"/>
+      <c r="AM919" s="16"/>
+    </row>
+    <row r="920" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG920" s="3"/>
+      <c r="AH920" s="9"/>
+      <c r="AI920" s="6"/>
+      <c r="AJ920" s="12"/>
+      <c r="AK920" s="11"/>
+      <c r="AL920" s="4"/>
+      <c r="AM920" s="16"/>
+    </row>
+    <row r="921" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG921" s="3"/>
+      <c r="AH921" s="9"/>
+      <c r="AI921" s="6"/>
+      <c r="AJ921" s="12"/>
+      <c r="AK921" s="11"/>
+      <c r="AL921" s="4"/>
+      <c r="AM921" s="16"/>
+    </row>
+    <row r="922" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG922" s="3"/>
+      <c r="AH922" s="9"/>
+      <c r="AI922" s="6"/>
+      <c r="AJ922" s="12"/>
+      <c r="AK922" s="11"/>
+      <c r="AL922" s="4"/>
+      <c r="AM922" s="16"/>
+    </row>
+    <row r="923" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG923" s="3"/>
+      <c r="AH923" s="9"/>
+      <c r="AI923" s="6"/>
+      <c r="AJ923" s="12"/>
+      <c r="AK923" s="11"/>
+      <c r="AL923" s="4"/>
+      <c r="AM923" s="16"/>
+    </row>
+    <row r="924" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG924" s="3"/>
+      <c r="AH924" s="9"/>
+      <c r="AI924" s="6"/>
+      <c r="AJ924" s="12"/>
+      <c r="AK924" s="11"/>
+      <c r="AL924" s="4"/>
+      <c r="AM924" s="16"/>
+    </row>
+    <row r="925" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG925" s="3"/>
+      <c r="AH925" s="9"/>
+      <c r="AI925" s="6"/>
+      <c r="AJ925" s="12"/>
+      <c r="AK925" s="11"/>
+      <c r="AL925" s="4"/>
+      <c r="AM925" s="16"/>
+    </row>
+    <row r="926" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG926" s="3"/>
+      <c r="AH926" s="9"/>
+      <c r="AI926" s="6"/>
+      <c r="AJ926" s="12"/>
+      <c r="AK926" s="11"/>
+      <c r="AL926" s="4"/>
+      <c r="AM926" s="16"/>
+    </row>
+    <row r="927" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG927" s="3"/>
+      <c r="AH927" s="9"/>
+      <c r="AI927" s="6"/>
+      <c r="AJ927" s="12"/>
+      <c r="AK927" s="11"/>
+      <c r="AL927" s="4"/>
+      <c r="AM927" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micfe484\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F5C37-F19C-4129-A148-D74E4B56625F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764AEEB-2F81-4129-8BAF-AE338BF01A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="287">
   <si>
     <t>ClassNames</t>
   </si>
@@ -836,6 +836,57 @@
   <si>
     <t>3CLG-COMED</t>
   </si>
+  <si>
+    <t>3CG-URBS</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>2CG-URBS</t>
+  </si>
+  <si>
+    <t>Géographie territoriale</t>
+  </si>
+  <si>
+    <t>1CG-URBS</t>
+  </si>
+  <si>
+    <t>1CLG-URBS</t>
+  </si>
+  <si>
+    <t>2CLG-URBS</t>
+  </si>
+  <si>
+    <t>3CLG-URBS</t>
+  </si>
+  <si>
+    <t>1CB-4LANG</t>
+  </si>
+  <si>
+    <t>choix 1 parmi ECO, HISTO</t>
+  </si>
+  <si>
+    <t>choix 2 parmi FR, DE, EN, 4e lan</t>
+  </si>
+  <si>
+    <t>2CB-4LANG</t>
+  </si>
+  <si>
+    <t>choix 3 parmi FR, DE, EN, 4e lan</t>
+  </si>
+  <si>
+    <t>3CB-4LANG</t>
+  </si>
+  <si>
+    <t>3CC-4LANG</t>
+  </si>
+  <si>
+    <t>2CC-4LANG</t>
+  </si>
+  <si>
+    <t>1CC-4LANG</t>
+  </si>
 </sst>
 </file>
 
@@ -1309,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
   <dimension ref="A1:BC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP776" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="AU788" sqref="AU788"/>
+    <sheetView tabSelected="1" topLeftCell="AT557" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="AW574" sqref="AW574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25319,10 +25370,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AW530" s="3"/>
-      <c r="AX530" s="9"/>
-      <c r="AY530" s="6"/>
-      <c r="AZ530" s="12"/>
-      <c r="BA530" s="11"/>
+      <c r="AX530" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY530" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ530" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA530" s="11">
+        <v>4</v>
+      </c>
       <c r="BB530" s="4"/>
       <c r="BC530" s="16"/>
     </row>
@@ -25355,9 +25414,15 @@
       <c r="AU531" s="16"/>
       <c r="AW531" s="3"/>
       <c r="AX531" s="9"/>
-      <c r="AY531" s="6"/>
-      <c r="AZ531" s="12"/>
-      <c r="BA531" s="11"/>
+      <c r="AY531" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ531" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA531" s="11">
+        <v>3</v>
+      </c>
       <c r="BB531" s="4"/>
       <c r="BC531" s="16"/>
     </row>
@@ -25386,8 +25451,12 @@
       <c r="AU532" s="16"/>
       <c r="AW532" s="3"/>
       <c r="AX532" s="9"/>
-      <c r="AY532" s="6"/>
-      <c r="AZ532" s="12"/>
+      <c r="AY532" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ532" s="12">
+        <v>3</v>
+      </c>
       <c r="BA532" s="11"/>
       <c r="BB532" s="4"/>
       <c r="BC532" s="16"/>
@@ -25419,8 +25488,12 @@
       <c r="AU533" s="16"/>
       <c r="AW533" s="3"/>
       <c r="AX533" s="9"/>
-      <c r="AY533" s="6"/>
-      <c r="AZ533" s="12"/>
+      <c r="AY533" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ533" s="12">
+        <v>3</v>
+      </c>
       <c r="BA533" s="11"/>
       <c r="BB533" s="4"/>
       <c r="BC533" s="16"/>
@@ -25452,11 +25525,19 @@
       <c r="AU534" s="16"/>
       <c r="AW534" s="3"/>
       <c r="AX534" s="9"/>
-      <c r="AY534" s="6"/>
-      <c r="AZ534" s="12"/>
+      <c r="AY534" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ534" s="12">
+        <v>4</v>
+      </c>
       <c r="BA534" s="11"/>
-      <c r="BB534" s="4"/>
-      <c r="BC534" s="16"/>
+      <c r="BB534" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC534" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="535" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG535" s="3"/>
@@ -25486,8 +25567,12 @@
       <c r="AY535" s="6"/>
       <c r="AZ535" s="12"/>
       <c r="BA535" s="11"/>
-      <c r="BB535" s="4"/>
-      <c r="BC535" s="16"/>
+      <c r="BB535" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC535" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="536" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG536" s="3"/>
@@ -25516,8 +25601,12 @@
       <c r="AU536" s="16"/>
       <c r="AW536" s="3"/>
       <c r="AX536" s="9"/>
-      <c r="AY536" s="6"/>
-      <c r="AZ536" s="12"/>
+      <c r="AY536" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ536" s="12">
+        <v>2</v>
+      </c>
       <c r="BA536" s="11"/>
       <c r="BB536" s="4"/>
       <c r="BC536" s="16"/>
@@ -25547,9 +25636,15 @@
       <c r="AU537" s="16"/>
       <c r="AW537" s="3"/>
       <c r="AX537" s="9"/>
-      <c r="AY537" s="6"/>
-      <c r="AZ537" s="12"/>
-      <c r="BA537" s="11"/>
+      <c r="AY537" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ537" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA537" s="11">
+        <v>2</v>
+      </c>
       <c r="BB537" s="4"/>
       <c r="BC537" s="16"/>
     </row>
@@ -25578,8 +25673,12 @@
       <c r="AU538" s="16"/>
       <c r="AW538" s="3"/>
       <c r="AX538" s="9"/>
-      <c r="AY538" s="6"/>
-      <c r="AZ538" s="12"/>
+      <c r="AY538" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ538" s="12">
+        <v>2</v>
+      </c>
       <c r="BA538" s="11"/>
       <c r="BB538" s="4"/>
       <c r="BC538" s="16"/>
@@ -25609,8 +25708,12 @@
       <c r="AU539" s="16"/>
       <c r="AW539" s="3"/>
       <c r="AX539" s="9"/>
-      <c r="AY539" s="6"/>
-      <c r="AZ539" s="12"/>
+      <c r="AY539" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ539" s="12">
+        <v>3</v>
+      </c>
       <c r="BA539" s="11"/>
       <c r="BB539" s="4"/>
       <c r="BC539" s="16"/>
@@ -25640,8 +25743,12 @@
       <c r="AU540" s="16"/>
       <c r="AW540" s="3"/>
       <c r="AX540" s="9"/>
-      <c r="AY540" s="6"/>
-      <c r="AZ540" s="12"/>
+      <c r="AY540" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ540" s="12">
+        <v>2</v>
+      </c>
       <c r="BA540" s="11"/>
       <c r="BB540" s="4"/>
       <c r="BC540" s="16"/>
@@ -25673,8 +25780,12 @@
       <c r="AU541" s="16"/>
       <c r="AW541" s="3"/>
       <c r="AX541" s="9"/>
-      <c r="AY541" s="6"/>
-      <c r="AZ541" s="12"/>
+      <c r="AY541" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ541" s="12">
+        <v>2</v>
+      </c>
       <c r="BA541" s="11"/>
       <c r="BB541" s="4"/>
       <c r="BC541" s="16"/>
@@ -25700,9 +25811,15 @@
       <c r="AU542" s="16"/>
       <c r="AW542" s="3"/>
       <c r="AX542" s="9"/>
-      <c r="AY542" s="6"/>
-      <c r="AZ542" s="12"/>
-      <c r="BA542" s="11"/>
+      <c r="AY542" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ542" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA542" s="11">
+        <v>1</v>
+      </c>
       <c r="BB542" s="4"/>
       <c r="BC542" s="16"/>
     </row>
@@ -25768,11 +25885,21 @@
       </c>
       <c r="AT544" s="4"/>
       <c r="AU544" s="16"/>
-      <c r="AW544" s="3"/>
-      <c r="AX544" s="9"/>
-      <c r="AY544" s="6"/>
-      <c r="AZ544" s="12"/>
-      <c r="BA544" s="11"/>
+      <c r="AW544" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX544" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY544" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ544" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA544" s="11">
+        <v>4</v>
+      </c>
       <c r="BB544" s="4"/>
       <c r="BC544" s="16"/>
     </row>
@@ -25797,9 +25924,15 @@
       <c r="AU545" s="16"/>
       <c r="AW545" s="3"/>
       <c r="AX545" s="9"/>
-      <c r="AY545" s="6"/>
-      <c r="AZ545" s="12"/>
-      <c r="BA545" s="11"/>
+      <c r="AY545" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ545" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA545" s="11">
+        <v>3</v>
+      </c>
       <c r="BB545" s="4"/>
       <c r="BC545" s="16"/>
     </row>
@@ -25832,8 +25965,12 @@
       <c r="AU546" s="16"/>
       <c r="AW546" s="3"/>
       <c r="AX546" s="9"/>
-      <c r="AY546" s="6"/>
-      <c r="AZ546" s="12"/>
+      <c r="AY546" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ546" s="12">
+        <v>3</v>
+      </c>
       <c r="BA546" s="11"/>
       <c r="BB546" s="4"/>
       <c r="BC546" s="16"/>
@@ -25865,8 +26002,12 @@
       <c r="AU547" s="16"/>
       <c r="AW547" s="3"/>
       <c r="AX547" s="9"/>
-      <c r="AY547" s="6"/>
-      <c r="AZ547" s="12"/>
+      <c r="AY547" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ547" s="12">
+        <v>3</v>
+      </c>
       <c r="BA547" s="11"/>
       <c r="BB547" s="4"/>
       <c r="BC547" s="16"/>
@@ -25896,8 +26037,12 @@
       <c r="AU548" s="16"/>
       <c r="AW548" s="3"/>
       <c r="AX548" s="9"/>
-      <c r="AY548" s="6"/>
-      <c r="AZ548" s="12"/>
+      <c r="AY548" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ548" s="12">
+        <v>3</v>
+      </c>
       <c r="BA548" s="11"/>
       <c r="BB548" s="4"/>
       <c r="BC548" s="16"/>
@@ -25929,11 +26074,19 @@
       <c r="AU549" s="16"/>
       <c r="AW549" s="3"/>
       <c r="AX549" s="9"/>
-      <c r="AY549" s="6"/>
-      <c r="AZ549" s="12"/>
+      <c r="AY549" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ549" s="12">
+        <v>4</v>
+      </c>
       <c r="BA549" s="11"/>
-      <c r="BB549" s="4"/>
-      <c r="BC549" s="16"/>
+      <c r="BB549" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC549" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="550" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG550" s="3"/>
@@ -25967,8 +26120,12 @@
       <c r="AY550" s="6"/>
       <c r="AZ550" s="12"/>
       <c r="BA550" s="11"/>
-      <c r="BB550" s="4"/>
-      <c r="BC550" s="16"/>
+      <c r="BB550" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC550" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="551" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG551" s="3"/>
@@ -25995,8 +26152,12 @@
       <c r="AU551" s="16"/>
       <c r="AW551" s="3"/>
       <c r="AX551" s="9"/>
-      <c r="AY551" s="6"/>
-      <c r="AZ551" s="12"/>
+      <c r="AY551" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ551" s="12">
+        <v>2</v>
+      </c>
       <c r="BA551" s="11"/>
       <c r="BB551" s="4"/>
       <c r="BC551" s="16"/>
@@ -26028,9 +26189,15 @@
       <c r="AU552" s="16"/>
       <c r="AW552" s="3"/>
       <c r="AX552" s="9"/>
-      <c r="AY552" s="6"/>
-      <c r="AZ552" s="12"/>
-      <c r="BA552" s="11"/>
+      <c r="AY552" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ552" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA552" s="11">
+        <v>2</v>
+      </c>
       <c r="BB552" s="4"/>
       <c r="BC552" s="16"/>
     </row>
@@ -26059,8 +26226,12 @@
       <c r="AU553" s="16"/>
       <c r="AW553" s="3"/>
       <c r="AX553" s="9"/>
-      <c r="AY553" s="6"/>
-      <c r="AZ553" s="12"/>
+      <c r="AY553" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ553" s="12">
+        <v>2</v>
+      </c>
       <c r="BA553" s="11"/>
       <c r="BB553" s="4"/>
       <c r="BC553" s="16"/>
@@ -26094,8 +26265,12 @@
       <c r="AU554" s="16"/>
       <c r="AW554" s="3"/>
       <c r="AX554" s="9"/>
-      <c r="AY554" s="6"/>
-      <c r="AZ554" s="12"/>
+      <c r="AY554" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ554" s="12">
+        <v>3</v>
+      </c>
       <c r="BA554" s="11"/>
       <c r="BB554" s="4"/>
       <c r="BC554" s="16"/>
@@ -26125,8 +26300,12 @@
       <c r="AU555" s="16"/>
       <c r="AW555" s="3"/>
       <c r="AX555" s="9"/>
-      <c r="AY555" s="6"/>
-      <c r="AZ555" s="12"/>
+      <c r="AY555" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ555" s="12">
+        <v>2</v>
+      </c>
       <c r="BA555" s="11"/>
       <c r="BB555" s="4"/>
       <c r="BC555" s="16"/>
@@ -26158,8 +26337,12 @@
       <c r="AU556" s="16"/>
       <c r="AW556" s="3"/>
       <c r="AX556" s="9"/>
-      <c r="AY556" s="6"/>
-      <c r="AZ556" s="12"/>
+      <c r="AY556" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ556" s="12">
+        <v>2</v>
+      </c>
       <c r="BA556" s="11"/>
       <c r="BB556" s="4"/>
       <c r="BC556" s="16"/>
@@ -26185,9 +26368,15 @@
       <c r="AU557" s="16"/>
       <c r="AW557" s="3"/>
       <c r="AX557" s="9"/>
-      <c r="AY557" s="6"/>
-      <c r="AZ557" s="12"/>
-      <c r="BA557" s="11"/>
+      <c r="AY557" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ557" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA557" s="11">
+        <v>1</v>
+      </c>
       <c r="BB557" s="4"/>
       <c r="BC557" s="16"/>
     </row>
@@ -26249,13 +26438,27 @@
       <c r="AS559" s="11"/>
       <c r="AT559" s="4"/>
       <c r="AU559" s="16"/>
-      <c r="AW559" s="3"/>
-      <c r="AX559" s="9"/>
-      <c r="AY559" s="6"/>
-      <c r="AZ559" s="12"/>
-      <c r="BA559" s="11"/>
-      <c r="BB559" s="4"/>
-      <c r="BC559" s="16"/>
+      <c r="AW559" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX559" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AY559" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ559" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA559" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB559" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC559" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="560" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG560" s="3"/>
@@ -26282,13 +26485,19 @@
       <c r="AS560" s="11"/>
       <c r="AT560" s="4"/>
       <c r="AU560" s="16"/>
-      <c r="AW560" s="3"/>
+      <c r="AW560" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="AX560" s="9"/>
       <c r="AY560" s="6"/>
       <c r="AZ560" s="12"/>
       <c r="BA560" s="11"/>
-      <c r="BB560" s="4"/>
-      <c r="BC560" s="16"/>
+      <c r="BB560" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC560" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="561" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG561" s="3"/>
@@ -26313,9 +26522,15 @@
       <c r="AU561" s="16"/>
       <c r="AW561" s="3"/>
       <c r="AX561" s="9"/>
-      <c r="AY561" s="6"/>
-      <c r="AZ561" s="12"/>
-      <c r="BA561" s="11"/>
+      <c r="AY561" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ561" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA561" s="11">
+        <v>3</v>
+      </c>
       <c r="BB561" s="4"/>
       <c r="BC561" s="16"/>
     </row>
@@ -26348,8 +26563,12 @@
       <c r="AU562" s="16"/>
       <c r="AW562" s="3"/>
       <c r="AX562" s="9"/>
-      <c r="AY562" s="6"/>
-      <c r="AZ562" s="12"/>
+      <c r="AY562" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ562" s="12">
+        <v>3</v>
+      </c>
       <c r="BA562" s="11"/>
       <c r="BB562" s="4"/>
       <c r="BC562" s="16"/>
@@ -26383,8 +26602,12 @@
       <c r="AU563" s="16"/>
       <c r="AW563" s="3"/>
       <c r="AX563" s="9"/>
-      <c r="AY563" s="6"/>
-      <c r="AZ563" s="12"/>
+      <c r="AY563" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ563" s="12">
+        <v>3</v>
+      </c>
       <c r="BA563" s="11"/>
       <c r="BB563" s="4"/>
       <c r="BC563" s="16"/>
@@ -26414,8 +26637,12 @@
       <c r="AU564" s="16"/>
       <c r="AW564" s="3"/>
       <c r="AX564" s="9"/>
-      <c r="AY564" s="6"/>
-      <c r="AZ564" s="12"/>
+      <c r="AY564" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ564" s="12">
+        <v>3</v>
+      </c>
       <c r="BA564" s="11"/>
       <c r="BB564" s="4"/>
       <c r="BC564" s="16"/>
@@ -26445,8 +26672,12 @@
       <c r="AU565" s="16"/>
       <c r="AW565" s="3"/>
       <c r="AX565" s="9"/>
-      <c r="AY565" s="6"/>
-      <c r="AZ565" s="12"/>
+      <c r="AY565" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ565" s="12">
+        <v>4</v>
+      </c>
       <c r="BA565" s="11"/>
       <c r="BB565" s="4"/>
       <c r="BC565" s="16"/>
@@ -26480,8 +26711,12 @@
       <c r="AU566" s="16"/>
       <c r="AW566" s="3"/>
       <c r="AX566" s="9"/>
-      <c r="AY566" s="6"/>
-      <c r="AZ566" s="12"/>
+      <c r="AY566" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ566" s="12">
+        <v>4</v>
+      </c>
       <c r="BA566" s="11"/>
       <c r="BB566" s="4"/>
       <c r="BC566" s="16"/>
@@ -26513,8 +26748,12 @@
       <c r="AU567" s="16"/>
       <c r="AW567" s="3"/>
       <c r="AX567" s="9"/>
-      <c r="AY567" s="6"/>
-      <c r="AZ567" s="12"/>
+      <c r="AY567" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ567" s="12">
+        <v>4</v>
+      </c>
       <c r="BA567" s="11"/>
       <c r="BB567" s="4"/>
       <c r="BC567" s="16"/>
@@ -26540,9 +26779,15 @@
       <c r="AU568" s="16"/>
       <c r="AW568" s="3"/>
       <c r="AX568" s="9"/>
-      <c r="AY568" s="6"/>
-      <c r="AZ568" s="12"/>
-      <c r="BA568" s="11"/>
+      <c r="AY568" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ568" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA568" s="11">
+        <v>2</v>
+      </c>
       <c r="BB568" s="4"/>
       <c r="BC568" s="16"/>
     </row>
@@ -26581,8 +26826,12 @@
       </c>
       <c r="AW569" s="3"/>
       <c r="AX569" s="9"/>
-      <c r="AY569" s="6"/>
-      <c r="AZ569" s="12"/>
+      <c r="AY569" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ569" s="12">
+        <v>2</v>
+      </c>
       <c r="BA569" s="11"/>
       <c r="BB569" s="4"/>
       <c r="BC569" s="16"/>
@@ -26614,8 +26863,12 @@
       </c>
       <c r="AW570" s="3"/>
       <c r="AX570" s="9"/>
-      <c r="AY570" s="6"/>
-      <c r="AZ570" s="12"/>
+      <c r="AY570" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ570" s="12">
+        <v>2</v>
+      </c>
       <c r="BA570" s="11"/>
       <c r="BB570" s="4"/>
       <c r="BC570" s="16"/>
@@ -26647,8 +26900,12 @@
       <c r="AU571" s="16"/>
       <c r="AW571" s="3"/>
       <c r="AX571" s="9"/>
-      <c r="AY571" s="6"/>
-      <c r="AZ571" s="12"/>
+      <c r="AY571" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ571" s="12">
+        <v>2</v>
+      </c>
       <c r="BA571" s="11"/>
       <c r="BB571" s="4"/>
       <c r="BC571" s="16"/>
@@ -26678,9 +26935,15 @@
       <c r="AU572" s="16"/>
       <c r="AW572" s="3"/>
       <c r="AX572" s="9"/>
-      <c r="AY572" s="6"/>
-      <c r="AZ572" s="12"/>
-      <c r="BA572" s="11"/>
+      <c r="AY572" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ572" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA572" s="11">
+        <v>1</v>
+      </c>
       <c r="BB572" s="4"/>
       <c r="BC572" s="16"/>
     </row>
@@ -26738,11 +27001,21 @@
       <c r="AS574" s="11"/>
       <c r="AT574" s="4"/>
       <c r="AU574" s="16"/>
-      <c r="AW574" s="3"/>
-      <c r="AX574" s="9"/>
-      <c r="AY574" s="6"/>
-      <c r="AZ574" s="12"/>
-      <c r="BA574" s="11"/>
+      <c r="AW574" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX574" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY574" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ574" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA574" s="11">
+        <v>4</v>
+      </c>
       <c r="BB574" s="4"/>
       <c r="BC574" s="16"/>
     </row>
@@ -26773,9 +27046,15 @@
       <c r="AU575" s="16"/>
       <c r="AW575" s="3"/>
       <c r="AX575" s="9"/>
-      <c r="AY575" s="6"/>
-      <c r="AZ575" s="12"/>
-      <c r="BA575" s="11"/>
+      <c r="AY575" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ575" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA575" s="11">
+        <v>3</v>
+      </c>
       <c r="BB575" s="4"/>
       <c r="BC575" s="16"/>
     </row>
@@ -26800,8 +27079,12 @@
       <c r="AU576" s="16"/>
       <c r="AW576" s="3"/>
       <c r="AX576" s="9"/>
-      <c r="AY576" s="6"/>
-      <c r="AZ576" s="12"/>
+      <c r="AY576" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ576" s="12">
+        <v>3</v>
+      </c>
       <c r="BA576" s="11"/>
       <c r="BB576" s="4"/>
       <c r="BC576" s="16"/>
@@ -26835,8 +27118,12 @@
       <c r="AU577" s="16"/>
       <c r="AW577" s="3"/>
       <c r="AX577" s="9"/>
-      <c r="AY577" s="6"/>
-      <c r="AZ577" s="12"/>
+      <c r="AY577" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ577" s="12">
+        <v>3</v>
+      </c>
       <c r="BA577" s="11"/>
       <c r="BB577" s="4"/>
       <c r="BC577" s="16"/>
@@ -26870,8 +27157,12 @@
       <c r="AU578" s="16"/>
       <c r="AW578" s="3"/>
       <c r="AX578" s="9"/>
-      <c r="AY578" s="6"/>
-      <c r="AZ578" s="12"/>
+      <c r="AY578" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ578" s="12">
+        <v>3</v>
+      </c>
       <c r="BA578" s="11"/>
       <c r="BB578" s="4"/>
       <c r="BC578" s="16"/>
@@ -26901,8 +27192,12 @@
       <c r="AU579" s="16"/>
       <c r="AW579" s="3"/>
       <c r="AX579" s="9"/>
-      <c r="AY579" s="6"/>
-      <c r="AZ579" s="12"/>
+      <c r="AY579" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ579" s="12">
+        <v>6</v>
+      </c>
       <c r="BA579" s="11"/>
       <c r="BB579" s="4"/>
       <c r="BC579" s="16"/>
@@ -26932,8 +27227,12 @@
       <c r="AU580" s="16"/>
       <c r="AW580" s="3"/>
       <c r="AX580" s="9"/>
-      <c r="AY580" s="6"/>
-      <c r="AZ580" s="12"/>
+      <c r="AY580" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ580" s="12">
+        <v>4</v>
+      </c>
       <c r="BA580" s="11"/>
       <c r="BB580" s="4"/>
       <c r="BC580" s="16"/>
@@ -26965,8 +27264,12 @@
       <c r="AU581" s="16"/>
       <c r="AW581" s="3"/>
       <c r="AX581" s="9"/>
-      <c r="AY581" s="6"/>
-      <c r="AZ581" s="12"/>
+      <c r="AY581" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ581" s="12">
+        <v>4</v>
+      </c>
       <c r="BA581" s="11"/>
       <c r="BB581" s="4"/>
       <c r="BC581" s="16"/>
@@ -26996,9 +27299,15 @@
       <c r="AU582" s="16"/>
       <c r="AW582" s="3"/>
       <c r="AX582" s="9"/>
-      <c r="AY582" s="6"/>
-      <c r="AZ582" s="12"/>
-      <c r="BA582" s="11"/>
+      <c r="AY582" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ582" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA582" s="11">
+        <v>2</v>
+      </c>
       <c r="BB582" s="4"/>
       <c r="BC582" s="16"/>
     </row>
@@ -27033,8 +27342,12 @@
       <c r="AU583" s="16"/>
       <c r="AW583" s="3"/>
       <c r="AX583" s="9"/>
-      <c r="AY583" s="6"/>
-      <c r="AZ583" s="12"/>
+      <c r="AY583" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ583" s="12">
+        <v>2</v>
+      </c>
       <c r="BA583" s="11"/>
       <c r="BB583" s="4"/>
       <c r="BC583" s="16"/>
@@ -27066,8 +27379,12 @@
       <c r="AU584" s="16"/>
       <c r="AW584" s="3"/>
       <c r="AX584" s="9"/>
-      <c r="AY584" s="6"/>
-      <c r="AZ584" s="12"/>
+      <c r="AY584" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ584" s="12">
+        <v>2</v>
+      </c>
       <c r="BA584" s="11"/>
       <c r="BB584" s="4"/>
       <c r="BC584" s="16"/>
@@ -27097,8 +27414,12 @@
       <c r="AU585" s="16"/>
       <c r="AW585" s="3"/>
       <c r="AX585" s="9"/>
-      <c r="AY585" s="6"/>
-      <c r="AZ585" s="12"/>
+      <c r="AY585" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ585" s="12">
+        <v>2</v>
+      </c>
       <c r="BA585" s="11"/>
       <c r="BB585" s="4"/>
       <c r="BC585" s="16"/>
@@ -27130,9 +27451,15 @@
       <c r="AU586" s="16"/>
       <c r="AW586" s="3"/>
       <c r="AX586" s="9"/>
-      <c r="AY586" s="6"/>
-      <c r="AZ586" s="12"/>
-      <c r="BA586" s="11"/>
+      <c r="AY586" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ586" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA586" s="11">
+        <v>1</v>
+      </c>
       <c r="BB586" s="4"/>
       <c r="BC586" s="16"/>
     </row>
@@ -31242,10 +31569,18 @@
       <c r="AL744" s="4"/>
       <c r="AM744" s="16"/>
       <c r="AO744" s="3"/>
-      <c r="AP744" s="9"/>
-      <c r="AQ744" s="6"/>
-      <c r="AR744" s="12"/>
-      <c r="AS744" s="11"/>
+      <c r="AP744" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ744" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR744" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS744" s="11">
+        <v>4</v>
+      </c>
       <c r="AT744" s="4"/>
       <c r="AU744" s="16"/>
     </row>
@@ -31263,9 +31598,15 @@
       <c r="AM745" s="16"/>
       <c r="AO745" s="3"/>
       <c r="AP745" s="9"/>
-      <c r="AQ745" s="6"/>
-      <c r="AR745" s="12"/>
-      <c r="AS745" s="11"/>
+      <c r="AQ745" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR745" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS745" s="11">
+        <v>3</v>
+      </c>
       <c r="AT745" s="4"/>
       <c r="AU745" s="16"/>
     </row>
@@ -31283,8 +31624,12 @@
       <c r="AM746" s="16"/>
       <c r="AO746" s="3"/>
       <c r="AP746" s="9"/>
-      <c r="AQ746" s="6"/>
-      <c r="AR746" s="12"/>
+      <c r="AQ746" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR746" s="12">
+        <v>3</v>
+      </c>
       <c r="AS746" s="11"/>
       <c r="AT746" s="4"/>
       <c r="AU746" s="16"/>
@@ -31303,8 +31648,12 @@
       <c r="AM747" s="16"/>
       <c r="AO747" s="3"/>
       <c r="AP747" s="9"/>
-      <c r="AQ747" s="6"/>
-      <c r="AR747" s="12"/>
+      <c r="AQ747" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR747" s="12">
+        <v>3</v>
+      </c>
       <c r="AS747" s="11"/>
       <c r="AT747" s="4"/>
       <c r="AU747" s="16"/>
@@ -31327,11 +31676,19 @@
       </c>
       <c r="AO748" s="3"/>
       <c r="AP748" s="9"/>
-      <c r="AQ748" s="6"/>
-      <c r="AR748" s="12"/>
+      <c r="AQ748" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR748" s="12">
+        <v>3</v>
+      </c>
       <c r="AS748" s="11"/>
-      <c r="AT748" s="4"/>
-      <c r="AU748" s="16"/>
+      <c r="AT748" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU748" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="749" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG749" s="3"/>
@@ -31350,8 +31707,12 @@
       <c r="AQ749" s="6"/>
       <c r="AR749" s="12"/>
       <c r="AS749" s="11"/>
-      <c r="AT749" s="4"/>
-      <c r="AU749" s="16"/>
+      <c r="AT749" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU749" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="750" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG750" s="3"/>
@@ -31369,8 +31730,12 @@
       <c r="AM750" s="16"/>
       <c r="AO750" s="3"/>
       <c r="AP750" s="9"/>
-      <c r="AQ750" s="6"/>
-      <c r="AR750" s="12"/>
+      <c r="AQ750" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR750" s="12">
+        <v>2</v>
+      </c>
       <c r="AS750" s="11"/>
       <c r="AT750" s="4"/>
       <c r="AU750" s="16"/>
@@ -31389,9 +31754,15 @@
       <c r="AM751" s="16"/>
       <c r="AO751" s="3"/>
       <c r="AP751" s="9"/>
-      <c r="AQ751" s="6"/>
-      <c r="AR751" s="12"/>
-      <c r="AS751" s="11"/>
+      <c r="AQ751" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR751" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS751" s="11">
+        <v>2</v>
+      </c>
       <c r="AT751" s="4"/>
       <c r="AU751" s="16"/>
     </row>
@@ -31409,8 +31780,12 @@
       <c r="AM752" s="16"/>
       <c r="AO752" s="3"/>
       <c r="AP752" s="9"/>
-      <c r="AQ752" s="6"/>
-      <c r="AR752" s="12"/>
+      <c r="AQ752" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR752" s="12">
+        <v>2</v>
+      </c>
       <c r="AS752" s="11"/>
       <c r="AT752" s="4"/>
       <c r="AU752" s="16"/>
@@ -31429,8 +31804,12 @@
       <c r="AM753" s="16"/>
       <c r="AO753" s="3"/>
       <c r="AP753" s="9"/>
-      <c r="AQ753" s="6"/>
-      <c r="AR753" s="12"/>
+      <c r="AQ753" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR753" s="12">
+        <v>2</v>
+      </c>
       <c r="AS753" s="11"/>
       <c r="AT753" s="4"/>
       <c r="AU753" s="16"/>
@@ -31449,8 +31828,12 @@
       <c r="AM754" s="16"/>
       <c r="AO754" s="3"/>
       <c r="AP754" s="9"/>
-      <c r="AQ754" s="6"/>
-      <c r="AR754" s="12"/>
+      <c r="AQ754" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR754" s="12">
+        <v>2</v>
+      </c>
       <c r="AS754" s="11"/>
       <c r="AT754" s="4"/>
       <c r="AU754" s="16"/>
@@ -31469,8 +31852,12 @@
       <c r="AM755" s="16"/>
       <c r="AO755" s="3"/>
       <c r="AP755" s="9"/>
-      <c r="AQ755" s="6"/>
-      <c r="AR755" s="12"/>
+      <c r="AQ755" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR755" s="12">
+        <v>1</v>
+      </c>
       <c r="AS755" s="11"/>
       <c r="AT755" s="4"/>
       <c r="AU755" s="16"/>
@@ -31491,8 +31878,12 @@
       <c r="AM756" s="16"/>
       <c r="AO756" s="3"/>
       <c r="AP756" s="9"/>
-      <c r="AQ756" s="6"/>
-      <c r="AR756" s="12"/>
+      <c r="AQ756" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR756" s="12">
+        <v>2</v>
+      </c>
       <c r="AS756" s="11"/>
       <c r="AT756" s="4"/>
       <c r="AU756" s="16"/>
@@ -31507,9 +31898,15 @@
       <c r="AM757" s="16"/>
       <c r="AO757" s="3"/>
       <c r="AP757" s="9"/>
-      <c r="AQ757" s="6"/>
-      <c r="AR757" s="12"/>
-      <c r="AS757" s="11"/>
+      <c r="AQ757" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR757" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS757" s="11">
+        <v>1</v>
+      </c>
       <c r="AT757" s="4"/>
       <c r="AU757" s="16"/>
     </row>
@@ -31551,11 +31948,21 @@
       </c>
       <c r="AL759" s="4"/>
       <c r="AM759" s="16"/>
-      <c r="AO759" s="3"/>
-      <c r="AP759" s="9"/>
-      <c r="AQ759" s="6"/>
-      <c r="AR759" s="12"/>
-      <c r="AS759" s="11"/>
+      <c r="AO759" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP759" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ759" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR759" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS759" s="11">
+        <v>4</v>
+      </c>
       <c r="AT759" s="4"/>
       <c r="AU759" s="16"/>
     </row>
@@ -31573,9 +31980,15 @@
       <c r="AM760" s="16"/>
       <c r="AO760" s="3"/>
       <c r="AP760" s="9"/>
-      <c r="AQ760" s="6"/>
-      <c r="AR760" s="12"/>
-      <c r="AS760" s="11"/>
+      <c r="AQ760" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR760" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS760" s="11">
+        <v>3</v>
+      </c>
       <c r="AT760" s="4"/>
       <c r="AU760" s="16"/>
     </row>
@@ -31593,8 +32006,12 @@
       <c r="AM761" s="16"/>
       <c r="AO761" s="3"/>
       <c r="AP761" s="9"/>
-      <c r="AQ761" s="6"/>
-      <c r="AR761" s="12"/>
+      <c r="AQ761" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR761" s="12">
+        <v>3</v>
+      </c>
       <c r="AS761" s="11"/>
       <c r="AT761" s="4"/>
       <c r="AU761" s="16"/>
@@ -31613,8 +32030,12 @@
       <c r="AM762" s="16"/>
       <c r="AO762" s="3"/>
       <c r="AP762" s="9"/>
-      <c r="AQ762" s="6"/>
-      <c r="AR762" s="12"/>
+      <c r="AQ762" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR762" s="12">
+        <v>3</v>
+      </c>
       <c r="AS762" s="11"/>
       <c r="AT762" s="4"/>
       <c r="AU762" s="16"/>
@@ -31633,8 +32054,12 @@
       <c r="AM763" s="16"/>
       <c r="AO763" s="3"/>
       <c r="AP763" s="9"/>
-      <c r="AQ763" s="6"/>
-      <c r="AR763" s="12"/>
+      <c r="AQ763" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR763" s="12">
+        <v>3</v>
+      </c>
       <c r="AS763" s="11"/>
       <c r="AT763" s="4"/>
       <c r="AU763" s="16"/>
@@ -31657,11 +32082,19 @@
       </c>
       <c r="AO764" s="3"/>
       <c r="AP764" s="9"/>
-      <c r="AQ764" s="6"/>
-      <c r="AR764" s="12"/>
+      <c r="AQ764" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR764" s="12">
+        <v>3</v>
+      </c>
       <c r="AS764" s="11"/>
-      <c r="AT764" s="4"/>
-      <c r="AU764" s="16"/>
+      <c r="AT764" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU764" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="765" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG765" s="3"/>
@@ -31680,8 +32113,12 @@
       <c r="AQ765" s="6"/>
       <c r="AR765" s="12"/>
       <c r="AS765" s="11"/>
-      <c r="AT765" s="4"/>
-      <c r="AU765" s="16"/>
+      <c r="AT765" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU765" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="766" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG766" s="3"/>
@@ -31699,8 +32136,12 @@
       <c r="AM766" s="16"/>
       <c r="AO766" s="3"/>
       <c r="AP766" s="9"/>
-      <c r="AQ766" s="6"/>
-      <c r="AR766" s="12"/>
+      <c r="AQ766" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR766" s="12">
+        <v>2</v>
+      </c>
       <c r="AS766" s="11"/>
       <c r="AT766" s="4"/>
       <c r="AU766" s="16"/>
@@ -31719,9 +32160,15 @@
       <c r="AM767" s="16"/>
       <c r="AO767" s="3"/>
       <c r="AP767" s="9"/>
-      <c r="AQ767" s="6"/>
-      <c r="AR767" s="12"/>
-      <c r="AS767" s="11"/>
+      <c r="AQ767" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR767" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS767" s="11">
+        <v>2</v>
+      </c>
       <c r="AT767" s="4"/>
       <c r="AU767" s="16"/>
     </row>
@@ -31743,8 +32190,12 @@
       </c>
       <c r="AO768" s="3"/>
       <c r="AP768" s="9"/>
-      <c r="AQ768" s="6"/>
-      <c r="AR768" s="12"/>
+      <c r="AQ768" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR768" s="12">
+        <v>2</v>
+      </c>
       <c r="AS768" s="11"/>
       <c r="AT768" s="4"/>
       <c r="AU768" s="16"/>
@@ -31763,8 +32214,12 @@
       </c>
       <c r="AO769" s="3"/>
       <c r="AP769" s="9"/>
-      <c r="AQ769" s="6"/>
-      <c r="AR769" s="12"/>
+      <c r="AQ769" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR769" s="12">
+        <v>2</v>
+      </c>
       <c r="AS769" s="11"/>
       <c r="AT769" s="4"/>
       <c r="AU769" s="16"/>
@@ -31783,8 +32238,12 @@
       <c r="AM770" s="16"/>
       <c r="AO770" s="3"/>
       <c r="AP770" s="9"/>
-      <c r="AQ770" s="6"/>
-      <c r="AR770" s="12"/>
+      <c r="AQ770" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR770" s="12">
+        <v>1</v>
+      </c>
       <c r="AS770" s="11"/>
       <c r="AT770" s="4"/>
       <c r="AU770" s="16"/>
@@ -31803,8 +32262,12 @@
       <c r="AM771" s="16"/>
       <c r="AO771" s="3"/>
       <c r="AP771" s="9"/>
-      <c r="AQ771" s="6"/>
-      <c r="AR771" s="12"/>
+      <c r="AQ771" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR771" s="12">
+        <v>2</v>
+      </c>
       <c r="AS771" s="11"/>
       <c r="AT771" s="4"/>
       <c r="AU771" s="16"/>
@@ -31823,9 +32286,15 @@
       <c r="AM772" s="16"/>
       <c r="AO772" s="3"/>
       <c r="AP772" s="9"/>
-      <c r="AQ772" s="6"/>
-      <c r="AR772" s="12"/>
-      <c r="AS772" s="11"/>
+      <c r="AQ772" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR772" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS772" s="11">
+        <v>1</v>
+      </c>
       <c r="AT772" s="4"/>
       <c r="AU772" s="16"/>
     </row>
@@ -31859,12 +32328,24 @@
       <c r="AK774" s="11"/>
       <c r="AL774" s="4"/>
       <c r="AM774" s="16"/>
-      <c r="AO774" s="3"/>
-      <c r="AP774" s="9"/>
-      <c r="AQ774" s="6"/>
-      <c r="AR774" s="12"/>
-      <c r="AS774" s="11"/>
-      <c r="AT774" s="4"/>
+      <c r="AO774" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP774" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ774" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR774" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS774" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT774" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AU774" s="16"/>
     </row>
     <row r="775" spans="33:47" x14ac:dyDescent="0.25">
@@ -31888,7 +32369,9 @@
       <c r="AQ775" s="6"/>
       <c r="AR775" s="12"/>
       <c r="AS775" s="11"/>
-      <c r="AT775" s="4"/>
+      <c r="AT775" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="AU775" s="16"/>
     </row>
     <row r="776" spans="33:47" x14ac:dyDescent="0.25">
@@ -31905,9 +32388,15 @@
       <c r="AM776" s="16"/>
       <c r="AO776" s="3"/>
       <c r="AP776" s="9"/>
-      <c r="AQ776" s="6"/>
-      <c r="AR776" s="12"/>
-      <c r="AS776" s="11"/>
+      <c r="AQ776" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR776" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS776" s="11">
+        <v>3</v>
+      </c>
       <c r="AT776" s="4"/>
       <c r="AU776" s="16"/>
     </row>
@@ -31925,8 +32414,12 @@
       <c r="AM777" s="16"/>
       <c r="AO777" s="3"/>
       <c r="AP777" s="9"/>
-      <c r="AQ777" s="6"/>
-      <c r="AR777" s="12"/>
+      <c r="AQ777" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR777" s="12">
+        <v>3</v>
+      </c>
       <c r="AS777" s="11"/>
       <c r="AT777" s="4"/>
       <c r="AU777" s="16"/>
@@ -31947,8 +32440,12 @@
       <c r="AM778" s="16"/>
       <c r="AO778" s="3"/>
       <c r="AP778" s="9"/>
-      <c r="AQ778" s="6"/>
-      <c r="AR778" s="12"/>
+      <c r="AQ778" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR778" s="12">
+        <v>3</v>
+      </c>
       <c r="AS778" s="11"/>
       <c r="AT778" s="4"/>
       <c r="AU778" s="16"/>
@@ -31969,8 +32466,12 @@
       <c r="AM779" s="16"/>
       <c r="AO779" s="3"/>
       <c r="AP779" s="9"/>
-      <c r="AQ779" s="6"/>
-      <c r="AR779" s="12"/>
+      <c r="AQ779" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR779" s="12">
+        <v>3</v>
+      </c>
       <c r="AS779" s="11"/>
       <c r="AT779" s="4"/>
       <c r="AU779" s="16"/>
@@ -31989,8 +32490,12 @@
       <c r="AM780" s="16"/>
       <c r="AO780" s="3"/>
       <c r="AP780" s="9"/>
-      <c r="AQ780" s="6"/>
-      <c r="AR780" s="12"/>
+      <c r="AQ780" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR780" s="12">
+        <v>4</v>
+      </c>
       <c r="AS780" s="11"/>
       <c r="AT780" s="4"/>
       <c r="AU780" s="16"/>
@@ -32009,11 +32514,19 @@
       <c r="AM781" s="16"/>
       <c r="AO781" s="3"/>
       <c r="AP781" s="9"/>
-      <c r="AQ781" s="6"/>
-      <c r="AR781" s="12"/>
+      <c r="AQ781" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR781" s="12">
+        <v>3</v>
+      </c>
       <c r="AS781" s="11"/>
-      <c r="AT781" s="4"/>
-      <c r="AU781" s="16"/>
+      <c r="AT781" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU781" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="782" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG782" s="3"/>
@@ -32032,8 +32545,12 @@
       <c r="AQ782" s="6"/>
       <c r="AR782" s="12"/>
       <c r="AS782" s="11"/>
-      <c r="AT782" s="4"/>
-      <c r="AU782" s="16"/>
+      <c r="AT782" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU782" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="783" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG783" s="3"/>
@@ -32049,8 +32566,12 @@
       <c r="AM783" s="16"/>
       <c r="AO783" s="3"/>
       <c r="AP783" s="9"/>
-      <c r="AQ783" s="6"/>
-      <c r="AR783" s="12"/>
+      <c r="AQ783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR783" s="12">
+        <v>4</v>
+      </c>
       <c r="AS783" s="11"/>
       <c r="AT783" s="4"/>
       <c r="AU783" s="16"/>
@@ -32069,8 +32590,12 @@
       <c r="AM784" s="16"/>
       <c r="AO784" s="3"/>
       <c r="AP784" s="9"/>
-      <c r="AQ784" s="6"/>
-      <c r="AR784" s="12"/>
+      <c r="AQ784" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR784" s="12">
+        <v>4</v>
+      </c>
       <c r="AS784" s="11"/>
       <c r="AT784" s="4"/>
       <c r="AU784" s="16"/>
@@ -32089,9 +32614,15 @@
       <c r="AM785" s="16"/>
       <c r="AO785" s="3"/>
       <c r="AP785" s="9"/>
-      <c r="AQ785" s="6"/>
-      <c r="AR785" s="12"/>
-      <c r="AS785" s="11"/>
+      <c r="AQ785" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR785" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS785" s="11">
+        <v>2</v>
+      </c>
       <c r="AT785" s="4"/>
       <c r="AU785" s="16"/>
     </row>
@@ -32109,9 +32640,15 @@
       <c r="AM786" s="16"/>
       <c r="AO786" s="3"/>
       <c r="AP786" s="9"/>
-      <c r="AQ786" s="6"/>
-      <c r="AR786" s="12"/>
-      <c r="AS786" s="11"/>
+      <c r="AQ786" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR786" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS786" s="11">
+        <v>1</v>
+      </c>
       <c r="AT786" s="4"/>
       <c r="AU786" s="16"/>
     </row>
@@ -32149,11 +32686,21 @@
       </c>
       <c r="AL788" s="4"/>
       <c r="AM788" s="16"/>
-      <c r="AO788" s="3"/>
-      <c r="AP788" s="9"/>
-      <c r="AQ788" s="6"/>
-      <c r="AR788" s="12"/>
-      <c r="AS788" s="11"/>
+      <c r="AO788" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP788" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ788" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR788" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS788" s="11">
+        <v>4</v>
+      </c>
       <c r="AT788" s="4"/>
       <c r="AU788" s="16"/>
     </row>
@@ -32167,9 +32714,15 @@
       <c r="AM789" s="16"/>
       <c r="AO789" s="3"/>
       <c r="AP789" s="9"/>
-      <c r="AQ789" s="6"/>
-      <c r="AR789" s="12"/>
-      <c r="AS789" s="11"/>
+      <c r="AQ789" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR789" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS789" s="11">
+        <v>3</v>
+      </c>
       <c r="AT789" s="4"/>
       <c r="AU789" s="16"/>
     </row>
@@ -32191,8 +32744,12 @@
       <c r="AM790" s="16"/>
       <c r="AO790" s="3"/>
       <c r="AP790" s="9"/>
-      <c r="AQ790" s="6"/>
-      <c r="AR790" s="12"/>
+      <c r="AQ790" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR790" s="12">
+        <v>3</v>
+      </c>
       <c r="AS790" s="11"/>
       <c r="AT790" s="4"/>
       <c r="AU790" s="16"/>
@@ -32211,8 +32768,12 @@
       <c r="AM791" s="16"/>
       <c r="AO791" s="3"/>
       <c r="AP791" s="9"/>
-      <c r="AQ791" s="6"/>
-      <c r="AR791" s="12"/>
+      <c r="AQ791" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR791" s="12">
+        <v>3</v>
+      </c>
       <c r="AS791" s="11"/>
       <c r="AT791" s="4"/>
       <c r="AU791" s="16"/>
@@ -32229,6 +32790,17 @@
       <c r="AK792" s="11"/>
       <c r="AL792" s="4"/>
       <c r="AM792" s="16"/>
+      <c r="AO792" s="3"/>
+      <c r="AP792" s="9"/>
+      <c r="AQ792" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR792" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS792" s="11"/>
+      <c r="AT792" s="4"/>
+      <c r="AU792" s="16"/>
     </row>
     <row r="793" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG793" s="3"/>
@@ -32242,6 +32814,17 @@
       <c r="AK793" s="11"/>
       <c r="AL793" s="4"/>
       <c r="AM793" s="16"/>
+      <c r="AO793" s="3"/>
+      <c r="AP793" s="9"/>
+      <c r="AQ793" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR793" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS793" s="11"/>
+      <c r="AT793" s="4"/>
+      <c r="AU793" s="16"/>
     </row>
     <row r="794" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG794" s="3"/>
@@ -32255,6 +32838,21 @@
       <c r="AK794" s="11"/>
       <c r="AL794" s="4"/>
       <c r="AM794" s="16"/>
+      <c r="AO794" s="3"/>
+      <c r="AP794" s="9"/>
+      <c r="AQ794" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR794" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS794" s="11"/>
+      <c r="AT794" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU794" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="795" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG795" s="3"/>
@@ -32270,6 +32868,17 @@
       </c>
       <c r="AL795" s="4"/>
       <c r="AM795" s="16"/>
+      <c r="AO795" s="3"/>
+      <c r="AP795" s="9"/>
+      <c r="AQ795" s="6"/>
+      <c r="AR795" s="12"/>
+      <c r="AS795" s="11"/>
+      <c r="AT795" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU795" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="796" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG796" s="3"/>
@@ -32283,6 +32892,17 @@
       <c r="AK796" s="11"/>
       <c r="AL796" s="4"/>
       <c r="AM796" s="16"/>
+      <c r="AO796" s="3"/>
+      <c r="AP796" s="9"/>
+      <c r="AQ796" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR796" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS796" s="11"/>
+      <c r="AT796" s="4"/>
+      <c r="AU796" s="16"/>
     </row>
     <row r="797" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG797" s="3"/>
@@ -32296,6 +32916,17 @@
       <c r="AK797" s="11"/>
       <c r="AL797" s="4"/>
       <c r="AM797" s="16"/>
+      <c r="AO797" s="3"/>
+      <c r="AP797" s="9"/>
+      <c r="AQ797" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR797" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS797" s="11"/>
+      <c r="AT797" s="4"/>
+      <c r="AU797" s="16"/>
     </row>
     <row r="798" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG798" s="3"/>
@@ -32309,6 +32940,19 @@
       <c r="AK798" s="11"/>
       <c r="AL798" s="4"/>
       <c r="AM798" s="16"/>
+      <c r="AO798" s="3"/>
+      <c r="AP798" s="9"/>
+      <c r="AQ798" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR798" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS798" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT798" s="4"/>
+      <c r="AU798" s="16"/>
     </row>
     <row r="799" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG799" s="3"/>
@@ -32322,6 +32966,19 @@
       <c r="AK799" s="11"/>
       <c r="AL799" s="4"/>
       <c r="AM799" s="16"/>
+      <c r="AO799" s="3"/>
+      <c r="AP799" s="9"/>
+      <c r="AQ799" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR799" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS799" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT799" s="4"/>
+      <c r="AU799" s="16"/>
     </row>
     <row r="800" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG800" s="3"/>
@@ -32335,8 +32992,15 @@
       <c r="AK800" s="11"/>
       <c r="AL800" s="4"/>
       <c r="AM800" s="16"/>
-    </row>
-    <row r="801" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO800" s="3"/>
+      <c r="AP800" s="9"/>
+      <c r="AQ800" s="6"/>
+      <c r="AR800" s="12"/>
+      <c r="AS800" s="11"/>
+      <c r="AT800" s="4"/>
+      <c r="AU800" s="16"/>
+    </row>
+    <row r="801" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG801" s="3"/>
       <c r="AH801" s="9"/>
       <c r="AI801" s="6" t="s">
@@ -32348,8 +33012,15 @@
       <c r="AK801" s="11"/>
       <c r="AL801" s="4"/>
       <c r="AM801" s="16"/>
-    </row>
-    <row r="802" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO801" s="3"/>
+      <c r="AP801" s="9"/>
+      <c r="AQ801" s="6"/>
+      <c r="AR801" s="12"/>
+      <c r="AS801" s="11"/>
+      <c r="AT801" s="4"/>
+      <c r="AU801" s="16"/>
+    </row>
+    <row r="802" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG802" s="3"/>
       <c r="AH802" s="9"/>
       <c r="AI802" s="6" t="s">
@@ -32361,8 +33032,15 @@
       <c r="AK802" s="11"/>
       <c r="AL802" s="4"/>
       <c r="AM802" s="16"/>
-    </row>
-    <row r="803" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO802" s="3"/>
+      <c r="AP802" s="9"/>
+      <c r="AQ802" s="6"/>
+      <c r="AR802" s="12"/>
+      <c r="AS802" s="11"/>
+      <c r="AT802" s="4"/>
+      <c r="AU802" s="16"/>
+    </row>
+    <row r="803" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG803" s="3"/>
       <c r="AH803" s="9"/>
       <c r="AI803" s="6" t="s">
@@ -32376,8 +33054,15 @@
       </c>
       <c r="AL803" s="4"/>
       <c r="AM803" s="16"/>
-    </row>
-    <row r="804" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO803" s="3"/>
+      <c r="AP803" s="9"/>
+      <c r="AQ803" s="6"/>
+      <c r="AR803" s="12"/>
+      <c r="AS803" s="11"/>
+      <c r="AT803" s="4"/>
+      <c r="AU803" s="16"/>
+    </row>
+    <row r="804" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG804" s="3"/>
       <c r="AH804" s="9"/>
       <c r="AI804" s="6"/>
@@ -32385,8 +33070,15 @@
       <c r="AK804" s="11"/>
       <c r="AL804" s="4"/>
       <c r="AM804" s="16"/>
-    </row>
-    <row r="805" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO804" s="3"/>
+      <c r="AP804" s="9"/>
+      <c r="AQ804" s="6"/>
+      <c r="AR804" s="12"/>
+      <c r="AS804" s="11"/>
+      <c r="AT804" s="4"/>
+      <c r="AU804" s="16"/>
+    </row>
+    <row r="805" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG805" s="3"/>
       <c r="AH805" s="9" t="s">
         <v>257</v>
@@ -32402,8 +33094,15 @@
       </c>
       <c r="AL805" s="4"/>
       <c r="AM805" s="16"/>
-    </row>
-    <row r="806" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO805" s="3"/>
+      <c r="AP805" s="9"/>
+      <c r="AQ805" s="6"/>
+      <c r="AR805" s="12"/>
+      <c r="AS805" s="11"/>
+      <c r="AT805" s="4"/>
+      <c r="AU805" s="16"/>
+    </row>
+    <row r="806" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG806" s="3"/>
       <c r="AH806" s="9"/>
       <c r="AI806" s="6" t="s">
@@ -32415,8 +33114,15 @@
       <c r="AK806" s="11"/>
       <c r="AL806" s="4"/>
       <c r="AM806" s="16"/>
-    </row>
-    <row r="807" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO806" s="3"/>
+      <c r="AP806" s="9"/>
+      <c r="AQ806" s="6"/>
+      <c r="AR806" s="12"/>
+      <c r="AS806" s="11"/>
+      <c r="AT806" s="4"/>
+      <c r="AU806" s="16"/>
+    </row>
+    <row r="807" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG807" s="3"/>
       <c r="AH807" s="9"/>
       <c r="AI807" s="6" t="s">
@@ -32428,8 +33134,15 @@
       <c r="AK807" s="11"/>
       <c r="AL807" s="4"/>
       <c r="AM807" s="16"/>
-    </row>
-    <row r="808" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO807" s="3"/>
+      <c r="AP807" s="9"/>
+      <c r="AQ807" s="6"/>
+      <c r="AR807" s="12"/>
+      <c r="AS807" s="11"/>
+      <c r="AT807" s="4"/>
+      <c r="AU807" s="16"/>
+    </row>
+    <row r="808" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG808" s="3"/>
       <c r="AH808" s="9"/>
       <c r="AI808" s="6" t="s">
@@ -32443,8 +33156,15 @@
       </c>
       <c r="AL808" s="4"/>
       <c r="AM808" s="16"/>
-    </row>
-    <row r="809" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO808" s="3"/>
+      <c r="AP808" s="9"/>
+      <c r="AQ808" s="6"/>
+      <c r="AR808" s="12"/>
+      <c r="AS808" s="11"/>
+      <c r="AT808" s="4"/>
+      <c r="AU808" s="16"/>
+    </row>
+    <row r="809" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG809" s="3"/>
       <c r="AH809" s="9"/>
       <c r="AI809" s="6" t="s">
@@ -32458,8 +33178,15 @@
       </c>
       <c r="AL809" s="4"/>
       <c r="AM809" s="16"/>
-    </row>
-    <row r="810" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO809" s="3"/>
+      <c r="AP809" s="9"/>
+      <c r="AQ809" s="6"/>
+      <c r="AR809" s="12"/>
+      <c r="AS809" s="11"/>
+      <c r="AT809" s="4"/>
+      <c r="AU809" s="16"/>
+    </row>
+    <row r="810" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG810" s="3"/>
       <c r="AH810" s="9"/>
       <c r="AI810" s="6" t="s">
@@ -32471,8 +33198,15 @@
       <c r="AK810" s="11"/>
       <c r="AL810" s="4"/>
       <c r="AM810" s="16"/>
-    </row>
-    <row r="811" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO810" s="3"/>
+      <c r="AP810" s="9"/>
+      <c r="AQ810" s="6"/>
+      <c r="AR810" s="12"/>
+      <c r="AS810" s="11"/>
+      <c r="AT810" s="4"/>
+      <c r="AU810" s="16"/>
+    </row>
+    <row r="811" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG811" s="3"/>
       <c r="AH811" s="9"/>
       <c r="AI811" s="6" t="s">
@@ -32484,8 +33218,15 @@
       <c r="AK811" s="11"/>
       <c r="AL811" s="4"/>
       <c r="AM811" s="16"/>
-    </row>
-    <row r="812" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO811" s="3"/>
+      <c r="AP811" s="9"/>
+      <c r="AQ811" s="6"/>
+      <c r="AR811" s="12"/>
+      <c r="AS811" s="11"/>
+      <c r="AT811" s="4"/>
+      <c r="AU811" s="16"/>
+    </row>
+    <row r="812" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG812" s="3"/>
       <c r="AH812" s="9"/>
       <c r="AI812" s="6" t="s">
@@ -32497,8 +33238,15 @@
       <c r="AK812" s="11"/>
       <c r="AL812" s="4"/>
       <c r="AM812" s="16"/>
-    </row>
-    <row r="813" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO812" s="3"/>
+      <c r="AP812" s="9"/>
+      <c r="AQ812" s="6"/>
+      <c r="AR812" s="12"/>
+      <c r="AS812" s="11"/>
+      <c r="AT812" s="4"/>
+      <c r="AU812" s="16"/>
+    </row>
+    <row r="813" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG813" s="3"/>
       <c r="AH813" s="9"/>
       <c r="AI813" s="6" t="s">
@@ -32510,8 +33258,15 @@
       <c r="AK813" s="11"/>
       <c r="AL813" s="4"/>
       <c r="AM813" s="16"/>
-    </row>
-    <row r="814" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO813" s="3"/>
+      <c r="AP813" s="9"/>
+      <c r="AQ813" s="6"/>
+      <c r="AR813" s="12"/>
+      <c r="AS813" s="11"/>
+      <c r="AT813" s="4"/>
+      <c r="AU813" s="16"/>
+    </row>
+    <row r="814" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG814" s="3"/>
       <c r="AH814" s="9"/>
       <c r="AI814" s="6" t="s">
@@ -32523,8 +33278,15 @@
       <c r="AK814" s="11"/>
       <c r="AL814" s="4"/>
       <c r="AM814" s="16"/>
-    </row>
-    <row r="815" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO814" s="3"/>
+      <c r="AP814" s="9"/>
+      <c r="AQ814" s="6"/>
+      <c r="AR814" s="12"/>
+      <c r="AS814" s="11"/>
+      <c r="AT814" s="4"/>
+      <c r="AU814" s="16"/>
+    </row>
+    <row r="815" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG815" s="3"/>
       <c r="AH815" s="9"/>
       <c r="AI815" s="6" t="s">
@@ -32536,8 +33298,15 @@
       <c r="AK815" s="11"/>
       <c r="AL815" s="4"/>
       <c r="AM815" s="16"/>
-    </row>
-    <row r="816" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO815" s="3"/>
+      <c r="AP815" s="9"/>
+      <c r="AQ815" s="6"/>
+      <c r="AR815" s="12"/>
+      <c r="AS815" s="11"/>
+      <c r="AT815" s="4"/>
+      <c r="AU815" s="16"/>
+    </row>
+    <row r="816" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG816" s="3"/>
       <c r="AH816" s="9"/>
       <c r="AI816" s="6" t="s">
@@ -32549,8 +33318,15 @@
       <c r="AK816" s="11"/>
       <c r="AL816" s="4"/>
       <c r="AM816" s="16"/>
-    </row>
-    <row r="817" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO816" s="3"/>
+      <c r="AP816" s="9"/>
+      <c r="AQ816" s="6"/>
+      <c r="AR816" s="12"/>
+      <c r="AS816" s="11"/>
+      <c r="AT816" s="4"/>
+      <c r="AU816" s="16"/>
+    </row>
+    <row r="817" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG817" s="3"/>
       <c r="AH817" s="9"/>
       <c r="AI817" s="6" t="s">
@@ -32564,8 +33340,15 @@
       </c>
       <c r="AL817" s="4"/>
       <c r="AM817" s="16"/>
-    </row>
-    <row r="818" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO817" s="3"/>
+      <c r="AP817" s="9"/>
+      <c r="AQ817" s="6"/>
+      <c r="AR817" s="12"/>
+      <c r="AS817" s="11"/>
+      <c r="AT817" s="4"/>
+      <c r="AU817" s="16"/>
+    </row>
+    <row r="818" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG818" s="3"/>
       <c r="AH818" s="9"/>
       <c r="AI818" s="6"/>
@@ -32573,8 +33356,15 @@
       <c r="AK818" s="11"/>
       <c r="AL818" s="4"/>
       <c r="AM818" s="16"/>
-    </row>
-    <row r="819" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO818" s="3"/>
+      <c r="AP818" s="9"/>
+      <c r="AQ818" s="6"/>
+      <c r="AR818" s="12"/>
+      <c r="AS818" s="11"/>
+      <c r="AT818" s="4"/>
+      <c r="AU818" s="16"/>
+    </row>
+    <row r="819" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG819" s="3"/>
       <c r="AH819" s="9" t="s">
         <v>258</v>
@@ -32590,8 +33380,15 @@
       </c>
       <c r="AL819" s="4"/>
       <c r="AM819" s="16"/>
-    </row>
-    <row r="820" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO819" s="3"/>
+      <c r="AP819" s="9"/>
+      <c r="AQ819" s="6"/>
+      <c r="AR819" s="12"/>
+      <c r="AS819" s="11"/>
+      <c r="AT819" s="4"/>
+      <c r="AU819" s="16"/>
+    </row>
+    <row r="820" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG820" s="3"/>
       <c r="AH820" s="9"/>
       <c r="AI820" s="6" t="s">
@@ -32603,8 +33400,15 @@
       <c r="AK820" s="11"/>
       <c r="AL820" s="4"/>
       <c r="AM820" s="16"/>
-    </row>
-    <row r="821" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO820" s="3"/>
+      <c r="AP820" s="9"/>
+      <c r="AQ820" s="6"/>
+      <c r="AR820" s="12"/>
+      <c r="AS820" s="11"/>
+      <c r="AT820" s="4"/>
+      <c r="AU820" s="16"/>
+    </row>
+    <row r="821" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG821" s="3"/>
       <c r="AH821" s="9"/>
       <c r="AI821" s="6" t="s">
@@ -32616,8 +33420,15 @@
       <c r="AK821" s="11"/>
       <c r="AL821" s="4"/>
       <c r="AM821" s="16"/>
-    </row>
-    <row r="822" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO821" s="3"/>
+      <c r="AP821" s="9"/>
+      <c r="AQ821" s="6"/>
+      <c r="AR821" s="12"/>
+      <c r="AS821" s="11"/>
+      <c r="AT821" s="4"/>
+      <c r="AU821" s="16"/>
+    </row>
+    <row r="822" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG822" s="3"/>
       <c r="AH822" s="9"/>
       <c r="AI822" s="6" t="s">
@@ -32629,8 +33440,15 @@
       <c r="AK822" s="11"/>
       <c r="AL822" s="4"/>
       <c r="AM822" s="16"/>
-    </row>
-    <row r="823" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO822" s="3"/>
+      <c r="AP822" s="9"/>
+      <c r="AQ822" s="6"/>
+      <c r="AR822" s="12"/>
+      <c r="AS822" s="11"/>
+      <c r="AT822" s="4"/>
+      <c r="AU822" s="16"/>
+    </row>
+    <row r="823" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG823" s="3"/>
       <c r="AH823" s="9"/>
       <c r="AI823" s="6" t="s">
@@ -32644,8 +33462,15 @@
       </c>
       <c r="AL823" s="4"/>
       <c r="AM823" s="16"/>
-    </row>
-    <row r="824" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO823" s="3"/>
+      <c r="AP823" s="9"/>
+      <c r="AQ823" s="6"/>
+      <c r="AR823" s="12"/>
+      <c r="AS823" s="11"/>
+      <c r="AT823" s="4"/>
+      <c r="AU823" s="16"/>
+    </row>
+    <row r="824" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG824" s="3"/>
       <c r="AH824" s="9"/>
       <c r="AI824" s="6" t="s">
@@ -32659,8 +33484,15 @@
       </c>
       <c r="AL824" s="4"/>
       <c r="AM824" s="16"/>
-    </row>
-    <row r="825" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO824" s="3"/>
+      <c r="AP824" s="9"/>
+      <c r="AQ824" s="6"/>
+      <c r="AR824" s="12"/>
+      <c r="AS824" s="11"/>
+      <c r="AT824" s="4"/>
+      <c r="AU824" s="16"/>
+    </row>
+    <row r="825" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG825" s="3"/>
       <c r="AH825" s="9"/>
       <c r="AI825" s="6" t="s">
@@ -32673,7 +33505,7 @@
       <c r="AL825" s="4"/>
       <c r="AM825" s="16"/>
     </row>
-    <row r="826" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="826" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG826" s="3"/>
       <c r="AH826" s="9"/>
       <c r="AI826" s="6" t="s">
@@ -32686,7 +33518,7 @@
       <c r="AL826" s="4"/>
       <c r="AM826" s="16"/>
     </row>
-    <row r="827" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="827" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG827" s="3"/>
       <c r="AH827" s="9"/>
       <c r="AI827" s="6" t="s">
@@ -32699,7 +33531,7 @@
       <c r="AL827" s="4"/>
       <c r="AM827" s="16"/>
     </row>
-    <row r="828" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="828" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG828" s="3"/>
       <c r="AH828" s="9"/>
       <c r="AI828" s="6" t="s">
@@ -32712,7 +33544,7 @@
       <c r="AL828" s="4"/>
       <c r="AM828" s="16"/>
     </row>
-    <row r="829" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="829" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG829" s="3"/>
       <c r="AH829" s="9"/>
       <c r="AI829" s="6" t="s">
@@ -32725,7 +33557,7 @@
       <c r="AL829" s="4"/>
       <c r="AM829" s="16"/>
     </row>
-    <row r="830" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="830" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG830" s="3"/>
       <c r="AH830" s="9"/>
       <c r="AI830" s="6" t="s">
@@ -32738,7 +33570,7 @@
       <c r="AL830" s="4"/>
       <c r="AM830" s="16"/>
     </row>
-    <row r="831" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="831" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG831" s="3"/>
       <c r="AH831" s="9"/>
       <c r="AI831" s="6" t="s">
@@ -32753,7 +33585,7 @@
       <c r="AL831" s="4"/>
       <c r="AM831" s="16"/>
     </row>
-    <row r="832" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="832" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG832" s="3"/>
       <c r="AH832" s="9"/>
       <c r="AI832" s="6"/>
@@ -33188,18 +34020,30 @@
     </row>
     <row r="865" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG865" s="3"/>
-      <c r="AH865" s="9"/>
-      <c r="AI865" s="6"/>
-      <c r="AJ865" s="12"/>
-      <c r="AK865" s="11"/>
+      <c r="AH865" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI865" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ865" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK865" s="11">
+        <v>3</v>
+      </c>
       <c r="AL865" s="4"/>
       <c r="AM865" s="16"/>
     </row>
     <row r="866" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG866" s="3"/>
       <c r="AH866" s="9"/>
-      <c r="AI866" s="6"/>
-      <c r="AJ866" s="12"/>
+      <c r="AI866" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ866" s="12">
+        <v>3</v>
+      </c>
       <c r="AK866" s="11"/>
       <c r="AL866" s="4"/>
       <c r="AM866" s="16"/>
@@ -33207,8 +34051,12 @@
     <row r="867" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG867" s="3"/>
       <c r="AH867" s="9"/>
-      <c r="AI867" s="6"/>
-      <c r="AJ867" s="12"/>
+      <c r="AI867" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ867" s="12">
+        <v>4</v>
+      </c>
       <c r="AK867" s="11"/>
       <c r="AL867" s="4"/>
       <c r="AM867" s="16"/>
@@ -33216,8 +34064,12 @@
     <row r="868" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG868" s="3"/>
       <c r="AH868" s="9"/>
-      <c r="AI868" s="6"/>
-      <c r="AJ868" s="12"/>
+      <c r="AI868" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ868" s="12">
+        <v>3</v>
+      </c>
       <c r="AK868" s="11"/>
       <c r="AL868" s="4"/>
       <c r="AM868" s="16"/>
@@ -33225,8 +34077,12 @@
     <row r="869" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG869" s="3"/>
       <c r="AH869" s="9"/>
-      <c r="AI869" s="6"/>
-      <c r="AJ869" s="12"/>
+      <c r="AI869" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ869" s="12">
+        <v>2</v>
+      </c>
       <c r="AK869" s="11"/>
       <c r="AL869" s="4"/>
       <c r="AM869" s="16"/>
@@ -33234,17 +34090,27 @@
     <row r="870" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG870" s="3"/>
       <c r="AH870" s="9"/>
-      <c r="AI870" s="6"/>
-      <c r="AJ870" s="12"/>
-      <c r="AK870" s="11"/>
+      <c r="AI870" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ870" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK870" s="11">
+        <v>2</v>
+      </c>
       <c r="AL870" s="4"/>
       <c r="AM870" s="16"/>
     </row>
     <row r="871" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG871" s="3"/>
       <c r="AH871" s="9"/>
-      <c r="AI871" s="6"/>
-      <c r="AJ871" s="12"/>
+      <c r="AI871" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ871" s="12">
+        <v>2</v>
+      </c>
       <c r="AK871" s="11"/>
       <c r="AL871" s="4"/>
       <c r="AM871" s="16"/>
@@ -33252,8 +34118,12 @@
     <row r="872" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG872" s="3"/>
       <c r="AH872" s="9"/>
-      <c r="AI872" s="6"/>
-      <c r="AJ872" s="12"/>
+      <c r="AI872" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ872" s="12">
+        <v>2</v>
+      </c>
       <c r="AK872" s="11"/>
       <c r="AL872" s="4"/>
       <c r="AM872" s="16"/>
@@ -33261,8 +34131,12 @@
     <row r="873" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG873" s="3"/>
       <c r="AH873" s="9"/>
-      <c r="AI873" s="6"/>
-      <c r="AJ873" s="12"/>
+      <c r="AI873" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ873" s="12">
+        <v>2</v>
+      </c>
       <c r="AK873" s="11"/>
       <c r="AL873" s="4"/>
       <c r="AM873" s="16"/>
@@ -33270,8 +34144,12 @@
     <row r="874" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG874" s="3"/>
       <c r="AH874" s="9"/>
-      <c r="AI874" s="6"/>
-      <c r="AJ874" s="12"/>
+      <c r="AI874" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ874" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK874" s="11"/>
       <c r="AL874" s="4"/>
       <c r="AM874" s="16"/>
@@ -33279,8 +34157,12 @@
     <row r="875" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG875" s="3"/>
       <c r="AH875" s="9"/>
-      <c r="AI875" s="6"/>
-      <c r="AJ875" s="12"/>
+      <c r="AI875" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ875" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK875" s="11"/>
       <c r="AL875" s="4"/>
       <c r="AM875" s="16"/>
@@ -33288,8 +34170,12 @@
     <row r="876" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG876" s="3"/>
       <c r="AH876" s="9"/>
-      <c r="AI876" s="6"/>
-      <c r="AJ876" s="12"/>
+      <c r="AI876" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ876" s="12">
+        <v>1</v>
+      </c>
       <c r="AK876" s="11"/>
       <c r="AL876" s="4"/>
       <c r="AM876" s="16"/>
@@ -33297,8 +34183,12 @@
     <row r="877" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG877" s="3"/>
       <c r="AH877" s="9"/>
-      <c r="AI877" s="6"/>
-      <c r="AJ877" s="12"/>
+      <c r="AI877" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ877" s="12">
+        <v>1</v>
+      </c>
       <c r="AK877" s="11"/>
       <c r="AL877" s="4"/>
       <c r="AM877" s="16"/>
@@ -33306,8 +34196,12 @@
     <row r="878" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG878" s="3"/>
       <c r="AH878" s="9"/>
-      <c r="AI878" s="6"/>
-      <c r="AJ878" s="12"/>
+      <c r="AI878" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ878" s="12">
+        <v>2</v>
+      </c>
       <c r="AK878" s="11"/>
       <c r="AL878" s="4"/>
       <c r="AM878" s="16"/>
@@ -33315,9 +34209,15 @@
     <row r="879" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG879" s="3"/>
       <c r="AH879" s="9"/>
-      <c r="AI879" s="6"/>
-      <c r="AJ879" s="12"/>
-      <c r="AK879" s="11"/>
+      <c r="AI879" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ879" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK879" s="11">
+        <v>1</v>
+      </c>
       <c r="AL879" s="4"/>
       <c r="AM879" s="16"/>
     </row>
@@ -33332,18 +34232,30 @@
     </row>
     <row r="881" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG881" s="3"/>
-      <c r="AH881" s="9"/>
-      <c r="AI881" s="6"/>
-      <c r="AJ881" s="12"/>
-      <c r="AK881" s="11"/>
+      <c r="AH881" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI881" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ881" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK881" s="11">
+        <v>3</v>
+      </c>
       <c r="AL881" s="4"/>
       <c r="AM881" s="16"/>
     </row>
     <row r="882" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG882" s="3"/>
       <c r="AH882" s="9"/>
-      <c r="AI882" s="6"/>
-      <c r="AJ882" s="12"/>
+      <c r="AI882" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ882" s="12">
+        <v>3</v>
+      </c>
       <c r="AK882" s="11"/>
       <c r="AL882" s="4"/>
       <c r="AM882" s="16"/>
@@ -33351,8 +34263,12 @@
     <row r="883" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG883" s="3"/>
       <c r="AH883" s="9"/>
-      <c r="AI883" s="6"/>
-      <c r="AJ883" s="12"/>
+      <c r="AI883" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ883" s="12">
+        <v>4</v>
+      </c>
       <c r="AK883" s="11"/>
       <c r="AL883" s="4"/>
       <c r="AM883" s="16"/>
@@ -33360,8 +34276,12 @@
     <row r="884" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG884" s="3"/>
       <c r="AH884" s="9"/>
-      <c r="AI884" s="6"/>
-      <c r="AJ884" s="12"/>
+      <c r="AI884" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ884" s="12">
+        <v>3</v>
+      </c>
       <c r="AK884" s="11"/>
       <c r="AL884" s="4"/>
       <c r="AM884" s="16"/>
@@ -33369,8 +34289,12 @@
     <row r="885" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG885" s="3"/>
       <c r="AH885" s="9"/>
-      <c r="AI885" s="6"/>
-      <c r="AJ885" s="12"/>
+      <c r="AI885" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ885" s="12">
+        <v>3</v>
+      </c>
       <c r="AK885" s="11"/>
       <c r="AL885" s="4"/>
       <c r="AM885" s="16"/>
@@ -33378,8 +34302,12 @@
     <row r="886" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG886" s="3"/>
       <c r="AH886" s="9"/>
-      <c r="AI886" s="6"/>
-      <c r="AJ886" s="12"/>
+      <c r="AI886" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ886" s="12">
+        <v>2</v>
+      </c>
       <c r="AK886" s="11"/>
       <c r="AL886" s="4"/>
       <c r="AM886" s="16"/>
@@ -33387,17 +34315,27 @@
     <row r="887" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG887" s="3"/>
       <c r="AH887" s="9"/>
-      <c r="AI887" s="6"/>
-      <c r="AJ887" s="12"/>
-      <c r="AK887" s="11"/>
+      <c r="AI887" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ887" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK887" s="11">
+        <v>2</v>
+      </c>
       <c r="AL887" s="4"/>
       <c r="AM887" s="16"/>
     </row>
     <row r="888" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG888" s="3"/>
       <c r="AH888" s="9"/>
-      <c r="AI888" s="6"/>
-      <c r="AJ888" s="12"/>
+      <c r="AI888" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ888" s="12">
+        <v>2</v>
+      </c>
       <c r="AK888" s="11"/>
       <c r="AL888" s="4"/>
       <c r="AM888" s="16"/>
@@ -33405,8 +34343,12 @@
     <row r="889" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG889" s="3"/>
       <c r="AH889" s="9"/>
-      <c r="AI889" s="6"/>
-      <c r="AJ889" s="12"/>
+      <c r="AI889" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ889" s="12">
+        <v>2</v>
+      </c>
       <c r="AK889" s="11"/>
       <c r="AL889" s="4"/>
       <c r="AM889" s="16"/>
@@ -33414,8 +34356,12 @@
     <row r="890" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG890" s="3"/>
       <c r="AH890" s="9"/>
-      <c r="AI890" s="6"/>
-      <c r="AJ890" s="12"/>
+      <c r="AI890" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ890" s="12">
+        <v>2</v>
+      </c>
       <c r="AK890" s="11"/>
       <c r="AL890" s="4"/>
       <c r="AM890" s="16"/>
@@ -33423,8 +34369,12 @@
     <row r="891" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG891" s="3"/>
       <c r="AH891" s="9"/>
-      <c r="AI891" s="6"/>
-      <c r="AJ891" s="12"/>
+      <c r="AI891" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ891" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK891" s="11"/>
       <c r="AL891" s="4"/>
       <c r="AM891" s="16"/>
@@ -33432,8 +34382,12 @@
     <row r="892" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG892" s="3"/>
       <c r="AH892" s="9"/>
-      <c r="AI892" s="6"/>
-      <c r="AJ892" s="12"/>
+      <c r="AI892" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ892" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK892" s="11"/>
       <c r="AL892" s="4"/>
       <c r="AM892" s="16"/>
@@ -33441,8 +34395,12 @@
     <row r="893" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG893" s="3"/>
       <c r="AH893" s="9"/>
-      <c r="AI893" s="6"/>
-      <c r="AJ893" s="12"/>
+      <c r="AI893" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ893" s="12">
+        <v>1</v>
+      </c>
       <c r="AK893" s="11"/>
       <c r="AL893" s="4"/>
       <c r="AM893" s="16"/>
@@ -33450,8 +34408,12 @@
     <row r="894" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG894" s="3"/>
       <c r="AH894" s="9"/>
-      <c r="AI894" s="6"/>
-      <c r="AJ894" s="12"/>
+      <c r="AI894" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ894" s="12">
+        <v>1</v>
+      </c>
       <c r="AK894" s="11"/>
       <c r="AL894" s="4"/>
       <c r="AM894" s="16"/>
@@ -33459,9 +34421,15 @@
     <row r="895" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG895" s="3"/>
       <c r="AH895" s="9"/>
-      <c r="AI895" s="6"/>
-      <c r="AJ895" s="12"/>
-      <c r="AK895" s="11"/>
+      <c r="AI895" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ895" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK895" s="11">
+        <v>1</v>
+      </c>
       <c r="AL895" s="4"/>
       <c r="AM895" s="16"/>
     </row>
@@ -33476,27 +34444,45 @@
     </row>
     <row r="897" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG897" s="3"/>
-      <c r="AH897" s="9"/>
-      <c r="AI897" s="6"/>
-      <c r="AJ897" s="12"/>
-      <c r="AK897" s="11"/>
+      <c r="AH897" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI897" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ897" s="12">
+        <v>6</v>
+      </c>
+      <c r="AK897" s="11">
+        <v>4</v>
+      </c>
       <c r="AL897" s="4"/>
       <c r="AM897" s="16"/>
     </row>
     <row r="898" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG898" s="3"/>
       <c r="AH898" s="9"/>
-      <c r="AI898" s="6"/>
-      <c r="AJ898" s="12"/>
-      <c r="AK898" s="11"/>
+      <c r="AI898" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ898" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK898" s="11">
+        <v>3</v>
+      </c>
       <c r="AL898" s="4"/>
       <c r="AM898" s="16"/>
     </row>
     <row r="899" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG899" s="3"/>
       <c r="AH899" s="9"/>
-      <c r="AI899" s="6"/>
-      <c r="AJ899" s="12"/>
+      <c r="AI899" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ899" s="12">
+        <v>3</v>
+      </c>
       <c r="AK899" s="11"/>
       <c r="AL899" s="4"/>
       <c r="AM899" s="16"/>
@@ -33504,8 +34490,12 @@
     <row r="900" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG900" s="3"/>
       <c r="AH900" s="9"/>
-      <c r="AI900" s="6"/>
-      <c r="AJ900" s="12"/>
+      <c r="AI900" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ900" s="12">
+        <v>4</v>
+      </c>
       <c r="AK900" s="11"/>
       <c r="AL900" s="4"/>
       <c r="AM900" s="16"/>
@@ -33513,8 +34503,12 @@
     <row r="901" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG901" s="3"/>
       <c r="AH901" s="9"/>
-      <c r="AI901" s="6"/>
-      <c r="AJ901" s="12"/>
+      <c r="AI901" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ901" s="12">
+        <v>3</v>
+      </c>
       <c r="AK901" s="11"/>
       <c r="AL901" s="4"/>
       <c r="AM901" s="16"/>
@@ -33522,8 +34516,12 @@
     <row r="902" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG902" s="3"/>
       <c r="AH902" s="9"/>
-      <c r="AI902" s="6"/>
-      <c r="AJ902" s="12"/>
+      <c r="AI902" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ902" s="12">
+        <v>2.5</v>
+      </c>
       <c r="AK902" s="11"/>
       <c r="AL902" s="4"/>
       <c r="AM902" s="16"/>
@@ -33531,8 +34529,12 @@
     <row r="903" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG903" s="3"/>
       <c r="AH903" s="9"/>
-      <c r="AI903" s="6"/>
-      <c r="AJ903" s="12"/>
+      <c r="AI903" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ903" s="12">
+        <v>2.5</v>
+      </c>
       <c r="AK903" s="11"/>
       <c r="AL903" s="4"/>
       <c r="AM903" s="16"/>
@@ -33540,17 +34542,27 @@
     <row r="904" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG904" s="3"/>
       <c r="AH904" s="9"/>
-      <c r="AI904" s="6"/>
-      <c r="AJ904" s="12"/>
-      <c r="AK904" s="11"/>
+      <c r="AI904" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ904" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK904" s="11">
+        <v>2</v>
+      </c>
       <c r="AL904" s="4"/>
       <c r="AM904" s="16"/>
     </row>
     <row r="905" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG905" s="3"/>
       <c r="AH905" s="9"/>
-      <c r="AI905" s="6"/>
-      <c r="AJ905" s="12"/>
+      <c r="AI905" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ905" s="12">
+        <v>2</v>
+      </c>
       <c r="AK905" s="11"/>
       <c r="AL905" s="4"/>
       <c r="AM905" s="16"/>
@@ -33558,8 +34570,12 @@
     <row r="906" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG906" s="3"/>
       <c r="AH906" s="9"/>
-      <c r="AI906" s="6"/>
-      <c r="AJ906" s="12"/>
+      <c r="AI906" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ906" s="12">
+        <v>1</v>
+      </c>
       <c r="AK906" s="11"/>
       <c r="AL906" s="4"/>
       <c r="AM906" s="16"/>
@@ -33567,8 +34583,12 @@
     <row r="907" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG907" s="3"/>
       <c r="AH907" s="9"/>
-      <c r="AI907" s="6"/>
-      <c r="AJ907" s="12"/>
+      <c r="AI907" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ907" s="12">
+        <v>1</v>
+      </c>
       <c r="AK907" s="11"/>
       <c r="AL907" s="4"/>
       <c r="AM907" s="16"/>
@@ -33576,9 +34596,15 @@
     <row r="908" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG908" s="3"/>
       <c r="AH908" s="9"/>
-      <c r="AI908" s="6"/>
-      <c r="AJ908" s="12"/>
-      <c r="AK908" s="11"/>
+      <c r="AI908" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ908" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK908" s="11">
+        <v>1</v>
+      </c>
       <c r="AL908" s="4"/>
       <c r="AM908" s="16"/>
     </row>
@@ -33593,27 +34619,45 @@
     </row>
     <row r="910" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG910" s="3"/>
-      <c r="AH910" s="9"/>
-      <c r="AI910" s="6"/>
-      <c r="AJ910" s="12"/>
-      <c r="AK910" s="11"/>
+      <c r="AH910" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI910" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ910" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK910" s="11">
+        <v>4</v>
+      </c>
       <c r="AL910" s="4"/>
       <c r="AM910" s="16"/>
     </row>
     <row r="911" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG911" s="3"/>
       <c r="AH911" s="9"/>
-      <c r="AI911" s="6"/>
-      <c r="AJ911" s="12"/>
-      <c r="AK911" s="11"/>
+      <c r="AI911" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ911" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK911" s="11">
+        <v>3</v>
+      </c>
       <c r="AL911" s="4"/>
       <c r="AM911" s="16"/>
     </row>
     <row r="912" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG912" s="3"/>
       <c r="AH912" s="9"/>
-      <c r="AI912" s="6"/>
-      <c r="AJ912" s="12"/>
+      <c r="AI912" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ912" s="12">
+        <v>3</v>
+      </c>
       <c r="AK912" s="11"/>
       <c r="AL912" s="4"/>
       <c r="AM912" s="16"/>
@@ -33621,8 +34665,12 @@
     <row r="913" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG913" s="3"/>
       <c r="AH913" s="9"/>
-      <c r="AI913" s="6"/>
-      <c r="AJ913" s="12"/>
+      <c r="AI913" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ913" s="12">
+        <v>4</v>
+      </c>
       <c r="AK913" s="11"/>
       <c r="AL913" s="4"/>
       <c r="AM913" s="16"/>
@@ -33630,8 +34678,12 @@
     <row r="914" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG914" s="3"/>
       <c r="AH914" s="9"/>
-      <c r="AI914" s="6"/>
-      <c r="AJ914" s="12"/>
+      <c r="AI914" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ914" s="12">
+        <v>3</v>
+      </c>
       <c r="AK914" s="11"/>
       <c r="AL914" s="4"/>
       <c r="AM914" s="16"/>
@@ -33639,8 +34691,12 @@
     <row r="915" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG915" s="3"/>
       <c r="AH915" s="9"/>
-      <c r="AI915" s="6"/>
-      <c r="AJ915" s="12"/>
+      <c r="AI915" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ915" s="12">
+        <v>5</v>
+      </c>
       <c r="AK915" s="11"/>
       <c r="AL915" s="4"/>
       <c r="AM915" s="16"/>
@@ -33648,8 +34704,12 @@
     <row r="916" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG916" s="3"/>
       <c r="AH916" s="9"/>
-      <c r="AI916" s="6"/>
-      <c r="AJ916" s="12"/>
+      <c r="AI916" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ916" s="12">
+        <v>2.5</v>
+      </c>
       <c r="AK916" s="11"/>
       <c r="AL916" s="4"/>
       <c r="AM916" s="16"/>
@@ -33657,8 +34717,12 @@
     <row r="917" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG917" s="3"/>
       <c r="AH917" s="9"/>
-      <c r="AI917" s="6"/>
-      <c r="AJ917" s="12"/>
+      <c r="AI917" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ917" s="12">
+        <v>2.5</v>
+      </c>
       <c r="AK917" s="11"/>
       <c r="AL917" s="4"/>
       <c r="AM917" s="16"/>
@@ -33666,17 +34730,27 @@
     <row r="918" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG918" s="3"/>
       <c r="AH918" s="9"/>
-      <c r="AI918" s="6"/>
-      <c r="AJ918" s="12"/>
-      <c r="AK918" s="11"/>
+      <c r="AI918" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ918" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK918" s="11">
+        <v>2</v>
+      </c>
       <c r="AL918" s="4"/>
       <c r="AM918" s="16"/>
     </row>
     <row r="919" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG919" s="3"/>
       <c r="AH919" s="9"/>
-      <c r="AI919" s="6"/>
-      <c r="AJ919" s="12"/>
+      <c r="AI919" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ919" s="12">
+        <v>1</v>
+      </c>
       <c r="AK919" s="11"/>
       <c r="AL919" s="4"/>
       <c r="AM919" s="16"/>
@@ -33684,8 +34758,12 @@
     <row r="920" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG920" s="3"/>
       <c r="AH920" s="9"/>
-      <c r="AI920" s="6"/>
-      <c r="AJ920" s="12"/>
+      <c r="AI920" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ920" s="12">
+        <v>1</v>
+      </c>
       <c r="AK920" s="11"/>
       <c r="AL920" s="4"/>
       <c r="AM920" s="16"/>
@@ -33693,9 +34771,15 @@
     <row r="921" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG921" s="3"/>
       <c r="AH921" s="9"/>
-      <c r="AI921" s="6"/>
-      <c r="AJ921" s="12"/>
-      <c r="AK921" s="11"/>
+      <c r="AI921" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ921" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK921" s="11">
+        <v>1</v>
+      </c>
       <c r="AL921" s="4"/>
       <c r="AM921" s="16"/>
     </row>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micfe484\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764AEEB-2F81-4129-8BAF-AE338BF01A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA5F4D-BDAC-42B6-BBD6-C184D42B5095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="290">
   <si>
     <t>ClassNames</t>
   </si>
@@ -887,6 +887,15 @@
   <si>
     <t>1CC-4LANG</t>
   </si>
+  <si>
+    <t>3CD-4LANG</t>
+  </si>
+  <si>
+    <t>2CD-4LANG</t>
+  </si>
+  <si>
+    <t>1CD-4LANG</t>
+  </si>
 </sst>
 </file>
 
@@ -1358,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC927"/>
+  <dimension ref="A1:BC951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT557" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="AW574" sqref="AW574"/>
+    <sheetView tabSelected="1" topLeftCell="AV572" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="BA584" sqref="BA584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27517,11 +27526,21 @@
       <c r="AS588" s="11"/>
       <c r="AT588" s="4"/>
       <c r="AU588" s="16"/>
-      <c r="AW588" s="3"/>
-      <c r="AX588" s="9"/>
-      <c r="AY588" s="6"/>
-      <c r="AZ588" s="12"/>
-      <c r="BA588" s="11"/>
+      <c r="AW588" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX588" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY588" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ588" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA588" s="11">
+        <v>4</v>
+      </c>
       <c r="BB588" s="4"/>
       <c r="BC588" s="16"/>
     </row>
@@ -27550,9 +27569,15 @@
       <c r="AU589" s="16"/>
       <c r="AW589" s="3"/>
       <c r="AX589" s="9"/>
-      <c r="AY589" s="6"/>
-      <c r="AZ589" s="12"/>
-      <c r="BA589" s="11"/>
+      <c r="AY589" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ589" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA589" s="11">
+        <v>3</v>
+      </c>
       <c r="BB589" s="4"/>
       <c r="BC589" s="16"/>
     </row>
@@ -27583,8 +27608,12 @@
       <c r="AU590" s="16"/>
       <c r="AW590" s="3"/>
       <c r="AX590" s="9"/>
-      <c r="AY590" s="6"/>
-      <c r="AZ590" s="12"/>
+      <c r="AY590" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ590" s="12">
+        <v>3</v>
+      </c>
       <c r="BA590" s="11"/>
       <c r="BB590" s="4"/>
       <c r="BC590" s="16"/>
@@ -27612,8 +27641,12 @@
       <c r="AU591" s="16"/>
       <c r="AW591" s="3"/>
       <c r="AX591" s="9"/>
-      <c r="AY591" s="6"/>
-      <c r="AZ591" s="12"/>
+      <c r="AY591" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ591" s="12">
+        <v>3</v>
+      </c>
       <c r="BA591" s="11"/>
       <c r="BB591" s="4"/>
       <c r="BC591" s="16"/>
@@ -27647,8 +27680,12 @@
       <c r="AU592" s="16"/>
       <c r="AW592" s="3"/>
       <c r="AX592" s="9"/>
-      <c r="AY592" s="6"/>
-      <c r="AZ592" s="12"/>
+      <c r="AY592" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ592" s="12">
+        <v>3</v>
+      </c>
       <c r="BA592" s="11"/>
       <c r="BB592" s="4"/>
       <c r="BC592" s="16"/>
@@ -27680,8 +27717,12 @@
       <c r="AU593" s="16"/>
       <c r="AW593" s="3"/>
       <c r="AX593" s="9"/>
-      <c r="AY593" s="6"/>
-      <c r="AZ593" s="12"/>
+      <c r="AY593" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ593" s="12">
+        <v>5</v>
+      </c>
       <c r="BA593" s="11"/>
       <c r="BB593" s="4"/>
       <c r="BC593" s="16"/>
@@ -27713,11 +27754,19 @@
       <c r="AU594" s="16"/>
       <c r="AW594" s="3"/>
       <c r="AX594" s="9"/>
-      <c r="AY594" s="6"/>
-      <c r="AZ594" s="12"/>
+      <c r="AY594" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ594" s="12">
+        <v>4</v>
+      </c>
       <c r="BA594" s="11"/>
-      <c r="BB594" s="4"/>
-      <c r="BC594" s="16"/>
+      <c r="BB594" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC594" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="595" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG595" s="3"/>
@@ -27743,8 +27792,12 @@
       <c r="AY595" s="6"/>
       <c r="AZ595" s="12"/>
       <c r="BA595" s="11"/>
-      <c r="BB595" s="4"/>
-      <c r="BC595" s="16"/>
+      <c r="BB595" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC595" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="596" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG596" s="3"/>
@@ -27777,9 +27830,15 @@
       <c r="AU596" s="16"/>
       <c r="AW596" s="3"/>
       <c r="AX596" s="9"/>
-      <c r="AY596" s="6"/>
-      <c r="AZ596" s="12"/>
-      <c r="BA596" s="11"/>
+      <c r="AY596" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ596" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA596" s="11">
+        <v>2</v>
+      </c>
       <c r="BB596" s="4"/>
       <c r="BC596" s="16"/>
     </row>
@@ -27814,8 +27873,12 @@
       <c r="AU597" s="16"/>
       <c r="AW597" s="3"/>
       <c r="AX597" s="9"/>
-      <c r="AY597" s="6"/>
-      <c r="AZ597" s="12"/>
+      <c r="AY597" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ597" s="12">
+        <v>2</v>
+      </c>
       <c r="BA597" s="11"/>
       <c r="BB597" s="4"/>
       <c r="BC597" s="16"/>
@@ -27845,8 +27908,12 @@
       <c r="AU598" s="16"/>
       <c r="AW598" s="3"/>
       <c r="AX598" s="9"/>
-      <c r="AY598" s="6"/>
-      <c r="AZ598" s="12"/>
+      <c r="AY598" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ598" s="12">
+        <v>2</v>
+      </c>
       <c r="BA598" s="11"/>
       <c r="BB598" s="4"/>
       <c r="BC598" s="16"/>
@@ -27878,9 +27945,15 @@
       <c r="AU599" s="16"/>
       <c r="AW599" s="3"/>
       <c r="AX599" s="9"/>
-      <c r="AY599" s="6"/>
-      <c r="AZ599" s="12"/>
-      <c r="BA599" s="11"/>
+      <c r="AY599" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ599" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA599" s="11">
+        <v>1</v>
+      </c>
       <c r="BB599" s="4"/>
       <c r="BC599" s="16"/>
     </row>
@@ -27911,6 +27984,13 @@
       <c r="AS600" s="11"/>
       <c r="AT600" s="4"/>
       <c r="AU600" s="16"/>
+      <c r="AW600" s="3"/>
+      <c r="AX600" s="9"/>
+      <c r="AY600" s="6"/>
+      <c r="AZ600" s="12"/>
+      <c r="BA600" s="11"/>
+      <c r="BB600" s="4"/>
+      <c r="BC600" s="16"/>
     </row>
     <row r="601" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG601" s="3"/>
@@ -27935,6 +28015,13 @@
       <c r="AS601" s="11"/>
       <c r="AT601" s="4"/>
       <c r="AU601" s="16"/>
+      <c r="AW601" s="3"/>
+      <c r="AX601" s="9"/>
+      <c r="AY601" s="6"/>
+      <c r="AZ601" s="12"/>
+      <c r="BA601" s="11"/>
+      <c r="BB601" s="4"/>
+      <c r="BC601" s="16"/>
     </row>
     <row r="602" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG602" s="3"/>
@@ -27959,6 +28046,13 @@
       <c r="AS602" s="11"/>
       <c r="AT602" s="4"/>
       <c r="AU602" s="16"/>
+      <c r="AW602" s="3"/>
+      <c r="AX602" s="9"/>
+      <c r="AY602" s="6"/>
+      <c r="AZ602" s="12"/>
+      <c r="BA602" s="11"/>
+      <c r="BB602" s="4"/>
+      <c r="BC602" s="16"/>
     </row>
     <row r="603" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG603" s="3"/>
@@ -27985,6 +28079,13 @@
       </c>
       <c r="AT603" s="4"/>
       <c r="AU603" s="16"/>
+      <c r="AW603" s="3"/>
+      <c r="AX603" s="9"/>
+      <c r="AY603" s="6"/>
+      <c r="AZ603" s="12"/>
+      <c r="BA603" s="11"/>
+      <c r="BB603" s="4"/>
+      <c r="BC603" s="16"/>
     </row>
     <row r="604" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG604" s="3"/>
@@ -28009,6 +28110,13 @@
       <c r="AS604" s="11"/>
       <c r="AT604" s="4"/>
       <c r="AU604" s="16"/>
+      <c r="AW604" s="3"/>
+      <c r="AX604" s="9"/>
+      <c r="AY604" s="6"/>
+      <c r="AZ604" s="12"/>
+      <c r="BA604" s="11"/>
+      <c r="BB604" s="4"/>
+      <c r="BC604" s="16"/>
     </row>
     <row r="605" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG605" s="3"/>
@@ -28033,6 +28141,13 @@
       <c r="AS605" s="11"/>
       <c r="AT605" s="4"/>
       <c r="AU605" s="16"/>
+      <c r="AW605" s="3"/>
+      <c r="AX605" s="9"/>
+      <c r="AY605" s="6"/>
+      <c r="AZ605" s="12"/>
+      <c r="BA605" s="11"/>
+      <c r="BB605" s="4"/>
+      <c r="BC605" s="16"/>
     </row>
     <row r="606" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG606" s="3"/>
@@ -28059,6 +28174,13 @@
       <c r="AS606" s="11"/>
       <c r="AT606" s="4"/>
       <c r="AU606" s="16"/>
+      <c r="AW606" s="3"/>
+      <c r="AX606" s="9"/>
+      <c r="AY606" s="6"/>
+      <c r="AZ606" s="12"/>
+      <c r="BA606" s="11"/>
+      <c r="BB606" s="4"/>
+      <c r="BC606" s="16"/>
     </row>
     <row r="607" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG607" s="3"/>
@@ -28079,6 +28201,13 @@
       <c r="AS607" s="11"/>
       <c r="AT607" s="4"/>
       <c r="AU607" s="16"/>
+      <c r="AW607" s="3"/>
+      <c r="AX607" s="9"/>
+      <c r="AY607" s="6"/>
+      <c r="AZ607" s="12"/>
+      <c r="BA607" s="11"/>
+      <c r="BB607" s="4"/>
+      <c r="BC607" s="16"/>
     </row>
     <row r="608" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG608" s="3"/>
@@ -28113,8 +28242,15 @@
       </c>
       <c r="AT608" s="4"/>
       <c r="AU608" s="16"/>
-    </row>
-    <row r="609" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW608" s="3"/>
+      <c r="AX608" s="9"/>
+      <c r="AY608" s="6"/>
+      <c r="AZ608" s="12"/>
+      <c r="BA608" s="11"/>
+      <c r="BB608" s="4"/>
+      <c r="BC608" s="16"/>
+    </row>
+    <row r="609" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG609" s="3"/>
       <c r="AH609" s="9"/>
       <c r="AI609" s="6"/>
@@ -28133,8 +28269,15 @@
       <c r="AS609" s="11"/>
       <c r="AT609" s="4"/>
       <c r="AU609" s="16"/>
-    </row>
-    <row r="610" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW609" s="3"/>
+      <c r="AX609" s="9"/>
+      <c r="AY609" s="6"/>
+      <c r="AZ609" s="12"/>
+      <c r="BA609" s="11"/>
+      <c r="BB609" s="4"/>
+      <c r="BC609" s="16"/>
+    </row>
+    <row r="610" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG610" s="3"/>
       <c r="AH610" s="9"/>
       <c r="AI610" s="6"/>
@@ -28167,8 +28310,15 @@
       <c r="AU610" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW610" s="3"/>
+      <c r="AX610" s="9"/>
+      <c r="AY610" s="6"/>
+      <c r="AZ610" s="12"/>
+      <c r="BA610" s="11"/>
+      <c r="BB610" s="4"/>
+      <c r="BC610" s="16"/>
+    </row>
+    <row r="611" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG611" s="3"/>
       <c r="AH611" s="9"/>
       <c r="AI611" s="6" t="s">
@@ -28193,8 +28343,15 @@
       <c r="AU611" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="612" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW611" s="3"/>
+      <c r="AX611" s="9"/>
+      <c r="AY611" s="6"/>
+      <c r="AZ611" s="12"/>
+      <c r="BA611" s="11"/>
+      <c r="BB611" s="4"/>
+      <c r="BC611" s="16"/>
+    </row>
+    <row r="612" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG612" s="3"/>
       <c r="AH612" s="9"/>
       <c r="AI612" s="6" t="s">
@@ -28223,8 +28380,15 @@
       <c r="AU612" s="16">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="613" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW612" s="3"/>
+      <c r="AX612" s="9"/>
+      <c r="AY612" s="6"/>
+      <c r="AZ612" s="12"/>
+      <c r="BA612" s="11"/>
+      <c r="BB612" s="4"/>
+      <c r="BC612" s="16"/>
+    </row>
+    <row r="613" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG613" s="3"/>
       <c r="AH613" s="9"/>
       <c r="AI613" s="6" t="s">
@@ -28247,8 +28411,15 @@
       <c r="AU613" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="614" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW613" s="3"/>
+      <c r="AX613" s="9"/>
+      <c r="AY613" s="6"/>
+      <c r="AZ613" s="12"/>
+      <c r="BA613" s="11"/>
+      <c r="BB613" s="4"/>
+      <c r="BC613" s="16"/>
+    </row>
+    <row r="614" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG614" s="3"/>
       <c r="AH614" s="9"/>
       <c r="AI614" s="6" t="s">
@@ -28271,8 +28442,15 @@
       <c r="AU614" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="615" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW614" s="3"/>
+      <c r="AX614" s="9"/>
+      <c r="AY614" s="6"/>
+      <c r="AZ614" s="12"/>
+      <c r="BA614" s="11"/>
+      <c r="BB614" s="4"/>
+      <c r="BC614" s="16"/>
+    </row>
+    <row r="615" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG615" s="3"/>
       <c r="AH615" s="9"/>
       <c r="AI615" s="6" t="s">
@@ -28299,8 +28477,15 @@
       <c r="AS615" s="11"/>
       <c r="AT615" s="4"/>
       <c r="AU615" s="16"/>
-    </row>
-    <row r="616" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW615" s="3"/>
+      <c r="AX615" s="9"/>
+      <c r="AY615" s="6"/>
+      <c r="AZ615" s="12"/>
+      <c r="BA615" s="11"/>
+      <c r="BB615" s="4"/>
+      <c r="BC615" s="16"/>
+    </row>
+    <row r="616" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG616" s="3"/>
       <c r="AH616" s="9"/>
       <c r="AI616" s="6"/>
@@ -28323,8 +28508,15 @@
       <c r="AS616" s="11"/>
       <c r="AT616" s="4"/>
       <c r="AU616" s="16"/>
-    </row>
-    <row r="617" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW616" s="3"/>
+      <c r="AX616" s="9"/>
+      <c r="AY616" s="6"/>
+      <c r="AZ616" s="12"/>
+      <c r="BA616" s="11"/>
+      <c r="BB616" s="4"/>
+      <c r="BC616" s="16"/>
+    </row>
+    <row r="617" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG617" s="3"/>
       <c r="AH617" s="9"/>
       <c r="AI617" s="6" t="s">
@@ -28349,8 +28541,15 @@
       <c r="AS617" s="11"/>
       <c r="AT617" s="4"/>
       <c r="AU617" s="16"/>
-    </row>
-    <row r="618" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW617" s="3"/>
+      <c r="AX617" s="9"/>
+      <c r="AY617" s="6"/>
+      <c r="AZ617" s="12"/>
+      <c r="BA617" s="11"/>
+      <c r="BB617" s="4"/>
+      <c r="BC617" s="16"/>
+    </row>
+    <row r="618" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG618" s="3"/>
       <c r="AH618" s="9"/>
       <c r="AI618" s="6" t="s">
@@ -28373,8 +28572,15 @@
       <c r="AS618" s="11"/>
       <c r="AT618" s="4"/>
       <c r="AU618" s="16"/>
-    </row>
-    <row r="619" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW618" s="3"/>
+      <c r="AX618" s="9"/>
+      <c r="AY618" s="6"/>
+      <c r="AZ618" s="12"/>
+      <c r="BA618" s="11"/>
+      <c r="BB618" s="4"/>
+      <c r="BC618" s="16"/>
+    </row>
+    <row r="619" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG619" s="3"/>
       <c r="AH619" s="9"/>
       <c r="AI619" s="6" t="s">
@@ -28399,8 +28605,15 @@
       </c>
       <c r="AT619" s="4"/>
       <c r="AU619" s="16"/>
-    </row>
-    <row r="620" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW619" s="3"/>
+      <c r="AX619" s="9"/>
+      <c r="AY619" s="6"/>
+      <c r="AZ619" s="12"/>
+      <c r="BA619" s="11"/>
+      <c r="BB619" s="4"/>
+      <c r="BC619" s="16"/>
+    </row>
+    <row r="620" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG620" s="3"/>
       <c r="AH620" s="9"/>
       <c r="AI620" s="6" t="s">
@@ -28424,7 +28637,7 @@
       <c r="AT620" s="4"/>
       <c r="AU620" s="16"/>
     </row>
-    <row r="621" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="621" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG621" s="3"/>
       <c r="AH621" s="9"/>
       <c r="AI621" s="6" t="s">
@@ -28448,7 +28661,7 @@
       <c r="AT621" s="4"/>
       <c r="AU621" s="16"/>
     </row>
-    <row r="622" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="622" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG622" s="3"/>
       <c r="AH622" s="9"/>
       <c r="AI622" s="6" t="s">
@@ -28472,7 +28685,7 @@
       <c r="AT622" s="4"/>
       <c r="AU622" s="16"/>
     </row>
-    <row r="623" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="623" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG623" s="3"/>
       <c r="AH623" s="9"/>
       <c r="AI623" s="6" t="s">
@@ -28498,7 +28711,7 @@
       <c r="AT623" s="4"/>
       <c r="AU623" s="16"/>
     </row>
-    <row r="624" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="624" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG624" s="3"/>
       <c r="AH624" s="9"/>
       <c r="AI624" s="6"/>
@@ -33012,11 +33225,21 @@
       <c r="AK801" s="11"/>
       <c r="AL801" s="4"/>
       <c r="AM801" s="16"/>
-      <c r="AO801" s="3"/>
-      <c r="AP801" s="9"/>
-      <c r="AQ801" s="6"/>
-      <c r="AR801" s="12"/>
-      <c r="AS801" s="11"/>
+      <c r="AO801" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP801" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ801" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR801" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS801" s="11">
+        <v>4</v>
+      </c>
       <c r="AT801" s="4"/>
       <c r="AU801" s="16"/>
     </row>
@@ -33034,9 +33257,15 @@
       <c r="AM802" s="16"/>
       <c r="AO802" s="3"/>
       <c r="AP802" s="9"/>
-      <c r="AQ802" s="6"/>
-      <c r="AR802" s="12"/>
-      <c r="AS802" s="11"/>
+      <c r="AQ802" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR802" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS802" s="11">
+        <v>3</v>
+      </c>
       <c r="AT802" s="4"/>
       <c r="AU802" s="16"/>
     </row>
@@ -33056,8 +33285,12 @@
       <c r="AM803" s="16"/>
       <c r="AO803" s="3"/>
       <c r="AP803" s="9"/>
-      <c r="AQ803" s="6"/>
-      <c r="AR803" s="12"/>
+      <c r="AQ803" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR803" s="12">
+        <v>3</v>
+      </c>
       <c r="AS803" s="11"/>
       <c r="AT803" s="4"/>
       <c r="AU803" s="16"/>
@@ -33072,8 +33305,12 @@
       <c r="AM804" s="16"/>
       <c r="AO804" s="3"/>
       <c r="AP804" s="9"/>
-      <c r="AQ804" s="6"/>
-      <c r="AR804" s="12"/>
+      <c r="AQ804" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR804" s="12">
+        <v>3</v>
+      </c>
       <c r="AS804" s="11"/>
       <c r="AT804" s="4"/>
       <c r="AU804" s="16"/>
@@ -33096,8 +33333,12 @@
       <c r="AM805" s="16"/>
       <c r="AO805" s="3"/>
       <c r="AP805" s="9"/>
-      <c r="AQ805" s="6"/>
-      <c r="AR805" s="12"/>
+      <c r="AQ805" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR805" s="12">
+        <v>3</v>
+      </c>
       <c r="AS805" s="11"/>
       <c r="AT805" s="4"/>
       <c r="AU805" s="16"/>
@@ -33116,8 +33357,12 @@
       <c r="AM806" s="16"/>
       <c r="AO806" s="3"/>
       <c r="AP806" s="9"/>
-      <c r="AQ806" s="6"/>
-      <c r="AR806" s="12"/>
+      <c r="AQ806" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR806" s="12">
+        <v>5</v>
+      </c>
       <c r="AS806" s="11"/>
       <c r="AT806" s="4"/>
       <c r="AU806" s="16"/>
@@ -33136,11 +33381,19 @@
       <c r="AM807" s="16"/>
       <c r="AO807" s="3"/>
       <c r="AP807" s="9"/>
-      <c r="AQ807" s="6"/>
-      <c r="AR807" s="12"/>
+      <c r="AQ807" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR807" s="12">
+        <v>3</v>
+      </c>
       <c r="AS807" s="11"/>
-      <c r="AT807" s="4"/>
-      <c r="AU807" s="16"/>
+      <c r="AT807" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU807" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="808" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG808" s="3"/>
@@ -33161,8 +33414,12 @@
       <c r="AQ808" s="6"/>
       <c r="AR808" s="12"/>
       <c r="AS808" s="11"/>
-      <c r="AT808" s="4"/>
-      <c r="AU808" s="16"/>
+      <c r="AT808" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU808" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="809" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG809" s="3"/>
@@ -33180,8 +33437,12 @@
       <c r="AM809" s="16"/>
       <c r="AO809" s="3"/>
       <c r="AP809" s="9"/>
-      <c r="AQ809" s="6"/>
-      <c r="AR809" s="12"/>
+      <c r="AQ809" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR809" s="12">
+        <v>2</v>
+      </c>
       <c r="AS809" s="11"/>
       <c r="AT809" s="4"/>
       <c r="AU809" s="16"/>
@@ -33200,8 +33461,12 @@
       <c r="AM810" s="16"/>
       <c r="AO810" s="3"/>
       <c r="AP810" s="9"/>
-      <c r="AQ810" s="6"/>
-      <c r="AR810" s="12"/>
+      <c r="AQ810" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR810" s="12">
+        <v>2</v>
+      </c>
       <c r="AS810" s="11"/>
       <c r="AT810" s="4"/>
       <c r="AU810" s="16"/>
@@ -33220,8 +33485,12 @@
       <c r="AM811" s="16"/>
       <c r="AO811" s="3"/>
       <c r="AP811" s="9"/>
-      <c r="AQ811" s="6"/>
-      <c r="AR811" s="12"/>
+      <c r="AQ811" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR811" s="12">
+        <v>2</v>
+      </c>
       <c r="AS811" s="11"/>
       <c r="AT811" s="4"/>
       <c r="AU811" s="16"/>
@@ -33240,8 +33509,12 @@
       <c r="AM812" s="16"/>
       <c r="AO812" s="3"/>
       <c r="AP812" s="9"/>
-      <c r="AQ812" s="6"/>
-      <c r="AR812" s="12"/>
+      <c r="AQ812" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR812" s="12">
+        <v>2</v>
+      </c>
       <c r="AS812" s="11"/>
       <c r="AT812" s="4"/>
       <c r="AU812" s="16"/>
@@ -33260,9 +33533,15 @@
       <c r="AM813" s="16"/>
       <c r="AO813" s="3"/>
       <c r="AP813" s="9"/>
-      <c r="AQ813" s="6"/>
-      <c r="AR813" s="12"/>
-      <c r="AS813" s="11"/>
+      <c r="AQ813" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR813" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS813" s="11">
+        <v>1</v>
+      </c>
       <c r="AT813" s="4"/>
       <c r="AU813" s="16"/>
     </row>
@@ -34794,27 +35073,45 @@
     </row>
     <row r="923" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG923" s="3"/>
-      <c r="AH923" s="9"/>
-      <c r="AI923" s="6"/>
-      <c r="AJ923" s="12"/>
-      <c r="AK923" s="11"/>
+      <c r="AH923" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI923" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ923" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK923" s="11">
+        <v>4</v>
+      </c>
       <c r="AL923" s="4"/>
       <c r="AM923" s="16"/>
     </row>
     <row r="924" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG924" s="3"/>
       <c r="AH924" s="9"/>
-      <c r="AI924" s="6"/>
-      <c r="AJ924" s="12"/>
-      <c r="AK924" s="11"/>
+      <c r="AI924" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ924" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK924" s="11">
+        <v>3</v>
+      </c>
       <c r="AL924" s="4"/>
       <c r="AM924" s="16"/>
     </row>
     <row r="925" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG925" s="3"/>
       <c r="AH925" s="9"/>
-      <c r="AI925" s="6"/>
-      <c r="AJ925" s="12"/>
+      <c r="AI925" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ925" s="12">
+        <v>3</v>
+      </c>
       <c r="AK925" s="11"/>
       <c r="AL925" s="4"/>
       <c r="AM925" s="16"/>
@@ -34822,8 +35119,12 @@
     <row r="926" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG926" s="3"/>
       <c r="AH926" s="9"/>
-      <c r="AI926" s="6"/>
-      <c r="AJ926" s="12"/>
+      <c r="AI926" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ926" s="12">
+        <v>4</v>
+      </c>
       <c r="AK926" s="11"/>
       <c r="AL926" s="4"/>
       <c r="AM926" s="16"/>
@@ -34831,11 +35132,267 @@
     <row r="927" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG927" s="3"/>
       <c r="AH927" s="9"/>
-      <c r="AI927" s="6"/>
-      <c r="AJ927" s="12"/>
+      <c r="AI927" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ927" s="12">
+        <v>3</v>
+      </c>
       <c r="AK927" s="11"/>
       <c r="AL927" s="4"/>
       <c r="AM927" s="16"/>
+    </row>
+    <row r="928" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG928" s="3"/>
+      <c r="AH928" s="9"/>
+      <c r="AI928" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ928" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK928" s="11"/>
+      <c r="AL928" s="4"/>
+      <c r="AM928" s="16"/>
+    </row>
+    <row r="929" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG929" s="3"/>
+      <c r="AH929" s="9"/>
+      <c r="AI929" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ929" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK929" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL929" s="4"/>
+      <c r="AM929" s="16"/>
+    </row>
+    <row r="930" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG930" s="3"/>
+      <c r="AH930" s="9"/>
+      <c r="AI930" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ930" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK930" s="11"/>
+      <c r="AL930" s="4"/>
+      <c r="AM930" s="16"/>
+    </row>
+    <row r="931" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG931" s="3"/>
+      <c r="AH931" s="9"/>
+      <c r="AI931" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ931" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK931" s="11"/>
+      <c r="AL931" s="4"/>
+      <c r="AM931" s="16"/>
+    </row>
+    <row r="932" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG932" s="3"/>
+      <c r="AH932" s="9"/>
+      <c r="AI932" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ932" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK932" s="11"/>
+      <c r="AL932" s="4"/>
+      <c r="AM932" s="16"/>
+    </row>
+    <row r="933" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG933" s="3"/>
+      <c r="AH933" s="9"/>
+      <c r="AI933" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ933" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK933" s="11"/>
+      <c r="AL933" s="4"/>
+      <c r="AM933" s="16"/>
+    </row>
+    <row r="934" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG934" s="3"/>
+      <c r="AH934" s="9"/>
+      <c r="AI934" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ934" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK934" s="11"/>
+      <c r="AL934" s="4"/>
+      <c r="AM934" s="16"/>
+    </row>
+    <row r="935" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG935" s="3"/>
+      <c r="AH935" s="9"/>
+      <c r="AI935" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ935" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK935" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL935" s="4"/>
+      <c r="AM935" s="16"/>
+    </row>
+    <row r="936" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG936" s="3"/>
+      <c r="AH936" s="9"/>
+      <c r="AI936" s="6"/>
+      <c r="AJ936" s="12"/>
+      <c r="AK936" s="11"/>
+      <c r="AL936" s="4"/>
+      <c r="AM936" s="16"/>
+    </row>
+    <row r="937" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG937" s="3"/>
+      <c r="AH937" s="9"/>
+      <c r="AI937" s="6"/>
+      <c r="AJ937" s="12"/>
+      <c r="AK937" s="11"/>
+      <c r="AL937" s="4"/>
+      <c r="AM937" s="16"/>
+    </row>
+    <row r="938" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG938" s="3"/>
+      <c r="AH938" s="9"/>
+      <c r="AI938" s="6"/>
+      <c r="AJ938" s="12"/>
+      <c r="AK938" s="11"/>
+      <c r="AL938" s="4"/>
+      <c r="AM938" s="16"/>
+    </row>
+    <row r="939" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG939" s="3"/>
+      <c r="AH939" s="9"/>
+      <c r="AI939" s="6"/>
+      <c r="AJ939" s="12"/>
+      <c r="AK939" s="11"/>
+      <c r="AL939" s="4"/>
+      <c r="AM939" s="16"/>
+    </row>
+    <row r="940" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG940" s="3"/>
+      <c r="AH940" s="9"/>
+      <c r="AI940" s="6"/>
+      <c r="AJ940" s="12"/>
+      <c r="AK940" s="11"/>
+      <c r="AL940" s="4"/>
+      <c r="AM940" s="16"/>
+    </row>
+    <row r="941" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG941" s="3"/>
+      <c r="AH941" s="9"/>
+      <c r="AI941" s="6"/>
+      <c r="AJ941" s="12"/>
+      <c r="AK941" s="11"/>
+      <c r="AL941" s="4"/>
+      <c r="AM941" s="16"/>
+    </row>
+    <row r="942" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG942" s="3"/>
+      <c r="AH942" s="9"/>
+      <c r="AI942" s="6"/>
+      <c r="AJ942" s="12"/>
+      <c r="AK942" s="11"/>
+      <c r="AL942" s="4"/>
+      <c r="AM942" s="16"/>
+    </row>
+    <row r="943" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG943" s="3"/>
+      <c r="AH943" s="9"/>
+      <c r="AI943" s="6"/>
+      <c r="AJ943" s="12"/>
+      <c r="AK943" s="11"/>
+      <c r="AL943" s="4"/>
+      <c r="AM943" s="16"/>
+    </row>
+    <row r="944" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG944" s="3"/>
+      <c r="AH944" s="9"/>
+      <c r="AI944" s="6"/>
+      <c r="AJ944" s="12"/>
+      <c r="AK944" s="11"/>
+      <c r="AL944" s="4"/>
+      <c r="AM944" s="16"/>
+    </row>
+    <row r="945" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG945" s="3"/>
+      <c r="AH945" s="9"/>
+      <c r="AI945" s="6"/>
+      <c r="AJ945" s="12"/>
+      <c r="AK945" s="11"/>
+      <c r="AL945" s="4"/>
+      <c r="AM945" s="16"/>
+    </row>
+    <row r="946" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG946" s="3"/>
+      <c r="AH946" s="9"/>
+      <c r="AI946" s="6"/>
+      <c r="AJ946" s="12"/>
+      <c r="AK946" s="11"/>
+      <c r="AL946" s="4"/>
+      <c r="AM946" s="16"/>
+    </row>
+    <row r="947" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG947" s="3"/>
+      <c r="AH947" s="9"/>
+      <c r="AI947" s="6"/>
+      <c r="AJ947" s="12"/>
+      <c r="AK947" s="11"/>
+      <c r="AL947" s="4"/>
+      <c r="AM947" s="16"/>
+    </row>
+    <row r="948" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG948" s="3"/>
+      <c r="AH948" s="9"/>
+      <c r="AI948" s="6"/>
+      <c r="AJ948" s="12"/>
+      <c r="AK948" s="11"/>
+      <c r="AL948" s="4"/>
+      <c r="AM948" s="16"/>
+    </row>
+    <row r="949" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG949" s="3"/>
+      <c r="AH949" s="9"/>
+      <c r="AI949" s="6"/>
+      <c r="AJ949" s="12"/>
+      <c r="AK949" s="11"/>
+      <c r="AL949" s="4"/>
+      <c r="AM949" s="16"/>
+    </row>
+    <row r="950" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG950" s="3"/>
+      <c r="AH950" s="9"/>
+      <c r="AI950" s="6"/>
+      <c r="AJ950" s="12"/>
+      <c r="AK950" s="11"/>
+      <c r="AL950" s="4"/>
+      <c r="AM950" s="16"/>
+    </row>
+    <row r="951" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG951" s="3"/>
+      <c r="AH951" s="9"/>
+      <c r="AI951" s="6"/>
+      <c r="AJ951" s="12"/>
+      <c r="AK951" s="11"/>
+      <c r="AL951" s="4"/>
+      <c r="AM951" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Classique_Classes.xlsx
+++ b/Classique_Classes.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micfe484\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Luxembourgish_Lycee_Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA5F4D-BDAC-42B6-BBD6-C184D42B5095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0421D8CB-E5B8-4AE2-9686-1F64D4DD7F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
+    <workbookView xWindow="14115" yWindow="3495" windowWidth="21420" windowHeight="15345" tabRatio="472" xr2:uid="{DFD64247-1823-45F4-897D-AB72D3FAEA81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="307">
   <si>
     <t>ClassNames</t>
   </si>
@@ -896,6 +907,57 @@
   <si>
     <t>1CD-4LANG</t>
   </si>
+  <si>
+    <t>1CE-4LANG</t>
+  </si>
+  <si>
+    <t>2CE-4LANG</t>
+  </si>
+  <si>
+    <t>3CE-4LANG</t>
+  </si>
+  <si>
+    <t>3CE-MATF</t>
+  </si>
+  <si>
+    <t>2CE-MATF</t>
+  </si>
+  <si>
+    <t>1CE-MATF</t>
+  </si>
+  <si>
+    <t>1CG-4LANG</t>
+  </si>
+  <si>
+    <t>2CG-4LANG</t>
+  </si>
+  <si>
+    <t>3CG-4LANG</t>
+  </si>
+  <si>
+    <t>3CA-LLO</t>
+  </si>
+  <si>
+    <t>Pratique</t>
+  </si>
+  <si>
+    <t>Littérature</t>
+  </si>
+  <si>
+    <t>3CLA-LLCO</t>
+  </si>
+  <si>
+    <t>2CA-LLCO</t>
+  </si>
+  <si>
+    <t>2CLA-LLCO</t>
+  </si>
+  <si>
+    <t>1CA-LLO</t>
+  </si>
+  <si>
+    <t>1CLA-LLCO</t>
+  </si>
 </sst>
 </file>
 
@@ -1029,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1052,10 +1114,9 @@
     <xf numFmtId="12" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1071,7 +1132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1367,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213A052-AA42-4428-B7C5-4C89496A011C}">
-  <dimension ref="A1:BC951"/>
+  <dimension ref="A1:BC1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV572" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="BA584" sqref="BA584"/>
+    <sheetView tabSelected="1" topLeftCell="AO631" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="AP653" sqref="AP653"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
@@ -3107,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="AU20" s="16">
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW20" s="3"/>
       <c r="AX20" s="9"/>
@@ -3193,7 +3254,7 @@
         <v>72</v>
       </c>
       <c r="AU21" s="16">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="9"/>
@@ -4005,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="AU31" s="16">
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW31" s="3"/>
       <c r="AX31" s="9"/>
@@ -4081,7 +4142,7 @@
         <v>72</v>
       </c>
       <c r="AU32" s="16">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AW32" s="3"/>
       <c r="AX32" s="9"/>
@@ -24856,7 +24917,7 @@
       <c r="AQ516" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AR516" s="22">
+      <c r="AR516" s="12">
         <v>2.5</v>
       </c>
       <c r="AS516" s="11"/>
@@ -28015,13 +28076,27 @@
       <c r="AS601" s="11"/>
       <c r="AT601" s="4"/>
       <c r="AU601" s="16"/>
-      <c r="AW601" s="3"/>
-      <c r="AX601" s="9"/>
-      <c r="AY601" s="6"/>
-      <c r="AZ601" s="12"/>
-      <c r="BA601" s="11"/>
-      <c r="BB601" s="4"/>
-      <c r="BC601" s="16"/>
+      <c r="AW601" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX601" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY601" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ601" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA601" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB601" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC601" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="602" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG602" s="3"/>
@@ -28051,8 +28126,12 @@
       <c r="AY602" s="6"/>
       <c r="AZ602" s="12"/>
       <c r="BA602" s="11"/>
-      <c r="BB602" s="4"/>
-      <c r="BC602" s="16"/>
+      <c r="BB602" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC602" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="603" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG603" s="3"/>
@@ -28081,11 +28160,21 @@
       <c r="AU603" s="16"/>
       <c r="AW603" s="3"/>
       <c r="AX603" s="9"/>
-      <c r="AY603" s="6"/>
-      <c r="AZ603" s="12"/>
-      <c r="BA603" s="11"/>
-      <c r="BB603" s="4"/>
-      <c r="BC603" s="16"/>
+      <c r="AY603" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ603" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA603" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB603" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC603" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="604" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG604" s="3"/>
@@ -28115,8 +28204,12 @@
       <c r="AY604" s="6"/>
       <c r="AZ604" s="12"/>
       <c r="BA604" s="11"/>
-      <c r="BB604" s="4"/>
-      <c r="BC604" s="16"/>
+      <c r="BB604" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC604" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="605" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG605" s="3"/>
@@ -28143,9 +28236,15 @@
       <c r="AU605" s="16"/>
       <c r="AW605" s="3"/>
       <c r="AX605" s="9"/>
-      <c r="AY605" s="6"/>
-      <c r="AZ605" s="12"/>
-      <c r="BA605" s="11"/>
+      <c r="AY605" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ605" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA605" s="11">
+        <v>3</v>
+      </c>
       <c r="BB605" s="4"/>
       <c r="BC605" s="16"/>
     </row>
@@ -28176,8 +28275,12 @@
       <c r="AU606" s="16"/>
       <c r="AW606" s="3"/>
       <c r="AX606" s="9"/>
-      <c r="AY606" s="6"/>
-      <c r="AZ606" s="12"/>
+      <c r="AY606" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ606" s="12">
+        <v>3</v>
+      </c>
       <c r="BA606" s="11"/>
       <c r="BB606" s="4"/>
       <c r="BC606" s="16"/>
@@ -28203,8 +28306,12 @@
       <c r="AU607" s="16"/>
       <c r="AW607" s="3"/>
       <c r="AX607" s="9"/>
-      <c r="AY607" s="6"/>
-      <c r="AZ607" s="12"/>
+      <c r="AY607" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ607" s="12">
+        <v>3</v>
+      </c>
       <c r="BA607" s="11"/>
       <c r="BB607" s="4"/>
       <c r="BC607" s="16"/>
@@ -28244,8 +28351,12 @@
       <c r="AU608" s="16"/>
       <c r="AW608" s="3"/>
       <c r="AX608" s="9"/>
-      <c r="AY608" s="6"/>
-      <c r="AZ608" s="12"/>
+      <c r="AY608" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ608" s="12">
+        <v>3</v>
+      </c>
       <c r="BA608" s="11"/>
       <c r="BB608" s="4"/>
       <c r="BC608" s="16"/>
@@ -28271,8 +28382,12 @@
       <c r="AU609" s="16"/>
       <c r="AW609" s="3"/>
       <c r="AX609" s="9"/>
-      <c r="AY609" s="6"/>
-      <c r="AZ609" s="12"/>
+      <c r="AY609" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ609" s="12">
+        <v>3</v>
+      </c>
       <c r="BA609" s="11"/>
       <c r="BB609" s="4"/>
       <c r="BC609" s="16"/>
@@ -28312,9 +28427,15 @@
       </c>
       <c r="AW610" s="3"/>
       <c r="AX610" s="9"/>
-      <c r="AY610" s="6"/>
-      <c r="AZ610" s="12"/>
-      <c r="BA610" s="11"/>
+      <c r="AY610" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ610" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA610" s="11">
+        <v>2</v>
+      </c>
       <c r="BB610" s="4"/>
       <c r="BC610" s="16"/>
     </row>
@@ -28345,8 +28466,12 @@
       </c>
       <c r="AW611" s="3"/>
       <c r="AX611" s="9"/>
-      <c r="AY611" s="6"/>
-      <c r="AZ611" s="12"/>
+      <c r="AY611" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ611" s="12">
+        <v>3</v>
+      </c>
       <c r="BA611" s="11"/>
       <c r="BB611" s="4"/>
       <c r="BC611" s="16"/>
@@ -28382,8 +28507,12 @@
       </c>
       <c r="AW612" s="3"/>
       <c r="AX612" s="9"/>
-      <c r="AY612" s="6"/>
-      <c r="AZ612" s="12"/>
+      <c r="AY612" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ612" s="12">
+        <v>2</v>
+      </c>
       <c r="BA612" s="11"/>
       <c r="BB612" s="4"/>
       <c r="BC612" s="16"/>
@@ -28413,8 +28542,12 @@
       </c>
       <c r="AW613" s="3"/>
       <c r="AX613" s="9"/>
-      <c r="AY613" s="6"/>
-      <c r="AZ613" s="12"/>
+      <c r="AY613" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ613" s="12">
+        <v>2</v>
+      </c>
       <c r="BA613" s="11"/>
       <c r="BB613" s="4"/>
       <c r="BC613" s="16"/>
@@ -28444,9 +28577,15 @@
       </c>
       <c r="AW614" s="3"/>
       <c r="AX614" s="9"/>
-      <c r="AY614" s="6"/>
-      <c r="AZ614" s="12"/>
-      <c r="BA614" s="11"/>
+      <c r="AY614" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ614" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA614" s="11">
+        <v>1</v>
+      </c>
       <c r="BB614" s="4"/>
       <c r="BC614" s="16"/>
     </row>
@@ -28508,12 +28647,24 @@
       <c r="AS616" s="11"/>
       <c r="AT616" s="4"/>
       <c r="AU616" s="16"/>
-      <c r="AW616" s="3"/>
-      <c r="AX616" s="9"/>
-      <c r="AY616" s="6"/>
-      <c r="AZ616" s="12"/>
-      <c r="BA616" s="11"/>
-      <c r="BB616" s="4"/>
+      <c r="AW616" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX616" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY616" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ616" s="12">
+        <v>6</v>
+      </c>
+      <c r="BA616" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB616" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="BC616" s="16"/>
     </row>
     <row r="617" spans="33:55" x14ac:dyDescent="0.25">
@@ -28546,7 +28697,9 @@
       <c r="AY617" s="6"/>
       <c r="AZ617" s="12"/>
       <c r="BA617" s="11"/>
-      <c r="BB617" s="4"/>
+      <c r="BB617" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="BC617" s="16"/>
     </row>
     <row r="618" spans="33:55" x14ac:dyDescent="0.25">
@@ -28574,10 +28727,18 @@
       <c r="AU618" s="16"/>
       <c r="AW618" s="3"/>
       <c r="AX618" s="9"/>
-      <c r="AY618" s="6"/>
-      <c r="AZ618" s="12"/>
-      <c r="BA618" s="11"/>
-      <c r="BB618" s="4"/>
+      <c r="AY618" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ618" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA618" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB618" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="BC618" s="16"/>
     </row>
     <row r="619" spans="33:55" x14ac:dyDescent="0.25">
@@ -28610,7 +28771,9 @@
       <c r="AY619" s="6"/>
       <c r="AZ619" s="12"/>
       <c r="BA619" s="11"/>
-      <c r="BB619" s="4"/>
+      <c r="BB619" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="BC619" s="16"/>
     </row>
     <row r="620" spans="33:55" x14ac:dyDescent="0.25">
@@ -28636,6 +28799,17 @@
       <c r="AS620" s="11"/>
       <c r="AT620" s="4"/>
       <c r="AU620" s="16"/>
+      <c r="AW620" s="3"/>
+      <c r="AX620" s="9"/>
+      <c r="AY620" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ620" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA620" s="11"/>
+      <c r="BB620" s="4"/>
+      <c r="BC620" s="16"/>
     </row>
     <row r="621" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG621" s="3"/>
@@ -28660,6 +28834,17 @@
       <c r="AS621" s="11"/>
       <c r="AT621" s="4"/>
       <c r="AU621" s="16"/>
+      <c r="AW621" s="3"/>
+      <c r="AX621" s="9"/>
+      <c r="AY621" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ621" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA621" s="11"/>
+      <c r="BB621" s="4"/>
+      <c r="BC621" s="16"/>
     </row>
     <row r="622" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG622" s="3"/>
@@ -28684,6 +28869,17 @@
       <c r="AS622" s="11"/>
       <c r="AT622" s="4"/>
       <c r="AU622" s="16"/>
+      <c r="AW622" s="3"/>
+      <c r="AX622" s="9"/>
+      <c r="AY622" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ622" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA622" s="11"/>
+      <c r="BB622" s="4"/>
+      <c r="BC622" s="16"/>
     </row>
     <row r="623" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG623" s="3"/>
@@ -28710,6 +28906,17 @@
       <c r="AS623" s="11"/>
       <c r="AT623" s="4"/>
       <c r="AU623" s="16"/>
+      <c r="AW623" s="3"/>
+      <c r="AX623" s="9"/>
+      <c r="AY623" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ623" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA623" s="11"/>
+      <c r="BB623" s="4"/>
+      <c r="BC623" s="16"/>
     </row>
     <row r="624" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG624" s="3"/>
@@ -28730,8 +28937,21 @@
       <c r="AS624" s="11"/>
       <c r="AT624" s="4"/>
       <c r="AU624" s="16"/>
-    </row>
-    <row r="625" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW624" s="3"/>
+      <c r="AX624" s="9"/>
+      <c r="AY624" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ624" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA624" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB624" s="4"/>
+      <c r="BC624" s="16"/>
+    </row>
+    <row r="625" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG625" s="3"/>
       <c r="AH625" s="9" t="s">
         <v>204</v>
@@ -28762,8 +28982,19 @@
       <c r="AS625" s="11"/>
       <c r="AT625" s="4"/>
       <c r="AU625" s="16"/>
-    </row>
-    <row r="626" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW625" s="3"/>
+      <c r="AX625" s="9"/>
+      <c r="AY625" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ625" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA625" s="11"/>
+      <c r="BB625" s="4"/>
+      <c r="BC625" s="16"/>
+    </row>
+    <row r="626" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG626" s="3"/>
       <c r="AH626" s="9"/>
       <c r="AI626" s="6"/>
@@ -28788,8 +29019,19 @@
       </c>
       <c r="AT626" s="4"/>
       <c r="AU626" s="16"/>
-    </row>
-    <row r="627" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW626" s="3"/>
+      <c r="AX626" s="9"/>
+      <c r="AY626" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ626" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA626" s="11"/>
+      <c r="BB626" s="4"/>
+      <c r="BC626" s="16"/>
+    </row>
+    <row r="627" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG627" s="3"/>
       <c r="AH627" s="9"/>
       <c r="AI627" s="6"/>
@@ -28808,8 +29050,21 @@
       <c r="AS627" s="11"/>
       <c r="AT627" s="4"/>
       <c r="AU627" s="16"/>
-    </row>
-    <row r="628" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW627" s="3"/>
+      <c r="AX627" s="9"/>
+      <c r="AY627" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ627" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA627" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB627" s="4"/>
+      <c r="BC627" s="16"/>
+    </row>
+    <row r="628" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG628" s="3"/>
       <c r="AH628" s="9"/>
       <c r="AI628" s="6"/>
@@ -28842,8 +29097,15 @@
       <c r="AU628" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="629" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW628" s="3"/>
+      <c r="AX628" s="9"/>
+      <c r="AY628" s="6"/>
+      <c r="AZ628" s="12"/>
+      <c r="BA628" s="11"/>
+      <c r="BB628" s="4"/>
+      <c r="BC628" s="16"/>
+    </row>
+    <row r="629" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG629" s="3"/>
       <c r="AH629" s="9"/>
       <c r="AI629" s="6" t="s">
@@ -28868,8 +29130,25 @@
       <c r="AU629" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="630" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW629" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX629" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY629" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ629" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA629" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB629" s="4"/>
+      <c r="BC629" s="16"/>
+    </row>
+    <row r="630" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG630" s="3"/>
       <c r="AH630" s="9"/>
       <c r="AI630" s="6" t="s">
@@ -28898,8 +29177,21 @@
       <c r="AU630" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="631" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW630" s="3"/>
+      <c r="AX630" s="9"/>
+      <c r="AY630" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ630" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA630" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB630" s="4"/>
+      <c r="BC630" s="16"/>
+    </row>
+    <row r="631" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG631" s="3"/>
       <c r="AH631" s="9"/>
       <c r="AI631" s="6" t="s">
@@ -28922,8 +29214,19 @@
       <c r="AU631" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="632" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW631" s="3"/>
+      <c r="AX631" s="9"/>
+      <c r="AY631" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ631" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA631" s="11"/>
+      <c r="BB631" s="4"/>
+      <c r="BC631" s="16"/>
+    </row>
+    <row r="632" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG632" s="3"/>
       <c r="AH632" s="9"/>
       <c r="AI632" s="6" t="s">
@@ -28946,8 +29249,19 @@
       <c r="AS632" s="11"/>
       <c r="AT632" s="4"/>
       <c r="AU632" s="16"/>
-    </row>
-    <row r="633" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW632" s="3"/>
+      <c r="AX632" s="9"/>
+      <c r="AY632" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ632" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA632" s="11"/>
+      <c r="BB632" s="4"/>
+      <c r="BC632" s="16"/>
+    </row>
+    <row r="633" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG633" s="3"/>
       <c r="AH633" s="9"/>
       <c r="AI633" s="6" t="s">
@@ -28974,8 +29288,19 @@
       <c r="AS633" s="11"/>
       <c r="AT633" s="4"/>
       <c r="AU633" s="16"/>
-    </row>
-    <row r="634" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW633" s="3"/>
+      <c r="AX633" s="9"/>
+      <c r="AY633" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ633" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA633" s="11"/>
+      <c r="BB633" s="4"/>
+      <c r="BC633" s="16"/>
+    </row>
+    <row r="634" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG634" s="3"/>
       <c r="AH634" s="9"/>
       <c r="AI634" s="6"/>
@@ -28998,8 +29323,23 @@
       <c r="AS634" s="11"/>
       <c r="AT634" s="4"/>
       <c r="AU634" s="16"/>
-    </row>
-    <row r="635" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW634" s="3"/>
+      <c r="AX634" s="9"/>
+      <c r="AY634" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ634" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA634" s="11"/>
+      <c r="BB634" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC634" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="635" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG635" s="3"/>
       <c r="AH635" s="9"/>
       <c r="AI635" s="6" t="s">
@@ -29024,8 +29364,19 @@
       <c r="AS635" s="11"/>
       <c r="AT635" s="4"/>
       <c r="AU635" s="16"/>
-    </row>
-    <row r="636" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW635" s="3"/>
+      <c r="AX635" s="9"/>
+      <c r="AY635" s="6"/>
+      <c r="AZ635" s="12"/>
+      <c r="BA635" s="11"/>
+      <c r="BB635" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC635" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="636" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG636" s="3"/>
       <c r="AH636" s="9"/>
       <c r="AI636" s="6" t="s">
@@ -29050,8 +29401,21 @@
       </c>
       <c r="AT636" s="4"/>
       <c r="AU636" s="16"/>
-    </row>
-    <row r="637" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW636" s="3"/>
+      <c r="AX636" s="9"/>
+      <c r="AY636" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ636" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA636" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB636" s="4"/>
+      <c r="BC636" s="16"/>
+    </row>
+    <row r="637" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG637" s="3"/>
       <c r="AH637" s="9"/>
       <c r="AI637" s="6" t="s">
@@ -29074,8 +29438,19 @@
       <c r="AS637" s="11"/>
       <c r="AT637" s="4"/>
       <c r="AU637" s="16"/>
-    </row>
-    <row r="638" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW637" s="3"/>
+      <c r="AX637" s="9"/>
+      <c r="AY637" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ637" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA637" s="11"/>
+      <c r="BB637" s="4"/>
+      <c r="BC637" s="16"/>
+    </row>
+    <row r="638" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG638" s="3"/>
       <c r="AH638" s="9"/>
       <c r="AI638" s="6" t="s">
@@ -29098,8 +29473,19 @@
       <c r="AS638" s="11"/>
       <c r="AT638" s="4"/>
       <c r="AU638" s="16"/>
-    </row>
-    <row r="639" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW638" s="3"/>
+      <c r="AX638" s="9"/>
+      <c r="AY638" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ638" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA638" s="11"/>
+      <c r="BB638" s="4"/>
+      <c r="BC638" s="16"/>
+    </row>
+    <row r="639" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG639" s="3"/>
       <c r="AH639" s="9"/>
       <c r="AI639" s="6" t="s">
@@ -29122,8 +29508,19 @@
       <c r="AS639" s="11"/>
       <c r="AT639" s="4"/>
       <c r="AU639" s="16"/>
-    </row>
-    <row r="640" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW639" s="3"/>
+      <c r="AX639" s="9"/>
+      <c r="AY639" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ639" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA639" s="11"/>
+      <c r="BB639" s="4"/>
+      <c r="BC639" s="16"/>
+    </row>
+    <row r="640" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG640" s="3"/>
       <c r="AH640" s="9"/>
       <c r="AI640" s="6" t="s">
@@ -29146,8 +29543,19 @@
       <c r="AS640" s="11"/>
       <c r="AT640" s="4"/>
       <c r="AU640" s="16"/>
-    </row>
-    <row r="641" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW640" s="3"/>
+      <c r="AX640" s="9"/>
+      <c r="AY640" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ640" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA640" s="11"/>
+      <c r="BB640" s="4"/>
+      <c r="BC640" s="16"/>
+    </row>
+    <row r="641" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG641" s="3"/>
       <c r="AH641" s="9"/>
       <c r="AI641" s="6" t="s">
@@ -29170,8 +29578,21 @@
       <c r="AS641" s="11"/>
       <c r="AT641" s="4"/>
       <c r="AU641" s="16"/>
-    </row>
-    <row r="642" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW641" s="3"/>
+      <c r="AX641" s="9"/>
+      <c r="AY641" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ641" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA641" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB641" s="4"/>
+      <c r="BC641" s="16"/>
+    </row>
+    <row r="642" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG642" s="3"/>
       <c r="AH642" s="9"/>
       <c r="AI642" s="6" t="s">
@@ -29196,8 +29617,15 @@
       <c r="AS642" s="11"/>
       <c r="AT642" s="4"/>
       <c r="AU642" s="16"/>
-    </row>
-    <row r="643" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW642" s="3"/>
+      <c r="AX642" s="9"/>
+      <c r="AY642" s="6"/>
+      <c r="AZ642" s="12"/>
+      <c r="BA642" s="11"/>
+      <c r="BB642" s="4"/>
+      <c r="BC642" s="16"/>
+    </row>
+    <row r="643" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG643" s="3"/>
       <c r="AH643" s="9"/>
       <c r="AI643" s="6"/>
@@ -29218,8 +29646,23 @@
       </c>
       <c r="AT643" s="4"/>
       <c r="AU643" s="16"/>
-    </row>
-    <row r="644" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW643" s="3"/>
+      <c r="AX643" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY643" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ643" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA643" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB643" s="4"/>
+      <c r="BC643" s="16"/>
+    </row>
+    <row r="644" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG644" s="3"/>
       <c r="AH644" s="9" t="s">
         <v>206</v>
@@ -29242,8 +29685,19 @@
       <c r="AS644" s="11"/>
       <c r="AT644" s="4"/>
       <c r="AU644" s="16"/>
-    </row>
-    <row r="645" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW644" s="3"/>
+      <c r="AX644" s="9"/>
+      <c r="AY644" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ644" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA644" s="11"/>
+      <c r="BB644" s="4"/>
+      <c r="BC644" s="16"/>
+    </row>
+    <row r="645" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG645" s="3"/>
       <c r="AH645" s="9"/>
       <c r="AI645" s="6" t="s">
@@ -29274,8 +29728,21 @@
       </c>
       <c r="AT645" s="4"/>
       <c r="AU645" s="16"/>
-    </row>
-    <row r="646" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW645" s="3"/>
+      <c r="AX645" s="9"/>
+      <c r="AY645" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ645" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA645" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB645" s="4"/>
+      <c r="BC645" s="16"/>
+    </row>
+    <row r="646" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG646" s="3"/>
       <c r="AH646" s="9"/>
       <c r="AI646" s="6" t="s">
@@ -29300,8 +29767,19 @@
       </c>
       <c r="AT646" s="4"/>
       <c r="AU646" s="16"/>
-    </row>
-    <row r="647" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW646" s="3"/>
+      <c r="AX646" s="9"/>
+      <c r="AY646" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ646" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA646" s="11"/>
+      <c r="BB646" s="4"/>
+      <c r="BC646" s="16"/>
+    </row>
+    <row r="647" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG647" s="3"/>
       <c r="AH647" s="9"/>
       <c r="AI647" s="6" t="s">
@@ -29324,8 +29802,23 @@
       <c r="AS647" s="11"/>
       <c r="AT647" s="4"/>
       <c r="AU647" s="16"/>
-    </row>
-    <row r="648" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW647" s="3"/>
+      <c r="AX647" s="9"/>
+      <c r="AY647" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ647" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA647" s="11"/>
+      <c r="BB647" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC647" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="648" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG648" s="3"/>
       <c r="AH648" s="9"/>
       <c r="AI648" s="6" t="s">
@@ -29348,8 +29841,19 @@
       <c r="AS648" s="11"/>
       <c r="AT648" s="4"/>
       <c r="AU648" s="16"/>
-    </row>
-    <row r="649" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW648" s="3"/>
+      <c r="AX648" s="9"/>
+      <c r="AY648" s="6"/>
+      <c r="AZ648" s="12"/>
+      <c r="BA648" s="11"/>
+      <c r="BB648" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC648" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="649" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG649" s="3"/>
       <c r="AH649" s="9"/>
       <c r="AI649" s="6" t="s">
@@ -29376,8 +29880,19 @@
       <c r="AS649" s="11"/>
       <c r="AT649" s="4"/>
       <c r="AU649" s="16"/>
-    </row>
-    <row r="650" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW649" s="3"/>
+      <c r="AX649" s="9"/>
+      <c r="AY649" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ649" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA649" s="11"/>
+      <c r="BB649" s="4"/>
+      <c r="BC649" s="16"/>
+    </row>
+    <row r="650" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG650" s="3"/>
       <c r="AH650" s="9"/>
       <c r="AI650" s="6"/>
@@ -29402,8 +29917,21 @@
       </c>
       <c r="AT650" s="4"/>
       <c r="AU650" s="16"/>
-    </row>
-    <row r="651" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW650" s="3"/>
+      <c r="AX650" s="9"/>
+      <c r="AY650" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ650" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA650" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB650" s="4"/>
+      <c r="BC650" s="16"/>
+    </row>
+    <row r="651" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG651" s="3"/>
       <c r="AH651" s="9"/>
       <c r="AI651" s="6" t="s">
@@ -29428,8 +29956,19 @@
       <c r="AS651" s="11"/>
       <c r="AT651" s="4"/>
       <c r="AU651" s="16"/>
-    </row>
-    <row r="652" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW651" s="3"/>
+      <c r="AX651" s="9"/>
+      <c r="AY651" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ651" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA651" s="11"/>
+      <c r="BB651" s="4"/>
+      <c r="BC651" s="16"/>
+    </row>
+    <row r="652" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG652" s="3"/>
       <c r="AH652" s="9"/>
       <c r="AI652" s="6" t="s">
@@ -29452,8 +29991,19 @@
       <c r="AS652" s="11"/>
       <c r="AT652" s="4"/>
       <c r="AU652" s="16"/>
-    </row>
-    <row r="653" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW652" s="3"/>
+      <c r="AX652" s="9"/>
+      <c r="AY652" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ652" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA652" s="11"/>
+      <c r="BB652" s="4"/>
+      <c r="BC652" s="16"/>
+    </row>
+    <row r="653" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG653" s="3"/>
       <c r="AH653" s="9"/>
       <c r="AI653" s="6" t="s">
@@ -29480,8 +30030,21 @@
       <c r="AS653" s="11"/>
       <c r="AT653" s="4"/>
       <c r="AU653" s="16"/>
-    </row>
-    <row r="654" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW653" s="3"/>
+      <c r="AX653" s="9"/>
+      <c r="AY653" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ653" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA653" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB653" s="4"/>
+      <c r="BC653" s="16"/>
+    </row>
+    <row r="654" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG654" s="3"/>
       <c r="AH654" s="9"/>
       <c r="AI654" s="6"/>
@@ -29504,8 +30067,15 @@
       <c r="AS654" s="11"/>
       <c r="AT654" s="4"/>
       <c r="AU654" s="16"/>
-    </row>
-    <row r="655" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW654" s="3"/>
+      <c r="AX654" s="9"/>
+      <c r="AY654" s="6"/>
+      <c r="AZ654" s="12"/>
+      <c r="BA654" s="11"/>
+      <c r="BB654" s="4"/>
+      <c r="BC654" s="16"/>
+    </row>
+    <row r="655" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG655" s="3"/>
       <c r="AH655" s="9"/>
       <c r="AI655" s="6" t="s">
@@ -29528,8 +30098,23 @@
       <c r="AS655" s="11"/>
       <c r="AT655" s="4"/>
       <c r="AU655" s="16"/>
-    </row>
-    <row r="656" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW655" s="3"/>
+      <c r="AX655" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AY655" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ655" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA655" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB655" s="4"/>
+      <c r="BC655" s="16"/>
+    </row>
+    <row r="656" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG656" s="3"/>
       <c r="AH656" s="9"/>
       <c r="AI656" s="6" t="s">
@@ -29552,8 +30137,19 @@
       <c r="AS656" s="11"/>
       <c r="AT656" s="4"/>
       <c r="AU656" s="16"/>
-    </row>
-    <row r="657" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW656" s="3"/>
+      <c r="AX656" s="9"/>
+      <c r="AY656" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ656" s="12">
+        <v>5</v>
+      </c>
+      <c r="BA656" s="11"/>
+      <c r="BB656" s="4"/>
+      <c r="BC656" s="16"/>
+    </row>
+    <row r="657" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG657" s="3"/>
       <c r="AH657" s="9"/>
       <c r="AI657" s="6" t="s">
@@ -29576,8 +30172,21 @@
       <c r="AS657" s="11"/>
       <c r="AT657" s="4"/>
       <c r="AU657" s="16"/>
-    </row>
-    <row r="658" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW657" s="3"/>
+      <c r="AX657" s="9"/>
+      <c r="AY657" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ657" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA657" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB657" s="4"/>
+      <c r="BC657" s="16"/>
+    </row>
+    <row r="658" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG658" s="3"/>
       <c r="AH658" s="9"/>
       <c r="AI658" s="6" t="s">
@@ -29600,8 +30209,19 @@
       <c r="AS658" s="11"/>
       <c r="AT658" s="4"/>
       <c r="AU658" s="16"/>
-    </row>
-    <row r="659" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW658" s="3"/>
+      <c r="AX658" s="9"/>
+      <c r="AY658" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ658" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA658" s="11"/>
+      <c r="BB658" s="4"/>
+      <c r="BC658" s="16"/>
+    </row>
+    <row r="659" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG659" s="3"/>
       <c r="AH659" s="9"/>
       <c r="AI659" s="6" t="s">
@@ -29628,8 +30248,19 @@
       </c>
       <c r="AT659" s="4"/>
       <c r="AU659" s="16"/>
-    </row>
-    <row r="660" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW659" s="3"/>
+      <c r="AX659" s="9"/>
+      <c r="AY659" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ659" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA659" s="11"/>
+      <c r="BB659" s="4"/>
+      <c r="BC659" s="16"/>
+    </row>
+    <row r="660" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG660" s="3"/>
       <c r="AH660" s="9"/>
       <c r="AI660" s="6"/>
@@ -29644,8 +30275,23 @@
       <c r="AS660" s="11"/>
       <c r="AT660" s="4"/>
       <c r="AU660" s="16"/>
-    </row>
-    <row r="661" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW660" s="3"/>
+      <c r="AX660" s="9"/>
+      <c r="AY660" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ660" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA660" s="11"/>
+      <c r="BB660" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC660" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="661" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG661" s="3"/>
       <c r="AH661" s="9" t="s">
         <v>207</v>
@@ -29676,8 +30322,19 @@
       </c>
       <c r="AT661" s="4"/>
       <c r="AU661" s="16"/>
-    </row>
-    <row r="662" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW661" s="3"/>
+      <c r="AX661" s="9"/>
+      <c r="AY661" s="6"/>
+      <c r="AZ661" s="12"/>
+      <c r="BA661" s="11"/>
+      <c r="BB661" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC661" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="662" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG662" s="3"/>
       <c r="AH662" s="9"/>
       <c r="AI662" s="6" t="s">
@@ -29700,8 +30357,19 @@
       <c r="AS662" s="11"/>
       <c r="AT662" s="4"/>
       <c r="AU662" s="16"/>
-    </row>
-    <row r="663" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW662" s="3"/>
+      <c r="AX662" s="9"/>
+      <c r="AY662" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ662" s="12">
+        <v>3</v>
+      </c>
+      <c r="BA662" s="11"/>
+      <c r="BB662" s="4"/>
+      <c r="BC662" s="16"/>
+    </row>
+    <row r="663" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG663" s="3"/>
       <c r="AH663" s="9"/>
       <c r="AI663" s="6" t="s">
@@ -29724,8 +30392,21 @@
       <c r="AS663" s="11"/>
       <c r="AT663" s="4"/>
       <c r="AU663" s="16"/>
-    </row>
-    <row r="664" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW663" s="3"/>
+      <c r="AX663" s="9"/>
+      <c r="AY663" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ663" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA663" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB663" s="4"/>
+      <c r="BC663" s="16"/>
+    </row>
+    <row r="664" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG664" s="3"/>
       <c r="AH664" s="9"/>
       <c r="AI664" s="6" t="s">
@@ -29752,8 +30433,19 @@
       </c>
       <c r="AT664" s="4"/>
       <c r="AU664" s="16"/>
-    </row>
-    <row r="665" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW664" s="3"/>
+      <c r="AX664" s="9"/>
+      <c r="AY664" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ664" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA664" s="11"/>
+      <c r="BB664" s="4"/>
+      <c r="BC664" s="16"/>
+    </row>
+    <row r="665" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG665" s="3"/>
       <c r="AH665" s="9"/>
       <c r="AI665" s="6" t="s">
@@ -29780,8 +30472,21 @@
       <c r="AU665" s="16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="666" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW665" s="3"/>
+      <c r="AX665" s="9"/>
+      <c r="AY665" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ665" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA665" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB665" s="4"/>
+      <c r="BC665" s="16"/>
+    </row>
+    <row r="666" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG666" s="3"/>
       <c r="AH666" s="9"/>
       <c r="AI666" s="6" t="s">
@@ -29808,8 +30513,15 @@
       <c r="AU666" s="16">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="667" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW666" s="3"/>
+      <c r="AX666" s="9"/>
+      <c r="AY666" s="6"/>
+      <c r="AZ666" s="12"/>
+      <c r="BA666" s="11"/>
+      <c r="BB666" s="4"/>
+      <c r="BC666" s="16"/>
+    </row>
+    <row r="667" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG667" s="3"/>
       <c r="AH667" s="9"/>
       <c r="AI667" s="6"/>
@@ -29834,8 +30546,15 @@
       </c>
       <c r="AT667" s="4"/>
       <c r="AU667" s="16"/>
-    </row>
-    <row r="668" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW667" s="3"/>
+      <c r="AX667" s="9"/>
+      <c r="AY667" s="6"/>
+      <c r="AZ667" s="12"/>
+      <c r="BA667" s="11"/>
+      <c r="BB667" s="4"/>
+      <c r="BC667" s="16"/>
+    </row>
+    <row r="668" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG668" s="3"/>
       <c r="AH668" s="9"/>
       <c r="AI668" s="6" t="s">
@@ -29860,8 +30579,15 @@
       <c r="AS668" s="11"/>
       <c r="AT668" s="4"/>
       <c r="AU668" s="16"/>
-    </row>
-    <row r="669" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW668" s="3"/>
+      <c r="AX668" s="9"/>
+      <c r="AY668" s="6"/>
+      <c r="AZ668" s="12"/>
+      <c r="BA668" s="11"/>
+      <c r="BB668" s="4"/>
+      <c r="BC668" s="16"/>
+    </row>
+    <row r="669" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG669" s="3"/>
       <c r="AH669" s="9"/>
       <c r="AI669" s="6" t="s">
@@ -29884,8 +30610,15 @@
       <c r="AS669" s="11"/>
       <c r="AT669" s="4"/>
       <c r="AU669" s="16"/>
-    </row>
-    <row r="670" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW669" s="3"/>
+      <c r="AX669" s="9"/>
+      <c r="AY669" s="6"/>
+      <c r="AZ669" s="12"/>
+      <c r="BA669" s="11"/>
+      <c r="BB669" s="4"/>
+      <c r="BC669" s="16"/>
+    </row>
+    <row r="670" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG670" s="3"/>
       <c r="AH670" s="9"/>
       <c r="AI670" s="6" t="s">
@@ -29912,8 +30645,15 @@
       <c r="AS670" s="11"/>
       <c r="AT670" s="4"/>
       <c r="AU670" s="16"/>
-    </row>
-    <row r="671" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW670" s="3"/>
+      <c r="AX670" s="9"/>
+      <c r="AY670" s="6"/>
+      <c r="AZ670" s="12"/>
+      <c r="BA670" s="11"/>
+      <c r="BB670" s="4"/>
+      <c r="BC670" s="16"/>
+    </row>
+    <row r="671" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG671" s="3"/>
       <c r="AH671" s="9"/>
       <c r="AI671" s="6"/>
@@ -29936,8 +30676,15 @@
       <c r="AS671" s="11"/>
       <c r="AT671" s="4"/>
       <c r="AU671" s="16"/>
-    </row>
-    <row r="672" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW671" s="3"/>
+      <c r="AX671" s="9"/>
+      <c r="AY671" s="6"/>
+      <c r="AZ671" s="12"/>
+      <c r="BA671" s="11"/>
+      <c r="BB671" s="4"/>
+      <c r="BC671" s="16"/>
+    </row>
+    <row r="672" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG672" s="3"/>
       <c r="AH672" s="9"/>
       <c r="AI672" s="6" t="s">
@@ -29962,8 +30709,15 @@
       </c>
       <c r="AT672" s="4"/>
       <c r="AU672" s="16"/>
-    </row>
-    <row r="673" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW672" s="3"/>
+      <c r="AX672" s="9"/>
+      <c r="AY672" s="6"/>
+      <c r="AZ672" s="12"/>
+      <c r="BA672" s="11"/>
+      <c r="BB672" s="4"/>
+      <c r="BC672" s="16"/>
+    </row>
+    <row r="673" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG673" s="3"/>
       <c r="AH673" s="9"/>
       <c r="AI673" s="6" t="s">
@@ -29982,8 +30736,15 @@
       <c r="AS673" s="11"/>
       <c r="AT673" s="4"/>
       <c r="AU673" s="16"/>
-    </row>
-    <row r="674" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW673" s="3"/>
+      <c r="AX673" s="9"/>
+      <c r="AY673" s="6"/>
+      <c r="AZ673" s="12"/>
+      <c r="BA673" s="11"/>
+      <c r="BB673" s="4"/>
+      <c r="BC673" s="16"/>
+    </row>
+    <row r="674" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG674" s="3"/>
       <c r="AH674" s="9"/>
       <c r="AI674" s="6" t="s">
@@ -30010,8 +30771,15 @@
       </c>
       <c r="AT674" s="4"/>
       <c r="AU674" s="16"/>
-    </row>
-    <row r="675" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW674" s="3"/>
+      <c r="AX674" s="9"/>
+      <c r="AY674" s="6"/>
+      <c r="AZ674" s="12"/>
+      <c r="BA674" s="11"/>
+      <c r="BB674" s="4"/>
+      <c r="BC674" s="16"/>
+    </row>
+    <row r="675" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG675" s="3"/>
       <c r="AH675" s="9"/>
       <c r="AI675" s="6" t="s">
@@ -30036,8 +30804,15 @@
       <c r="AS675" s="11"/>
       <c r="AT675" s="4"/>
       <c r="AU675" s="16"/>
-    </row>
-    <row r="676" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AW675" s="3"/>
+      <c r="AX675" s="9"/>
+      <c r="AY675" s="6"/>
+      <c r="AZ675" s="12"/>
+      <c r="BA675" s="11"/>
+      <c r="BB675" s="4"/>
+      <c r="BC675" s="16"/>
+    </row>
+    <row r="676" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG676" s="3"/>
       <c r="AH676" s="9"/>
       <c r="AI676" s="6"/>
@@ -30057,7 +30832,7 @@
       <c r="AT676" s="4"/>
       <c r="AU676" s="16"/>
     </row>
-    <row r="677" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="677" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG677" s="3"/>
       <c r="AH677" s="9" t="s">
         <v>208</v>
@@ -30087,7 +30862,7 @@
       <c r="AT677" s="4"/>
       <c r="AU677" s="16"/>
     </row>
-    <row r="678" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="678" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG678" s="3"/>
       <c r="AH678" s="9"/>
       <c r="AI678" s="6" t="s">
@@ -30113,7 +30888,7 @@
       <c r="AT678" s="4"/>
       <c r="AU678" s="16"/>
     </row>
-    <row r="679" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="679" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG679" s="3"/>
       <c r="AH679" s="9"/>
       <c r="AI679" s="6" t="s">
@@ -30141,7 +30916,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="680" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="680" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG680" s="3"/>
       <c r="AH680" s="9"/>
       <c r="AI680" s="6" t="s">
@@ -30165,7 +30940,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="681" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="681" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG681" s="3"/>
       <c r="AH681" s="9"/>
       <c r="AI681" s="6" t="s">
@@ -30191,7 +30966,7 @@
       <c r="AT681" s="4"/>
       <c r="AU681" s="16"/>
     </row>
-    <row r="682" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="682" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG682" s="3"/>
       <c r="AH682" s="9"/>
       <c r="AI682" s="6" t="s">
@@ -30219,7 +30994,7 @@
       <c r="AT682" s="4"/>
       <c r="AU682" s="16"/>
     </row>
-    <row r="683" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="683" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG683" s="3"/>
       <c r="AH683" s="9"/>
       <c r="AI683" s="6"/>
@@ -30243,7 +31018,7 @@
       <c r="AT683" s="4"/>
       <c r="AU683" s="16"/>
     </row>
-    <row r="684" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="684" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG684" s="3"/>
       <c r="AH684" s="9"/>
       <c r="AI684" s="6" t="s">
@@ -30267,7 +31042,7 @@
       <c r="AT684" s="4"/>
       <c r="AU684" s="16"/>
     </row>
-    <row r="685" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="685" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG685" s="3"/>
       <c r="AH685" s="9"/>
       <c r="AI685" s="6" t="s">
@@ -30293,7 +31068,7 @@
       <c r="AT685" s="4"/>
       <c r="AU685" s="16"/>
     </row>
-    <row r="686" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="686" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG686" s="3"/>
       <c r="AH686" s="9"/>
       <c r="AI686" s="6" t="s">
@@ -30315,7 +31090,7 @@
       <c r="AT686" s="4"/>
       <c r="AU686" s="16"/>
     </row>
-    <row r="687" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="687" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG687" s="3"/>
       <c r="AH687" s="9"/>
       <c r="AI687" s="6" t="s">
@@ -30343,7 +31118,7 @@
       <c r="AT687" s="4"/>
       <c r="AU687" s="16"/>
     </row>
-    <row r="688" spans="33:47" x14ac:dyDescent="0.25">
+    <row r="688" spans="33:55" x14ac:dyDescent="0.25">
       <c r="AG688" s="3"/>
       <c r="AH688" s="9"/>
       <c r="AI688" s="6" t="s">
@@ -33577,13 +34352,27 @@
       <c r="AK815" s="11"/>
       <c r="AL815" s="4"/>
       <c r="AM815" s="16"/>
-      <c r="AO815" s="3"/>
-      <c r="AP815" s="9"/>
-      <c r="AQ815" s="6"/>
-      <c r="AR815" s="12"/>
-      <c r="AS815" s="11"/>
-      <c r="AT815" s="4"/>
-      <c r="AU815" s="16"/>
+      <c r="AO815" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP815" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ815" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR815" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS815" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT815" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU815" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="816" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG816" s="3"/>
@@ -33602,8 +34391,12 @@
       <c r="AQ816" s="6"/>
       <c r="AR816" s="12"/>
       <c r="AS816" s="11"/>
-      <c r="AT816" s="4"/>
-      <c r="AU816" s="16"/>
+      <c r="AT816" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU816" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="817" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG817" s="3"/>
@@ -33621,11 +34414,21 @@
       <c r="AM817" s="16"/>
       <c r="AO817" s="3"/>
       <c r="AP817" s="9"/>
-      <c r="AQ817" s="6"/>
-      <c r="AR817" s="12"/>
-      <c r="AS817" s="11"/>
-      <c r="AT817" s="4"/>
-      <c r="AU817" s="16"/>
+      <c r="AQ817" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR817" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS817" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT817" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU817" s="16">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="818" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG818" s="3"/>
@@ -33640,8 +34443,12 @@
       <c r="AQ818" s="6"/>
       <c r="AR818" s="12"/>
       <c r="AS818" s="11"/>
-      <c r="AT818" s="4"/>
-      <c r="AU818" s="16"/>
+      <c r="AT818" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU818" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="819" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG819" s="3"/>
@@ -33664,8 +34471,12 @@
       <c r="AQ819" s="6"/>
       <c r="AR819" s="12"/>
       <c r="AS819" s="11"/>
-      <c r="AT819" s="4"/>
-      <c r="AU819" s="16"/>
+      <c r="AT819" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU819" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="820" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG820" s="3"/>
@@ -33681,8 +34492,12 @@
       <c r="AM820" s="16"/>
       <c r="AO820" s="3"/>
       <c r="AP820" s="9"/>
-      <c r="AQ820" s="6"/>
-      <c r="AR820" s="12"/>
+      <c r="AQ820" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR820" s="12">
+        <v>3</v>
+      </c>
       <c r="AS820" s="11"/>
       <c r="AT820" s="4"/>
       <c r="AU820" s="16"/>
@@ -33701,8 +34516,12 @@
       <c r="AM821" s="16"/>
       <c r="AO821" s="3"/>
       <c r="AP821" s="9"/>
-      <c r="AQ821" s="6"/>
-      <c r="AR821" s="12"/>
+      <c r="AQ821" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR821" s="12">
+        <v>3</v>
+      </c>
       <c r="AS821" s="11"/>
       <c r="AT821" s="4"/>
       <c r="AU821" s="16"/>
@@ -33721,8 +34540,12 @@
       <c r="AM822" s="16"/>
       <c r="AO822" s="3"/>
       <c r="AP822" s="9"/>
-      <c r="AQ822" s="6"/>
-      <c r="AR822" s="12"/>
+      <c r="AQ822" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR822" s="12">
+        <v>3</v>
+      </c>
       <c r="AS822" s="11"/>
       <c r="AT822" s="4"/>
       <c r="AU822" s="16"/>
@@ -33743,8 +34566,12 @@
       <c r="AM823" s="16"/>
       <c r="AO823" s="3"/>
       <c r="AP823" s="9"/>
-      <c r="AQ823" s="6"/>
-      <c r="AR823" s="12"/>
+      <c r="AQ823" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR823" s="12">
+        <v>3</v>
+      </c>
       <c r="AS823" s="11"/>
       <c r="AT823" s="4"/>
       <c r="AU823" s="16"/>
@@ -33765,11 +34592,19 @@
       <c r="AM824" s="16"/>
       <c r="AO824" s="3"/>
       <c r="AP824" s="9"/>
-      <c r="AQ824" s="6"/>
-      <c r="AR824" s="12"/>
+      <c r="AQ824" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR824" s="12">
+        <v>3</v>
+      </c>
       <c r="AS824" s="11"/>
-      <c r="AT824" s="4"/>
-      <c r="AU824" s="16"/>
+      <c r="AT824" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU824" s="16">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="825" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG825" s="3"/>
@@ -33783,6 +34618,17 @@
       <c r="AK825" s="11"/>
       <c r="AL825" s="4"/>
       <c r="AM825" s="16"/>
+      <c r="AO825" s="3"/>
+      <c r="AP825" s="9"/>
+      <c r="AQ825" s="6"/>
+      <c r="AR825" s="12"/>
+      <c r="AS825" s="11"/>
+      <c r="AT825" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU825" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="826" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG826" s="3"/>
@@ -33796,6 +34642,19 @@
       <c r="AK826" s="11"/>
       <c r="AL826" s="4"/>
       <c r="AM826" s="16"/>
+      <c r="AO826" s="3"/>
+      <c r="AP826" s="9"/>
+      <c r="AQ826" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR826" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS826" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT826" s="4"/>
+      <c r="AU826" s="16"/>
     </row>
     <row r="827" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG827" s="3"/>
@@ -33809,6 +34668,17 @@
       <c r="AK827" s="11"/>
       <c r="AL827" s="4"/>
       <c r="AM827" s="16"/>
+      <c r="AO827" s="3"/>
+      <c r="AP827" s="9"/>
+      <c r="AQ827" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR827" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS827" s="11"/>
+      <c r="AT827" s="4"/>
+      <c r="AU827" s="16"/>
     </row>
     <row r="828" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG828" s="3"/>
@@ -33822,6 +34692,17 @@
       <c r="AK828" s="11"/>
       <c r="AL828" s="4"/>
       <c r="AM828" s="16"/>
+      <c r="AO828" s="3"/>
+      <c r="AP828" s="9"/>
+      <c r="AQ828" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR828" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS828" s="11"/>
+      <c r="AT828" s="4"/>
+      <c r="AU828" s="16"/>
     </row>
     <row r="829" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG829" s="3"/>
@@ -33835,6 +34716,17 @@
       <c r="AK829" s="11"/>
       <c r="AL829" s="4"/>
       <c r="AM829" s="16"/>
+      <c r="AO829" s="3"/>
+      <c r="AP829" s="9"/>
+      <c r="AQ829" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR829" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS829" s="11"/>
+      <c r="AT829" s="4"/>
+      <c r="AU829" s="16"/>
     </row>
     <row r="830" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG830" s="3"/>
@@ -33848,6 +34740,17 @@
       <c r="AK830" s="11"/>
       <c r="AL830" s="4"/>
       <c r="AM830" s="16"/>
+      <c r="AO830" s="3"/>
+      <c r="AP830" s="9"/>
+      <c r="AQ830" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR830" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS830" s="11"/>
+      <c r="AT830" s="4"/>
+      <c r="AU830" s="16"/>
     </row>
     <row r="831" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG831" s="3"/>
@@ -33863,6 +34766,19 @@
       </c>
       <c r="AL831" s="4"/>
       <c r="AM831" s="16"/>
+      <c r="AO831" s="3"/>
+      <c r="AP831" s="9"/>
+      <c r="AQ831" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR831" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS831" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT831" s="4"/>
+      <c r="AU831" s="16"/>
     </row>
     <row r="832" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG832" s="3"/>
@@ -33872,8 +34788,15 @@
       <c r="AK832" s="11"/>
       <c r="AL832" s="4"/>
       <c r="AM832" s="16"/>
-    </row>
-    <row r="833" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO832" s="3"/>
+      <c r="AP832" s="9"/>
+      <c r="AQ832" s="6"/>
+      <c r="AR832" s="12"/>
+      <c r="AS832" s="11"/>
+      <c r="AT832" s="4"/>
+      <c r="AU832" s="16"/>
+    </row>
+    <row r="833" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG833" s="3"/>
       <c r="AH833" s="9" t="s">
         <v>264</v>
@@ -33889,8 +34812,27 @@
       </c>
       <c r="AL833" s="4"/>
       <c r="AM833" s="16"/>
-    </row>
-    <row r="834" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO833" s="3"/>
+      <c r="AP833" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ833" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR833" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS833" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT833" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU833" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="834" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG834" s="3"/>
       <c r="AH834" s="9"/>
       <c r="AI834" s="6" t="s">
@@ -33902,8 +34844,19 @@
       <c r="AK834" s="11"/>
       <c r="AL834" s="4"/>
       <c r="AM834" s="16"/>
-    </row>
-    <row r="835" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO834" s="3"/>
+      <c r="AP834" s="9"/>
+      <c r="AQ834" s="6"/>
+      <c r="AR834" s="12"/>
+      <c r="AS834" s="11"/>
+      <c r="AT834" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU834" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="835" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG835" s="3"/>
       <c r="AH835" s="9"/>
       <c r="AI835" s="6" t="s">
@@ -33915,8 +34868,25 @@
       <c r="AK835" s="11"/>
       <c r="AL835" s="4"/>
       <c r="AM835" s="16"/>
-    </row>
-    <row r="836" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO835" s="3"/>
+      <c r="AP835" s="9"/>
+      <c r="AQ835" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR835" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS835" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT835" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU835" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="836" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG836" s="3"/>
       <c r="AH836" s="9"/>
       <c r="AI836" s="6" t="s">
@@ -33928,8 +34898,19 @@
       <c r="AK836" s="11"/>
       <c r="AL836" s="4"/>
       <c r="AM836" s="16"/>
-    </row>
-    <row r="837" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO836" s="3"/>
+      <c r="AP836" s="9"/>
+      <c r="AQ836" s="6"/>
+      <c r="AR836" s="12"/>
+      <c r="AS836" s="11"/>
+      <c r="AT836" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU836" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="837" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG837" s="3"/>
       <c r="AH837" s="9"/>
       <c r="AI837" s="6" t="s">
@@ -33941,8 +34922,19 @@
       <c r="AK837" s="11"/>
       <c r="AL837" s="4"/>
       <c r="AM837" s="16"/>
-    </row>
-    <row r="838" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO837" s="3"/>
+      <c r="AP837" s="9"/>
+      <c r="AQ837" s="6"/>
+      <c r="AR837" s="12"/>
+      <c r="AS837" s="11"/>
+      <c r="AT837" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU837" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="838" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG838" s="3"/>
       <c r="AH838" s="9"/>
       <c r="AI838" s="6" t="s">
@@ -33956,8 +34948,19 @@
       </c>
       <c r="AL838" s="4"/>
       <c r="AM838" s="16"/>
-    </row>
-    <row r="839" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO838" s="3"/>
+      <c r="AP838" s="9"/>
+      <c r="AQ838" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR838" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS838" s="11"/>
+      <c r="AT838" s="4"/>
+      <c r="AU838" s="16"/>
+    </row>
+    <row r="839" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG839" s="3"/>
       <c r="AH839" s="9"/>
       <c r="AI839" s="6" t="s">
@@ -33969,8 +34972,19 @@
       <c r="AK839" s="11"/>
       <c r="AL839" s="4"/>
       <c r="AM839" s="16"/>
-    </row>
-    <row r="840" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO839" s="3"/>
+      <c r="AP839" s="9"/>
+      <c r="AQ839" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR839" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS839" s="11"/>
+      <c r="AT839" s="4"/>
+      <c r="AU839" s="16"/>
+    </row>
+    <row r="840" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG840" s="3"/>
       <c r="AH840" s="9"/>
       <c r="AI840" s="6" t="s">
@@ -33982,8 +34996,19 @@
       <c r="AK840" s="11"/>
       <c r="AL840" s="4"/>
       <c r="AM840" s="16"/>
-    </row>
-    <row r="841" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO840" s="3"/>
+      <c r="AP840" s="9"/>
+      <c r="AQ840" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR840" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS840" s="11"/>
+      <c r="AT840" s="4"/>
+      <c r="AU840" s="16"/>
+    </row>
+    <row r="841" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG841" s="3"/>
       <c r="AH841" s="9"/>
       <c r="AI841" s="6" t="s">
@@ -33995,8 +35020,23 @@
       <c r="AK841" s="11"/>
       <c r="AL841" s="4"/>
       <c r="AM841" s="16"/>
-    </row>
-    <row r="842" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO841" s="3"/>
+      <c r="AP841" s="9"/>
+      <c r="AQ841" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR841" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS841" s="11"/>
+      <c r="AT841" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU841" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="842" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG842" s="3"/>
       <c r="AH842" s="9"/>
       <c r="AI842" s="6" t="s">
@@ -34008,8 +35048,19 @@
       <c r="AK842" s="11"/>
       <c r="AL842" s="4"/>
       <c r="AM842" s="16"/>
-    </row>
-    <row r="843" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO842" s="3"/>
+      <c r="AP842" s="9"/>
+      <c r="AQ842" s="6"/>
+      <c r="AR842" s="12"/>
+      <c r="AS842" s="11"/>
+      <c r="AT842" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU842" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="843" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG843" s="3"/>
       <c r="AH843" s="9"/>
       <c r="AI843" s="6" t="s">
@@ -34021,8 +35072,21 @@
       <c r="AK843" s="11"/>
       <c r="AL843" s="4"/>
       <c r="AM843" s="16"/>
-    </row>
-    <row r="844" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO843" s="3"/>
+      <c r="AP843" s="9"/>
+      <c r="AQ843" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR843" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS843" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT843" s="4"/>
+      <c r="AU843" s="16"/>
+    </row>
+    <row r="844" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG844" s="3"/>
       <c r="AH844" s="9"/>
       <c r="AI844" s="6" t="s">
@@ -34034,8 +35098,19 @@
       <c r="AK844" s="11"/>
       <c r="AL844" s="4"/>
       <c r="AM844" s="16"/>
-    </row>
-    <row r="845" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO844" s="3"/>
+      <c r="AP844" s="9"/>
+      <c r="AQ844" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR844" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS844" s="11"/>
+      <c r="AT844" s="4"/>
+      <c r="AU844" s="16"/>
+    </row>
+    <row r="845" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG845" s="3"/>
       <c r="AH845" s="9"/>
       <c r="AI845" s="6" t="s">
@@ -34047,8 +35122,19 @@
       <c r="AK845" s="11"/>
       <c r="AL845" s="4"/>
       <c r="AM845" s="16"/>
-    </row>
-    <row r="846" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO845" s="3"/>
+      <c r="AP845" s="9"/>
+      <c r="AQ845" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR845" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS845" s="11"/>
+      <c r="AT845" s="4"/>
+      <c r="AU845" s="16"/>
+    </row>
+    <row r="846" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG846" s="3"/>
       <c r="AH846" s="9"/>
       <c r="AI846" s="6" t="s">
@@ -34060,8 +35146,19 @@
       <c r="AK846" s="11"/>
       <c r="AL846" s="4"/>
       <c r="AM846" s="16"/>
-    </row>
-    <row r="847" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO846" s="3"/>
+      <c r="AP846" s="9"/>
+      <c r="AQ846" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR846" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS846" s="11"/>
+      <c r="AT846" s="4"/>
+      <c r="AU846" s="16"/>
+    </row>
+    <row r="847" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG847" s="3"/>
       <c r="AH847" s="9"/>
       <c r="AI847" s="6" t="s">
@@ -34075,8 +35172,21 @@
       </c>
       <c r="AL847" s="4"/>
       <c r="AM847" s="16"/>
-    </row>
-    <row r="848" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO847" s="3"/>
+      <c r="AP847" s="9"/>
+      <c r="AQ847" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR847" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS847" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT847" s="4"/>
+      <c r="AU847" s="16"/>
+    </row>
+    <row r="848" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG848" s="3"/>
       <c r="AH848" s="9"/>
       <c r="AI848" s="6"/>
@@ -34084,8 +35194,15 @@
       <c r="AK848" s="11"/>
       <c r="AL848" s="4"/>
       <c r="AM848" s="16"/>
-    </row>
-    <row r="849" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO848" s="3"/>
+      <c r="AP848" s="9"/>
+      <c r="AQ848" s="6"/>
+      <c r="AR848" s="12"/>
+      <c r="AS848" s="11"/>
+      <c r="AT848" s="4"/>
+      <c r="AU848" s="16"/>
+    </row>
+    <row r="849" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG849" s="3"/>
       <c r="AH849" s="9" t="s">
         <v>269</v>
@@ -34101,8 +35218,25 @@
       </c>
       <c r="AL849" s="4"/>
       <c r="AM849" s="16"/>
-    </row>
-    <row r="850" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO849" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP849" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ849" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR849" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS849" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT849" s="4"/>
+      <c r="AU849" s="16"/>
+    </row>
+    <row r="850" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG850" s="3"/>
       <c r="AH850" s="9"/>
       <c r="AI850" s="6" t="s">
@@ -34114,8 +35248,21 @@
       <c r="AK850" s="11"/>
       <c r="AL850" s="4"/>
       <c r="AM850" s="16"/>
-    </row>
-    <row r="851" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO850" s="3"/>
+      <c r="AP850" s="9"/>
+      <c r="AQ850" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR850" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS850" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT850" s="4"/>
+      <c r="AU850" s="16"/>
+    </row>
+    <row r="851" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG851" s="3"/>
       <c r="AH851" s="9"/>
       <c r="AI851" s="6" t="s">
@@ -34127,8 +35274,19 @@
       <c r="AK851" s="11"/>
       <c r="AL851" s="4"/>
       <c r="AM851" s="16"/>
-    </row>
-    <row r="852" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO851" s="3"/>
+      <c r="AP851" s="9"/>
+      <c r="AQ851" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR851" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS851" s="11"/>
+      <c r="AT851" s="4"/>
+      <c r="AU851" s="16"/>
+    </row>
+    <row r="852" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG852" s="3"/>
       <c r="AH852" s="9"/>
       <c r="AI852" s="6" t="s">
@@ -34140,8 +35298,19 @@
       <c r="AK852" s="11"/>
       <c r="AL852" s="4"/>
       <c r="AM852" s="16"/>
-    </row>
-    <row r="853" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO852" s="3"/>
+      <c r="AP852" s="9"/>
+      <c r="AQ852" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR852" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS852" s="11"/>
+      <c r="AT852" s="4"/>
+      <c r="AU852" s="16"/>
+    </row>
+    <row r="853" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG853" s="3"/>
       <c r="AH853" s="9"/>
       <c r="AI853" s="6" t="s">
@@ -34153,8 +35322,19 @@
       <c r="AK853" s="11"/>
       <c r="AL853" s="4"/>
       <c r="AM853" s="16"/>
-    </row>
-    <row r="854" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO853" s="3"/>
+      <c r="AP853" s="9"/>
+      <c r="AQ853" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR853" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS853" s="11"/>
+      <c r="AT853" s="4"/>
+      <c r="AU853" s="16"/>
+    </row>
+    <row r="854" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG854" s="3"/>
       <c r="AH854" s="9"/>
       <c r="AI854" s="6" t="s">
@@ -34166,8 +35346,23 @@
       <c r="AK854" s="11"/>
       <c r="AL854" s="4"/>
       <c r="AM854" s="16"/>
-    </row>
-    <row r="855" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO854" s="3"/>
+      <c r="AP854" s="9"/>
+      <c r="AQ854" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR854" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS854" s="11"/>
+      <c r="AT854" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU854" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="855" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG855" s="3"/>
       <c r="AH855" s="9"/>
       <c r="AI855" s="6" t="s">
@@ -34181,8 +35376,19 @@
       </c>
       <c r="AL855" s="4"/>
       <c r="AM855" s="16"/>
-    </row>
-    <row r="856" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO855" s="3"/>
+      <c r="AP855" s="9"/>
+      <c r="AQ855" s="6"/>
+      <c r="AR855" s="12"/>
+      <c r="AS855" s="11"/>
+      <c r="AT855" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU855" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="856" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG856" s="3"/>
       <c r="AH856" s="9"/>
       <c r="AI856" s="6" t="s">
@@ -34194,8 +35400,21 @@
       <c r="AK856" s="11"/>
       <c r="AL856" s="4"/>
       <c r="AM856" s="16"/>
-    </row>
-    <row r="857" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO856" s="3"/>
+      <c r="AP856" s="9"/>
+      <c r="AQ856" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR856" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS856" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT856" s="4"/>
+      <c r="AU856" s="16"/>
+    </row>
+    <row r="857" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG857" s="3"/>
       <c r="AH857" s="9"/>
       <c r="AI857" s="6" t="s">
@@ -34207,8 +35426,19 @@
       <c r="AK857" s="11"/>
       <c r="AL857" s="4"/>
       <c r="AM857" s="16"/>
-    </row>
-    <row r="858" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO857" s="3"/>
+      <c r="AP857" s="9"/>
+      <c r="AQ857" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR857" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS857" s="11"/>
+      <c r="AT857" s="4"/>
+      <c r="AU857" s="16"/>
+    </row>
+    <row r="858" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG858" s="3"/>
       <c r="AH858" s="9"/>
       <c r="AI858" s="6" t="s">
@@ -34220,8 +35450,19 @@
       <c r="AK858" s="11"/>
       <c r="AL858" s="4"/>
       <c r="AM858" s="16"/>
-    </row>
-    <row r="859" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO858" s="3"/>
+      <c r="AP858" s="9"/>
+      <c r="AQ858" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR858" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS858" s="11"/>
+      <c r="AT858" s="4"/>
+      <c r="AU858" s="16"/>
+    </row>
+    <row r="859" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG859" s="3"/>
       <c r="AH859" s="9"/>
       <c r="AI859" s="6" t="s">
@@ -34233,8 +35474,19 @@
       <c r="AK859" s="11"/>
       <c r="AL859" s="4"/>
       <c r="AM859" s="16"/>
-    </row>
-    <row r="860" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO859" s="3"/>
+      <c r="AP859" s="9"/>
+      <c r="AQ859" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR859" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS859" s="11"/>
+      <c r="AT859" s="4"/>
+      <c r="AU859" s="16"/>
+    </row>
+    <row r="860" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG860" s="3"/>
       <c r="AH860" s="9"/>
       <c r="AI860" s="6" t="s">
@@ -34246,8 +35498,19 @@
       <c r="AK860" s="11"/>
       <c r="AL860" s="4"/>
       <c r="AM860" s="16"/>
-    </row>
-    <row r="861" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO860" s="3"/>
+      <c r="AP860" s="9"/>
+      <c r="AQ860" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR860" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS860" s="11"/>
+      <c r="AT860" s="4"/>
+      <c r="AU860" s="16"/>
+    </row>
+    <row r="861" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG861" s="3"/>
       <c r="AH861" s="9"/>
       <c r="AI861" s="6" t="s">
@@ -34259,8 +35522,19 @@
       <c r="AK861" s="11"/>
       <c r="AL861" s="4"/>
       <c r="AM861" s="16"/>
-    </row>
-    <row r="862" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO861" s="3"/>
+      <c r="AP861" s="9"/>
+      <c r="AQ861" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR861" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS861" s="11"/>
+      <c r="AT861" s="4"/>
+      <c r="AU861" s="16"/>
+    </row>
+    <row r="862" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG862" s="3"/>
       <c r="AH862" s="9"/>
       <c r="AI862" s="6" t="s">
@@ -34272,8 +35546,19 @@
       <c r="AK862" s="11"/>
       <c r="AL862" s="4"/>
       <c r="AM862" s="16"/>
-    </row>
-    <row r="863" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO862" s="3"/>
+      <c r="AP862" s="9"/>
+      <c r="AQ862" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR862" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS862" s="11"/>
+      <c r="AT862" s="4"/>
+      <c r="AU862" s="16"/>
+    </row>
+    <row r="863" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG863" s="3"/>
       <c r="AH863" s="9"/>
       <c r="AI863" s="6" t="s">
@@ -34287,8 +35572,21 @@
       </c>
       <c r="AL863" s="4"/>
       <c r="AM863" s="16"/>
-    </row>
-    <row r="864" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO863" s="3"/>
+      <c r="AP863" s="9"/>
+      <c r="AQ863" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR863" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS863" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT863" s="4"/>
+      <c r="AU863" s="16"/>
+    </row>
+    <row r="864" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG864" s="3"/>
       <c r="AH864" s="9"/>
       <c r="AI864" s="6"/>
@@ -34296,8 +35594,15 @@
       <c r="AK864" s="11"/>
       <c r="AL864" s="4"/>
       <c r="AM864" s="16"/>
-    </row>
-    <row r="865" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO864" s="3"/>
+      <c r="AP864" s="9"/>
+      <c r="AQ864" s="6"/>
+      <c r="AR864" s="12"/>
+      <c r="AS864" s="11"/>
+      <c r="AT864" s="4"/>
+      <c r="AU864" s="16"/>
+    </row>
+    <row r="865" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG865" s="3"/>
       <c r="AH865" s="9" t="s">
         <v>270</v>
@@ -34313,8 +35618,23 @@
       </c>
       <c r="AL865" s="4"/>
       <c r="AM865" s="16"/>
-    </row>
-    <row r="866" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO865" s="3"/>
+      <c r="AP865" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ865" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR865" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS865" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT865" s="4"/>
+      <c r="AU865" s="16"/>
+    </row>
+    <row r="866" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG866" s="3"/>
       <c r="AH866" s="9"/>
       <c r="AI866" s="6" t="s">
@@ -34326,8 +35646,21 @@
       <c r="AK866" s="11"/>
       <c r="AL866" s="4"/>
       <c r="AM866" s="16"/>
-    </row>
-    <row r="867" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO866" s="3"/>
+      <c r="AP866" s="9"/>
+      <c r="AQ866" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR866" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS866" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT866" s="4"/>
+      <c r="AU866" s="16"/>
+    </row>
+    <row r="867" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG867" s="3"/>
       <c r="AH867" s="9"/>
       <c r="AI867" s="6" t="s">
@@ -34339,8 +35672,19 @@
       <c r="AK867" s="11"/>
       <c r="AL867" s="4"/>
       <c r="AM867" s="16"/>
-    </row>
-    <row r="868" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO867" s="3"/>
+      <c r="AP867" s="9"/>
+      <c r="AQ867" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR867" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS867" s="11"/>
+      <c r="AT867" s="4"/>
+      <c r="AU867" s="16"/>
+    </row>
+    <row r="868" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG868" s="3"/>
       <c r="AH868" s="9"/>
       <c r="AI868" s="6" t="s">
@@ -34352,8 +35696,19 @@
       <c r="AK868" s="11"/>
       <c r="AL868" s="4"/>
       <c r="AM868" s="16"/>
-    </row>
-    <row r="869" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO868" s="3"/>
+      <c r="AP868" s="9"/>
+      <c r="AQ868" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR868" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS868" s="11"/>
+      <c r="AT868" s="4"/>
+      <c r="AU868" s="16"/>
+    </row>
+    <row r="869" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG869" s="3"/>
       <c r="AH869" s="9"/>
       <c r="AI869" s="6" t="s">
@@ -34365,8 +35720,23 @@
       <c r="AK869" s="11"/>
       <c r="AL869" s="4"/>
       <c r="AM869" s="16"/>
-    </row>
-    <row r="870" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO869" s="3"/>
+      <c r="AP869" s="9"/>
+      <c r="AQ869" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR869" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS869" s="11"/>
+      <c r="AT869" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU869" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="870" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG870" s="3"/>
       <c r="AH870" s="9"/>
       <c r="AI870" s="6" t="s">
@@ -34380,8 +35750,19 @@
       </c>
       <c r="AL870" s="4"/>
       <c r="AM870" s="16"/>
-    </row>
-    <row r="871" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO870" s="3"/>
+      <c r="AP870" s="9"/>
+      <c r="AQ870" s="6"/>
+      <c r="AR870" s="12"/>
+      <c r="AS870" s="11"/>
+      <c r="AT870" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU870" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="871" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG871" s="3"/>
       <c r="AH871" s="9"/>
       <c r="AI871" s="6" t="s">
@@ -34393,8 +35774,23 @@
       <c r="AK871" s="11"/>
       <c r="AL871" s="4"/>
       <c r="AM871" s="16"/>
-    </row>
-    <row r="872" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO871" s="3"/>
+      <c r="AP871" s="9"/>
+      <c r="AQ871" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR871" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS871" s="11"/>
+      <c r="AT871" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU871" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="872" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG872" s="3"/>
       <c r="AH872" s="9"/>
       <c r="AI872" s="6" t="s">
@@ -34406,8 +35802,19 @@
       <c r="AK872" s="11"/>
       <c r="AL872" s="4"/>
       <c r="AM872" s="16"/>
-    </row>
-    <row r="873" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO872" s="3"/>
+      <c r="AP872" s="9"/>
+      <c r="AQ872" s="6"/>
+      <c r="AR872" s="12"/>
+      <c r="AS872" s="11"/>
+      <c r="AT872" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU872" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="873" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG873" s="3"/>
       <c r="AH873" s="9"/>
       <c r="AI873" s="6" t="s">
@@ -34419,8 +35826,21 @@
       <c r="AK873" s="11"/>
       <c r="AL873" s="4"/>
       <c r="AM873" s="16"/>
-    </row>
-    <row r="874" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO873" s="3"/>
+      <c r="AP873" s="9"/>
+      <c r="AQ873" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR873" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS873" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT873" s="4"/>
+      <c r="AU873" s="16"/>
+    </row>
+    <row r="874" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG874" s="3"/>
       <c r="AH874" s="9"/>
       <c r="AI874" s="6" t="s">
@@ -34432,8 +35852,19 @@
       <c r="AK874" s="11"/>
       <c r="AL874" s="4"/>
       <c r="AM874" s="16"/>
-    </row>
-    <row r="875" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO874" s="3"/>
+      <c r="AP874" s="9"/>
+      <c r="AQ874" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR874" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS874" s="11"/>
+      <c r="AT874" s="4"/>
+      <c r="AU874" s="16"/>
+    </row>
+    <row r="875" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG875" s="3"/>
       <c r="AH875" s="9"/>
       <c r="AI875" s="6" t="s">
@@ -34445,8 +35876,19 @@
       <c r="AK875" s="11"/>
       <c r="AL875" s="4"/>
       <c r="AM875" s="16"/>
-    </row>
-    <row r="876" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO875" s="3"/>
+      <c r="AP875" s="9"/>
+      <c r="AQ875" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR875" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS875" s="11"/>
+      <c r="AT875" s="4"/>
+      <c r="AU875" s="16"/>
+    </row>
+    <row r="876" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG876" s="3"/>
       <c r="AH876" s="9"/>
       <c r="AI876" s="6" t="s">
@@ -34458,8 +35900,19 @@
       <c r="AK876" s="11"/>
       <c r="AL876" s="4"/>
       <c r="AM876" s="16"/>
-    </row>
-    <row r="877" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO876" s="3"/>
+      <c r="AP876" s="9"/>
+      <c r="AQ876" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR876" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS876" s="11"/>
+      <c r="AT876" s="4"/>
+      <c r="AU876" s="16"/>
+    </row>
+    <row r="877" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG877" s="3"/>
       <c r="AH877" s="9"/>
       <c r="AI877" s="6" t="s">
@@ -34471,8 +35924,21 @@
       <c r="AK877" s="11"/>
       <c r="AL877" s="4"/>
       <c r="AM877" s="16"/>
-    </row>
-    <row r="878" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO877" s="3"/>
+      <c r="AP877" s="9"/>
+      <c r="AQ877" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR877" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS877" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT877" s="4"/>
+      <c r="AU877" s="16"/>
+    </row>
+    <row r="878" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG878" s="3"/>
       <c r="AH878" s="9"/>
       <c r="AI878" s="6" t="s">
@@ -34484,8 +35950,15 @@
       <c r="AK878" s="11"/>
       <c r="AL878" s="4"/>
       <c r="AM878" s="16"/>
-    </row>
-    <row r="879" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO878" s="3"/>
+      <c r="AP878" s="9"/>
+      <c r="AQ878" s="6"/>
+      <c r="AR878" s="12"/>
+      <c r="AS878" s="11"/>
+      <c r="AT878" s="4"/>
+      <c r="AU878" s="16"/>
+    </row>
+    <row r="879" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG879" s="3"/>
       <c r="AH879" s="9"/>
       <c r="AI879" s="6" t="s">
@@ -34499,8 +35972,23 @@
       </c>
       <c r="AL879" s="4"/>
       <c r="AM879" s="16"/>
-    </row>
-    <row r="880" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO879" s="3"/>
+      <c r="AP879" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ879" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR879" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS879" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT879" s="4"/>
+      <c r="AU879" s="16"/>
+    </row>
+    <row r="880" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG880" s="3"/>
       <c r="AH880" s="9"/>
       <c r="AI880" s="6"/>
@@ -34508,8 +35996,21 @@
       <c r="AK880" s="11"/>
       <c r="AL880" s="4"/>
       <c r="AM880" s="16"/>
-    </row>
-    <row r="881" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO880" s="3"/>
+      <c r="AP880" s="9"/>
+      <c r="AQ880" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR880" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS880" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT880" s="4"/>
+      <c r="AU880" s="16"/>
+    </row>
+    <row r="881" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG881" s="3"/>
       <c r="AH881" s="9" t="s">
         <v>277</v>
@@ -34525,8 +36026,19 @@
       </c>
       <c r="AL881" s="4"/>
       <c r="AM881" s="16"/>
-    </row>
-    <row r="882" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO881" s="3"/>
+      <c r="AP881" s="9"/>
+      <c r="AQ881" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR881" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS881" s="11"/>
+      <c r="AT881" s="4"/>
+      <c r="AU881" s="16"/>
+    </row>
+    <row r="882" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG882" s="3"/>
       <c r="AH882" s="9"/>
       <c r="AI882" s="6" t="s">
@@ -34538,8 +36050,19 @@
       <c r="AK882" s="11"/>
       <c r="AL882" s="4"/>
       <c r="AM882" s="16"/>
-    </row>
-    <row r="883" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO882" s="3"/>
+      <c r="AP882" s="9"/>
+      <c r="AQ882" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR882" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS882" s="11"/>
+      <c r="AT882" s="4"/>
+      <c r="AU882" s="16"/>
+    </row>
+    <row r="883" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG883" s="3"/>
       <c r="AH883" s="9"/>
       <c r="AI883" s="6" t="s">
@@ -34551,8 +36074,19 @@
       <c r="AK883" s="11"/>
       <c r="AL883" s="4"/>
       <c r="AM883" s="16"/>
-    </row>
-    <row r="884" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO883" s="3"/>
+      <c r="AP883" s="9"/>
+      <c r="AQ883" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR883" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS883" s="11"/>
+      <c r="AT883" s="4"/>
+      <c r="AU883" s="16"/>
+    </row>
+    <row r="884" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG884" s="3"/>
       <c r="AH884" s="9"/>
       <c r="AI884" s="6" t="s">
@@ -34564,8 +36098,23 @@
       <c r="AK884" s="11"/>
       <c r="AL884" s="4"/>
       <c r="AM884" s="16"/>
-    </row>
-    <row r="885" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO884" s="3"/>
+      <c r="AP884" s="9"/>
+      <c r="AQ884" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR884" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS884" s="11"/>
+      <c r="AT884" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU884" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="885" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG885" s="3"/>
       <c r="AH885" s="9"/>
       <c r="AI885" s="6" t="s">
@@ -34577,8 +36126,19 @@
       <c r="AK885" s="11"/>
       <c r="AL885" s="4"/>
       <c r="AM885" s="16"/>
-    </row>
-    <row r="886" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO885" s="3"/>
+      <c r="AP885" s="9"/>
+      <c r="AQ885" s="6"/>
+      <c r="AR885" s="12"/>
+      <c r="AS885" s="11"/>
+      <c r="AT885" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU885" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="886" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG886" s="3"/>
       <c r="AH886" s="9"/>
       <c r="AI886" s="6" t="s">
@@ -34590,8 +36150,23 @@
       <c r="AK886" s="11"/>
       <c r="AL886" s="4"/>
       <c r="AM886" s="16"/>
-    </row>
-    <row r="887" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO886" s="3"/>
+      <c r="AP886" s="9"/>
+      <c r="AQ886" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR886" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS886" s="11"/>
+      <c r="AT886" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU886" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="887" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG887" s="3"/>
       <c r="AH887" s="9"/>
       <c r="AI887" s="6" t="s">
@@ -34605,8 +36180,19 @@
       </c>
       <c r="AL887" s="4"/>
       <c r="AM887" s="16"/>
-    </row>
-    <row r="888" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO887" s="3"/>
+      <c r="AP887" s="9"/>
+      <c r="AQ887" s="6"/>
+      <c r="AR887" s="12"/>
+      <c r="AS887" s="11"/>
+      <c r="AT887" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU887" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="888" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG888" s="3"/>
       <c r="AH888" s="9"/>
       <c r="AI888" s="6" t="s">
@@ -34618,8 +36204,21 @@
       <c r="AK888" s="11"/>
       <c r="AL888" s="4"/>
       <c r="AM888" s="16"/>
-    </row>
-    <row r="889" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO888" s="3"/>
+      <c r="AP888" s="9"/>
+      <c r="AQ888" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR888" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS888" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT888" s="4"/>
+      <c r="AU888" s="16"/>
+    </row>
+    <row r="889" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG889" s="3"/>
       <c r="AH889" s="9"/>
       <c r="AI889" s="6" t="s">
@@ -34631,8 +36230,19 @@
       <c r="AK889" s="11"/>
       <c r="AL889" s="4"/>
       <c r="AM889" s="16"/>
-    </row>
-    <row r="890" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO889" s="3"/>
+      <c r="AP889" s="9"/>
+      <c r="AQ889" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR889" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS889" s="11"/>
+      <c r="AT889" s="4"/>
+      <c r="AU889" s="16"/>
+    </row>
+    <row r="890" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG890" s="3"/>
       <c r="AH890" s="9"/>
       <c r="AI890" s="6" t="s">
@@ -34644,8 +36254,19 @@
       <c r="AK890" s="11"/>
       <c r="AL890" s="4"/>
       <c r="AM890" s="16"/>
-    </row>
-    <row r="891" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO890" s="3"/>
+      <c r="AP890" s="9"/>
+      <c r="AQ890" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR890" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS890" s="11"/>
+      <c r="AT890" s="4"/>
+      <c r="AU890" s="16"/>
+    </row>
+    <row r="891" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG891" s="3"/>
       <c r="AH891" s="9"/>
       <c r="AI891" s="6" t="s">
@@ -34657,8 +36278,19 @@
       <c r="AK891" s="11"/>
       <c r="AL891" s="4"/>
       <c r="AM891" s="16"/>
-    </row>
-    <row r="892" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO891" s="3"/>
+      <c r="AP891" s="9"/>
+      <c r="AQ891" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR891" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS891" s="11"/>
+      <c r="AT891" s="4"/>
+      <c r="AU891" s="16"/>
+    </row>
+    <row r="892" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG892" s="3"/>
       <c r="AH892" s="9"/>
       <c r="AI892" s="6" t="s">
@@ -34670,8 +36302,21 @@
       <c r="AK892" s="11"/>
       <c r="AL892" s="4"/>
       <c r="AM892" s="16"/>
-    </row>
-    <row r="893" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO892" s="3"/>
+      <c r="AP892" s="9"/>
+      <c r="AQ892" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR892" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS892" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT892" s="4"/>
+      <c r="AU892" s="16"/>
+    </row>
+    <row r="893" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG893" s="3"/>
       <c r="AH893" s="9"/>
       <c r="AI893" s="6" t="s">
@@ -34683,8 +36328,15 @@
       <c r="AK893" s="11"/>
       <c r="AL893" s="4"/>
       <c r="AM893" s="16"/>
-    </row>
-    <row r="894" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AO893" s="3"/>
+      <c r="AP893" s="9"/>
+      <c r="AQ893" s="6"/>
+      <c r="AR893" s="12"/>
+      <c r="AS893" s="11"/>
+      <c r="AT893" s="4"/>
+      <c r="AU893" s="16"/>
+    </row>
+    <row r="894" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG894" s="3"/>
       <c r="AH894" s="9"/>
       <c r="AI894" s="6" t="s">
@@ -34697,7 +36349,7 @@
       <c r="AL894" s="4"/>
       <c r="AM894" s="16"/>
     </row>
-    <row r="895" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="895" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG895" s="3"/>
       <c r="AH895" s="9"/>
       <c r="AI895" s="6" t="s">
@@ -34712,7 +36364,7 @@
       <c r="AL895" s="4"/>
       <c r="AM895" s="16"/>
     </row>
-    <row r="896" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="896" spans="33:47" x14ac:dyDescent="0.25">
       <c r="AG896" s="3"/>
       <c r="AH896" s="9"/>
       <c r="AI896" s="6"/>
@@ -35261,12 +36913,24 @@
     </row>
     <row r="937" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG937" s="3"/>
-      <c r="AH937" s="9"/>
-      <c r="AI937" s="6"/>
-      <c r="AJ937" s="12"/>
-      <c r="AK937" s="11"/>
-      <c r="AL937" s="4"/>
-      <c r="AM937" s="16"/>
+      <c r="AH937" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI937" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ937" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK937" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL937" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM937" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="938" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG938" s="3"/>
@@ -35274,8 +36938,12 @@
       <c r="AI938" s="6"/>
       <c r="AJ938" s="12"/>
       <c r="AK938" s="11"/>
-      <c r="AL938" s="4"/>
-      <c r="AM938" s="16"/>
+      <c r="AL938" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM938" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="939" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG939" s="3"/>
@@ -35283,23 +36951,37 @@
       <c r="AI939" s="6"/>
       <c r="AJ939" s="12"/>
       <c r="AK939" s="11"/>
-      <c r="AL939" s="4"/>
-      <c r="AM939" s="16"/>
+      <c r="AL939" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM939" s="16">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="940" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG940" s="3"/>
       <c r="AH940" s="9"/>
-      <c r="AI940" s="6"/>
-      <c r="AJ940" s="12"/>
-      <c r="AK940" s="11"/>
+      <c r="AI940" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ940" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK940" s="11">
+        <v>3</v>
+      </c>
       <c r="AL940" s="4"/>
       <c r="AM940" s="16"/>
     </row>
     <row r="941" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG941" s="3"/>
       <c r="AH941" s="9"/>
-      <c r="AI941" s="6"/>
-      <c r="AJ941" s="12"/>
+      <c r="AI941" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ941" s="12">
+        <v>3</v>
+      </c>
       <c r="AK941" s="11"/>
       <c r="AL941" s="4"/>
       <c r="AM941" s="16"/>
@@ -35307,8 +36989,12 @@
     <row r="942" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG942" s="3"/>
       <c r="AH942" s="9"/>
-      <c r="AI942" s="6"/>
-      <c r="AJ942" s="12"/>
+      <c r="AI942" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ942" s="12">
+        <v>4</v>
+      </c>
       <c r="AK942" s="11"/>
       <c r="AL942" s="4"/>
       <c r="AM942" s="16"/>
@@ -35316,8 +37002,12 @@
     <row r="943" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG943" s="3"/>
       <c r="AH943" s="9"/>
-      <c r="AI943" s="6"/>
-      <c r="AJ943" s="12"/>
+      <c r="AI943" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ943" s="12">
+        <v>3</v>
+      </c>
       <c r="AK943" s="11"/>
       <c r="AL943" s="4"/>
       <c r="AM943" s="16"/>
@@ -35325,8 +37015,12 @@
     <row r="944" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG944" s="3"/>
       <c r="AH944" s="9"/>
-      <c r="AI944" s="6"/>
-      <c r="AJ944" s="12"/>
+      <c r="AI944" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ944" s="12">
+        <v>3</v>
+      </c>
       <c r="AK944" s="11"/>
       <c r="AL944" s="4"/>
       <c r="AM944" s="16"/>
@@ -35334,17 +37028,27 @@
     <row r="945" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG945" s="3"/>
       <c r="AH945" s="9"/>
-      <c r="AI945" s="6"/>
-      <c r="AJ945" s="12"/>
-      <c r="AK945" s="11"/>
+      <c r="AI945" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ945" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK945" s="11">
+        <v>2</v>
+      </c>
       <c r="AL945" s="4"/>
       <c r="AM945" s="16"/>
     </row>
     <row r="946" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG946" s="3"/>
       <c r="AH946" s="9"/>
-      <c r="AI946" s="6"/>
-      <c r="AJ946" s="12"/>
+      <c r="AI946" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ946" s="12">
+        <v>2</v>
+      </c>
       <c r="AK946" s="11"/>
       <c r="AL946" s="4"/>
       <c r="AM946" s="16"/>
@@ -35352,8 +37056,12 @@
     <row r="947" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG947" s="3"/>
       <c r="AH947" s="9"/>
-      <c r="AI947" s="6"/>
-      <c r="AJ947" s="12"/>
+      <c r="AI947" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ947" s="12">
+        <v>1.5</v>
+      </c>
       <c r="AK947" s="11"/>
       <c r="AL947" s="4"/>
       <c r="AM947" s="16"/>
@@ -35361,8 +37069,12 @@
     <row r="948" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG948" s="3"/>
       <c r="AH948" s="9"/>
-      <c r="AI948" s="6"/>
-      <c r="AJ948" s="12"/>
+      <c r="AI948" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ948" s="12">
+        <v>2.5</v>
+      </c>
       <c r="AK948" s="11"/>
       <c r="AL948" s="4"/>
       <c r="AM948" s="16"/>
@@ -35370,8 +37082,12 @@
     <row r="949" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG949" s="3"/>
       <c r="AH949" s="9"/>
-      <c r="AI949" s="6"/>
-      <c r="AJ949" s="12"/>
+      <c r="AI949" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ949" s="12">
+        <v>1</v>
+      </c>
       <c r="AK949" s="11"/>
       <c r="AL949" s="4"/>
       <c r="AM949" s="16"/>
@@ -35379,9 +37095,15 @@
     <row r="950" spans="33:39" x14ac:dyDescent="0.25">
       <c r="AG950" s="3"/>
       <c r="AH950" s="9"/>
-      <c r="AI950" s="6"/>
-      <c r="AJ950" s="12"/>
-      <c r="AK950" s="11"/>
+      <c r="AI950" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ950" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK950" s="11">
+        <v>1</v>
+      </c>
       <c r="AL950" s="4"/>
       <c r="AM950" s="16"/>
     </row>
@@ -35394,6 +37116,1960 @@
       <c r="AL951" s="4"/>
       <c r="AM951" s="16"/>
     </row>
+    <row r="952" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG952" s="3"/>
+      <c r="AH952" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI952" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ952" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK952" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL952" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM952" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="953" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG953" s="3"/>
+      <c r="AH953" s="9"/>
+      <c r="AI953" s="6"/>
+      <c r="AJ953" s="12"/>
+      <c r="AK953" s="11"/>
+      <c r="AL953" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM953" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="954" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG954" s="3"/>
+      <c r="AH954" s="9"/>
+      <c r="AI954" s="6"/>
+      <c r="AJ954" s="12"/>
+      <c r="AK954" s="11"/>
+      <c r="AL954" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM954" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="955" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG955" s="3"/>
+      <c r="AH955" s="9"/>
+      <c r="AI955" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ955" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK955" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL955" s="4"/>
+      <c r="AM955" s="16"/>
+    </row>
+    <row r="956" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG956" s="3"/>
+      <c r="AH956" s="9"/>
+      <c r="AI956" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ956" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK956" s="11"/>
+      <c r="AL956" s="4"/>
+      <c r="AM956" s="16"/>
+    </row>
+    <row r="957" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG957" s="3"/>
+      <c r="AH957" s="9"/>
+      <c r="AI957" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ957" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK957" s="11"/>
+      <c r="AL957" s="4"/>
+      <c r="AM957" s="16"/>
+    </row>
+    <row r="958" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG958" s="3"/>
+      <c r="AH958" s="9"/>
+      <c r="AI958" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ958" s="12">
+        <v>5</v>
+      </c>
+      <c r="AK958" s="11"/>
+      <c r="AL958" s="4"/>
+      <c r="AM958" s="16"/>
+    </row>
+    <row r="959" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG959" s="3"/>
+      <c r="AH959" s="9"/>
+      <c r="AI959" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ959" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK959" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL959" s="4"/>
+      <c r="AM959" s="16"/>
+    </row>
+    <row r="960" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG960" s="3"/>
+      <c r="AH960" s="9"/>
+      <c r="AI960" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ960" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK960" s="11"/>
+      <c r="AL960" s="4"/>
+      <c r="AM960" s="16"/>
+    </row>
+    <row r="961" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG961" s="3"/>
+      <c r="AH961" s="9"/>
+      <c r="AI961" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ961" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK961" s="11"/>
+      <c r="AL961" s="4"/>
+      <c r="AM961" s="16"/>
+    </row>
+    <row r="962" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG962" s="3"/>
+      <c r="AH962" s="9"/>
+      <c r="AI962" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ962" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="AK962" s="11"/>
+      <c r="AL962" s="4"/>
+      <c r="AM962" s="16"/>
+    </row>
+    <row r="963" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG963" s="3"/>
+      <c r="AH963" s="9"/>
+      <c r="AI963" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ963" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK963" s="11"/>
+      <c r="AL963" s="4"/>
+      <c r="AM963" s="16"/>
+    </row>
+    <row r="964" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG964" s="3"/>
+      <c r="AH964" s="9"/>
+      <c r="AI964" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ964" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK964" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL964" s="4"/>
+      <c r="AM964" s="16"/>
+    </row>
+    <row r="965" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG965" s="3"/>
+      <c r="AH965" s="9"/>
+      <c r="AI965" s="6"/>
+      <c r="AJ965" s="12"/>
+      <c r="AK965" s="11"/>
+      <c r="AL965" s="4"/>
+      <c r="AM965" s="16"/>
+    </row>
+    <row r="966" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG966" s="3"/>
+      <c r="AH966" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI966" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ966" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK966" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL966" s="4"/>
+      <c r="AM966" s="16"/>
+    </row>
+    <row r="967" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG967" s="3"/>
+      <c r="AH967" s="9"/>
+      <c r="AI967" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ967" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK967" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL967" s="4"/>
+      <c r="AM967" s="16"/>
+    </row>
+    <row r="968" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG968" s="3"/>
+      <c r="AH968" s="9"/>
+      <c r="AI968" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ968" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK968" s="11"/>
+      <c r="AL968" s="4"/>
+      <c r="AM968" s="16"/>
+    </row>
+    <row r="969" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG969" s="3"/>
+      <c r="AH969" s="9"/>
+      <c r="AI969" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ969" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK969" s="11"/>
+      <c r="AL969" s="4"/>
+      <c r="AM969" s="16"/>
+    </row>
+    <row r="970" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG970" s="3"/>
+      <c r="AH970" s="9"/>
+      <c r="AI970" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ970" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK970" s="11"/>
+      <c r="AL970" s="4"/>
+      <c r="AM970" s="16"/>
+    </row>
+    <row r="971" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG971" s="3"/>
+      <c r="AH971" s="9"/>
+      <c r="AI971" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ971" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK971" s="11"/>
+      <c r="AL971" s="4"/>
+      <c r="AM971" s="16"/>
+    </row>
+    <row r="972" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG972" s="3"/>
+      <c r="AH972" s="9"/>
+      <c r="AI972" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ972" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK972" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL972" s="4"/>
+      <c r="AM972" s="16"/>
+    </row>
+    <row r="973" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG973" s="3"/>
+      <c r="AH973" s="9"/>
+      <c r="AI973" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ973" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK973" s="11"/>
+      <c r="AL973" s="4"/>
+      <c r="AM973" s="16"/>
+    </row>
+    <row r="974" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG974" s="3"/>
+      <c r="AH974" s="9"/>
+      <c r="AI974" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ974" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK974" s="11"/>
+      <c r="AL974" s="4"/>
+      <c r="AM974" s="16"/>
+    </row>
+    <row r="975" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG975" s="3"/>
+      <c r="AH975" s="9"/>
+      <c r="AI975" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ975" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK975" s="11"/>
+      <c r="AL975" s="4"/>
+      <c r="AM975" s="16"/>
+    </row>
+    <row r="976" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG976" s="3"/>
+      <c r="AH976" s="9"/>
+      <c r="AI976" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ976" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK976" s="11"/>
+      <c r="AL976" s="4"/>
+      <c r="AM976" s="16"/>
+    </row>
+    <row r="977" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG977" s="3"/>
+      <c r="AH977" s="9"/>
+      <c r="AI977" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ977" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK977" s="11"/>
+      <c r="AL977" s="4"/>
+      <c r="AM977" s="16"/>
+    </row>
+    <row r="978" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG978" s="3"/>
+      <c r="AH978" s="9"/>
+      <c r="AI978" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ978" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK978" s="11"/>
+      <c r="AL978" s="4"/>
+      <c r="AM978" s="16"/>
+    </row>
+    <row r="979" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG979" s="3"/>
+      <c r="AH979" s="9"/>
+      <c r="AI979" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ979" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK979" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL979" s="4"/>
+      <c r="AM979" s="16"/>
+    </row>
+    <row r="980" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG980" s="3"/>
+      <c r="AH980" s="9"/>
+      <c r="AI980" s="6"/>
+      <c r="AJ980" s="12"/>
+      <c r="AK980" s="11"/>
+      <c r="AL980" s="4"/>
+      <c r="AM980" s="16"/>
+    </row>
+    <row r="981" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG981" s="3"/>
+      <c r="AH981" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI981" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ981" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK981" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL981" s="4"/>
+      <c r="AM981" s="16"/>
+    </row>
+    <row r="982" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG982" s="3"/>
+      <c r="AH982" s="9"/>
+      <c r="AI982" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ982" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK982" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL982" s="4"/>
+      <c r="AM982" s="16"/>
+    </row>
+    <row r="983" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG983" s="3"/>
+      <c r="AH983" s="9"/>
+      <c r="AI983" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ983" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK983" s="11"/>
+      <c r="AL983" s="4"/>
+      <c r="AM983" s="16"/>
+    </row>
+    <row r="984" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG984" s="3"/>
+      <c r="AH984" s="9"/>
+      <c r="AI984" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ984" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK984" s="11"/>
+      <c r="AL984" s="4"/>
+      <c r="AM984" s="16"/>
+    </row>
+    <row r="985" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG985" s="3"/>
+      <c r="AH985" s="9"/>
+      <c r="AI985" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ985" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK985" s="11"/>
+      <c r="AL985" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM985" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="986" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG986" s="3"/>
+      <c r="AH986" s="9"/>
+      <c r="AI986" s="6"/>
+      <c r="AJ986" s="12"/>
+      <c r="AK986" s="11"/>
+      <c r="AL986" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM986" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="987" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG987" s="3"/>
+      <c r="AH987" s="9"/>
+      <c r="AI987" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ987" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK987" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL987" s="4"/>
+      <c r="AM987" s="16"/>
+    </row>
+    <row r="988" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG988" s="3"/>
+      <c r="AH988" s="9"/>
+      <c r="AI988" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ988" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK988" s="11"/>
+      <c r="AL988" s="4"/>
+      <c r="AM988" s="16"/>
+    </row>
+    <row r="989" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG989" s="3"/>
+      <c r="AH989" s="9"/>
+      <c r="AI989" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ989" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK989" s="11"/>
+      <c r="AL989" s="4"/>
+      <c r="AM989" s="16"/>
+    </row>
+    <row r="990" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG990" s="3"/>
+      <c r="AH990" s="9"/>
+      <c r="AI990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ990" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK990" s="11"/>
+      <c r="AL990" s="4"/>
+      <c r="AM990" s="16"/>
+    </row>
+    <row r="991" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG991" s="3"/>
+      <c r="AH991" s="9"/>
+      <c r="AI991" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ991" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK991" s="11"/>
+      <c r="AL991" s="4"/>
+      <c r="AM991" s="16"/>
+    </row>
+    <row r="992" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG992" s="3"/>
+      <c r="AH992" s="9"/>
+      <c r="AI992" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ992" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK992" s="11"/>
+      <c r="AL992" s="4"/>
+      <c r="AM992" s="16"/>
+    </row>
+    <row r="993" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG993" s="3"/>
+      <c r="AH993" s="9"/>
+      <c r="AI993" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ993" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK993" s="11"/>
+      <c r="AL993" s="4"/>
+      <c r="AM993" s="16"/>
+    </row>
+    <row r="994" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG994" s="3"/>
+      <c r="AH994" s="9"/>
+      <c r="AI994" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ994" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK994" s="11"/>
+      <c r="AL994" s="4"/>
+      <c r="AM994" s="16"/>
+    </row>
+    <row r="995" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG995" s="3"/>
+      <c r="AH995" s="9"/>
+      <c r="AI995" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ995" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK995" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL995" s="4"/>
+      <c r="AM995" s="16"/>
+    </row>
+    <row r="996" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG996" s="3"/>
+      <c r="AH996" s="9"/>
+      <c r="AI996" s="6"/>
+      <c r="AJ996" s="12"/>
+      <c r="AK996" s="11"/>
+      <c r="AL996" s="4"/>
+      <c r="AM996" s="16"/>
+    </row>
+    <row r="997" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG997" s="3"/>
+      <c r="AH997" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI997" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ997" s="12">
+        <v>4</v>
+      </c>
+      <c r="AK997" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL997" s="4"/>
+      <c r="AM997" s="16"/>
+    </row>
+    <row r="998" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG998" s="3"/>
+      <c r="AH998" s="9"/>
+      <c r="AI998" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ998" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK998" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL998" s="4"/>
+      <c r="AM998" s="16"/>
+    </row>
+    <row r="999" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG999" s="3"/>
+      <c r="AH999" s="9"/>
+      <c r="AI999" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ999" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK999" s="11"/>
+      <c r="AL999" s="4"/>
+      <c r="AM999" s="16"/>
+    </row>
+    <row r="1000" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1000" s="3"/>
+      <c r="AH1000" s="9"/>
+      <c r="AI1000" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1000" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK1000" s="11"/>
+      <c r="AL1000" s="4"/>
+      <c r="AM1000" s="16"/>
+    </row>
+    <row r="1001" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1001" s="3"/>
+      <c r="AH1001" s="9"/>
+      <c r="AI1001" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1001" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK1001" s="11"/>
+      <c r="AL1001" s="4"/>
+      <c r="AM1001" s="16"/>
+    </row>
+    <row r="1002" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1002" s="3"/>
+      <c r="AH1002" s="9"/>
+      <c r="AI1002" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1002" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK1002" s="11"/>
+      <c r="AL1002" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM1002" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="1003" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1003" s="3"/>
+      <c r="AH1003" s="9"/>
+      <c r="AI1003" s="6"/>
+      <c r="AJ1003" s="12"/>
+      <c r="AK1003" s="11"/>
+      <c r="AL1003" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM1003" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="1004" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1004" s="3"/>
+      <c r="AH1004" s="9"/>
+      <c r="AI1004" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1004" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK1004" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL1004" s="4"/>
+      <c r="AM1004" s="16"/>
+    </row>
+    <row r="1005" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1005" s="3"/>
+      <c r="AH1005" s="9"/>
+      <c r="AI1005" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1005" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK1005" s="11"/>
+      <c r="AL1005" s="4"/>
+      <c r="AM1005" s="16"/>
+    </row>
+    <row r="1006" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1006" s="3"/>
+      <c r="AH1006" s="9"/>
+      <c r="AI1006" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1006" s="12">
+        <v>2</v>
+      </c>
+      <c r="AK1006" s="11"/>
+      <c r="AL1006" s="4"/>
+      <c r="AM1006" s="16"/>
+    </row>
+    <row r="1007" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1007" s="3"/>
+      <c r="AH1007" s="9"/>
+      <c r="AI1007" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1007" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK1007" s="11"/>
+      <c r="AL1007" s="4"/>
+      <c r="AM1007" s="16"/>
+    </row>
+    <row r="1008" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1008" s="3"/>
+      <c r="AH1008" s="9"/>
+      <c r="AI1008" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1008" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AK1008" s="11"/>
+      <c r="AL1008" s="4"/>
+      <c r="AM1008" s="16"/>
+    </row>
+    <row r="1009" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1009" s="3"/>
+      <c r="AH1009" s="9"/>
+      <c r="AI1009" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1009" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK1009" s="11"/>
+      <c r="AL1009" s="4"/>
+      <c r="AM1009" s="16"/>
+    </row>
+    <row r="1010" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1010" s="3"/>
+      <c r="AH1010" s="9"/>
+      <c r="AI1010" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ1010" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK1010" s="11"/>
+      <c r="AL1010" s="4"/>
+      <c r="AM1010" s="16"/>
+    </row>
+    <row r="1011" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1011" s="3"/>
+      <c r="AH1011" s="9"/>
+      <c r="AI1011" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1011" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK1011" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL1011" s="4"/>
+      <c r="AM1011" s="16"/>
+    </row>
+    <row r="1012" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1012" s="3"/>
+      <c r="AH1012" s="9"/>
+      <c r="AI1012" s="6"/>
+      <c r="AJ1012" s="12"/>
+      <c r="AK1012" s="11"/>
+      <c r="AL1012" s="4"/>
+      <c r="AM1012" s="16"/>
+    </row>
+    <row r="1013" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1013" s="3"/>
+      <c r="AH1013" s="9"/>
+      <c r="AI1013" s="6"/>
+      <c r="AJ1013" s="12"/>
+      <c r="AK1013" s="11"/>
+      <c r="AL1013" s="4"/>
+      <c r="AM1013" s="16"/>
+    </row>
+    <row r="1014" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1014" s="3"/>
+      <c r="AH1014" s="9"/>
+      <c r="AI1014" s="6"/>
+      <c r="AJ1014" s="12"/>
+      <c r="AK1014" s="11"/>
+      <c r="AL1014" s="4"/>
+      <c r="AM1014" s="16"/>
+    </row>
+    <row r="1015" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1015" s="3"/>
+      <c r="AH1015" s="9"/>
+      <c r="AI1015" s="6"/>
+      <c r="AJ1015" s="12"/>
+      <c r="AK1015" s="11"/>
+      <c r="AL1015" s="4"/>
+      <c r="AM1015" s="16"/>
+    </row>
+    <row r="1016" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1016" s="3"/>
+      <c r="AH1016" s="9"/>
+      <c r="AI1016" s="6"/>
+      <c r="AJ1016" s="12"/>
+      <c r="AK1016" s="11"/>
+      <c r="AL1016" s="4"/>
+      <c r="AM1016" s="16"/>
+    </row>
+    <row r="1017" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1017" s="3"/>
+      <c r="AH1017" s="9"/>
+      <c r="AI1017" s="6"/>
+      <c r="AJ1017" s="12"/>
+      <c r="AK1017" s="11"/>
+      <c r="AL1017" s="4"/>
+      <c r="AM1017" s="16"/>
+    </row>
+    <row r="1018" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1018" s="3"/>
+      <c r="AH1018" s="9"/>
+      <c r="AI1018" s="6"/>
+      <c r="AJ1018" s="12"/>
+      <c r="AK1018" s="11"/>
+      <c r="AL1018" s="4"/>
+      <c r="AM1018" s="16"/>
+    </row>
+    <row r="1019" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1019" s="3"/>
+      <c r="AH1019" s="9"/>
+      <c r="AI1019" s="6"/>
+      <c r="AJ1019" s="12"/>
+      <c r="AK1019" s="11"/>
+      <c r="AL1019" s="4"/>
+      <c r="AM1019" s="16"/>
+    </row>
+    <row r="1020" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1020" s="3"/>
+      <c r="AH1020" s="9"/>
+      <c r="AI1020" s="6"/>
+      <c r="AJ1020" s="12"/>
+      <c r="AK1020" s="11"/>
+      <c r="AL1020" s="4"/>
+      <c r="AM1020" s="16"/>
+    </row>
+    <row r="1021" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1021" s="3"/>
+      <c r="AH1021" s="9"/>
+      <c r="AI1021" s="6"/>
+      <c r="AJ1021" s="12"/>
+      <c r="AK1021" s="11"/>
+      <c r="AL1021" s="4"/>
+      <c r="AM1021" s="16"/>
+    </row>
+    <row r="1022" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1022" s="3"/>
+      <c r="AH1022" s="9"/>
+      <c r="AI1022" s="6"/>
+      <c r="AJ1022" s="12"/>
+      <c r="AK1022" s="11"/>
+      <c r="AL1022" s="4"/>
+      <c r="AM1022" s="16"/>
+    </row>
+    <row r="1023" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1023" s="3"/>
+      <c r="AH1023" s="9"/>
+      <c r="AI1023" s="6"/>
+      <c r="AJ1023" s="12"/>
+      <c r="AK1023" s="11"/>
+      <c r="AL1023" s="4"/>
+      <c r="AM1023" s="16"/>
+    </row>
+    <row r="1024" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1024" s="3"/>
+      <c r="AH1024" s="9"/>
+      <c r="AI1024" s="6"/>
+      <c r="AJ1024" s="12"/>
+      <c r="AK1024" s="11"/>
+      <c r="AL1024" s="4"/>
+      <c r="AM1024" s="16"/>
+    </row>
+    <row r="1025" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1025" s="3"/>
+      <c r="AH1025" s="9"/>
+      <c r="AI1025" s="6"/>
+      <c r="AJ1025" s="12"/>
+      <c r="AK1025" s="11"/>
+      <c r="AL1025" s="4"/>
+      <c r="AM1025" s="16"/>
+    </row>
+    <row r="1026" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1026" s="3"/>
+      <c r="AH1026" s="9"/>
+      <c r="AI1026" s="6"/>
+      <c r="AJ1026" s="12"/>
+      <c r="AK1026" s="11"/>
+      <c r="AL1026" s="4"/>
+      <c r="AM1026" s="16"/>
+    </row>
+    <row r="1027" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1027" s="3"/>
+      <c r="AH1027" s="9"/>
+      <c r="AI1027" s="6"/>
+      <c r="AJ1027" s="12"/>
+      <c r="AK1027" s="11"/>
+      <c r="AL1027" s="4"/>
+      <c r="AM1027" s="16"/>
+    </row>
+    <row r="1028" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1028" s="3"/>
+      <c r="AH1028" s="9"/>
+      <c r="AI1028" s="6"/>
+      <c r="AJ1028" s="12"/>
+      <c r="AK1028" s="11"/>
+      <c r="AL1028" s="4"/>
+      <c r="AM1028" s="16"/>
+    </row>
+    <row r="1029" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1029" s="3"/>
+      <c r="AH1029" s="9"/>
+      <c r="AI1029" s="6"/>
+      <c r="AJ1029" s="12"/>
+      <c r="AK1029" s="11"/>
+      <c r="AL1029" s="4"/>
+      <c r="AM1029" s="16"/>
+    </row>
+    <row r="1030" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1030" s="3"/>
+      <c r="AH1030" s="9"/>
+      <c r="AI1030" s="6"/>
+      <c r="AJ1030" s="12"/>
+      <c r="AK1030" s="11"/>
+      <c r="AL1030" s="4"/>
+      <c r="AM1030" s="16"/>
+    </row>
+    <row r="1031" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1031" s="3"/>
+      <c r="AH1031" s="9"/>
+      <c r="AI1031" s="6"/>
+      <c r="AJ1031" s="12"/>
+      <c r="AK1031" s="11"/>
+      <c r="AL1031" s="4"/>
+      <c r="AM1031" s="16"/>
+    </row>
+    <row r="1032" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1032" s="3"/>
+      <c r="AH1032" s="9"/>
+      <c r="AI1032" s="6"/>
+      <c r="AJ1032" s="12"/>
+      <c r="AK1032" s="11"/>
+      <c r="AL1032" s="4"/>
+      <c r="AM1032" s="16"/>
+    </row>
+    <row r="1033" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1033" s="3"/>
+      <c r="AH1033" s="9"/>
+      <c r="AI1033" s="6"/>
+      <c r="AJ1033" s="12"/>
+      <c r="AK1033" s="11"/>
+      <c r="AL1033" s="4"/>
+      <c r="AM1033" s="16"/>
+    </row>
+    <row r="1034" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1034" s="3"/>
+      <c r="AH1034" s="9"/>
+      <c r="AI1034" s="6"/>
+      <c r="AJ1034" s="12"/>
+      <c r="AK1034" s="11"/>
+      <c r="AL1034" s="4"/>
+      <c r="AM1034" s="16"/>
+    </row>
+    <row r="1035" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1035" s="3"/>
+      <c r="AH1035" s="9"/>
+      <c r="AI1035" s="6"/>
+      <c r="AJ1035" s="12"/>
+      <c r="AK1035" s="11"/>
+      <c r="AL1035" s="4"/>
+      <c r="AM1035" s="16"/>
+    </row>
+    <row r="1036" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1036" s="3"/>
+      <c r="AH1036" s="9"/>
+      <c r="AI1036" s="6"/>
+      <c r="AJ1036" s="12"/>
+      <c r="AK1036" s="11"/>
+      <c r="AL1036" s="4"/>
+      <c r="AM1036" s="16"/>
+    </row>
+    <row r="1037" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1037" s="3"/>
+      <c r="AH1037" s="9"/>
+      <c r="AI1037" s="6"/>
+      <c r="AJ1037" s="12"/>
+      <c r="AK1037" s="11"/>
+      <c r="AL1037" s="4"/>
+      <c r="AM1037" s="16"/>
+    </row>
+    <row r="1038" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1038" s="3"/>
+      <c r="AH1038" s="9"/>
+      <c r="AI1038" s="6"/>
+      <c r="AJ1038" s="12"/>
+      <c r="AK1038" s="11"/>
+      <c r="AL1038" s="4"/>
+      <c r="AM1038" s="16"/>
+    </row>
+    <row r="1039" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1039" s="3"/>
+      <c r="AH1039" s="9"/>
+      <c r="AI1039" s="6"/>
+      <c r="AJ1039" s="12"/>
+      <c r="AK1039" s="11"/>
+      <c r="AL1039" s="4"/>
+      <c r="AM1039" s="16"/>
+    </row>
+    <row r="1040" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1040" s="3"/>
+      <c r="AH1040" s="9"/>
+      <c r="AI1040" s="6"/>
+      <c r="AJ1040" s="12"/>
+      <c r="AK1040" s="11"/>
+      <c r="AL1040" s="4"/>
+      <c r="AM1040" s="16"/>
+    </row>
+    <row r="1041" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1041" s="3"/>
+      <c r="AH1041" s="9"/>
+      <c r="AI1041" s="6"/>
+      <c r="AJ1041" s="12"/>
+      <c r="AK1041" s="11"/>
+      <c r="AL1041" s="4"/>
+      <c r="AM1041" s="16"/>
+    </row>
+    <row r="1042" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1042" s="3"/>
+      <c r="AH1042" s="9"/>
+      <c r="AI1042" s="6"/>
+      <c r="AJ1042" s="12"/>
+      <c r="AK1042" s="11"/>
+      <c r="AL1042" s="4"/>
+      <c r="AM1042" s="16"/>
+    </row>
+    <row r="1043" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1043" s="3"/>
+      <c r="AH1043" s="9"/>
+      <c r="AI1043" s="6"/>
+      <c r="AJ1043" s="12"/>
+      <c r="AK1043" s="11"/>
+      <c r="AL1043" s="4"/>
+      <c r="AM1043" s="16"/>
+    </row>
+    <row r="1044" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1044" s="3"/>
+      <c r="AH1044" s="9"/>
+      <c r="AI1044" s="6"/>
+      <c r="AJ1044" s="12"/>
+      <c r="AK1044" s="11"/>
+      <c r="AL1044" s="4"/>
+      <c r="AM1044" s="16"/>
+    </row>
+    <row r="1045" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1045" s="3"/>
+      <c r="AH1045" s="9"/>
+      <c r="AI1045" s="6"/>
+      <c r="AJ1045" s="12"/>
+      <c r="AK1045" s="11"/>
+      <c r="AL1045" s="4"/>
+      <c r="AM1045" s="16"/>
+    </row>
+    <row r="1046" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1046" s="3"/>
+      <c r="AH1046" s="9"/>
+      <c r="AI1046" s="6"/>
+      <c r="AJ1046" s="12"/>
+      <c r="AK1046" s="11"/>
+      <c r="AL1046" s="4"/>
+      <c r="AM1046" s="16"/>
+    </row>
+    <row r="1047" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1047" s="3"/>
+      <c r="AH1047" s="9"/>
+      <c r="AI1047" s="6"/>
+      <c r="AJ1047" s="12"/>
+      <c r="AK1047" s="11"/>
+      <c r="AL1047" s="4"/>
+      <c r="AM1047" s="16"/>
+    </row>
+    <row r="1048" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1048" s="3"/>
+      <c r="AH1048" s="9"/>
+      <c r="AI1048" s="6"/>
+      <c r="AJ1048" s="12"/>
+      <c r="AK1048" s="11"/>
+      <c r="AL1048" s="4"/>
+      <c r="AM1048" s="16"/>
+    </row>
+    <row r="1049" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1049" s="3"/>
+      <c r="AH1049" s="9"/>
+      <c r="AI1049" s="6"/>
+      <c r="AJ1049" s="12"/>
+      <c r="AK1049" s="11"/>
+      <c r="AL1049" s="4"/>
+      <c r="AM1049" s="16"/>
+    </row>
+    <row r="1050" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1050" s="3"/>
+      <c r="AH1050" s="9"/>
+      <c r="AI1050" s="6"/>
+      <c r="AJ1050" s="12"/>
+      <c r="AK1050" s="11"/>
+      <c r="AL1050" s="4"/>
+      <c r="AM1050" s="16"/>
+    </row>
+    <row r="1051" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1051" s="3"/>
+      <c r="AH1051" s="9"/>
+      <c r="AI1051" s="6"/>
+      <c r="AJ1051" s="12"/>
+      <c r="AK1051" s="11"/>
+      <c r="AL1051" s="4"/>
+      <c r="AM1051" s="16"/>
+    </row>
+    <row r="1052" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1052" s="3"/>
+      <c r="AH1052" s="9"/>
+      <c r="AI1052" s="6"/>
+      <c r="AJ1052" s="12"/>
+      <c r="AK1052" s="11"/>
+      <c r="AL1052" s="4"/>
+      <c r="AM1052" s="16"/>
+    </row>
+    <row r="1053" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1053" s="3"/>
+      <c r="AH1053" s="9"/>
+      <c r="AI1053" s="6"/>
+      <c r="AJ1053" s="12"/>
+      <c r="AK1053" s="11"/>
+      <c r="AL1053" s="4"/>
+      <c r="AM1053" s="16"/>
+    </row>
+    <row r="1054" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1054" s="3"/>
+      <c r="AH1054" s="9"/>
+      <c r="AI1054" s="6"/>
+      <c r="AJ1054" s="12"/>
+      <c r="AK1054" s="11"/>
+      <c r="AL1054" s="4"/>
+      <c r="AM1054" s="16"/>
+    </row>
+    <row r="1055" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1055" s="3"/>
+      <c r="AH1055" s="9"/>
+      <c r="AI1055" s="6"/>
+      <c r="AJ1055" s="12"/>
+      <c r="AK1055" s="11"/>
+      <c r="AL1055" s="4"/>
+      <c r="AM1055" s="16"/>
+    </row>
+    <row r="1056" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1056" s="3"/>
+      <c r="AH1056" s="9"/>
+      <c r="AI1056" s="6"/>
+      <c r="AJ1056" s="12"/>
+      <c r="AK1056" s="11"/>
+      <c r="AL1056" s="4"/>
+      <c r="AM1056" s="16"/>
+    </row>
+    <row r="1057" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1057" s="3"/>
+      <c r="AH1057" s="9"/>
+      <c r="AI1057" s="6"/>
+      <c r="AJ1057" s="12"/>
+      <c r="AK1057" s="11"/>
+      <c r="AL1057" s="4"/>
+      <c r="AM1057" s="16"/>
+    </row>
+    <row r="1058" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1058" s="3"/>
+      <c r="AH1058" s="9"/>
+      <c r="AI1058" s="6"/>
+      <c r="AJ1058" s="12"/>
+      <c r="AK1058" s="11"/>
+      <c r="AL1058" s="4"/>
+      <c r="AM1058" s="16"/>
+    </row>
+    <row r="1059" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1059" s="3"/>
+      <c r="AH1059" s="9"/>
+      <c r="AI1059" s="6"/>
+      <c r="AJ1059" s="12"/>
+      <c r="AK1059" s="11"/>
+      <c r="AL1059" s="4"/>
+      <c r="AM1059" s="16"/>
+    </row>
+    <row r="1060" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1060" s="3"/>
+      <c r="AH1060" s="9"/>
+      <c r="AI1060" s="6"/>
+      <c r="AJ1060" s="12"/>
+      <c r="AK1060" s="11"/>
+      <c r="AL1060" s="4"/>
+      <c r="AM1060" s="16"/>
+    </row>
+    <row r="1061" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1061" s="3"/>
+      <c r="AH1061" s="9"/>
+      <c r="AI1061" s="6"/>
+      <c r="AJ1061" s="12"/>
+      <c r="AK1061" s="11"/>
+      <c r="AL1061" s="4"/>
+      <c r="AM1061" s="16"/>
+    </row>
+    <row r="1062" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1062" s="3"/>
+      <c r="AH1062" s="9"/>
+      <c r="AI1062" s="6"/>
+      <c r="AJ1062" s="12"/>
+      <c r="AK1062" s="11"/>
+      <c r="AL1062" s="4"/>
+      <c r="AM1062" s="16"/>
+    </row>
+    <row r="1063" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1063" s="3"/>
+      <c r="AH1063" s="9"/>
+      <c r="AI1063" s="6"/>
+      <c r="AJ1063" s="12"/>
+      <c r="AK1063" s="11"/>
+      <c r="AL1063" s="4"/>
+      <c r="AM1063" s="16"/>
+    </row>
+    <row r="1064" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1064" s="3"/>
+      <c r="AH1064" s="9"/>
+      <c r="AI1064" s="6"/>
+      <c r="AJ1064" s="12"/>
+      <c r="AK1064" s="11"/>
+      <c r="AL1064" s="4"/>
+      <c r="AM1064" s="16"/>
+    </row>
+    <row r="1065" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1065" s="3"/>
+      <c r="AH1065" s="9"/>
+      <c r="AI1065" s="6"/>
+      <c r="AJ1065" s="12"/>
+      <c r="AK1065" s="11"/>
+      <c r="AL1065" s="4"/>
+      <c r="AM1065" s="16"/>
+    </row>
+    <row r="1066" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1066" s="3"/>
+      <c r="AH1066" s="9"/>
+      <c r="AI1066" s="6"/>
+      <c r="AJ1066" s="12"/>
+      <c r="AK1066" s="11"/>
+      <c r="AL1066" s="4"/>
+      <c r="AM1066" s="16"/>
+    </row>
+    <row r="1067" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1067" s="3"/>
+      <c r="AH1067" s="9"/>
+      <c r="AI1067" s="6"/>
+      <c r="AJ1067" s="12"/>
+      <c r="AK1067" s="11"/>
+      <c r="AL1067" s="4"/>
+      <c r="AM1067" s="16"/>
+    </row>
+    <row r="1068" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1068" s="3"/>
+      <c r="AH1068" s="9"/>
+      <c r="AI1068" s="6"/>
+      <c r="AJ1068" s="12"/>
+      <c r="AK1068" s="11"/>
+      <c r="AL1068" s="4"/>
+      <c r="AM1068" s="16"/>
+    </row>
+    <row r="1069" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1069" s="3"/>
+      <c r="AH1069" s="9"/>
+      <c r="AI1069" s="6"/>
+      <c r="AJ1069" s="12"/>
+      <c r="AK1069" s="11"/>
+      <c r="AL1069" s="4"/>
+      <c r="AM1069" s="16"/>
+    </row>
+    <row r="1070" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1070" s="3"/>
+      <c r="AH1070" s="9"/>
+      <c r="AI1070" s="6"/>
+      <c r="AJ1070" s="12"/>
+      <c r="AK1070" s="11"/>
+      <c r="AL1070" s="4"/>
+      <c r="AM1070" s="16"/>
+    </row>
+    <row r="1071" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1071" s="3"/>
+      <c r="AH1071" s="9"/>
+      <c r="AI1071" s="6"/>
+      <c r="AJ1071" s="12"/>
+      <c r="AK1071" s="11"/>
+      <c r="AL1071" s="4"/>
+      <c r="AM1071" s="16"/>
+    </row>
+    <row r="1072" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1072" s="3"/>
+      <c r="AH1072" s="9"/>
+      <c r="AI1072" s="6"/>
+      <c r="AJ1072" s="12"/>
+      <c r="AK1072" s="11"/>
+      <c r="AL1072" s="4"/>
+      <c r="AM1072" s="16"/>
+    </row>
+    <row r="1073" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1073" s="3"/>
+      <c r="AH1073" s="9"/>
+      <c r="AI1073" s="6"/>
+      <c r="AJ1073" s="12"/>
+      <c r="AK1073" s="11"/>
+      <c r="AL1073" s="4"/>
+      <c r="AM1073" s="16"/>
+    </row>
+    <row r="1074" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1074" s="3"/>
+      <c r="AH1074" s="9"/>
+      <c r="AI1074" s="6"/>
+      <c r="AJ1074" s="12"/>
+      <c r="AK1074" s="11"/>
+      <c r="AL1074" s="4"/>
+      <c r="AM1074" s="16"/>
+    </row>
+    <row r="1075" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1075" s="3"/>
+      <c r="AH1075" s="9"/>
+      <c r="AI1075" s="6"/>
+      <c r="AJ1075" s="12"/>
+      <c r="AK1075" s="11"/>
+      <c r="AL1075" s="4"/>
+      <c r="AM1075" s="16"/>
+    </row>
+    <row r="1076" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1076" s="3"/>
+      <c r="AH1076" s="9"/>
+      <c r="AI1076" s="6"/>
+      <c r="AJ1076" s="12"/>
+      <c r="AK1076" s="11"/>
+      <c r="AL1076" s="4"/>
+      <c r="AM1076" s="16"/>
+    </row>
+    <row r="1077" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1077" s="3"/>
+      <c r="AH1077" s="9"/>
+      <c r="AI1077" s="6"/>
+      <c r="AJ1077" s="12"/>
+      <c r="AK1077" s="11"/>
+      <c r="AL1077" s="4"/>
+      <c r="AM1077" s="16"/>
+    </row>
+    <row r="1078" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1078" s="3"/>
+      <c r="AH1078" s="9"/>
+      <c r="AI1078" s="6"/>
+      <c r="AJ1078" s="12"/>
+      <c r="AK1078" s="11"/>
+      <c r="AL1078" s="4"/>
+      <c r="AM1078" s="16"/>
+    </row>
+    <row r="1079" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1079" s="3"/>
+      <c r="AH1079" s="9"/>
+      <c r="AI1079" s="6"/>
+      <c r="AJ1079" s="12"/>
+      <c r="AK1079" s="11"/>
+      <c r="AL1079" s="4"/>
+      <c r="AM1079" s="16"/>
+    </row>
+    <row r="1080" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1080" s="3"/>
+      <c r="AH1080" s="9"/>
+      <c r="AI1080" s="6"/>
+      <c r="AJ1080" s="12"/>
+      <c r="AK1080" s="11"/>
+      <c r="AL1080" s="4"/>
+      <c r="AM1080" s="16"/>
+    </row>
+    <row r="1081" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1081" s="3"/>
+      <c r="AH1081" s="9"/>
+      <c r="AI1081" s="6"/>
+      <c r="AJ1081" s="12"/>
+      <c r="AK1081" s="11"/>
+      <c r="AL1081" s="4"/>
+      <c r="AM1081" s="16"/>
+    </row>
+    <row r="1082" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1082" s="3"/>
+      <c r="AH1082" s="9"/>
+      <c r="AI1082" s="6"/>
+      <c r="AJ1082" s="12"/>
+      <c r="AK1082" s="11"/>
+      <c r="AL1082" s="4"/>
+      <c r="AM1082" s="16"/>
+    </row>
+    <row r="1083" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1083" s="3"/>
+      <c r="AH1083" s="9"/>
+      <c r="AI1083" s="6"/>
+      <c r="AJ1083" s="12"/>
+      <c r="AK1083" s="11"/>
+      <c r="AL1083" s="4"/>
+      <c r="AM1083" s="16"/>
+    </row>
+    <row r="1084" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1084" s="3"/>
+      <c r="AH1084" s="9"/>
+      <c r="AI1084" s="6"/>
+      <c r="AJ1084" s="12"/>
+      <c r="AK1084" s="11"/>
+      <c r="AL1084" s="4"/>
+      <c r="AM1084" s="16"/>
+    </row>
+    <row r="1085" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1085" s="3"/>
+      <c r="AH1085" s="9"/>
+      <c r="AI1085" s="6"/>
+      <c r="AJ1085" s="12"/>
+      <c r="AK1085" s="11"/>
+      <c r="AL1085" s="4"/>
+      <c r="AM1085" s="16"/>
+    </row>
+    <row r="1086" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1086" s="3"/>
+      <c r="AH1086" s="9"/>
+      <c r="AI1086" s="6"/>
+      <c r="AJ1086" s="12"/>
+      <c r="AK1086" s="11"/>
+      <c r="AL1086" s="4"/>
+      <c r="AM1086" s="16"/>
+    </row>
+    <row r="1087" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1087" s="3"/>
+      <c r="AH1087" s="9"/>
+      <c r="AI1087" s="6"/>
+      <c r="AJ1087" s="12"/>
+      <c r="AK1087" s="11"/>
+      <c r="AL1087" s="4"/>
+      <c r="AM1087" s="16"/>
+    </row>
+    <row r="1088" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1088" s="3"/>
+      <c r="AH1088" s="9"/>
+      <c r="AI1088" s="6"/>
+      <c r="AJ1088" s="12"/>
+      <c r="AK1088" s="11"/>
+      <c r="AL1088" s="4"/>
+      <c r="AM1088" s="16"/>
+    </row>
+    <row r="1089" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1089" s="3"/>
+      <c r="AH1089" s="9"/>
+      <c r="AI1089" s="6"/>
+      <c r="AJ1089" s="12"/>
+      <c r="AK1089" s="11"/>
+      <c r="AL1089" s="4"/>
+      <c r="AM1089" s="16"/>
+    </row>
+    <row r="1090" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1090" s="3"/>
+      <c r="AH1090" s="9"/>
+      <c r="AI1090" s="6"/>
+      <c r="AJ1090" s="12"/>
+      <c r="AK1090" s="11"/>
+      <c r="AL1090" s="4"/>
+      <c r="AM1090" s="16"/>
+    </row>
+    <row r="1091" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1091" s="3"/>
+      <c r="AH1091" s="9"/>
+      <c r="AI1091" s="6"/>
+      <c r="AJ1091" s="12"/>
+      <c r="AK1091" s="11"/>
+      <c r="AL1091" s="4"/>
+      <c r="AM1091" s="16"/>
+    </row>
+    <row r="1092" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1092" s="3"/>
+      <c r="AH1092" s="9"/>
+      <c r="AI1092" s="6"/>
+      <c r="AJ1092" s="12"/>
+      <c r="AK1092" s="11"/>
+      <c r="AL1092" s="4"/>
+      <c r="AM1092" s="16"/>
+    </row>
+    <row r="1093" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1093" s="3"/>
+      <c r="AH1093" s="9"/>
+      <c r="AI1093" s="6"/>
+      <c r="AJ1093" s="12"/>
+      <c r="AK1093" s="11"/>
+      <c r="AL1093" s="4"/>
+      <c r="AM1093" s="16"/>
+    </row>
+    <row r="1094" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1094" s="3"/>
+      <c r="AH1094" s="9"/>
+      <c r="AI1094" s="6"/>
+      <c r="AJ1094" s="12"/>
+      <c r="AK1094" s="11"/>
+      <c r="AL1094" s="4"/>
+      <c r="AM1094" s="16"/>
+    </row>
+    <row r="1095" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1095" s="3"/>
+      <c r="AH1095" s="9"/>
+      <c r="AI1095" s="6"/>
+      <c r="AJ1095" s="12"/>
+      <c r="AK1095" s="11"/>
+      <c r="AL1095" s="4"/>
+      <c r="AM1095" s="16"/>
+    </row>
+    <row r="1096" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1096" s="3"/>
+      <c r="AH1096" s="9"/>
+      <c r="AI1096" s="6"/>
+      <c r="AJ1096" s="12"/>
+      <c r="AK1096" s="11"/>
+      <c r="AL1096" s="4"/>
+      <c r="AM1096" s="16"/>
+    </row>
+    <row r="1097" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1097" s="3"/>
+      <c r="AH1097" s="9"/>
+      <c r="AI1097" s="6"/>
+      <c r="AJ1097" s="12"/>
+      <c r="AK1097" s="11"/>
+      <c r="AL1097" s="4"/>
+      <c r="AM1097" s="16"/>
+    </row>
+    <row r="1098" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1098" s="3"/>
+      <c r="AH1098" s="9"/>
+      <c r="AI1098" s="6"/>
+      <c r="AJ1098" s="12"/>
+      <c r="AK1098" s="11"/>
+      <c r="AL1098" s="4"/>
+      <c r="AM1098" s="16"/>
+    </row>
+    <row r="1099" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1099" s="3"/>
+      <c r="AH1099" s="9"/>
+      <c r="AI1099" s="6"/>
+      <c r="AJ1099" s="12"/>
+      <c r="AK1099" s="11"/>
+      <c r="AL1099" s="4"/>
+      <c r="AM1099" s="16"/>
+    </row>
+    <row r="1100" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1100" s="3"/>
+      <c r="AH1100" s="9"/>
+      <c r="AI1100" s="6"/>
+      <c r="AJ1100" s="12"/>
+      <c r="AK1100" s="11"/>
+      <c r="AL1100" s="4"/>
+      <c r="AM1100" s="16"/>
+    </row>
+    <row r="1101" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1101" s="3"/>
+      <c r="AH1101" s="9"/>
+      <c r="AI1101" s="6"/>
+      <c r="AJ1101" s="12"/>
+      <c r="AK1101" s="11"/>
+      <c r="AL1101" s="4"/>
+      <c r="AM1101" s="16"/>
+    </row>
+    <row r="1102" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1102" s="3"/>
+      <c r="AH1102" s="9"/>
+      <c r="AI1102" s="6"/>
+      <c r="AJ1102" s="12"/>
+      <c r="AK1102" s="11"/>
+      <c r="AL1102" s="4"/>
+      <c r="AM1102" s="16"/>
+    </row>
+    <row r="1103" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1103" s="3"/>
+      <c r="AH1103" s="9"/>
+      <c r="AI1103" s="6"/>
+      <c r="AJ1103" s="12"/>
+      <c r="AK1103" s="11"/>
+      <c r="AL1103" s="4"/>
+      <c r="AM1103" s="16"/>
+    </row>
+    <row r="1104" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1104" s="3"/>
+      <c r="AH1104" s="9"/>
+      <c r="AI1104" s="6"/>
+      <c r="AJ1104" s="12"/>
+      <c r="AK1104" s="11"/>
+      <c r="AL1104" s="4"/>
+      <c r="AM1104" s="16"/>
+    </row>
+    <row r="1105" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1105" s="3"/>
+      <c r="AH1105" s="9"/>
+      <c r="AI1105" s="6"/>
+      <c r="AJ1105" s="12"/>
+      <c r="AK1105" s="11"/>
+      <c r="AL1105" s="4"/>
+      <c r="AM1105" s="16"/>
+    </row>
+    <row r="1106" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1106" s="3"/>
+      <c r="AH1106" s="9"/>
+      <c r="AI1106" s="6"/>
+      <c r="AJ1106" s="12"/>
+      <c r="AK1106" s="11"/>
+      <c r="AL1106" s="4"/>
+      <c r="AM1106" s="16"/>
+    </row>
+    <row r="1107" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1107" s="3"/>
+      <c r="AH1107" s="9"/>
+      <c r="AI1107" s="6"/>
+      <c r="AJ1107" s="12"/>
+      <c r="AK1107" s="11"/>
+      <c r="AL1107" s="4"/>
+      <c r="AM1107" s="16"/>
+    </row>
+    <row r="1108" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1108" s="3"/>
+      <c r="AH1108" s="9"/>
+      <c r="AI1108" s="6"/>
+      <c r="AJ1108" s="12"/>
+      <c r="AK1108" s="11"/>
+      <c r="AL1108" s="4"/>
+      <c r="AM1108" s="16"/>
+    </row>
+    <row r="1109" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1109" s="3"/>
+      <c r="AH1109" s="9"/>
+      <c r="AI1109" s="6"/>
+      <c r="AJ1109" s="12"/>
+      <c r="AK1109" s="11"/>
+      <c r="AL1109" s="4"/>
+      <c r="AM1109" s="16"/>
+    </row>
+    <row r="1110" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1110" s="3"/>
+      <c r="AH1110" s="9"/>
+      <c r="AI1110" s="6"/>
+      <c r="AJ1110" s="12"/>
+      <c r="AK1110" s="11"/>
+      <c r="AL1110" s="4"/>
+      <c r="AM1110" s="16"/>
+    </row>
+    <row r="1111" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1111" s="3"/>
+      <c r="AH1111" s="9"/>
+      <c r="AI1111" s="6"/>
+      <c r="AJ1111" s="12"/>
+      <c r="AK1111" s="11"/>
+      <c r="AL1111" s="4"/>
+      <c r="AM1111" s="16"/>
+    </row>
+    <row r="1112" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1112" s="3"/>
+      <c r="AH1112" s="9"/>
+      <c r="AI1112" s="6"/>
+      <c r="AJ1112" s="12"/>
+      <c r="AK1112" s="11"/>
+      <c r="AL1112" s="4"/>
+      <c r="AM1112" s="16"/>
+    </row>
+    <row r="1113" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1113" s="3"/>
+      <c r="AH1113" s="9"/>
+      <c r="AI1113" s="6"/>
+      <c r="AJ1113" s="12"/>
+      <c r="AK1113" s="11"/>
+      <c r="AL1113" s="4"/>
+      <c r="AM1113" s="16"/>
+    </row>
+    <row r="1114" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1114" s="3"/>
+      <c r="AH1114" s="9"/>
+      <c r="AI1114" s="6"/>
+      <c r="AJ1114" s="12"/>
+      <c r="AK1114" s="11"/>
+      <c r="AL1114" s="4"/>
+      <c r="AM1114" s="16"/>
+    </row>
+    <row r="1115" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1115" s="3"/>
+      <c r="AH1115" s="9"/>
+      <c r="AI1115" s="6"/>
+      <c r="AJ1115" s="12"/>
+      <c r="AK1115" s="11"/>
+      <c r="AL1115" s="4"/>
+      <c r="AM1115" s="16"/>
+    </row>
+    <row r="1116" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1116" s="3"/>
+      <c r="AH1116" s="9"/>
+      <c r="AI1116" s="6"/>
+      <c r="AJ1116" s="12"/>
+      <c r="AK1116" s="11"/>
+      <c r="AL1116" s="4"/>
+      <c r="AM1116" s="16"/>
+    </row>
+    <row r="1117" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1117" s="3"/>
+      <c r="AH1117" s="9"/>
+      <c r="AI1117" s="6"/>
+      <c r="AJ1117" s="12"/>
+      <c r="AK1117" s="11"/>
+      <c r="AL1117" s="4"/>
+      <c r="AM1117" s="16"/>
+    </row>
+    <row r="1118" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1118" s="3"/>
+      <c r="AH1118" s="9"/>
+      <c r="AI1118" s="6"/>
+      <c r="AJ1118" s="12"/>
+      <c r="AK1118" s="11"/>
+      <c r="AL1118" s="4"/>
+      <c r="AM1118" s="16"/>
+    </row>
+    <row r="1119" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1119" s="3"/>
+      <c r="AH1119" s="9"/>
+      <c r="AI1119" s="6"/>
+      <c r="AJ1119" s="12"/>
+      <c r="AK1119" s="11"/>
+      <c r="AL1119" s="4"/>
+      <c r="AM1119" s="16"/>
+    </row>
+    <row r="1120" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1120" s="3"/>
+      <c r="AH1120" s="9"/>
+      <c r="AI1120" s="6"/>
+      <c r="AJ1120" s="12"/>
+      <c r="AK1120" s="11"/>
+      <c r="AL1120" s="4"/>
+      <c r="AM1120" s="16"/>
+    </row>
+    <row r="1121" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1121" s="3"/>
+      <c r="AH1121" s="9"/>
+      <c r="AI1121" s="6"/>
+      <c r="AJ1121" s="12"/>
+      <c r="AK1121" s="11"/>
+      <c r="AL1121" s="4"/>
+      <c r="AM1121" s="16"/>
+    </row>
+    <row r="1122" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1122" s="3"/>
+      <c r="AH1122" s="9"/>
+      <c r="AI1122" s="6"/>
+      <c r="AJ1122" s="12"/>
+      <c r="AK1122" s="11"/>
+      <c r="AL1122" s="4"/>
+      <c r="AM1122" s="16"/>
+    </row>
+    <row r="1123" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1123" s="3"/>
+      <c r="AH1123" s="9"/>
+      <c r="AI1123" s="6"/>
+      <c r="AJ1123" s="12"/>
+      <c r="AK1123" s="11"/>
+      <c r="AL1123" s="4"/>
+      <c r="AM1123" s="16"/>
+    </row>
+    <row r="1124" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1124" s="3"/>
+      <c r="AH1124" s="9"/>
+      <c r="AI1124" s="6"/>
+      <c r="AJ1124" s="12"/>
+      <c r="AK1124" s="11"/>
+      <c r="AL1124" s="4"/>
+      <c r="AM1124" s="16"/>
+    </row>
+    <row r="1125" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1125" s="3"/>
+      <c r="AH1125" s="9"/>
+      <c r="AI1125" s="6"/>
+      <c r="AJ1125" s="12"/>
+      <c r="AK1125" s="11"/>
+      <c r="AL1125" s="4"/>
+      <c r="AM1125" s="16"/>
+    </row>
+    <row r="1126" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1126" s="3"/>
+      <c r="AH1126" s="9"/>
+      <c r="AI1126" s="6"/>
+      <c r="AJ1126" s="12"/>
+      <c r="AK1126" s="11"/>
+      <c r="AL1126" s="4"/>
+      <c r="AM1126" s="16"/>
+    </row>
+    <row r="1127" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1127" s="3"/>
+      <c r="AH1127" s="9"/>
+      <c r="AI1127" s="6"/>
+      <c r="AJ1127" s="12"/>
+      <c r="AK1127" s="11"/>
+      <c r="AL1127" s="4"/>
+      <c r="AM1127" s="16"/>
+    </row>
+    <row r="1128" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1128" s="3"/>
+      <c r="AH1128" s="9"/>
+      <c r="AI1128" s="6"/>
+      <c r="AJ1128" s="12"/>
+      <c r="AK1128" s="11"/>
+      <c r="AL1128" s="4"/>
+      <c r="AM1128" s="16"/>
+    </row>
+    <row r="1129" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1129" s="3"/>
+      <c r="AH1129" s="9"/>
+      <c r="AI1129" s="6"/>
+      <c r="AJ1129" s="12"/>
+      <c r="AK1129" s="11"/>
+      <c r="AL1129" s="4"/>
+      <c r="AM1129" s="16"/>
+    </row>
+    <row r="1130" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1130" s="3"/>
+      <c r="AH1130" s="9"/>
+      <c r="AI1130" s="6"/>
+      <c r="AJ1130" s="12"/>
+      <c r="AK1130" s="11"/>
+      <c r="AL1130" s="4"/>
+      <c r="AM1130" s="16"/>
+    </row>
+    <row r="1131" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1131" s="3"/>
+      <c r="AH1131" s="9"/>
+      <c r="AI1131" s="6"/>
+      <c r="AJ1131" s="12"/>
+      <c r="AK1131" s="11"/>
+      <c r="AL1131" s="4"/>
+      <c r="AM1131" s="16"/>
+    </row>
+    <row r="1132" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1132" s="3"/>
+      <c r="AH1132" s="9"/>
+      <c r="AI1132" s="6"/>
+      <c r="AJ1132" s="12"/>
+      <c r="AK1132" s="11"/>
+      <c r="AL1132" s="4"/>
+      <c r="AM1132" s="16"/>
+    </row>
+    <row r="1133" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1133" s="3"/>
+      <c r="AH1133" s="9"/>
+      <c r="AI1133" s="6"/>
+      <c r="AJ1133" s="12"/>
+      <c r="AK1133" s="11"/>
+      <c r="AL1133" s="4"/>
+      <c r="AM1133" s="16"/>
+    </row>
+    <row r="1134" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1134" s="3"/>
+      <c r="AH1134" s="9"/>
+      <c r="AI1134" s="6"/>
+      <c r="AJ1134" s="12"/>
+      <c r="AK1134" s="11"/>
+      <c r="AL1134" s="4"/>
+      <c r="AM1134" s="16"/>
+    </row>
+    <row r="1135" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1135" s="3"/>
+      <c r="AH1135" s="9"/>
+      <c r="AI1135" s="6"/>
+      <c r="AJ1135" s="12"/>
+      <c r="AK1135" s="11"/>
+      <c r="AL1135" s="4"/>
+      <c r="AM1135" s="16"/>
+    </row>
+    <row r="1136" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1136" s="3"/>
+      <c r="AH1136" s="9"/>
+      <c r="AI1136" s="6"/>
+      <c r="AJ1136" s="12"/>
+      <c r="AK1136" s="11"/>
+      <c r="AL1136" s="4"/>
+      <c r="AM1136" s="16"/>
+    </row>
+    <row r="1137" spans="33:39" x14ac:dyDescent="0.25">
+      <c r="AG1137" s="3"/>
+      <c r="AH1137" s="9"/>
+      <c r="AI1137" s="6"/>
+      <c r="AJ1137" s="12"/>
+      <c r="AK1137" s="11"/>
+      <c r="AL1137" s="4"/>
+      <c r="AM1137" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
